--- a/ballots/2013-01 Draft/Comments-FHIR_R1_O2_2013JAN.xlsx
+++ b/ballots/2013-01 Draft/Comments-FHIR_R1_O2_2013JAN.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10699" uniqueCount="2506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10722" uniqueCount="2509">
   <si>
     <t xml:space="preserve">BALLOT TITLE: </t>
   </si>
@@ -10108,6 +10108,15 @@
   </si>
   <si>
     <t>Add what support is required</t>
+  </si>
+  <si>
+    <t>This wording was removed due to another ballot item</t>
+  </si>
+  <si>
+    <t>Mapping</t>
+  </si>
+  <si>
+    <t>x-refs</t>
   </si>
 </sst>
 </file>
@@ -11867,23 +11876,8 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="19" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -11891,14 +11885,14 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -11911,6 +11905,12 @@
     <xf numFmtId="49" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -11936,23 +11936,32 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="19" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -11968,114 +11977,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="42" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -12119,6 +12020,114 @@
     <xf numFmtId="0" fontId="22" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="42" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -12135,9 +12144,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12157,6 +12163,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -12535,20 +12544,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:99" ht="45.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="152"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="148"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="153" t="s">
+      <c r="F1" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="155"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="171"/>
       <c r="K1" s="4"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -12556,12 +12565,12 @@
       <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:99" x14ac:dyDescent="0.2">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="148"/>
       <c r="E2" s="3"/>
       <c r="F2" s="6" t="s">
         <v>3</v>
@@ -12577,20 +12586,20 @@
       <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:99" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="147"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="165"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="156" t="s">
+      <c r="F3" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="158"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="154"/>
       <c r="K3" s="10"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -12598,18 +12607,18 @@
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:99" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="147"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="165"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="150"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="168"/>
       <c r="K4" s="10"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -12617,18 +12626,18 @@
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:99" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="159" t="s">
+      <c r="A5" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="159"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="160"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="158"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="158"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="154"/>
       <c r="K5" s="10"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -12636,18 +12645,18 @@
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:99" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="162"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="160"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="158"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="154"/>
       <c r="K6" s="10"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -12655,18 +12664,18 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="152"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="148"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="165"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="163"/>
       <c r="K7" s="4"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
@@ -12676,18 +12685,18 @@
       <c r="CU7" s="16"/>
     </row>
     <row r="8" spans="1:99" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="151" t="s">
+      <c r="A8" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="151"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="152"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="148"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="169"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="151"/>
       <c r="K8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -12695,18 +12704,18 @@
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:99" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="151" t="s">
+      <c r="A9" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="151"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="152"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="148"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="158"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="154"/>
       <c r="K9" s="18"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
@@ -12714,19 +12723,19 @@
       <c r="P9" s="19"/>
     </row>
     <row r="10" spans="1:99" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="170">
+      <c r="A10" s="155">
         <f>IF(Ov=Setup!C9,Disclaimer2,IF(Ov=Setup!B9,Disclaimer,IF(Ov=Setup!D9,,)))</f>
         <v>0</v>
       </c>
-      <c r="B10" s="170"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
     </row>
     <row r="11" spans="1:99" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F11" s="20" t="s">
@@ -12746,12 +12755,12 @@
       <c r="F21" s="24"/>
     </row>
     <row r="23" spans="6:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
     </row>
     <row r="24" spans="6:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="166"/>
-      <c r="G24" s="166"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F25" s="25"/>
@@ -12759,6 +12768,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:J7"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="F8:J8"/>
@@ -12766,19 +12788,6 @@
     <mergeCell ref="F9:J9"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:J3"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Organization You Represent" prompt="Please put the name of the HL7 member organization you represent if it is different from the name of the organization you are employed by.  " sqref="F6"/>
@@ -12801,13 +12810,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AF711"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O713" sqref="O713"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12983,7 +12993,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="204" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="45">
         <v>1</v>
       </c>
@@ -13063,7 +13073,7 @@
       <c r="AE3" s="58"/>
       <c r="AF3" s="59"/>
     </row>
-    <row r="4" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45">
         <v>2</v>
       </c>
@@ -13143,7 +13153,7 @@
       <c r="AE4" s="58"/>
       <c r="AF4" s="59"/>
     </row>
-    <row r="5" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="45">
         <v>3</v>
       </c>
@@ -13215,7 +13225,7 @@
       <c r="AE5" s="58"/>
       <c r="AF5" s="59"/>
     </row>
-    <row r="6" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="45">
         <v>4</v>
       </c>
@@ -13285,7 +13295,7 @@
       <c r="AE6" s="58"/>
       <c r="AF6" s="59"/>
     </row>
-    <row r="7" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="45">
         <v>5</v>
       </c>
@@ -13357,7 +13367,7 @@
       <c r="AE7" s="58"/>
       <c r="AF7" s="59"/>
     </row>
-    <row r="8" spans="1:32" s="62" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" s="62" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="45">
         <v>6</v>
       </c>
@@ -13429,7 +13439,7 @@
       <c r="AE8" s="58"/>
       <c r="AF8" s="59"/>
     </row>
-    <row r="9" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="45">
         <v>7</v>
       </c>
@@ -13497,7 +13507,7 @@
       <c r="AE9" s="58"/>
       <c r="AF9" s="59"/>
     </row>
-    <row r="10" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="45">
         <v>8</v>
       </c>
@@ -13567,7 +13577,7 @@
       <c r="AE10" s="58"/>
       <c r="AF10" s="59"/>
     </row>
-    <row r="11" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="45">
         <v>9</v>
       </c>
@@ -13709,7 +13719,7 @@
       <c r="AE12" s="58"/>
       <c r="AF12" s="59"/>
     </row>
-    <row r="13" spans="1:32" s="60" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" s="60" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="45">
         <v>11</v>
       </c>
@@ -13751,7 +13761,9 @@
       <c r="Q13" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="R13" s="52"/>
+      <c r="R13" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S13" s="52"/>
       <c r="T13" s="53"/>
       <c r="U13" s="53"/>
@@ -13777,7 +13789,7 @@
       <c r="AE13" s="58"/>
       <c r="AF13" s="59"/>
     </row>
-    <row r="14" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="45">
         <v>12</v>
       </c>
@@ -13849,7 +13861,7 @@
       <c r="AE14" s="58"/>
       <c r="AF14" s="59"/>
     </row>
-    <row r="15" spans="1:32" s="60" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" s="60" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="45">
         <v>13</v>
       </c>
@@ -13921,7 +13933,7 @@
       <c r="AE15" s="58"/>
       <c r="AF15" s="59"/>
     </row>
-    <row r="16" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="45">
         <v>14</v>
       </c>
@@ -13949,13 +13961,15 @@
       <c r="K16" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="L16" s="52"/>
+      <c r="L16" s="52" t="s">
+        <v>1843</v>
+      </c>
       <c r="M16" s="52"/>
       <c r="N16" s="52" t="s">
         <v>80</v>
       </c>
       <c r="O16" s="50" t="s">
-        <v>87</v>
+        <v>2506</v>
       </c>
       <c r="P16" s="52" t="s">
         <v>131</v>
@@ -13963,7 +13977,9 @@
       <c r="Q16" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="R16" s="52"/>
+      <c r="R16" s="52" t="s">
+        <v>292</v>
+      </c>
       <c r="S16" s="52"/>
       <c r="T16" s="53"/>
       <c r="U16" s="53"/>
@@ -13989,7 +14005,7 @@
       <c r="AE16" s="58"/>
       <c r="AF16" s="59"/>
     </row>
-    <row r="17" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="45">
         <v>15</v>
       </c>
@@ -14033,7 +14049,9 @@
       <c r="Q17" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="R17" s="52"/>
+      <c r="R17" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S17" s="52"/>
       <c r="T17" s="53"/>
       <c r="U17" s="53"/>
@@ -14059,7 +14077,7 @@
       <c r="AE17" s="58"/>
       <c r="AF17" s="59"/>
     </row>
-    <row r="18" spans="1:32" s="60" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" s="60" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="45">
         <v>16</v>
       </c>
@@ -14129,7 +14147,7 @@
       <c r="AE18" s="58"/>
       <c r="AF18" s="59"/>
     </row>
-    <row r="19" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="45">
         <v>17</v>
       </c>
@@ -14201,7 +14219,7 @@
       <c r="AE19" s="58"/>
       <c r="AF19" s="59"/>
     </row>
-    <row r="20" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="45">
         <v>18</v>
       </c>
@@ -14273,7 +14291,7 @@
       <c r="AE20" s="58"/>
       <c r="AF20" s="59"/>
     </row>
-    <row r="21" spans="1:32" s="60" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" s="60" customFormat="1" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="45">
         <v>19</v>
       </c>
@@ -14343,7 +14361,7 @@
       <c r="AE21" s="58"/>
       <c r="AF21" s="59"/>
     </row>
-    <row r="22" spans="1:32" s="60" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" s="60" customFormat="1" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="45">
         <v>20</v>
       </c>
@@ -14411,7 +14429,7 @@
       <c r="AE22" s="58"/>
       <c r="AF22" s="59"/>
     </row>
-    <row r="23" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="45">
         <v>21</v>
       </c>
@@ -14481,7 +14499,7 @@
       <c r="AE23" s="58"/>
       <c r="AF23" s="59"/>
     </row>
-    <row r="24" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="45">
         <v>22</v>
       </c>
@@ -14547,7 +14565,7 @@
       <c r="AE24" s="58"/>
       <c r="AF24" s="59"/>
     </row>
-    <row r="25" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="45">
         <v>23</v>
       </c>
@@ -14615,7 +14633,7 @@
       <c r="AE25" s="58"/>
       <c r="AF25" s="59"/>
     </row>
-    <row r="26" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="45">
         <v>24</v>
       </c>
@@ -14685,7 +14703,7 @@
       <c r="AE26" s="58"/>
       <c r="AF26" s="59"/>
     </row>
-    <row r="27" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="45">
         <v>25</v>
       </c>
@@ -14755,7 +14773,7 @@
       <c r="AE27" s="58"/>
       <c r="AF27" s="59"/>
     </row>
-    <row r="28" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="45">
         <v>26</v>
       </c>
@@ -14825,7 +14843,7 @@
       <c r="AE28" s="58"/>
       <c r="AF28" s="59"/>
     </row>
-    <row r="29" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="45">
         <v>27</v>
       </c>
@@ -14895,7 +14913,7 @@
       <c r="AE29" s="58"/>
       <c r="AF29" s="59"/>
     </row>
-    <row r="30" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="45">
         <v>28</v>
       </c>
@@ -14965,7 +14983,7 @@
       <c r="AE30" s="58"/>
       <c r="AF30" s="59"/>
     </row>
-    <row r="31" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="45">
         <v>29</v>
       </c>
@@ -15031,7 +15049,7 @@
       <c r="AE31" s="58"/>
       <c r="AF31" s="59"/>
     </row>
-    <row r="32" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="45">
         <v>30</v>
       </c>
@@ -15101,7 +15119,7 @@
       <c r="AE32" s="58"/>
       <c r="AF32" s="59"/>
     </row>
-    <row r="33" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="45">
         <v>31</v>
       </c>
@@ -15177,7 +15195,7 @@
       <c r="AE33" s="58"/>
       <c r="AF33" s="59"/>
     </row>
-    <row r="34" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="45">
         <v>32</v>
       </c>
@@ -15351,7 +15369,9 @@
       <c r="I36" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="J36" s="50"/>
+      <c r="J36" s="50" t="s">
+        <v>296</v>
+      </c>
       <c r="K36" s="50"/>
       <c r="L36" s="52" t="s">
         <v>55</v>
@@ -15417,7 +15437,9 @@
       <c r="I37" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="J37" s="50"/>
+      <c r="J37" s="50" t="s">
+        <v>2507</v>
+      </c>
       <c r="K37" s="50"/>
       <c r="L37" s="52" t="s">
         <v>55</v>
@@ -15461,7 +15483,7 @@
       <c r="AE37" s="58"/>
       <c r="AF37" s="59"/>
     </row>
-    <row r="38" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="45">
         <v>36</v>
       </c>
@@ -15547,7 +15569,9 @@
       </c>
       <c r="H39" s="49"/>
       <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
+      <c r="J39" s="50" t="s">
+        <v>2507</v>
+      </c>
       <c r="K39" s="50" t="s">
         <v>195</v>
       </c>
@@ -15601,7 +15625,7 @@
       <c r="AE39" s="58"/>
       <c r="AF39" s="59"/>
     </row>
-    <row r="40" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="45">
         <v>38</v>
       </c>
@@ -15667,7 +15691,7 @@
       <c r="AE40" s="58"/>
       <c r="AF40" s="59"/>
     </row>
-    <row r="41" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="45">
         <v>39</v>
       </c>
@@ -15733,7 +15757,7 @@
       <c r="AE41" s="58"/>
       <c r="AF41" s="59"/>
     </row>
-    <row r="42" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="45">
         <v>40</v>
       </c>
@@ -15799,7 +15823,7 @@
       <c r="AE42" s="58"/>
       <c r="AF42" s="59"/>
     </row>
-    <row r="43" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="45">
         <v>41</v>
       </c>
@@ -15869,7 +15893,7 @@
       <c r="AE43" s="58"/>
       <c r="AF43" s="59"/>
     </row>
-    <row r="44" spans="1:32" s="60" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" s="60" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="45">
         <v>42</v>
       </c>
@@ -15949,7 +15973,7 @@
       <c r="AE44" s="58"/>
       <c r="AF44" s="59"/>
     </row>
-    <row r="45" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="45">
         <v>43</v>
       </c>
@@ -16025,7 +16049,7 @@
       <c r="AE45" s="58"/>
       <c r="AF45" s="59"/>
     </row>
-    <row r="46" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="45">
         <v>44</v>
       </c>
@@ -16097,7 +16121,7 @@
       <c r="AE46" s="58"/>
       <c r="AF46" s="59"/>
     </row>
-    <row r="47" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="45">
         <v>45</v>
       </c>
@@ -16165,7 +16189,7 @@
       <c r="AE47" s="58"/>
       <c r="AF47" s="59"/>
     </row>
-    <row r="48" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="45">
         <v>46</v>
       </c>
@@ -16237,7 +16261,7 @@
       <c r="AE48" s="58"/>
       <c r="AF48" s="59"/>
     </row>
-    <row r="49" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="45">
         <v>47</v>
       </c>
@@ -16305,7 +16329,7 @@
       <c r="AE49" s="58"/>
       <c r="AF49" s="59"/>
     </row>
-    <row r="50" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="45">
         <v>48</v>
       </c>
@@ -16377,7 +16401,7 @@
       <c r="AE50" s="58"/>
       <c r="AF50" s="59"/>
     </row>
-    <row r="51" spans="1:32" s="60" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" s="60" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="45">
         <v>49</v>
       </c>
@@ -16525,7 +16549,7 @@
       <c r="AE52" s="58"/>
       <c r="AF52" s="59"/>
     </row>
-    <row r="53" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="45">
         <v>51</v>
       </c>
@@ -16597,7 +16621,7 @@
       <c r="AE53" s="58"/>
       <c r="AF53" s="59"/>
     </row>
-    <row r="54" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="45">
         <v>52</v>
       </c>
@@ -16675,7 +16699,7 @@
       <c r="AE54" s="58"/>
       <c r="AF54" s="59"/>
     </row>
-    <row r="55" spans="1:32" s="60" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" s="60" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="45">
         <v>53</v>
       </c>
@@ -16751,7 +16775,7 @@
       <c r="AE55" s="58"/>
       <c r="AF55" s="59"/>
     </row>
-    <row r="56" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="45">
         <v>54</v>
       </c>
@@ -16885,7 +16909,7 @@
       <c r="AE57" s="58"/>
       <c r="AF57" s="59"/>
     </row>
-    <row r="58" spans="1:32" s="60" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" s="60" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="45">
         <v>56</v>
       </c>
@@ -16961,7 +16985,7 @@
       <c r="AE58" s="58"/>
       <c r="AF58" s="59"/>
     </row>
-    <row r="59" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="45">
         <v>57</v>
       </c>
@@ -17029,7 +17053,7 @@
       <c r="AE59" s="58"/>
       <c r="AF59" s="59"/>
     </row>
-    <row r="60" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="45">
         <v>58</v>
       </c>
@@ -17097,7 +17121,7 @@
       <c r="AE60" s="58"/>
       <c r="AF60" s="59"/>
     </row>
-    <row r="61" spans="1:32" s="60" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" s="60" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="45">
         <v>59</v>
       </c>
@@ -17167,7 +17191,7 @@
       <c r="AE61" s="58"/>
       <c r="AF61" s="59"/>
     </row>
-    <row r="62" spans="1:32" s="60" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" s="60" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="45">
         <v>60</v>
       </c>
@@ -17235,7 +17259,7 @@
       <c r="AE62" s="58"/>
       <c r="AF62" s="59"/>
     </row>
-    <row r="63" spans="1:32" s="60" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" s="60" customFormat="1" ht="165.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="45">
         <v>61</v>
       </c>
@@ -17301,7 +17325,7 @@
       <c r="AE63" s="58"/>
       <c r="AF63" s="59"/>
     </row>
-    <row r="64" spans="1:32" s="60" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" s="60" customFormat="1" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="45">
         <v>62</v>
       </c>
@@ -17363,7 +17387,7 @@
       <c r="AE64" s="58"/>
       <c r="AF64" s="59"/>
     </row>
-    <row r="65" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="45">
         <v>63</v>
       </c>
@@ -17429,7 +17453,7 @@
       <c r="AE65" s="58"/>
       <c r="AF65" s="59"/>
     </row>
-    <row r="66" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="45">
         <v>64</v>
       </c>
@@ -17495,7 +17519,7 @@
       <c r="AE66" s="58"/>
       <c r="AF66" s="59"/>
     </row>
-    <row r="67" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="45">
         <v>65</v>
       </c>
@@ -17563,7 +17587,7 @@
       <c r="AE67" s="58"/>
       <c r="AF67" s="59"/>
     </row>
-    <row r="68" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="45">
         <v>66</v>
       </c>
@@ -17631,7 +17655,7 @@
       <c r="AE68" s="58"/>
       <c r="AF68" s="59"/>
     </row>
-    <row r="69" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="45">
         <v>67</v>
       </c>
@@ -17697,7 +17721,7 @@
       <c r="AE69" s="58"/>
       <c r="AF69" s="59"/>
     </row>
-    <row r="70" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="45">
         <v>68</v>
       </c>
@@ -17765,7 +17789,7 @@
       <c r="AE70" s="58"/>
       <c r="AF70" s="59"/>
     </row>
-    <row r="71" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="45">
         <v>69</v>
       </c>
@@ -17843,7 +17867,7 @@
       <c r="AE71" s="58"/>
       <c r="AF71" s="59"/>
     </row>
-    <row r="72" spans="1:32" s="60" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" s="60" customFormat="1" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="45">
         <v>70</v>
       </c>
@@ -17911,7 +17935,7 @@
       <c r="AE72" s="58"/>
       <c r="AF72" s="59"/>
     </row>
-    <row r="73" spans="1:32" s="60" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32" s="60" customFormat="1" ht="88.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="45">
         <v>71</v>
       </c>
@@ -17979,7 +18003,7 @@
       <c r="AE73" s="58"/>
       <c r="AF73" s="59"/>
     </row>
-    <row r="74" spans="1:32" s="60" customFormat="1" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32" s="60" customFormat="1" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="45">
         <v>72</v>
       </c>
@@ -18055,7 +18079,7 @@
       <c r="AE74" s="58"/>
       <c r="AF74" s="59"/>
     </row>
-    <row r="75" spans="1:32" s="60" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:32" s="60" customFormat="1" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="45">
         <v>73</v>
       </c>
@@ -18123,7 +18147,7 @@
       <c r="AE75" s="58"/>
       <c r="AF75" s="59"/>
     </row>
-    <row r="76" spans="1:32" s="60" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32" s="60" customFormat="1" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="45">
         <v>74</v>
       </c>
@@ -18191,7 +18215,7 @@
       <c r="AE76" s="58"/>
       <c r="AF76" s="59"/>
     </row>
-    <row r="77" spans="1:32" s="60" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:32" s="60" customFormat="1" ht="146.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="45">
         <v>75</v>
       </c>
@@ -18261,7 +18285,7 @@
       <c r="AE77" s="58"/>
       <c r="AF77" s="59"/>
     </row>
-    <row r="78" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="45">
         <v>76</v>
       </c>
@@ -18341,7 +18365,7 @@
       <c r="AE78" s="58"/>
       <c r="AF78" s="59"/>
     </row>
-    <row r="79" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="45">
         <v>77</v>
       </c>
@@ -18413,7 +18437,7 @@
       <c r="AE79" s="58"/>
       <c r="AF79" s="59"/>
     </row>
-    <row r="80" spans="1:32" s="60" customFormat="1" ht="382.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:32" s="60" customFormat="1" ht="382.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="45">
         <v>78</v>
       </c>
@@ -18493,7 +18517,7 @@
       <c r="AE80" s="58"/>
       <c r="AF80" s="59"/>
     </row>
-    <row r="81" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="45">
         <v>79</v>
       </c>
@@ -18561,7 +18585,7 @@
       <c r="AE81" s="58"/>
       <c r="AF81" s="59"/>
     </row>
-    <row r="82" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="45">
         <v>80</v>
       </c>
@@ -18631,7 +18655,7 @@
       <c r="AE82" s="58"/>
       <c r="AF82" s="59"/>
     </row>
-    <row r="83" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="45">
         <v>81</v>
       </c>
@@ -18701,7 +18725,7 @@
       <c r="AE83" s="58"/>
       <c r="AF83" s="59"/>
     </row>
-    <row r="84" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="45">
         <v>82</v>
       </c>
@@ -18773,7 +18797,7 @@
       <c r="AE84" s="58"/>
       <c r="AF84" s="59"/>
     </row>
-    <row r="85" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="45">
         <v>83</v>
       </c>
@@ -18845,7 +18869,7 @@
       <c r="AE85" s="58"/>
       <c r="AF85" s="59"/>
     </row>
-    <row r="86" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="45">
         <v>84</v>
       </c>
@@ -18913,7 +18937,7 @@
       <c r="AE86" s="58"/>
       <c r="AF86" s="59"/>
     </row>
-    <row r="87" spans="1:32" s="60" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:32" s="60" customFormat="1" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="45">
         <v>85</v>
       </c>
@@ -18991,7 +19015,7 @@
       <c r="AE87" s="58"/>
       <c r="AF87" s="59"/>
     </row>
-    <row r="88" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="45">
         <v>86</v>
       </c>
@@ -19063,7 +19087,7 @@
       <c r="AE88" s="58"/>
       <c r="AF88" s="59"/>
     </row>
-    <row r="89" spans="1:32" s="60" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:32" s="60" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="45">
         <v>87</v>
       </c>
@@ -19143,7 +19167,7 @@
       <c r="AE89" s="58"/>
       <c r="AF89" s="59"/>
     </row>
-    <row r="90" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="45">
         <v>88</v>
       </c>
@@ -19211,7 +19235,7 @@
       <c r="AE90" s="58"/>
       <c r="AF90" s="59"/>
     </row>
-    <row r="91" spans="1:32" s="60" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:32" s="60" customFormat="1" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="45">
         <v>89</v>
       </c>
@@ -19279,7 +19303,7 @@
       <c r="AE91" s="58"/>
       <c r="AF91" s="59"/>
     </row>
-    <row r="92" spans="1:32" s="60" customFormat="1" ht="178.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:32" s="60" customFormat="1" ht="178.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="45">
         <v>90</v>
       </c>
@@ -19353,7 +19377,7 @@
       <c r="AE92" s="58"/>
       <c r="AF92" s="59"/>
     </row>
-    <row r="93" spans="1:32" s="60" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:32" s="60" customFormat="1" ht="204" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="45">
         <v>91</v>
       </c>
@@ -19423,7 +19447,7 @@
       <c r="AE93" s="58"/>
       <c r="AF93" s="59"/>
     </row>
-    <row r="94" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="45">
         <v>92</v>
       </c>
@@ -19495,7 +19519,7 @@
       <c r="AE94" s="58"/>
       <c r="AF94" s="59"/>
     </row>
-    <row r="95" spans="1:32" s="60" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:32" s="60" customFormat="1" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="45">
         <v>93</v>
       </c>
@@ -19577,7 +19601,7 @@
       <c r="AE95" s="58"/>
       <c r="AF95" s="59"/>
     </row>
-    <row r="96" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="45">
         <v>94</v>
       </c>
@@ -19649,7 +19673,7 @@
       <c r="AE96" s="58"/>
       <c r="AF96" s="59"/>
     </row>
-    <row r="97" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="45">
         <v>95</v>
       </c>
@@ -19721,7 +19745,7 @@
       <c r="AE97" s="58"/>
       <c r="AF97" s="59"/>
     </row>
-    <row r="98" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="45">
         <v>96</v>
       </c>
@@ -19791,7 +19815,7 @@
       <c r="AE98" s="58"/>
       <c r="AF98" s="59"/>
     </row>
-    <row r="99" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="45">
         <v>97</v>
       </c>
@@ -19861,7 +19885,7 @@
       <c r="AE99" s="58"/>
       <c r="AF99" s="59"/>
     </row>
-    <row r="100" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="45">
         <v>98</v>
       </c>
@@ -20001,7 +20025,7 @@
       <c r="AE101" s="58"/>
       <c r="AF101" s="59"/>
     </row>
-    <row r="102" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="45">
         <v>100</v>
       </c>
@@ -20081,7 +20105,7 @@
       <c r="AE102" s="58"/>
       <c r="AF102" s="59"/>
     </row>
-    <row r="103" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="45">
         <v>101</v>
       </c>
@@ -20151,7 +20175,7 @@
       <c r="AE103" s="58"/>
       <c r="AF103" s="59"/>
     </row>
-    <row r="104" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="45">
         <v>102</v>
       </c>
@@ -20223,7 +20247,7 @@
       <c r="AE104" s="58"/>
       <c r="AF104" s="59"/>
     </row>
-    <row r="105" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="45">
         <v>103</v>
       </c>
@@ -20293,7 +20317,7 @@
       <c r="AE105" s="58"/>
       <c r="AF105" s="59"/>
     </row>
-    <row r="106" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="45">
         <v>104</v>
       </c>
@@ -20365,7 +20389,7 @@
       <c r="AE106" s="58"/>
       <c r="AF106" s="59"/>
     </row>
-    <row r="107" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="45">
         <v>105</v>
       </c>
@@ -20433,7 +20457,7 @@
       <c r="AE107" s="58"/>
       <c r="AF107" s="59"/>
     </row>
-    <row r="108" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="45">
         <v>106</v>
       </c>
@@ -20503,7 +20527,7 @@
       <c r="AE108" s="58"/>
       <c r="AF108" s="59"/>
     </row>
-    <row r="109" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="45">
         <v>107</v>
       </c>
@@ -20575,7 +20599,7 @@
       <c r="AE109" s="58"/>
       <c r="AF109" s="59"/>
     </row>
-    <row r="110" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="45">
         <v>108</v>
       </c>
@@ -20733,7 +20757,9 @@
       <c r="I112" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="J112" s="50"/>
+      <c r="J112" s="50" t="s">
+        <v>2507</v>
+      </c>
       <c r="K112" s="50"/>
       <c r="L112" s="52" t="s">
         <v>55</v>
@@ -20799,7 +20825,9 @@
       <c r="I113" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="J113" s="50"/>
+      <c r="J113" s="50" t="s">
+        <v>2507</v>
+      </c>
       <c r="K113" s="50"/>
       <c r="L113" s="52" t="s">
         <v>55</v>
@@ -20917,7 +20945,7 @@
       <c r="AE114" s="58"/>
       <c r="AF114" s="59"/>
     </row>
-    <row r="115" spans="1:32" s="60" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:32" s="60" customFormat="1" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="45">
         <v>113</v>
       </c>
@@ -20997,7 +21025,7 @@
       <c r="AE115" s="58"/>
       <c r="AF115" s="59"/>
     </row>
-    <row r="116" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="45">
         <v>114</v>
       </c>
@@ -21065,7 +21093,7 @@
       <c r="AE116" s="58"/>
       <c r="AF116" s="59"/>
     </row>
-    <row r="117" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="45">
         <v>115</v>
       </c>
@@ -21137,7 +21165,7 @@
       <c r="AE117" s="58"/>
       <c r="AF117" s="59"/>
     </row>
-    <row r="118" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="45">
         <v>116</v>
       </c>
@@ -21209,7 +21237,7 @@
       <c r="AE118" s="58"/>
       <c r="AF118" s="59"/>
     </row>
-    <row r="119" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="45">
         <v>117</v>
       </c>
@@ -21287,7 +21315,7 @@
       <c r="AE119" s="58"/>
       <c r="AF119" s="59"/>
     </row>
-    <row r="120" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="45">
         <v>118</v>
       </c>
@@ -21359,7 +21387,7 @@
       <c r="AE120" s="58"/>
       <c r="AF120" s="59"/>
     </row>
-    <row r="121" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="45">
         <v>119</v>
       </c>
@@ -21429,7 +21457,7 @@
       <c r="AE121" s="58"/>
       <c r="AF121" s="59"/>
     </row>
-    <row r="122" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="45">
         <v>120</v>
       </c>
@@ -21497,7 +21525,7 @@
       <c r="AE122" s="58"/>
       <c r="AF122" s="59"/>
     </row>
-    <row r="123" spans="1:32" s="60" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:32" s="60" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="45">
         <v>121</v>
       </c>
@@ -21569,7 +21597,7 @@
       <c r="AE123" s="58"/>
       <c r="AF123" s="59"/>
     </row>
-    <row r="124" spans="1:32" s="60" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:32" s="60" customFormat="1" ht="198" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="45">
         <v>122</v>
       </c>
@@ -21635,7 +21663,7 @@
       <c r="AE124" s="58"/>
       <c r="AF124" s="59"/>
     </row>
-    <row r="125" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="45">
         <v>123</v>
       </c>
@@ -21717,7 +21745,7 @@
       <c r="AE125" s="58"/>
       <c r="AF125" s="59"/>
     </row>
-    <row r="126" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="45">
         <v>124</v>
       </c>
@@ -21783,7 +21811,7 @@
       <c r="AE126" s="58"/>
       <c r="AF126" s="59"/>
     </row>
-    <row r="127" spans="1:32" s="60" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:32" s="60" customFormat="1" ht="165.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="45">
         <v>125</v>
       </c>
@@ -21915,7 +21943,7 @@
       <c r="AE128" s="58"/>
       <c r="AF128" s="59"/>
     </row>
-    <row r="129" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="45">
         <v>127</v>
       </c>
@@ -21981,7 +22009,7 @@
       <c r="AE129" s="58"/>
       <c r="AF129" s="59"/>
     </row>
-    <row r="130" spans="1:32" s="60" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:32" s="60" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="45">
         <v>128</v>
       </c>
@@ -22053,7 +22081,7 @@
       <c r="AE130" s="58"/>
       <c r="AF130" s="59"/>
     </row>
-    <row r="131" spans="1:32" s="60" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:32" s="60" customFormat="1" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="45">
         <v>129</v>
       </c>
@@ -22121,7 +22149,7 @@
       <c r="AE131" s="58"/>
       <c r="AF131" s="59"/>
     </row>
-    <row r="132" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="45">
         <v>130</v>
       </c>
@@ -22189,7 +22217,7 @@
       <c r="AE132" s="58"/>
       <c r="AF132" s="59"/>
     </row>
-    <row r="133" spans="1:32" s="60" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:32" s="60" customFormat="1" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="45">
         <v>131</v>
       </c>
@@ -22255,7 +22283,7 @@
       <c r="AE133" s="58"/>
       <c r="AF133" s="59"/>
     </row>
-    <row r="134" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="45">
         <v>132</v>
       </c>
@@ -22325,7 +22353,7 @@
       <c r="AE134" s="58"/>
       <c r="AF134" s="59"/>
     </row>
-    <row r="135" spans="1:32" s="60" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:32" s="60" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="45">
         <v>133</v>
       </c>
@@ -22395,7 +22423,7 @@
       <c r="AE135" s="58"/>
       <c r="AF135" s="59"/>
     </row>
-    <row r="136" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="45">
         <v>134</v>
       </c>
@@ -22467,7 +22495,7 @@
       <c r="AE136" s="58"/>
       <c r="AF136" s="59"/>
     </row>
-    <row r="137" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="45">
         <v>135</v>
       </c>
@@ -22539,7 +22567,7 @@
       <c r="AE137" s="58"/>
       <c r="AF137" s="59"/>
     </row>
-    <row r="138" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="45">
         <v>136</v>
       </c>
@@ -22611,7 +22639,7 @@
       <c r="AE138" s="58"/>
       <c r="AF138" s="59"/>
     </row>
-    <row r="139" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="45">
         <v>137</v>
       </c>
@@ -22683,7 +22711,7 @@
       <c r="AE139" s="58"/>
       <c r="AF139" s="59"/>
     </row>
-    <row r="140" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="45">
         <v>138</v>
       </c>
@@ -22821,7 +22849,7 @@
       <c r="AE141" s="58"/>
       <c r="AF141" s="59"/>
     </row>
-    <row r="142" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="45">
         <v>140</v>
       </c>
@@ -23029,7 +23057,7 @@
       <c r="AE144" s="58"/>
       <c r="AF144" s="59"/>
     </row>
-    <row r="145" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="45">
         <v>143</v>
       </c>
@@ -23099,7 +23127,7 @@
       <c r="AE145" s="58"/>
       <c r="AF145" s="59"/>
     </row>
-    <row r="146" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="45">
         <v>144</v>
       </c>
@@ -23171,7 +23199,7 @@
       <c r="AE146" s="58"/>
       <c r="AF146" s="59"/>
     </row>
-    <row r="147" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="45">
         <v>145</v>
       </c>
@@ -23241,7 +23269,7 @@
       <c r="AE147" s="58"/>
       <c r="AF147" s="59"/>
     </row>
-    <row r="148" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="45">
         <v>146</v>
       </c>
@@ -23307,7 +23335,7 @@
       <c r="AE148" s="58"/>
       <c r="AF148" s="59"/>
     </row>
-    <row r="149" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="45">
         <v>147</v>
       </c>
@@ -23375,7 +23403,7 @@
       <c r="AE149" s="58"/>
       <c r="AF149" s="59"/>
     </row>
-    <row r="150" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="45">
         <v>148</v>
       </c>
@@ -23445,7 +23473,7 @@
       <c r="AE150" s="58"/>
       <c r="AF150" s="59"/>
     </row>
-    <row r="151" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="45">
         <v>149</v>
       </c>
@@ -23525,7 +23553,7 @@
       <c r="AE151" s="58"/>
       <c r="AF151" s="59"/>
     </row>
-    <row r="152" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="45">
         <v>150</v>
       </c>
@@ -23593,7 +23621,7 @@
       <c r="AE152" s="58"/>
       <c r="AF152" s="59"/>
     </row>
-    <row r="153" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="45">
         <v>151</v>
       </c>
@@ -23661,7 +23689,7 @@
       <c r="AE153" s="58"/>
       <c r="AF153" s="59"/>
     </row>
-    <row r="154" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="45">
         <v>152</v>
       </c>
@@ -23739,7 +23767,7 @@
       <c r="AE154" s="58"/>
       <c r="AF154" s="59"/>
     </row>
-    <row r="155" spans="1:32" s="60" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:32" s="60" customFormat="1" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="45">
         <v>153</v>
       </c>
@@ -23815,7 +23843,7 @@
       <c r="AE155" s="58"/>
       <c r="AF155" s="59"/>
     </row>
-    <row r="156" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="45">
         <v>154</v>
       </c>
@@ -23891,7 +23919,7 @@
       <c r="AE156" s="58"/>
       <c r="AF156" s="59"/>
     </row>
-    <row r="157" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="45">
         <v>155</v>
       </c>
@@ -23961,7 +23989,7 @@
       <c r="AE157" s="58"/>
       <c r="AF157" s="59"/>
     </row>
-    <row r="158" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="45">
         <v>156</v>
       </c>
@@ -24031,7 +24059,7 @@
       <c r="AE158" s="58"/>
       <c r="AF158" s="59"/>
     </row>
-    <row r="159" spans="1:32" s="60" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:32" s="60" customFormat="1" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="45">
         <v>157</v>
       </c>
@@ -24101,7 +24129,7 @@
       <c r="AE159" s="58"/>
       <c r="AF159" s="59"/>
     </row>
-    <row r="160" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="45">
         <v>158</v>
       </c>
@@ -24171,7 +24199,7 @@
       <c r="AE160" s="58"/>
       <c r="AF160" s="59"/>
     </row>
-    <row r="161" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="45">
         <v>159</v>
       </c>
@@ -24211,7 +24239,9 @@
       <c r="Q161" s="52" t="s">
         <v>680</v>
       </c>
-      <c r="R161" s="52"/>
+      <c r="R161" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S161" s="52"/>
       <c r="T161" s="53"/>
       <c r="U161" s="53"/>
@@ -24303,7 +24333,7 @@
       <c r="AE162" s="58"/>
       <c r="AF162" s="59"/>
     </row>
-    <row r="163" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="45">
         <v>161</v>
       </c>
@@ -24373,7 +24403,7 @@
       <c r="AE163" s="58"/>
       <c r="AF163" s="59"/>
     </row>
-    <row r="164" spans="1:32" s="60" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:32" s="60" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="45">
         <v>162</v>
       </c>
@@ -24457,7 +24487,7 @@
       <c r="AE164" s="58"/>
       <c r="AF164" s="59"/>
     </row>
-    <row r="165" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="45">
         <v>163</v>
       </c>
@@ -24533,7 +24563,7 @@
       <c r="AE165" s="58"/>
       <c r="AF165" s="59"/>
     </row>
-    <row r="166" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="45">
         <v>164</v>
       </c>
@@ -24611,7 +24641,7 @@
       <c r="AE166" s="58"/>
       <c r="AF166" s="59"/>
     </row>
-    <row r="167" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="45">
         <v>165</v>
       </c>
@@ -24693,7 +24723,7 @@
       <c r="AE167" s="58"/>
       <c r="AF167" s="59"/>
     </row>
-    <row r="168" spans="1:32" s="60" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:32" s="60" customFormat="1" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="45">
         <v>166</v>
       </c>
@@ -24771,7 +24801,7 @@
       <c r="AE168" s="58"/>
       <c r="AF168" s="59"/>
     </row>
-    <row r="169" spans="1:32" s="60" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:32" s="60" customFormat="1" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="45">
         <v>167</v>
       </c>
@@ -24849,7 +24879,7 @@
       <c r="AE169" s="58"/>
       <c r="AF169" s="59"/>
     </row>
-    <row r="170" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="45">
         <v>168</v>
       </c>
@@ -24929,7 +24959,7 @@
       <c r="AE170" s="58"/>
       <c r="AF170" s="59"/>
     </row>
-    <row r="171" spans="1:32" s="60" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:32" s="60" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="45">
         <v>169</v>
       </c>
@@ -25007,7 +25037,7 @@
       <c r="AE171" s="58"/>
       <c r="AF171" s="59"/>
     </row>
-    <row r="172" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="45">
         <v>170</v>
       </c>
@@ -25083,7 +25113,7 @@
       <c r="AE172" s="58"/>
       <c r="AF172" s="59"/>
     </row>
-    <row r="173" spans="1:32" s="60" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:32" s="60" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="45">
         <v>171</v>
       </c>
@@ -25157,7 +25187,7 @@
       <c r="AE173" s="58"/>
       <c r="AF173" s="59"/>
     </row>
-    <row r="174" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="45">
         <v>172</v>
       </c>
@@ -25233,7 +25263,7 @@
       <c r="AE174" s="58"/>
       <c r="AF174" s="59"/>
     </row>
-    <row r="175" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="45">
         <v>173</v>
       </c>
@@ -25309,7 +25339,7 @@
       <c r="AE175" s="58"/>
       <c r="AF175" s="59"/>
     </row>
-    <row r="176" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="45">
         <v>174</v>
       </c>
@@ -25383,7 +25413,7 @@
       <c r="AE176" s="58"/>
       <c r="AF176" s="59"/>
     </row>
-    <row r="177" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="45">
         <v>175</v>
       </c>
@@ -25461,7 +25491,7 @@
       <c r="AE177" s="58"/>
       <c r="AF177" s="59"/>
     </row>
-    <row r="178" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="45">
         <v>176</v>
       </c>
@@ -25539,7 +25569,7 @@
       <c r="AE178" s="58"/>
       <c r="AF178" s="59"/>
     </row>
-    <row r="179" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="45">
         <v>177</v>
       </c>
@@ -25613,7 +25643,7 @@
       <c r="AE179" s="58"/>
       <c r="AF179" s="59"/>
     </row>
-    <row r="180" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="45">
         <v>178</v>
       </c>
@@ -25693,7 +25723,7 @@
       <c r="AE180" s="58"/>
       <c r="AF180" s="59"/>
     </row>
-    <row r="181" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="45">
         <v>179</v>
       </c>
@@ -25775,7 +25805,7 @@
       <c r="AE181" s="58"/>
       <c r="AF181" s="59"/>
     </row>
-    <row r="182" spans="1:32" s="60" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:32" s="60" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="45">
         <v>180</v>
       </c>
@@ -25849,7 +25879,7 @@
       <c r="AE182" s="58"/>
       <c r="AF182" s="59"/>
     </row>
-    <row r="183" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="45">
         <v>181</v>
       </c>
@@ -25925,7 +25955,7 @@
       <c r="AE183" s="58"/>
       <c r="AF183" s="59"/>
     </row>
-    <row r="184" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="45">
         <v>182</v>
       </c>
@@ -25999,7 +26029,7 @@
       <c r="AE184" s="58"/>
       <c r="AF184" s="59"/>
     </row>
-    <row r="185" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="45">
         <v>183</v>
       </c>
@@ -26073,7 +26103,7 @@
       <c r="AE185" s="58"/>
       <c r="AF185" s="59"/>
     </row>
-    <row r="186" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="45">
         <v>184</v>
       </c>
@@ -26147,7 +26177,7 @@
       <c r="AE186" s="58"/>
       <c r="AF186" s="59"/>
     </row>
-    <row r="187" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="45">
         <v>185</v>
       </c>
@@ -26225,7 +26255,7 @@
       <c r="AE187" s="58"/>
       <c r="AF187" s="59"/>
     </row>
-    <row r="188" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="45">
         <v>186</v>
       </c>
@@ -26285,7 +26315,7 @@
       <c r="AE188" s="58"/>
       <c r="AF188" s="59"/>
     </row>
-    <row r="189" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="45">
         <v>187</v>
       </c>
@@ -26345,7 +26375,7 @@
       <c r="AE189" s="58"/>
       <c r="AF189" s="59"/>
     </row>
-    <row r="190" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="45">
         <v>188</v>
       </c>
@@ -26405,7 +26435,7 @@
       <c r="AE190" s="58"/>
       <c r="AF190" s="59"/>
     </row>
-    <row r="191" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="45">
         <v>189</v>
       </c>
@@ -26465,7 +26495,7 @@
       <c r="AE191" s="58"/>
       <c r="AF191" s="59"/>
     </row>
-    <row r="192" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="45">
         <v>190</v>
       </c>
@@ -26525,7 +26555,7 @@
       <c r="AE192" s="58"/>
       <c r="AF192" s="59"/>
     </row>
-    <row r="193" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="45">
         <v>191</v>
       </c>
@@ -26587,7 +26617,7 @@
       <c r="AE193" s="58"/>
       <c r="AF193" s="59"/>
     </row>
-    <row r="194" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="45">
         <v>192</v>
       </c>
@@ -26651,7 +26681,7 @@
       <c r="AE194" s="58"/>
       <c r="AF194" s="59"/>
     </row>
-    <row r="195" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="45">
         <v>193</v>
       </c>
@@ -26715,7 +26745,7 @@
       <c r="AE195" s="58"/>
       <c r="AF195" s="59"/>
     </row>
-    <row r="196" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="45">
         <v>194</v>
       </c>
@@ -26775,7 +26805,7 @@
       <c r="AE196" s="58"/>
       <c r="AF196" s="59"/>
     </row>
-    <row r="197" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="45">
         <v>195</v>
       </c>
@@ -26837,7 +26867,7 @@
       <c r="AE197" s="58"/>
       <c r="AF197" s="59"/>
     </row>
-    <row r="198" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="45">
         <v>196</v>
       </c>
@@ -26907,7 +26937,7 @@
       <c r="AE198" s="58"/>
       <c r="AF198" s="59"/>
     </row>
-    <row r="199" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="45">
         <v>197</v>
       </c>
@@ -26971,7 +27001,7 @@
       <c r="AE199" s="58"/>
       <c r="AF199" s="59"/>
     </row>
-    <row r="200" spans="1:32" s="60" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:32" s="60" customFormat="1" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="45">
         <v>198</v>
       </c>
@@ -27053,7 +27083,7 @@
       <c r="AE200" s="58"/>
       <c r="AF200" s="59"/>
     </row>
-    <row r="201" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="45">
         <v>199</v>
       </c>
@@ -27115,7 +27145,7 @@
       <c r="AE201" s="58"/>
       <c r="AF201" s="59"/>
     </row>
-    <row r="202" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="45">
         <v>200</v>
       </c>
@@ -27177,7 +27207,7 @@
       <c r="AE202" s="58"/>
       <c r="AF202" s="59"/>
     </row>
-    <row r="203" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="45">
         <v>201</v>
       </c>
@@ -27241,7 +27271,7 @@
       <c r="AE203" s="58"/>
       <c r="AF203" s="59"/>
     </row>
-    <row r="204" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="45">
         <v>202</v>
       </c>
@@ -27303,7 +27333,7 @@
       <c r="AE204" s="58"/>
       <c r="AF204" s="59"/>
     </row>
-    <row r="205" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="45">
         <v>203</v>
       </c>
@@ -27365,7 +27395,7 @@
       <c r="AE205" s="58"/>
       <c r="AF205" s="59"/>
     </row>
-    <row r="206" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="45">
         <v>204</v>
       </c>
@@ -27425,7 +27455,7 @@
       <c r="AE206" s="58"/>
       <c r="AF206" s="59"/>
     </row>
-    <row r="207" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="45">
         <v>205</v>
       </c>
@@ -27495,7 +27525,7 @@
       <c r="AE207" s="58"/>
       <c r="AF207" s="59"/>
     </row>
-    <row r="208" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="45">
         <v>206</v>
       </c>
@@ -27557,7 +27587,7 @@
       <c r="AE208" s="58"/>
       <c r="AF208" s="59"/>
     </row>
-    <row r="209" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="45">
         <v>207</v>
       </c>
@@ -27621,7 +27651,7 @@
       <c r="AE209" s="58"/>
       <c r="AF209" s="59"/>
     </row>
-    <row r="210" spans="1:32" s="60" customFormat="1" ht="267.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:32" s="60" customFormat="1" ht="267.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="45">
         <v>208</v>
       </c>
@@ -27701,7 +27731,7 @@
       <c r="AE210" s="58"/>
       <c r="AF210" s="59"/>
     </row>
-    <row r="211" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="45">
         <v>209</v>
       </c>
@@ -27765,7 +27795,7 @@
       <c r="AE211" s="58"/>
       <c r="AF211" s="59"/>
     </row>
-    <row r="212" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="45">
         <v>210</v>
       </c>
@@ -27831,7 +27861,7 @@
       <c r="AE212" s="58"/>
       <c r="AF212" s="59"/>
     </row>
-    <row r="213" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="45">
         <v>211</v>
       </c>
@@ -27893,7 +27923,7 @@
       <c r="AE213" s="58"/>
       <c r="AF213" s="59"/>
     </row>
-    <row r="214" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="45">
         <v>212</v>
       </c>
@@ -27955,7 +27985,7 @@
       <c r="AE214" s="58"/>
       <c r="AF214" s="59"/>
     </row>
-    <row r="215" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="45">
         <v>213</v>
       </c>
@@ -28021,7 +28051,7 @@
       <c r="AE215" s="58"/>
       <c r="AF215" s="59"/>
     </row>
-    <row r="216" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="45">
         <v>214</v>
       </c>
@@ -28087,7 +28117,7 @@
       <c r="AE216" s="58"/>
       <c r="AF216" s="59"/>
     </row>
-    <row r="217" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="45">
         <v>215</v>
       </c>
@@ -28149,7 +28179,7 @@
       <c r="AE217" s="58"/>
       <c r="AF217" s="59"/>
     </row>
-    <row r="218" spans="1:32" s="60" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:32" s="60" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="45">
         <v>216</v>
       </c>
@@ -28233,7 +28263,7 @@
       <c r="AE218" s="58"/>
       <c r="AF218" s="59"/>
     </row>
-    <row r="219" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="45">
         <v>217</v>
       </c>
@@ -28295,7 +28325,7 @@
       <c r="AE219" s="58"/>
       <c r="AF219" s="59"/>
     </row>
-    <row r="220" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="45">
         <v>218</v>
       </c>
@@ -28361,7 +28391,7 @@
       <c r="AE220" s="58"/>
       <c r="AF220" s="59"/>
     </row>
-    <row r="221" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="45">
         <v>219</v>
       </c>
@@ -28423,7 +28453,7 @@
       <c r="AE221" s="58"/>
       <c r="AF221" s="59"/>
     </row>
-    <row r="222" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="45">
         <v>220</v>
       </c>
@@ -28489,7 +28519,7 @@
       <c r="AE222" s="58"/>
       <c r="AF222" s="59"/>
     </row>
-    <row r="223" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="45">
         <v>221</v>
       </c>
@@ -28555,7 +28585,7 @@
       <c r="AE223" s="58"/>
       <c r="AF223" s="59"/>
     </row>
-    <row r="224" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="45">
         <v>222</v>
       </c>
@@ -28617,7 +28647,7 @@
       <c r="AE224" s="58"/>
       <c r="AF224" s="59"/>
     </row>
-    <row r="225" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="45">
         <v>223</v>
       </c>
@@ -28677,7 +28707,7 @@
       <c r="AE225" s="58"/>
       <c r="AF225" s="59"/>
     </row>
-    <row r="226" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="45">
         <v>224</v>
       </c>
@@ -28745,7 +28775,7 @@
       <c r="AE226" s="58"/>
       <c r="AF226" s="59"/>
     </row>
-    <row r="227" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="45">
         <v>225</v>
       </c>
@@ -28807,7 +28837,7 @@
       <c r="AE227" s="58"/>
       <c r="AF227" s="59"/>
     </row>
-    <row r="228" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="45">
         <v>226</v>
       </c>
@@ -28869,7 +28899,7 @@
       <c r="AE228" s="58"/>
       <c r="AF228" s="59"/>
     </row>
-    <row r="229" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="45">
         <v>227</v>
       </c>
@@ -28931,7 +28961,7 @@
       <c r="AE229" s="58"/>
       <c r="AF229" s="59"/>
     </row>
-    <row r="230" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="64">
         <v>228</v>
       </c>
@@ -28997,7 +29027,7 @@
       <c r="AE230" s="58"/>
       <c r="AF230" s="59"/>
     </row>
-    <row r="231" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="64">
         <v>229</v>
       </c>
@@ -29059,7 +29089,7 @@
       <c r="AE231" s="58"/>
       <c r="AF231" s="59"/>
     </row>
-    <row r="232" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="64">
         <v>230</v>
       </c>
@@ -29119,7 +29149,7 @@
       <c r="AE232" s="58"/>
       <c r="AF232" s="59"/>
     </row>
-    <row r="233" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="64">
         <v>231</v>
       </c>
@@ -29179,7 +29209,7 @@
       <c r="AE233" s="58"/>
       <c r="AF233" s="59"/>
     </row>
-    <row r="234" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="64">
         <v>232</v>
       </c>
@@ -29249,7 +29279,7 @@
       <c r="AE234" s="58"/>
       <c r="AF234" s="59"/>
     </row>
-    <row r="235" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="64">
         <v>233</v>
       </c>
@@ -29309,7 +29339,7 @@
       <c r="AE235" s="58"/>
       <c r="AF235" s="59"/>
     </row>
-    <row r="236" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="64">
         <v>234</v>
       </c>
@@ -29369,7 +29399,7 @@
       <c r="AE236" s="58"/>
       <c r="AF236" s="59"/>
     </row>
-    <row r="237" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="64">
         <v>235</v>
       </c>
@@ -29431,7 +29461,7 @@
       <c r="AE237" s="58"/>
       <c r="AF237" s="59"/>
     </row>
-    <row r="238" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="64">
         <v>236</v>
       </c>
@@ -29493,7 +29523,7 @@
       <c r="AE238" s="58"/>
       <c r="AF238" s="59"/>
     </row>
-    <row r="239" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="64">
         <v>237</v>
       </c>
@@ -29553,7 +29583,7 @@
       <c r="AE239" s="58"/>
       <c r="AF239" s="59"/>
     </row>
-    <row r="240" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="64">
         <v>238</v>
       </c>
@@ -29619,7 +29649,7 @@
       <c r="AE240" s="58"/>
       <c r="AF240" s="59"/>
     </row>
-    <row r="241" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="64">
         <v>239</v>
       </c>
@@ -29679,7 +29709,7 @@
       <c r="AE241" s="58"/>
       <c r="AF241" s="59"/>
     </row>
-    <row r="242" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="64">
         <v>240</v>
       </c>
@@ -29739,7 +29769,7 @@
       <c r="AE242" s="58"/>
       <c r="AF242" s="59"/>
     </row>
-    <row r="243" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="64">
         <v>241</v>
       </c>
@@ -29801,7 +29831,7 @@
       <c r="AE243" s="58"/>
       <c r="AF243" s="59"/>
     </row>
-    <row r="244" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="64">
         <v>242</v>
       </c>
@@ -29861,7 +29891,7 @@
       <c r="AE244" s="58"/>
       <c r="AF244" s="59"/>
     </row>
-    <row r="245" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="64">
         <v>243</v>
       </c>
@@ -29927,7 +29957,7 @@
       <c r="AE245" s="58"/>
       <c r="AF245" s="59"/>
     </row>
-    <row r="246" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="64">
         <v>244</v>
       </c>
@@ -29995,7 +30025,7 @@
       <c r="AE246" s="58"/>
       <c r="AF246" s="59"/>
     </row>
-    <row r="247" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="64">
         <v>245</v>
       </c>
@@ -30061,7 +30091,7 @@
       <c r="AE247" s="58"/>
       <c r="AF247" s="59"/>
     </row>
-    <row r="248" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="64">
         <v>246</v>
       </c>
@@ -30127,7 +30157,7 @@
       <c r="AE248" s="58"/>
       <c r="AF248" s="59"/>
     </row>
-    <row r="249" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="64">
         <v>247</v>
       </c>
@@ -30193,7 +30223,7 @@
       <c r="AE249" s="58"/>
       <c r="AF249" s="59"/>
     </row>
-    <row r="250" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="64">
         <v>248</v>
       </c>
@@ -30269,7 +30299,7 @@
       <c r="AE250" s="58"/>
       <c r="AF250" s="59"/>
     </row>
-    <row r="251" spans="1:32" ht="178.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:32" ht="178.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="64">
         <v>249</v>
       </c>
@@ -30339,7 +30369,7 @@
       <c r="AE251" s="58"/>
       <c r="AF251" s="59"/>
     </row>
-    <row r="252" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="64">
         <v>250</v>
       </c>
@@ -30409,7 +30439,7 @@
       <c r="AE252" s="58"/>
       <c r="AF252" s="59"/>
     </row>
-    <row r="253" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="64">
         <v>251</v>
       </c>
@@ -30477,7 +30507,7 @@
       <c r="AE253" s="58"/>
       <c r="AF253" s="59"/>
     </row>
-    <row r="254" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="64">
         <v>252</v>
       </c>
@@ -30549,7 +30579,7 @@
       <c r="AE254" s="58"/>
       <c r="AF254" s="59"/>
     </row>
-    <row r="255" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="64">
         <v>253</v>
       </c>
@@ -30615,7 +30645,7 @@
       <c r="AE255" s="58"/>
       <c r="AF255" s="59"/>
     </row>
-    <row r="256" spans="1:32" ht="229.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:32" ht="229.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="64">
         <v>254</v>
       </c>
@@ -30683,7 +30713,7 @@
       <c r="AE256" s="58"/>
       <c r="AF256" s="59"/>
     </row>
-    <row r="257" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="64">
         <v>255</v>
       </c>
@@ -30751,7 +30781,7 @@
       <c r="AE257" s="58"/>
       <c r="AF257" s="59"/>
     </row>
-    <row r="258" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="64">
         <v>256</v>
       </c>
@@ -30827,7 +30857,7 @@
       <c r="AE258" s="58"/>
       <c r="AF258" s="59"/>
     </row>
-    <row r="259" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="64">
         <v>257</v>
       </c>
@@ -30891,7 +30921,7 @@
       <c r="AE259" s="58"/>
       <c r="AF259" s="59"/>
     </row>
-    <row r="260" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="64">
         <v>258</v>
       </c>
@@ -30967,7 +30997,7 @@
       <c r="AE260" s="58"/>
       <c r="AF260" s="59"/>
     </row>
-    <row r="261" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="64">
         <v>259</v>
       </c>
@@ -31033,7 +31063,7 @@
       <c r="AE261" s="58"/>
       <c r="AF261" s="59"/>
     </row>
-    <row r="262" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="64">
         <v>260</v>
       </c>
@@ -31099,7 +31129,7 @@
       <c r="AE262" s="58"/>
       <c r="AF262" s="59"/>
     </row>
-    <row r="263" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="64">
         <v>261</v>
       </c>
@@ -31171,7 +31201,7 @@
       <c r="AE263" s="58"/>
       <c r="AF263" s="59"/>
     </row>
-    <row r="264" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="64">
         <v>262</v>
       </c>
@@ -31239,7 +31269,7 @@
       <c r="AE264" s="58"/>
       <c r="AF264" s="59"/>
     </row>
-    <row r="265" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="64">
         <v>263</v>
       </c>
@@ -31307,7 +31337,7 @@
       <c r="AE265" s="58"/>
       <c r="AF265" s="59"/>
     </row>
-    <row r="266" spans="1:32" ht="283.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:32" ht="283.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="64">
         <v>264</v>
       </c>
@@ -31569,7 +31599,7 @@
       <c r="AE269" s="58"/>
       <c r="AF269" s="59"/>
     </row>
-    <row r="270" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="64">
         <v>268</v>
       </c>
@@ -33067,7 +33097,7 @@
       <c r="AE292" s="58"/>
       <c r="AF292" s="59"/>
     </row>
-    <row r="293" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="64">
         <v>291</v>
       </c>
@@ -33129,7 +33159,7 @@
       <c r="AE293" s="58"/>
       <c r="AF293" s="59"/>
     </row>
-    <row r="294" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="64">
         <v>292</v>
       </c>
@@ -33723,7 +33753,7 @@
       <c r="AE302" s="58"/>
       <c r="AF302" s="59"/>
     </row>
-    <row r="303" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="64">
         <v>301</v>
       </c>
@@ -33791,7 +33821,7 @@
       <c r="AE303" s="58"/>
       <c r="AF303" s="59"/>
     </row>
-    <row r="304" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="64">
         <v>302</v>
       </c>
@@ -33857,7 +33887,7 @@
       <c r="AE304" s="58"/>
       <c r="AF304" s="59"/>
     </row>
-    <row r="305" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="64">
         <v>303</v>
       </c>
@@ -33921,7 +33951,7 @@
       <c r="AE305" s="58"/>
       <c r="AF305" s="59"/>
     </row>
-    <row r="306" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="64">
         <v>304</v>
       </c>
@@ -33991,7 +34021,7 @@
       <c r="AE306" s="58"/>
       <c r="AF306" s="59"/>
     </row>
-    <row r="307" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="64">
         <v>305</v>
       </c>
@@ -34057,7 +34087,7 @@
       <c r="AE307" s="58"/>
       <c r="AF307" s="59"/>
     </row>
-    <row r="308" spans="1:32" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:32" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="64">
         <v>306</v>
       </c>
@@ -34121,7 +34151,7 @@
       <c r="AE308" s="58"/>
       <c r="AF308" s="59"/>
     </row>
-    <row r="309" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="64">
         <v>307</v>
       </c>
@@ -34191,7 +34221,7 @@
       <c r="AE309" s="58"/>
       <c r="AF309" s="59"/>
     </row>
-    <row r="310" spans="1:32" ht="229.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:32" ht="229.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="64">
         <v>308</v>
       </c>
@@ -34251,7 +34281,7 @@
       <c r="AE310" s="58"/>
       <c r="AF310" s="59"/>
     </row>
-    <row r="311" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="64">
         <v>309</v>
       </c>
@@ -34313,7 +34343,7 @@
       <c r="AE311" s="58"/>
       <c r="AF311" s="59"/>
     </row>
-    <row r="312" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="64">
         <v>310</v>
       </c>
@@ -34379,7 +34409,7 @@
       <c r="AE312" s="58"/>
       <c r="AF312" s="59"/>
     </row>
-    <row r="313" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="64">
         <v>311</v>
       </c>
@@ -34445,7 +34475,7 @@
       <c r="AE313" s="58"/>
       <c r="AF313" s="59"/>
     </row>
-    <row r="314" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="64">
         <v>312</v>
       </c>
@@ -34513,7 +34543,7 @@
       <c r="AE314" s="58"/>
       <c r="AF314" s="59"/>
     </row>
-    <row r="315" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="64">
         <v>313</v>
       </c>
@@ -34575,7 +34605,7 @@
       <c r="AE315" s="58"/>
       <c r="AF315" s="59"/>
     </row>
-    <row r="316" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="64">
         <v>314</v>
       </c>
@@ -34645,7 +34675,7 @@
       <c r="AE316" s="58"/>
       <c r="AF316" s="59"/>
     </row>
-    <row r="317" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="64">
         <v>315</v>
       </c>
@@ -34715,7 +34745,7 @@
       <c r="AE317" s="58"/>
       <c r="AF317" s="59"/>
     </row>
-    <row r="318" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="64">
         <v>316</v>
       </c>
@@ -34781,7 +34811,7 @@
       <c r="AE318" s="58"/>
       <c r="AF318" s="59"/>
     </row>
-    <row r="319" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="64">
         <v>317</v>
       </c>
@@ -34853,7 +34883,7 @@
       <c r="AE319" s="58"/>
       <c r="AF319" s="59"/>
     </row>
-    <row r="320" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="64">
         <v>318</v>
       </c>
@@ -34915,7 +34945,7 @@
       <c r="AE320" s="58"/>
       <c r="AF320" s="59"/>
     </row>
-    <row r="321" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="64">
         <v>319</v>
       </c>
@@ -34977,7 +35007,7 @@
       <c r="AE321" s="58"/>
       <c r="AF321" s="59"/>
     </row>
-    <row r="322" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="64">
         <v>320</v>
       </c>
@@ -35041,7 +35071,7 @@
       <c r="AE322" s="58"/>
       <c r="AF322" s="59"/>
     </row>
-    <row r="323" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="64">
         <v>321</v>
       </c>
@@ -35103,7 +35133,7 @@
       <c r="AE323" s="58"/>
       <c r="AF323" s="59"/>
     </row>
-    <row r="324" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="64">
         <v>322</v>
       </c>
@@ -35237,7 +35267,7 @@
       <c r="AE325" s="58"/>
       <c r="AF325" s="59"/>
     </row>
-    <row r="326" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="64">
         <v>324</v>
       </c>
@@ -35299,7 +35329,7 @@
       <c r="AE326" s="58"/>
       <c r="AF326" s="59"/>
     </row>
-    <row r="327" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="64">
         <v>325</v>
       </c>
@@ -35367,7 +35397,7 @@
       <c r="AE327" s="58"/>
       <c r="AF327" s="59"/>
     </row>
-    <row r="328" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="64">
         <v>326</v>
       </c>
@@ -35429,7 +35459,7 @@
       <c r="AE328" s="58"/>
       <c r="AF328" s="59"/>
     </row>
-    <row r="329" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="64">
         <v>327</v>
       </c>
@@ -35497,7 +35527,7 @@
       <c r="AE329" s="58"/>
       <c r="AF329" s="59"/>
     </row>
-    <row r="330" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="64">
         <v>328</v>
       </c>
@@ -35563,7 +35593,7 @@
       <c r="AE330" s="58"/>
       <c r="AF330" s="59"/>
     </row>
-    <row r="331" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="64">
         <v>329</v>
       </c>
@@ -35631,7 +35661,7 @@
       <c r="AE331" s="58"/>
       <c r="AF331" s="59"/>
     </row>
-    <row r="332" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="64">
         <v>330</v>
       </c>
@@ -35701,7 +35731,7 @@
       <c r="AE332" s="58"/>
       <c r="AF332" s="59"/>
     </row>
-    <row r="333" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="64">
         <v>331</v>
       </c>
@@ -35771,7 +35801,7 @@
       <c r="AE333" s="58"/>
       <c r="AF333" s="59"/>
     </row>
-    <row r="334" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="64">
         <v>332</v>
       </c>
@@ -35841,7 +35871,7 @@
       <c r="AE334" s="58"/>
       <c r="AF334" s="59"/>
     </row>
-    <row r="335" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="64">
         <v>333</v>
       </c>
@@ -35907,7 +35937,7 @@
       <c r="AE335" s="58"/>
       <c r="AF335" s="59"/>
     </row>
-    <row r="336" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="64">
         <v>334</v>
       </c>
@@ -35977,7 +36007,7 @@
       <c r="AE336" s="58"/>
       <c r="AF336" s="59"/>
     </row>
-    <row r="337" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="64">
         <v>335</v>
       </c>
@@ -36039,7 +36069,7 @@
       <c r="AE337" s="58"/>
       <c r="AF337" s="59"/>
     </row>
-    <row r="338" spans="1:32" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:32" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="64">
         <v>336</v>
       </c>
@@ -36105,7 +36135,7 @@
       <c r="AE338" s="58"/>
       <c r="AF338" s="59"/>
     </row>
-    <row r="339" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="64">
         <v>337</v>
       </c>
@@ -36171,7 +36201,7 @@
       <c r="AE339" s="58"/>
       <c r="AF339" s="59"/>
     </row>
-    <row r="340" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="64">
         <v>338</v>
       </c>
@@ -36233,7 +36263,7 @@
       <c r="AE340" s="58"/>
       <c r="AF340" s="59"/>
     </row>
-    <row r="341" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="64">
         <v>339</v>
       </c>
@@ -36293,7 +36323,7 @@
       <c r="AE341" s="58"/>
       <c r="AF341" s="59"/>
     </row>
-    <row r="342" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="64">
         <v>340</v>
       </c>
@@ -36359,7 +36389,7 @@
       <c r="AE342" s="58"/>
       <c r="AF342" s="59"/>
     </row>
-    <row r="343" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="64">
         <v>341</v>
       </c>
@@ -36425,7 +36455,7 @@
       <c r="AE343" s="58"/>
       <c r="AF343" s="59"/>
     </row>
-    <row r="344" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="64">
         <v>342</v>
       </c>
@@ -36487,7 +36517,7 @@
       <c r="AE344" s="58"/>
       <c r="AF344" s="59"/>
     </row>
-    <row r="345" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="64">
         <v>343</v>
       </c>
@@ -36553,7 +36583,7 @@
       <c r="AE345" s="58"/>
       <c r="AF345" s="59"/>
     </row>
-    <row r="346" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="64">
         <v>344</v>
       </c>
@@ -36619,7 +36649,7 @@
       <c r="AE346" s="58"/>
       <c r="AF346" s="59"/>
     </row>
-    <row r="347" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="64">
         <v>345</v>
       </c>
@@ -36685,7 +36715,7 @@
       <c r="AE347" s="58"/>
       <c r="AF347" s="59"/>
     </row>
-    <row r="348" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="64">
         <v>346</v>
       </c>
@@ -36749,7 +36779,7 @@
       <c r="AE348" s="58"/>
       <c r="AF348" s="59"/>
     </row>
-    <row r="349" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="64">
         <v>347</v>
       </c>
@@ -36809,7 +36839,7 @@
       <c r="AE349" s="58"/>
       <c r="AF349" s="59"/>
     </row>
-    <row r="350" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="64">
         <v>348</v>
       </c>
@@ -36869,7 +36899,7 @@
       <c r="AE350" s="58"/>
       <c r="AF350" s="59"/>
     </row>
-    <row r="351" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="64">
         <v>349</v>
       </c>
@@ -36929,7 +36959,7 @@
       <c r="AE351" s="58"/>
       <c r="AF351" s="59"/>
     </row>
-    <row r="352" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="64">
         <v>350</v>
       </c>
@@ -36989,7 +37019,7 @@
       <c r="AE352" s="58"/>
       <c r="AF352" s="59"/>
     </row>
-    <row r="353" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="64">
         <v>351</v>
       </c>
@@ -37049,7 +37079,7 @@
       <c r="AE353" s="58"/>
       <c r="AF353" s="59"/>
     </row>
-    <row r="354" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="64">
         <v>352</v>
       </c>
@@ -37109,7 +37139,7 @@
       <c r="AE354" s="58"/>
       <c r="AF354" s="59"/>
     </row>
-    <row r="355" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="64">
         <v>353</v>
       </c>
@@ -37171,7 +37201,7 @@
       <c r="AE355" s="58"/>
       <c r="AF355" s="59"/>
     </row>
-    <row r="356" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="64">
         <v>354</v>
       </c>
@@ -37235,7 +37265,7 @@
       <c r="AE356" s="58"/>
       <c r="AF356" s="59"/>
     </row>
-    <row r="357" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="64">
         <v>355</v>
       </c>
@@ -37299,7 +37329,7 @@
       <c r="AE357" s="58"/>
       <c r="AF357" s="59"/>
     </row>
-    <row r="358" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="64">
         <v>356</v>
       </c>
@@ -37359,7 +37389,7 @@
       <c r="AE358" s="58"/>
       <c r="AF358" s="59"/>
     </row>
-    <row r="359" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="64">
         <v>357</v>
       </c>
@@ -37419,7 +37449,7 @@
       <c r="AE359" s="58"/>
       <c r="AF359" s="59"/>
     </row>
-    <row r="360" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="64">
         <v>358</v>
       </c>
@@ -37479,7 +37509,7 @@
       <c r="AE360" s="58"/>
       <c r="AF360" s="59"/>
     </row>
-    <row r="361" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="64">
         <v>359</v>
       </c>
@@ -37539,7 +37569,7 @@
       <c r="AE361" s="58"/>
       <c r="AF361" s="59"/>
     </row>
-    <row r="362" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="64">
         <v>360</v>
       </c>
@@ -37599,7 +37629,7 @@
       <c r="AE362" s="58"/>
       <c r="AF362" s="59"/>
     </row>
-    <row r="363" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="64">
         <v>361</v>
       </c>
@@ -37681,7 +37711,7 @@
       <c r="AE363" s="58"/>
       <c r="AF363" s="59"/>
     </row>
-    <row r="364" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="64">
         <v>362</v>
       </c>
@@ -37763,7 +37793,7 @@
       <c r="AE364" s="58"/>
       <c r="AF364" s="59"/>
     </row>
-    <row r="365" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="64">
         <v>363</v>
       </c>
@@ -37833,7 +37863,7 @@
       <c r="AE365" s="58"/>
       <c r="AF365" s="59"/>
     </row>
-    <row r="366" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="64">
         <v>364</v>
       </c>
@@ -37909,7 +37939,7 @@
       <c r="AE366" s="58"/>
       <c r="AF366" s="59"/>
     </row>
-    <row r="367" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="64">
         <v>365</v>
       </c>
@@ -37981,7 +38011,7 @@
       <c r="AE367" s="58"/>
       <c r="AF367" s="59"/>
     </row>
-    <row r="368" spans="1:32" ht="165.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:32" ht="165.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="64">
         <v>366</v>
       </c>
@@ -38051,7 +38081,7 @@
       <c r="AE368" s="58"/>
       <c r="AF368" s="59"/>
     </row>
-    <row r="369" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="64">
         <v>367</v>
       </c>
@@ -38185,7 +38215,7 @@
       <c r="AE370" s="58"/>
       <c r="AF370" s="59"/>
     </row>
-    <row r="371" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="64">
         <v>369</v>
       </c>
@@ -38329,7 +38359,7 @@
       <c r="AE372" s="58"/>
       <c r="AF372" s="59"/>
     </row>
-    <row r="373" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="64">
         <v>371</v>
       </c>
@@ -38393,7 +38423,7 @@
       <c r="AE373" s="58"/>
       <c r="AF373" s="59"/>
     </row>
-    <row r="374" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="64">
         <v>372</v>
       </c>
@@ -38453,7 +38483,7 @@
       <c r="AE374" s="58"/>
       <c r="AF374" s="59"/>
     </row>
-    <row r="375" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="64">
         <v>373</v>
       </c>
@@ -38515,7 +38545,7 @@
       <c r="AE375" s="58"/>
       <c r="AF375" s="59"/>
     </row>
-    <row r="376" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="64">
         <v>374</v>
       </c>
@@ -38585,7 +38615,7 @@
       <c r="AE376" s="58"/>
       <c r="AF376" s="59"/>
     </row>
-    <row r="377" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="64">
         <v>375</v>
       </c>
@@ -38655,7 +38685,7 @@
       <c r="AE377" s="58"/>
       <c r="AF377" s="59"/>
     </row>
-    <row r="378" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="64">
         <v>376</v>
       </c>
@@ -38725,7 +38755,7 @@
       <c r="AE378" s="58"/>
       <c r="AF378" s="59"/>
     </row>
-    <row r="379" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="64">
         <v>377</v>
       </c>
@@ -38787,7 +38817,7 @@
       <c r="AE379" s="58"/>
       <c r="AF379" s="59"/>
     </row>
-    <row r="380" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="64">
         <v>378</v>
       </c>
@@ -38857,7 +38887,7 @@
       <c r="AE380" s="58"/>
       <c r="AF380" s="59"/>
     </row>
-    <row r="381" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="64">
         <v>379</v>
       </c>
@@ -38927,7 +38957,7 @@
       <c r="AE381" s="58"/>
       <c r="AF381" s="59"/>
     </row>
-    <row r="382" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="64">
         <v>380</v>
       </c>
@@ -38995,7 +39025,7 @@
       <c r="AE382" s="58"/>
       <c r="AF382" s="59"/>
     </row>
-    <row r="383" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="64">
         <v>381</v>
       </c>
@@ -39055,7 +39085,7 @@
       <c r="AE383" s="58"/>
       <c r="AF383" s="59"/>
     </row>
-    <row r="384" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="64">
         <v>382</v>
       </c>
@@ -39123,7 +39153,7 @@
       <c r="AE384" s="58"/>
       <c r="AF384" s="59"/>
     </row>
-    <row r="385" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="64">
         <v>383</v>
       </c>
@@ -39185,7 +39215,7 @@
       <c r="AE385" s="58"/>
       <c r="AF385" s="59"/>
     </row>
-    <row r="386" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="64">
         <v>384</v>
       </c>
@@ -39245,7 +39275,7 @@
       <c r="AE386" s="58"/>
       <c r="AF386" s="59"/>
     </row>
-    <row r="387" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="64">
         <v>385</v>
       </c>
@@ -39309,7 +39339,7 @@
       <c r="AE387" s="58"/>
       <c r="AF387" s="59"/>
     </row>
-    <row r="388" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="64">
         <v>386</v>
       </c>
@@ -39371,7 +39401,7 @@
       <c r="AE388" s="58"/>
       <c r="AF388" s="59"/>
     </row>
-    <row r="389" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="64">
         <v>387</v>
       </c>
@@ -39431,7 +39461,7 @@
       <c r="AE389" s="58"/>
       <c r="AF389" s="59"/>
     </row>
-    <row r="390" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="64">
         <v>388</v>
       </c>
@@ -39491,7 +39521,7 @@
       <c r="AE390" s="58"/>
       <c r="AF390" s="59"/>
     </row>
-    <row r="391" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="64">
         <v>389</v>
       </c>
@@ -39555,7 +39585,7 @@
       <c r="AE391" s="58"/>
       <c r="AF391" s="59"/>
     </row>
-    <row r="392" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="64">
         <v>390</v>
       </c>
@@ -39617,7 +39647,7 @@
       <c r="AE392" s="58"/>
       <c r="AF392" s="59"/>
     </row>
-    <row r="393" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="64">
         <v>391</v>
       </c>
@@ -39681,7 +39711,7 @@
       <c r="AE393" s="58"/>
       <c r="AF393" s="59"/>
     </row>
-    <row r="394" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="64">
         <v>392</v>
       </c>
@@ -39741,7 +39771,7 @@
       <c r="AE394" s="58"/>
       <c r="AF394" s="59"/>
     </row>
-    <row r="395" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="64">
         <v>393</v>
       </c>
@@ -39803,7 +39833,7 @@
       <c r="AE395" s="58"/>
       <c r="AF395" s="59"/>
     </row>
-    <row r="396" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="64">
         <v>394</v>
       </c>
@@ -39863,7 +39893,7 @@
       <c r="AE396" s="58"/>
       <c r="AF396" s="59"/>
     </row>
-    <row r="397" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="64">
         <v>395</v>
       </c>
@@ -39923,7 +39953,7 @@
       <c r="AE397" s="58"/>
       <c r="AF397" s="59"/>
     </row>
-    <row r="398" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="64">
         <v>396</v>
       </c>
@@ -39985,7 +40015,7 @@
       <c r="AE398" s="58"/>
       <c r="AF398" s="59"/>
     </row>
-    <row r="399" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="64">
         <v>397</v>
       </c>
@@ -40045,7 +40075,7 @@
       <c r="AE399" s="58"/>
       <c r="AF399" s="59"/>
     </row>
-    <row r="400" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="64">
         <v>398</v>
       </c>
@@ -40111,7 +40141,7 @@
       <c r="AE400" s="58"/>
       <c r="AF400" s="59"/>
     </row>
-    <row r="401" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="64">
         <v>399</v>
       </c>
@@ -40171,7 +40201,7 @@
       <c r="AE401" s="58"/>
       <c r="AF401" s="59"/>
     </row>
-    <row r="402" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="64">
         <v>400</v>
       </c>
@@ -40231,7 +40261,7 @@
       <c r="AE402" s="58"/>
       <c r="AF402" s="59"/>
     </row>
-    <row r="403" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="64">
         <v>401</v>
       </c>
@@ -40295,7 +40325,7 @@
       <c r="AE403" s="58"/>
       <c r="AF403" s="59"/>
     </row>
-    <row r="404" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="64">
         <v>402</v>
       </c>
@@ -40359,7 +40389,7 @@
       <c r="AE404" s="58"/>
       <c r="AF404" s="59"/>
     </row>
-    <row r="405" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="64">
         <v>403</v>
       </c>
@@ -40423,7 +40453,7 @@
       <c r="AE405" s="58"/>
       <c r="AF405" s="59"/>
     </row>
-    <row r="406" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="64">
         <v>404</v>
       </c>
@@ -40489,7 +40519,7 @@
       <c r="AE406" s="58"/>
       <c r="AF406" s="59"/>
     </row>
-    <row r="407" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="64">
         <v>405</v>
       </c>
@@ -40553,7 +40583,7 @@
       <c r="AE407" s="58"/>
       <c r="AF407" s="59"/>
     </row>
-    <row r="408" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="64">
         <v>406</v>
       </c>
@@ -40615,7 +40645,7 @@
       <c r="AE408" s="58"/>
       <c r="AF408" s="59"/>
     </row>
-    <row r="409" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="64">
         <v>407</v>
       </c>
@@ -40679,7 +40709,7 @@
       <c r="AE409" s="58"/>
       <c r="AF409" s="59"/>
     </row>
-    <row r="410" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="64">
         <v>408</v>
       </c>
@@ -40741,7 +40771,7 @@
       <c r="AE410" s="58"/>
       <c r="AF410" s="59"/>
     </row>
-    <row r="411" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="64">
         <v>409</v>
       </c>
@@ -40801,7 +40831,7 @@
       <c r="AE411" s="58"/>
       <c r="AF411" s="59"/>
     </row>
-    <row r="412" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="64">
         <v>410</v>
       </c>
@@ -40867,7 +40897,7 @@
       <c r="AE412" s="58"/>
       <c r="AF412" s="59"/>
     </row>
-    <row r="413" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="64">
         <v>411</v>
       </c>
@@ -40933,7 +40963,7 @@
       <c r="AE413" s="58"/>
       <c r="AF413" s="59"/>
     </row>
-    <row r="414" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="64">
         <v>412</v>
       </c>
@@ -40995,7 +41025,7 @@
       <c r="AE414" s="58"/>
       <c r="AF414" s="59"/>
     </row>
-    <row r="415" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="64">
         <v>413</v>
       </c>
@@ -41059,7 +41089,7 @@
       <c r="AE415" s="58"/>
       <c r="AF415" s="59"/>
     </row>
-    <row r="416" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="64">
         <v>414</v>
       </c>
@@ -41119,7 +41149,7 @@
       <c r="AE416" s="58"/>
       <c r="AF416" s="59"/>
     </row>
-    <row r="417" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="64">
         <v>415</v>
       </c>
@@ -41179,7 +41209,7 @@
       <c r="AE417" s="58"/>
       <c r="AF417" s="59"/>
     </row>
-    <row r="418" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="64">
         <v>416</v>
       </c>
@@ -41239,7 +41269,7 @@
       <c r="AE418" s="58"/>
       <c r="AF418" s="59"/>
     </row>
-    <row r="419" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="64">
         <v>417</v>
       </c>
@@ -41299,7 +41329,7 @@
       <c r="AE419" s="58"/>
       <c r="AF419" s="59"/>
     </row>
-    <row r="420" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="64">
         <v>418</v>
       </c>
@@ -41365,7 +41395,7 @@
       <c r="AE420" s="58"/>
       <c r="AF420" s="59"/>
     </row>
-    <row r="421" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="64">
         <v>419</v>
       </c>
@@ -41785,7 +41815,9 @@
       <c r="I427" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="J427" s="50"/>
+      <c r="J427" s="50" t="s">
+        <v>2507</v>
+      </c>
       <c r="K427" s="50"/>
       <c r="L427" s="52"/>
       <c r="M427" s="52"/>
@@ -41849,7 +41881,9 @@
       <c r="I428" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="J428" s="50"/>
+      <c r="J428" s="50" t="s">
+        <v>296</v>
+      </c>
       <c r="K428" s="50"/>
       <c r="L428" s="52" t="s">
         <v>55</v>
@@ -41915,7 +41949,9 @@
       <c r="I429" s="50" t="s">
         <v>286</v>
       </c>
-      <c r="J429" s="50"/>
+      <c r="J429" s="50" t="s">
+        <v>296</v>
+      </c>
       <c r="K429" s="50"/>
       <c r="L429" s="52" t="s">
         <v>55</v>
@@ -42025,7 +42061,7 @@
       <c r="AE430" s="58"/>
       <c r="AF430" s="59"/>
     </row>
-    <row r="431" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="64">
         <v>429</v>
       </c>
@@ -42125,7 +42161,9 @@
       <c r="I432" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="J432" s="50"/>
+      <c r="J432" s="50" t="s">
+        <v>296</v>
+      </c>
       <c r="K432" s="50"/>
       <c r="L432" s="52" t="s">
         <v>55</v>
@@ -42235,7 +42273,7 @@
       <c r="AE433" s="58"/>
       <c r="AF433" s="59"/>
     </row>
-    <row r="434" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="64">
         <v>432</v>
       </c>
@@ -42275,7 +42313,9 @@
       <c r="Q434" s="52" t="s">
         <v>1357</v>
       </c>
-      <c r="R434" s="52"/>
+      <c r="R434" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S434" s="52"/>
       <c r="T434" s="53"/>
       <c r="U434" s="53"/>
@@ -42323,7 +42363,9 @@
       <c r="I435" s="50" t="s">
         <v>286</v>
       </c>
-      <c r="J435" s="50"/>
+      <c r="J435" s="50" t="s">
+        <v>2508</v>
+      </c>
       <c r="K435" s="50"/>
       <c r="L435" s="52" t="s">
         <v>55</v>
@@ -42367,7 +42409,7 @@
       <c r="AE435" s="58"/>
       <c r="AF435" s="59"/>
     </row>
-    <row r="436" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="64">
         <v>434</v>
       </c>
@@ -42407,7 +42449,9 @@
       <c r="Q436" s="52" t="s">
         <v>1361</v>
       </c>
-      <c r="R436" s="52"/>
+      <c r="R436" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S436" s="52"/>
       <c r="T436" s="53"/>
       <c r="U436" s="53"/>
@@ -42433,7 +42477,7 @@
       <c r="AE436" s="58"/>
       <c r="AF436" s="59"/>
     </row>
-    <row r="437" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="64">
         <v>435</v>
       </c>
@@ -42475,7 +42519,9 @@
       <c r="Q437" s="52" t="s">
         <v>1363</v>
       </c>
-      <c r="R437" s="52"/>
+      <c r="R437" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S437" s="52"/>
       <c r="T437" s="53"/>
       <c r="U437" s="53"/>
@@ -42501,7 +42547,7 @@
       <c r="AE437" s="58"/>
       <c r="AF437" s="59"/>
     </row>
-    <row r="438" spans="1:32" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:32" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="64">
         <v>436</v>
       </c>
@@ -42541,7 +42587,9 @@
       <c r="Q438" s="52" t="s">
         <v>1365</v>
       </c>
-      <c r="R438" s="52"/>
+      <c r="R438" s="52" t="s">
+        <v>2497</v>
+      </c>
       <c r="S438" s="52"/>
       <c r="T438" s="53"/>
       <c r="U438" s="53"/>
@@ -42633,7 +42681,7 @@
       <c r="AE439" s="58"/>
       <c r="AF439" s="59"/>
     </row>
-    <row r="440" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="64">
         <v>438</v>
       </c>
@@ -42833,7 +42881,7 @@
       <c r="AE442" s="58"/>
       <c r="AF442" s="59"/>
     </row>
-    <row r="443" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="64">
         <v>441</v>
       </c>
@@ -42983,7 +43031,7 @@
       <c r="AE444" s="58"/>
       <c r="AF444" s="59"/>
     </row>
-    <row r="445" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="64">
         <v>443</v>
       </c>
@@ -43051,7 +43099,7 @@
       <c r="AE445" s="58"/>
       <c r="AF445" s="59"/>
     </row>
-    <row r="446" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="64">
         <v>444</v>
       </c>
@@ -43185,7 +43233,7 @@
       <c r="AE447" s="58"/>
       <c r="AF447" s="59"/>
     </row>
-    <row r="448" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="64">
         <v>446</v>
       </c>
@@ -43253,7 +43301,7 @@
       <c r="AE448" s="58"/>
       <c r="AF448" s="59"/>
     </row>
-    <row r="449" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="64">
         <v>447</v>
       </c>
@@ -43321,7 +43369,7 @@
       <c r="AE449" s="58"/>
       <c r="AF449" s="59"/>
     </row>
-    <row r="450" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="64">
         <v>448</v>
       </c>
@@ -43361,7 +43409,9 @@
       <c r="Q450" s="52" t="s">
         <v>1388</v>
       </c>
-      <c r="R450" s="52"/>
+      <c r="R450" s="52" t="s">
+        <v>292</v>
+      </c>
       <c r="S450" s="52"/>
       <c r="T450" s="53"/>
       <c r="U450" s="53"/>
@@ -43389,7 +43439,7 @@
       <c r="AE450" s="58"/>
       <c r="AF450" s="59"/>
     </row>
-    <row r="451" spans="1:32" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:32" ht="108.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="64">
         <v>449</v>
       </c>
@@ -43429,7 +43479,9 @@
       <c r="Q451" s="52" t="s">
         <v>1391</v>
       </c>
-      <c r="R451" s="52"/>
+      <c r="R451" s="52" t="s">
+        <v>292</v>
+      </c>
       <c r="S451" s="52"/>
       <c r="T451" s="53"/>
       <c r="U451" s="53"/>
@@ -43455,7 +43507,7 @@
       <c r="AE451" s="58"/>
       <c r="AF451" s="59"/>
     </row>
-    <row r="452" spans="1:32" ht="316.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:32" ht="316.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="64">
         <v>450</v>
       </c>
@@ -43519,7 +43571,7 @@
       <c r="AE452" s="58"/>
       <c r="AF452" s="59"/>
     </row>
-    <row r="453" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="64">
         <v>451</v>
       </c>
@@ -43595,7 +43647,7 @@
       <c r="AE453" s="58"/>
       <c r="AF453" s="59"/>
     </row>
-    <row r="454" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="64">
         <v>452</v>
       </c>
@@ -43663,7 +43715,7 @@
       <c r="AE454" s="58"/>
       <c r="AF454" s="59"/>
     </row>
-    <row r="455" spans="1:32" ht="216.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:32" ht="216.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="64">
         <v>453</v>
       </c>
@@ -43703,7 +43755,9 @@
       <c r="Q455" s="52" t="s">
         <v>1403</v>
       </c>
-      <c r="R455" s="52"/>
+      <c r="R455" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S455" s="52"/>
       <c r="T455" s="53"/>
       <c r="U455" s="53"/>
@@ -43939,7 +43993,7 @@
       <c r="AE458" s="58"/>
       <c r="AF458" s="59"/>
     </row>
-    <row r="459" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="64">
         <v>457</v>
       </c>
@@ -44017,7 +44071,7 @@
       <c r="AE459" s="58"/>
       <c r="AF459" s="59"/>
     </row>
-    <row r="460" spans="1:32" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:32" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="64">
         <v>458</v>
       </c>
@@ -44089,7 +44143,7 @@
       <c r="AE460" s="58"/>
       <c r="AF460" s="59"/>
     </row>
-    <row r="461" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="64">
         <v>459</v>
       </c>
@@ -44159,7 +44213,7 @@
       <c r="AE461" s="58"/>
       <c r="AF461" s="68"/>
     </row>
-    <row r="462" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="64">
         <v>460</v>
       </c>
@@ -44227,7 +44281,7 @@
       <c r="AE462" s="58"/>
       <c r="AF462" s="68"/>
     </row>
-    <row r="463" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="64">
         <v>461</v>
       </c>
@@ -44295,7 +44349,7 @@
       <c r="AE463" s="58"/>
       <c r="AF463" s="69"/>
     </row>
-    <row r="464" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="64">
         <v>462</v>
       </c>
@@ -44363,7 +44417,7 @@
       <c r="AE464" s="58"/>
       <c r="AF464" s="68"/>
     </row>
-    <row r="465" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="64">
         <v>463</v>
       </c>
@@ -44433,7 +44487,7 @@
       <c r="AE465" s="58"/>
       <c r="AF465" s="68"/>
     </row>
-    <row r="466" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="64">
         <v>464</v>
       </c>
@@ -44569,7 +44623,7 @@
       <c r="AE467" s="58"/>
       <c r="AF467" s="59"/>
     </row>
-    <row r="468" spans="1:32" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:32" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="64">
         <v>465</v>
       </c>
@@ -44781,7 +44835,7 @@
       <c r="AE470" s="58"/>
       <c r="AF470" s="68"/>
     </row>
-    <row r="471" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="64">
         <v>468</v>
       </c>
@@ -44825,7 +44879,9 @@
       <c r="Q471" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="R471" s="52"/>
+      <c r="R471" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S471" s="52"/>
       <c r="T471" s="53"/>
       <c r="U471" s="53"/>
@@ -44851,7 +44907,7 @@
       <c r="AE471" s="58"/>
       <c r="AF471" s="68"/>
     </row>
-    <row r="472" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="64">
         <v>469</v>
       </c>
@@ -44923,7 +44979,7 @@
       <c r="AE472" s="58"/>
       <c r="AF472" s="69"/>
     </row>
-    <row r="473" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="64">
         <v>470</v>
       </c>
@@ -45331,7 +45387,7 @@
       <c r="AE478" s="58"/>
       <c r="AF478" s="68"/>
     </row>
-    <row r="479" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="64">
         <v>476</v>
       </c>
@@ -45399,7 +45455,7 @@
       <c r="AE479" s="58"/>
       <c r="AF479" s="68"/>
     </row>
-    <row r="480" spans="1:32" ht="331.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:32" ht="331.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="64">
         <v>477</v>
       </c>
@@ -45477,7 +45533,7 @@
       <c r="AE480" s="58"/>
       <c r="AF480" s="68"/>
     </row>
-    <row r="481" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="64">
         <v>478</v>
       </c>
@@ -45557,7 +45613,7 @@
       <c r="AE481" s="58"/>
       <c r="AF481" s="68"/>
     </row>
-    <row r="482" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="64">
         <v>479</v>
       </c>
@@ -45693,7 +45749,7 @@
       <c r="AE483" s="58"/>
       <c r="AF483" s="59"/>
     </row>
-    <row r="484" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="64">
         <v>481</v>
       </c>
@@ -45773,7 +45829,7 @@
       <c r="AE484" s="58"/>
       <c r="AF484" s="59"/>
     </row>
-    <row r="485" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="64">
         <v>482</v>
       </c>
@@ -45909,7 +45965,7 @@
       <c r="AE486" s="58"/>
       <c r="AF486" s="68"/>
     </row>
-    <row r="487" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="64">
         <v>484</v>
       </c>
@@ -45981,7 +46037,7 @@
       <c r="AE487" s="58"/>
       <c r="AF487" s="68"/>
     </row>
-    <row r="488" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="64">
         <v>485</v>
       </c>
@@ -46049,7 +46105,7 @@
       <c r="AE488" s="58"/>
       <c r="AF488" s="68"/>
     </row>
-    <row r="489" spans="1:32" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:32" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="64">
         <v>486</v>
       </c>
@@ -46249,7 +46305,7 @@
       <c r="AE491" s="58"/>
       <c r="AF491" s="68"/>
     </row>
-    <row r="492" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="64">
         <v>489</v>
       </c>
@@ -46329,7 +46385,7 @@
       <c r="AE492" s="58"/>
       <c r="AF492" s="68"/>
     </row>
-    <row r="493" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="64">
         <v>490</v>
       </c>
@@ -46541,7 +46597,7 @@
       <c r="AE495" s="58"/>
       <c r="AF495" s="68"/>
     </row>
-    <row r="496" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="64">
         <v>493</v>
       </c>
@@ -46619,7 +46675,7 @@
       <c r="AE496" s="58"/>
       <c r="AF496" s="68"/>
     </row>
-    <row r="497" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="64">
         <v>494</v>
       </c>
@@ -46753,7 +46809,7 @@
       <c r="AE498" s="58"/>
       <c r="AF498" s="68"/>
     </row>
-    <row r="499" spans="1:32" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:32" ht="110.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="64">
         <v>496</v>
       </c>
@@ -46823,7 +46879,7 @@
       <c r="AE499" s="58"/>
       <c r="AF499" s="68"/>
     </row>
-    <row r="500" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="64">
         <v>497</v>
       </c>
@@ -46893,7 +46949,7 @@
       <c r="AE500" s="58"/>
       <c r="AF500" s="68"/>
     </row>
-    <row r="501" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="64">
         <v>498</v>
       </c>
@@ -46963,7 +47019,7 @@
       <c r="AE501" s="58"/>
       <c r="AF501" s="68"/>
     </row>
-    <row r="502" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="64">
         <v>499</v>
       </c>
@@ -47027,7 +47083,7 @@
       <c r="AE502" s="58"/>
       <c r="AF502" s="68"/>
     </row>
-    <row r="503" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="64">
         <v>500</v>
       </c>
@@ -47097,7 +47153,7 @@
       <c r="AE503" s="58"/>
       <c r="AF503" s="68"/>
     </row>
-    <row r="504" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="64">
         <v>501</v>
       </c>
@@ -47175,7 +47231,7 @@
       <c r="AE504" s="58"/>
       <c r="AF504" s="68"/>
     </row>
-    <row r="505" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="64">
         <v>502</v>
       </c>
@@ -47247,7 +47303,7 @@
       <c r="AE505" s="58"/>
       <c r="AF505" s="68"/>
     </row>
-    <row r="506" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="64">
         <v>503</v>
       </c>
@@ -47587,7 +47643,7 @@
       <c r="AE510" s="58"/>
       <c r="AF510" s="59"/>
     </row>
-    <row r="511" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="64">
         <v>508</v>
       </c>
@@ -47653,7 +47709,7 @@
       <c r="AE511" s="58"/>
       <c r="AF511" s="59"/>
     </row>
-    <row r="512" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="64">
         <v>509</v>
       </c>
@@ -47717,7 +47773,7 @@
       <c r="AE512" s="58"/>
       <c r="AF512" s="59"/>
     </row>
-    <row r="513" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="64">
         <v>510</v>
       </c>
@@ -47787,7 +47843,7 @@
       <c r="AE513" s="58"/>
       <c r="AF513" s="68"/>
     </row>
-    <row r="514" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="64">
         <v>511</v>
       </c>
@@ -47853,7 +47909,7 @@
       <c r="AE514" s="58"/>
       <c r="AF514" s="68"/>
     </row>
-    <row r="515" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="64">
         <v>512</v>
       </c>
@@ -47993,7 +48049,7 @@
       <c r="AE516" s="58"/>
       <c r="AF516" s="68"/>
     </row>
-    <row r="517" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="64">
         <v>514</v>
       </c>
@@ -48059,7 +48115,7 @@
       <c r="AE517" s="58"/>
       <c r="AF517" s="68"/>
     </row>
-    <row r="518" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="64">
         <v>515</v>
       </c>
@@ -48121,7 +48177,7 @@
       <c r="AE518" s="58"/>
       <c r="AF518" s="68"/>
     </row>
-    <row r="519" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="64">
         <v>516</v>
       </c>
@@ -48185,7 +48241,7 @@
       <c r="AE519" s="58"/>
       <c r="AF519" s="68"/>
     </row>
-    <row r="520" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="64">
         <v>517</v>
       </c>
@@ -48249,7 +48305,7 @@
       <c r="AE520" s="58"/>
       <c r="AF520" s="68"/>
     </row>
-    <row r="521" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="64">
         <v>518</v>
       </c>
@@ -48315,7 +48371,7 @@
       <c r="AE521" s="58"/>
       <c r="AF521" s="68"/>
     </row>
-    <row r="522" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="64">
         <v>519</v>
       </c>
@@ -48379,7 +48435,7 @@
       <c r="AE522" s="58"/>
       <c r="AF522" s="68"/>
     </row>
-    <row r="523" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="64">
         <v>520</v>
       </c>
@@ -48439,7 +48495,7 @@
       <c r="AE523" s="58"/>
       <c r="AF523" s="68"/>
     </row>
-    <row r="524" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="64">
         <v>521</v>
       </c>
@@ -48563,7 +48619,7 @@
       <c r="AE525" s="58"/>
       <c r="AF525" s="59"/>
     </row>
-    <row r="526" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="64">
         <v>523</v>
       </c>
@@ -48625,7 +48681,7 @@
       <c r="AE526" s="58"/>
       <c r="AF526" s="59"/>
     </row>
-    <row r="527" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="64">
         <v>524</v>
       </c>
@@ -48689,7 +48745,7 @@
       <c r="AE527" s="58"/>
       <c r="AF527" s="68"/>
     </row>
-    <row r="528" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="64">
         <v>525</v>
       </c>
@@ -48753,7 +48809,7 @@
       <c r="AE528" s="58"/>
       <c r="AF528" s="68"/>
     </row>
-    <row r="529" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="64">
         <v>526</v>
       </c>
@@ -48811,7 +48867,7 @@
       <c r="AE529" s="58"/>
       <c r="AF529" s="68"/>
     </row>
-    <row r="530" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="64">
         <v>527</v>
       </c>
@@ -48869,7 +48925,7 @@
       <c r="AE530" s="58"/>
       <c r="AF530" s="68"/>
     </row>
-    <row r="531" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="64">
         <v>528</v>
       </c>
@@ -48931,7 +48987,7 @@
       <c r="AE531" s="58"/>
       <c r="AF531" s="68"/>
     </row>
-    <row r="532" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="64">
         <v>529</v>
       </c>
@@ -49059,7 +49115,7 @@
       <c r="AE533" s="58"/>
       <c r="AF533" s="68"/>
     </row>
-    <row r="534" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="64">
         <v>531</v>
       </c>
@@ -49119,7 +49175,7 @@
       <c r="AE534" s="58"/>
       <c r="AF534" s="68"/>
     </row>
-    <row r="535" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="64">
         <v>532</v>
       </c>
@@ -49195,7 +49251,7 @@
       <c r="AE535" s="58"/>
       <c r="AF535" s="68"/>
     </row>
-    <row r="536" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="64">
         <v>533</v>
       </c>
@@ -49259,7 +49315,7 @@
       <c r="AE536" s="58"/>
       <c r="AF536" s="68"/>
     </row>
-    <row r="537" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="64">
         <v>534</v>
       </c>
@@ -49319,7 +49375,7 @@
       <c r="AE537" s="58"/>
       <c r="AF537" s="68"/>
     </row>
-    <row r="538" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="64">
         <v>535</v>
       </c>
@@ -49569,7 +49625,7 @@
       <c r="AE541" s="58"/>
       <c r="AF541" s="68"/>
     </row>
-    <row r="542" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="64">
         <v>539</v>
       </c>
@@ -49633,7 +49689,7 @@
       <c r="AE542" s="58"/>
       <c r="AF542" s="68"/>
     </row>
-    <row r="543" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="64">
         <v>540</v>
       </c>
@@ -49697,7 +49753,7 @@
       <c r="AE543" s="58"/>
       <c r="AF543" s="68"/>
     </row>
-    <row r="544" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="64">
         <v>541</v>
       </c>
@@ -49763,7 +49819,7 @@
       <c r="AE544" s="58"/>
       <c r="AF544" s="59"/>
     </row>
-    <row r="545" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="64">
         <v>542</v>
       </c>
@@ -49839,7 +49895,7 @@
       <c r="AE545" s="58"/>
       <c r="AF545" s="59"/>
     </row>
-    <row r="546" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="64">
         <v>543</v>
       </c>
@@ -49901,7 +49957,7 @@
       <c r="AE546" s="58"/>
       <c r="AF546" s="59"/>
     </row>
-    <row r="547" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="64">
         <v>544</v>
       </c>
@@ -49959,7 +50015,7 @@
       <c r="AE547" s="58"/>
       <c r="AF547" s="59"/>
     </row>
-    <row r="548" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="64">
         <v>545</v>
       </c>
@@ -50023,7 +50079,7 @@
       <c r="AE548" s="58"/>
       <c r="AF548" s="59"/>
     </row>
-    <row r="549" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="64">
         <v>546</v>
       </c>
@@ -50089,7 +50145,7 @@
       <c r="AE549" s="58"/>
       <c r="AF549" s="68"/>
     </row>
-    <row r="550" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="64">
         <v>547</v>
       </c>
@@ -50153,7 +50209,7 @@
       <c r="AE550" s="58"/>
       <c r="AF550" s="68"/>
     </row>
-    <row r="551" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="64">
         <v>548</v>
       </c>
@@ -50219,7 +50275,7 @@
       <c r="AE551" s="58"/>
       <c r="AF551" s="69"/>
     </row>
-    <row r="552" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="64">
         <v>549</v>
       </c>
@@ -50279,7 +50335,7 @@
       <c r="AE552" s="58"/>
       <c r="AF552" s="68"/>
     </row>
-    <row r="553" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="64">
         <v>550</v>
       </c>
@@ -50343,7 +50399,7 @@
       <c r="AE553" s="58"/>
       <c r="AF553" s="68"/>
     </row>
-    <row r="554" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="64">
         <v>551</v>
       </c>
@@ -50403,7 +50459,7 @@
       <c r="AE554" s="58"/>
       <c r="AF554" s="68"/>
     </row>
-    <row r="555" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="64">
         <v>552</v>
       </c>
@@ -50463,7 +50519,7 @@
       <c r="AE555" s="58"/>
       <c r="AF555" s="68"/>
     </row>
-    <row r="556" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="64">
         <v>553</v>
       </c>
@@ -50529,7 +50585,7 @@
       <c r="AE556" s="58"/>
       <c r="AF556" s="68"/>
     </row>
-    <row r="557" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="64">
         <v>554</v>
       </c>
@@ -50605,7 +50661,7 @@
       <c r="AE557" s="58"/>
       <c r="AF557" s="68"/>
     </row>
-    <row r="558" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="64">
         <v>555</v>
       </c>
@@ -50669,7 +50725,7 @@
       <c r="AE558" s="58"/>
       <c r="AF558" s="68"/>
     </row>
-    <row r="559" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="64">
         <v>556</v>
       </c>
@@ -50731,7 +50787,7 @@
       <c r="AE559" s="58"/>
       <c r="AF559" s="68"/>
     </row>
-    <row r="560" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="64">
         <v>557</v>
       </c>
@@ -50795,7 +50851,7 @@
       <c r="AE560" s="58"/>
       <c r="AF560" s="68"/>
     </row>
-    <row r="561" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="64">
         <v>558</v>
       </c>
@@ -50925,7 +50981,7 @@
       <c r="AE562" s="58"/>
       <c r="AF562" s="59"/>
     </row>
-    <row r="563" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="64">
         <v>560</v>
       </c>
@@ -51051,7 +51107,7 @@
       <c r="AE564" s="58"/>
       <c r="AF564" s="68"/>
     </row>
-    <row r="565" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="64">
         <v>562</v>
       </c>
@@ -51115,7 +51171,7 @@
       <c r="AE565" s="58"/>
       <c r="AF565" s="68"/>
     </row>
-    <row r="566" spans="1:32" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:32" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="64">
         <v>563</v>
       </c>
@@ -51185,7 +51241,7 @@
       <c r="AE566" s="58"/>
       <c r="AF566" s="68"/>
     </row>
-    <row r="567" spans="1:32" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:32" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="64">
         <v>564</v>
       </c>
@@ -51259,7 +51315,7 @@
       <c r="AE567" s="58"/>
       <c r="AF567" s="68"/>
     </row>
-    <row r="568" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="64">
         <v>565</v>
       </c>
@@ -51337,7 +51393,7 @@
       <c r="AE568" s="58"/>
       <c r="AF568" s="68"/>
     </row>
-    <row r="569" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="64">
         <v>566</v>
       </c>
@@ -51401,7 +51457,7 @@
       <c r="AE569" s="58"/>
       <c r="AF569" s="68"/>
     </row>
-    <row r="570" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="64">
         <v>567</v>
       </c>
@@ -51471,7 +51527,7 @@
       <c r="AE570" s="58"/>
       <c r="AF570" s="68"/>
     </row>
-    <row r="571" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="64">
         <v>568</v>
       </c>
@@ -51539,7 +51595,7 @@
       <c r="AE571" s="58"/>
       <c r="AF571" s="68"/>
     </row>
-    <row r="572" spans="1:32" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:32" ht="112.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="64">
         <v>569</v>
       </c>
@@ -51673,7 +51729,7 @@
       <c r="AE573" s="58"/>
       <c r="AF573" s="68"/>
     </row>
-    <row r="574" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="64">
         <v>571</v>
       </c>
@@ -51749,7 +51805,7 @@
       <c r="AE574" s="58"/>
       <c r="AF574" s="68"/>
     </row>
-    <row r="575" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="64">
         <v>572</v>
       </c>
@@ -51815,7 +51871,7 @@
       <c r="AE575" s="58"/>
       <c r="AF575" s="68"/>
     </row>
-    <row r="576" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="64">
         <v>573</v>
       </c>
@@ -51881,7 +51937,7 @@
       <c r="AE576" s="58"/>
       <c r="AF576" s="68"/>
     </row>
-    <row r="577" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="64">
         <v>574</v>
       </c>
@@ -51949,7 +52005,7 @@
       <c r="AE577" s="58"/>
       <c r="AF577" s="68"/>
     </row>
-    <row r="578" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="64">
         <v>575</v>
       </c>
@@ -52085,7 +52141,7 @@
       <c r="AE579" s="58"/>
       <c r="AF579" s="68"/>
     </row>
-    <row r="580" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="64">
         <v>577</v>
       </c>
@@ -52151,7 +52207,7 @@
       <c r="AE580" s="58"/>
       <c r="AF580" s="68"/>
     </row>
-    <row r="581" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="64">
         <v>578</v>
       </c>
@@ -52219,7 +52275,7 @@
       <c r="AE581" s="58"/>
       <c r="AF581" s="68"/>
     </row>
-    <row r="582" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="64">
         <v>579</v>
       </c>
@@ -52287,7 +52343,7 @@
       <c r="AE582" s="58"/>
       <c r="AF582" s="68"/>
     </row>
-    <row r="583" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="64">
         <v>580</v>
       </c>
@@ -52353,7 +52409,7 @@
       <c r="AE583" s="58"/>
       <c r="AF583" s="68"/>
     </row>
-    <row r="584" spans="1:32" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:32" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="64">
         <v>581</v>
       </c>
@@ -52421,7 +52477,7 @@
       <c r="AE584" s="58"/>
       <c r="AF584" s="68"/>
     </row>
-    <row r="585" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="64">
         <v>582</v>
       </c>
@@ -52489,7 +52545,7 @@
       <c r="AE585" s="58"/>
       <c r="AF585" s="68"/>
     </row>
-    <row r="586" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="64">
         <v>583</v>
       </c>
@@ -52557,7 +52613,7 @@
       <c r="AE586" s="58"/>
       <c r="AF586" s="68"/>
     </row>
-    <row r="587" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="64">
         <v>584</v>
       </c>
@@ -52695,7 +52751,7 @@
       <c r="AE588" s="58"/>
       <c r="AF588" s="68"/>
     </row>
-    <row r="589" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="64">
         <v>586</v>
       </c>
@@ -52829,7 +52885,7 @@
       <c r="AE590" s="58"/>
       <c r="AF590" s="68"/>
     </row>
-    <row r="591" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="64">
         <v>588</v>
       </c>
@@ -52899,7 +52955,7 @@
       <c r="AE591" s="58"/>
       <c r="AF591" s="68"/>
     </row>
-    <row r="592" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="64">
         <v>589</v>
       </c>
@@ -53033,7 +53089,7 @@
       <c r="AE593" s="58"/>
       <c r="AF593" s="68"/>
     </row>
-    <row r="594" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="64">
         <v>591</v>
       </c>
@@ -53101,7 +53157,7 @@
       <c r="AE594" s="58"/>
       <c r="AF594" s="68"/>
     </row>
-    <row r="595" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="64">
         <v>592</v>
       </c>
@@ -53171,7 +53227,7 @@
       <c r="AE595" s="58"/>
       <c r="AF595" s="68"/>
     </row>
-    <row r="596" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="64">
         <v>593</v>
       </c>
@@ -53305,7 +53361,7 @@
       <c r="AE597" s="58"/>
       <c r="AF597" s="68"/>
     </row>
-    <row r="598" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="64">
         <v>595</v>
       </c>
@@ -53369,7 +53425,7 @@
       <c r="AE598" s="58"/>
       <c r="AF598" s="68"/>
     </row>
-    <row r="599" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="64">
         <v>596</v>
       </c>
@@ -53575,7 +53631,7 @@
       <c r="AE601" s="58"/>
       <c r="AF601" s="59"/>
     </row>
-    <row r="602" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="64">
         <v>599</v>
       </c>
@@ -53655,7 +53711,7 @@
       <c r="AE602" s="58"/>
       <c r="AF602" s="59"/>
     </row>
-    <row r="603" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="64">
         <v>600</v>
       </c>
@@ -53803,7 +53859,7 @@
       <c r="AE604" s="58"/>
       <c r="AF604" s="68"/>
     </row>
-    <row r="605" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="64">
         <v>602</v>
       </c>
@@ -53865,7 +53921,7 @@
       <c r="AE605" s="58"/>
       <c r="AF605" s="69"/>
     </row>
-    <row r="606" spans="1:32" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:32" ht="408" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="64">
         <v>603</v>
       </c>
@@ -53943,7 +53999,7 @@
       <c r="AE606" s="58"/>
       <c r="AF606" s="59"/>
     </row>
-    <row r="607" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="64">
         <v>604</v>
       </c>
@@ -54007,7 +54063,7 @@
       <c r="AE607" s="58"/>
       <c r="AF607" s="59"/>
     </row>
-    <row r="608" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="64">
         <v>605</v>
       </c>
@@ -54073,7 +54129,7 @@
       <c r="AE608" s="58"/>
       <c r="AF608" s="59"/>
     </row>
-    <row r="609" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="64">
         <v>606</v>
       </c>
@@ -54151,7 +54207,7 @@
       <c r="AE609" s="58"/>
       <c r="AF609" s="68"/>
     </row>
-    <row r="610" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="64">
         <v>607</v>
       </c>
@@ -54231,7 +54287,7 @@
       <c r="AE610" s="58"/>
       <c r="AF610" s="69"/>
     </row>
-    <row r="611" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="64">
         <v>608</v>
       </c>
@@ -54309,7 +54365,7 @@
       <c r="AE611" s="58"/>
       <c r="AF611" s="68"/>
     </row>
-    <row r="612" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="64">
         <v>609</v>
       </c>
@@ -54523,7 +54579,7 @@
       <c r="AE614" s="58"/>
       <c r="AF614" s="59"/>
     </row>
-    <row r="615" spans="1:32" ht="216.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:32" ht="216.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="64">
         <v>612</v>
       </c>
@@ -54603,7 +54659,7 @@
       <c r="AE615" s="58"/>
       <c r="AF615" s="68"/>
     </row>
-    <row r="616" spans="1:32" ht="216.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:32" ht="216.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="64">
         <v>613</v>
       </c>
@@ -54675,7 +54731,7 @@
       <c r="AE616" s="58"/>
       <c r="AF616" s="68"/>
     </row>
-    <row r="617" spans="1:32" ht="280.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:32" ht="280.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="64">
         <v>614</v>
       </c>
@@ -54973,7 +55029,7 @@
       <c r="AE620" s="58"/>
       <c r="AF620" s="68"/>
     </row>
-    <row r="621" spans="1:32" ht="306" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:32" ht="306" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="64">
         <v>618</v>
       </c>
@@ -55053,7 +55109,7 @@
       <c r="AE621" s="58"/>
       <c r="AF621" s="68"/>
     </row>
-    <row r="622" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="64">
         <v>619</v>
       </c>
@@ -55135,7 +55191,7 @@
       <c r="AE622" s="58"/>
       <c r="AF622" s="68"/>
     </row>
-    <row r="623" spans="1:32" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:32" ht="204" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="64">
         <v>620</v>
       </c>
@@ -55283,7 +55339,7 @@
       <c r="AE624" s="58"/>
       <c r="AF624" s="68"/>
     </row>
-    <row r="625" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="64">
         <v>622</v>
       </c>
@@ -55437,7 +55493,7 @@
       <c r="AE626" s="58"/>
       <c r="AF626" s="68"/>
     </row>
-    <row r="627" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="64">
         <v>624</v>
       </c>
@@ -55519,7 +55575,7 @@
       <c r="AE627" s="58"/>
       <c r="AF627" s="68"/>
     </row>
-    <row r="628" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="64">
         <v>625</v>
       </c>
@@ -55749,7 +55805,7 @@
       <c r="AE630" s="58"/>
       <c r="AF630" s="68"/>
     </row>
-    <row r="631" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="64">
         <v>628</v>
       </c>
@@ -55817,7 +55873,7 @@
       <c r="AE631" s="58"/>
       <c r="AF631" s="68"/>
     </row>
-    <row r="632" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="64">
         <v>629</v>
       </c>
@@ -55897,7 +55953,7 @@
       <c r="AE632" s="58"/>
       <c r="AF632" s="68"/>
     </row>
-    <row r="633" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="64">
         <v>630</v>
       </c>
@@ -55975,7 +56031,7 @@
       <c r="AE633" s="58"/>
       <c r="AF633" s="68"/>
     </row>
-    <row r="634" spans="1:32" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:32" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="64">
         <v>631</v>
       </c>
@@ -56057,7 +56113,7 @@
       <c r="AE634" s="58"/>
       <c r="AF634" s="68"/>
     </row>
-    <row r="635" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="64">
         <v>632</v>
       </c>
@@ -56207,7 +56263,7 @@
       <c r="AE636" s="58"/>
       <c r="AF636" s="68"/>
     </row>
-    <row r="637" spans="1:32" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:32" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="64">
         <v>634</v>
       </c>
@@ -56289,7 +56345,7 @@
       <c r="AE637" s="58"/>
       <c r="AF637" s="68"/>
     </row>
-    <row r="638" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="64">
         <v>635</v>
       </c>
@@ -56367,7 +56423,7 @@
       <c r="AE638" s="58"/>
       <c r="AF638" s="68"/>
     </row>
-    <row r="639" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="64">
         <v>636</v>
       </c>
@@ -56439,7 +56495,7 @@
       <c r="AE639" s="58"/>
       <c r="AF639" s="68"/>
     </row>
-    <row r="640" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="64">
         <v>637</v>
       </c>
@@ -56509,7 +56565,7 @@
       <c r="AE640" s="58"/>
       <c r="AF640" s="68"/>
     </row>
-    <row r="641" spans="1:32" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:32" ht="204" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="64">
         <v>638</v>
       </c>
@@ -56797,7 +56853,7 @@
       <c r="AE644" s="58"/>
       <c r="AF644" s="68"/>
     </row>
-    <row r="645" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="64">
         <v>642</v>
       </c>
@@ -56863,7 +56919,7 @@
       <c r="AE645" s="58"/>
       <c r="AF645" s="68"/>
     </row>
-    <row r="646" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="64">
         <v>643</v>
       </c>
@@ -56927,7 +56983,7 @@
       <c r="AE646" s="58"/>
       <c r="AF646" s="68"/>
     </row>
-    <row r="647" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="64">
         <v>644</v>
       </c>
@@ -56993,7 +57049,7 @@
       <c r="AE647" s="58"/>
       <c r="AF647" s="68"/>
     </row>
-    <row r="648" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="64">
         <v>645</v>
       </c>
@@ -57073,7 +57129,7 @@
       <c r="AE648" s="58"/>
       <c r="AF648" s="68"/>
     </row>
-    <row r="649" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="64">
         <v>646</v>
       </c>
@@ -57143,7 +57199,7 @@
       <c r="AE649" s="58"/>
       <c r="AF649" s="68"/>
     </row>
-    <row r="650" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="64">
         <v>647</v>
       </c>
@@ -57221,7 +57277,7 @@
       <c r="AE650" s="58"/>
       <c r="AF650" s="68"/>
     </row>
-    <row r="651" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="64">
         <v>648</v>
       </c>
@@ -57297,7 +57353,7 @@
       <c r="AE651" s="58"/>
       <c r="AF651" s="68"/>
     </row>
-    <row r="652" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="64">
         <v>649</v>
       </c>
@@ -57375,7 +57431,7 @@
       <c r="AE652" s="58"/>
       <c r="AF652" s="68"/>
     </row>
-    <row r="653" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="64">
         <v>650</v>
       </c>
@@ -57443,7 +57499,7 @@
       <c r="AE653" s="58"/>
       <c r="AF653" s="68"/>
     </row>
-    <row r="654" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="64">
         <v>651</v>
       </c>
@@ -57523,7 +57579,7 @@
       <c r="AE654" s="58"/>
       <c r="AF654" s="68"/>
     </row>
-    <row r="655" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="64">
         <v>652</v>
       </c>
@@ -57603,7 +57659,7 @@
       <c r="AE655" s="58"/>
       <c r="AF655" s="68"/>
     </row>
-    <row r="656" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="64">
         <v>653</v>
       </c>
@@ -57667,7 +57723,7 @@
       <c r="AE656" s="58"/>
       <c r="AF656" s="68"/>
     </row>
-    <row r="657" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="64">
         <v>654</v>
       </c>
@@ -57747,7 +57803,7 @@
       <c r="AE657" s="58"/>
       <c r="AF657" s="68"/>
     </row>
-    <row r="658" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="64">
         <v>655</v>
       </c>
@@ -57825,7 +57881,7 @@
       <c r="AE658" s="58"/>
       <c r="AF658" s="68"/>
     </row>
-    <row r="659" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="64">
         <v>656</v>
       </c>
@@ -57893,7 +57949,7 @@
       <c r="AE659" s="58"/>
       <c r="AF659" s="68"/>
     </row>
-    <row r="660" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="64">
         <v>657</v>
       </c>
@@ -57963,7 +58019,7 @@
       <c r="AE660" s="58"/>
       <c r="AF660" s="68"/>
     </row>
-    <row r="661" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="64">
         <v>658</v>
       </c>
@@ -58033,7 +58089,7 @@
       <c r="AE661" s="58"/>
       <c r="AF661" s="68"/>
     </row>
-    <row r="662" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="64">
         <v>659</v>
       </c>
@@ -58169,7 +58225,7 @@
       <c r="AE663" s="58"/>
       <c r="AF663" s="59"/>
     </row>
-    <row r="664" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="64">
         <v>661</v>
       </c>
@@ -58245,7 +58301,7 @@
       <c r="AE664" s="58"/>
       <c r="AF664" s="59"/>
     </row>
-    <row r="665" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="64">
         <v>662</v>
       </c>
@@ -58323,7 +58379,7 @@
       <c r="AE665" s="58"/>
       <c r="AF665" s="59"/>
     </row>
-    <row r="666" spans="1:32" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:32" ht="191.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="64">
         <v>663</v>
       </c>
@@ -58399,7 +58455,7 @@
       <c r="AE666" s="58"/>
       <c r="AF666" s="59"/>
     </row>
-    <row r="667" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="64">
         <v>664</v>
       </c>
@@ -58811,7 +58867,7 @@
       <c r="AE672" s="58"/>
       <c r="AF672" s="68"/>
     </row>
-    <row r="673" spans="1:32" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:32" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="64">
         <v>670</v>
       </c>
@@ -58887,7 +58943,7 @@
       <c r="AE673" s="58"/>
       <c r="AF673" s="68"/>
     </row>
-    <row r="674" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="64">
         <v>671</v>
       </c>
@@ -59441,7 +59497,7 @@
       <c r="AE681" s="58"/>
       <c r="AF681" s="59"/>
     </row>
-    <row r="682" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="64">
         <v>679</v>
       </c>
@@ -59515,7 +59571,7 @@
       <c r="AE682" s="58"/>
       <c r="AF682" s="59"/>
     </row>
-    <row r="683" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="64">
         <v>680</v>
       </c>
@@ -59645,7 +59701,7 @@
       <c r="AE684" s="58"/>
       <c r="AF684" s="59"/>
     </row>
-    <row r="685" spans="1:32" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:32" ht="191.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="64">
         <v>682</v>
       </c>
@@ -59711,7 +59767,7 @@
       <c r="AE685" s="58"/>
       <c r="AF685" s="59"/>
     </row>
-    <row r="686" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="64">
         <v>683</v>
       </c>
@@ -60221,7 +60277,7 @@
       <c r="AE693" s="58"/>
       <c r="AF693" s="59"/>
     </row>
-    <row r="694" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="64">
         <v>691</v>
       </c>
@@ -60417,7 +60473,7 @@
       <c r="AE696" s="58"/>
       <c r="AF696" s="59"/>
     </row>
-    <row r="697" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="64">
         <v>694</v>
       </c>
@@ -60491,7 +60547,7 @@
       <c r="AE697" s="58"/>
       <c r="AF697" s="59"/>
     </row>
-    <row r="698" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="64">
         <v>695</v>
       </c>
@@ -60627,7 +60683,7 @@
       <c r="AE699" s="58"/>
       <c r="AF699" s="59"/>
     </row>
-    <row r="700" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="64">
         <v>697</v>
       </c>
@@ -60699,7 +60755,7 @@
       <c r="AE700" s="58"/>
       <c r="AF700" s="59"/>
     </row>
-    <row r="701" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="64">
         <v>698</v>
       </c>
@@ -60761,7 +60817,7 @@
       <c r="AE701" s="58"/>
       <c r="AF701" s="59"/>
     </row>
-    <row r="702" spans="1:32" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:32" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="64">
         <v>699</v>
       </c>
@@ -60833,7 +60889,7 @@
       <c r="AE702" s="58"/>
       <c r="AF702" s="59"/>
     </row>
-    <row r="703" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="64">
         <v>700</v>
       </c>
@@ -60893,7 +60949,7 @@
       <c r="AE703" s="58"/>
       <c r="AF703" s="59"/>
     </row>
-    <row r="704" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="64">
         <v>701</v>
       </c>
@@ -60987,7 +61043,7 @@
       <c r="AE705" s="58"/>
       <c r="AF705" s="58"/>
     </row>
-    <row r="706" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="64">
         <v>703</v>
       </c>
@@ -61033,7 +61089,7 @@
       <c r="AE706" s="58"/>
       <c r="AF706" s="58"/>
     </row>
-    <row r="707" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="64">
         <v>704</v>
       </c>
@@ -61079,7 +61135,7 @@
       <c r="AE707" s="58"/>
       <c r="AF707" s="58"/>
     </row>
-    <row r="708" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="64">
         <v>705</v>
       </c>
@@ -61137,7 +61193,7 @@
       <c r="AE708" s="58"/>
       <c r="AF708" s="58"/>
     </row>
-    <row r="709" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="64">
         <v>706</v>
       </c>
@@ -61193,7 +61249,7 @@
       <c r="AE709" s="58"/>
       <c r="AF709" s="58"/>
     </row>
-    <row r="710" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="64">
         <v>707</v>
       </c>
@@ -61241,7 +61297,7 @@
       <c r="AE710" s="58"/>
       <c r="AF710" s="58"/>
     </row>
-    <row r="711" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:32" ht="100.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="64">
         <v>708</v>
       </c>
@@ -61296,7 +61352,41 @@
       <c r="AF711" s="58"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AF711"/>
+  <autoFilter ref="A2:AF711">
+    <filterColumn colId="8">
+      <filters blank="1">
+        <filter val="Defer"/>
+        <filter val="Duplicate"/>
+        <filter val="Impl"/>
+        <filter val="Impl-Big"/>
+        <filter val="Methodology"/>
+        <filter val="Minor wording"/>
+        <filter val="Non-Impl"/>
+        <filter val="Publishing"/>
+        <filter val="Question Answered"/>
+        <filter val="Spec Tweak"/>
+        <filter val="Tooling Fix"/>
+        <filter val="Typo"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="12">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="13">
+      <filters>
+        <filter val="FHIR-Core"/>
+        <filter val="FHIR-InM"/>
+        <filter val="FHIR-ITS"/>
+        <filter val="FHIR-MnM"/>
+        <filter val="FHIR-Security"/>
+        <filter val="FHIR-Tool"/>
+        <filter val="FHIR-Vocab"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="17">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:K1"/>
@@ -62003,10 +62093,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="179" t="s">
+      <c r="H1" s="218" t="s">
         <v>2269</v>
       </c>
-      <c r="I1" s="179"/>
+      <c r="I1" s="218"/>
     </row>
     <row r="2" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="76" t="s">
@@ -62021,16 +62111,16 @@
       <c r="I2" s="78"/>
     </row>
     <row r="3" spans="2:14" ht="303.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="219" t="s">
         <v>2271</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="182"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="221"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J4" s="25"/>
@@ -62048,16 +62138,16 @@
       <c r="I5" s="78"/>
     </row>
     <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="183" t="s">
+      <c r="B6" s="201" t="s">
         <v>2273</v>
       </c>
-      <c r="C6" s="184"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="184"/>
-      <c r="F6" s="184"/>
-      <c r="G6" s="184"/>
-      <c r="H6" s="184"/>
-      <c r="I6" s="185"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="203"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -62067,15 +62157,15 @@
       <c r="B7" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="222" t="s">
         <v>2274</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="188"/>
+      <c r="D7" s="223"/>
+      <c r="E7" s="223"/>
+      <c r="F7" s="223"/>
+      <c r="G7" s="223"/>
+      <c r="H7" s="223"/>
+      <c r="I7" s="224"/>
       <c r="J7" s="80"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -62085,15 +62175,15 @@
       <c r="B8" s="81" t="s">
         <v>2275</v>
       </c>
-      <c r="C8" s="189" t="s">
+      <c r="C8" s="225" t="s">
         <v>2276</v>
       </c>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="190"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="225"/>
+      <c r="F8" s="225"/>
+      <c r="G8" s="225"/>
+      <c r="H8" s="225"/>
+      <c r="I8" s="226"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -62103,15 +62193,15 @@
       <c r="B9" s="82" t="s">
         <v>2277</v>
       </c>
-      <c r="C9" s="177" t="s">
+      <c r="C9" s="216" t="s">
         <v>2278</v>
       </c>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="178"/>
+      <c r="D9" s="216"/>
+      <c r="E9" s="216"/>
+      <c r="F9" s="216"/>
+      <c r="G9" s="216"/>
+      <c r="H9" s="216"/>
+      <c r="I9" s="217"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -62122,13 +62212,13 @@
       <c r="C10" s="84" t="s">
         <v>2279</v>
       </c>
-      <c r="D10" s="192" t="s">
+      <c r="D10" s="214" t="s">
         <v>2280</v>
       </c>
       <c r="E10" s="193"/>
       <c r="F10" s="193"/>
       <c r="G10" s="193"/>
-      <c r="H10" s="194"/>
+      <c r="H10" s="215"/>
       <c r="I10" s="85"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -62140,13 +62230,13 @@
       <c r="C11" s="84" t="s">
         <v>2281</v>
       </c>
-      <c r="D11" s="192" t="s">
+      <c r="D11" s="214" t="s">
         <v>2282</v>
       </c>
       <c r="E11" s="193"/>
       <c r="F11" s="193"/>
       <c r="G11" s="193"/>
-      <c r="H11" s="194"/>
+      <c r="H11" s="215"/>
       <c r="I11" s="85"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -62159,13 +62249,13 @@
       <c r="C12" s="84" t="s">
         <v>2283</v>
       </c>
-      <c r="D12" s="192" t="s">
+      <c r="D12" s="214" t="s">
         <v>2284</v>
       </c>
       <c r="E12" s="193"/>
       <c r="F12" s="193"/>
       <c r="G12" s="193"/>
-      <c r="H12" s="194"/>
+      <c r="H12" s="215"/>
       <c r="I12" s="85"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -62177,13 +62267,13 @@
       <c r="C13" s="84" t="s">
         <v>2285</v>
       </c>
-      <c r="D13" s="192" t="s">
+      <c r="D13" s="214" t="s">
         <v>2286</v>
       </c>
       <c r="E13" s="193"/>
       <c r="F13" s="193"/>
       <c r="G13" s="193"/>
-      <c r="H13" s="194"/>
+      <c r="H13" s="215"/>
       <c r="I13" s="85"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -62195,13 +62285,13 @@
       <c r="C14" s="84" t="s">
         <v>2287</v>
       </c>
-      <c r="D14" s="192" t="s">
+      <c r="D14" s="214" t="s">
         <v>2288</v>
       </c>
       <c r="E14" s="193"/>
       <c r="F14" s="193"/>
       <c r="G14" s="193"/>
-      <c r="H14" s="194"/>
+      <c r="H14" s="215"/>
       <c r="I14" s="85"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -62213,13 +62303,13 @@
       <c r="C15" s="84" t="s">
         <v>2289</v>
       </c>
-      <c r="D15" s="192" t="s">
+      <c r="D15" s="214" t="s">
         <v>2290</v>
       </c>
       <c r="E15" s="193"/>
       <c r="F15" s="193"/>
       <c r="G15" s="193"/>
-      <c r="H15" s="194"/>
+      <c r="H15" s="215"/>
       <c r="I15" s="85"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -62231,13 +62321,13 @@
       <c r="C16" s="84" t="s">
         <v>2291</v>
       </c>
-      <c r="D16" s="192" t="s">
+      <c r="D16" s="214" t="s">
         <v>2292</v>
       </c>
       <c r="E16" s="193"/>
       <c r="F16" s="193"/>
       <c r="G16" s="193"/>
-      <c r="H16" s="194"/>
+      <c r="H16" s="215"/>
       <c r="I16" s="85"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -62249,13 +62339,13 @@
       <c r="C17" s="84" t="s">
         <v>2293</v>
       </c>
-      <c r="D17" s="192" t="s">
+      <c r="D17" s="214" t="s">
         <v>2294</v>
       </c>
       <c r="E17" s="193"/>
       <c r="F17" s="193"/>
       <c r="G17" s="193"/>
-      <c r="H17" s="194"/>
+      <c r="H17" s="215"/>
       <c r="I17" s="85"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -62267,13 +62357,13 @@
       <c r="C18" s="84" t="s">
         <v>2295</v>
       </c>
-      <c r="D18" s="192" t="s">
+      <c r="D18" s="214" t="s">
         <v>2296</v>
       </c>
       <c r="E18" s="193"/>
       <c r="F18" s="193"/>
       <c r="G18" s="193"/>
-      <c r="H18" s="194"/>
+      <c r="H18" s="215"/>
       <c r="I18" s="85"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -62298,15 +62388,15 @@
       <c r="B20" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="195" t="s">
+      <c r="C20" s="197" t="s">
         <v>2297</v>
       </c>
-      <c r="D20" s="195"/>
-      <c r="E20" s="195"/>
-      <c r="F20" s="195"/>
-      <c r="G20" s="195"/>
-      <c r="H20" s="195"/>
-      <c r="I20" s="196"/>
+      <c r="D20" s="197"/>
+      <c r="E20" s="197"/>
+      <c r="F20" s="197"/>
+      <c r="G20" s="197"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="198"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -62324,11 +62414,11 @@
       <c r="F21" s="193"/>
       <c r="G21" s="193"/>
       <c r="H21" s="193"/>
-      <c r="I21" s="197"/>
+      <c r="I21" s="194"/>
       <c r="J21" s="90"/>
-      <c r="K21" s="191"/>
-      <c r="L21" s="191"/>
-      <c r="M21" s="191"/>
+      <c r="K21" s="213"/>
+      <c r="L21" s="213"/>
+      <c r="M21" s="213"/>
     </row>
     <row r="22" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="81" t="s">
@@ -62342,7 +62432,7 @@
       <c r="F22" s="193"/>
       <c r="G22" s="193"/>
       <c r="H22" s="193"/>
-      <c r="I22" s="197"/>
+      <c r="I22" s="194"/>
       <c r="J22" s="90"/>
       <c r="K22" s="91"/>
       <c r="L22" s="91"/>
@@ -62352,45 +62442,45 @@
       <c r="B23" s="81" t="s">
         <v>2301</v>
       </c>
-      <c r="C23" s="200" t="s">
+      <c r="C23" s="195" t="s">
         <v>2302</v>
       </c>
-      <c r="D23" s="200"/>
-      <c r="E23" s="200"/>
-      <c r="F23" s="200"/>
-      <c r="G23" s="200"/>
-      <c r="H23" s="200"/>
-      <c r="I23" s="201"/>
+      <c r="D23" s="195"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="195"/>
+      <c r="G23" s="195"/>
+      <c r="H23" s="195"/>
+      <c r="I23" s="196"/>
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="195" t="s">
+      <c r="C24" s="197" t="s">
         <v>2303</v>
       </c>
-      <c r="D24" s="195"/>
-      <c r="E24" s="195"/>
-      <c r="F24" s="195"/>
-      <c r="G24" s="195"/>
-      <c r="H24" s="195"/>
-      <c r="I24" s="196"/>
+      <c r="D24" s="197"/>
+      <c r="E24" s="197"/>
+      <c r="F24" s="197"/>
+      <c r="G24" s="197"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="198"/>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="195" t="s">
+      <c r="C25" s="197" t="s">
         <v>2304</v>
       </c>
-      <c r="D25" s="195"/>
-      <c r="E25" s="195"/>
-      <c r="F25" s="195"/>
-      <c r="G25" s="195"/>
-      <c r="H25" s="195"/>
-      <c r="I25" s="196"/>
+      <c r="D25" s="197"/>
+      <c r="E25" s="197"/>
+      <c r="F25" s="197"/>
+      <c r="G25" s="197"/>
+      <c r="H25" s="197"/>
+      <c r="I25" s="198"/>
       <c r="J25" s="92"/>
       <c r="M25" s="2"/>
     </row>
@@ -62398,15 +62488,15 @@
       <c r="B26" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="195" t="s">
+      <c r="C26" s="197" t="s">
         <v>2305</v>
       </c>
-      <c r="D26" s="195"/>
-      <c r="E26" s="195"/>
-      <c r="F26" s="195"/>
-      <c r="G26" s="195"/>
-      <c r="H26" s="195"/>
-      <c r="I26" s="196"/>
+      <c r="D26" s="197"/>
+      <c r="E26" s="197"/>
+      <c r="F26" s="197"/>
+      <c r="G26" s="197"/>
+      <c r="H26" s="197"/>
+      <c r="I26" s="198"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -62416,28 +62506,28 @@
       <c r="B27" s="93" t="s">
         <v>2306</v>
       </c>
-      <c r="C27" s="202" t="s">
+      <c r="C27" s="199" t="s">
         <v>2307</v>
       </c>
-      <c r="D27" s="202"/>
-      <c r="E27" s="202"/>
-      <c r="F27" s="202"/>
-      <c r="G27" s="202"/>
-      <c r="H27" s="202"/>
-      <c r="I27" s="203"/>
+      <c r="D27" s="199"/>
+      <c r="E27" s="199"/>
+      <c r="F27" s="199"/>
+      <c r="G27" s="199"/>
+      <c r="H27" s="199"/>
+      <c r="I27" s="200"/>
       <c r="J27" s="25"/>
     </row>
     <row r="28" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="183" t="s">
+      <c r="B28" s="201" t="s">
         <v>2308</v>
       </c>
-      <c r="C28" s="184"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="184"/>
-      <c r="I28" s="185"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="202"/>
+      <c r="E28" s="202"/>
+      <c r="F28" s="202"/>
+      <c r="G28" s="202"/>
+      <c r="H28" s="202"/>
+      <c r="I28" s="203"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -62501,15 +62591,15 @@
       <c r="B32" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="198" t="s">
+      <c r="C32" s="191" t="s">
         <v>2314</v>
       </c>
-      <c r="D32" s="198"/>
-      <c r="E32" s="198"/>
-      <c r="F32" s="198"/>
-      <c r="G32" s="198"/>
-      <c r="H32" s="198"/>
-      <c r="I32" s="199"/>
+      <c r="D32" s="191"/>
+      <c r="E32" s="191"/>
+      <c r="F32" s="191"/>
+      <c r="G32" s="191"/>
+      <c r="H32" s="191"/>
+      <c r="I32" s="192"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -62519,15 +62609,15 @@
       <c r="B33" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="198" t="s">
+      <c r="C33" s="191" t="s">
         <v>2315</v>
       </c>
-      <c r="D33" s="198"/>
-      <c r="E33" s="198"/>
-      <c r="F33" s="198"/>
-      <c r="G33" s="198"/>
-      <c r="H33" s="198"/>
-      <c r="I33" s="199"/>
+      <c r="D33" s="191"/>
+      <c r="E33" s="191"/>
+      <c r="F33" s="191"/>
+      <c r="G33" s="191"/>
+      <c r="H33" s="191"/>
+      <c r="I33" s="192"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -62537,15 +62627,15 @@
       <c r="B34" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="216" t="s">
+      <c r="C34" s="180" t="s">
         <v>2316</v>
       </c>
-      <c r="D34" s="216"/>
-      <c r="E34" s="216"/>
-      <c r="F34" s="216"/>
-      <c r="G34" s="216"/>
-      <c r="H34" s="216"/>
-      <c r="I34" s="217"/>
+      <c r="D34" s="180"/>
+      <c r="E34" s="180"/>
+      <c r="F34" s="180"/>
+      <c r="G34" s="180"/>
+      <c r="H34" s="180"/>
+      <c r="I34" s="181"/>
       <c r="J34" s="2"/>
       <c r="K34" s="91"/>
       <c r="L34" s="91"/>
@@ -62555,15 +62645,15 @@
       <c r="B35" s="97" t="s">
         <v>2317</v>
       </c>
-      <c r="C35" s="216" t="s">
+      <c r="C35" s="180" t="s">
         <v>2318</v>
       </c>
-      <c r="D35" s="216"/>
-      <c r="E35" s="216"/>
-      <c r="F35" s="216"/>
-      <c r="G35" s="216"/>
-      <c r="H35" s="216"/>
-      <c r="I35" s="217"/>
+      <c r="D35" s="180"/>
+      <c r="E35" s="180"/>
+      <c r="F35" s="180"/>
+      <c r="G35" s="180"/>
+      <c r="H35" s="180"/>
+      <c r="I35" s="181"/>
       <c r="J35" s="2"/>
       <c r="K35" s="91"/>
       <c r="L35" s="91"/>
@@ -62573,15 +62663,15 @@
       <c r="B36" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="216" t="s">
+      <c r="C36" s="180" t="s">
         <v>2319</v>
       </c>
-      <c r="D36" s="216"/>
-      <c r="E36" s="216"/>
-      <c r="F36" s="216"/>
-      <c r="G36" s="216"/>
-      <c r="H36" s="216"/>
-      <c r="I36" s="217"/>
+      <c r="D36" s="180"/>
+      <c r="E36" s="180"/>
+      <c r="F36" s="180"/>
+      <c r="G36" s="180"/>
+      <c r="H36" s="180"/>
+      <c r="I36" s="181"/>
       <c r="J36" s="2"/>
       <c r="K36" s="91"/>
       <c r="L36" s="91"/>
@@ -62591,15 +62681,15 @@
       <c r="B37" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="216" t="s">
+      <c r="C37" s="180" t="s">
         <v>2320</v>
       </c>
-      <c r="D37" s="216"/>
-      <c r="E37" s="216"/>
-      <c r="F37" s="216"/>
-      <c r="G37" s="216"/>
-      <c r="H37" s="216"/>
-      <c r="I37" s="217"/>
+      <c r="D37" s="180"/>
+      <c r="E37" s="180"/>
+      <c r="F37" s="180"/>
+      <c r="G37" s="180"/>
+      <c r="H37" s="180"/>
+      <c r="I37" s="181"/>
       <c r="J37" s="2"/>
       <c r="K37" s="91"/>
       <c r="L37" s="91"/>
@@ -62609,116 +62699,146 @@
       <c r="B38" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="218" t="s">
+      <c r="C38" s="182" t="s">
         <v>2321</v>
       </c>
-      <c r="D38" s="219"/>
-      <c r="E38" s="219"/>
-      <c r="F38" s="219"/>
-      <c r="G38" s="219"/>
-      <c r="H38" s="219"/>
-      <c r="I38" s="220"/>
+      <c r="D38" s="183"/>
+      <c r="E38" s="183"/>
+      <c r="F38" s="183"/>
+      <c r="G38" s="183"/>
+      <c r="H38" s="183"/>
+      <c r="I38" s="184"/>
     </row>
     <row r="39" spans="2:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="218" t="s">
+      <c r="C39" s="182" t="s">
         <v>2322</v>
       </c>
-      <c r="D39" s="219"/>
-      <c r="E39" s="219"/>
-      <c r="F39" s="219"/>
-      <c r="G39" s="219"/>
-      <c r="H39" s="219"/>
-      <c r="I39" s="220"/>
+      <c r="D39" s="183"/>
+      <c r="E39" s="183"/>
+      <c r="F39" s="183"/>
+      <c r="G39" s="183"/>
+      <c r="H39" s="183"/>
+      <c r="I39" s="184"/>
     </row>
     <row r="40" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="101" t="s">
         <v>2323</v>
       </c>
-      <c r="C40" s="221" t="s">
+      <c r="C40" s="185" t="s">
         <v>2324</v>
       </c>
-      <c r="D40" s="222"/>
-      <c r="E40" s="222"/>
-      <c r="F40" s="222"/>
-      <c r="G40" s="222"/>
-      <c r="H40" s="222"/>
-      <c r="I40" s="223"/>
+      <c r="D40" s="186"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="186"/>
+      <c r="G40" s="186"/>
+      <c r="H40" s="186"/>
+      <c r="I40" s="187"/>
     </row>
     <row r="41" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="102" t="s">
         <v>2325</v>
       </c>
-      <c r="C41" s="224" t="s">
+      <c r="C41" s="188" t="s">
         <v>2326</v>
       </c>
-      <c r="D41" s="222"/>
-      <c r="E41" s="222"/>
-      <c r="F41" s="222"/>
-      <c r="G41" s="222"/>
-      <c r="H41" s="222"/>
-      <c r="I41" s="223"/>
+      <c r="D41" s="186"/>
+      <c r="E41" s="186"/>
+      <c r="F41" s="186"/>
+      <c r="G41" s="186"/>
+      <c r="H41" s="186"/>
+      <c r="I41" s="187"/>
     </row>
     <row r="42" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="103" t="s">
         <v>2327</v>
       </c>
-      <c r="C42" s="225" t="s">
+      <c r="C42" s="189" t="s">
         <v>2328</v>
       </c>
-      <c r="D42" s="225"/>
-      <c r="E42" s="225"/>
-      <c r="F42" s="225"/>
-      <c r="G42" s="225"/>
-      <c r="H42" s="225"/>
-      <c r="I42" s="226"/>
+      <c r="D42" s="189"/>
+      <c r="E42" s="189"/>
+      <c r="F42" s="189"/>
+      <c r="G42" s="189"/>
+      <c r="H42" s="189"/>
+      <c r="I42" s="190"/>
     </row>
     <row r="43" spans="2:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="213" t="s">
+      <c r="C43" s="177" t="s">
         <v>2329</v>
       </c>
-      <c r="D43" s="214"/>
-      <c r="E43" s="214"/>
-      <c r="F43" s="214"/>
-      <c r="G43" s="214"/>
-      <c r="H43" s="214"/>
-      <c r="I43" s="215"/>
+      <c r="D43" s="178"/>
+      <c r="E43" s="178"/>
+      <c r="F43" s="178"/>
+      <c r="G43" s="178"/>
+      <c r="H43" s="178"/>
+      <c r="I43" s="179"/>
     </row>
     <row r="44" spans="2:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="213" t="s">
+      <c r="C44" s="177" t="s">
         <v>2330</v>
       </c>
-      <c r="D44" s="214"/>
-      <c r="E44" s="214"/>
-      <c r="F44" s="214"/>
-      <c r="G44" s="214"/>
-      <c r="H44" s="214"/>
-      <c r="I44" s="215"/>
+      <c r="D44" s="178"/>
+      <c r="E44" s="178"/>
+      <c r="F44" s="178"/>
+      <c r="G44" s="178"/>
+      <c r="H44" s="178"/>
+      <c r="I44" s="179"/>
     </row>
     <row r="45" spans="2:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="213" t="s">
+      <c r="C45" s="177" t="s">
         <v>2331</v>
       </c>
-      <c r="D45" s="214"/>
-      <c r="E45" s="214"/>
-      <c r="F45" s="214"/>
-      <c r="G45" s="214"/>
-      <c r="H45" s="214"/>
-      <c r="I45" s="215"/>
+      <c r="D45" s="178"/>
+      <c r="E45" s="178"/>
+      <c r="F45" s="178"/>
+      <c r="G45" s="178"/>
+      <c r="H45" s="178"/>
+      <c r="I45" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C32:I32"/>
     <mergeCell ref="C45:I45"/>
     <mergeCell ref="C34:I34"/>
     <mergeCell ref="C35:I35"/>
@@ -62731,36 +62851,6 @@
     <mergeCell ref="C42:I42"/>
     <mergeCell ref="C43:I43"/>
     <mergeCell ref="C44:I44"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H1" location="Ballot!A1" display="Ballot!A1"/>
@@ -64496,7 +64586,7 @@
       <c r="A3" s="231" t="s">
         <v>2340</v>
       </c>
-      <c r="B3" s="234" t="s">
+      <c r="B3" s="233" t="s">
         <v>2341</v>
       </c>
       <c r="C3" s="125" t="s">
@@ -64511,7 +64601,7 @@
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="232"/>
-      <c r="B4" s="235"/>
+      <c r="B4" s="234"/>
       <c r="C4" s="125" t="s">
         <v>2345</v>
       </c>
@@ -64524,7 +64614,7 @@
     </row>
     <row r="5" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="232"/>
-      <c r="B5" s="235"/>
+      <c r="B5" s="234"/>
       <c r="C5" s="125" t="s">
         <v>2348</v>
       </c>
@@ -64537,7 +64627,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="232"/>
-      <c r="B6" s="235"/>
+      <c r="B6" s="234"/>
       <c r="C6" s="125" t="s">
         <v>2350</v>
       </c>
@@ -64550,7 +64640,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="232"/>
-      <c r="B7" s="235"/>
+      <c r="B7" s="234"/>
       <c r="C7" s="125" t="s">
         <v>2289</v>
       </c>
@@ -64563,7 +64653,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="232"/>
-      <c r="B8" s="235"/>
+      <c r="B8" s="234"/>
       <c r="C8" s="125" t="s">
         <v>2353</v>
       </c>
@@ -64576,7 +64666,7 @@
     </row>
     <row r="9" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="232"/>
-      <c r="B9" s="235"/>
+      <c r="B9" s="234"/>
       <c r="C9" s="125" t="s">
         <v>2356</v>
       </c>
@@ -64589,7 +64679,7 @@
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="232"/>
-      <c r="B10" s="235"/>
+      <c r="B10" s="234"/>
       <c r="C10" s="125" t="s">
         <v>2358</v>
       </c>
@@ -64601,8 +64691,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="233"/>
-      <c r="B11" s="236"/>
+      <c r="A11" s="239"/>
+      <c r="B11" s="235"/>
       <c r="C11" s="125" t="s">
         <v>2361</v>
       </c>
@@ -64769,7 +64859,7 @@
       <c r="A26" s="231" t="s">
         <v>2386</v>
       </c>
-      <c r="B26" s="234" t="s">
+      <c r="B26" s="233" t="s">
         <v>2387</v>
       </c>
       <c r="C26" s="125" t="s">
@@ -64784,7 +64874,7 @@
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="232"/>
-      <c r="B27" s="235"/>
+      <c r="B27" s="234"/>
       <c r="C27" s="132" t="s">
         <v>2390</v>
       </c>
@@ -64797,7 +64887,7 @@
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="232"/>
-      <c r="B28" s="235"/>
+      <c r="B28" s="234"/>
       <c r="C28" s="132" t="s">
         <v>2392</v>
       </c>
@@ -64810,7 +64900,7 @@
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="232"/>
-      <c r="B29" s="235"/>
+      <c r="B29" s="234"/>
       <c r="C29" s="132" t="s">
         <v>2394</v>
       </c>
@@ -64823,7 +64913,7 @@
     </row>
     <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="232"/>
-      <c r="B30" s="235"/>
+      <c r="B30" s="234"/>
       <c r="C30" s="132" t="s">
         <v>2396</v>
       </c>
@@ -65009,7 +65099,7 @@
       <c r="A46" s="231" t="s">
         <v>641</v>
       </c>
-      <c r="B46" s="237" t="s">
+      <c r="B46" s="236" t="s">
         <v>2421</v>
       </c>
       <c r="C46" s="125" t="s">
@@ -65024,7 +65114,7 @@
     </row>
     <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="232"/>
-      <c r="B47" s="238"/>
+      <c r="B47" s="237"/>
       <c r="C47" s="125" t="s">
         <v>2423</v>
       </c>
@@ -65037,7 +65127,7 @@
     </row>
     <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="232"/>
-      <c r="B48" s="239"/>
+      <c r="B48" s="238"/>
       <c r="C48" s="125" t="s">
         <v>2425</v>
       </c>
@@ -65101,7 +65191,7 @@
       <c r="A54" s="231" t="s">
         <v>2433</v>
       </c>
-      <c r="B54" s="234" t="s">
+      <c r="B54" s="233" t="s">
         <v>2434</v>
       </c>
       <c r="C54" s="125" t="s">
@@ -65116,7 +65206,7 @@
     </row>
     <row r="55" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="232"/>
-      <c r="B55" s="235"/>
+      <c r="B55" s="234"/>
       <c r="C55" s="125" t="s">
         <v>2437</v>
       </c>
@@ -65129,7 +65219,7 @@
     </row>
     <row r="56" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="232"/>
-      <c r="B56" s="236"/>
+      <c r="B56" s="235"/>
       <c r="C56" s="125" t="s">
         <v>2439</v>
       </c>
@@ -65331,6 +65421,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="B34:B43"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="B66:B67"/>
     <mergeCell ref="A69:A70"/>
@@ -65341,18 +65443,6 @@
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="B34:B43"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/ballots/2013-01 Draft/Comments-FHIR_R1_O2_2013JAN.xlsx
+++ b/ballots/2013-01 Draft/Comments-FHIR_R1_O2_2013JAN.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10724" uniqueCount="2506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10726" uniqueCount="2506">
   <si>
     <t xml:space="preserve">BALLOT TITLE: </t>
   </si>
@@ -11860,23 +11860,8 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="19" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -11884,14 +11869,14 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -11904,6 +11889,12 @@
     <xf numFmtId="49" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -11929,23 +11920,32 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="19" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -11961,114 +11961,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="42" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -12112,6 +12004,114 @@
     <xf numFmtId="0" fontId="22" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="42" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -12128,9 +12128,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12150,6 +12147,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -12528,20 +12528,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:99" ht="45.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="152"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="148"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="153" t="s">
+      <c r="F1" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="155"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="171"/>
       <c r="K1" s="4"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -12549,12 +12549,12 @@
       <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="148"/>
       <c r="E2" s="3"/>
       <c r="F2" s="6" t="s">
         <v>3</v>
@@ -12570,20 +12570,20 @@
       <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:99" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="147"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="165"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="156" t="s">
+      <c r="F3" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="158"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="154"/>
       <c r="K3" s="10"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -12591,18 +12591,18 @@
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:99" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="147"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="165"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="150"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="168"/>
       <c r="K4" s="10"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -12610,18 +12610,18 @@
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:99" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="159" t="s">
+      <c r="A5" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="159"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="160"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="158"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="158"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="154"/>
       <c r="K5" s="10"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -12629,18 +12629,18 @@
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:99" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="162"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="160"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="158"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="154"/>
       <c r="K6" s="10"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -12648,18 +12648,18 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="152"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="148"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="165"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="163"/>
       <c r="K7" s="4"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
@@ -12669,18 +12669,18 @@
       <c r="CU7" s="16"/>
     </row>
     <row r="8" spans="1:99" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="151" t="s">
+      <c r="A8" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="151"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="152"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="148"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="169"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="151"/>
       <c r="K8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -12688,18 +12688,18 @@
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:99" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="151" t="s">
+      <c r="A9" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="151"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="152"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="148"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="158"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="154"/>
       <c r="K9" s="18"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
@@ -12707,19 +12707,19 @@
       <c r="P9" s="19"/>
     </row>
     <row r="10" spans="1:99" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="170">
+      <c r="A10" s="155">
         <f>IF(Ov=Setup!C9,Disclaimer2,IF(Ov=Setup!B9,Disclaimer,IF(Ov=Setup!D9,,)))</f>
         <v>0</v>
       </c>
-      <c r="B10" s="170"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
     </row>
     <row r="11" spans="1:99" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F11" s="20" t="s">
@@ -12739,12 +12739,12 @@
       <c r="F21" s="24"/>
     </row>
     <row r="23" spans="6:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
     </row>
     <row r="24" spans="6:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="166"/>
-      <c r="G24" s="166"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F25" s="25"/>
@@ -12752,6 +12752,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:J7"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="F8:J8"/>
@@ -12759,19 +12772,6 @@
     <mergeCell ref="F9:J9"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:J3"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Organization You Represent" prompt="Please put the name of the HL7 member organization you represent if it is different from the name of the organization you are employed by.  " sqref="F6"/>
@@ -12796,11 +12796,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF711"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E660" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="H155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G661" sqref="G661"/>
+      <selection pane="bottomRight" activeCell="R159" sqref="R159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -23792,7 +23792,9 @@
       <c r="Q155" s="63" t="s">
         <v>660</v>
       </c>
-      <c r="R155" s="52"/>
+      <c r="R155" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S155" s="52" t="s">
         <v>293</v>
       </c>
@@ -53384,7 +53386,9 @@
       <c r="Q598" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="R598" s="52"/>
+      <c r="R598" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S598" s="52"/>
       <c r="T598" s="53"/>
       <c r="U598" s="53"/>
@@ -62068,10 +62072,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H1" s="179" t="s">
+      <c r="H1" s="218" t="s">
         <v>2261</v>
       </c>
-      <c r="I1" s="179"/>
+      <c r="I1" s="218"/>
     </row>
     <row r="2" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="76" t="s">
@@ -62086,16 +62090,16 @@
       <c r="I2" s="78"/>
     </row>
     <row r="3" spans="2:14" ht="303.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="219" t="s">
         <v>2263</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="182"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="221"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J4" s="25"/>
@@ -62113,16 +62117,16 @@
       <c r="I5" s="78"/>
     </row>
     <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="183" t="s">
+      <c r="B6" s="201" t="s">
         <v>2265</v>
       </c>
-      <c r="C6" s="184"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="184"/>
-      <c r="F6" s="184"/>
-      <c r="G6" s="184"/>
-      <c r="H6" s="184"/>
-      <c r="I6" s="185"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="203"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -62132,15 +62136,15 @@
       <c r="B7" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="222" t="s">
         <v>2266</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="188"/>
+      <c r="D7" s="223"/>
+      <c r="E7" s="223"/>
+      <c r="F7" s="223"/>
+      <c r="G7" s="223"/>
+      <c r="H7" s="223"/>
+      <c r="I7" s="224"/>
       <c r="J7" s="80"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -62150,15 +62154,15 @@
       <c r="B8" s="81" t="s">
         <v>2267</v>
       </c>
-      <c r="C8" s="189" t="s">
+      <c r="C8" s="225" t="s">
         <v>2268</v>
       </c>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="190"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="225"/>
+      <c r="F8" s="225"/>
+      <c r="G8" s="225"/>
+      <c r="H8" s="225"/>
+      <c r="I8" s="226"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -62168,15 +62172,15 @@
       <c r="B9" s="82" t="s">
         <v>2269</v>
       </c>
-      <c r="C9" s="177" t="s">
+      <c r="C9" s="216" t="s">
         <v>2270</v>
       </c>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="178"/>
+      <c r="D9" s="216"/>
+      <c r="E9" s="216"/>
+      <c r="F9" s="216"/>
+      <c r="G9" s="216"/>
+      <c r="H9" s="216"/>
+      <c r="I9" s="217"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -62187,13 +62191,13 @@
       <c r="C10" s="84" t="s">
         <v>2271</v>
       </c>
-      <c r="D10" s="192" t="s">
+      <c r="D10" s="214" t="s">
         <v>2272</v>
       </c>
       <c r="E10" s="193"/>
       <c r="F10" s="193"/>
       <c r="G10" s="193"/>
-      <c r="H10" s="194"/>
+      <c r="H10" s="215"/>
       <c r="I10" s="85"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -62205,13 +62209,13 @@
       <c r="C11" s="84" t="s">
         <v>2273</v>
       </c>
-      <c r="D11" s="192" t="s">
+      <c r="D11" s="214" t="s">
         <v>2274</v>
       </c>
       <c r="E11" s="193"/>
       <c r="F11" s="193"/>
       <c r="G11" s="193"/>
-      <c r="H11" s="194"/>
+      <c r="H11" s="215"/>
       <c r="I11" s="85"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -62224,13 +62228,13 @@
       <c r="C12" s="84" t="s">
         <v>2275</v>
       </c>
-      <c r="D12" s="192" t="s">
+      <c r="D12" s="214" t="s">
         <v>2276</v>
       </c>
       <c r="E12" s="193"/>
       <c r="F12" s="193"/>
       <c r="G12" s="193"/>
-      <c r="H12" s="194"/>
+      <c r="H12" s="215"/>
       <c r="I12" s="85"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -62242,13 +62246,13 @@
       <c r="C13" s="84" t="s">
         <v>2277</v>
       </c>
-      <c r="D13" s="192" t="s">
+      <c r="D13" s="214" t="s">
         <v>2278</v>
       </c>
       <c r="E13" s="193"/>
       <c r="F13" s="193"/>
       <c r="G13" s="193"/>
-      <c r="H13" s="194"/>
+      <c r="H13" s="215"/>
       <c r="I13" s="85"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -62260,13 +62264,13 @@
       <c r="C14" s="84" t="s">
         <v>2279</v>
       </c>
-      <c r="D14" s="192" t="s">
+      <c r="D14" s="214" t="s">
         <v>2280</v>
       </c>
       <c r="E14" s="193"/>
       <c r="F14" s="193"/>
       <c r="G14" s="193"/>
-      <c r="H14" s="194"/>
+      <c r="H14" s="215"/>
       <c r="I14" s="85"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -62278,13 +62282,13 @@
       <c r="C15" s="84" t="s">
         <v>2281</v>
       </c>
-      <c r="D15" s="192" t="s">
+      <c r="D15" s="214" t="s">
         <v>2282</v>
       </c>
       <c r="E15" s="193"/>
       <c r="F15" s="193"/>
       <c r="G15" s="193"/>
-      <c r="H15" s="194"/>
+      <c r="H15" s="215"/>
       <c r="I15" s="85"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -62296,13 +62300,13 @@
       <c r="C16" s="84" t="s">
         <v>2283</v>
       </c>
-      <c r="D16" s="192" t="s">
+      <c r="D16" s="214" t="s">
         <v>2284</v>
       </c>
       <c r="E16" s="193"/>
       <c r="F16" s="193"/>
       <c r="G16" s="193"/>
-      <c r="H16" s="194"/>
+      <c r="H16" s="215"/>
       <c r="I16" s="85"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -62314,13 +62318,13 @@
       <c r="C17" s="84" t="s">
         <v>2285</v>
       </c>
-      <c r="D17" s="192" t="s">
+      <c r="D17" s="214" t="s">
         <v>2286</v>
       </c>
       <c r="E17" s="193"/>
       <c r="F17" s="193"/>
       <c r="G17" s="193"/>
-      <c r="H17" s="194"/>
+      <c r="H17" s="215"/>
       <c r="I17" s="85"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -62332,13 +62336,13 @@
       <c r="C18" s="84" t="s">
         <v>2287</v>
       </c>
-      <c r="D18" s="192" t="s">
+      <c r="D18" s="214" t="s">
         <v>2288</v>
       </c>
       <c r="E18" s="193"/>
       <c r="F18" s="193"/>
       <c r="G18" s="193"/>
-      <c r="H18" s="194"/>
+      <c r="H18" s="215"/>
       <c r="I18" s="85"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -62363,15 +62367,15 @@
       <c r="B20" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="195" t="s">
+      <c r="C20" s="197" t="s">
         <v>2289</v>
       </c>
-      <c r="D20" s="195"/>
-      <c r="E20" s="195"/>
-      <c r="F20" s="195"/>
-      <c r="G20" s="195"/>
-      <c r="H20" s="195"/>
-      <c r="I20" s="196"/>
+      <c r="D20" s="197"/>
+      <c r="E20" s="197"/>
+      <c r="F20" s="197"/>
+      <c r="G20" s="197"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="198"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -62389,11 +62393,11 @@
       <c r="F21" s="193"/>
       <c r="G21" s="193"/>
       <c r="H21" s="193"/>
-      <c r="I21" s="197"/>
+      <c r="I21" s="194"/>
       <c r="J21" s="90"/>
-      <c r="K21" s="191"/>
-      <c r="L21" s="191"/>
-      <c r="M21" s="191"/>
+      <c r="K21" s="213"/>
+      <c r="L21" s="213"/>
+      <c r="M21" s="213"/>
     </row>
     <row r="22" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="81" t="s">
@@ -62407,7 +62411,7 @@
       <c r="F22" s="193"/>
       <c r="G22" s="193"/>
       <c r="H22" s="193"/>
-      <c r="I22" s="197"/>
+      <c r="I22" s="194"/>
       <c r="J22" s="90"/>
       <c r="K22" s="91"/>
       <c r="L22" s="91"/>
@@ -62417,45 +62421,45 @@
       <c r="B23" s="81" t="s">
         <v>2293</v>
       </c>
-      <c r="C23" s="200" t="s">
+      <c r="C23" s="195" t="s">
         <v>2294</v>
       </c>
-      <c r="D23" s="200"/>
-      <c r="E23" s="200"/>
-      <c r="F23" s="200"/>
-      <c r="G23" s="200"/>
-      <c r="H23" s="200"/>
-      <c r="I23" s="201"/>
+      <c r="D23" s="195"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="195"/>
+      <c r="G23" s="195"/>
+      <c r="H23" s="195"/>
+      <c r="I23" s="196"/>
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="195" t="s">
+      <c r="C24" s="197" t="s">
         <v>2295</v>
       </c>
-      <c r="D24" s="195"/>
-      <c r="E24" s="195"/>
-      <c r="F24" s="195"/>
-      <c r="G24" s="195"/>
-      <c r="H24" s="195"/>
-      <c r="I24" s="196"/>
+      <c r="D24" s="197"/>
+      <c r="E24" s="197"/>
+      <c r="F24" s="197"/>
+      <c r="G24" s="197"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="198"/>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="195" t="s">
+      <c r="C25" s="197" t="s">
         <v>2296</v>
       </c>
-      <c r="D25" s="195"/>
-      <c r="E25" s="195"/>
-      <c r="F25" s="195"/>
-      <c r="G25" s="195"/>
-      <c r="H25" s="195"/>
-      <c r="I25" s="196"/>
+      <c r="D25" s="197"/>
+      <c r="E25" s="197"/>
+      <c r="F25" s="197"/>
+      <c r="G25" s="197"/>
+      <c r="H25" s="197"/>
+      <c r="I25" s="198"/>
       <c r="J25" s="92"/>
       <c r="M25" s="2"/>
     </row>
@@ -62463,15 +62467,15 @@
       <c r="B26" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="195" t="s">
+      <c r="C26" s="197" t="s">
         <v>2297</v>
       </c>
-      <c r="D26" s="195"/>
-      <c r="E26" s="195"/>
-      <c r="F26" s="195"/>
-      <c r="G26" s="195"/>
-      <c r="H26" s="195"/>
-      <c r="I26" s="196"/>
+      <c r="D26" s="197"/>
+      <c r="E26" s="197"/>
+      <c r="F26" s="197"/>
+      <c r="G26" s="197"/>
+      <c r="H26" s="197"/>
+      <c r="I26" s="198"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -62481,28 +62485,28 @@
       <c r="B27" s="93" t="s">
         <v>2298</v>
       </c>
-      <c r="C27" s="202" t="s">
+      <c r="C27" s="199" t="s">
         <v>2299</v>
       </c>
-      <c r="D27" s="202"/>
-      <c r="E27" s="202"/>
-      <c r="F27" s="202"/>
-      <c r="G27" s="202"/>
-      <c r="H27" s="202"/>
-      <c r="I27" s="203"/>
+      <c r="D27" s="199"/>
+      <c r="E27" s="199"/>
+      <c r="F27" s="199"/>
+      <c r="G27" s="199"/>
+      <c r="H27" s="199"/>
+      <c r="I27" s="200"/>
       <c r="J27" s="25"/>
     </row>
     <row r="28" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="183" t="s">
+      <c r="B28" s="201" t="s">
         <v>2300</v>
       </c>
-      <c r="C28" s="184"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="184"/>
-      <c r="I28" s="185"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="202"/>
+      <c r="E28" s="202"/>
+      <c r="F28" s="202"/>
+      <c r="G28" s="202"/>
+      <c r="H28" s="202"/>
+      <c r="I28" s="203"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -62566,15 +62570,15 @@
       <c r="B32" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="198" t="s">
+      <c r="C32" s="191" t="s">
         <v>2306</v>
       </c>
-      <c r="D32" s="198"/>
-      <c r="E32" s="198"/>
-      <c r="F32" s="198"/>
-      <c r="G32" s="198"/>
-      <c r="H32" s="198"/>
-      <c r="I32" s="199"/>
+      <c r="D32" s="191"/>
+      <c r="E32" s="191"/>
+      <c r="F32" s="191"/>
+      <c r="G32" s="191"/>
+      <c r="H32" s="191"/>
+      <c r="I32" s="192"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -62584,15 +62588,15 @@
       <c r="B33" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="198" t="s">
+      <c r="C33" s="191" t="s">
         <v>2307</v>
       </c>
-      <c r="D33" s="198"/>
-      <c r="E33" s="198"/>
-      <c r="F33" s="198"/>
-      <c r="G33" s="198"/>
-      <c r="H33" s="198"/>
-      <c r="I33" s="199"/>
+      <c r="D33" s="191"/>
+      <c r="E33" s="191"/>
+      <c r="F33" s="191"/>
+      <c r="G33" s="191"/>
+      <c r="H33" s="191"/>
+      <c r="I33" s="192"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -62602,15 +62606,15 @@
       <c r="B34" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="216" t="s">
+      <c r="C34" s="180" t="s">
         <v>2308</v>
       </c>
-      <c r="D34" s="216"/>
-      <c r="E34" s="216"/>
-      <c r="F34" s="216"/>
-      <c r="G34" s="216"/>
-      <c r="H34" s="216"/>
-      <c r="I34" s="217"/>
+      <c r="D34" s="180"/>
+      <c r="E34" s="180"/>
+      <c r="F34" s="180"/>
+      <c r="G34" s="180"/>
+      <c r="H34" s="180"/>
+      <c r="I34" s="181"/>
       <c r="J34" s="2"/>
       <c r="K34" s="91"/>
       <c r="L34" s="91"/>
@@ -62620,15 +62624,15 @@
       <c r="B35" s="97" t="s">
         <v>2309</v>
       </c>
-      <c r="C35" s="216" t="s">
+      <c r="C35" s="180" t="s">
         <v>2310</v>
       </c>
-      <c r="D35" s="216"/>
-      <c r="E35" s="216"/>
-      <c r="F35" s="216"/>
-      <c r="G35" s="216"/>
-      <c r="H35" s="216"/>
-      <c r="I35" s="217"/>
+      <c r="D35" s="180"/>
+      <c r="E35" s="180"/>
+      <c r="F35" s="180"/>
+      <c r="G35" s="180"/>
+      <c r="H35" s="180"/>
+      <c r="I35" s="181"/>
       <c r="J35" s="2"/>
       <c r="K35" s="91"/>
       <c r="L35" s="91"/>
@@ -62638,15 +62642,15 @@
       <c r="B36" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="216" t="s">
+      <c r="C36" s="180" t="s">
         <v>2311</v>
       </c>
-      <c r="D36" s="216"/>
-      <c r="E36" s="216"/>
-      <c r="F36" s="216"/>
-      <c r="G36" s="216"/>
-      <c r="H36" s="216"/>
-      <c r="I36" s="217"/>
+      <c r="D36" s="180"/>
+      <c r="E36" s="180"/>
+      <c r="F36" s="180"/>
+      <c r="G36" s="180"/>
+      <c r="H36" s="180"/>
+      <c r="I36" s="181"/>
       <c r="J36" s="2"/>
       <c r="K36" s="91"/>
       <c r="L36" s="91"/>
@@ -62656,15 +62660,15 @@
       <c r="B37" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="216" t="s">
+      <c r="C37" s="180" t="s">
         <v>2312</v>
       </c>
-      <c r="D37" s="216"/>
-      <c r="E37" s="216"/>
-      <c r="F37" s="216"/>
-      <c r="G37" s="216"/>
-      <c r="H37" s="216"/>
-      <c r="I37" s="217"/>
+      <c r="D37" s="180"/>
+      <c r="E37" s="180"/>
+      <c r="F37" s="180"/>
+      <c r="G37" s="180"/>
+      <c r="H37" s="180"/>
+      <c r="I37" s="181"/>
       <c r="J37" s="2"/>
       <c r="K37" s="91"/>
       <c r="L37" s="91"/>
@@ -62674,116 +62678,146 @@
       <c r="B38" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="218" t="s">
+      <c r="C38" s="182" t="s">
         <v>2313</v>
       </c>
-      <c r="D38" s="219"/>
-      <c r="E38" s="219"/>
-      <c r="F38" s="219"/>
-      <c r="G38" s="219"/>
-      <c r="H38" s="219"/>
-      <c r="I38" s="220"/>
+      <c r="D38" s="183"/>
+      <c r="E38" s="183"/>
+      <c r="F38" s="183"/>
+      <c r="G38" s="183"/>
+      <c r="H38" s="183"/>
+      <c r="I38" s="184"/>
     </row>
     <row r="39" spans="2:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="218" t="s">
+      <c r="C39" s="182" t="s">
         <v>2314</v>
       </c>
-      <c r="D39" s="219"/>
-      <c r="E39" s="219"/>
-      <c r="F39" s="219"/>
-      <c r="G39" s="219"/>
-      <c r="H39" s="219"/>
-      <c r="I39" s="220"/>
+      <c r="D39" s="183"/>
+      <c r="E39" s="183"/>
+      <c r="F39" s="183"/>
+      <c r="G39" s="183"/>
+      <c r="H39" s="183"/>
+      <c r="I39" s="184"/>
     </row>
     <row r="40" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="101" t="s">
         <v>2315</v>
       </c>
-      <c r="C40" s="221" t="s">
+      <c r="C40" s="185" t="s">
         <v>2316</v>
       </c>
-      <c r="D40" s="222"/>
-      <c r="E40" s="222"/>
-      <c r="F40" s="222"/>
-      <c r="G40" s="222"/>
-      <c r="H40" s="222"/>
-      <c r="I40" s="223"/>
+      <c r="D40" s="186"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="186"/>
+      <c r="G40" s="186"/>
+      <c r="H40" s="186"/>
+      <c r="I40" s="187"/>
     </row>
     <row r="41" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="102" t="s">
         <v>2317</v>
       </c>
-      <c r="C41" s="224" t="s">
+      <c r="C41" s="188" t="s">
         <v>2318</v>
       </c>
-      <c r="D41" s="222"/>
-      <c r="E41" s="222"/>
-      <c r="F41" s="222"/>
-      <c r="G41" s="222"/>
-      <c r="H41" s="222"/>
-      <c r="I41" s="223"/>
+      <c r="D41" s="186"/>
+      <c r="E41" s="186"/>
+      <c r="F41" s="186"/>
+      <c r="G41" s="186"/>
+      <c r="H41" s="186"/>
+      <c r="I41" s="187"/>
     </row>
     <row r="42" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="103" t="s">
         <v>2319</v>
       </c>
-      <c r="C42" s="225" t="s">
+      <c r="C42" s="189" t="s">
         <v>2320</v>
       </c>
-      <c r="D42" s="225"/>
-      <c r="E42" s="225"/>
-      <c r="F42" s="225"/>
-      <c r="G42" s="225"/>
-      <c r="H42" s="225"/>
-      <c r="I42" s="226"/>
+      <c r="D42" s="189"/>
+      <c r="E42" s="189"/>
+      <c r="F42" s="189"/>
+      <c r="G42" s="189"/>
+      <c r="H42" s="189"/>
+      <c r="I42" s="190"/>
     </row>
     <row r="43" spans="2:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="213" t="s">
+      <c r="C43" s="177" t="s">
         <v>2321</v>
       </c>
-      <c r="D43" s="214"/>
-      <c r="E43" s="214"/>
-      <c r="F43" s="214"/>
-      <c r="G43" s="214"/>
-      <c r="H43" s="214"/>
-      <c r="I43" s="215"/>
+      <c r="D43" s="178"/>
+      <c r="E43" s="178"/>
+      <c r="F43" s="178"/>
+      <c r="G43" s="178"/>
+      <c r="H43" s="178"/>
+      <c r="I43" s="179"/>
     </row>
     <row r="44" spans="2:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="213" t="s">
+      <c r="C44" s="177" t="s">
         <v>2322</v>
       </c>
-      <c r="D44" s="214"/>
-      <c r="E44" s="214"/>
-      <c r="F44" s="214"/>
-      <c r="G44" s="214"/>
-      <c r="H44" s="214"/>
-      <c r="I44" s="215"/>
+      <c r="D44" s="178"/>
+      <c r="E44" s="178"/>
+      <c r="F44" s="178"/>
+      <c r="G44" s="178"/>
+      <c r="H44" s="178"/>
+      <c r="I44" s="179"/>
     </row>
     <row r="45" spans="2:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="213" t="s">
+      <c r="C45" s="177" t="s">
         <v>2323</v>
       </c>
-      <c r="D45" s="214"/>
-      <c r="E45" s="214"/>
-      <c r="F45" s="214"/>
-      <c r="G45" s="214"/>
-      <c r="H45" s="214"/>
-      <c r="I45" s="215"/>
+      <c r="D45" s="178"/>
+      <c r="E45" s="178"/>
+      <c r="F45" s="178"/>
+      <c r="G45" s="178"/>
+      <c r="H45" s="178"/>
+      <c r="I45" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C32:I32"/>
     <mergeCell ref="C45:I45"/>
     <mergeCell ref="C34:I34"/>
     <mergeCell ref="C35:I35"/>
@@ -62796,36 +62830,6 @@
     <mergeCell ref="C42:I42"/>
     <mergeCell ref="C43:I43"/>
     <mergeCell ref="C44:I44"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H1" location="Ballot!A1" display="Ballot!A1"/>
@@ -64561,7 +64565,7 @@
       <c r="A3" s="231" t="s">
         <v>2332</v>
       </c>
-      <c r="B3" s="234" t="s">
+      <c r="B3" s="233" t="s">
         <v>2333</v>
       </c>
       <c r="C3" s="125" t="s">
@@ -64576,7 +64580,7 @@
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="232"/>
-      <c r="B4" s="235"/>
+      <c r="B4" s="234"/>
       <c r="C4" s="125" t="s">
         <v>2337</v>
       </c>
@@ -64589,7 +64593,7 @@
     </row>
     <row r="5" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="232"/>
-      <c r="B5" s="235"/>
+      <c r="B5" s="234"/>
       <c r="C5" s="125" t="s">
         <v>2340</v>
       </c>
@@ -64602,7 +64606,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="232"/>
-      <c r="B6" s="235"/>
+      <c r="B6" s="234"/>
       <c r="C6" s="125" t="s">
         <v>2342</v>
       </c>
@@ -64615,7 +64619,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="232"/>
-      <c r="B7" s="235"/>
+      <c r="B7" s="234"/>
       <c r="C7" s="125" t="s">
         <v>2281</v>
       </c>
@@ -64628,7 +64632,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="232"/>
-      <c r="B8" s="235"/>
+      <c r="B8" s="234"/>
       <c r="C8" s="125" t="s">
         <v>2345</v>
       </c>
@@ -64641,7 +64645,7 @@
     </row>
     <row r="9" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="232"/>
-      <c r="B9" s="235"/>
+      <c r="B9" s="234"/>
       <c r="C9" s="125" t="s">
         <v>2348</v>
       </c>
@@ -64654,7 +64658,7 @@
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="232"/>
-      <c r="B10" s="235"/>
+      <c r="B10" s="234"/>
       <c r="C10" s="125" t="s">
         <v>2350</v>
       </c>
@@ -64666,8 +64670,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="233"/>
-      <c r="B11" s="236"/>
+      <c r="A11" s="239"/>
+      <c r="B11" s="235"/>
       <c r="C11" s="125" t="s">
         <v>2353</v>
       </c>
@@ -64834,7 +64838,7 @@
       <c r="A26" s="231" t="s">
         <v>2378</v>
       </c>
-      <c r="B26" s="234" t="s">
+      <c r="B26" s="233" t="s">
         <v>2379</v>
       </c>
       <c r="C26" s="125" t="s">
@@ -64849,7 +64853,7 @@
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="232"/>
-      <c r="B27" s="235"/>
+      <c r="B27" s="234"/>
       <c r="C27" s="132" t="s">
         <v>2382</v>
       </c>
@@ -64862,7 +64866,7 @@
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="232"/>
-      <c r="B28" s="235"/>
+      <c r="B28" s="234"/>
       <c r="C28" s="132" t="s">
         <v>2384</v>
       </c>
@@ -64875,7 +64879,7 @@
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="232"/>
-      <c r="B29" s="235"/>
+      <c r="B29" s="234"/>
       <c r="C29" s="132" t="s">
         <v>2386</v>
       </c>
@@ -64888,7 +64892,7 @@
     </row>
     <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="232"/>
-      <c r="B30" s="235"/>
+      <c r="B30" s="234"/>
       <c r="C30" s="132" t="s">
         <v>2388</v>
       </c>
@@ -65074,7 +65078,7 @@
       <c r="A46" s="231" t="s">
         <v>641</v>
       </c>
-      <c r="B46" s="237" t="s">
+      <c r="B46" s="236" t="s">
         <v>2413</v>
       </c>
       <c r="C46" s="125" t="s">
@@ -65089,7 +65093,7 @@
     </row>
     <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="232"/>
-      <c r="B47" s="238"/>
+      <c r="B47" s="237"/>
       <c r="C47" s="125" t="s">
         <v>2415</v>
       </c>
@@ -65102,7 +65106,7 @@
     </row>
     <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="232"/>
-      <c r="B48" s="239"/>
+      <c r="B48" s="238"/>
       <c r="C48" s="125" t="s">
         <v>2417</v>
       </c>
@@ -65166,7 +65170,7 @@
       <c r="A54" s="231" t="s">
         <v>2425</v>
       </c>
-      <c r="B54" s="234" t="s">
+      <c r="B54" s="233" t="s">
         <v>2426</v>
       </c>
       <c r="C54" s="125" t="s">
@@ -65181,7 +65185,7 @@
     </row>
     <row r="55" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="232"/>
-      <c r="B55" s="235"/>
+      <c r="B55" s="234"/>
       <c r="C55" s="125" t="s">
         <v>2429</v>
       </c>
@@ -65194,7 +65198,7 @@
     </row>
     <row r="56" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="232"/>
-      <c r="B56" s="236"/>
+      <c r="B56" s="235"/>
       <c r="C56" s="125" t="s">
         <v>2431</v>
       </c>
@@ -65396,6 +65400,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="B34:B43"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="B66:B67"/>
     <mergeCell ref="A69:A70"/>
@@ -65406,18 +65422,6 @@
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="B34:B43"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/ballots/2013-01 Draft/Comments-FHIR_R1_O2_2013JAN.xlsx
+++ b/ballots/2013-01 Draft/Comments-FHIR_R1_O2_2013JAN.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10726" uniqueCount="2506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10729" uniqueCount="2506">
   <si>
     <t xml:space="preserve">BALLOT TITLE: </t>
   </si>
@@ -11860,8 +11860,23 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="19" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -11869,14 +11884,14 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -11889,12 +11904,6 @@
     <xf numFmtId="49" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -11920,32 +11929,23 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="19" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -11961,6 +11961,114 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="42" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -12004,114 +12112,6 @@
     <xf numFmtId="0" fontId="22" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="42" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -12128,6 +12128,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12147,9 +12150,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -12528,20 +12528,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:99" ht="45.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="148"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="169" t="s">
+      <c r="F1" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="171"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="155"/>
       <c r="K1" s="4"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -12549,12 +12549,12 @@
       <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="148"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="152"/>
       <c r="E2" s="3"/>
       <c r="F2" s="6" t="s">
         <v>3</v>
@@ -12570,20 +12570,20 @@
       <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:99" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="164"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="165"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="152" t="s">
+      <c r="F3" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="154"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="158"/>
       <c r="K3" s="10"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -12591,18 +12591,18 @@
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:99" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="164" t="s">
+      <c r="A4" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="164"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="165"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="147"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="168"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="150"/>
       <c r="K4" s="10"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -12610,18 +12610,18 @@
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:99" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="157"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="158"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="160"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="154"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="158"/>
       <c r="K5" s="10"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -12629,18 +12629,18 @@
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:99" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="161" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="160"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="162"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="154"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="158"/>
       <c r="K6" s="10"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -12648,18 +12648,18 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="147" t="s">
+      <c r="A7" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="147"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="148"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="152"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="165"/>
       <c r="K7" s="4"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
@@ -12669,18 +12669,18 @@
       <c r="CU7" s="16"/>
     </row>
     <row r="8" spans="1:99" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="147" t="s">
+      <c r="A8" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="148"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="152"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="151"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="169"/>
       <c r="K8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -12688,18 +12688,18 @@
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:99" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="147" t="s">
+      <c r="A9" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="147"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="148"/>
+      <c r="B9" s="151"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="152"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="154"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="158"/>
       <c r="K9" s="18"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
@@ -12707,19 +12707,19 @@
       <c r="P9" s="19"/>
     </row>
     <row r="10" spans="1:99" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="155">
+      <c r="A10" s="170">
         <f>IF(Ov=Setup!C9,Disclaimer2,IF(Ov=Setup!B9,Disclaimer,IF(Ov=Setup!D9,,)))</f>
         <v>0</v>
       </c>
-      <c r="B10" s="155"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="155"/>
+      <c r="B10" s="170"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
     </row>
     <row r="11" spans="1:99" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F11" s="20" t="s">
@@ -12739,12 +12739,12 @@
       <c r="F21" s="24"/>
     </row>
     <row r="23" spans="6:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="171"/>
     </row>
     <row r="24" spans="6:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="166"/>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F25" s="25"/>
@@ -12752,6 +12752,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:J7"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="A1:D1"/>
@@ -12759,19 +12772,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:J3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Organization You Represent" prompt="Please put the name of the HL7 member organization you represent if it is different from the name of the organization you are employed by.  " sqref="F6"/>
@@ -12794,13 +12794,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AF711"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="H155" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R159" sqref="R159"/>
+      <selection pane="bottomRight" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12976,7 +12977,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="204" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="204" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45">
         <v>1</v>
       </c>
@@ -13056,7 +13057,7 @@
       <c r="AE3" s="58"/>
       <c r="AF3" s="59"/>
     </row>
-    <row r="4" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45">
         <v>2</v>
       </c>
@@ -13136,7 +13137,7 @@
       <c r="AE4" s="58"/>
       <c r="AF4" s="59"/>
     </row>
-    <row r="5" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45">
         <v>3</v>
       </c>
@@ -13208,7 +13209,7 @@
       <c r="AE5" s="58"/>
       <c r="AF5" s="59"/>
     </row>
-    <row r="6" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45">
         <v>4</v>
       </c>
@@ -13278,7 +13279,7 @@
       <c r="AE6" s="58"/>
       <c r="AF6" s="59"/>
     </row>
-    <row r="7" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45">
         <v>5</v>
       </c>
@@ -13350,7 +13351,7 @@
       <c r="AE7" s="58"/>
       <c r="AF7" s="59"/>
     </row>
-    <row r="8" spans="1:32" s="62" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" s="62" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45">
         <v>6</v>
       </c>
@@ -13422,7 +13423,7 @@
       <c r="AE8" s="58"/>
       <c r="AF8" s="59"/>
     </row>
-    <row r="9" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45">
         <v>7</v>
       </c>
@@ -13490,7 +13491,7 @@
       <c r="AE9" s="58"/>
       <c r="AF9" s="59"/>
     </row>
-    <row r="10" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45">
         <v>8</v>
       </c>
@@ -13560,7 +13561,7 @@
       <c r="AE10" s="58"/>
       <c r="AF10" s="59"/>
     </row>
-    <row r="11" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45">
         <v>9</v>
       </c>
@@ -13632,7 +13633,7 @@
       <c r="AE11" s="58"/>
       <c r="AF11" s="59"/>
     </row>
-    <row r="12" spans="1:32" s="60" customFormat="1" ht="267.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" s="60" customFormat="1" ht="267.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45">
         <v>10</v>
       </c>
@@ -13702,7 +13703,7 @@
       <c r="AE12" s="58"/>
       <c r="AF12" s="59"/>
     </row>
-    <row r="13" spans="1:32" s="60" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" s="60" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45">
         <v>11</v>
       </c>
@@ -13772,7 +13773,7 @@
       <c r="AE13" s="58"/>
       <c r="AF13" s="59"/>
     </row>
-    <row r="14" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45">
         <v>12</v>
       </c>
@@ -13844,7 +13845,7 @@
       <c r="AE14" s="58"/>
       <c r="AF14" s="59"/>
     </row>
-    <row r="15" spans="1:32" s="60" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" s="60" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45">
         <v>13</v>
       </c>
@@ -13916,7 +13917,7 @@
       <c r="AE15" s="58"/>
       <c r="AF15" s="59"/>
     </row>
-    <row r="16" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45">
         <v>14</v>
       </c>
@@ -13988,7 +13989,7 @@
       <c r="AE16" s="58"/>
       <c r="AF16" s="59"/>
     </row>
-    <row r="17" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45">
         <v>15</v>
       </c>
@@ -14060,7 +14061,7 @@
       <c r="AE17" s="58"/>
       <c r="AF17" s="59"/>
     </row>
-    <row r="18" spans="1:32" s="60" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" s="60" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45">
         <v>16</v>
       </c>
@@ -14130,7 +14131,7 @@
       <c r="AE18" s="58"/>
       <c r="AF18" s="59"/>
     </row>
-    <row r="19" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45">
         <v>17</v>
       </c>
@@ -14202,7 +14203,7 @@
       <c r="AE19" s="58"/>
       <c r="AF19" s="59"/>
     </row>
-    <row r="20" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45">
         <v>18</v>
       </c>
@@ -14274,7 +14275,7 @@
       <c r="AE20" s="58"/>
       <c r="AF20" s="59"/>
     </row>
-    <row r="21" spans="1:32" s="60" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" s="60" customFormat="1" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45">
         <v>19</v>
       </c>
@@ -14344,7 +14345,7 @@
       <c r="AE21" s="58"/>
       <c r="AF21" s="59"/>
     </row>
-    <row r="22" spans="1:32" s="60" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" s="60" customFormat="1" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45">
         <v>20</v>
       </c>
@@ -14412,7 +14413,7 @@
       <c r="AE22" s="58"/>
       <c r="AF22" s="59"/>
     </row>
-    <row r="23" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45">
         <v>21</v>
       </c>
@@ -14482,7 +14483,7 @@
       <c r="AE23" s="58"/>
       <c r="AF23" s="59"/>
     </row>
-    <row r="24" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45">
         <v>22</v>
       </c>
@@ -14548,7 +14549,7 @@
       <c r="AE24" s="58"/>
       <c r="AF24" s="59"/>
     </row>
-    <row r="25" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45">
         <v>23</v>
       </c>
@@ -14616,7 +14617,7 @@
       <c r="AE25" s="58"/>
       <c r="AF25" s="59"/>
     </row>
-    <row r="26" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45">
         <v>24</v>
       </c>
@@ -14686,7 +14687,7 @@
       <c r="AE26" s="58"/>
       <c r="AF26" s="59"/>
     </row>
-    <row r="27" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45">
         <v>25</v>
       </c>
@@ -14756,7 +14757,7 @@
       <c r="AE27" s="58"/>
       <c r="AF27" s="59"/>
     </row>
-    <row r="28" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="45">
         <v>26</v>
       </c>
@@ -14826,7 +14827,7 @@
       <c r="AE28" s="58"/>
       <c r="AF28" s="59"/>
     </row>
-    <row r="29" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="45">
         <v>27</v>
       </c>
@@ -14896,7 +14897,7 @@
       <c r="AE29" s="58"/>
       <c r="AF29" s="59"/>
     </row>
-    <row r="30" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="45">
         <v>28</v>
       </c>
@@ -14966,7 +14967,7 @@
       <c r="AE30" s="58"/>
       <c r="AF30" s="59"/>
     </row>
-    <row r="31" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45">
         <v>29</v>
       </c>
@@ -15032,7 +15033,7 @@
       <c r="AE31" s="58"/>
       <c r="AF31" s="59"/>
     </row>
-    <row r="32" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="45">
         <v>30</v>
       </c>
@@ -15102,7 +15103,7 @@
       <c r="AE32" s="58"/>
       <c r="AF32" s="59"/>
     </row>
-    <row r="33" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45">
         <v>31</v>
       </c>
@@ -15178,7 +15179,7 @@
       <c r="AE33" s="58"/>
       <c r="AF33" s="59"/>
     </row>
-    <row r="34" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45">
         <v>32</v>
       </c>
@@ -15254,7 +15255,7 @@
       <c r="AE34" s="58"/>
       <c r="AF34" s="59"/>
     </row>
-    <row r="35" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45">
         <v>33</v>
       </c>
@@ -15330,7 +15331,7 @@
       <c r="AE35" s="58"/>
       <c r="AF35" s="59"/>
     </row>
-    <row r="36" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45">
         <v>34</v>
       </c>
@@ -15398,7 +15399,7 @@
       <c r="AE36" s="58"/>
       <c r="AF36" s="59"/>
     </row>
-    <row r="37" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45">
         <v>35</v>
       </c>
@@ -15466,7 +15467,7 @@
       <c r="AE37" s="58"/>
       <c r="AF37" s="59"/>
     </row>
-    <row r="38" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="45">
         <v>36</v>
       </c>
@@ -15532,7 +15533,7 @@
       <c r="AE38" s="58"/>
       <c r="AF38" s="59"/>
     </row>
-    <row r="39" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="45">
         <v>37</v>
       </c>
@@ -15608,7 +15609,7 @@
       <c r="AE39" s="58"/>
       <c r="AF39" s="59"/>
     </row>
-    <row r="40" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45">
         <v>38</v>
       </c>
@@ -15674,7 +15675,7 @@
       <c r="AE40" s="58"/>
       <c r="AF40" s="59"/>
     </row>
-    <row r="41" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="45">
         <v>39</v>
       </c>
@@ -15740,7 +15741,7 @@
       <c r="AE41" s="58"/>
       <c r="AF41" s="59"/>
     </row>
-    <row r="42" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="45">
         <v>40</v>
       </c>
@@ -15806,7 +15807,7 @@
       <c r="AE42" s="58"/>
       <c r="AF42" s="59"/>
     </row>
-    <row r="43" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45">
         <v>41</v>
       </c>
@@ -15876,7 +15877,7 @@
       <c r="AE43" s="58"/>
       <c r="AF43" s="59"/>
     </row>
-    <row r="44" spans="1:32" s="60" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" s="60" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="45">
         <v>42</v>
       </c>
@@ -15956,7 +15957,7 @@
       <c r="AE44" s="58"/>
       <c r="AF44" s="59"/>
     </row>
-    <row r="45" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="45">
         <v>43</v>
       </c>
@@ -16032,7 +16033,7 @@
       <c r="AE45" s="58"/>
       <c r="AF45" s="59"/>
     </row>
-    <row r="46" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="45">
         <v>44</v>
       </c>
@@ -16104,7 +16105,7 @@
       <c r="AE46" s="58"/>
       <c r="AF46" s="59"/>
     </row>
-    <row r="47" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="45">
         <v>45</v>
       </c>
@@ -16172,7 +16173,7 @@
       <c r="AE47" s="58"/>
       <c r="AF47" s="59"/>
     </row>
-    <row r="48" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="45">
         <v>46</v>
       </c>
@@ -16244,7 +16245,7 @@
       <c r="AE48" s="58"/>
       <c r="AF48" s="59"/>
     </row>
-    <row r="49" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="45">
         <v>47</v>
       </c>
@@ -16312,7 +16313,7 @@
       <c r="AE49" s="58"/>
       <c r="AF49" s="59"/>
     </row>
-    <row r="50" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="45">
         <v>48</v>
       </c>
@@ -16384,7 +16385,7 @@
       <c r="AE50" s="58"/>
       <c r="AF50" s="59"/>
     </row>
-    <row r="51" spans="1:32" s="60" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" s="60" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="45">
         <v>49</v>
       </c>
@@ -16458,7 +16459,7 @@
       <c r="AE51" s="58"/>
       <c r="AF51" s="59"/>
     </row>
-    <row r="52" spans="1:32" s="60" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" s="60" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="45">
         <v>50</v>
       </c>
@@ -16532,7 +16533,7 @@
       <c r="AE52" s="58"/>
       <c r="AF52" s="59"/>
     </row>
-    <row r="53" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="45">
         <v>51</v>
       </c>
@@ -16604,7 +16605,7 @@
       <c r="AE53" s="58"/>
       <c r="AF53" s="59"/>
     </row>
-    <row r="54" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="45">
         <v>52</v>
       </c>
@@ -16682,7 +16683,7 @@
       <c r="AE54" s="58"/>
       <c r="AF54" s="59"/>
     </row>
-    <row r="55" spans="1:32" s="60" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" s="60" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="45">
         <v>53</v>
       </c>
@@ -16826,7 +16827,7 @@
       <c r="AE56" s="58"/>
       <c r="AF56" s="59"/>
     </row>
-    <row r="57" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="45">
         <v>55</v>
       </c>
@@ -16892,7 +16893,7 @@
       <c r="AE57" s="58"/>
       <c r="AF57" s="59"/>
     </row>
-    <row r="58" spans="1:32" s="60" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" s="60" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="45">
         <v>56</v>
       </c>
@@ -17148,7 +17149,9 @@
       <c r="Q61" s="52" t="s">
         <v>305</v>
       </c>
-      <c r="R61" s="52"/>
+      <c r="R61" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S61" s="52"/>
       <c r="T61" s="53"/>
       <c r="U61" s="53"/>
@@ -17772,7 +17775,7 @@
       <c r="AE70" s="58"/>
       <c r="AF70" s="59"/>
     </row>
-    <row r="71" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="45">
         <v>69</v>
       </c>
@@ -18130,7 +18133,7 @@
       <c r="AE75" s="58"/>
       <c r="AF75" s="59"/>
     </row>
-    <row r="76" spans="1:32" s="60" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" s="60" customFormat="1" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="45">
         <v>74</v>
       </c>
@@ -18198,7 +18201,7 @@
       <c r="AE76" s="58"/>
       <c r="AF76" s="59"/>
     </row>
-    <row r="77" spans="1:32" s="60" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" s="60" customFormat="1" ht="146.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="45">
         <v>75</v>
       </c>
@@ -18268,7 +18271,7 @@
       <c r="AE77" s="58"/>
       <c r="AF77" s="59"/>
     </row>
-    <row r="78" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="45">
         <v>76</v>
       </c>
@@ -18348,7 +18351,7 @@
       <c r="AE78" s="58"/>
       <c r="AF78" s="59"/>
     </row>
-    <row r="79" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="45">
         <v>77</v>
       </c>
@@ -18420,7 +18423,7 @@
       <c r="AE79" s="58"/>
       <c r="AF79" s="59"/>
     </row>
-    <row r="80" spans="1:32" s="60" customFormat="1" ht="382.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" s="60" customFormat="1" ht="382.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="45">
         <v>78</v>
       </c>
@@ -18500,7 +18503,7 @@
       <c r="AE80" s="58"/>
       <c r="AF80" s="59"/>
     </row>
-    <row r="81" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="45">
         <v>79</v>
       </c>
@@ -18568,7 +18571,7 @@
       <c r="AE81" s="58"/>
       <c r="AF81" s="59"/>
     </row>
-    <row r="82" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="45">
         <v>80</v>
       </c>
@@ -18638,7 +18641,7 @@
       <c r="AE82" s="58"/>
       <c r="AF82" s="59"/>
     </row>
-    <row r="83" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45">
         <v>81</v>
       </c>
@@ -18708,7 +18711,7 @@
       <c r="AE83" s="58"/>
       <c r="AF83" s="59"/>
     </row>
-    <row r="84" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45">
         <v>82</v>
       </c>
@@ -18780,7 +18783,7 @@
       <c r="AE84" s="58"/>
       <c r="AF84" s="59"/>
     </row>
-    <row r="85" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="45">
         <v>83</v>
       </c>
@@ -18894,7 +18897,9 @@
       <c r="Q86" s="52" t="s">
         <v>395</v>
       </c>
-      <c r="R86" s="52"/>
+      <c r="R86" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S86" s="52"/>
       <c r="T86" s="53"/>
       <c r="U86" s="53"/>
@@ -18920,7 +18925,7 @@
       <c r="AE86" s="58"/>
       <c r="AF86" s="59"/>
     </row>
-    <row r="87" spans="1:32" s="60" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32" s="60" customFormat="1" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45">
         <v>85</v>
       </c>
@@ -18998,7 +19003,7 @@
       <c r="AE87" s="58"/>
       <c r="AF87" s="59"/>
     </row>
-    <row r="88" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45">
         <v>86</v>
       </c>
@@ -19070,7 +19075,7 @@
       <c r="AE88" s="58"/>
       <c r="AF88" s="59"/>
     </row>
-    <row r="89" spans="1:32" s="60" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32" s="60" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="45">
         <v>87</v>
       </c>
@@ -19150,7 +19155,7 @@
       <c r="AE89" s="58"/>
       <c r="AF89" s="59"/>
     </row>
-    <row r="90" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="45">
         <v>88</v>
       </c>
@@ -19218,7 +19223,7 @@
       <c r="AE90" s="58"/>
       <c r="AF90" s="59"/>
     </row>
-    <row r="91" spans="1:32" s="60" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32" s="60" customFormat="1" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45">
         <v>89</v>
       </c>
@@ -19286,7 +19291,7 @@
       <c r="AE91" s="58"/>
       <c r="AF91" s="59"/>
     </row>
-    <row r="92" spans="1:32" s="60" customFormat="1" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32" s="60" customFormat="1" ht="178.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45">
         <v>90</v>
       </c>
@@ -19360,7 +19365,7 @@
       <c r="AE92" s="58"/>
       <c r="AF92" s="59"/>
     </row>
-    <row r="93" spans="1:32" s="60" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32" s="60" customFormat="1" ht="204" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="45">
         <v>91</v>
       </c>
@@ -19430,7 +19435,7 @@
       <c r="AE93" s="58"/>
       <c r="AF93" s="59"/>
     </row>
-    <row r="94" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="45">
         <v>92</v>
       </c>
@@ -19502,7 +19507,7 @@
       <c r="AE94" s="58"/>
       <c r="AF94" s="59"/>
     </row>
-    <row r="95" spans="1:32" s="60" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32" s="60" customFormat="1" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="45">
         <v>93</v>
       </c>
@@ -19584,7 +19589,7 @@
       <c r="AE95" s="58"/>
       <c r="AF95" s="59"/>
     </row>
-    <row r="96" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="45">
         <v>94</v>
       </c>
@@ -19656,7 +19661,7 @@
       <c r="AE96" s="58"/>
       <c r="AF96" s="59"/>
     </row>
-    <row r="97" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="45">
         <v>95</v>
       </c>
@@ -19728,7 +19733,7 @@
       <c r="AE97" s="58"/>
       <c r="AF97" s="59"/>
     </row>
-    <row r="98" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="45">
         <v>96</v>
       </c>
@@ -19798,7 +19803,7 @@
       <c r="AE98" s="58"/>
       <c r="AF98" s="59"/>
     </row>
-    <row r="99" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="45">
         <v>97</v>
       </c>
@@ -19868,7 +19873,7 @@
       <c r="AE99" s="58"/>
       <c r="AF99" s="59"/>
     </row>
-    <row r="100" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="45">
         <v>98</v>
       </c>
@@ -19940,7 +19945,7 @@
       <c r="AE100" s="58"/>
       <c r="AF100" s="59"/>
     </row>
-    <row r="101" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="45">
         <v>99</v>
       </c>
@@ -20008,7 +20013,7 @@
       <c r="AE101" s="58"/>
       <c r="AF101" s="59"/>
     </row>
-    <row r="102" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="45">
         <v>100</v>
       </c>
@@ -20088,7 +20093,7 @@
       <c r="AE102" s="58"/>
       <c r="AF102" s="59"/>
     </row>
-    <row r="103" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="45">
         <v>101</v>
       </c>
@@ -20158,7 +20163,7 @@
       <c r="AE103" s="58"/>
       <c r="AF103" s="59"/>
     </row>
-    <row r="104" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="45">
         <v>102</v>
       </c>
@@ -20230,7 +20235,7 @@
       <c r="AE104" s="58"/>
       <c r="AF104" s="59"/>
     </row>
-    <row r="105" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="45">
         <v>103</v>
       </c>
@@ -20300,7 +20305,7 @@
       <c r="AE105" s="58"/>
       <c r="AF105" s="59"/>
     </row>
-    <row r="106" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="45">
         <v>104</v>
       </c>
@@ -20372,7 +20377,7 @@
       <c r="AE106" s="58"/>
       <c r="AF106" s="59"/>
     </row>
-    <row r="107" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="45">
         <v>105</v>
       </c>
@@ -20440,7 +20445,7 @@
       <c r="AE107" s="58"/>
       <c r="AF107" s="59"/>
     </row>
-    <row r="108" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="45">
         <v>106</v>
       </c>
@@ -20510,7 +20515,7 @@
       <c r="AE108" s="58"/>
       <c r="AF108" s="59"/>
     </row>
-    <row r="109" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="45">
         <v>107</v>
       </c>
@@ -20582,7 +20587,7 @@
       <c r="AE109" s="58"/>
       <c r="AF109" s="59"/>
     </row>
-    <row r="110" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="45">
         <v>108</v>
       </c>
@@ -20652,7 +20657,7 @@
       <c r="AE110" s="58"/>
       <c r="AF110" s="59"/>
     </row>
-    <row r="111" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="45">
         <v>109</v>
       </c>
@@ -20718,7 +20723,7 @@
       <c r="AE111" s="58"/>
       <c r="AF111" s="59"/>
     </row>
-    <row r="112" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="45">
         <v>110</v>
       </c>
@@ -20786,7 +20791,7 @@
       <c r="AE112" s="58"/>
       <c r="AF112" s="59"/>
     </row>
-    <row r="113" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="45">
         <v>111</v>
       </c>
@@ -20854,7 +20859,7 @@
       <c r="AE113" s="58"/>
       <c r="AF113" s="59"/>
     </row>
-    <row r="114" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="45">
         <v>112</v>
       </c>
@@ -20928,7 +20933,7 @@
       <c r="AE114" s="58"/>
       <c r="AF114" s="59"/>
     </row>
-    <row r="115" spans="1:32" s="60" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:32" s="60" customFormat="1" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="45">
         <v>113</v>
       </c>
@@ -21008,7 +21013,7 @@
       <c r="AE115" s="58"/>
       <c r="AF115" s="59"/>
     </row>
-    <row r="116" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="45">
         <v>114</v>
       </c>
@@ -21076,7 +21081,7 @@
       <c r="AE116" s="58"/>
       <c r="AF116" s="59"/>
     </row>
-    <row r="117" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="45">
         <v>115</v>
       </c>
@@ -21148,7 +21153,7 @@
       <c r="AE117" s="58"/>
       <c r="AF117" s="59"/>
     </row>
-    <row r="118" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="45">
         <v>116</v>
       </c>
@@ -21220,7 +21225,7 @@
       <c r="AE118" s="58"/>
       <c r="AF118" s="59"/>
     </row>
-    <row r="119" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="45">
         <v>117</v>
       </c>
@@ -21298,7 +21303,7 @@
       <c r="AE119" s="58"/>
       <c r="AF119" s="59"/>
     </row>
-    <row r="120" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="45">
         <v>118</v>
       </c>
@@ -21370,7 +21375,7 @@
       <c r="AE120" s="58"/>
       <c r="AF120" s="59"/>
     </row>
-    <row r="121" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="45">
         <v>119</v>
       </c>
@@ -21440,7 +21445,7 @@
       <c r="AE121" s="58"/>
       <c r="AF121" s="59"/>
     </row>
-    <row r="122" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="45">
         <v>120</v>
       </c>
@@ -21508,7 +21513,7 @@
       <c r="AE122" s="58"/>
       <c r="AF122" s="59"/>
     </row>
-    <row r="123" spans="1:32" s="60" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:32" s="60" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="45">
         <v>121</v>
       </c>
@@ -21580,7 +21585,7 @@
       <c r="AE123" s="58"/>
       <c r="AF123" s="59"/>
     </row>
-    <row r="124" spans="1:32" s="60" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:32" s="60" customFormat="1" ht="198" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="45">
         <v>122</v>
       </c>
@@ -21646,7 +21651,7 @@
       <c r="AE124" s="58"/>
       <c r="AF124" s="59"/>
     </row>
-    <row r="125" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="45">
         <v>123</v>
       </c>
@@ -21728,7 +21733,7 @@
       <c r="AE125" s="58"/>
       <c r="AF125" s="59"/>
     </row>
-    <row r="126" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="45">
         <v>124</v>
       </c>
@@ -21794,7 +21799,7 @@
       <c r="AE126" s="58"/>
       <c r="AF126" s="59"/>
     </row>
-    <row r="127" spans="1:32" s="60" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:32" s="60" customFormat="1" ht="165.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="45">
         <v>125</v>
       </c>
@@ -21860,7 +21865,7 @@
       <c r="AE127" s="58"/>
       <c r="AF127" s="59"/>
     </row>
-    <row r="128" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="45">
         <v>126</v>
       </c>
@@ -21926,7 +21931,7 @@
       <c r="AE128" s="58"/>
       <c r="AF128" s="59"/>
     </row>
-    <row r="129" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="45">
         <v>127</v>
       </c>
@@ -21992,7 +21997,7 @@
       <c r="AE129" s="58"/>
       <c r="AF129" s="59"/>
     </row>
-    <row r="130" spans="1:32" s="60" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:32" s="60" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="45">
         <v>128</v>
       </c>
@@ -22064,7 +22069,7 @@
       <c r="AE130" s="58"/>
       <c r="AF130" s="59"/>
     </row>
-    <row r="131" spans="1:32" s="60" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:32" s="60" customFormat="1" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="45">
         <v>129</v>
       </c>
@@ -22132,7 +22137,7 @@
       <c r="AE131" s="58"/>
       <c r="AF131" s="59"/>
     </row>
-    <row r="132" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="45">
         <v>130</v>
       </c>
@@ -22200,7 +22205,7 @@
       <c r="AE132" s="58"/>
       <c r="AF132" s="59"/>
     </row>
-    <row r="133" spans="1:32" s="60" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:32" s="60" customFormat="1" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="45">
         <v>131</v>
       </c>
@@ -22266,7 +22271,7 @@
       <c r="AE133" s="58"/>
       <c r="AF133" s="59"/>
     </row>
-    <row r="134" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="45">
         <v>132</v>
       </c>
@@ -22336,7 +22341,7 @@
       <c r="AE134" s="58"/>
       <c r="AF134" s="59"/>
     </row>
-    <row r="135" spans="1:32" s="60" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:32" s="60" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="45">
         <v>133</v>
       </c>
@@ -22406,7 +22411,7 @@
       <c r="AE135" s="58"/>
       <c r="AF135" s="59"/>
     </row>
-    <row r="136" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="45">
         <v>134</v>
       </c>
@@ -22478,7 +22483,7 @@
       <c r="AE136" s="58"/>
       <c r="AF136" s="59"/>
     </row>
-    <row r="137" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="45">
         <v>135</v>
       </c>
@@ -22550,7 +22555,7 @@
       <c r="AE137" s="58"/>
       <c r="AF137" s="59"/>
     </row>
-    <row r="138" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="45">
         <v>136</v>
       </c>
@@ -22622,7 +22627,7 @@
       <c r="AE138" s="58"/>
       <c r="AF138" s="59"/>
     </row>
-    <row r="139" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="45">
         <v>137</v>
       </c>
@@ -22694,7 +22699,7 @@
       <c r="AE139" s="58"/>
       <c r="AF139" s="59"/>
     </row>
-    <row r="140" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="45">
         <v>138</v>
       </c>
@@ -22766,7 +22771,7 @@
       <c r="AE140" s="58"/>
       <c r="AF140" s="59"/>
     </row>
-    <row r="141" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="45">
         <v>139</v>
       </c>
@@ -22832,7 +22837,7 @@
       <c r="AE141" s="58"/>
       <c r="AF141" s="59"/>
     </row>
-    <row r="142" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="45">
         <v>140</v>
       </c>
@@ -22904,7 +22909,7 @@
       <c r="AE142" s="58"/>
       <c r="AF142" s="59"/>
     </row>
-    <row r="143" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="45">
         <v>141</v>
       </c>
@@ -22974,7 +22979,7 @@
       <c r="AE143" s="58"/>
       <c r="AF143" s="59"/>
     </row>
-    <row r="144" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="45">
         <v>142</v>
       </c>
@@ -23040,7 +23045,7 @@
       <c r="AE144" s="58"/>
       <c r="AF144" s="59"/>
     </row>
-    <row r="145" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="45">
         <v>143</v>
       </c>
@@ -23110,7 +23115,7 @@
       <c r="AE145" s="58"/>
       <c r="AF145" s="59"/>
     </row>
-    <row r="146" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="45">
         <v>144</v>
       </c>
@@ -23182,7 +23187,7 @@
       <c r="AE146" s="58"/>
       <c r="AF146" s="59"/>
     </row>
-    <row r="147" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="45">
         <v>145</v>
       </c>
@@ -23252,7 +23257,7 @@
       <c r="AE147" s="58"/>
       <c r="AF147" s="59"/>
     </row>
-    <row r="148" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="45">
         <v>146</v>
       </c>
@@ -23318,7 +23323,7 @@
       <c r="AE148" s="58"/>
       <c r="AF148" s="59"/>
     </row>
-    <row r="149" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="45">
         <v>147</v>
       </c>
@@ -23386,7 +23391,7 @@
       <c r="AE149" s="58"/>
       <c r="AF149" s="59"/>
     </row>
-    <row r="150" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="45">
         <v>148</v>
       </c>
@@ -23456,7 +23461,7 @@
       <c r="AE150" s="58"/>
       <c r="AF150" s="59"/>
     </row>
-    <row r="151" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="45">
         <v>149</v>
       </c>
@@ -23536,7 +23541,7 @@
       <c r="AE151" s="58"/>
       <c r="AF151" s="59"/>
     </row>
-    <row r="152" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="45">
         <v>150</v>
       </c>
@@ -23604,7 +23609,7 @@
       <c r="AE152" s="58"/>
       <c r="AF152" s="59"/>
     </row>
-    <row r="153" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="45">
         <v>151</v>
       </c>
@@ -23672,7 +23677,7 @@
       <c r="AE153" s="58"/>
       <c r="AF153" s="59"/>
     </row>
-    <row r="154" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="45">
         <v>152</v>
       </c>
@@ -23750,7 +23755,7 @@
       <c r="AE154" s="58"/>
       <c r="AF154" s="59"/>
     </row>
-    <row r="155" spans="1:32" s="60" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:32" s="60" customFormat="1" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="45">
         <v>153</v>
       </c>
@@ -23828,7 +23833,7 @@
       <c r="AE155" s="58"/>
       <c r="AF155" s="59"/>
     </row>
-    <row r="156" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="45">
         <v>154</v>
       </c>
@@ -23904,7 +23909,7 @@
       <c r="AE156" s="58"/>
       <c r="AF156" s="59"/>
     </row>
-    <row r="157" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="45">
         <v>155</v>
       </c>
@@ -23974,7 +23979,7 @@
       <c r="AE157" s="58"/>
       <c r="AF157" s="59"/>
     </row>
-    <row r="158" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="45">
         <v>156</v>
       </c>
@@ -24044,7 +24049,7 @@
       <c r="AE158" s="58"/>
       <c r="AF158" s="59"/>
     </row>
-    <row r="159" spans="1:32" s="60" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:32" s="60" customFormat="1" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="45">
         <v>157</v>
       </c>
@@ -24114,7 +24119,7 @@
       <c r="AE159" s="58"/>
       <c r="AF159" s="59"/>
     </row>
-    <row r="160" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="45">
         <v>158</v>
       </c>
@@ -24184,7 +24189,7 @@
       <c r="AE160" s="58"/>
       <c r="AF160" s="59"/>
     </row>
-    <row r="161" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="45">
         <v>159</v>
       </c>
@@ -24252,7 +24257,7 @@
       <c r="AE161" s="58"/>
       <c r="AF161" s="59"/>
     </row>
-    <row r="162" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="45">
         <v>160</v>
       </c>
@@ -24318,7 +24323,7 @@
       <c r="AE162" s="58"/>
       <c r="AF162" s="59"/>
     </row>
-    <row r="163" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="45">
         <v>161</v>
       </c>
@@ -24388,7 +24393,7 @@
       <c r="AE163" s="58"/>
       <c r="AF163" s="59"/>
     </row>
-    <row r="164" spans="1:32" s="60" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:32" s="60" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="45">
         <v>162</v>
       </c>
@@ -24472,7 +24477,7 @@
       <c r="AE164" s="58"/>
       <c r="AF164" s="59"/>
     </row>
-    <row r="165" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="45">
         <v>163</v>
       </c>
@@ -24548,7 +24553,7 @@
       <c r="AE165" s="58"/>
       <c r="AF165" s="59"/>
     </row>
-    <row r="166" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="45">
         <v>164</v>
       </c>
@@ -24626,7 +24631,7 @@
       <c r="AE166" s="58"/>
       <c r="AF166" s="59"/>
     </row>
-    <row r="167" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="45">
         <v>165</v>
       </c>
@@ -24708,7 +24713,7 @@
       <c r="AE167" s="58"/>
       <c r="AF167" s="59"/>
     </row>
-    <row r="168" spans="1:32" s="60" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:32" s="60" customFormat="1" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="45">
         <v>166</v>
       </c>
@@ -24786,7 +24791,7 @@
       <c r="AE168" s="58"/>
       <c r="AF168" s="59"/>
     </row>
-    <row r="169" spans="1:32" s="60" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:32" s="60" customFormat="1" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="45">
         <v>167</v>
       </c>
@@ -24864,7 +24869,7 @@
       <c r="AE169" s="58"/>
       <c r="AF169" s="59"/>
     </row>
-    <row r="170" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="45">
         <v>168</v>
       </c>
@@ -24944,7 +24949,7 @@
       <c r="AE170" s="58"/>
       <c r="AF170" s="59"/>
     </row>
-    <row r="171" spans="1:32" s="60" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:32" s="60" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="45">
         <v>169</v>
       </c>
@@ -25022,7 +25027,7 @@
       <c r="AE171" s="58"/>
       <c r="AF171" s="59"/>
     </row>
-    <row r="172" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="45">
         <v>170</v>
       </c>
@@ -25098,7 +25103,7 @@
       <c r="AE172" s="58"/>
       <c r="AF172" s="59"/>
     </row>
-    <row r="173" spans="1:32" s="60" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:32" s="60" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="45">
         <v>171</v>
       </c>
@@ -25172,7 +25177,7 @@
       <c r="AE173" s="58"/>
       <c r="AF173" s="59"/>
     </row>
-    <row r="174" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="45">
         <v>172</v>
       </c>
@@ -25248,7 +25253,7 @@
       <c r="AE174" s="58"/>
       <c r="AF174" s="59"/>
     </row>
-    <row r="175" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="45">
         <v>173</v>
       </c>
@@ -25324,7 +25329,7 @@
       <c r="AE175" s="58"/>
       <c r="AF175" s="59"/>
     </row>
-    <row r="176" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="45">
         <v>174</v>
       </c>
@@ -25398,7 +25403,7 @@
       <c r="AE176" s="58"/>
       <c r="AF176" s="59"/>
     </row>
-    <row r="177" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="45">
         <v>175</v>
       </c>
@@ -25476,7 +25481,7 @@
       <c r="AE177" s="58"/>
       <c r="AF177" s="59"/>
     </row>
-    <row r="178" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="45">
         <v>176</v>
       </c>
@@ -25554,7 +25559,7 @@
       <c r="AE178" s="58"/>
       <c r="AF178" s="59"/>
     </row>
-    <row r="179" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="45">
         <v>177</v>
       </c>
@@ -25628,7 +25633,7 @@
       <c r="AE179" s="58"/>
       <c r="AF179" s="59"/>
     </row>
-    <row r="180" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="45">
         <v>178</v>
       </c>
@@ -25708,7 +25713,7 @@
       <c r="AE180" s="58"/>
       <c r="AF180" s="59"/>
     </row>
-    <row r="181" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="45">
         <v>179</v>
       </c>
@@ -25790,7 +25795,7 @@
       <c r="AE181" s="58"/>
       <c r="AF181" s="59"/>
     </row>
-    <row r="182" spans="1:32" s="60" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:32" s="60" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="45">
         <v>180</v>
       </c>
@@ -25864,7 +25869,7 @@
       <c r="AE182" s="58"/>
       <c r="AF182" s="59"/>
     </row>
-    <row r="183" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="45">
         <v>181</v>
       </c>
@@ -25940,7 +25945,7 @@
       <c r="AE183" s="58"/>
       <c r="AF183" s="59"/>
     </row>
-    <row r="184" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="45">
         <v>182</v>
       </c>
@@ -26014,7 +26019,7 @@
       <c r="AE184" s="58"/>
       <c r="AF184" s="59"/>
     </row>
-    <row r="185" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="45">
         <v>183</v>
       </c>
@@ -26088,7 +26093,7 @@
       <c r="AE185" s="58"/>
       <c r="AF185" s="59"/>
     </row>
-    <row r="186" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="45">
         <v>184</v>
       </c>
@@ -26162,7 +26167,7 @@
       <c r="AE186" s="58"/>
       <c r="AF186" s="59"/>
     </row>
-    <row r="187" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="45">
         <v>185</v>
       </c>
@@ -26240,7 +26245,7 @@
       <c r="AE187" s="58"/>
       <c r="AF187" s="59"/>
     </row>
-    <row r="188" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="45">
         <v>186</v>
       </c>
@@ -26300,7 +26305,7 @@
       <c r="AE188" s="58"/>
       <c r="AF188" s="59"/>
     </row>
-    <row r="189" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="45">
         <v>187</v>
       </c>
@@ -26360,7 +26365,7 @@
       <c r="AE189" s="58"/>
       <c r="AF189" s="59"/>
     </row>
-    <row r="190" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="45">
         <v>188</v>
       </c>
@@ -26420,7 +26425,7 @@
       <c r="AE190" s="58"/>
       <c r="AF190" s="59"/>
     </row>
-    <row r="191" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="45">
         <v>189</v>
       </c>
@@ -26480,7 +26485,7 @@
       <c r="AE191" s="58"/>
       <c r="AF191" s="59"/>
     </row>
-    <row r="192" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="45">
         <v>190</v>
       </c>
@@ -26540,7 +26545,7 @@
       <c r="AE192" s="58"/>
       <c r="AF192" s="59"/>
     </row>
-    <row r="193" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="45">
         <v>191</v>
       </c>
@@ -26602,7 +26607,7 @@
       <c r="AE193" s="58"/>
       <c r="AF193" s="59"/>
     </row>
-    <row r="194" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="45">
         <v>192</v>
       </c>
@@ -26666,7 +26671,7 @@
       <c r="AE194" s="58"/>
       <c r="AF194" s="59"/>
     </row>
-    <row r="195" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="45">
         <v>193</v>
       </c>
@@ -26730,7 +26735,7 @@
       <c r="AE195" s="58"/>
       <c r="AF195" s="59"/>
     </row>
-    <row r="196" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="45">
         <v>194</v>
       </c>
@@ -26790,7 +26795,7 @@
       <c r="AE196" s="58"/>
       <c r="AF196" s="59"/>
     </row>
-    <row r="197" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="45">
         <v>195</v>
       </c>
@@ -26852,7 +26857,7 @@
       <c r="AE197" s="58"/>
       <c r="AF197" s="59"/>
     </row>
-    <row r="198" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="45">
         <v>196</v>
       </c>
@@ -26922,7 +26927,7 @@
       <c r="AE198" s="58"/>
       <c r="AF198" s="59"/>
     </row>
-    <row r="199" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="45">
         <v>197</v>
       </c>
@@ -26986,7 +26991,7 @@
       <c r="AE199" s="58"/>
       <c r="AF199" s="59"/>
     </row>
-    <row r="200" spans="1:32" s="60" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:32" s="60" customFormat="1" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="45">
         <v>198</v>
       </c>
@@ -27068,7 +27073,7 @@
       <c r="AE200" s="58"/>
       <c r="AF200" s="59"/>
     </row>
-    <row r="201" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="45">
         <v>199</v>
       </c>
@@ -27130,7 +27135,7 @@
       <c r="AE201" s="58"/>
       <c r="AF201" s="59"/>
     </row>
-    <row r="202" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="45">
         <v>200</v>
       </c>
@@ -27192,7 +27197,7 @@
       <c r="AE202" s="58"/>
       <c r="AF202" s="59"/>
     </row>
-    <row r="203" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="45">
         <v>201</v>
       </c>
@@ -27256,7 +27261,7 @@
       <c r="AE203" s="58"/>
       <c r="AF203" s="59"/>
     </row>
-    <row r="204" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="45">
         <v>202</v>
       </c>
@@ -27318,7 +27323,7 @@
       <c r="AE204" s="58"/>
       <c r="AF204" s="59"/>
     </row>
-    <row r="205" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="45">
         <v>203</v>
       </c>
@@ -27380,7 +27385,7 @@
       <c r="AE205" s="58"/>
       <c r="AF205" s="59"/>
     </row>
-    <row r="206" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="45">
         <v>204</v>
       </c>
@@ -27440,7 +27445,7 @@
       <c r="AE206" s="58"/>
       <c r="AF206" s="59"/>
     </row>
-    <row r="207" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="45">
         <v>205</v>
       </c>
@@ -27510,7 +27515,7 @@
       <c r="AE207" s="58"/>
       <c r="AF207" s="59"/>
     </row>
-    <row r="208" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="45">
         <v>206</v>
       </c>
@@ -27572,7 +27577,7 @@
       <c r="AE208" s="58"/>
       <c r="AF208" s="59"/>
     </row>
-    <row r="209" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="45">
         <v>207</v>
       </c>
@@ -27636,7 +27641,7 @@
       <c r="AE209" s="58"/>
       <c r="AF209" s="59"/>
     </row>
-    <row r="210" spans="1:32" s="60" customFormat="1" ht="267.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:32" s="60" customFormat="1" ht="267.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="45">
         <v>208</v>
       </c>
@@ -27716,7 +27721,7 @@
       <c r="AE210" s="58"/>
       <c r="AF210" s="59"/>
     </row>
-    <row r="211" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="45">
         <v>209</v>
       </c>
@@ -27780,7 +27785,7 @@
       <c r="AE211" s="58"/>
       <c r="AF211" s="59"/>
     </row>
-    <row r="212" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="45">
         <v>210</v>
       </c>
@@ -27846,7 +27851,7 @@
       <c r="AE212" s="58"/>
       <c r="AF212" s="59"/>
     </row>
-    <row r="213" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="45">
         <v>211</v>
       </c>
@@ -27908,7 +27913,7 @@
       <c r="AE213" s="58"/>
       <c r="AF213" s="59"/>
     </row>
-    <row r="214" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="45">
         <v>212</v>
       </c>
@@ -27970,7 +27975,7 @@
       <c r="AE214" s="58"/>
       <c r="AF214" s="59"/>
     </row>
-    <row r="215" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="45">
         <v>213</v>
       </c>
@@ -28036,7 +28041,7 @@
       <c r="AE215" s="58"/>
       <c r="AF215" s="59"/>
     </row>
-    <row r="216" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="45">
         <v>214</v>
       </c>
@@ -28102,7 +28107,7 @@
       <c r="AE216" s="58"/>
       <c r="AF216" s="59"/>
     </row>
-    <row r="217" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="45">
         <v>215</v>
       </c>
@@ -28164,7 +28169,7 @@
       <c r="AE217" s="58"/>
       <c r="AF217" s="59"/>
     </row>
-    <row r="218" spans="1:32" s="60" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:32" s="60" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="45">
         <v>216</v>
       </c>
@@ -28248,7 +28253,7 @@
       <c r="AE218" s="58"/>
       <c r="AF218" s="59"/>
     </row>
-    <row r="219" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="45">
         <v>217</v>
       </c>
@@ -28310,7 +28315,7 @@
       <c r="AE219" s="58"/>
       <c r="AF219" s="59"/>
     </row>
-    <row r="220" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="45">
         <v>218</v>
       </c>
@@ -28376,7 +28381,7 @@
       <c r="AE220" s="58"/>
       <c r="AF220" s="59"/>
     </row>
-    <row r="221" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="45">
         <v>219</v>
       </c>
@@ -28438,7 +28443,7 @@
       <c r="AE221" s="58"/>
       <c r="AF221" s="59"/>
     </row>
-    <row r="222" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="45">
         <v>220</v>
       </c>
@@ -28504,7 +28509,7 @@
       <c r="AE222" s="58"/>
       <c r="AF222" s="59"/>
     </row>
-    <row r="223" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="45">
         <v>221</v>
       </c>
@@ -28570,7 +28575,7 @@
       <c r="AE223" s="58"/>
       <c r="AF223" s="59"/>
     </row>
-    <row r="224" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="45">
         <v>222</v>
       </c>
@@ -28632,7 +28637,7 @@
       <c r="AE224" s="58"/>
       <c r="AF224" s="59"/>
     </row>
-    <row r="225" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="45">
         <v>223</v>
       </c>
@@ -28692,7 +28697,7 @@
       <c r="AE225" s="58"/>
       <c r="AF225" s="59"/>
     </row>
-    <row r="226" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="45">
         <v>224</v>
       </c>
@@ -28760,7 +28765,7 @@
       <c r="AE226" s="58"/>
       <c r="AF226" s="59"/>
     </row>
-    <row r="227" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="45">
         <v>225</v>
       </c>
@@ -28822,7 +28827,7 @@
       <c r="AE227" s="58"/>
       <c r="AF227" s="59"/>
     </row>
-    <row r="228" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="45">
         <v>226</v>
       </c>
@@ -28884,7 +28889,7 @@
       <c r="AE228" s="58"/>
       <c r="AF228" s="59"/>
     </row>
-    <row r="229" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="45">
         <v>227</v>
       </c>
@@ -28946,7 +28951,7 @@
       <c r="AE229" s="58"/>
       <c r="AF229" s="59"/>
     </row>
-    <row r="230" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="64">
         <v>228</v>
       </c>
@@ -29012,7 +29017,7 @@
       <c r="AE230" s="58"/>
       <c r="AF230" s="59"/>
     </row>
-    <row r="231" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="64">
         <v>229</v>
       </c>
@@ -29074,7 +29079,7 @@
       <c r="AE231" s="58"/>
       <c r="AF231" s="59"/>
     </row>
-    <row r="232" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="64">
         <v>230</v>
       </c>
@@ -29134,7 +29139,7 @@
       <c r="AE232" s="58"/>
       <c r="AF232" s="59"/>
     </row>
-    <row r="233" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="64">
         <v>231</v>
       </c>
@@ -29194,7 +29199,7 @@
       <c r="AE233" s="58"/>
       <c r="AF233" s="59"/>
     </row>
-    <row r="234" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="64">
         <v>232</v>
       </c>
@@ -29264,7 +29269,7 @@
       <c r="AE234" s="58"/>
       <c r="AF234" s="59"/>
     </row>
-    <row r="235" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="64">
         <v>233</v>
       </c>
@@ -29324,7 +29329,7 @@
       <c r="AE235" s="58"/>
       <c r="AF235" s="59"/>
     </row>
-    <row r="236" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="64">
         <v>234</v>
       </c>
@@ -29384,7 +29389,7 @@
       <c r="AE236" s="58"/>
       <c r="AF236" s="59"/>
     </row>
-    <row r="237" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="64">
         <v>235</v>
       </c>
@@ -29446,7 +29451,7 @@
       <c r="AE237" s="58"/>
       <c r="AF237" s="59"/>
     </row>
-    <row r="238" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="64">
         <v>236</v>
       </c>
@@ -29508,7 +29513,7 @@
       <c r="AE238" s="58"/>
       <c r="AF238" s="59"/>
     </row>
-    <row r="239" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="64">
         <v>237</v>
       </c>
@@ -29568,7 +29573,7 @@
       <c r="AE239" s="58"/>
       <c r="AF239" s="59"/>
     </row>
-    <row r="240" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="64">
         <v>238</v>
       </c>
@@ -29634,7 +29639,7 @@
       <c r="AE240" s="58"/>
       <c r="AF240" s="59"/>
     </row>
-    <row r="241" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="64">
         <v>239</v>
       </c>
@@ -29694,7 +29699,7 @@
       <c r="AE241" s="58"/>
       <c r="AF241" s="59"/>
     </row>
-    <row r="242" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="64">
         <v>240</v>
       </c>
@@ -29754,7 +29759,7 @@
       <c r="AE242" s="58"/>
       <c r="AF242" s="59"/>
     </row>
-    <row r="243" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="64">
         <v>241</v>
       </c>
@@ -29816,7 +29821,7 @@
       <c r="AE243" s="58"/>
       <c r="AF243" s="59"/>
     </row>
-    <row r="244" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="64">
         <v>242</v>
       </c>
@@ -29876,7 +29881,7 @@
       <c r="AE244" s="58"/>
       <c r="AF244" s="59"/>
     </row>
-    <row r="245" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="64">
         <v>243</v>
       </c>
@@ -29942,7 +29947,7 @@
       <c r="AE245" s="58"/>
       <c r="AF245" s="59"/>
     </row>
-    <row r="246" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="64">
         <v>244</v>
       </c>
@@ -30010,7 +30015,7 @@
       <c r="AE246" s="58"/>
       <c r="AF246" s="59"/>
     </row>
-    <row r="247" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="64">
         <v>245</v>
       </c>
@@ -30076,7 +30081,7 @@
       <c r="AE247" s="58"/>
       <c r="AF247" s="59"/>
     </row>
-    <row r="248" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="64">
         <v>246</v>
       </c>
@@ -30142,7 +30147,7 @@
       <c r="AE248" s="58"/>
       <c r="AF248" s="59"/>
     </row>
-    <row r="249" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="64">
         <v>247</v>
       </c>
@@ -30208,7 +30213,7 @@
       <c r="AE249" s="58"/>
       <c r="AF249" s="59"/>
     </row>
-    <row r="250" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="64">
         <v>248</v>
       </c>
@@ -30284,7 +30289,7 @@
       <c r="AE250" s="58"/>
       <c r="AF250" s="59"/>
     </row>
-    <row r="251" spans="1:32" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:32" ht="178.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="64">
         <v>249</v>
       </c>
@@ -30354,7 +30359,7 @@
       <c r="AE251" s="58"/>
       <c r="AF251" s="59"/>
     </row>
-    <row r="252" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="64">
         <v>250</v>
       </c>
@@ -30424,7 +30429,7 @@
       <c r="AE252" s="58"/>
       <c r="AF252" s="59"/>
     </row>
-    <row r="253" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="64">
         <v>251</v>
       </c>
@@ -30492,7 +30497,7 @@
       <c r="AE253" s="58"/>
       <c r="AF253" s="59"/>
     </row>
-    <row r="254" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="64">
         <v>252</v>
       </c>
@@ -30564,7 +30569,7 @@
       <c r="AE254" s="58"/>
       <c r="AF254" s="59"/>
     </row>
-    <row r="255" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="64">
         <v>253</v>
       </c>
@@ -30630,7 +30635,7 @@
       <c r="AE255" s="58"/>
       <c r="AF255" s="59"/>
     </row>
-    <row r="256" spans="1:32" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:32" ht="229.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="64">
         <v>254</v>
       </c>
@@ -30698,7 +30703,7 @@
       <c r="AE256" s="58"/>
       <c r="AF256" s="59"/>
     </row>
-    <row r="257" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="64">
         <v>255</v>
       </c>
@@ -30766,7 +30771,7 @@
       <c r="AE257" s="58"/>
       <c r="AF257" s="59"/>
     </row>
-    <row r="258" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="64">
         <v>256</v>
       </c>
@@ -30842,7 +30847,7 @@
       <c r="AE258" s="58"/>
       <c r="AF258" s="59"/>
     </row>
-    <row r="259" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="64">
         <v>257</v>
       </c>
@@ -30906,7 +30911,7 @@
       <c r="AE259" s="58"/>
       <c r="AF259" s="59"/>
     </row>
-    <row r="260" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="64">
         <v>258</v>
       </c>
@@ -30982,7 +30987,7 @@
       <c r="AE260" s="58"/>
       <c r="AF260" s="59"/>
     </row>
-    <row r="261" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="64">
         <v>259</v>
       </c>
@@ -31048,7 +31053,7 @@
       <c r="AE261" s="58"/>
       <c r="AF261" s="59"/>
     </row>
-    <row r="262" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="64">
         <v>260</v>
       </c>
@@ -31114,7 +31119,7 @@
       <c r="AE262" s="58"/>
       <c r="AF262" s="59"/>
     </row>
-    <row r="263" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="64">
         <v>261</v>
       </c>
@@ -31186,7 +31191,7 @@
       <c r="AE263" s="58"/>
       <c r="AF263" s="59"/>
     </row>
-    <row r="264" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="64">
         <v>262</v>
       </c>
@@ -31254,7 +31259,7 @@
       <c r="AE264" s="58"/>
       <c r="AF264" s="59"/>
     </row>
-    <row r="265" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="64">
         <v>263</v>
       </c>
@@ -31322,7 +31327,7 @@
       <c r="AE265" s="58"/>
       <c r="AF265" s="59"/>
     </row>
-    <row r="266" spans="1:32" ht="283.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:32" ht="283.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="64">
         <v>264</v>
       </c>
@@ -31388,7 +31393,7 @@
       <c r="AE266" s="58"/>
       <c r="AF266" s="59"/>
     </row>
-    <row r="267" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="64">
         <v>265</v>
       </c>
@@ -31454,7 +31459,7 @@
       <c r="AE267" s="58"/>
       <c r="AF267" s="59"/>
     </row>
-    <row r="268" spans="1:32" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:32" ht="178.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="64">
         <v>266</v>
       </c>
@@ -31518,7 +31523,7 @@
       <c r="AE268" s="58"/>
       <c r="AF268" s="59"/>
     </row>
-    <row r="269" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="64">
         <v>267</v>
       </c>
@@ -31584,7 +31589,7 @@
       <c r="AE269" s="58"/>
       <c r="AF269" s="59"/>
     </row>
-    <row r="270" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="64">
         <v>268</v>
       </c>
@@ -31660,7 +31665,7 @@
       <c r="AE270" s="58"/>
       <c r="AF270" s="59"/>
     </row>
-    <row r="271" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="64">
         <v>269</v>
       </c>
@@ -31726,7 +31731,7 @@
       <c r="AE271" s="58"/>
       <c r="AF271" s="59"/>
     </row>
-    <row r="272" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="64">
         <v>270</v>
       </c>
@@ -31786,7 +31791,7 @@
       <c r="AE272" s="58"/>
       <c r="AF272" s="59"/>
     </row>
-    <row r="273" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="64">
         <v>271</v>
       </c>
@@ -31860,7 +31865,7 @@
       <c r="AE273" s="58"/>
       <c r="AF273" s="59"/>
     </row>
-    <row r="274" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="64">
         <v>272</v>
       </c>
@@ -31924,7 +31929,7 @@
       <c r="AE274" s="58"/>
       <c r="AF274" s="59"/>
     </row>
-    <row r="275" spans="1:32" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:32" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="64">
         <v>273</v>
       </c>
@@ -31986,7 +31991,7 @@
       <c r="AE275" s="58"/>
       <c r="AF275" s="59"/>
     </row>
-    <row r="276" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="64">
         <v>274</v>
       </c>
@@ -32052,7 +32057,7 @@
       <c r="AE276" s="58"/>
       <c r="AF276" s="59"/>
     </row>
-    <row r="277" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="64">
         <v>275</v>
       </c>
@@ -32114,7 +32119,7 @@
       <c r="AE277" s="58"/>
       <c r="AF277" s="59"/>
     </row>
-    <row r="278" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="64">
         <v>276</v>
       </c>
@@ -32174,7 +32179,7 @@
       <c r="AE278" s="58"/>
       <c r="AF278" s="59"/>
     </row>
-    <row r="279" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="64">
         <v>277</v>
       </c>
@@ -32248,7 +32253,7 @@
       <c r="AE279" s="58"/>
       <c r="AF279" s="59"/>
     </row>
-    <row r="280" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="64">
         <v>278</v>
       </c>
@@ -32314,7 +32319,7 @@
       <c r="AE280" s="58"/>
       <c r="AF280" s="59"/>
     </row>
-    <row r="281" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="64">
         <v>279</v>
       </c>
@@ -32384,7 +32389,7 @@
       <c r="AE281" s="58"/>
       <c r="AF281" s="59"/>
     </row>
-    <row r="282" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="64">
         <v>280</v>
       </c>
@@ -32450,7 +32455,7 @@
       <c r="AE282" s="58"/>
       <c r="AF282" s="59"/>
     </row>
-    <row r="283" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="64">
         <v>281</v>
       </c>
@@ -32510,7 +32515,7 @@
       <c r="AE283" s="58"/>
       <c r="AF283" s="59"/>
     </row>
-    <row r="284" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="64">
         <v>282</v>
       </c>
@@ -32570,7 +32575,7 @@
       <c r="AE284" s="58"/>
       <c r="AF284" s="59"/>
     </row>
-    <row r="285" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="64">
         <v>283</v>
       </c>
@@ -32634,7 +32639,7 @@
       <c r="AE285" s="58"/>
       <c r="AF285" s="59"/>
     </row>
-    <row r="286" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="64">
         <v>284</v>
       </c>
@@ -32698,7 +32703,7 @@
       <c r="AE286" s="58"/>
       <c r="AF286" s="59"/>
     </row>
-    <row r="287" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="64">
         <v>285</v>
       </c>
@@ -32758,7 +32763,7 @@
       <c r="AE287" s="58"/>
       <c r="AF287" s="59"/>
     </row>
-    <row r="288" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="64">
         <v>286</v>
       </c>
@@ -32818,7 +32823,7 @@
       <c r="AE288" s="58"/>
       <c r="AF288" s="59"/>
     </row>
-    <row r="289" spans="1:32" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:32" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="64">
         <v>287</v>
       </c>
@@ -32882,7 +32887,7 @@
       <c r="AE289" s="58"/>
       <c r="AF289" s="59"/>
     </row>
-    <row r="290" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="64">
         <v>288</v>
       </c>
@@ -32950,7 +32955,7 @@
       <c r="AE290" s="58"/>
       <c r="AF290" s="59"/>
     </row>
-    <row r="291" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="64">
         <v>289</v>
       </c>
@@ -33018,7 +33023,7 @@
       <c r="AE291" s="58"/>
       <c r="AF291" s="59"/>
     </row>
-    <row r="292" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="64">
         <v>290</v>
       </c>
@@ -33082,7 +33087,7 @@
       <c r="AE292" s="58"/>
       <c r="AF292" s="59"/>
     </row>
-    <row r="293" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="64">
         <v>291</v>
       </c>
@@ -33144,7 +33149,7 @@
       <c r="AE293" s="58"/>
       <c r="AF293" s="59"/>
     </row>
-    <row r="294" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="64">
         <v>292</v>
       </c>
@@ -33214,7 +33219,7 @@
       <c r="AE294" s="58"/>
       <c r="AF294" s="59"/>
     </row>
-    <row r="295" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="64">
         <v>293</v>
       </c>
@@ -33286,7 +33291,7 @@
       <c r="AE295" s="58"/>
       <c r="AF295" s="59"/>
     </row>
-    <row r="296" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="64">
         <v>294</v>
       </c>
@@ -33348,7 +33353,7 @@
       <c r="AE296" s="58"/>
       <c r="AF296" s="59"/>
     </row>
-    <row r="297" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="64">
         <v>295</v>
       </c>
@@ -33416,7 +33421,7 @@
       <c r="AE297" s="58"/>
       <c r="AF297" s="59"/>
     </row>
-    <row r="298" spans="1:32" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:32" ht="191.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="64">
         <v>296</v>
       </c>
@@ -33482,7 +33487,7 @@
       <c r="AE298" s="58"/>
       <c r="AF298" s="59"/>
     </row>
-    <row r="299" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="64">
         <v>297</v>
       </c>
@@ -33544,7 +33549,7 @@
       <c r="AE299" s="58"/>
       <c r="AF299" s="59"/>
     </row>
-    <row r="300" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="64">
         <v>298</v>
       </c>
@@ -33610,7 +33615,7 @@
       <c r="AE300" s="58"/>
       <c r="AF300" s="59"/>
     </row>
-    <row r="301" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="64">
         <v>299</v>
       </c>
@@ -33672,7 +33677,7 @@
       <c r="AE301" s="58"/>
       <c r="AF301" s="59"/>
     </row>
-    <row r="302" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="64">
         <v>300</v>
       </c>
@@ -33738,7 +33743,7 @@
       <c r="AE302" s="58"/>
       <c r="AF302" s="59"/>
     </row>
-    <row r="303" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="64">
         <v>301</v>
       </c>
@@ -33806,7 +33811,7 @@
       <c r="AE303" s="58"/>
       <c r="AF303" s="59"/>
     </row>
-    <row r="304" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="64">
         <v>302</v>
       </c>
@@ -33872,7 +33877,7 @@
       <c r="AE304" s="58"/>
       <c r="AF304" s="59"/>
     </row>
-    <row r="305" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="64">
         <v>303</v>
       </c>
@@ -33936,7 +33941,7 @@
       <c r="AE305" s="58"/>
       <c r="AF305" s="59"/>
     </row>
-    <row r="306" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="64">
         <v>304</v>
       </c>
@@ -34006,7 +34011,7 @@
       <c r="AE306" s="58"/>
       <c r="AF306" s="59"/>
     </row>
-    <row r="307" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="64">
         <v>305</v>
       </c>
@@ -34072,7 +34077,7 @@
       <c r="AE307" s="58"/>
       <c r="AF307" s="59"/>
     </row>
-    <row r="308" spans="1:32" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:32" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="64">
         <v>306</v>
       </c>
@@ -34136,7 +34141,7 @@
       <c r="AE308" s="58"/>
       <c r="AF308" s="59"/>
     </row>
-    <row r="309" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="64">
         <v>307</v>
       </c>
@@ -34206,7 +34211,7 @@
       <c r="AE309" s="58"/>
       <c r="AF309" s="59"/>
     </row>
-    <row r="310" spans="1:32" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:32" ht="229.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="64">
         <v>308</v>
       </c>
@@ -34266,7 +34271,7 @@
       <c r="AE310" s="58"/>
       <c r="AF310" s="59"/>
     </row>
-    <row r="311" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="64">
         <v>309</v>
       </c>
@@ -34328,7 +34333,7 @@
       <c r="AE311" s="58"/>
       <c r="AF311" s="59"/>
     </row>
-    <row r="312" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="64">
         <v>310</v>
       </c>
@@ -34394,7 +34399,7 @@
       <c r="AE312" s="58"/>
       <c r="AF312" s="59"/>
     </row>
-    <row r="313" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="64">
         <v>311</v>
       </c>
@@ -34460,7 +34465,7 @@
       <c r="AE313" s="58"/>
       <c r="AF313" s="59"/>
     </row>
-    <row r="314" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="64">
         <v>312</v>
       </c>
@@ -34528,7 +34533,7 @@
       <c r="AE314" s="58"/>
       <c r="AF314" s="59"/>
     </row>
-    <row r="315" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="64">
         <v>313</v>
       </c>
@@ -34590,7 +34595,7 @@
       <c r="AE315" s="58"/>
       <c r="AF315" s="59"/>
     </row>
-    <row r="316" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="64">
         <v>314</v>
       </c>
@@ -34660,7 +34665,7 @@
       <c r="AE316" s="58"/>
       <c r="AF316" s="59"/>
     </row>
-    <row r="317" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="64">
         <v>315</v>
       </c>
@@ -34730,7 +34735,7 @@
       <c r="AE317" s="58"/>
       <c r="AF317" s="59"/>
     </row>
-    <row r="318" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="64">
         <v>316</v>
       </c>
@@ -34796,7 +34801,7 @@
       <c r="AE318" s="58"/>
       <c r="AF318" s="59"/>
     </row>
-    <row r="319" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="64">
         <v>317</v>
       </c>
@@ -34868,7 +34873,7 @@
       <c r="AE319" s="58"/>
       <c r="AF319" s="59"/>
     </row>
-    <row r="320" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="64">
         <v>318</v>
       </c>
@@ -34930,7 +34935,7 @@
       <c r="AE320" s="58"/>
       <c r="AF320" s="59"/>
     </row>
-    <row r="321" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="64">
         <v>319</v>
       </c>
@@ -34992,7 +34997,7 @@
       <c r="AE321" s="58"/>
       <c r="AF321" s="59"/>
     </row>
-    <row r="322" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="64">
         <v>320</v>
       </c>
@@ -35056,7 +35061,7 @@
       <c r="AE322" s="58"/>
       <c r="AF322" s="59"/>
     </row>
-    <row r="323" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="64">
         <v>321</v>
       </c>
@@ -35118,7 +35123,7 @@
       <c r="AE323" s="58"/>
       <c r="AF323" s="59"/>
     </row>
-    <row r="324" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="64">
         <v>322</v>
       </c>
@@ -35186,7 +35191,7 @@
       <c r="AE324" s="58"/>
       <c r="AF324" s="59"/>
     </row>
-    <row r="325" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="64">
         <v>323</v>
       </c>
@@ -35252,7 +35257,7 @@
       <c r="AE325" s="58"/>
       <c r="AF325" s="59"/>
     </row>
-    <row r="326" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="64">
         <v>324</v>
       </c>
@@ -35314,7 +35319,7 @@
       <c r="AE326" s="58"/>
       <c r="AF326" s="59"/>
     </row>
-    <row r="327" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="64">
         <v>325</v>
       </c>
@@ -35382,7 +35387,7 @@
       <c r="AE327" s="58"/>
       <c r="AF327" s="59"/>
     </row>
-    <row r="328" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="64">
         <v>326</v>
       </c>
@@ -35444,7 +35449,7 @@
       <c r="AE328" s="58"/>
       <c r="AF328" s="59"/>
     </row>
-    <row r="329" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="64">
         <v>327</v>
       </c>
@@ -35512,7 +35517,7 @@
       <c r="AE329" s="58"/>
       <c r="AF329" s="59"/>
     </row>
-    <row r="330" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="64">
         <v>328</v>
       </c>
@@ -35578,7 +35583,7 @@
       <c r="AE330" s="58"/>
       <c r="AF330" s="59"/>
     </row>
-    <row r="331" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="64">
         <v>329</v>
       </c>
@@ -35646,7 +35651,7 @@
       <c r="AE331" s="58"/>
       <c r="AF331" s="59"/>
     </row>
-    <row r="332" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="64">
         <v>330</v>
       </c>
@@ -35716,7 +35721,7 @@
       <c r="AE332" s="58"/>
       <c r="AF332" s="59"/>
     </row>
-    <row r="333" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="64">
         <v>331</v>
       </c>
@@ -35786,7 +35791,7 @@
       <c r="AE333" s="58"/>
       <c r="AF333" s="59"/>
     </row>
-    <row r="334" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="64">
         <v>332</v>
       </c>
@@ -35856,7 +35861,7 @@
       <c r="AE334" s="58"/>
       <c r="AF334" s="59"/>
     </row>
-    <row r="335" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="64">
         <v>333</v>
       </c>
@@ -35922,7 +35927,7 @@
       <c r="AE335" s="58"/>
       <c r="AF335" s="59"/>
     </row>
-    <row r="336" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="64">
         <v>334</v>
       </c>
@@ -35992,7 +35997,7 @@
       <c r="AE336" s="58"/>
       <c r="AF336" s="59"/>
     </row>
-    <row r="337" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="64">
         <v>335</v>
       </c>
@@ -36054,7 +36059,7 @@
       <c r="AE337" s="58"/>
       <c r="AF337" s="59"/>
     </row>
-    <row r="338" spans="1:32" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:32" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="64">
         <v>336</v>
       </c>
@@ -36120,7 +36125,7 @@
       <c r="AE338" s="58"/>
       <c r="AF338" s="59"/>
     </row>
-    <row r="339" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="64">
         <v>337</v>
       </c>
@@ -36186,7 +36191,7 @@
       <c r="AE339" s="58"/>
       <c r="AF339" s="59"/>
     </row>
-    <row r="340" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="64">
         <v>338</v>
       </c>
@@ -36248,7 +36253,7 @@
       <c r="AE340" s="58"/>
       <c r="AF340" s="59"/>
     </row>
-    <row r="341" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="64">
         <v>339</v>
       </c>
@@ -36308,7 +36313,7 @@
       <c r="AE341" s="58"/>
       <c r="AF341" s="59"/>
     </row>
-    <row r="342" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="64">
         <v>340</v>
       </c>
@@ -36374,7 +36379,7 @@
       <c r="AE342" s="58"/>
       <c r="AF342" s="59"/>
     </row>
-    <row r="343" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="64">
         <v>341</v>
       </c>
@@ -36440,7 +36445,7 @@
       <c r="AE343" s="58"/>
       <c r="AF343" s="59"/>
     </row>
-    <row r="344" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="64">
         <v>342</v>
       </c>
@@ -36502,7 +36507,7 @@
       <c r="AE344" s="58"/>
       <c r="AF344" s="59"/>
     </row>
-    <row r="345" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="64">
         <v>343</v>
       </c>
@@ -36568,7 +36573,7 @@
       <c r="AE345" s="58"/>
       <c r="AF345" s="59"/>
     </row>
-    <row r="346" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="64">
         <v>344</v>
       </c>
@@ -36634,7 +36639,7 @@
       <c r="AE346" s="58"/>
       <c r="AF346" s="59"/>
     </row>
-    <row r="347" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="64">
         <v>345</v>
       </c>
@@ -36700,7 +36705,7 @@
       <c r="AE347" s="58"/>
       <c r="AF347" s="59"/>
     </row>
-    <row r="348" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="64">
         <v>346</v>
       </c>
@@ -36764,7 +36769,7 @@
       <c r="AE348" s="58"/>
       <c r="AF348" s="59"/>
     </row>
-    <row r="349" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="64">
         <v>347</v>
       </c>
@@ -36824,7 +36829,7 @@
       <c r="AE349" s="58"/>
       <c r="AF349" s="59"/>
     </row>
-    <row r="350" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="64">
         <v>348</v>
       </c>
@@ -36884,7 +36889,7 @@
       <c r="AE350" s="58"/>
       <c r="AF350" s="59"/>
     </row>
-    <row r="351" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="64">
         <v>349</v>
       </c>
@@ -36944,7 +36949,7 @@
       <c r="AE351" s="58"/>
       <c r="AF351" s="59"/>
     </row>
-    <row r="352" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="64">
         <v>350</v>
       </c>
@@ -37004,7 +37009,7 @@
       <c r="AE352" s="58"/>
       <c r="AF352" s="59"/>
     </row>
-    <row r="353" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="64">
         <v>351</v>
       </c>
@@ -37064,7 +37069,7 @@
       <c r="AE353" s="58"/>
       <c r="AF353" s="59"/>
     </row>
-    <row r="354" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="64">
         <v>352</v>
       </c>
@@ -37124,7 +37129,7 @@
       <c r="AE354" s="58"/>
       <c r="AF354" s="59"/>
     </row>
-    <row r="355" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="64">
         <v>353</v>
       </c>
@@ -37186,7 +37191,7 @@
       <c r="AE355" s="58"/>
       <c r="AF355" s="59"/>
     </row>
-    <row r="356" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="64">
         <v>354</v>
       </c>
@@ -37250,7 +37255,7 @@
       <c r="AE356" s="58"/>
       <c r="AF356" s="59"/>
     </row>
-    <row r="357" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="64">
         <v>355</v>
       </c>
@@ -37314,7 +37319,7 @@
       <c r="AE357" s="58"/>
       <c r="AF357" s="59"/>
     </row>
-    <row r="358" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="64">
         <v>356</v>
       </c>
@@ -37374,7 +37379,7 @@
       <c r="AE358" s="58"/>
       <c r="AF358" s="59"/>
     </row>
-    <row r="359" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="64">
         <v>357</v>
       </c>
@@ -37434,7 +37439,7 @@
       <c r="AE359" s="58"/>
       <c r="AF359" s="59"/>
     </row>
-    <row r="360" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="64">
         <v>358</v>
       </c>
@@ -37494,7 +37499,7 @@
       <c r="AE360" s="58"/>
       <c r="AF360" s="59"/>
     </row>
-    <row r="361" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="64">
         <v>359</v>
       </c>
@@ -37554,7 +37559,7 @@
       <c r="AE361" s="58"/>
       <c r="AF361" s="59"/>
     </row>
-    <row r="362" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="64">
         <v>360</v>
       </c>
@@ -37614,7 +37619,7 @@
       <c r="AE362" s="58"/>
       <c r="AF362" s="59"/>
     </row>
-    <row r="363" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="64">
         <v>361</v>
       </c>
@@ -37696,7 +37701,7 @@
       <c r="AE363" s="58"/>
       <c r="AF363" s="59"/>
     </row>
-    <row r="364" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="64">
         <v>362</v>
       </c>
@@ -37778,7 +37783,7 @@
       <c r="AE364" s="58"/>
       <c r="AF364" s="59"/>
     </row>
-    <row r="365" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="64">
         <v>363</v>
       </c>
@@ -37848,7 +37853,7 @@
       <c r="AE365" s="58"/>
       <c r="AF365" s="59"/>
     </row>
-    <row r="366" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="64">
         <v>364</v>
       </c>
@@ -37924,7 +37929,7 @@
       <c r="AE366" s="58"/>
       <c r="AF366" s="59"/>
     </row>
-    <row r="367" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="64">
         <v>365</v>
       </c>
@@ -37996,7 +38001,7 @@
       <c r="AE367" s="58"/>
       <c r="AF367" s="59"/>
     </row>
-    <row r="368" spans="1:32" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:32" ht="165.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="64">
         <v>366</v>
       </c>
@@ -38066,7 +38071,7 @@
       <c r="AE368" s="58"/>
       <c r="AF368" s="59"/>
     </row>
-    <row r="369" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="64">
         <v>367</v>
       </c>
@@ -38132,7 +38137,7 @@
       <c r="AE369" s="58"/>
       <c r="AF369" s="59"/>
     </row>
-    <row r="370" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="64">
         <v>368</v>
       </c>
@@ -38200,7 +38205,7 @@
       <c r="AE370" s="58"/>
       <c r="AF370" s="59"/>
     </row>
-    <row r="371" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="64">
         <v>369</v>
       </c>
@@ -38276,7 +38281,7 @@
       <c r="AE371" s="58"/>
       <c r="AF371" s="59"/>
     </row>
-    <row r="372" spans="1:32" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:32" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="64">
         <v>370</v>
       </c>
@@ -38344,7 +38349,7 @@
       <c r="AE372" s="58"/>
       <c r="AF372" s="59"/>
     </row>
-    <row r="373" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="64">
         <v>371</v>
       </c>
@@ -38408,7 +38413,7 @@
       <c r="AE373" s="58"/>
       <c r="AF373" s="59"/>
     </row>
-    <row r="374" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="64">
         <v>372</v>
       </c>
@@ -38468,7 +38473,7 @@
       <c r="AE374" s="58"/>
       <c r="AF374" s="59"/>
     </row>
-    <row r="375" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="64">
         <v>373</v>
       </c>
@@ -38530,7 +38535,7 @@
       <c r="AE375" s="58"/>
       <c r="AF375" s="59"/>
     </row>
-    <row r="376" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="64">
         <v>374</v>
       </c>
@@ -38600,7 +38605,7 @@
       <c r="AE376" s="58"/>
       <c r="AF376" s="59"/>
     </row>
-    <row r="377" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="64">
         <v>375</v>
       </c>
@@ -38670,7 +38675,7 @@
       <c r="AE377" s="58"/>
       <c r="AF377" s="59"/>
     </row>
-    <row r="378" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="64">
         <v>376</v>
       </c>
@@ -38740,7 +38745,7 @@
       <c r="AE378" s="58"/>
       <c r="AF378" s="59"/>
     </row>
-    <row r="379" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="64">
         <v>377</v>
       </c>
@@ -38802,7 +38807,7 @@
       <c r="AE379" s="58"/>
       <c r="AF379" s="59"/>
     </row>
-    <row r="380" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="64">
         <v>378</v>
       </c>
@@ -38872,7 +38877,7 @@
       <c r="AE380" s="58"/>
       <c r="AF380" s="59"/>
     </row>
-    <row r="381" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="64">
         <v>379</v>
       </c>
@@ -38942,7 +38947,7 @@
       <c r="AE381" s="58"/>
       <c r="AF381" s="59"/>
     </row>
-    <row r="382" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="64">
         <v>380</v>
       </c>
@@ -39010,7 +39015,7 @@
       <c r="AE382" s="58"/>
       <c r="AF382" s="59"/>
     </row>
-    <row r="383" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="64">
         <v>381</v>
       </c>
@@ -39070,7 +39075,7 @@
       <c r="AE383" s="58"/>
       <c r="AF383" s="59"/>
     </row>
-    <row r="384" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="64">
         <v>382</v>
       </c>
@@ -39138,7 +39143,7 @@
       <c r="AE384" s="58"/>
       <c r="AF384" s="59"/>
     </row>
-    <row r="385" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="64">
         <v>383</v>
       </c>
@@ -39200,7 +39205,7 @@
       <c r="AE385" s="58"/>
       <c r="AF385" s="59"/>
     </row>
-    <row r="386" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="64">
         <v>384</v>
       </c>
@@ -39260,7 +39265,7 @@
       <c r="AE386" s="58"/>
       <c r="AF386" s="59"/>
     </row>
-    <row r="387" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="64">
         <v>385</v>
       </c>
@@ -39324,7 +39329,7 @@
       <c r="AE387" s="58"/>
       <c r="AF387" s="59"/>
     </row>
-    <row r="388" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="64">
         <v>386</v>
       </c>
@@ -39386,7 +39391,7 @@
       <c r="AE388" s="58"/>
       <c r="AF388" s="59"/>
     </row>
-    <row r="389" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="64">
         <v>387</v>
       </c>
@@ -39446,7 +39451,7 @@
       <c r="AE389" s="58"/>
       <c r="AF389" s="59"/>
     </row>
-    <row r="390" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="64">
         <v>388</v>
       </c>
@@ -39506,7 +39511,7 @@
       <c r="AE390" s="58"/>
       <c r="AF390" s="59"/>
     </row>
-    <row r="391" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="64">
         <v>389</v>
       </c>
@@ -39570,7 +39575,7 @@
       <c r="AE391" s="58"/>
       <c r="AF391" s="59"/>
     </row>
-    <row r="392" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="64">
         <v>390</v>
       </c>
@@ -39632,7 +39637,7 @@
       <c r="AE392" s="58"/>
       <c r="AF392" s="59"/>
     </row>
-    <row r="393" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="64">
         <v>391</v>
       </c>
@@ -39696,7 +39701,7 @@
       <c r="AE393" s="58"/>
       <c r="AF393" s="59"/>
     </row>
-    <row r="394" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="64">
         <v>392</v>
       </c>
@@ -39756,7 +39761,7 @@
       <c r="AE394" s="58"/>
       <c r="AF394" s="59"/>
     </row>
-    <row r="395" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="64">
         <v>393</v>
       </c>
@@ -39818,7 +39823,7 @@
       <c r="AE395" s="58"/>
       <c r="AF395" s="59"/>
     </row>
-    <row r="396" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="64">
         <v>394</v>
       </c>
@@ -39878,7 +39883,7 @@
       <c r="AE396" s="58"/>
       <c r="AF396" s="59"/>
     </row>
-    <row r="397" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="64">
         <v>395</v>
       </c>
@@ -39938,7 +39943,7 @@
       <c r="AE397" s="58"/>
       <c r="AF397" s="59"/>
     </row>
-    <row r="398" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="64">
         <v>396</v>
       </c>
@@ -40000,7 +40005,7 @@
       <c r="AE398" s="58"/>
       <c r="AF398" s="59"/>
     </row>
-    <row r="399" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="64">
         <v>397</v>
       </c>
@@ -40060,7 +40065,7 @@
       <c r="AE399" s="58"/>
       <c r="AF399" s="59"/>
     </row>
-    <row r="400" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="64">
         <v>398</v>
       </c>
@@ -40126,7 +40131,7 @@
       <c r="AE400" s="58"/>
       <c r="AF400" s="59"/>
     </row>
-    <row r="401" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="64">
         <v>399</v>
       </c>
@@ -40186,7 +40191,7 @@
       <c r="AE401" s="58"/>
       <c r="AF401" s="59"/>
     </row>
-    <row r="402" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="64">
         <v>400</v>
       </c>
@@ -40246,7 +40251,7 @@
       <c r="AE402" s="58"/>
       <c r="AF402" s="59"/>
     </row>
-    <row r="403" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="64">
         <v>401</v>
       </c>
@@ -40310,7 +40315,7 @@
       <c r="AE403" s="58"/>
       <c r="AF403" s="59"/>
     </row>
-    <row r="404" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="64">
         <v>402</v>
       </c>
@@ -40374,7 +40379,7 @@
       <c r="AE404" s="58"/>
       <c r="AF404" s="59"/>
     </row>
-    <row r="405" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="64">
         <v>403</v>
       </c>
@@ -40438,7 +40443,7 @@
       <c r="AE405" s="58"/>
       <c r="AF405" s="59"/>
     </row>
-    <row r="406" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="64">
         <v>404</v>
       </c>
@@ -40504,7 +40509,7 @@
       <c r="AE406" s="58"/>
       <c r="AF406" s="59"/>
     </row>
-    <row r="407" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="64">
         <v>405</v>
       </c>
@@ -40568,7 +40573,7 @@
       <c r="AE407" s="58"/>
       <c r="AF407" s="59"/>
     </row>
-    <row r="408" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="64">
         <v>406</v>
       </c>
@@ -40630,7 +40635,7 @@
       <c r="AE408" s="58"/>
       <c r="AF408" s="59"/>
     </row>
-    <row r="409" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="64">
         <v>407</v>
       </c>
@@ -40694,7 +40699,7 @@
       <c r="AE409" s="58"/>
       <c r="AF409" s="59"/>
     </row>
-    <row r="410" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="64">
         <v>408</v>
       </c>
@@ -40756,7 +40761,7 @@
       <c r="AE410" s="58"/>
       <c r="AF410" s="59"/>
     </row>
-    <row r="411" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="64">
         <v>409</v>
       </c>
@@ -40816,7 +40821,7 @@
       <c r="AE411" s="58"/>
       <c r="AF411" s="59"/>
     </row>
-    <row r="412" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="64">
         <v>410</v>
       </c>
@@ -40882,7 +40887,7 @@
       <c r="AE412" s="58"/>
       <c r="AF412" s="59"/>
     </row>
-    <row r="413" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="64">
         <v>411</v>
       </c>
@@ -40948,7 +40953,7 @@
       <c r="AE413" s="58"/>
       <c r="AF413" s="59"/>
     </row>
-    <row r="414" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="64">
         <v>412</v>
       </c>
@@ -41010,7 +41015,7 @@
       <c r="AE414" s="58"/>
       <c r="AF414" s="59"/>
     </row>
-    <row r="415" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="64">
         <v>413</v>
       </c>
@@ -41074,7 +41079,7 @@
       <c r="AE415" s="58"/>
       <c r="AF415" s="59"/>
     </row>
-    <row r="416" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="64">
         <v>414</v>
       </c>
@@ -41134,7 +41139,7 @@
       <c r="AE416" s="58"/>
       <c r="AF416" s="59"/>
     </row>
-    <row r="417" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="64">
         <v>415</v>
       </c>
@@ -41194,7 +41199,7 @@
       <c r="AE417" s="58"/>
       <c r="AF417" s="59"/>
     </row>
-    <row r="418" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="64">
         <v>416</v>
       </c>
@@ -41254,7 +41259,7 @@
       <c r="AE418" s="58"/>
       <c r="AF418" s="59"/>
     </row>
-    <row r="419" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="64">
         <v>417</v>
       </c>
@@ -41314,7 +41319,7 @@
       <c r="AE419" s="58"/>
       <c r="AF419" s="59"/>
     </row>
-    <row r="420" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="64">
         <v>418</v>
       </c>
@@ -41380,7 +41385,7 @@
       <c r="AE420" s="58"/>
       <c r="AF420" s="59"/>
     </row>
-    <row r="421" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="64">
         <v>419</v>
       </c>
@@ -41448,7 +41453,7 @@
       <c r="AE421" s="58"/>
       <c r="AF421" s="59"/>
     </row>
-    <row r="422" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="64">
         <v>420</v>
       </c>
@@ -41514,7 +41519,7 @@
       <c r="AE422" s="58"/>
       <c r="AF422" s="59"/>
     </row>
-    <row r="423" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="64">
         <v>421</v>
       </c>
@@ -41580,7 +41585,7 @@
       <c r="AE423" s="58"/>
       <c r="AF423" s="59"/>
     </row>
-    <row r="424" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="64">
         <v>422</v>
       </c>
@@ -41646,7 +41651,7 @@
       <c r="AE424" s="58"/>
       <c r="AF424" s="59"/>
     </row>
-    <row r="425" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="64">
         <v>423</v>
       </c>
@@ -41712,7 +41717,7 @@
       <c r="AE425" s="58"/>
       <c r="AF425" s="59"/>
     </row>
-    <row r="426" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="64">
         <v>424</v>
       </c>
@@ -41778,7 +41783,7 @@
       <c r="AE426" s="58"/>
       <c r="AF426" s="59"/>
     </row>
-    <row r="427" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="64">
         <v>425</v>
       </c>
@@ -41844,7 +41849,7 @@
       <c r="AE427" s="58"/>
       <c r="AF427" s="59"/>
     </row>
-    <row r="428" spans="1:32" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:32" ht="165.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="64">
         <v>426</v>
       </c>
@@ -41912,7 +41917,7 @@
       <c r="AE428" s="58"/>
       <c r="AF428" s="59"/>
     </row>
-    <row r="429" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="64">
         <v>427</v>
       </c>
@@ -41980,7 +41985,7 @@
       <c r="AE429" s="58"/>
       <c r="AF429" s="59"/>
     </row>
-    <row r="430" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="64">
         <v>428</v>
       </c>
@@ -42046,7 +42051,7 @@
       <c r="AE430" s="58"/>
       <c r="AF430" s="59"/>
     </row>
-    <row r="431" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="64">
         <v>429</v>
       </c>
@@ -42124,7 +42129,7 @@
       <c r="AE431" s="58"/>
       <c r="AF431" s="59"/>
     </row>
-    <row r="432" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="64">
         <v>430</v>
       </c>
@@ -42192,7 +42197,7 @@
       <c r="AE432" s="58"/>
       <c r="AF432" s="59"/>
     </row>
-    <row r="433" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="64">
         <v>431</v>
       </c>
@@ -42258,7 +42263,7 @@
       <c r="AE433" s="58"/>
       <c r="AF433" s="59"/>
     </row>
-    <row r="434" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="64">
         <v>432</v>
       </c>
@@ -42326,7 +42331,7 @@
       <c r="AE434" s="58"/>
       <c r="AF434" s="59"/>
     </row>
-    <row r="435" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="64">
         <v>433</v>
       </c>
@@ -42394,7 +42399,7 @@
       <c r="AE435" s="58"/>
       <c r="AF435" s="59"/>
     </row>
-    <row r="436" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="64">
         <v>434</v>
       </c>
@@ -42462,7 +42467,7 @@
       <c r="AE436" s="58"/>
       <c r="AF436" s="59"/>
     </row>
-    <row r="437" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="64">
         <v>435</v>
       </c>
@@ -42532,7 +42537,7 @@
       <c r="AE437" s="58"/>
       <c r="AF437" s="59"/>
     </row>
-    <row r="438" spans="1:32" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:32" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="64">
         <v>436</v>
       </c>
@@ -42600,7 +42605,7 @@
       <c r="AE438" s="58"/>
       <c r="AF438" s="59"/>
     </row>
-    <row r="439" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="64">
         <v>437</v>
       </c>
@@ -42666,7 +42671,7 @@
       <c r="AE439" s="58"/>
       <c r="AF439" s="59"/>
     </row>
-    <row r="440" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="64">
         <v>438</v>
       </c>
@@ -42732,7 +42737,7 @@
       <c r="AE440" s="58"/>
       <c r="AF440" s="59"/>
     </row>
-    <row r="441" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="64">
         <v>439</v>
       </c>
@@ -42800,7 +42805,7 @@
       <c r="AE441" s="58"/>
       <c r="AF441" s="59"/>
     </row>
-    <row r="442" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="64">
         <v>440</v>
       </c>
@@ -42866,7 +42871,7 @@
       <c r="AE442" s="58"/>
       <c r="AF442" s="59"/>
     </row>
-    <row r="443" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="64">
         <v>441</v>
       </c>
@@ -42946,7 +42951,7 @@
       <c r="AE443" s="58"/>
       <c r="AF443" s="59"/>
     </row>
-    <row r="444" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="64">
         <v>442</v>
       </c>
@@ -43016,7 +43021,7 @@
       <c r="AE444" s="58"/>
       <c r="AF444" s="59"/>
     </row>
-    <row r="445" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="64">
         <v>443</v>
       </c>
@@ -43084,7 +43089,7 @@
       <c r="AE445" s="58"/>
       <c r="AF445" s="59"/>
     </row>
-    <row r="446" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="64">
         <v>444</v>
       </c>
@@ -43152,7 +43157,7 @@
       <c r="AE446" s="58"/>
       <c r="AF446" s="59"/>
     </row>
-    <row r="447" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="64">
         <v>445</v>
       </c>
@@ -43218,7 +43223,7 @@
       <c r="AE447" s="58"/>
       <c r="AF447" s="59"/>
     </row>
-    <row r="448" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="64">
         <v>446</v>
       </c>
@@ -43286,7 +43291,7 @@
       <c r="AE448" s="58"/>
       <c r="AF448" s="59"/>
     </row>
-    <row r="449" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="64">
         <v>447</v>
       </c>
@@ -43354,7 +43359,7 @@
       <c r="AE449" s="58"/>
       <c r="AF449" s="59"/>
     </row>
-    <row r="450" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="64">
         <v>448</v>
       </c>
@@ -43424,7 +43429,7 @@
       <c r="AE450" s="58"/>
       <c r="AF450" s="59"/>
     </row>
-    <row r="451" spans="1:32" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:32" ht="108.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="64">
         <v>449</v>
       </c>
@@ -43492,7 +43497,7 @@
       <c r="AE451" s="58"/>
       <c r="AF451" s="59"/>
     </row>
-    <row r="452" spans="1:32" ht="316.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:32" ht="316.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="64">
         <v>450</v>
       </c>
@@ -43556,7 +43561,7 @@
       <c r="AE452" s="58"/>
       <c r="AF452" s="59"/>
     </row>
-    <row r="453" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="64">
         <v>451</v>
       </c>
@@ -43632,7 +43637,7 @@
       <c r="AE453" s="58"/>
       <c r="AF453" s="59"/>
     </row>
-    <row r="454" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="64">
         <v>452</v>
       </c>
@@ -43700,7 +43705,7 @@
       <c r="AE454" s="58"/>
       <c r="AF454" s="59"/>
     </row>
-    <row r="455" spans="1:32" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:32" ht="216.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="64">
         <v>453</v>
       </c>
@@ -43768,7 +43773,7 @@
       <c r="AE455" s="58"/>
       <c r="AF455" s="59"/>
     </row>
-    <row r="456" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="64">
         <v>454</v>
       </c>
@@ -43836,7 +43841,7 @@
       <c r="AE456" s="58"/>
       <c r="AF456" s="59"/>
     </row>
-    <row r="457" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="64">
         <v>455</v>
       </c>
@@ -43902,7 +43907,7 @@
       <c r="AE457" s="58"/>
       <c r="AF457" s="59"/>
     </row>
-    <row r="458" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="64">
         <v>456</v>
       </c>
@@ -43978,7 +43983,7 @@
       <c r="AE458" s="58"/>
       <c r="AF458" s="59"/>
     </row>
-    <row r="459" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="64">
         <v>457</v>
       </c>
@@ -44056,7 +44061,7 @@
       <c r="AE459" s="58"/>
       <c r="AF459" s="59"/>
     </row>
-    <row r="460" spans="1:32" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:32" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="64">
         <v>458</v>
       </c>
@@ -44128,7 +44133,7 @@
       <c r="AE460" s="58"/>
       <c r="AF460" s="59"/>
     </row>
-    <row r="461" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="64">
         <v>459</v>
       </c>
@@ -44198,7 +44203,7 @@
       <c r="AE461" s="58"/>
       <c r="AF461" s="68"/>
     </row>
-    <row r="462" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="64">
         <v>460</v>
       </c>
@@ -44266,7 +44271,7 @@
       <c r="AE462" s="58"/>
       <c r="AF462" s="68"/>
     </row>
-    <row r="463" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="64">
         <v>461</v>
       </c>
@@ -44334,7 +44339,7 @@
       <c r="AE463" s="58"/>
       <c r="AF463" s="69"/>
     </row>
-    <row r="464" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="64">
         <v>462</v>
       </c>
@@ -44402,7 +44407,7 @@
       <c r="AE464" s="58"/>
       <c r="AF464" s="68"/>
     </row>
-    <row r="465" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="64">
         <v>463</v>
       </c>
@@ -44472,7 +44477,7 @@
       <c r="AE465" s="58"/>
       <c r="AF465" s="68"/>
     </row>
-    <row r="466" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="64">
         <v>464</v>
       </c>
@@ -44542,7 +44547,7 @@
       <c r="AE466" s="58"/>
       <c r="AF466" s="68"/>
     </row>
-    <row r="467" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="64">
         <v>465</v>
       </c>
@@ -44608,7 +44613,7 @@
       <c r="AE467" s="58"/>
       <c r="AF467" s="59"/>
     </row>
-    <row r="468" spans="1:32" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:32" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="64">
         <v>465</v>
       </c>
@@ -44684,7 +44689,7 @@
       <c r="AE468" s="58"/>
       <c r="AF468" s="59"/>
     </row>
-    <row r="469" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="64">
         <v>466</v>
       </c>
@@ -44750,7 +44755,7 @@
       <c r="AE469" s="58"/>
       <c r="AF469" s="59"/>
     </row>
-    <row r="470" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="64">
         <v>467</v>
       </c>
@@ -44820,7 +44825,7 @@
       <c r="AE470" s="58"/>
       <c r="AF470" s="68"/>
     </row>
-    <row r="471" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="64">
         <v>468</v>
       </c>
@@ -44892,7 +44897,7 @@
       <c r="AE471" s="58"/>
       <c r="AF471" s="68"/>
     </row>
-    <row r="472" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="64">
         <v>469</v>
       </c>
@@ -44964,7 +44969,7 @@
       <c r="AE472" s="58"/>
       <c r="AF472" s="69"/>
     </row>
-    <row r="473" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="64">
         <v>470</v>
       </c>
@@ -45042,7 +45047,7 @@
       <c r="AE473" s="58"/>
       <c r="AF473" s="68"/>
     </row>
-    <row r="474" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="64">
         <v>471</v>
       </c>
@@ -45110,7 +45115,7 @@
       <c r="AE474" s="58"/>
       <c r="AF474" s="68"/>
     </row>
-    <row r="475" spans="1:32" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:32" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="64">
         <v>472</v>
       </c>
@@ -45176,7 +45181,7 @@
       <c r="AE475" s="58"/>
       <c r="AF475" s="68"/>
     </row>
-    <row r="476" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="64">
         <v>473</v>
       </c>
@@ -45242,7 +45247,7 @@
       <c r="AE476" s="58"/>
       <c r="AF476" s="68"/>
     </row>
-    <row r="477" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="64">
         <v>474</v>
       </c>
@@ -45306,7 +45311,7 @@
       <c r="AE477" s="58"/>
       <c r="AF477" s="68"/>
     </row>
-    <row r="478" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="64">
         <v>475</v>
       </c>
@@ -45372,7 +45377,7 @@
       <c r="AE478" s="58"/>
       <c r="AF478" s="68"/>
     </row>
-    <row r="479" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="64">
         <v>476</v>
       </c>
@@ -45440,7 +45445,7 @@
       <c r="AE479" s="58"/>
       <c r="AF479" s="68"/>
     </row>
-    <row r="480" spans="1:32" ht="331.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:32" ht="331.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="64">
         <v>477</v>
       </c>
@@ -45518,7 +45523,7 @@
       <c r="AE480" s="58"/>
       <c r="AF480" s="68"/>
     </row>
-    <row r="481" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="64">
         <v>478</v>
       </c>
@@ -45598,7 +45603,7 @@
       <c r="AE481" s="58"/>
       <c r="AF481" s="68"/>
     </row>
-    <row r="482" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="64">
         <v>479</v>
       </c>
@@ -45666,7 +45671,7 @@
       <c r="AE482" s="58"/>
       <c r="AF482" s="68"/>
     </row>
-    <row r="483" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="64">
         <v>480</v>
       </c>
@@ -45734,7 +45739,7 @@
       <c r="AE483" s="58"/>
       <c r="AF483" s="59"/>
     </row>
-    <row r="484" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="64">
         <v>481</v>
       </c>
@@ -45814,7 +45819,7 @@
       <c r="AE484" s="58"/>
       <c r="AF484" s="59"/>
     </row>
-    <row r="485" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="64">
         <v>482</v>
       </c>
@@ -45884,7 +45889,7 @@
       <c r="AE485" s="58"/>
       <c r="AF485" s="68"/>
     </row>
-    <row r="486" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="64">
         <v>483</v>
       </c>
@@ -45950,7 +45955,7 @@
       <c r="AE486" s="58"/>
       <c r="AF486" s="68"/>
     </row>
-    <row r="487" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="64">
         <v>484</v>
       </c>
@@ -46156,7 +46161,7 @@
       <c r="AE489" s="58"/>
       <c r="AF489" s="68"/>
     </row>
-    <row r="490" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="64">
         <v>487</v>
       </c>
@@ -46224,7 +46229,7 @@
       <c r="AE490" s="58"/>
       <c r="AF490" s="68"/>
     </row>
-    <row r="491" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="64">
         <v>488</v>
       </c>
@@ -46290,7 +46295,7 @@
       <c r="AE491" s="58"/>
       <c r="AF491" s="68"/>
     </row>
-    <row r="492" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="64">
         <v>489</v>
       </c>
@@ -46370,7 +46375,7 @@
       <c r="AE492" s="58"/>
       <c r="AF492" s="68"/>
     </row>
-    <row r="493" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="64">
         <v>490</v>
       </c>
@@ -46440,7 +46445,7 @@
       <c r="AE493" s="58"/>
       <c r="AF493" s="68"/>
     </row>
-    <row r="494" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="64">
         <v>491</v>
       </c>
@@ -46514,7 +46519,7 @@
       <c r="AE494" s="58"/>
       <c r="AF494" s="68"/>
     </row>
-    <row r="495" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="64">
         <v>492</v>
       </c>
@@ -46582,7 +46587,7 @@
       <c r="AE495" s="58"/>
       <c r="AF495" s="68"/>
     </row>
-    <row r="496" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="64">
         <v>493</v>
       </c>
@@ -46660,7 +46665,7 @@
       <c r="AE496" s="58"/>
       <c r="AF496" s="68"/>
     </row>
-    <row r="497" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="64">
         <v>494</v>
       </c>
@@ -46728,7 +46733,7 @@
       <c r="AE497" s="58"/>
       <c r="AF497" s="68"/>
     </row>
-    <row r="498" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="64">
         <v>495</v>
       </c>
@@ -46794,7 +46799,7 @@
       <c r="AE498" s="58"/>
       <c r="AF498" s="68"/>
     </row>
-    <row r="499" spans="1:32" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:32" ht="110.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="64">
         <v>496</v>
       </c>
@@ -46864,7 +46869,7 @@
       <c r="AE499" s="58"/>
       <c r="AF499" s="68"/>
     </row>
-    <row r="500" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="64">
         <v>497</v>
       </c>
@@ -46934,7 +46939,7 @@
       <c r="AE500" s="58"/>
       <c r="AF500" s="68"/>
     </row>
-    <row r="501" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="64">
         <v>498</v>
       </c>
@@ -47004,7 +47009,7 @@
       <c r="AE501" s="58"/>
       <c r="AF501" s="68"/>
     </row>
-    <row r="502" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="64">
         <v>499</v>
       </c>
@@ -47068,7 +47073,7 @@
       <c r="AE502" s="58"/>
       <c r="AF502" s="68"/>
     </row>
-    <row r="503" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="64">
         <v>500</v>
       </c>
@@ -47138,7 +47143,7 @@
       <c r="AE503" s="58"/>
       <c r="AF503" s="68"/>
     </row>
-    <row r="504" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="64">
         <v>501</v>
       </c>
@@ -47216,7 +47221,7 @@
       <c r="AE504" s="58"/>
       <c r="AF504" s="68"/>
     </row>
-    <row r="505" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="64">
         <v>502</v>
       </c>
@@ -47288,7 +47293,7 @@
       <c r="AE505" s="58"/>
       <c r="AF505" s="68"/>
     </row>
-    <row r="506" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="64">
         <v>503</v>
       </c>
@@ -47356,7 +47361,7 @@
       <c r="AE506" s="58"/>
       <c r="AF506" s="68"/>
     </row>
-    <row r="507" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="64">
         <v>504</v>
       </c>
@@ -47422,7 +47427,7 @@
       <c r="AE507" s="58"/>
       <c r="AF507" s="68"/>
     </row>
-    <row r="508" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="64">
         <v>505</v>
       </c>
@@ -47488,7 +47493,7 @@
       <c r="AE508" s="58"/>
       <c r="AF508" s="68"/>
     </row>
-    <row r="509" spans="1:32" ht="267.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:32" ht="267.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="64">
         <v>506</v>
       </c>
@@ -47564,7 +47569,7 @@
       <c r="AE509" s="58"/>
       <c r="AF509" s="68"/>
     </row>
-    <row r="510" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="64">
         <v>507</v>
       </c>
@@ -47628,7 +47633,7 @@
       <c r="AE510" s="58"/>
       <c r="AF510" s="59"/>
     </row>
-    <row r="511" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="64">
         <v>508</v>
       </c>
@@ -47694,7 +47699,7 @@
       <c r="AE511" s="58"/>
       <c r="AF511" s="59"/>
     </row>
-    <row r="512" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="64">
         <v>509</v>
       </c>
@@ -47758,7 +47763,7 @@
       <c r="AE512" s="58"/>
       <c r="AF512" s="59"/>
     </row>
-    <row r="513" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="64">
         <v>510</v>
       </c>
@@ -47828,7 +47833,7 @@
       <c r="AE513" s="58"/>
       <c r="AF513" s="68"/>
     </row>
-    <row r="514" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="64">
         <v>511</v>
       </c>
@@ -47894,7 +47899,7 @@
       <c r="AE514" s="58"/>
       <c r="AF514" s="68"/>
     </row>
-    <row r="515" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="64">
         <v>512</v>
       </c>
@@ -47970,7 +47975,7 @@
       <c r="AE515" s="58"/>
       <c r="AF515" s="68"/>
     </row>
-    <row r="516" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="64">
         <v>513</v>
       </c>
@@ -48034,7 +48039,7 @@
       <c r="AE516" s="58"/>
       <c r="AF516" s="68"/>
     </row>
-    <row r="517" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="64">
         <v>514</v>
       </c>
@@ -48290,7 +48295,7 @@
       <c r="AE520" s="58"/>
       <c r="AF520" s="68"/>
     </row>
-    <row r="521" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="64">
         <v>518</v>
       </c>
@@ -48420,7 +48425,7 @@
       <c r="AE522" s="58"/>
       <c r="AF522" s="68"/>
     </row>
-    <row r="523" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="64">
         <v>520</v>
       </c>
@@ -48480,7 +48485,7 @@
       <c r="AE523" s="58"/>
       <c r="AF523" s="68"/>
     </row>
-    <row r="524" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="64">
         <v>521</v>
       </c>
@@ -48540,7 +48545,7 @@
       <c r="AE524" s="58"/>
       <c r="AF524" s="68"/>
     </row>
-    <row r="525" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="64">
         <v>522</v>
       </c>
@@ -48604,7 +48609,7 @@
       <c r="AE525" s="58"/>
       <c r="AF525" s="59"/>
     </row>
-    <row r="526" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="64">
         <v>523</v>
       </c>
@@ -48666,7 +48671,7 @@
       <c r="AE526" s="58"/>
       <c r="AF526" s="59"/>
     </row>
-    <row r="527" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="64">
         <v>524</v>
       </c>
@@ -48730,7 +48735,7 @@
       <c r="AE527" s="58"/>
       <c r="AF527" s="68"/>
     </row>
-    <row r="528" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="64">
         <v>525</v>
       </c>
@@ -48794,7 +48799,7 @@
       <c r="AE528" s="58"/>
       <c r="AF528" s="68"/>
     </row>
-    <row r="529" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="64">
         <v>526</v>
       </c>
@@ -48852,7 +48857,7 @@
       <c r="AE529" s="58"/>
       <c r="AF529" s="68"/>
     </row>
-    <row r="530" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="64">
         <v>527</v>
       </c>
@@ -48910,7 +48915,7 @@
       <c r="AE530" s="58"/>
       <c r="AF530" s="68"/>
     </row>
-    <row r="531" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="64">
         <v>528</v>
       </c>
@@ -48972,7 +48977,7 @@
       <c r="AE531" s="58"/>
       <c r="AF531" s="68"/>
     </row>
-    <row r="532" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="64">
         <v>529</v>
       </c>
@@ -49036,7 +49041,7 @@
       <c r="AE532" s="58"/>
       <c r="AF532" s="68"/>
     </row>
-    <row r="533" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="64">
         <v>530</v>
       </c>
@@ -49100,7 +49105,7 @@
       <c r="AE533" s="58"/>
       <c r="AF533" s="68"/>
     </row>
-    <row r="534" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="64">
         <v>531</v>
       </c>
@@ -49160,7 +49165,7 @@
       <c r="AE534" s="58"/>
       <c r="AF534" s="68"/>
     </row>
-    <row r="535" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="64">
         <v>532</v>
       </c>
@@ -49236,7 +49241,7 @@
       <c r="AE535" s="58"/>
       <c r="AF535" s="68"/>
     </row>
-    <row r="536" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="64">
         <v>533</v>
       </c>
@@ -49300,7 +49305,7 @@
       <c r="AE536" s="58"/>
       <c r="AF536" s="68"/>
     </row>
-    <row r="537" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="64">
         <v>534</v>
       </c>
@@ -49360,7 +49365,7 @@
       <c r="AE537" s="58"/>
       <c r="AF537" s="68"/>
     </row>
-    <row r="538" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="64">
         <v>535</v>
       </c>
@@ -49418,7 +49423,7 @@
       <c r="AE538" s="58"/>
       <c r="AF538" s="68"/>
     </row>
-    <row r="539" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="64">
         <v>536</v>
       </c>
@@ -49482,7 +49487,7 @@
       <c r="AE539" s="58"/>
       <c r="AF539" s="68"/>
     </row>
-    <row r="540" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="64">
         <v>537</v>
       </c>
@@ -49546,7 +49551,7 @@
       <c r="AE540" s="58"/>
       <c r="AF540" s="68"/>
     </row>
-    <row r="541" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="64">
         <v>538</v>
       </c>
@@ -49610,7 +49615,7 @@
       <c r="AE541" s="58"/>
       <c r="AF541" s="68"/>
     </row>
-    <row r="542" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="64">
         <v>539</v>
       </c>
@@ -49674,7 +49679,7 @@
       <c r="AE542" s="58"/>
       <c r="AF542" s="68"/>
     </row>
-    <row r="543" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="64">
         <v>540</v>
       </c>
@@ -49738,7 +49743,7 @@
       <c r="AE543" s="58"/>
       <c r="AF543" s="68"/>
     </row>
-    <row r="544" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="64">
         <v>541</v>
       </c>
@@ -49804,7 +49809,7 @@
       <c r="AE544" s="58"/>
       <c r="AF544" s="59"/>
     </row>
-    <row r="545" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="64">
         <v>542</v>
       </c>
@@ -49880,7 +49885,7 @@
       <c r="AE545" s="58"/>
       <c r="AF545" s="59"/>
     </row>
-    <row r="546" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="64">
         <v>543</v>
       </c>
@@ -49942,7 +49947,7 @@
       <c r="AE546" s="58"/>
       <c r="AF546" s="59"/>
     </row>
-    <row r="547" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="64">
         <v>544</v>
       </c>
@@ -50000,7 +50005,7 @@
       <c r="AE547" s="58"/>
       <c r="AF547" s="59"/>
     </row>
-    <row r="548" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="64">
         <v>545</v>
       </c>
@@ -50064,7 +50069,7 @@
       <c r="AE548" s="58"/>
       <c r="AF548" s="59"/>
     </row>
-    <row r="549" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="64">
         <v>546</v>
       </c>
@@ -50130,7 +50135,7 @@
       <c r="AE549" s="58"/>
       <c r="AF549" s="68"/>
     </row>
-    <row r="550" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="64">
         <v>547</v>
       </c>
@@ -50194,7 +50199,7 @@
       <c r="AE550" s="58"/>
       <c r="AF550" s="68"/>
     </row>
-    <row r="551" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="64">
         <v>548</v>
       </c>
@@ -50260,7 +50265,7 @@
       <c r="AE551" s="58"/>
       <c r="AF551" s="69"/>
     </row>
-    <row r="552" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="64">
         <v>549</v>
       </c>
@@ -50320,7 +50325,7 @@
       <c r="AE552" s="58"/>
       <c r="AF552" s="68"/>
     </row>
-    <row r="553" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="64">
         <v>550</v>
       </c>
@@ -50384,7 +50389,7 @@
       <c r="AE553" s="58"/>
       <c r="AF553" s="68"/>
     </row>
-    <row r="554" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="64">
         <v>551</v>
       </c>
@@ -50444,7 +50449,7 @@
       <c r="AE554" s="58"/>
       <c r="AF554" s="68"/>
     </row>
-    <row r="555" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="64">
         <v>552</v>
       </c>
@@ -50504,7 +50509,7 @@
       <c r="AE555" s="58"/>
       <c r="AF555" s="68"/>
     </row>
-    <row r="556" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="64">
         <v>553</v>
       </c>
@@ -50570,7 +50575,7 @@
       <c r="AE556" s="58"/>
       <c r="AF556" s="68"/>
     </row>
-    <row r="557" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="64">
         <v>554</v>
       </c>
@@ -50646,7 +50651,7 @@
       <c r="AE557" s="58"/>
       <c r="AF557" s="68"/>
     </row>
-    <row r="558" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="64">
         <v>555</v>
       </c>
@@ -50710,7 +50715,7 @@
       <c r="AE558" s="58"/>
       <c r="AF558" s="68"/>
     </row>
-    <row r="559" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="64">
         <v>556</v>
       </c>
@@ -50772,7 +50777,7 @@
       <c r="AE559" s="58"/>
       <c r="AF559" s="68"/>
     </row>
-    <row r="560" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="64">
         <v>557</v>
       </c>
@@ -50836,7 +50841,7 @@
       <c r="AE560" s="58"/>
       <c r="AF560" s="68"/>
     </row>
-    <row r="561" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="64">
         <v>558</v>
       </c>
@@ -50902,7 +50907,7 @@
       <c r="AE561" s="58"/>
       <c r="AF561" s="68"/>
     </row>
-    <row r="562" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="64">
         <v>559</v>
       </c>
@@ -50966,7 +50971,7 @@
       <c r="AE562" s="58"/>
       <c r="AF562" s="59"/>
     </row>
-    <row r="563" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="64">
         <v>560</v>
       </c>
@@ -51028,7 +51033,7 @@
       <c r="AE563" s="58"/>
       <c r="AF563" s="68"/>
     </row>
-    <row r="564" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="64">
         <v>561</v>
       </c>
@@ -51092,7 +51097,7 @@
       <c r="AE564" s="58"/>
       <c r="AF564" s="68"/>
     </row>
-    <row r="565" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="64">
         <v>562</v>
       </c>
@@ -51156,7 +51161,7 @@
       <c r="AE565" s="58"/>
       <c r="AF565" s="68"/>
     </row>
-    <row r="566" spans="1:32" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:32" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="64">
         <v>563</v>
       </c>
@@ -51226,7 +51231,7 @@
       <c r="AE566" s="58"/>
       <c r="AF566" s="68"/>
     </row>
-    <row r="567" spans="1:32" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:32" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="64">
         <v>564</v>
       </c>
@@ -51300,7 +51305,7 @@
       <c r="AE567" s="58"/>
       <c r="AF567" s="68"/>
     </row>
-    <row r="568" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="64">
         <v>565</v>
       </c>
@@ -51442,7 +51447,7 @@
       <c r="AE569" s="58"/>
       <c r="AF569" s="68"/>
     </row>
-    <row r="570" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="64">
         <v>567</v>
       </c>
@@ -51512,7 +51517,7 @@
       <c r="AE570" s="58"/>
       <c r="AF570" s="68"/>
     </row>
-    <row r="571" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="64">
         <v>568</v>
       </c>
@@ -51580,7 +51585,7 @@
       <c r="AE571" s="58"/>
       <c r="AF571" s="68"/>
     </row>
-    <row r="572" spans="1:32" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:32" ht="112.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="64">
         <v>569</v>
       </c>
@@ -51650,7 +51655,7 @@
       <c r="AE572" s="58"/>
       <c r="AF572" s="68"/>
     </row>
-    <row r="573" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="64">
         <v>570</v>
       </c>
@@ -51714,7 +51719,7 @@
       <c r="AE573" s="58"/>
       <c r="AF573" s="68"/>
     </row>
-    <row r="574" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="64">
         <v>571</v>
       </c>
@@ -51790,7 +51795,7 @@
       <c r="AE574" s="58"/>
       <c r="AF574" s="68"/>
     </row>
-    <row r="575" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="64">
         <v>572</v>
       </c>
@@ -51856,7 +51861,7 @@
       <c r="AE575" s="58"/>
       <c r="AF575" s="68"/>
     </row>
-    <row r="576" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="64">
         <v>573</v>
       </c>
@@ -51922,7 +51927,7 @@
       <c r="AE576" s="58"/>
       <c r="AF576" s="68"/>
     </row>
-    <row r="577" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="64">
         <v>574</v>
       </c>
@@ -51990,7 +51995,7 @@
       <c r="AE577" s="58"/>
       <c r="AF577" s="68"/>
     </row>
-    <row r="578" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="64">
         <v>575</v>
       </c>
@@ -52060,7 +52065,7 @@
       <c r="AE578" s="58"/>
       <c r="AF578" s="68"/>
     </row>
-    <row r="579" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="64">
         <v>576</v>
       </c>
@@ -52126,7 +52131,7 @@
       <c r="AE579" s="58"/>
       <c r="AF579" s="68"/>
     </row>
-    <row r="580" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="64">
         <v>577</v>
       </c>
@@ -52192,7 +52197,7 @@
       <c r="AE580" s="58"/>
       <c r="AF580" s="68"/>
     </row>
-    <row r="581" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="64">
         <v>578</v>
       </c>
@@ -52260,7 +52265,7 @@
       <c r="AE581" s="58"/>
       <c r="AF581" s="68"/>
     </row>
-    <row r="582" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="64">
         <v>579</v>
       </c>
@@ -52328,7 +52333,7 @@
       <c r="AE582" s="58"/>
       <c r="AF582" s="68"/>
     </row>
-    <row r="583" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="64">
         <v>580</v>
       </c>
@@ -52394,7 +52399,7 @@
       <c r="AE583" s="58"/>
       <c r="AF583" s="68"/>
     </row>
-    <row r="584" spans="1:32" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:32" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="64">
         <v>581</v>
       </c>
@@ -52462,7 +52467,7 @@
       <c r="AE584" s="58"/>
       <c r="AF584" s="68"/>
     </row>
-    <row r="585" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="64">
         <v>582</v>
       </c>
@@ -52530,7 +52535,7 @@
       <c r="AE585" s="58"/>
       <c r="AF585" s="68"/>
     </row>
-    <row r="586" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="64">
         <v>583</v>
       </c>
@@ -52598,7 +52603,7 @@
       <c r="AE586" s="58"/>
       <c r="AF586" s="68"/>
     </row>
-    <row r="587" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="64">
         <v>584</v>
       </c>
@@ -52668,7 +52673,7 @@
       <c r="AE587" s="58"/>
       <c r="AF587" s="68"/>
     </row>
-    <row r="588" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="64">
         <v>585</v>
       </c>
@@ -52736,7 +52741,7 @@
       <c r="AE588" s="58"/>
       <c r="AF588" s="68"/>
     </row>
-    <row r="589" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="64">
         <v>586</v>
       </c>
@@ -52804,7 +52809,7 @@
       <c r="AE589" s="58"/>
       <c r="AF589" s="68"/>
     </row>
-    <row r="590" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="64">
         <v>587</v>
       </c>
@@ -52870,7 +52875,7 @@
       <c r="AE590" s="58"/>
       <c r="AF590" s="68"/>
     </row>
-    <row r="591" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="64">
         <v>588</v>
       </c>
@@ -52940,7 +52945,7 @@
       <c r="AE591" s="58"/>
       <c r="AF591" s="68"/>
     </row>
-    <row r="592" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="64">
         <v>589</v>
       </c>
@@ -53010,7 +53015,7 @@
       <c r="AE592" s="58"/>
       <c r="AF592" s="68"/>
     </row>
-    <row r="593" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="64">
         <v>590</v>
       </c>
@@ -53074,7 +53079,7 @@
       <c r="AE593" s="58"/>
       <c r="AF593" s="68"/>
     </row>
-    <row r="594" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="64">
         <v>591</v>
       </c>
@@ -53142,7 +53147,7 @@
       <c r="AE594" s="58"/>
       <c r="AF594" s="68"/>
     </row>
-    <row r="595" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="64">
         <v>592</v>
       </c>
@@ -53212,7 +53217,7 @@
       <c r="AE595" s="58"/>
       <c r="AF595" s="68"/>
     </row>
-    <row r="596" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="64">
         <v>593</v>
       </c>
@@ -53280,7 +53285,7 @@
       <c r="AE596" s="58"/>
       <c r="AF596" s="68"/>
     </row>
-    <row r="597" spans="1:32" ht="306" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:32" ht="306" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="64">
         <v>594</v>
       </c>
@@ -53346,7 +53351,7 @@
       <c r="AE597" s="58"/>
       <c r="AF597" s="68"/>
     </row>
-    <row r="598" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="64">
         <v>595</v>
       </c>
@@ -53412,7 +53417,7 @@
       <c r="AE598" s="58"/>
       <c r="AF598" s="68"/>
     </row>
-    <row r="599" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="64">
         <v>596</v>
       </c>
@@ -53486,7 +53491,7 @@
       <c r="AE599" s="58"/>
       <c r="AF599" s="59"/>
     </row>
-    <row r="600" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="64">
         <v>597</v>
       </c>
@@ -53554,7 +53559,7 @@
       <c r="AE600" s="58"/>
       <c r="AF600" s="59"/>
     </row>
-    <row r="601" spans="1:32" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:32" ht="216.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="64">
         <v>598</v>
       </c>
@@ -53618,7 +53623,7 @@
       <c r="AE601" s="58"/>
       <c r="AF601" s="59"/>
     </row>
-    <row r="602" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="64">
         <v>599</v>
       </c>
@@ -53698,7 +53703,7 @@
       <c r="AE602" s="58"/>
       <c r="AF602" s="59"/>
     </row>
-    <row r="603" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="64">
         <v>600</v>
       </c>
@@ -53778,7 +53783,7 @@
       <c r="AE603" s="58"/>
       <c r="AF603" s="68"/>
     </row>
-    <row r="604" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="64">
         <v>601</v>
       </c>
@@ -53846,7 +53851,7 @@
       <c r="AE604" s="58"/>
       <c r="AF604" s="68"/>
     </row>
-    <row r="605" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="64">
         <v>602</v>
       </c>
@@ -53908,7 +53913,7 @@
       <c r="AE605" s="58"/>
       <c r="AF605" s="69"/>
     </row>
-    <row r="606" spans="1:32" ht="408" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:32" ht="408" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="64">
         <v>603</v>
       </c>
@@ -53986,7 +53991,7 @@
       <c r="AE606" s="58"/>
       <c r="AF606" s="59"/>
     </row>
-    <row r="607" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="64">
         <v>604</v>
       </c>
@@ -54050,7 +54055,7 @@
       <c r="AE607" s="58"/>
       <c r="AF607" s="59"/>
     </row>
-    <row r="608" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="64">
         <v>605</v>
       </c>
@@ -54116,7 +54121,7 @@
       <c r="AE608" s="58"/>
       <c r="AF608" s="59"/>
     </row>
-    <row r="609" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="64">
         <v>606</v>
       </c>
@@ -54194,7 +54199,7 @@
       <c r="AE609" s="58"/>
       <c r="AF609" s="68"/>
     </row>
-    <row r="610" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="64">
         <v>607</v>
       </c>
@@ -54274,7 +54279,7 @@
       <c r="AE610" s="58"/>
       <c r="AF610" s="69"/>
     </row>
-    <row r="611" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="64">
         <v>608</v>
       </c>
@@ -54352,7 +54357,7 @@
       <c r="AE611" s="58"/>
       <c r="AF611" s="68"/>
     </row>
-    <row r="612" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="64">
         <v>609</v>
       </c>
@@ -54424,7 +54429,7 @@
       <c r="AE612" s="58"/>
       <c r="AF612" s="59"/>
     </row>
-    <row r="613" spans="1:32" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:32" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="64">
         <v>610</v>
       </c>
@@ -54494,7 +54499,7 @@
       <c r="AE613" s="58"/>
       <c r="AF613" s="59"/>
     </row>
-    <row r="614" spans="1:32" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:32" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="64">
         <v>611</v>
       </c>
@@ -54566,7 +54571,7 @@
       <c r="AE614" s="58"/>
       <c r="AF614" s="59"/>
     </row>
-    <row r="615" spans="1:32" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:32" ht="216.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="64">
         <v>612</v>
       </c>
@@ -54646,7 +54651,7 @@
       <c r="AE615" s="58"/>
       <c r="AF615" s="68"/>
     </row>
-    <row r="616" spans="1:32" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:32" ht="216.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="64">
         <v>613</v>
       </c>
@@ -54718,7 +54723,7 @@
       <c r="AE616" s="58"/>
       <c r="AF616" s="68"/>
     </row>
-    <row r="617" spans="1:32" ht="280.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:32" ht="280.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="64">
         <v>614</v>
       </c>
@@ -54802,7 +54807,7 @@
       <c r="AE617" s="58"/>
       <c r="AF617" s="69"/>
     </row>
-    <row r="618" spans="1:32" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:32" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="64">
         <v>615</v>
       </c>
@@ -54874,7 +54879,7 @@
       <c r="AE618" s="58"/>
       <c r="AF618" s="68"/>
     </row>
-    <row r="619" spans="1:32" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:32" ht="229.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="64">
         <v>616</v>
       </c>
@@ -54946,7 +54951,7 @@
       <c r="AE619" s="58"/>
       <c r="AF619" s="68"/>
     </row>
-    <row r="620" spans="1:32" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:32" ht="229.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="64">
         <v>617</v>
       </c>
@@ -55016,7 +55021,7 @@
       <c r="AE620" s="58"/>
       <c r="AF620" s="68"/>
     </row>
-    <row r="621" spans="1:32" ht="306" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:32" ht="306" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="64">
         <v>618</v>
       </c>
@@ -55096,7 +55101,7 @@
       <c r="AE621" s="58"/>
       <c r="AF621" s="68"/>
     </row>
-    <row r="622" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="64">
         <v>619</v>
       </c>
@@ -55178,7 +55183,7 @@
       <c r="AE622" s="58"/>
       <c r="AF622" s="68"/>
     </row>
-    <row r="623" spans="1:32" ht="204" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:32" ht="204" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="64">
         <v>620</v>
       </c>
@@ -55252,7 +55257,7 @@
       <c r="AE623" s="58"/>
       <c r="AF623" s="68"/>
     </row>
-    <row r="624" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="64">
         <v>621</v>
       </c>
@@ -55326,7 +55331,7 @@
       <c r="AE624" s="58"/>
       <c r="AF624" s="68"/>
     </row>
-    <row r="625" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="64">
         <v>622</v>
       </c>
@@ -55408,7 +55413,7 @@
       <c r="AE625" s="58"/>
       <c r="AF625" s="68"/>
     </row>
-    <row r="626" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="64">
         <v>623</v>
       </c>
@@ -55480,7 +55485,7 @@
       <c r="AE626" s="58"/>
       <c r="AF626" s="68"/>
     </row>
-    <row r="627" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="64">
         <v>624</v>
       </c>
@@ -55562,7 +55567,7 @@
       <c r="AE627" s="58"/>
       <c r="AF627" s="68"/>
     </row>
-    <row r="628" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="64">
         <v>625</v>
       </c>
@@ -55644,7 +55649,7 @@
       <c r="AE628" s="58"/>
       <c r="AF628" s="59"/>
     </row>
-    <row r="629" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="64">
         <v>626</v>
       </c>
@@ -55718,7 +55723,7 @@
       <c r="AE629" s="58"/>
       <c r="AF629" s="59"/>
     </row>
-    <row r="630" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="64">
         <v>627</v>
       </c>
@@ -55792,7 +55797,7 @@
       <c r="AE630" s="58"/>
       <c r="AF630" s="68"/>
     </row>
-    <row r="631" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="64">
         <v>628</v>
       </c>
@@ -55860,7 +55865,7 @@
       <c r="AE631" s="58"/>
       <c r="AF631" s="68"/>
     </row>
-    <row r="632" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="64">
         <v>629</v>
       </c>
@@ -55940,7 +55945,7 @@
       <c r="AE632" s="58"/>
       <c r="AF632" s="68"/>
     </row>
-    <row r="633" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="64">
         <v>630</v>
       </c>
@@ -56018,7 +56023,7 @@
       <c r="AE633" s="58"/>
       <c r="AF633" s="68"/>
     </row>
-    <row r="634" spans="1:32" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:32" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="64">
         <v>631</v>
       </c>
@@ -56172,7 +56177,7 @@
       <c r="AE635" s="58"/>
       <c r="AF635" s="68"/>
     </row>
-    <row r="636" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="64">
         <v>633</v>
       </c>
@@ -56250,7 +56255,7 @@
       <c r="AE636" s="58"/>
       <c r="AF636" s="68"/>
     </row>
-    <row r="637" spans="1:32" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:32" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="64">
         <v>634</v>
       </c>
@@ -56332,7 +56337,7 @@
       <c r="AE637" s="58"/>
       <c r="AF637" s="68"/>
     </row>
-    <row r="638" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="64">
         <v>635</v>
       </c>
@@ -56410,7 +56415,7 @@
       <c r="AE638" s="58"/>
       <c r="AF638" s="68"/>
     </row>
-    <row r="639" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="64">
         <v>636</v>
       </c>
@@ -56482,7 +56487,7 @@
       <c r="AE639" s="58"/>
       <c r="AF639" s="68"/>
     </row>
-    <row r="640" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="64">
         <v>637</v>
       </c>
@@ -56552,7 +56557,7 @@
       <c r="AE640" s="58"/>
       <c r="AF640" s="68"/>
     </row>
-    <row r="641" spans="1:32" ht="204" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:32" ht="204" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="64">
         <v>638</v>
       </c>
@@ -56634,7 +56639,7 @@
       <c r="AE641" s="58"/>
       <c r="AF641" s="68"/>
     </row>
-    <row r="642" spans="1:32" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:32" ht="165.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="64">
         <v>639</v>
       </c>
@@ -56706,7 +56711,7 @@
       <c r="AE642" s="58"/>
       <c r="AF642" s="68"/>
     </row>
-    <row r="643" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="64">
         <v>640</v>
       </c>
@@ -56770,7 +56775,7 @@
       <c r="AE643" s="58"/>
       <c r="AF643" s="68"/>
     </row>
-    <row r="644" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="64">
         <v>641</v>
       </c>
@@ -56840,7 +56845,7 @@
       <c r="AE644" s="58"/>
       <c r="AF644" s="68"/>
     </row>
-    <row r="645" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="64">
         <v>642</v>
       </c>
@@ -56906,7 +56911,7 @@
       <c r="AE645" s="58"/>
       <c r="AF645" s="68"/>
     </row>
-    <row r="646" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="64">
         <v>643</v>
       </c>
@@ -56970,7 +56975,7 @@
       <c r="AE646" s="58"/>
       <c r="AF646" s="68"/>
     </row>
-    <row r="647" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="64">
         <v>644</v>
       </c>
@@ -57036,7 +57041,7 @@
       <c r="AE647" s="58"/>
       <c r="AF647" s="68"/>
     </row>
-    <row r="648" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="64">
         <v>645</v>
       </c>
@@ -57116,7 +57121,7 @@
       <c r="AE648" s="58"/>
       <c r="AF648" s="68"/>
     </row>
-    <row r="649" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="64">
         <v>646</v>
       </c>
@@ -57186,7 +57191,7 @@
       <c r="AE649" s="58"/>
       <c r="AF649" s="68"/>
     </row>
-    <row r="650" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="64">
         <v>647</v>
       </c>
@@ -57264,7 +57269,7 @@
       <c r="AE650" s="58"/>
       <c r="AF650" s="68"/>
     </row>
-    <row r="651" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="64">
         <v>648</v>
       </c>
@@ -57340,7 +57345,7 @@
       <c r="AE651" s="58"/>
       <c r="AF651" s="68"/>
     </row>
-    <row r="652" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="64">
         <v>649</v>
       </c>
@@ -57418,7 +57423,7 @@
       <c r="AE652" s="58"/>
       <c r="AF652" s="68"/>
     </row>
-    <row r="653" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="64">
         <v>650</v>
       </c>
@@ -57486,7 +57491,7 @@
       <c r="AE653" s="58"/>
       <c r="AF653" s="68"/>
     </row>
-    <row r="654" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="64">
         <v>651</v>
       </c>
@@ -57566,7 +57571,7 @@
       <c r="AE654" s="58"/>
       <c r="AF654" s="68"/>
     </row>
-    <row r="655" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="64">
         <v>652</v>
       </c>
@@ -57646,7 +57651,7 @@
       <c r="AE655" s="58"/>
       <c r="AF655" s="68"/>
     </row>
-    <row r="656" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="64">
         <v>653</v>
       </c>
@@ -57710,7 +57715,7 @@
       <c r="AE656" s="58"/>
       <c r="AF656" s="68"/>
     </row>
-    <row r="657" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="64">
         <v>654</v>
       </c>
@@ -57790,7 +57795,7 @@
       <c r="AE657" s="58"/>
       <c r="AF657" s="68"/>
     </row>
-    <row r="658" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="64">
         <v>655</v>
       </c>
@@ -57868,7 +57873,7 @@
       <c r="AE658" s="58"/>
       <c r="AF658" s="68"/>
     </row>
-    <row r="659" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="64">
         <v>656</v>
       </c>
@@ -57936,7 +57941,7 @@
       <c r="AE659" s="58"/>
       <c r="AF659" s="68"/>
     </row>
-    <row r="660" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="64">
         <v>657</v>
       </c>
@@ -58006,7 +58011,7 @@
       <c r="AE660" s="58"/>
       <c r="AF660" s="68"/>
     </row>
-    <row r="661" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="64">
         <v>658</v>
       </c>
@@ -58076,7 +58081,7 @@
       <c r="AE661" s="58"/>
       <c r="AF661" s="68"/>
     </row>
-    <row r="662" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="64">
         <v>659</v>
       </c>
@@ -58156,7 +58161,7 @@
       <c r="AE662" s="58"/>
       <c r="AF662" s="68"/>
     </row>
-    <row r="663" spans="1:32" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:32" ht="165.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="64">
         <v>660</v>
       </c>
@@ -58222,7 +58227,7 @@
       <c r="AE663" s="58"/>
       <c r="AF663" s="59"/>
     </row>
-    <row r="664" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="64">
         <v>661</v>
       </c>
@@ -58298,7 +58303,7 @@
       <c r="AE664" s="58"/>
       <c r="AF664" s="59"/>
     </row>
-    <row r="665" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="64">
         <v>662</v>
       </c>
@@ -58376,7 +58381,7 @@
       <c r="AE665" s="58"/>
       <c r="AF665" s="59"/>
     </row>
-    <row r="666" spans="1:32" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:32" ht="191.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="64">
         <v>663</v>
       </c>
@@ -58452,7 +58457,7 @@
       <c r="AE666" s="58"/>
       <c r="AF666" s="59"/>
     </row>
-    <row r="667" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="64">
         <v>664</v>
       </c>
@@ -58528,7 +58533,7 @@
       <c r="AE667" s="58"/>
       <c r="AF667" s="68"/>
     </row>
-    <row r="668" spans="1:32" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:32" ht="191.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="64">
         <v>665</v>
       </c>
@@ -58596,7 +58601,7 @@
       <c r="AE668" s="58"/>
       <c r="AF668" s="68"/>
     </row>
-    <row r="669" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="64">
         <v>666</v>
       </c>
@@ -58664,7 +58669,7 @@
       <c r="AE669" s="58"/>
       <c r="AF669" s="69"/>
     </row>
-    <row r="670" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="64">
         <v>667</v>
       </c>
@@ -58734,7 +58739,7 @@
       <c r="AE670" s="58"/>
       <c r="AF670" s="68"/>
     </row>
-    <row r="671" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="64">
         <v>668</v>
       </c>
@@ -58802,7 +58807,7 @@
       <c r="AE671" s="58"/>
       <c r="AF671" s="68"/>
     </row>
-    <row r="672" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="64">
         <v>669</v>
       </c>
@@ -58870,7 +58875,7 @@
       <c r="AE672" s="58"/>
       <c r="AF672" s="68"/>
     </row>
-    <row r="673" spans="1:32" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:32" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="64">
         <v>670</v>
       </c>
@@ -58946,7 +58951,7 @@
       <c r="AE673" s="58"/>
       <c r="AF673" s="68"/>
     </row>
-    <row r="674" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="64">
         <v>671</v>
       </c>
@@ -59016,7 +59021,7 @@
       <c r="AE674" s="58"/>
       <c r="AF674" s="68"/>
     </row>
-    <row r="675" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="64">
         <v>672</v>
       </c>
@@ -59084,7 +59089,7 @@
       <c r="AE675" s="58"/>
       <c r="AF675" s="68"/>
     </row>
-    <row r="676" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="64">
         <v>673</v>
       </c>
@@ -59152,7 +59157,7 @@
       <c r="AE676" s="58"/>
       <c r="AF676" s="68"/>
     </row>
-    <row r="677" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="64">
         <v>674</v>
       </c>
@@ -59224,7 +59229,7 @@
       <c r="AE677" s="58"/>
       <c r="AF677" s="68"/>
     </row>
-    <row r="678" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="64">
         <v>675</v>
       </c>
@@ -59294,7 +59299,7 @@
       <c r="AE678" s="58"/>
       <c r="AF678" s="68"/>
     </row>
-    <row r="679" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="64">
         <v>676</v>
       </c>
@@ -59360,7 +59365,7 @@
       <c r="AE679" s="58"/>
       <c r="AF679" s="68"/>
     </row>
-    <row r="680" spans="1:32" ht="318.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:32" ht="318.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="64">
         <v>677</v>
       </c>
@@ -59432,7 +59437,7 @@
       <c r="AE680" s="58"/>
       <c r="AF680" s="59"/>
     </row>
-    <row r="681" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="64">
         <v>678</v>
       </c>
@@ -59500,7 +59505,7 @@
       <c r="AE681" s="58"/>
       <c r="AF681" s="59"/>
     </row>
-    <row r="682" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="64">
         <v>679</v>
       </c>
@@ -59574,7 +59579,7 @@
       <c r="AE682" s="58"/>
       <c r="AF682" s="59"/>
     </row>
-    <row r="683" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="64">
         <v>680</v>
       </c>
@@ -59640,7 +59645,7 @@
       <c r="AE683" s="58"/>
       <c r="AF683" s="59"/>
     </row>
-    <row r="684" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:32" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="64">
         <v>681</v>
       </c>
@@ -59704,7 +59709,7 @@
       <c r="AE684" s="58"/>
       <c r="AF684" s="59"/>
     </row>
-    <row r="685" spans="1:32" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:32" ht="191.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="64">
         <v>682</v>
       </c>
@@ -59770,7 +59775,7 @@
       <c r="AE685" s="58"/>
       <c r="AF685" s="59"/>
     </row>
-    <row r="686" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="64">
         <v>683</v>
       </c>
@@ -59836,7 +59841,7 @@
       <c r="AE686" s="58"/>
       <c r="AF686" s="59"/>
     </row>
-    <row r="687" spans="1:32" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:32" ht="191.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="64">
         <v>684</v>
       </c>
@@ -59902,7 +59907,7 @@
       <c r="AE687" s="58"/>
       <c r="AF687" s="59"/>
     </row>
-    <row r="688" spans="1:32" ht="293.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:32" ht="293.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="64">
         <v>685</v>
       </c>
@@ -59976,7 +59981,7 @@
       <c r="AE688" s="58"/>
       <c r="AF688" s="59"/>
     </row>
-    <row r="689" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="64">
         <v>686</v>
       </c>
@@ -60040,7 +60045,7 @@
       <c r="AE689" s="58"/>
       <c r="AF689" s="59"/>
     </row>
-    <row r="690" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="64">
         <v>687</v>
       </c>
@@ -60108,7 +60113,7 @@
       <c r="AE690" s="58"/>
       <c r="AF690" s="59"/>
     </row>
-    <row r="691" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="64">
         <v>688</v>
       </c>
@@ -60168,7 +60173,7 @@
       <c r="AE691" s="58"/>
       <c r="AF691" s="59"/>
     </row>
-    <row r="692" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="64">
         <v>689</v>
       </c>
@@ -60230,7 +60235,7 @@
       <c r="AE692" s="58"/>
       <c r="AF692" s="59"/>
     </row>
-    <row r="693" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="64">
         <v>690</v>
       </c>
@@ -60290,7 +60295,7 @@
       <c r="AE693" s="58"/>
       <c r="AF693" s="59"/>
     </row>
-    <row r="694" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="64">
         <v>691</v>
       </c>
@@ -60358,7 +60363,7 @@
       <c r="AE694" s="58"/>
       <c r="AF694" s="59"/>
     </row>
-    <row r="695" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="64">
         <v>692</v>
       </c>
@@ -60422,7 +60427,7 @@
       <c r="AE695" s="58"/>
       <c r="AF695" s="59"/>
     </row>
-    <row r="696" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="64">
         <v>693</v>
       </c>
@@ -60486,7 +60491,7 @@
       <c r="AE696" s="58"/>
       <c r="AF696" s="59"/>
     </row>
-    <row r="697" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="64">
         <v>694</v>
       </c>
@@ -60560,7 +60565,7 @@
       <c r="AE697" s="58"/>
       <c r="AF697" s="59"/>
     </row>
-    <row r="698" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="64">
         <v>695</v>
       </c>
@@ -60634,7 +60639,7 @@
       <c r="AE698" s="58"/>
       <c r="AF698" s="59"/>
     </row>
-    <row r="699" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="64">
         <v>696</v>
       </c>
@@ -60696,7 +60701,7 @@
       <c r="AE699" s="58"/>
       <c r="AF699" s="59"/>
     </row>
-    <row r="700" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="64">
         <v>697</v>
       </c>
@@ -60768,7 +60773,7 @@
       <c r="AE700" s="58"/>
       <c r="AF700" s="59"/>
     </row>
-    <row r="701" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="64">
         <v>698</v>
       </c>
@@ -60830,7 +60835,7 @@
       <c r="AE701" s="58"/>
       <c r="AF701" s="59"/>
     </row>
-    <row r="702" spans="1:32" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:32" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="64">
         <v>699</v>
       </c>
@@ -60936,7 +60941,9 @@
       </c>
       <c r="P703" s="52"/>
       <c r="Q703" s="52"/>
-      <c r="R703" s="52"/>
+      <c r="R703" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S703" s="52"/>
       <c r="T703" s="53"/>
       <c r="U703" s="53"/>
@@ -60962,7 +60969,7 @@
       <c r="AE703" s="58"/>
       <c r="AF703" s="59"/>
     </row>
-    <row r="704" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="64">
         <v>701</v>
       </c>
@@ -61010,7 +61017,7 @@
       <c r="AE704" s="58"/>
       <c r="AF704" s="58"/>
     </row>
-    <row r="705" spans="1:32" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:32" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="64">
         <v>702</v>
       </c>
@@ -61056,7 +61063,7 @@
       <c r="AE705" s="58"/>
       <c r="AF705" s="58"/>
     </row>
-    <row r="706" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="64">
         <v>703</v>
       </c>
@@ -61102,7 +61109,7 @@
       <c r="AE706" s="58"/>
       <c r="AF706" s="58"/>
     </row>
-    <row r="707" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="64">
         <v>704</v>
       </c>
@@ -61148,7 +61155,7 @@
       <c r="AE707" s="58"/>
       <c r="AF707" s="58"/>
     </row>
-    <row r="708" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="64">
         <v>705</v>
       </c>
@@ -61206,7 +61213,7 @@
       <c r="AE708" s="58"/>
       <c r="AF708" s="58"/>
     </row>
-    <row r="709" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="64">
         <v>706</v>
       </c>
@@ -61262,7 +61269,7 @@
       <c r="AE709" s="58"/>
       <c r="AF709" s="58"/>
     </row>
-    <row r="710" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="64">
         <v>707</v>
       </c>
@@ -61310,7 +61317,7 @@
       <c r="AE710" s="58"/>
       <c r="AF710" s="58"/>
     </row>
-    <row r="711" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:32" ht="100.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="64">
         <v>708</v>
       </c>
@@ -61365,7 +61372,16 @@
       <c r="AF711" s="58"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AF711"/>
+  <autoFilter ref="A2:AF711">
+    <filterColumn colId="13">
+      <filters>
+        <filter val="FHIR-CGIT"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="17">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:K1"/>
@@ -62072,10 +62088,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H1" s="218" t="s">
+      <c r="H1" s="179" t="s">
         <v>2261</v>
       </c>
-      <c r="I1" s="218"/>
+      <c r="I1" s="179"/>
     </row>
     <row r="2" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="76" t="s">
@@ -62090,16 +62106,16 @@
       <c r="I2" s="78"/>
     </row>
     <row r="3" spans="2:14" ht="303.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="219" t="s">
+      <c r="B3" s="180" t="s">
         <v>2263</v>
       </c>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="221"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="182"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J4" s="25"/>
@@ -62117,16 +62133,16 @@
       <c r="I5" s="78"/>
     </row>
     <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="201" t="s">
+      <c r="B6" s="183" t="s">
         <v>2265</v>
       </c>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="202"/>
-      <c r="I6" s="203"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="185"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -62136,15 +62152,15 @@
       <c r="B7" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="222" t="s">
+      <c r="C7" s="186" t="s">
         <v>2266</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="223"/>
-      <c r="I7" s="224"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="188"/>
       <c r="J7" s="80"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -62154,15 +62170,15 @@
       <c r="B8" s="81" t="s">
         <v>2267</v>
       </c>
-      <c r="C8" s="225" t="s">
+      <c r="C8" s="189" t="s">
         <v>2268</v>
       </c>
-      <c r="D8" s="225"/>
-      <c r="E8" s="225"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="225"/>
-      <c r="H8" s="225"/>
-      <c r="I8" s="226"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="189"/>
+      <c r="I8" s="190"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -62172,15 +62188,15 @@
       <c r="B9" s="82" t="s">
         <v>2269</v>
       </c>
-      <c r="C9" s="216" t="s">
+      <c r="C9" s="177" t="s">
         <v>2270</v>
       </c>
-      <c r="D9" s="216"/>
-      <c r="E9" s="216"/>
-      <c r="F9" s="216"/>
-      <c r="G9" s="216"/>
-      <c r="H9" s="216"/>
-      <c r="I9" s="217"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="178"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -62191,13 +62207,13 @@
       <c r="C10" s="84" t="s">
         <v>2271</v>
       </c>
-      <c r="D10" s="214" t="s">
+      <c r="D10" s="192" t="s">
         <v>2272</v>
       </c>
       <c r="E10" s="193"/>
       <c r="F10" s="193"/>
       <c r="G10" s="193"/>
-      <c r="H10" s="215"/>
+      <c r="H10" s="194"/>
       <c r="I10" s="85"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -62209,13 +62225,13 @@
       <c r="C11" s="84" t="s">
         <v>2273</v>
       </c>
-      <c r="D11" s="214" t="s">
+      <c r="D11" s="192" t="s">
         <v>2274</v>
       </c>
       <c r="E11" s="193"/>
       <c r="F11" s="193"/>
       <c r="G11" s="193"/>
-      <c r="H11" s="215"/>
+      <c r="H11" s="194"/>
       <c r="I11" s="85"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -62228,13 +62244,13 @@
       <c r="C12" s="84" t="s">
         <v>2275</v>
       </c>
-      <c r="D12" s="214" t="s">
+      <c r="D12" s="192" t="s">
         <v>2276</v>
       </c>
       <c r="E12" s="193"/>
       <c r="F12" s="193"/>
       <c r="G12" s="193"/>
-      <c r="H12" s="215"/>
+      <c r="H12" s="194"/>
       <c r="I12" s="85"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -62246,13 +62262,13 @@
       <c r="C13" s="84" t="s">
         <v>2277</v>
       </c>
-      <c r="D13" s="214" t="s">
+      <c r="D13" s="192" t="s">
         <v>2278</v>
       </c>
       <c r="E13" s="193"/>
       <c r="F13" s="193"/>
       <c r="G13" s="193"/>
-      <c r="H13" s="215"/>
+      <c r="H13" s="194"/>
       <c r="I13" s="85"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -62264,13 +62280,13 @@
       <c r="C14" s="84" t="s">
         <v>2279</v>
       </c>
-      <c r="D14" s="214" t="s">
+      <c r="D14" s="192" t="s">
         <v>2280</v>
       </c>
       <c r="E14" s="193"/>
       <c r="F14" s="193"/>
       <c r="G14" s="193"/>
-      <c r="H14" s="215"/>
+      <c r="H14" s="194"/>
       <c r="I14" s="85"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -62282,13 +62298,13 @@
       <c r="C15" s="84" t="s">
         <v>2281</v>
       </c>
-      <c r="D15" s="214" t="s">
+      <c r="D15" s="192" t="s">
         <v>2282</v>
       </c>
       <c r="E15" s="193"/>
       <c r="F15" s="193"/>
       <c r="G15" s="193"/>
-      <c r="H15" s="215"/>
+      <c r="H15" s="194"/>
       <c r="I15" s="85"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -62300,13 +62316,13 @@
       <c r="C16" s="84" t="s">
         <v>2283</v>
       </c>
-      <c r="D16" s="214" t="s">
+      <c r="D16" s="192" t="s">
         <v>2284</v>
       </c>
       <c r="E16" s="193"/>
       <c r="F16" s="193"/>
       <c r="G16" s="193"/>
-      <c r="H16" s="215"/>
+      <c r="H16" s="194"/>
       <c r="I16" s="85"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -62318,13 +62334,13 @@
       <c r="C17" s="84" t="s">
         <v>2285</v>
       </c>
-      <c r="D17" s="214" t="s">
+      <c r="D17" s="192" t="s">
         <v>2286</v>
       </c>
       <c r="E17" s="193"/>
       <c r="F17" s="193"/>
       <c r="G17" s="193"/>
-      <c r="H17" s="215"/>
+      <c r="H17" s="194"/>
       <c r="I17" s="85"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -62336,13 +62352,13 @@
       <c r="C18" s="84" t="s">
         <v>2287</v>
       </c>
-      <c r="D18" s="214" t="s">
+      <c r="D18" s="192" t="s">
         <v>2288</v>
       </c>
       <c r="E18" s="193"/>
       <c r="F18" s="193"/>
       <c r="G18" s="193"/>
-      <c r="H18" s="215"/>
+      <c r="H18" s="194"/>
       <c r="I18" s="85"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -62367,15 +62383,15 @@
       <c r="B20" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="197" t="s">
+      <c r="C20" s="195" t="s">
         <v>2289</v>
       </c>
-      <c r="D20" s="197"/>
-      <c r="E20" s="197"/>
-      <c r="F20" s="197"/>
-      <c r="G20" s="197"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="198"/>
+      <c r="D20" s="195"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="195"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="195"/>
+      <c r="I20" s="196"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -62393,11 +62409,11 @@
       <c r="F21" s="193"/>
       <c r="G21" s="193"/>
       <c r="H21" s="193"/>
-      <c r="I21" s="194"/>
+      <c r="I21" s="197"/>
       <c r="J21" s="90"/>
-      <c r="K21" s="213"/>
-      <c r="L21" s="213"/>
-      <c r="M21" s="213"/>
+      <c r="K21" s="191"/>
+      <c r="L21" s="191"/>
+      <c r="M21" s="191"/>
     </row>
     <row r="22" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="81" t="s">
@@ -62411,7 +62427,7 @@
       <c r="F22" s="193"/>
       <c r="G22" s="193"/>
       <c r="H22" s="193"/>
-      <c r="I22" s="194"/>
+      <c r="I22" s="197"/>
       <c r="J22" s="90"/>
       <c r="K22" s="91"/>
       <c r="L22" s="91"/>
@@ -62421,45 +62437,45 @@
       <c r="B23" s="81" t="s">
         <v>2293</v>
       </c>
-      <c r="C23" s="195" t="s">
+      <c r="C23" s="200" t="s">
         <v>2294</v>
       </c>
-      <c r="D23" s="195"/>
-      <c r="E23" s="195"/>
-      <c r="F23" s="195"/>
-      <c r="G23" s="195"/>
-      <c r="H23" s="195"/>
-      <c r="I23" s="196"/>
+      <c r="D23" s="200"/>
+      <c r="E23" s="200"/>
+      <c r="F23" s="200"/>
+      <c r="G23" s="200"/>
+      <c r="H23" s="200"/>
+      <c r="I23" s="201"/>
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="197" t="s">
+      <c r="C24" s="195" t="s">
         <v>2295</v>
       </c>
-      <c r="D24" s="197"/>
-      <c r="E24" s="197"/>
-      <c r="F24" s="197"/>
-      <c r="G24" s="197"/>
-      <c r="H24" s="197"/>
-      <c r="I24" s="198"/>
+      <c r="D24" s="195"/>
+      <c r="E24" s="195"/>
+      <c r="F24" s="195"/>
+      <c r="G24" s="195"/>
+      <c r="H24" s="195"/>
+      <c r="I24" s="196"/>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="197" t="s">
+      <c r="C25" s="195" t="s">
         <v>2296</v>
       </c>
-      <c r="D25" s="197"/>
-      <c r="E25" s="197"/>
-      <c r="F25" s="197"/>
-      <c r="G25" s="197"/>
-      <c r="H25" s="197"/>
-      <c r="I25" s="198"/>
+      <c r="D25" s="195"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="195"/>
+      <c r="H25" s="195"/>
+      <c r="I25" s="196"/>
       <c r="J25" s="92"/>
       <c r="M25" s="2"/>
     </row>
@@ -62467,15 +62483,15 @@
       <c r="B26" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="197" t="s">
+      <c r="C26" s="195" t="s">
         <v>2297</v>
       </c>
-      <c r="D26" s="197"/>
-      <c r="E26" s="197"/>
-      <c r="F26" s="197"/>
-      <c r="G26" s="197"/>
-      <c r="H26" s="197"/>
-      <c r="I26" s="198"/>
+      <c r="D26" s="195"/>
+      <c r="E26" s="195"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="195"/>
+      <c r="H26" s="195"/>
+      <c r="I26" s="196"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -62485,28 +62501,28 @@
       <c r="B27" s="93" t="s">
         <v>2298</v>
       </c>
-      <c r="C27" s="199" t="s">
+      <c r="C27" s="202" t="s">
         <v>2299</v>
       </c>
-      <c r="D27" s="199"/>
-      <c r="E27" s="199"/>
-      <c r="F27" s="199"/>
-      <c r="G27" s="199"/>
-      <c r="H27" s="199"/>
-      <c r="I27" s="200"/>
+      <c r="D27" s="202"/>
+      <c r="E27" s="202"/>
+      <c r="F27" s="202"/>
+      <c r="G27" s="202"/>
+      <c r="H27" s="202"/>
+      <c r="I27" s="203"/>
       <c r="J27" s="25"/>
     </row>
     <row r="28" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="201" t="s">
+      <c r="B28" s="183" t="s">
         <v>2300</v>
       </c>
-      <c r="C28" s="202"/>
-      <c r="D28" s="202"/>
-      <c r="E28" s="202"/>
-      <c r="F28" s="202"/>
-      <c r="G28" s="202"/>
-      <c r="H28" s="202"/>
-      <c r="I28" s="203"/>
+      <c r="C28" s="184"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="185"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -62570,15 +62586,15 @@
       <c r="B32" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="191" t="s">
+      <c r="C32" s="198" t="s">
         <v>2306</v>
       </c>
-      <c r="D32" s="191"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="191"/>
-      <c r="G32" s="191"/>
-      <c r="H32" s="191"/>
-      <c r="I32" s="192"/>
+      <c r="D32" s="198"/>
+      <c r="E32" s="198"/>
+      <c r="F32" s="198"/>
+      <c r="G32" s="198"/>
+      <c r="H32" s="198"/>
+      <c r="I32" s="199"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -62588,15 +62604,15 @@
       <c r="B33" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="191" t="s">
+      <c r="C33" s="198" t="s">
         <v>2307</v>
       </c>
-      <c r="D33" s="191"/>
-      <c r="E33" s="191"/>
-      <c r="F33" s="191"/>
-      <c r="G33" s="191"/>
-      <c r="H33" s="191"/>
-      <c r="I33" s="192"/>
+      <c r="D33" s="198"/>
+      <c r="E33" s="198"/>
+      <c r="F33" s="198"/>
+      <c r="G33" s="198"/>
+      <c r="H33" s="198"/>
+      <c r="I33" s="199"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -62606,15 +62622,15 @@
       <c r="B34" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="180" t="s">
+      <c r="C34" s="216" t="s">
         <v>2308</v>
       </c>
-      <c r="D34" s="180"/>
-      <c r="E34" s="180"/>
-      <c r="F34" s="180"/>
-      <c r="G34" s="180"/>
-      <c r="H34" s="180"/>
-      <c r="I34" s="181"/>
+      <c r="D34" s="216"/>
+      <c r="E34" s="216"/>
+      <c r="F34" s="216"/>
+      <c r="G34" s="216"/>
+      <c r="H34" s="216"/>
+      <c r="I34" s="217"/>
       <c r="J34" s="2"/>
       <c r="K34" s="91"/>
       <c r="L34" s="91"/>
@@ -62624,15 +62640,15 @@
       <c r="B35" s="97" t="s">
         <v>2309</v>
       </c>
-      <c r="C35" s="180" t="s">
+      <c r="C35" s="216" t="s">
         <v>2310</v>
       </c>
-      <c r="D35" s="180"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="180"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="180"/>
-      <c r="I35" s="181"/>
+      <c r="D35" s="216"/>
+      <c r="E35" s="216"/>
+      <c r="F35" s="216"/>
+      <c r="G35" s="216"/>
+      <c r="H35" s="216"/>
+      <c r="I35" s="217"/>
       <c r="J35" s="2"/>
       <c r="K35" s="91"/>
       <c r="L35" s="91"/>
@@ -62642,15 +62658,15 @@
       <c r="B36" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="180" t="s">
+      <c r="C36" s="216" t="s">
         <v>2311</v>
       </c>
-      <c r="D36" s="180"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="180"/>
-      <c r="G36" s="180"/>
-      <c r="H36" s="180"/>
-      <c r="I36" s="181"/>
+      <c r="D36" s="216"/>
+      <c r="E36" s="216"/>
+      <c r="F36" s="216"/>
+      <c r="G36" s="216"/>
+      <c r="H36" s="216"/>
+      <c r="I36" s="217"/>
       <c r="J36" s="2"/>
       <c r="K36" s="91"/>
       <c r="L36" s="91"/>
@@ -62660,15 +62676,15 @@
       <c r="B37" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="180" t="s">
+      <c r="C37" s="216" t="s">
         <v>2312</v>
       </c>
-      <c r="D37" s="180"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="180"/>
-      <c r="G37" s="180"/>
-      <c r="H37" s="180"/>
-      <c r="I37" s="181"/>
+      <c r="D37" s="216"/>
+      <c r="E37" s="216"/>
+      <c r="F37" s="216"/>
+      <c r="G37" s="216"/>
+      <c r="H37" s="216"/>
+      <c r="I37" s="217"/>
       <c r="J37" s="2"/>
       <c r="K37" s="91"/>
       <c r="L37" s="91"/>
@@ -62678,122 +62694,140 @@
       <c r="B38" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="182" t="s">
+      <c r="C38" s="218" t="s">
         <v>2313</v>
       </c>
-      <c r="D38" s="183"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="183"/>
-      <c r="G38" s="183"/>
-      <c r="H38" s="183"/>
-      <c r="I38" s="184"/>
+      <c r="D38" s="219"/>
+      <c r="E38" s="219"/>
+      <c r="F38" s="219"/>
+      <c r="G38" s="219"/>
+      <c r="H38" s="219"/>
+      <c r="I38" s="220"/>
     </row>
     <row r="39" spans="2:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="182" t="s">
+      <c r="C39" s="218" t="s">
         <v>2314</v>
       </c>
-      <c r="D39" s="183"/>
-      <c r="E39" s="183"/>
-      <c r="F39" s="183"/>
-      <c r="G39" s="183"/>
-      <c r="H39" s="183"/>
-      <c r="I39" s="184"/>
+      <c r="D39" s="219"/>
+      <c r="E39" s="219"/>
+      <c r="F39" s="219"/>
+      <c r="G39" s="219"/>
+      <c r="H39" s="219"/>
+      <c r="I39" s="220"/>
     </row>
     <row r="40" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="101" t="s">
         <v>2315</v>
       </c>
-      <c r="C40" s="185" t="s">
+      <c r="C40" s="221" t="s">
         <v>2316</v>
       </c>
-      <c r="D40" s="186"/>
-      <c r="E40" s="186"/>
-      <c r="F40" s="186"/>
-      <c r="G40" s="186"/>
-      <c r="H40" s="186"/>
-      <c r="I40" s="187"/>
+      <c r="D40" s="222"/>
+      <c r="E40" s="222"/>
+      <c r="F40" s="222"/>
+      <c r="G40" s="222"/>
+      <c r="H40" s="222"/>
+      <c r="I40" s="223"/>
     </row>
     <row r="41" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="102" t="s">
         <v>2317</v>
       </c>
-      <c r="C41" s="188" t="s">
+      <c r="C41" s="224" t="s">
         <v>2318</v>
       </c>
-      <c r="D41" s="186"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="186"/>
-      <c r="G41" s="186"/>
-      <c r="H41" s="186"/>
-      <c r="I41" s="187"/>
+      <c r="D41" s="222"/>
+      <c r="E41" s="222"/>
+      <c r="F41" s="222"/>
+      <c r="G41" s="222"/>
+      <c r="H41" s="222"/>
+      <c r="I41" s="223"/>
     </row>
     <row r="42" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="103" t="s">
         <v>2319</v>
       </c>
-      <c r="C42" s="189" t="s">
+      <c r="C42" s="225" t="s">
         <v>2320</v>
       </c>
-      <c r="D42" s="189"/>
-      <c r="E42" s="189"/>
-      <c r="F42" s="189"/>
-      <c r="G42" s="189"/>
-      <c r="H42" s="189"/>
-      <c r="I42" s="190"/>
+      <c r="D42" s="225"/>
+      <c r="E42" s="225"/>
+      <c r="F42" s="225"/>
+      <c r="G42" s="225"/>
+      <c r="H42" s="225"/>
+      <c r="I42" s="226"/>
     </row>
     <row r="43" spans="2:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="177" t="s">
+      <c r="C43" s="213" t="s">
         <v>2321</v>
       </c>
-      <c r="D43" s="178"/>
-      <c r="E43" s="178"/>
-      <c r="F43" s="178"/>
-      <c r="G43" s="178"/>
-      <c r="H43" s="178"/>
-      <c r="I43" s="179"/>
+      <c r="D43" s="214"/>
+      <c r="E43" s="214"/>
+      <c r="F43" s="214"/>
+      <c r="G43" s="214"/>
+      <c r="H43" s="214"/>
+      <c r="I43" s="215"/>
     </row>
     <row r="44" spans="2:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="177" t="s">
+      <c r="C44" s="213" t="s">
         <v>2322</v>
       </c>
-      <c r="D44" s="178"/>
-      <c r="E44" s="178"/>
-      <c r="F44" s="178"/>
-      <c r="G44" s="178"/>
-      <c r="H44" s="178"/>
-      <c r="I44" s="179"/>
+      <c r="D44" s="214"/>
+      <c r="E44" s="214"/>
+      <c r="F44" s="214"/>
+      <c r="G44" s="214"/>
+      <c r="H44" s="214"/>
+      <c r="I44" s="215"/>
     </row>
     <row r="45" spans="2:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="177" t="s">
+      <c r="C45" s="213" t="s">
         <v>2323</v>
       </c>
-      <c r="D45" s="178"/>
-      <c r="E45" s="178"/>
-      <c r="F45" s="178"/>
-      <c r="G45" s="178"/>
-      <c r="H45" s="178"/>
-      <c r="I45" s="179"/>
+      <c r="D45" s="214"/>
+      <c r="E45" s="214"/>
+      <c r="F45" s="214"/>
+      <c r="G45" s="214"/>
+      <c r="H45" s="214"/>
+      <c r="I45" s="215"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="C36:I36"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C32:I32"/>
     <mergeCell ref="K21:M21"/>
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D11:H11"/>
@@ -62806,30 +62840,12 @@
     <mergeCell ref="D18:H18"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="C36:I36"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C38:I38"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H1" location="Ballot!A1" display="Ballot!A1"/>
@@ -64565,7 +64581,7 @@
       <c r="A3" s="231" t="s">
         <v>2332</v>
       </c>
-      <c r="B3" s="233" t="s">
+      <c r="B3" s="234" t="s">
         <v>2333</v>
       </c>
       <c r="C3" s="125" t="s">
@@ -64580,7 +64596,7 @@
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="232"/>
-      <c r="B4" s="234"/>
+      <c r="B4" s="235"/>
       <c r="C4" s="125" t="s">
         <v>2337</v>
       </c>
@@ -64593,7 +64609,7 @@
     </row>
     <row r="5" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="232"/>
-      <c r="B5" s="234"/>
+      <c r="B5" s="235"/>
       <c r="C5" s="125" t="s">
         <v>2340</v>
       </c>
@@ -64606,7 +64622,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="232"/>
-      <c r="B6" s="234"/>
+      <c r="B6" s="235"/>
       <c r="C6" s="125" t="s">
         <v>2342</v>
       </c>
@@ -64619,7 +64635,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="232"/>
-      <c r="B7" s="234"/>
+      <c r="B7" s="235"/>
       <c r="C7" s="125" t="s">
         <v>2281</v>
       </c>
@@ -64632,7 +64648,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="232"/>
-      <c r="B8" s="234"/>
+      <c r="B8" s="235"/>
       <c r="C8" s="125" t="s">
         <v>2345</v>
       </c>
@@ -64645,7 +64661,7 @@
     </row>
     <row r="9" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="232"/>
-      <c r="B9" s="234"/>
+      <c r="B9" s="235"/>
       <c r="C9" s="125" t="s">
         <v>2348</v>
       </c>
@@ -64658,7 +64674,7 @@
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="232"/>
-      <c r="B10" s="234"/>
+      <c r="B10" s="235"/>
       <c r="C10" s="125" t="s">
         <v>2350</v>
       </c>
@@ -64670,8 +64686,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="239"/>
-      <c r="B11" s="235"/>
+      <c r="A11" s="233"/>
+      <c r="B11" s="236"/>
       <c r="C11" s="125" t="s">
         <v>2353</v>
       </c>
@@ -64838,7 +64854,7 @@
       <c r="A26" s="231" t="s">
         <v>2378</v>
       </c>
-      <c r="B26" s="233" t="s">
+      <c r="B26" s="234" t="s">
         <v>2379</v>
       </c>
       <c r="C26" s="125" t="s">
@@ -64853,7 +64869,7 @@
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="232"/>
-      <c r="B27" s="234"/>
+      <c r="B27" s="235"/>
       <c r="C27" s="132" t="s">
         <v>2382</v>
       </c>
@@ -64866,7 +64882,7 @@
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="232"/>
-      <c r="B28" s="234"/>
+      <c r="B28" s="235"/>
       <c r="C28" s="132" t="s">
         <v>2384</v>
       </c>
@@ -64879,7 +64895,7 @@
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="232"/>
-      <c r="B29" s="234"/>
+      <c r="B29" s="235"/>
       <c r="C29" s="132" t="s">
         <v>2386</v>
       </c>
@@ -64892,7 +64908,7 @@
     </row>
     <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="232"/>
-      <c r="B30" s="234"/>
+      <c r="B30" s="235"/>
       <c r="C30" s="132" t="s">
         <v>2388</v>
       </c>
@@ -65078,7 +65094,7 @@
       <c r="A46" s="231" t="s">
         <v>641</v>
       </c>
-      <c r="B46" s="236" t="s">
+      <c r="B46" s="237" t="s">
         <v>2413</v>
       </c>
       <c r="C46" s="125" t="s">
@@ -65093,7 +65109,7 @@
     </row>
     <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="232"/>
-      <c r="B47" s="237"/>
+      <c r="B47" s="238"/>
       <c r="C47" s="125" t="s">
         <v>2415</v>
       </c>
@@ -65106,7 +65122,7 @@
     </row>
     <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="232"/>
-      <c r="B48" s="238"/>
+      <c r="B48" s="239"/>
       <c r="C48" s="125" t="s">
         <v>2417</v>
       </c>
@@ -65170,7 +65186,7 @@
       <c r="A54" s="231" t="s">
         <v>2425</v>
       </c>
-      <c r="B54" s="233" t="s">
+      <c r="B54" s="234" t="s">
         <v>2426</v>
       </c>
       <c r="C54" s="125" t="s">
@@ -65185,7 +65201,7 @@
     </row>
     <row r="55" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="232"/>
-      <c r="B55" s="234"/>
+      <c r="B55" s="235"/>
       <c r="C55" s="125" t="s">
         <v>2429</v>
       </c>
@@ -65198,7 +65214,7 @@
     </row>
     <row r="56" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="232"/>
-      <c r="B56" s="235"/>
+      <c r="B56" s="236"/>
       <c r="C56" s="125" t="s">
         <v>2431</v>
       </c>
@@ -65400,18 +65416,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="B34:B43"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="B66:B67"/>
     <mergeCell ref="A69:A70"/>
@@ -65422,6 +65426,18 @@
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="B34:B43"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/ballots/2013-01 Draft/Comments-FHIR_R1_O2_2013JAN.xlsx
+++ b/ballots/2013-01 Draft/Comments-FHIR_R1_O2_2013JAN.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11036" uniqueCount="2509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11057" uniqueCount="2509">
   <si>
     <t xml:space="preserve">BALLOT TITLE: </t>
   </si>
@@ -11873,8 +11873,23 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="19" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -11882,14 +11897,14 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -11902,12 +11917,6 @@
     <xf numFmtId="49" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -11933,32 +11942,23 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="19" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -11974,6 +11974,114 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="42" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -12017,114 +12125,6 @@
     <xf numFmtId="0" fontId="22" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="42" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -12141,6 +12141,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12160,9 +12163,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -12542,20 +12542,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:99" ht="45.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="148"/>
+      <c r="A1" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="169" t="s">
+      <c r="F1" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="171"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="155"/>
       <c r="K1" s="4"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -12563,12 +12563,12 @@
       <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:99" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="148"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="152"/>
       <c r="E2" s="3"/>
       <c r="F2" s="6" t="s">
         <v>3</v>
@@ -12584,20 +12584,20 @@
       <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:99" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="164"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="165"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="152" t="s">
+      <c r="F3" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="154"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="158"/>
       <c r="K3" s="10"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -12605,18 +12605,18 @@
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:99" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="164" t="s">
+      <c r="A4" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="164"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="165"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="147"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="168"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="150"/>
       <c r="K4" s="10"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -12624,18 +12624,18 @@
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:99" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="157"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="158"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="160"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="154"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="158"/>
       <c r="K5" s="10"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -12643,18 +12643,18 @@
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:99" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="161" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="160"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="162"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="154"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="158"/>
       <c r="K6" s="10"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -12662,18 +12662,18 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="147" t="s">
+      <c r="A7" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="147"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="148"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="152"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="165"/>
       <c r="K7" s="4"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
@@ -12683,18 +12683,18 @@
       <c r="CU7" s="16"/>
     </row>
     <row r="8" spans="1:99" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="147" t="s">
+      <c r="A8" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="148"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="152"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="151"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="169"/>
       <c r="K8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -12702,18 +12702,18 @@
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:99" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="147" t="s">
+      <c r="A9" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="147"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="148"/>
+      <c r="B9" s="151"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="152"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="154"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="158"/>
       <c r="K9" s="18"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
@@ -12721,19 +12721,19 @@
       <c r="P9" s="19"/>
     </row>
     <row r="10" spans="1:99" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="155">
+      <c r="A10" s="170">
         <f>IF(Ov=Setup!C9,Disclaimer2,IF(Ov=Setup!B9,Disclaimer,IF(Ov=Setup!D9,,)))</f>
         <v>0</v>
       </c>
-      <c r="B10" s="155"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="155"/>
+      <c r="B10" s="170"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
     </row>
     <row r="11" spans="1:99" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F11" s="20" t="s">
@@ -12753,12 +12753,12 @@
       <c r="F21" s="24"/>
     </row>
     <row r="23" spans="6:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="171"/>
     </row>
     <row r="24" spans="6:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="166"/>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F25" s="25"/>
@@ -12766,6 +12766,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:J7"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="A1:D1"/>
@@ -12773,19 +12786,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:J3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Organization You Represent" prompt="Please put the name of the HL7 member organization you represent if it is different from the name of the organization you are employed by.  " sqref="F6"/>
@@ -12808,14 +12808,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" filterMode="1"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AF711"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E278" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="G159" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L283" sqref="L283"/>
+      <selection pane="bottomRight" activeCell="G159" sqref="G159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12992,7 +12992,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="204" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="45">
         <v>1</v>
       </c>
@@ -13072,7 +13072,7 @@
       <c r="AE3" s="58"/>
       <c r="AF3" s="59"/>
     </row>
-    <row r="4" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45">
         <v>2</v>
       </c>
@@ -13152,7 +13152,7 @@
       <c r="AE4" s="58"/>
       <c r="AF4" s="59"/>
     </row>
-    <row r="5" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="45">
         <v>3</v>
       </c>
@@ -13232,7 +13232,7 @@
       <c r="AE5" s="58"/>
       <c r="AF5" s="59"/>
     </row>
-    <row r="6" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="45">
         <v>4</v>
       </c>
@@ -13310,7 +13310,7 @@
       <c r="AE6" s="58"/>
       <c r="AF6" s="59"/>
     </row>
-    <row r="7" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="45">
         <v>5</v>
       </c>
@@ -13390,7 +13390,7 @@
       <c r="AE7" s="58"/>
       <c r="AF7" s="59"/>
     </row>
-    <row r="8" spans="1:32" s="62" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" s="62" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="45">
         <v>6</v>
       </c>
@@ -13470,7 +13470,7 @@
       <c r="AE8" s="58"/>
       <c r="AF8" s="59"/>
     </row>
-    <row r="9" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="45">
         <v>7</v>
       </c>
@@ -13546,7 +13546,7 @@
       <c r="AE9" s="58"/>
       <c r="AF9" s="59"/>
     </row>
-    <row r="10" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="45">
         <v>8</v>
       </c>
@@ -13624,7 +13624,7 @@
       <c r="AE10" s="58"/>
       <c r="AF10" s="59"/>
     </row>
-    <row r="11" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="45">
         <v>9</v>
       </c>
@@ -13774,7 +13774,7 @@
       <c r="AE12" s="58"/>
       <c r="AF12" s="59"/>
     </row>
-    <row r="13" spans="1:32" s="60" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" s="60" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="45">
         <v>11</v>
       </c>
@@ -13852,7 +13852,7 @@
       <c r="AE13" s="58"/>
       <c r="AF13" s="59"/>
     </row>
-    <row r="14" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="45">
         <v>12</v>
       </c>
@@ -13932,7 +13932,7 @@
       <c r="AE14" s="58"/>
       <c r="AF14" s="59"/>
     </row>
-    <row r="15" spans="1:32" s="60" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" s="60" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="45">
         <v>13</v>
       </c>
@@ -14084,7 +14084,7 @@
       <c r="AE16" s="58"/>
       <c r="AF16" s="59"/>
     </row>
-    <row r="17" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="45">
         <v>15</v>
       </c>
@@ -14234,7 +14234,7 @@
       <c r="AE18" s="58"/>
       <c r="AF18" s="59"/>
     </row>
-    <row r="19" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="45">
         <v>17</v>
       </c>
@@ -14314,7 +14314,7 @@
       <c r="AE19" s="58"/>
       <c r="AF19" s="59"/>
     </row>
-    <row r="20" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="45">
         <v>18</v>
       </c>
@@ -14532,7 +14532,7 @@
       <c r="AE22" s="58"/>
       <c r="AF22" s="59"/>
     </row>
-    <row r="23" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="45">
         <v>21</v>
       </c>
@@ -14610,7 +14610,7 @@
       <c r="AE23" s="58"/>
       <c r="AF23" s="59"/>
     </row>
-    <row r="24" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="45">
         <v>22</v>
       </c>
@@ -14684,7 +14684,7 @@
       <c r="AE24" s="58"/>
       <c r="AF24" s="59"/>
     </row>
-    <row r="25" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="45">
         <v>23</v>
       </c>
@@ -14760,7 +14760,7 @@
       <c r="AE25" s="58"/>
       <c r="AF25" s="59"/>
     </row>
-    <row r="26" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="45">
         <v>24</v>
       </c>
@@ -14838,7 +14838,7 @@
       <c r="AE26" s="58"/>
       <c r="AF26" s="59"/>
     </row>
-    <row r="27" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="45">
         <v>25</v>
       </c>
@@ -14908,7 +14908,7 @@
       <c r="AE27" s="58"/>
       <c r="AF27" s="59"/>
     </row>
-    <row r="28" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="45">
         <v>26</v>
       </c>
@@ -14986,7 +14986,7 @@
       <c r="AE28" s="58"/>
       <c r="AF28" s="59"/>
     </row>
-    <row r="29" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="45">
         <v>27</v>
       </c>
@@ -15064,7 +15064,7 @@
       <c r="AE29" s="58"/>
       <c r="AF29" s="59"/>
     </row>
-    <row r="30" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="45">
         <v>28</v>
       </c>
@@ -15142,7 +15142,7 @@
       <c r="AE30" s="58"/>
       <c r="AF30" s="59"/>
     </row>
-    <row r="31" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="45">
         <v>29</v>
       </c>
@@ -15216,7 +15216,7 @@
       <c r="AE31" s="58"/>
       <c r="AF31" s="59"/>
     </row>
-    <row r="32" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="45">
         <v>30</v>
       </c>
@@ -15294,7 +15294,7 @@
       <c r="AE32" s="58"/>
       <c r="AF32" s="59"/>
     </row>
-    <row r="33" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="45">
         <v>31</v>
       </c>
@@ -15370,7 +15370,7 @@
       <c r="AE33" s="58"/>
       <c r="AF33" s="59"/>
     </row>
-    <row r="34" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="45">
         <v>32</v>
       </c>
@@ -15446,7 +15446,7 @@
       <c r="AE34" s="58"/>
       <c r="AF34" s="59"/>
     </row>
-    <row r="35" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="45">
         <v>33</v>
       </c>
@@ -15522,7 +15522,7 @@
       <c r="AE35" s="58"/>
       <c r="AF35" s="59"/>
     </row>
-    <row r="36" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="45">
         <v>34</v>
       </c>
@@ -15598,7 +15598,7 @@
       <c r="AE36" s="58"/>
       <c r="AF36" s="59"/>
     </row>
-    <row r="37" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="45">
         <v>35</v>
       </c>
@@ -15674,7 +15674,7 @@
       <c r="AE37" s="58"/>
       <c r="AF37" s="59"/>
     </row>
-    <row r="38" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="45">
         <v>36</v>
       </c>
@@ -15748,7 +15748,7 @@
       <c r="AE38" s="58"/>
       <c r="AF38" s="59"/>
     </row>
-    <row r="39" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="45">
         <v>37</v>
       </c>
@@ -15824,7 +15824,7 @@
       <c r="AE39" s="58"/>
       <c r="AF39" s="59"/>
     </row>
-    <row r="40" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="45">
         <v>38</v>
       </c>
@@ -15898,7 +15898,7 @@
       <c r="AE40" s="58"/>
       <c r="AF40" s="59"/>
     </row>
-    <row r="41" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="45">
         <v>39</v>
       </c>
@@ -15972,7 +15972,7 @@
       <c r="AE41" s="58"/>
       <c r="AF41" s="59"/>
     </row>
-    <row r="42" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="45">
         <v>40</v>
       </c>
@@ -16046,7 +16046,7 @@
       <c r="AE42" s="58"/>
       <c r="AF42" s="59"/>
     </row>
-    <row r="43" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="45">
         <v>41</v>
       </c>
@@ -16124,7 +16124,7 @@
       <c r="AE43" s="58"/>
       <c r="AF43" s="59"/>
     </row>
-    <row r="44" spans="1:32" s="60" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" s="60" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="45">
         <v>42</v>
       </c>
@@ -16204,7 +16204,7 @@
       <c r="AE44" s="58"/>
       <c r="AF44" s="59"/>
     </row>
-    <row r="45" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="45">
         <v>43</v>
       </c>
@@ -16280,7 +16280,7 @@
       <c r="AE45" s="58"/>
       <c r="AF45" s="59"/>
     </row>
-    <row r="46" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="45">
         <v>44</v>
       </c>
@@ -16360,7 +16360,7 @@
       <c r="AE46" s="58"/>
       <c r="AF46" s="59"/>
     </row>
-    <row r="47" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="45">
         <v>45</v>
       </c>
@@ -16436,7 +16436,7 @@
       <c r="AE47" s="58"/>
       <c r="AF47" s="59"/>
     </row>
-    <row r="48" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="45">
         <v>46</v>
       </c>
@@ -16516,7 +16516,7 @@
       <c r="AE48" s="58"/>
       <c r="AF48" s="59"/>
     </row>
-    <row r="49" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="45">
         <v>47</v>
       </c>
@@ -16592,7 +16592,7 @@
       <c r="AE49" s="58"/>
       <c r="AF49" s="59"/>
     </row>
-    <row r="50" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="45">
         <v>48</v>
       </c>
@@ -16672,7 +16672,7 @@
       <c r="AE50" s="58"/>
       <c r="AF50" s="59"/>
     </row>
-    <row r="51" spans="1:32" s="60" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" s="60" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="45">
         <v>49</v>
       </c>
@@ -16746,7 +16746,7 @@
       <c r="AE51" s="58"/>
       <c r="AF51" s="59"/>
     </row>
-    <row r="52" spans="1:32" s="60" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" s="60" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="45">
         <v>50</v>
       </c>
@@ -16820,7 +16820,7 @@
       <c r="AE52" s="58"/>
       <c r="AF52" s="59"/>
     </row>
-    <row r="53" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="45">
         <v>51</v>
       </c>
@@ -16900,7 +16900,7 @@
       <c r="AE53" s="58"/>
       <c r="AF53" s="59"/>
     </row>
-    <row r="54" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="45">
         <v>52</v>
       </c>
@@ -16978,7 +16978,7 @@
       <c r="AE54" s="58"/>
       <c r="AF54" s="59"/>
     </row>
-    <row r="55" spans="1:32" s="60" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" s="60" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="45">
         <v>53</v>
       </c>
@@ -17054,7 +17054,7 @@
       <c r="AE55" s="58"/>
       <c r="AF55" s="59"/>
     </row>
-    <row r="56" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="45">
         <v>54</v>
       </c>
@@ -17130,7 +17130,7 @@
       <c r="AE56" s="58"/>
       <c r="AF56" s="59"/>
     </row>
-    <row r="57" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="45">
         <v>55</v>
       </c>
@@ -17204,7 +17204,7 @@
       <c r="AE57" s="58"/>
       <c r="AF57" s="59"/>
     </row>
-    <row r="58" spans="1:32" s="60" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" s="60" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="45">
         <v>56</v>
       </c>
@@ -17280,7 +17280,7 @@
       <c r="AE58" s="58"/>
       <c r="AF58" s="59"/>
     </row>
-    <row r="59" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="45">
         <v>57</v>
       </c>
@@ -17428,7 +17428,7 @@
       <c r="AE60" s="58"/>
       <c r="AF60" s="59"/>
     </row>
-    <row r="61" spans="1:32" s="60" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" s="60" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="45">
         <v>59</v>
       </c>
@@ -17508,7 +17508,7 @@
       <c r="AE61" s="58"/>
       <c r="AF61" s="59"/>
     </row>
-    <row r="62" spans="1:32" s="60" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" s="60" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="45">
         <v>60</v>
       </c>
@@ -17718,7 +17718,7 @@
       <c r="AE64" s="58"/>
       <c r="AF64" s="59"/>
     </row>
-    <row r="65" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="45">
         <v>63</v>
       </c>
@@ -17794,7 +17794,7 @@
       <c r="AE65" s="58"/>
       <c r="AF65" s="59"/>
     </row>
-    <row r="66" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="45">
         <v>64</v>
       </c>
@@ -17868,7 +17868,7 @@
       <c r="AE66" s="58"/>
       <c r="AF66" s="59"/>
     </row>
-    <row r="67" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="45">
         <v>65</v>
       </c>
@@ -17944,7 +17944,7 @@
       <c r="AE67" s="58"/>
       <c r="AF67" s="59"/>
     </row>
-    <row r="68" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="45">
         <v>66</v>
       </c>
@@ -18020,7 +18020,7 @@
       <c r="AE68" s="58"/>
       <c r="AF68" s="59"/>
     </row>
-    <row r="69" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="45">
         <v>67</v>
       </c>
@@ -18098,7 +18098,7 @@
       <c r="AE69" s="58"/>
       <c r="AF69" s="59"/>
     </row>
-    <row r="70" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="45">
         <v>68</v>
       </c>
@@ -18174,7 +18174,7 @@
       <c r="AE70" s="58"/>
       <c r="AF70" s="59"/>
     </row>
-    <row r="71" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="45">
         <v>69</v>
       </c>
@@ -18252,7 +18252,7 @@
       <c r="AE71" s="58"/>
       <c r="AF71" s="59"/>
     </row>
-    <row r="72" spans="1:32" s="60" customFormat="1" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" s="60" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="45">
         <v>70</v>
       </c>
@@ -18330,7 +18330,7 @@
       <c r="AE72" s="58"/>
       <c r="AF72" s="59"/>
     </row>
-    <row r="73" spans="1:32" s="60" customFormat="1" ht="88.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32" s="60" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="45">
         <v>71</v>
       </c>
@@ -18406,7 +18406,7 @@
       <c r="AE73" s="58"/>
       <c r="AF73" s="59"/>
     </row>
-    <row r="74" spans="1:32" s="60" customFormat="1" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32" s="60" customFormat="1" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="45">
         <v>72</v>
       </c>
@@ -18482,7 +18482,7 @@
       <c r="AE74" s="58"/>
       <c r="AF74" s="59"/>
     </row>
-    <row r="75" spans="1:32" s="60" customFormat="1" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:32" s="60" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="45">
         <v>73</v>
       </c>
@@ -18558,7 +18558,7 @@
       <c r="AE75" s="58"/>
       <c r="AF75" s="59"/>
     </row>
-    <row r="76" spans="1:32" s="60" customFormat="1" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32" s="60" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="45">
         <v>74</v>
       </c>
@@ -18704,7 +18704,7 @@
       <c r="AE77" s="58"/>
       <c r="AF77" s="59"/>
     </row>
-    <row r="78" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="45">
         <v>76</v>
       </c>
@@ -18784,7 +18784,7 @@
       <c r="AE78" s="58"/>
       <c r="AF78" s="59"/>
     </row>
-    <row r="79" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="45">
         <v>77</v>
       </c>
@@ -18864,7 +18864,7 @@
       <c r="AE79" s="58"/>
       <c r="AF79" s="59"/>
     </row>
-    <row r="80" spans="1:32" s="60" customFormat="1" ht="382.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:32" s="60" customFormat="1" ht="382.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="45">
         <v>78</v>
       </c>
@@ -18944,7 +18944,7 @@
       <c r="AE80" s="58"/>
       <c r="AF80" s="59"/>
     </row>
-    <row r="81" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="45">
         <v>79</v>
       </c>
@@ -19020,7 +19020,7 @@
       <c r="AE81" s="58"/>
       <c r="AF81" s="59"/>
     </row>
-    <row r="82" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="45">
         <v>80</v>
       </c>
@@ -19098,7 +19098,7 @@
       <c r="AE82" s="58"/>
       <c r="AF82" s="59"/>
     </row>
-    <row r="83" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="45">
         <v>81</v>
       </c>
@@ -19176,7 +19176,7 @@
       <c r="AE83" s="58"/>
       <c r="AF83" s="59"/>
     </row>
-    <row r="84" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="45">
         <v>82</v>
       </c>
@@ -19256,7 +19256,7 @@
       <c r="AE84" s="58"/>
       <c r="AF84" s="59"/>
     </row>
-    <row r="85" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="45">
         <v>83</v>
       </c>
@@ -19336,7 +19336,7 @@
       <c r="AE85" s="58"/>
       <c r="AF85" s="59"/>
     </row>
-    <row r="86" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="45">
         <v>84</v>
       </c>
@@ -19414,7 +19414,7 @@
       <c r="AE86" s="58"/>
       <c r="AF86" s="59"/>
     </row>
-    <row r="87" spans="1:32" s="60" customFormat="1" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:32" s="60" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="45">
         <v>85</v>
       </c>
@@ -19492,7 +19492,7 @@
       <c r="AE87" s="58"/>
       <c r="AF87" s="59"/>
     </row>
-    <row r="88" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="45">
         <v>86</v>
       </c>
@@ -19572,7 +19572,7 @@
       <c r="AE88" s="58"/>
       <c r="AF88" s="59"/>
     </row>
-    <row r="89" spans="1:32" s="60" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:32" s="60" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="45">
         <v>87</v>
       </c>
@@ -19652,7 +19652,7 @@
       <c r="AE89" s="58"/>
       <c r="AF89" s="59"/>
     </row>
-    <row r="90" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="45">
         <v>88</v>
       </c>
@@ -19728,7 +19728,7 @@
       <c r="AE90" s="58"/>
       <c r="AF90" s="59"/>
     </row>
-    <row r="91" spans="1:32" s="60" customFormat="1" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:32" s="60" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="45">
         <v>89</v>
       </c>
@@ -19804,7 +19804,7 @@
       <c r="AE91" s="58"/>
       <c r="AF91" s="59"/>
     </row>
-    <row r="92" spans="1:32" s="60" customFormat="1" ht="178.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:32" s="60" customFormat="1" ht="178.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="45">
         <v>90</v>
       </c>
@@ -19886,7 +19886,7 @@
       <c r="AE92" s="58"/>
       <c r="AF92" s="59"/>
     </row>
-    <row r="93" spans="1:32" s="60" customFormat="1" ht="204" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:32" s="60" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="45">
         <v>91</v>
       </c>
@@ -19964,7 +19964,7 @@
       <c r="AE93" s="58"/>
       <c r="AF93" s="59"/>
     </row>
-    <row r="94" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="45">
         <v>92</v>
       </c>
@@ -20044,7 +20044,7 @@
       <c r="AE94" s="58"/>
       <c r="AF94" s="59"/>
     </row>
-    <row r="95" spans="1:32" s="60" customFormat="1" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:32" s="60" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="45">
         <v>93</v>
       </c>
@@ -20126,7 +20126,7 @@
       <c r="AE95" s="58"/>
       <c r="AF95" s="59"/>
     </row>
-    <row r="96" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="45">
         <v>94</v>
       </c>
@@ -20206,7 +20206,7 @@
       <c r="AE96" s="58"/>
       <c r="AF96" s="59"/>
     </row>
-    <row r="97" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="45">
         <v>95</v>
       </c>
@@ -20286,7 +20286,7 @@
       <c r="AE97" s="58"/>
       <c r="AF97" s="59"/>
     </row>
-    <row r="98" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="45">
         <v>96</v>
       </c>
@@ -20364,7 +20364,7 @@
       <c r="AE98" s="58"/>
       <c r="AF98" s="59"/>
     </row>
-    <row r="99" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="45">
         <v>97</v>
       </c>
@@ -20442,7 +20442,7 @@
       <c r="AE99" s="58"/>
       <c r="AF99" s="59"/>
     </row>
-    <row r="100" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="45">
         <v>98</v>
       </c>
@@ -20590,7 +20590,7 @@
       <c r="AE101" s="58"/>
       <c r="AF101" s="59"/>
     </row>
-    <row r="102" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="45">
         <v>100</v>
       </c>
@@ -20670,7 +20670,7 @@
       <c r="AE102" s="58"/>
       <c r="AF102" s="59"/>
     </row>
-    <row r="103" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="45">
         <v>101</v>
       </c>
@@ -20748,7 +20748,7 @@
       <c r="AE103" s="58"/>
       <c r="AF103" s="59"/>
     </row>
-    <row r="104" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="45">
         <v>102</v>
       </c>
@@ -20828,7 +20828,7 @@
       <c r="AE104" s="58"/>
       <c r="AF104" s="59"/>
     </row>
-    <row r="105" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="45">
         <v>103</v>
       </c>
@@ -20906,7 +20906,7 @@
       <c r="AE105" s="58"/>
       <c r="AF105" s="59"/>
     </row>
-    <row r="106" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="45">
         <v>104</v>
       </c>
@@ -20986,7 +20986,7 @@
       <c r="AE106" s="58"/>
       <c r="AF106" s="59"/>
     </row>
-    <row r="107" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="45">
         <v>105</v>
       </c>
@@ -21062,7 +21062,7 @@
       <c r="AE107" s="58"/>
       <c r="AF107" s="59"/>
     </row>
-    <row r="108" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="45">
         <v>106</v>
       </c>
@@ -21140,7 +21140,7 @@
       <c r="AE108" s="58"/>
       <c r="AF108" s="59"/>
     </row>
-    <row r="109" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="45">
         <v>107</v>
       </c>
@@ -21220,7 +21220,7 @@
       <c r="AE109" s="58"/>
       <c r="AF109" s="59"/>
     </row>
-    <row r="110" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="45">
         <v>108</v>
       </c>
@@ -21298,7 +21298,7 @@
       <c r="AE110" s="58"/>
       <c r="AF110" s="59"/>
     </row>
-    <row r="111" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="45">
         <v>109</v>
       </c>
@@ -21372,7 +21372,7 @@
       <c r="AE111" s="58"/>
       <c r="AF111" s="59"/>
     </row>
-    <row r="112" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="45">
         <v>110</v>
       </c>
@@ -21448,7 +21448,7 @@
       <c r="AE112" s="58"/>
       <c r="AF112" s="59"/>
     </row>
-    <row r="113" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="45">
         <v>111</v>
       </c>
@@ -21524,7 +21524,7 @@
       <c r="AE113" s="58"/>
       <c r="AF113" s="59"/>
     </row>
-    <row r="114" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="45">
         <v>112</v>
       </c>
@@ -21598,7 +21598,7 @@
       <c r="AE114" s="58"/>
       <c r="AF114" s="59"/>
     </row>
-    <row r="115" spans="1:32" s="60" customFormat="1" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:32" s="60" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="45">
         <v>113</v>
       </c>
@@ -21678,7 +21678,7 @@
       <c r="AE115" s="58"/>
       <c r="AF115" s="59"/>
     </row>
-    <row r="116" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="45">
         <v>114</v>
       </c>
@@ -21754,7 +21754,7 @@
       <c r="AE116" s="58"/>
       <c r="AF116" s="59"/>
     </row>
-    <row r="117" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="45">
         <v>115</v>
       </c>
@@ -21834,7 +21834,7 @@
       <c r="AE117" s="58"/>
       <c r="AF117" s="59"/>
     </row>
-    <row r="118" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="45">
         <v>116</v>
       </c>
@@ -21914,7 +21914,7 @@
       <c r="AE118" s="58"/>
       <c r="AF118" s="59"/>
     </row>
-    <row r="119" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="45">
         <v>117</v>
       </c>
@@ -21992,7 +21992,7 @@
       <c r="AE119" s="58"/>
       <c r="AF119" s="59"/>
     </row>
-    <row r="120" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="45">
         <v>118</v>
       </c>
@@ -22072,7 +22072,7 @@
       <c r="AE120" s="58"/>
       <c r="AF120" s="59"/>
     </row>
-    <row r="121" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="45">
         <v>119</v>
       </c>
@@ -22150,7 +22150,7 @@
       <c r="AE121" s="58"/>
       <c r="AF121" s="59"/>
     </row>
-    <row r="122" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="45">
         <v>120</v>
       </c>
@@ -22226,7 +22226,7 @@
       <c r="AE122" s="58"/>
       <c r="AF122" s="59"/>
     </row>
-    <row r="123" spans="1:32" s="60" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:32" s="60" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="45">
         <v>121</v>
       </c>
@@ -22372,7 +22372,7 @@
       <c r="AE124" s="58"/>
       <c r="AF124" s="59"/>
     </row>
-    <row r="125" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="45">
         <v>123</v>
       </c>
@@ -22454,7 +22454,7 @@
       <c r="AE125" s="58"/>
       <c r="AF125" s="59"/>
     </row>
-    <row r="126" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="45">
         <v>124</v>
       </c>
@@ -22586,7 +22586,7 @@
       <c r="AE127" s="58"/>
       <c r="AF127" s="59"/>
     </row>
-    <row r="128" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="45">
         <v>126</v>
       </c>
@@ -22660,7 +22660,7 @@
       <c r="AE128" s="58"/>
       <c r="AF128" s="59"/>
     </row>
-    <row r="129" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="45">
         <v>127</v>
       </c>
@@ -22734,7 +22734,7 @@
       <c r="AE129" s="58"/>
       <c r="AF129" s="59"/>
     </row>
-    <row r="130" spans="1:32" s="60" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:32" s="60" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="45">
         <v>128</v>
       </c>
@@ -23016,7 +23016,7 @@
       <c r="AE133" s="58"/>
       <c r="AF133" s="59"/>
     </row>
-    <row r="134" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="45">
         <v>132</v>
       </c>
@@ -23094,7 +23094,7 @@
       <c r="AE134" s="58"/>
       <c r="AF134" s="59"/>
     </row>
-    <row r="135" spans="1:32" s="60" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:32" s="60" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="45">
         <v>133</v>
       </c>
@@ -23172,7 +23172,7 @@
       <c r="AE135" s="58"/>
       <c r="AF135" s="59"/>
     </row>
-    <row r="136" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="45">
         <v>134</v>
       </c>
@@ -23252,7 +23252,7 @@
       <c r="AE136" s="58"/>
       <c r="AF136" s="59"/>
     </row>
-    <row r="137" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="45">
         <v>135</v>
       </c>
@@ -23332,7 +23332,7 @@
       <c r="AE137" s="58"/>
       <c r="AF137" s="59"/>
     </row>
-    <row r="138" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="45">
         <v>136</v>
       </c>
@@ -23412,7 +23412,7 @@
       <c r="AE138" s="58"/>
       <c r="AF138" s="59"/>
     </row>
-    <row r="139" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="45">
         <v>137</v>
       </c>
@@ -23492,7 +23492,7 @@
       <c r="AE139" s="58"/>
       <c r="AF139" s="59"/>
     </row>
-    <row r="140" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="45">
         <v>138</v>
       </c>
@@ -23572,7 +23572,7 @@
       <c r="AE140" s="58"/>
       <c r="AF140" s="59"/>
     </row>
-    <row r="141" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="45">
         <v>139</v>
       </c>
@@ -23646,7 +23646,7 @@
       <c r="AE141" s="58"/>
       <c r="AF141" s="59"/>
     </row>
-    <row r="142" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="45">
         <v>140</v>
       </c>
@@ -23726,7 +23726,7 @@
       <c r="AE142" s="58"/>
       <c r="AF142" s="59"/>
     </row>
-    <row r="143" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="45">
         <v>141</v>
       </c>
@@ -23804,7 +23804,7 @@
       <c r="AE143" s="58"/>
       <c r="AF143" s="59"/>
     </row>
-    <row r="144" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="45">
         <v>142</v>
       </c>
@@ -23878,7 +23878,7 @@
       <c r="AE144" s="58"/>
       <c r="AF144" s="59"/>
     </row>
-    <row r="145" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="45">
         <v>143</v>
       </c>
@@ -23956,7 +23956,7 @@
       <c r="AE145" s="58"/>
       <c r="AF145" s="59"/>
     </row>
-    <row r="146" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="45">
         <v>144</v>
       </c>
@@ -24036,7 +24036,7 @@
       <c r="AE146" s="58"/>
       <c r="AF146" s="59"/>
     </row>
-    <row r="147" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="45">
         <v>145</v>
       </c>
@@ -24114,7 +24114,7 @@
       <c r="AE147" s="58"/>
       <c r="AF147" s="59"/>
     </row>
-    <row r="148" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="45">
         <v>146</v>
       </c>
@@ -24180,7 +24180,7 @@
       <c r="AE148" s="58"/>
       <c r="AF148" s="59"/>
     </row>
-    <row r="149" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="45">
         <v>147</v>
       </c>
@@ -24256,7 +24256,7 @@
       <c r="AE149" s="58"/>
       <c r="AF149" s="59"/>
     </row>
-    <row r="150" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="45">
         <v>148</v>
       </c>
@@ -24334,7 +24334,7 @@
       <c r="AE150" s="58"/>
       <c r="AF150" s="59"/>
     </row>
-    <row r="151" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="45">
         <v>149</v>
       </c>
@@ -24376,7 +24376,9 @@
       </c>
       <c r="P151" s="52"/>
       <c r="Q151" s="52"/>
-      <c r="R151" s="52"/>
+      <c r="R151" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S151" s="52" t="s">
         <v>640</v>
       </c>
@@ -24414,7 +24416,7 @@
       <c r="AE151" s="58"/>
       <c r="AF151" s="59"/>
     </row>
-    <row r="152" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="45">
         <v>150</v>
       </c>
@@ -24490,7 +24492,7 @@
       <c r="AE152" s="58"/>
       <c r="AF152" s="59"/>
     </row>
-    <row r="153" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="45">
         <v>151</v>
       </c>
@@ -24566,7 +24568,7 @@
       <c r="AE153" s="58"/>
       <c r="AF153" s="59"/>
     </row>
-    <row r="154" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="45">
         <v>152</v>
       </c>
@@ -24644,7 +24646,7 @@
       <c r="AE154" s="58"/>
       <c r="AF154" s="59"/>
     </row>
-    <row r="155" spans="1:32" s="60" customFormat="1" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:32" s="60" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="45">
         <v>153</v>
       </c>
@@ -24722,7 +24724,7 @@
       <c r="AE155" s="58"/>
       <c r="AF155" s="59"/>
     </row>
-    <row r="156" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="45">
         <v>154</v>
       </c>
@@ -24798,7 +24800,7 @@
       <c r="AE156" s="58"/>
       <c r="AF156" s="59"/>
     </row>
-    <row r="157" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="45">
         <v>155</v>
       </c>
@@ -24876,7 +24878,7 @@
       <c r="AE157" s="58"/>
       <c r="AF157" s="59"/>
     </row>
-    <row r="158" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="45">
         <v>156</v>
       </c>
@@ -24919,7 +24921,7 @@
         <v>82</v>
       </c>
       <c r="R158" s="52" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="S158" s="52" t="s">
         <v>2507</v>
@@ -24954,7 +24956,7 @@
       <c r="AE158" s="58"/>
       <c r="AF158" s="59"/>
     </row>
-    <row r="159" spans="1:32" s="60" customFormat="1" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:32" s="60" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="45">
         <v>157</v>
       </c>
@@ -25032,7 +25034,7 @@
       <c r="AE159" s="58"/>
       <c r="AF159" s="59"/>
     </row>
-    <row r="160" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="45">
         <v>158</v>
       </c>
@@ -25110,7 +25112,7 @@
       <c r="AE160" s="58"/>
       <c r="AF160" s="59"/>
     </row>
-    <row r="161" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="45">
         <v>159</v>
       </c>
@@ -25186,7 +25188,7 @@
       <c r="AE161" s="58"/>
       <c r="AF161" s="59"/>
     </row>
-    <row r="162" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="45">
         <v>160</v>
       </c>
@@ -25260,7 +25262,7 @@
       <c r="AE162" s="58"/>
       <c r="AF162" s="59"/>
     </row>
-    <row r="163" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="45">
         <v>161</v>
       </c>
@@ -25338,7 +25340,7 @@
       <c r="AE163" s="58"/>
       <c r="AF163" s="59"/>
     </row>
-    <row r="164" spans="1:32" s="60" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:32" s="60" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="45">
         <v>162</v>
       </c>
@@ -25382,7 +25384,9 @@
       <c r="Q164" s="52" t="s">
         <v>688</v>
       </c>
-      <c r="R164" s="52"/>
+      <c r="R164" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S164" s="52" t="s">
         <v>640</v>
       </c>
@@ -25422,7 +25426,7 @@
       <c r="AE164" s="58"/>
       <c r="AF164" s="59"/>
     </row>
-    <row r="165" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="45">
         <v>163</v>
       </c>
@@ -25460,7 +25464,9 @@
       <c r="Q165" s="50" t="s">
         <v>692</v>
       </c>
-      <c r="R165" s="50"/>
+      <c r="R165" s="50" t="s">
+        <v>72</v>
+      </c>
       <c r="S165" s="52" t="s">
         <v>693</v>
       </c>
@@ -25498,7 +25504,7 @@
       <c r="AE165" s="58"/>
       <c r="AF165" s="59"/>
     </row>
-    <row r="166" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="45">
         <v>164</v>
       </c>
@@ -25538,7 +25544,9 @@
       <c r="Q166" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="R166" s="52"/>
+      <c r="R166" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S166" s="52" t="s">
         <v>698</v>
       </c>
@@ -25576,7 +25584,7 @@
       <c r="AE166" s="58"/>
       <c r="AF166" s="59"/>
     </row>
-    <row r="167" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="45">
         <v>165</v>
       </c>
@@ -25620,7 +25628,9 @@
       <c r="Q167" s="52" t="s">
         <v>701</v>
       </c>
-      <c r="R167" s="52"/>
+      <c r="R167" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S167" s="52" t="s">
         <v>640</v>
       </c>
@@ -25658,7 +25668,7 @@
       <c r="AE167" s="58"/>
       <c r="AF167" s="59"/>
     </row>
-    <row r="168" spans="1:32" s="60" customFormat="1" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:32" s="60" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="45">
         <v>166</v>
       </c>
@@ -25698,7 +25708,9 @@
       </c>
       <c r="P168" s="52"/>
       <c r="Q168" s="52"/>
-      <c r="R168" s="52"/>
+      <c r="R168" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S168" s="52" t="s">
         <v>707</v>
       </c>
@@ -25736,7 +25748,7 @@
       <c r="AE168" s="58"/>
       <c r="AF168" s="59"/>
     </row>
-    <row r="169" spans="1:32" s="60" customFormat="1" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:32" s="60" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="45">
         <v>167</v>
       </c>
@@ -25776,7 +25788,9 @@
       <c r="Q169" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="R169" s="52"/>
+      <c r="R169" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S169" s="52" t="s">
         <v>711</v>
       </c>
@@ -25814,7 +25828,7 @@
       <c r="AE169" s="58"/>
       <c r="AF169" s="59"/>
     </row>
-    <row r="170" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="45">
         <v>168</v>
       </c>
@@ -25894,7 +25908,7 @@
       <c r="AE170" s="58"/>
       <c r="AF170" s="59"/>
     </row>
-    <row r="171" spans="1:32" s="60" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:32" s="60" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="45">
         <v>169</v>
       </c>
@@ -25972,7 +25986,7 @@
       <c r="AE171" s="58"/>
       <c r="AF171" s="59"/>
     </row>
-    <row r="172" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="45">
         <v>170</v>
       </c>
@@ -26048,7 +26062,7 @@
       <c r="AE172" s="58"/>
       <c r="AF172" s="59"/>
     </row>
-    <row r="173" spans="1:32" s="60" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:32" s="60" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="45">
         <v>171</v>
       </c>
@@ -26122,7 +26136,7 @@
       <c r="AE173" s="58"/>
       <c r="AF173" s="59"/>
     </row>
-    <row r="174" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="45">
         <v>172</v>
       </c>
@@ -26198,7 +26212,7 @@
       <c r="AE174" s="58"/>
       <c r="AF174" s="59"/>
     </row>
-    <row r="175" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="45">
         <v>173</v>
       </c>
@@ -26274,7 +26288,7 @@
       <c r="AE175" s="58"/>
       <c r="AF175" s="59"/>
     </row>
-    <row r="176" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="45">
         <v>174</v>
       </c>
@@ -26310,7 +26324,9 @@
       </c>
       <c r="P176" s="52"/>
       <c r="Q176" s="52"/>
-      <c r="R176" s="52"/>
+      <c r="R176" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S176" s="52" t="s">
         <v>698</v>
       </c>
@@ -26348,7 +26364,7 @@
       <c r="AE176" s="58"/>
       <c r="AF176" s="59"/>
     </row>
-    <row r="177" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="45">
         <v>175</v>
       </c>
@@ -26388,7 +26404,9 @@
       </c>
       <c r="P177" s="52"/>
       <c r="Q177" s="52"/>
-      <c r="R177" s="52"/>
+      <c r="R177" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S177" s="52" t="s">
         <v>707</v>
       </c>
@@ -26426,7 +26444,7 @@
       <c r="AE177" s="58"/>
       <c r="AF177" s="59"/>
     </row>
-    <row r="178" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="45">
         <v>176</v>
       </c>
@@ -26504,7 +26522,7 @@
       <c r="AE178" s="58"/>
       <c r="AF178" s="59"/>
     </row>
-    <row r="179" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="45">
         <v>177</v>
       </c>
@@ -26578,7 +26596,7 @@
       <c r="AE179" s="58"/>
       <c r="AF179" s="59"/>
     </row>
-    <row r="180" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="45">
         <v>178</v>
       </c>
@@ -26620,7 +26638,9 @@
       <c r="Q180" s="52" t="s">
         <v>747</v>
       </c>
-      <c r="R180" s="52"/>
+      <c r="R180" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S180" s="52" t="s">
         <v>748</v>
       </c>
@@ -26658,7 +26678,7 @@
       <c r="AE180" s="58"/>
       <c r="AF180" s="59"/>
     </row>
-    <row r="181" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="45">
         <v>179</v>
       </c>
@@ -26740,7 +26760,7 @@
       <c r="AE181" s="58"/>
       <c r="AF181" s="59"/>
     </row>
-    <row r="182" spans="1:32" s="60" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:32" s="60" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="45">
         <v>180</v>
       </c>
@@ -26814,7 +26834,7 @@
       <c r="AE182" s="58"/>
       <c r="AF182" s="59"/>
     </row>
-    <row r="183" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="45">
         <v>181</v>
       </c>
@@ -26852,7 +26872,9 @@
       <c r="Q183" s="52" t="s">
         <v>760</v>
       </c>
-      <c r="R183" s="52"/>
+      <c r="R183" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S183" s="52" t="s">
         <v>719</v>
       </c>
@@ -26890,7 +26912,7 @@
       <c r="AE183" s="58"/>
       <c r="AF183" s="59"/>
     </row>
-    <row r="184" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="45">
         <v>182</v>
       </c>
@@ -26964,7 +26986,7 @@
       <c r="AE184" s="58"/>
       <c r="AF184" s="59"/>
     </row>
-    <row r="185" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="45">
         <v>183</v>
       </c>
@@ -27038,7 +27060,7 @@
       <c r="AE185" s="58"/>
       <c r="AF185" s="59"/>
     </row>
-    <row r="186" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="45">
         <v>184</v>
       </c>
@@ -27074,7 +27096,9 @@
       </c>
       <c r="P186" s="52"/>
       <c r="Q186" s="52"/>
-      <c r="R186" s="52"/>
+      <c r="R186" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S186" s="52" t="s">
         <v>707</v>
       </c>
@@ -27112,7 +27136,7 @@
       <c r="AE186" s="58"/>
       <c r="AF186" s="59"/>
     </row>
-    <row r="187" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="45">
         <v>185</v>
       </c>
@@ -27190,7 +27214,7 @@
       <c r="AE187" s="58"/>
       <c r="AF187" s="59"/>
     </row>
-    <row r="188" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="45">
         <v>186</v>
       </c>
@@ -27250,7 +27274,7 @@
       <c r="AE188" s="58"/>
       <c r="AF188" s="59"/>
     </row>
-    <row r="189" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="45">
         <v>187</v>
       </c>
@@ -27310,7 +27334,7 @@
       <c r="AE189" s="58"/>
       <c r="AF189" s="59"/>
     </row>
-    <row r="190" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="45">
         <v>188</v>
       </c>
@@ -27370,7 +27394,7 @@
       <c r="AE190" s="58"/>
       <c r="AF190" s="59"/>
     </row>
-    <row r="191" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="45">
         <v>189</v>
       </c>
@@ -27430,7 +27454,7 @@
       <c r="AE191" s="58"/>
       <c r="AF191" s="59"/>
     </row>
-    <row r="192" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="45">
         <v>190</v>
       </c>
@@ -27490,7 +27514,7 @@
       <c r="AE192" s="58"/>
       <c r="AF192" s="59"/>
     </row>
-    <row r="193" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="45">
         <v>191</v>
       </c>
@@ -27552,7 +27576,7 @@
       <c r="AE193" s="58"/>
       <c r="AF193" s="59"/>
     </row>
-    <row r="194" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="45">
         <v>192</v>
       </c>
@@ -27616,7 +27640,7 @@
       <c r="AE194" s="58"/>
       <c r="AF194" s="59"/>
     </row>
-    <row r="195" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="45">
         <v>193</v>
       </c>
@@ -27680,7 +27704,7 @@
       <c r="AE195" s="58"/>
       <c r="AF195" s="59"/>
     </row>
-    <row r="196" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="45">
         <v>194</v>
       </c>
@@ -27740,7 +27764,7 @@
       <c r="AE196" s="58"/>
       <c r="AF196" s="59"/>
     </row>
-    <row r="197" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="45">
         <v>195</v>
       </c>
@@ -27802,7 +27826,7 @@
       <c r="AE197" s="58"/>
       <c r="AF197" s="59"/>
     </row>
-    <row r="198" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="45">
         <v>196</v>
       </c>
@@ -27843,7 +27867,7 @@
         <v>82</v>
       </c>
       <c r="R198" s="52" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="S198" s="52"/>
       <c r="T198" s="53"/>
@@ -27872,7 +27896,7 @@
       <c r="AE198" s="58"/>
       <c r="AF198" s="59"/>
     </row>
-    <row r="199" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="45">
         <v>197</v>
       </c>
@@ -27936,7 +27960,7 @@
       <c r="AE199" s="58"/>
       <c r="AF199" s="59"/>
     </row>
-    <row r="200" spans="1:32" s="60" customFormat="1" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:32" s="60" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="45">
         <v>198</v>
       </c>
@@ -27980,7 +28004,9 @@
       <c r="Q200" s="52" t="s">
         <v>795</v>
       </c>
-      <c r="R200" s="52"/>
+      <c r="R200" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S200" s="52" t="s">
         <v>698</v>
       </c>
@@ -28018,7 +28044,7 @@
       <c r="AE200" s="58"/>
       <c r="AF200" s="59"/>
     </row>
-    <row r="201" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="45">
         <v>199</v>
       </c>
@@ -28080,7 +28106,7 @@
       <c r="AE201" s="58"/>
       <c r="AF201" s="59"/>
     </row>
-    <row r="202" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="45">
         <v>200</v>
       </c>
@@ -28142,7 +28168,7 @@
       <c r="AE202" s="58"/>
       <c r="AF202" s="59"/>
     </row>
-    <row r="203" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="45">
         <v>201</v>
       </c>
@@ -28206,7 +28232,7 @@
       <c r="AE203" s="58"/>
       <c r="AF203" s="59"/>
     </row>
-    <row r="204" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="45">
         <v>202</v>
       </c>
@@ -28268,7 +28294,7 @@
       <c r="AE204" s="58"/>
       <c r="AF204" s="59"/>
     </row>
-    <row r="205" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="45">
         <v>203</v>
       </c>
@@ -28330,7 +28356,7 @@
       <c r="AE205" s="58"/>
       <c r="AF205" s="59"/>
     </row>
-    <row r="206" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="45">
         <v>204</v>
       </c>
@@ -28390,7 +28416,7 @@
       <c r="AE206" s="58"/>
       <c r="AF206" s="59"/>
     </row>
-    <row r="207" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="45">
         <v>205</v>
       </c>
@@ -28460,7 +28486,7 @@
       <c r="AE207" s="58"/>
       <c r="AF207" s="59"/>
     </row>
-    <row r="208" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="45">
         <v>206</v>
       </c>
@@ -28522,7 +28548,7 @@
       <c r="AE208" s="58"/>
       <c r="AF208" s="59"/>
     </row>
-    <row r="209" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="45">
         <v>207</v>
       </c>
@@ -28586,7 +28612,7 @@
       <c r="AE209" s="58"/>
       <c r="AF209" s="59"/>
     </row>
-    <row r="210" spans="1:32" s="60" customFormat="1" ht="267.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:32" s="60" customFormat="1" ht="267.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="45">
         <v>208</v>
       </c>
@@ -28628,7 +28654,9 @@
       <c r="Q210" s="52" t="s">
         <v>818</v>
       </c>
-      <c r="R210" s="52"/>
+      <c r="R210" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S210" s="52" t="s">
         <v>698</v>
       </c>
@@ -28666,7 +28694,7 @@
       <c r="AE210" s="58"/>
       <c r="AF210" s="59"/>
     </row>
-    <row r="211" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="45">
         <v>209</v>
       </c>
@@ -28730,7 +28758,7 @@
       <c r="AE211" s="58"/>
       <c r="AF211" s="59"/>
     </row>
-    <row r="212" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="45">
         <v>210</v>
       </c>
@@ -28796,7 +28824,7 @@
       <c r="AE212" s="58"/>
       <c r="AF212" s="59"/>
     </row>
-    <row r="213" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="45">
         <v>211</v>
       </c>
@@ -28858,7 +28886,7 @@
       <c r="AE213" s="58"/>
       <c r="AF213" s="59"/>
     </row>
-    <row r="214" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="45">
         <v>212</v>
       </c>
@@ -28920,7 +28948,7 @@
       <c r="AE214" s="58"/>
       <c r="AF214" s="59"/>
     </row>
-    <row r="215" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="45">
         <v>213</v>
       </c>
@@ -28986,7 +29014,7 @@
       <c r="AE215" s="58"/>
       <c r="AF215" s="59"/>
     </row>
-    <row r="216" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="45">
         <v>214</v>
       </c>
@@ -29052,7 +29080,7 @@
       <c r="AE216" s="58"/>
       <c r="AF216" s="59"/>
     </row>
-    <row r="217" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="45">
         <v>215</v>
       </c>
@@ -29114,7 +29142,7 @@
       <c r="AE217" s="58"/>
       <c r="AF217" s="59"/>
     </row>
-    <row r="218" spans="1:32" s="60" customFormat="1" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:32" s="60" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="45">
         <v>216</v>
       </c>
@@ -29158,7 +29186,9 @@
       <c r="Q218" s="52" t="s">
         <v>839</v>
       </c>
-      <c r="R218" s="52"/>
+      <c r="R218" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S218" s="52" t="s">
         <v>719</v>
       </c>
@@ -29198,7 +29228,7 @@
       <c r="AE218" s="58"/>
       <c r="AF218" s="59"/>
     </row>
-    <row r="219" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="45">
         <v>217</v>
       </c>
@@ -29260,7 +29290,7 @@
       <c r="AE219" s="58"/>
       <c r="AF219" s="59"/>
     </row>
-    <row r="220" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="45">
         <v>218</v>
       </c>
@@ -29326,7 +29356,7 @@
       <c r="AE220" s="58"/>
       <c r="AF220" s="59"/>
     </row>
-    <row r="221" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="45">
         <v>219</v>
       </c>
@@ -29388,7 +29418,7 @@
       <c r="AE221" s="58"/>
       <c r="AF221" s="59"/>
     </row>
-    <row r="222" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="45">
         <v>220</v>
       </c>
@@ -29454,7 +29484,7 @@
       <c r="AE222" s="58"/>
       <c r="AF222" s="59"/>
     </row>
-    <row r="223" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="45">
         <v>221</v>
       </c>
@@ -29520,7 +29550,7 @@
       <c r="AE223" s="58"/>
       <c r="AF223" s="59"/>
     </row>
-    <row r="224" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="45">
         <v>222</v>
       </c>
@@ -29582,7 +29612,7 @@
       <c r="AE224" s="58"/>
       <c r="AF224" s="59"/>
     </row>
-    <row r="225" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="45">
         <v>223</v>
       </c>
@@ -29642,7 +29672,7 @@
       <c r="AE225" s="58"/>
       <c r="AF225" s="59"/>
     </row>
-    <row r="226" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="45">
         <v>224</v>
       </c>
@@ -29710,7 +29740,7 @@
       <c r="AE226" s="58"/>
       <c r="AF226" s="59"/>
     </row>
-    <row r="227" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="45">
         <v>225</v>
       </c>
@@ -29772,7 +29802,7 @@
       <c r="AE227" s="58"/>
       <c r="AF227" s="59"/>
     </row>
-    <row r="228" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="45">
         <v>226</v>
       </c>
@@ -29834,7 +29864,7 @@
       <c r="AE228" s="58"/>
       <c r="AF228" s="59"/>
     </row>
-    <row r="229" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="45">
         <v>227</v>
       </c>
@@ -29896,7 +29926,7 @@
       <c r="AE229" s="58"/>
       <c r="AF229" s="59"/>
     </row>
-    <row r="230" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="64">
         <v>228</v>
       </c>
@@ -29962,7 +29992,7 @@
       <c r="AE230" s="58"/>
       <c r="AF230" s="59"/>
     </row>
-    <row r="231" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="64">
         <v>229</v>
       </c>
@@ -30024,7 +30054,7 @@
       <c r="AE231" s="58"/>
       <c r="AF231" s="59"/>
     </row>
-    <row r="232" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="64">
         <v>230</v>
       </c>
@@ -30084,7 +30114,7 @@
       <c r="AE232" s="58"/>
       <c r="AF232" s="59"/>
     </row>
-    <row r="233" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="64">
         <v>231</v>
       </c>
@@ -30144,7 +30174,7 @@
       <c r="AE233" s="58"/>
       <c r="AF233" s="59"/>
     </row>
-    <row r="234" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="64">
         <v>232</v>
       </c>
@@ -30214,7 +30244,7 @@
       <c r="AE234" s="58"/>
       <c r="AF234" s="59"/>
     </row>
-    <row r="235" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="64">
         <v>233</v>
       </c>
@@ -30274,7 +30304,7 @@
       <c r="AE235" s="58"/>
       <c r="AF235" s="59"/>
     </row>
-    <row r="236" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="64">
         <v>234</v>
       </c>
@@ -30334,7 +30364,7 @@
       <c r="AE236" s="58"/>
       <c r="AF236" s="59"/>
     </row>
-    <row r="237" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="64">
         <v>235</v>
       </c>
@@ -30396,7 +30426,7 @@
       <c r="AE237" s="58"/>
       <c r="AF237" s="59"/>
     </row>
-    <row r="238" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="64">
         <v>236</v>
       </c>
@@ -30458,7 +30488,7 @@
       <c r="AE238" s="58"/>
       <c r="AF238" s="59"/>
     </row>
-    <row r="239" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="64">
         <v>237</v>
       </c>
@@ -30518,7 +30548,7 @@
       <c r="AE239" s="58"/>
       <c r="AF239" s="59"/>
     </row>
-    <row r="240" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="64">
         <v>238</v>
       </c>
@@ -30584,7 +30614,7 @@
       <c r="AE240" s="58"/>
       <c r="AF240" s="59"/>
     </row>
-    <row r="241" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="64">
         <v>239</v>
       </c>
@@ -30644,7 +30674,7 @@
       <c r="AE241" s="58"/>
       <c r="AF241" s="59"/>
     </row>
-    <row r="242" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="64">
         <v>240</v>
       </c>
@@ -30704,7 +30734,7 @@
       <c r="AE242" s="58"/>
       <c r="AF242" s="59"/>
     </row>
-    <row r="243" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="64">
         <v>241</v>
       </c>
@@ -30766,7 +30796,7 @@
       <c r="AE243" s="58"/>
       <c r="AF243" s="59"/>
     </row>
-    <row r="244" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="64">
         <v>242</v>
       </c>
@@ -30826,7 +30856,7 @@
       <c r="AE244" s="58"/>
       <c r="AF244" s="59"/>
     </row>
-    <row r="245" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="64">
         <v>243</v>
       </c>
@@ -30900,7 +30930,7 @@
       <c r="AE245" s="58"/>
       <c r="AF245" s="59"/>
     </row>
-    <row r="246" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="64">
         <v>244</v>
       </c>
@@ -30968,7 +30998,7 @@
       <c r="AE246" s="58"/>
       <c r="AF246" s="59"/>
     </row>
-    <row r="247" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="64">
         <v>245</v>
       </c>
@@ -31042,7 +31072,7 @@
       <c r="AE247" s="58"/>
       <c r="AF247" s="59"/>
     </row>
-    <row r="248" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="64">
         <v>246</v>
       </c>
@@ -31116,7 +31146,7 @@
       <c r="AE248" s="58"/>
       <c r="AF248" s="59"/>
     </row>
-    <row r="249" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="64">
         <v>247</v>
       </c>
@@ -31182,7 +31212,7 @@
       <c r="AE249" s="58"/>
       <c r="AF249" s="59"/>
     </row>
-    <row r="250" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="64">
         <v>248</v>
       </c>
@@ -31258,7 +31288,7 @@
       <c r="AE250" s="58"/>
       <c r="AF250" s="59"/>
     </row>
-    <row r="251" spans="1:32" ht="178.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:32" ht="178.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="64">
         <v>249</v>
       </c>
@@ -31336,7 +31366,7 @@
       <c r="AE251" s="58"/>
       <c r="AF251" s="59"/>
     </row>
-    <row r="252" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="64">
         <v>250</v>
       </c>
@@ -31414,7 +31444,7 @@
       <c r="AE252" s="58"/>
       <c r="AF252" s="59"/>
     </row>
-    <row r="253" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="64">
         <v>251</v>
       </c>
@@ -31490,7 +31520,7 @@
       <c r="AE253" s="58"/>
       <c r="AF253" s="59"/>
     </row>
-    <row r="254" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="64">
         <v>252</v>
       </c>
@@ -31570,7 +31600,7 @@
       <c r="AE254" s="58"/>
       <c r="AF254" s="59"/>
     </row>
-    <row r="255" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="64">
         <v>253</v>
       </c>
@@ -31636,7 +31666,7 @@
       <c r="AE255" s="58"/>
       <c r="AF255" s="59"/>
     </row>
-    <row r="256" spans="1:32" ht="229.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:32" ht="229.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="64">
         <v>254</v>
       </c>
@@ -31704,7 +31734,7 @@
       <c r="AE256" s="58"/>
       <c r="AF256" s="59"/>
     </row>
-    <row r="257" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="64">
         <v>255</v>
       </c>
@@ -31780,7 +31810,7 @@
       <c r="AE257" s="58"/>
       <c r="AF257" s="59"/>
     </row>
-    <row r="258" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="64">
         <v>256</v>
       </c>
@@ -31856,7 +31886,7 @@
       <c r="AE258" s="58"/>
       <c r="AF258" s="59"/>
     </row>
-    <row r="259" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="64">
         <v>257</v>
       </c>
@@ -31920,7 +31950,7 @@
       <c r="AE259" s="58"/>
       <c r="AF259" s="59"/>
     </row>
-    <row r="260" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="64">
         <v>258</v>
       </c>
@@ -31996,7 +32026,7 @@
       <c r="AE260" s="58"/>
       <c r="AF260" s="59"/>
     </row>
-    <row r="261" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="64">
         <v>259</v>
       </c>
@@ -32070,7 +32100,7 @@
       <c r="AE261" s="58"/>
       <c r="AF261" s="59"/>
     </row>
-    <row r="262" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="64">
         <v>260</v>
       </c>
@@ -32144,7 +32174,7 @@
       <c r="AE262" s="58"/>
       <c r="AF262" s="59"/>
     </row>
-    <row r="263" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="64">
         <v>261</v>
       </c>
@@ -32224,7 +32254,7 @@
       <c r="AE263" s="58"/>
       <c r="AF263" s="59"/>
     </row>
-    <row r="264" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="64">
         <v>262</v>
       </c>
@@ -32300,7 +32330,7 @@
       <c r="AE264" s="58"/>
       <c r="AF264" s="59"/>
     </row>
-    <row r="265" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="64">
         <v>263</v>
       </c>
@@ -32376,7 +32406,7 @@
       <c r="AE265" s="58"/>
       <c r="AF265" s="59"/>
     </row>
-    <row r="266" spans="1:32" ht="369" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:32" ht="369" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="64">
         <v>264</v>
       </c>
@@ -32442,7 +32472,7 @@
       <c r="AE266" s="58"/>
       <c r="AF266" s="59"/>
     </row>
-    <row r="267" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="64">
         <v>265</v>
       </c>
@@ -32580,7 +32610,7 @@
       <c r="AE268" s="58"/>
       <c r="AF268" s="59"/>
     </row>
-    <row r="269" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="64">
         <v>267</v>
       </c>
@@ -32654,7 +32684,7 @@
       <c r="AE269" s="58"/>
       <c r="AF269" s="59"/>
     </row>
-    <row r="270" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="64">
         <v>268</v>
       </c>
@@ -32730,7 +32760,7 @@
       <c r="AE270" s="58"/>
       <c r="AF270" s="59"/>
     </row>
-    <row r="271" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="64">
         <v>269</v>
       </c>
@@ -32864,7 +32894,7 @@
       <c r="AE272" s="58"/>
       <c r="AF272" s="59"/>
     </row>
-    <row r="273" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="64">
         <v>271</v>
       </c>
@@ -33064,7 +33094,7 @@
       <c r="AE275" s="58"/>
       <c r="AF275" s="59"/>
     </row>
-    <row r="276" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="64">
         <v>274</v>
       </c>
@@ -33260,7 +33290,7 @@
       <c r="AE278" s="58"/>
       <c r="AF278" s="59"/>
     </row>
-    <row r="279" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="64">
         <v>277</v>
       </c>
@@ -33334,7 +33364,7 @@
       <c r="AE279" s="58"/>
       <c r="AF279" s="59"/>
     </row>
-    <row r="280" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="64">
         <v>278</v>
       </c>
@@ -33408,7 +33438,7 @@
       <c r="AE280" s="58"/>
       <c r="AF280" s="59"/>
     </row>
-    <row r="281" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="64">
         <v>279</v>
       </c>
@@ -33486,7 +33516,7 @@
       <c r="AE281" s="58"/>
       <c r="AF281" s="59"/>
     </row>
-    <row r="282" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="64">
         <v>280</v>
       </c>
@@ -33992,7 +34022,7 @@
       <c r="AE289" s="58"/>
       <c r="AF289" s="59"/>
     </row>
-    <row r="290" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="64">
         <v>288</v>
       </c>
@@ -34068,7 +34098,7 @@
       <c r="AE290" s="58"/>
       <c r="AF290" s="59"/>
     </row>
-    <row r="291" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="64">
         <v>289</v>
       </c>
@@ -34270,7 +34300,7 @@
       <c r="AE293" s="58"/>
       <c r="AF293" s="59"/>
     </row>
-    <row r="294" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="64">
         <v>292</v>
       </c>
@@ -34348,7 +34378,7 @@
       <c r="AE294" s="58"/>
       <c r="AF294" s="59"/>
     </row>
-    <row r="295" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="64">
         <v>293</v>
       </c>
@@ -34490,7 +34520,7 @@
       <c r="AE296" s="58"/>
       <c r="AF296" s="59"/>
     </row>
-    <row r="297" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="64">
         <v>295</v>
       </c>
@@ -34822,7 +34852,7 @@
       <c r="AE301" s="58"/>
       <c r="AF301" s="59"/>
     </row>
-    <row r="302" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="64">
         <v>300</v>
       </c>
@@ -34896,7 +34926,7 @@
       <c r="AE302" s="58"/>
       <c r="AF302" s="59"/>
     </row>
-    <row r="303" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="64">
         <v>301</v>
       </c>
@@ -35102,7 +35132,7 @@
       <c r="AE305" s="58"/>
       <c r="AF305" s="59"/>
     </row>
-    <row r="306" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="64">
         <v>304</v>
       </c>
@@ -35180,7 +35210,7 @@
       <c r="AE306" s="58"/>
       <c r="AF306" s="59"/>
     </row>
-    <row r="307" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="64">
         <v>305</v>
       </c>
@@ -35254,7 +35284,7 @@
       <c r="AE307" s="58"/>
       <c r="AF307" s="59"/>
     </row>
-    <row r="308" spans="1:32" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:32" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="64">
         <v>306</v>
       </c>
@@ -35328,7 +35358,7 @@
       <c r="AE308" s="58"/>
       <c r="AF308" s="59"/>
     </row>
-    <row r="309" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="64">
         <v>307</v>
       </c>
@@ -35528,7 +35558,7 @@
       <c r="AE311" s="58"/>
       <c r="AF311" s="59"/>
     </row>
-    <row r="312" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="64">
         <v>310</v>
       </c>
@@ -35602,7 +35632,7 @@
       <c r="AE312" s="58"/>
       <c r="AF312" s="59"/>
     </row>
-    <row r="313" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="64">
         <v>311</v>
       </c>
@@ -35676,7 +35706,7 @@
       <c r="AE313" s="58"/>
       <c r="AF313" s="59"/>
     </row>
-    <row r="314" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="64">
         <v>312</v>
       </c>
@@ -35814,7 +35844,7 @@
       <c r="AE315" s="58"/>
       <c r="AF315" s="59"/>
     </row>
-    <row r="316" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="64">
         <v>314</v>
       </c>
@@ -35892,7 +35922,7 @@
       <c r="AE316" s="58"/>
       <c r="AF316" s="59"/>
     </row>
-    <row r="317" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="64">
         <v>315</v>
       </c>
@@ -35970,7 +36000,7 @@
       <c r="AE317" s="58"/>
       <c r="AF317" s="59"/>
     </row>
-    <row r="318" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="64">
         <v>316</v>
       </c>
@@ -36044,7 +36074,7 @@
       <c r="AE318" s="58"/>
       <c r="AF318" s="59"/>
     </row>
-    <row r="319" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="64">
         <v>317</v>
       </c>
@@ -36374,7 +36404,7 @@
       <c r="AE323" s="58"/>
       <c r="AF323" s="59"/>
     </row>
-    <row r="324" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="64">
         <v>322</v>
       </c>
@@ -36450,7 +36480,7 @@
       <c r="AE324" s="58"/>
       <c r="AF324" s="59"/>
     </row>
-    <row r="325" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="64">
         <v>323</v>
       </c>
@@ -36716,7 +36746,7 @@
       <c r="AE328" s="58"/>
       <c r="AF328" s="59"/>
     </row>
-    <row r="329" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="64">
         <v>327</v>
       </c>
@@ -36792,7 +36822,7 @@
       <c r="AE329" s="58"/>
       <c r="AF329" s="59"/>
     </row>
-    <row r="330" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="64">
         <v>328</v>
       </c>
@@ -36866,7 +36896,7 @@
       <c r="AE330" s="58"/>
       <c r="AF330" s="59"/>
     </row>
-    <row r="331" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="64">
         <v>329</v>
       </c>
@@ -36942,7 +36972,7 @@
       <c r="AE331" s="58"/>
       <c r="AF331" s="59"/>
     </row>
-    <row r="332" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="64">
         <v>330</v>
       </c>
@@ -37020,7 +37050,7 @@
       <c r="AE332" s="58"/>
       <c r="AF332" s="59"/>
     </row>
-    <row r="333" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="64">
         <v>331</v>
       </c>
@@ -37098,7 +37128,7 @@
       <c r="AE333" s="58"/>
       <c r="AF333" s="59"/>
     </row>
-    <row r="334" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="64">
         <v>332</v>
       </c>
@@ -37176,7 +37206,7 @@
       <c r="AE334" s="58"/>
       <c r="AF334" s="59"/>
     </row>
-    <row r="335" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="64">
         <v>333</v>
       </c>
@@ -37250,7 +37280,7 @@
       <c r="AE335" s="58"/>
       <c r="AF335" s="59"/>
     </row>
-    <row r="336" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="64">
         <v>334</v>
       </c>
@@ -37456,7 +37486,7 @@
       <c r="AE338" s="58"/>
       <c r="AF338" s="59"/>
     </row>
-    <row r="339" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="64">
         <v>337</v>
       </c>
@@ -37652,7 +37682,7 @@
       <c r="AE341" s="58"/>
       <c r="AF341" s="59"/>
     </row>
-    <row r="342" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="64">
         <v>340</v>
       </c>
@@ -37726,7 +37756,7 @@
       <c r="AE342" s="58"/>
       <c r="AF342" s="59"/>
     </row>
-    <row r="343" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="64">
         <v>341</v>
       </c>
@@ -37862,7 +37892,7 @@
       <c r="AE344" s="58"/>
       <c r="AF344" s="59"/>
     </row>
-    <row r="345" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="64">
         <v>343</v>
       </c>
@@ -37936,7 +37966,7 @@
       <c r="AE345" s="58"/>
       <c r="AF345" s="59"/>
     </row>
-    <row r="346" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="64">
         <v>344</v>
       </c>
@@ -38010,7 +38040,7 @@
       <c r="AE346" s="58"/>
       <c r="AF346" s="59"/>
     </row>
-    <row r="347" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="64">
         <v>345</v>
       </c>
@@ -38084,7 +38114,7 @@
       <c r="AE347" s="58"/>
       <c r="AF347" s="59"/>
     </row>
-    <row r="348" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="64">
         <v>346</v>
       </c>
@@ -38148,7 +38178,7 @@
       <c r="AE348" s="58"/>
       <c r="AF348" s="59"/>
     </row>
-    <row r="349" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="64">
         <v>347</v>
       </c>
@@ -38208,7 +38238,7 @@
       <c r="AE349" s="58"/>
       <c r="AF349" s="59"/>
     </row>
-    <row r="350" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="64">
         <v>348</v>
       </c>
@@ -38268,7 +38298,7 @@
       <c r="AE350" s="58"/>
       <c r="AF350" s="59"/>
     </row>
-    <row r="351" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="64">
         <v>349</v>
       </c>
@@ -38328,7 +38358,7 @@
       <c r="AE351" s="58"/>
       <c r="AF351" s="59"/>
     </row>
-    <row r="352" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="64">
         <v>350</v>
       </c>
@@ -38388,7 +38418,7 @@
       <c r="AE352" s="58"/>
       <c r="AF352" s="59"/>
     </row>
-    <row r="353" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="64">
         <v>351</v>
       </c>
@@ -38448,7 +38478,7 @@
       <c r="AE353" s="58"/>
       <c r="AF353" s="59"/>
     </row>
-    <row r="354" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="64">
         <v>352</v>
       </c>
@@ -38508,7 +38538,7 @@
       <c r="AE354" s="58"/>
       <c r="AF354" s="59"/>
     </row>
-    <row r="355" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="64">
         <v>353</v>
       </c>
@@ -38570,7 +38600,7 @@
       <c r="AE355" s="58"/>
       <c r="AF355" s="59"/>
     </row>
-    <row r="356" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="64">
         <v>354</v>
       </c>
@@ -38634,7 +38664,7 @@
       <c r="AE356" s="58"/>
       <c r="AF356" s="59"/>
     </row>
-    <row r="357" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="64">
         <v>355</v>
       </c>
@@ -38698,7 +38728,7 @@
       <c r="AE357" s="58"/>
       <c r="AF357" s="59"/>
     </row>
-    <row r="358" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="64">
         <v>356</v>
       </c>
@@ -38758,7 +38788,7 @@
       <c r="AE358" s="58"/>
       <c r="AF358" s="59"/>
     </row>
-    <row r="359" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="64">
         <v>357</v>
       </c>
@@ -38818,7 +38848,7 @@
       <c r="AE359" s="58"/>
       <c r="AF359" s="59"/>
     </row>
-    <row r="360" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="64">
         <v>358</v>
       </c>
@@ -38878,7 +38908,7 @@
       <c r="AE360" s="58"/>
       <c r="AF360" s="59"/>
     </row>
-    <row r="361" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="64">
         <v>359</v>
       </c>
@@ -38938,7 +38968,7 @@
       <c r="AE361" s="58"/>
       <c r="AF361" s="59"/>
     </row>
-    <row r="362" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="64">
         <v>360</v>
       </c>
@@ -38998,7 +39028,7 @@
       <c r="AE362" s="58"/>
       <c r="AF362" s="59"/>
     </row>
-    <row r="363" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="64">
         <v>361</v>
       </c>
@@ -39080,7 +39110,7 @@
       <c r="AE363" s="58"/>
       <c r="AF363" s="59"/>
     </row>
-    <row r="364" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="64">
         <v>362</v>
       </c>
@@ -39162,7 +39192,7 @@
       <c r="AE364" s="58"/>
       <c r="AF364" s="59"/>
     </row>
-    <row r="365" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="64">
         <v>363</v>
       </c>
@@ -39232,7 +39262,7 @@
       <c r="AE365" s="58"/>
       <c r="AF365" s="59"/>
     </row>
-    <row r="366" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="64">
         <v>364</v>
       </c>
@@ -39308,7 +39338,7 @@
       <c r="AE366" s="58"/>
       <c r="AF366" s="59"/>
     </row>
-    <row r="367" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="64">
         <v>365</v>
       </c>
@@ -39388,7 +39418,7 @@
       <c r="AE367" s="58"/>
       <c r="AF367" s="59"/>
     </row>
-    <row r="368" spans="1:32" ht="165.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:32" ht="165.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="64">
         <v>366</v>
       </c>
@@ -39466,7 +39496,7 @@
       <c r="AE368" s="58"/>
       <c r="AF368" s="59"/>
     </row>
-    <row r="369" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="64">
         <v>367</v>
       </c>
@@ -39532,7 +39562,7 @@
       <c r="AE369" s="58"/>
       <c r="AF369" s="59"/>
     </row>
-    <row r="370" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="64">
         <v>368</v>
       </c>
@@ -39608,7 +39638,7 @@
       <c r="AE370" s="58"/>
       <c r="AF370" s="59"/>
     </row>
-    <row r="371" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="64">
         <v>369</v>
       </c>
@@ -39684,7 +39714,7 @@
       <c r="AE371" s="58"/>
       <c r="AF371" s="59"/>
     </row>
-    <row r="372" spans="1:32" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:32" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="64">
         <v>370</v>
       </c>
@@ -39760,7 +39790,7 @@
       <c r="AE372" s="58"/>
       <c r="AF372" s="59"/>
     </row>
-    <row r="373" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="64">
         <v>371</v>
       </c>
@@ -39824,7 +39854,7 @@
       <c r="AE373" s="58"/>
       <c r="AF373" s="59"/>
     </row>
-    <row r="374" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="64">
         <v>372</v>
       </c>
@@ -39884,7 +39914,7 @@
       <c r="AE374" s="58"/>
       <c r="AF374" s="59"/>
     </row>
-    <row r="375" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="64">
         <v>373</v>
       </c>
@@ -39946,7 +39976,7 @@
       <c r="AE375" s="58"/>
       <c r="AF375" s="59"/>
     </row>
-    <row r="376" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="64">
         <v>374</v>
       </c>
@@ -40016,7 +40046,7 @@
       <c r="AE376" s="58"/>
       <c r="AF376" s="59"/>
     </row>
-    <row r="377" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="64">
         <v>375</v>
       </c>
@@ -40086,7 +40116,7 @@
       <c r="AE377" s="58"/>
       <c r="AF377" s="59"/>
     </row>
-    <row r="378" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="64">
         <v>376</v>
       </c>
@@ -40156,7 +40186,7 @@
       <c r="AE378" s="58"/>
       <c r="AF378" s="59"/>
     </row>
-    <row r="379" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="64">
         <v>377</v>
       </c>
@@ -40218,7 +40248,7 @@
       <c r="AE379" s="58"/>
       <c r="AF379" s="59"/>
     </row>
-    <row r="380" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="64">
         <v>378</v>
       </c>
@@ -40288,7 +40318,7 @@
       <c r="AE380" s="58"/>
       <c r="AF380" s="59"/>
     </row>
-    <row r="381" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="64">
         <v>379</v>
       </c>
@@ -40358,7 +40388,7 @@
       <c r="AE381" s="58"/>
       <c r="AF381" s="59"/>
     </row>
-    <row r="382" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="64">
         <v>380</v>
       </c>
@@ -40426,7 +40456,7 @@
       <c r="AE382" s="58"/>
       <c r="AF382" s="59"/>
     </row>
-    <row r="383" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="64">
         <v>381</v>
       </c>
@@ -40486,7 +40516,7 @@
       <c r="AE383" s="58"/>
       <c r="AF383" s="59"/>
     </row>
-    <row r="384" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="64">
         <v>382</v>
       </c>
@@ -40554,7 +40584,7 @@
       <c r="AE384" s="58"/>
       <c r="AF384" s="59"/>
     </row>
-    <row r="385" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="64">
         <v>383</v>
       </c>
@@ -40616,7 +40646,7 @@
       <c r="AE385" s="58"/>
       <c r="AF385" s="59"/>
     </row>
-    <row r="386" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="64">
         <v>384</v>
       </c>
@@ -40676,7 +40706,7 @@
       <c r="AE386" s="58"/>
       <c r="AF386" s="59"/>
     </row>
-    <row r="387" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="64">
         <v>385</v>
       </c>
@@ -40740,7 +40770,7 @@
       <c r="AE387" s="58"/>
       <c r="AF387" s="59"/>
     </row>
-    <row r="388" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="64">
         <v>386</v>
       </c>
@@ -40802,7 +40832,7 @@
       <c r="AE388" s="58"/>
       <c r="AF388" s="59"/>
     </row>
-    <row r="389" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="64">
         <v>387</v>
       </c>
@@ -40862,7 +40892,7 @@
       <c r="AE389" s="58"/>
       <c r="AF389" s="59"/>
     </row>
-    <row r="390" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="64">
         <v>388</v>
       </c>
@@ -40922,7 +40952,7 @@
       <c r="AE390" s="58"/>
       <c r="AF390" s="59"/>
     </row>
-    <row r="391" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="64">
         <v>389</v>
       </c>
@@ -40986,7 +41016,7 @@
       <c r="AE391" s="58"/>
       <c r="AF391" s="59"/>
     </row>
-    <row r="392" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="64">
         <v>390</v>
       </c>
@@ -41048,7 +41078,7 @@
       <c r="AE392" s="58"/>
       <c r="AF392" s="59"/>
     </row>
-    <row r="393" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="64">
         <v>391</v>
       </c>
@@ -41112,7 +41142,7 @@
       <c r="AE393" s="58"/>
       <c r="AF393" s="59"/>
     </row>
-    <row r="394" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="64">
         <v>392</v>
       </c>
@@ -41172,7 +41202,7 @@
       <c r="AE394" s="58"/>
       <c r="AF394" s="59"/>
     </row>
-    <row r="395" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="64">
         <v>393</v>
       </c>
@@ -41234,7 +41264,7 @@
       <c r="AE395" s="58"/>
       <c r="AF395" s="59"/>
     </row>
-    <row r="396" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="64">
         <v>394</v>
       </c>
@@ -41294,7 +41324,7 @@
       <c r="AE396" s="58"/>
       <c r="AF396" s="59"/>
     </row>
-    <row r="397" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="64">
         <v>395</v>
       </c>
@@ -41354,7 +41384,7 @@
       <c r="AE397" s="58"/>
       <c r="AF397" s="59"/>
     </row>
-    <row r="398" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="64">
         <v>396</v>
       </c>
@@ -41416,7 +41446,7 @@
       <c r="AE398" s="58"/>
       <c r="AF398" s="59"/>
     </row>
-    <row r="399" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="64">
         <v>397</v>
       </c>
@@ -41476,7 +41506,7 @@
       <c r="AE399" s="58"/>
       <c r="AF399" s="59"/>
     </row>
-    <row r="400" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="64">
         <v>398</v>
       </c>
@@ -41542,7 +41572,7 @@
       <c r="AE400" s="58"/>
       <c r="AF400" s="59"/>
     </row>
-    <row r="401" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="64">
         <v>399</v>
       </c>
@@ -41602,7 +41632,7 @@
       <c r="AE401" s="58"/>
       <c r="AF401" s="59"/>
     </row>
-    <row r="402" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="64">
         <v>400</v>
       </c>
@@ -41662,7 +41692,7 @@
       <c r="AE402" s="58"/>
       <c r="AF402" s="59"/>
     </row>
-    <row r="403" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="64">
         <v>401</v>
       </c>
@@ -41726,7 +41756,7 @@
       <c r="AE403" s="58"/>
       <c r="AF403" s="59"/>
     </row>
-    <row r="404" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="64">
         <v>402</v>
       </c>
@@ -41790,7 +41820,7 @@
       <c r="AE404" s="58"/>
       <c r="AF404" s="59"/>
     </row>
-    <row r="405" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="64">
         <v>403</v>
       </c>
@@ -41854,7 +41884,7 @@
       <c r="AE405" s="58"/>
       <c r="AF405" s="59"/>
     </row>
-    <row r="406" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="64">
         <v>404</v>
       </c>
@@ -41920,7 +41950,7 @@
       <c r="AE406" s="58"/>
       <c r="AF406" s="59"/>
     </row>
-    <row r="407" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="64">
         <v>405</v>
       </c>
@@ -41984,7 +42014,7 @@
       <c r="AE407" s="58"/>
       <c r="AF407" s="59"/>
     </row>
-    <row r="408" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="64">
         <v>406</v>
       </c>
@@ -42046,7 +42076,7 @@
       <c r="AE408" s="58"/>
       <c r="AF408" s="59"/>
     </row>
-    <row r="409" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="64">
         <v>407</v>
       </c>
@@ -42110,7 +42140,7 @@
       <c r="AE409" s="58"/>
       <c r="AF409" s="59"/>
     </row>
-    <row r="410" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="64">
         <v>408</v>
       </c>
@@ -42172,7 +42202,7 @@
       <c r="AE410" s="58"/>
       <c r="AF410" s="59"/>
     </row>
-    <row r="411" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="64">
         <v>409</v>
       </c>
@@ -42232,7 +42262,7 @@
       <c r="AE411" s="58"/>
       <c r="AF411" s="59"/>
     </row>
-    <row r="412" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="64">
         <v>410</v>
       </c>
@@ -42298,7 +42328,7 @@
       <c r="AE412" s="58"/>
       <c r="AF412" s="59"/>
     </row>
-    <row r="413" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="64">
         <v>411</v>
       </c>
@@ -42364,7 +42394,7 @@
       <c r="AE413" s="58"/>
       <c r="AF413" s="59"/>
     </row>
-    <row r="414" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="64">
         <v>412</v>
       </c>
@@ -42426,7 +42456,7 @@
       <c r="AE414" s="58"/>
       <c r="AF414" s="59"/>
     </row>
-    <row r="415" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="64">
         <v>413</v>
       </c>
@@ -42490,7 +42520,7 @@
       <c r="AE415" s="58"/>
       <c r="AF415" s="59"/>
     </row>
-    <row r="416" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="64">
         <v>414</v>
       </c>
@@ -42550,7 +42580,7 @@
       <c r="AE416" s="58"/>
       <c r="AF416" s="59"/>
     </row>
-    <row r="417" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="64">
         <v>415</v>
       </c>
@@ -42610,7 +42640,7 @@
       <c r="AE417" s="58"/>
       <c r="AF417" s="59"/>
     </row>
-    <row r="418" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="64">
         <v>416</v>
       </c>
@@ -42670,7 +42700,7 @@
       <c r="AE418" s="58"/>
       <c r="AF418" s="59"/>
     </row>
-    <row r="419" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="64">
         <v>417</v>
       </c>
@@ -42730,7 +42760,7 @@
       <c r="AE419" s="58"/>
       <c r="AF419" s="59"/>
     </row>
-    <row r="420" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="64">
         <v>418</v>
       </c>
@@ -42876,7 +42906,7 @@
       <c r="AE421" s="58"/>
       <c r="AF421" s="59"/>
     </row>
-    <row r="422" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="64">
         <v>420</v>
       </c>
@@ -42950,7 +42980,7 @@
       <c r="AE422" s="58"/>
       <c r="AF422" s="59"/>
     </row>
-    <row r="423" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="64">
         <v>421</v>
       </c>
@@ -43024,7 +43054,7 @@
       <c r="AE423" s="58"/>
       <c r="AF423" s="59"/>
     </row>
-    <row r="424" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="64">
         <v>422</v>
       </c>
@@ -43098,7 +43128,7 @@
       <c r="AE424" s="58"/>
       <c r="AF424" s="59"/>
     </row>
-    <row r="425" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="64">
         <v>423</v>
       </c>
@@ -43172,7 +43202,7 @@
       <c r="AE425" s="58"/>
       <c r="AF425" s="59"/>
     </row>
-    <row r="426" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="64">
         <v>424</v>
       </c>
@@ -43312,7 +43342,7 @@
       <c r="AE427" s="58"/>
       <c r="AF427" s="59"/>
     </row>
-    <row r="428" spans="1:32" ht="165.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:32" ht="165.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="64">
         <v>426</v>
       </c>
@@ -43388,7 +43418,7 @@
       <c r="AE428" s="58"/>
       <c r="AF428" s="59"/>
     </row>
-    <row r="429" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="64">
         <v>427</v>
       </c>
@@ -43464,7 +43494,7 @@
       <c r="AE429" s="58"/>
       <c r="AF429" s="59"/>
     </row>
-    <row r="430" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="64">
         <v>428</v>
       </c>
@@ -43538,7 +43568,7 @@
       <c r="AE430" s="58"/>
       <c r="AF430" s="59"/>
     </row>
-    <row r="431" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="64">
         <v>429</v>
       </c>
@@ -43616,7 +43646,7 @@
       <c r="AE431" s="58"/>
       <c r="AF431" s="59"/>
     </row>
-    <row r="432" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="64">
         <v>430</v>
       </c>
@@ -43692,7 +43722,7 @@
       <c r="AE432" s="58"/>
       <c r="AF432" s="59"/>
     </row>
-    <row r="433" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="64">
         <v>431</v>
       </c>
@@ -43766,7 +43796,7 @@
       <c r="AE433" s="58"/>
       <c r="AF433" s="59"/>
     </row>
-    <row r="434" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="64">
         <v>432</v>
       </c>
@@ -43842,7 +43872,7 @@
       <c r="AE434" s="58"/>
       <c r="AF434" s="59"/>
     </row>
-    <row r="435" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="64">
         <v>433</v>
       </c>
@@ -43918,7 +43948,7 @@
       <c r="AE435" s="58"/>
       <c r="AF435" s="59"/>
     </row>
-    <row r="436" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="64">
         <v>434</v>
       </c>
@@ -43994,7 +44024,7 @@
       <c r="AE436" s="58"/>
       <c r="AF436" s="59"/>
     </row>
-    <row r="437" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="64">
         <v>435</v>
       </c>
@@ -44072,7 +44102,7 @@
       <c r="AE437" s="58"/>
       <c r="AF437" s="59"/>
     </row>
-    <row r="438" spans="1:32" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:32" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="64">
         <v>436</v>
       </c>
@@ -44148,7 +44178,7 @@
       <c r="AE438" s="58"/>
       <c r="AF438" s="59"/>
     </row>
-    <row r="439" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="64">
         <v>437</v>
       </c>
@@ -44222,7 +44252,7 @@
       <c r="AE439" s="58"/>
       <c r="AF439" s="59"/>
     </row>
-    <row r="440" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="64">
         <v>438</v>
       </c>
@@ -44288,7 +44318,7 @@
       <c r="AE440" s="58"/>
       <c r="AF440" s="59"/>
     </row>
-    <row r="441" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="64">
         <v>439</v>
       </c>
@@ -44364,7 +44394,7 @@
       <c r="AE441" s="58"/>
       <c r="AF441" s="59"/>
     </row>
-    <row r="442" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="64">
         <v>440</v>
       </c>
@@ -44438,7 +44468,7 @@
       <c r="AE442" s="58"/>
       <c r="AF442" s="59"/>
     </row>
-    <row r="443" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="64">
         <v>441</v>
       </c>
@@ -44518,7 +44548,7 @@
       <c r="AE443" s="58"/>
       <c r="AF443" s="59"/>
     </row>
-    <row r="444" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="64">
         <v>442</v>
       </c>
@@ -44596,7 +44626,7 @@
       <c r="AE444" s="58"/>
       <c r="AF444" s="59"/>
     </row>
-    <row r="445" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="64">
         <v>443</v>
       </c>
@@ -44672,7 +44702,7 @@
       <c r="AE445" s="58"/>
       <c r="AF445" s="59"/>
     </row>
-    <row r="446" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="64">
         <v>444</v>
       </c>
@@ -44748,7 +44778,7 @@
       <c r="AE446" s="58"/>
       <c r="AF446" s="59"/>
     </row>
-    <row r="447" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="64">
         <v>445</v>
       </c>
@@ -44822,7 +44852,7 @@
       <c r="AE447" s="58"/>
       <c r="AF447" s="59"/>
     </row>
-    <row r="448" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="64">
         <v>446</v>
       </c>
@@ -44898,7 +44928,7 @@
       <c r="AE448" s="58"/>
       <c r="AF448" s="59"/>
     </row>
-    <row r="449" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="64">
         <v>447</v>
       </c>
@@ -45044,7 +45074,7 @@
       <c r="AE450" s="58"/>
       <c r="AF450" s="59"/>
     </row>
-    <row r="451" spans="1:32" ht="108.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:32" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="64">
         <v>449</v>
       </c>
@@ -45184,7 +45214,7 @@
       <c r="AE452" s="58"/>
       <c r="AF452" s="59"/>
     </row>
-    <row r="453" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="64">
         <v>451</v>
       </c>
@@ -45260,7 +45290,7 @@
       <c r="AE453" s="58"/>
       <c r="AF453" s="59"/>
     </row>
-    <row r="454" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="64">
         <v>452</v>
       </c>
@@ -45336,7 +45366,7 @@
       <c r="AE454" s="58"/>
       <c r="AF454" s="59"/>
     </row>
-    <row r="455" spans="1:32" ht="216.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:32" ht="216.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="64">
         <v>453</v>
       </c>
@@ -45412,7 +45442,7 @@
       <c r="AE455" s="58"/>
       <c r="AF455" s="59"/>
     </row>
-    <row r="456" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="64">
         <v>454</v>
       </c>
@@ -45488,7 +45518,7 @@
       <c r="AE456" s="58"/>
       <c r="AF456" s="59"/>
     </row>
-    <row r="457" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="64">
         <v>455</v>
       </c>
@@ -45554,7 +45584,7 @@
       <c r="AE457" s="58"/>
       <c r="AF457" s="59"/>
     </row>
-    <row r="458" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="64">
         <v>456</v>
       </c>
@@ -45630,7 +45660,7 @@
       <c r="AE458" s="58"/>
       <c r="AF458" s="59"/>
     </row>
-    <row r="459" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="64">
         <v>457</v>
       </c>
@@ -45708,7 +45738,7 @@
       <c r="AE459" s="58"/>
       <c r="AF459" s="59"/>
     </row>
-    <row r="460" spans="1:32" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:32" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="64">
         <v>458</v>
       </c>
@@ -45780,7 +45810,7 @@
       <c r="AE460" s="58"/>
       <c r="AF460" s="59"/>
     </row>
-    <row r="461" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="64">
         <v>459</v>
       </c>
@@ -45850,7 +45880,7 @@
       <c r="AE461" s="58"/>
       <c r="AF461" s="68"/>
     </row>
-    <row r="462" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="64">
         <v>460</v>
       </c>
@@ -45918,7 +45948,7 @@
       <c r="AE462" s="58"/>
       <c r="AF462" s="68"/>
     </row>
-    <row r="463" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="64">
         <v>461</v>
       </c>
@@ -45986,7 +46016,7 @@
       <c r="AE463" s="58"/>
       <c r="AF463" s="69"/>
     </row>
-    <row r="464" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="64">
         <v>462</v>
       </c>
@@ -46054,7 +46084,7 @@
       <c r="AE464" s="58"/>
       <c r="AF464" s="68"/>
     </row>
-    <row r="465" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="64">
         <v>463</v>
       </c>
@@ -46132,7 +46162,7 @@
       <c r="AE465" s="58"/>
       <c r="AF465" s="68"/>
     </row>
-    <row r="466" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="64">
         <v>464</v>
       </c>
@@ -46210,7 +46240,7 @@
       <c r="AE466" s="58"/>
       <c r="AF466" s="68"/>
     </row>
-    <row r="467" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="64">
         <v>465</v>
       </c>
@@ -46284,7 +46314,7 @@
       <c r="AE467" s="58"/>
       <c r="AF467" s="59"/>
     </row>
-    <row r="468" spans="1:32" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:32" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="64">
         <v>465</v>
       </c>
@@ -46360,7 +46390,7 @@
       <c r="AE468" s="58"/>
       <c r="AF468" s="59"/>
     </row>
-    <row r="469" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="64">
         <v>466</v>
       </c>
@@ -46434,7 +46464,7 @@
       <c r="AE469" s="58"/>
       <c r="AF469" s="59"/>
     </row>
-    <row r="470" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="64">
         <v>467</v>
       </c>
@@ -46512,7 +46542,7 @@
       <c r="AE470" s="58"/>
       <c r="AF470" s="68"/>
     </row>
-    <row r="471" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="64">
         <v>468</v>
       </c>
@@ -46592,7 +46622,7 @@
       <c r="AE471" s="58"/>
       <c r="AF471" s="68"/>
     </row>
-    <row r="472" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="64">
         <v>469</v>
       </c>
@@ -46672,7 +46702,7 @@
       <c r="AE472" s="58"/>
       <c r="AF472" s="69"/>
     </row>
-    <row r="473" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="64">
         <v>470</v>
       </c>
@@ -46750,7 +46780,7 @@
       <c r="AE473" s="58"/>
       <c r="AF473" s="68"/>
     </row>
-    <row r="474" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="64">
         <v>471</v>
       </c>
@@ -46818,7 +46848,7 @@
       <c r="AE474" s="58"/>
       <c r="AF474" s="68"/>
     </row>
-    <row r="475" spans="1:32" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:32" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="64">
         <v>472</v>
       </c>
@@ -46884,7 +46914,7 @@
       <c r="AE475" s="58"/>
       <c r="AF475" s="68"/>
     </row>
-    <row r="476" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="64">
         <v>473</v>
       </c>
@@ -46950,7 +46980,7 @@
       <c r="AE476" s="58"/>
       <c r="AF476" s="68"/>
     </row>
-    <row r="477" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="64">
         <v>474</v>
       </c>
@@ -47014,7 +47044,7 @@
       <c r="AE477" s="58"/>
       <c r="AF477" s="68"/>
     </row>
-    <row r="478" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="64">
         <v>475</v>
       </c>
@@ -47080,7 +47110,7 @@
       <c r="AE478" s="58"/>
       <c r="AF478" s="68"/>
     </row>
-    <row r="479" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="64">
         <v>476</v>
       </c>
@@ -47156,7 +47186,7 @@
       <c r="AE479" s="58"/>
       <c r="AF479" s="68"/>
     </row>
-    <row r="480" spans="1:32" ht="331.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:32" ht="331.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="64">
         <v>477</v>
       </c>
@@ -47234,7 +47264,7 @@
       <c r="AE480" s="58"/>
       <c r="AF480" s="68"/>
     </row>
-    <row r="481" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="64">
         <v>478</v>
       </c>
@@ -47314,7 +47344,7 @@
       <c r="AE481" s="58"/>
       <c r="AF481" s="68"/>
     </row>
-    <row r="482" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="64">
         <v>479</v>
       </c>
@@ -47458,7 +47488,7 @@
       <c r="AE483" s="58"/>
       <c r="AF483" s="59"/>
     </row>
-    <row r="484" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="64">
         <v>481</v>
       </c>
@@ -47538,7 +47568,7 @@
       <c r="AE484" s="58"/>
       <c r="AF484" s="59"/>
     </row>
-    <row r="485" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="64">
         <v>482</v>
       </c>
@@ -47616,7 +47646,7 @@
       <c r="AE485" s="58"/>
       <c r="AF485" s="68"/>
     </row>
-    <row r="486" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="64">
         <v>483</v>
       </c>
@@ -47690,7 +47720,7 @@
       <c r="AE486" s="58"/>
       <c r="AF486" s="68"/>
     </row>
-    <row r="487" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="64">
         <v>484</v>
       </c>
@@ -47770,7 +47800,7 @@
       <c r="AE487" s="58"/>
       <c r="AF487" s="68"/>
     </row>
-    <row r="488" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="64">
         <v>485</v>
       </c>
@@ -47846,7 +47876,7 @@
       <c r="AE488" s="58"/>
       <c r="AF488" s="68"/>
     </row>
-    <row r="489" spans="1:32" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:32" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="64">
         <v>486</v>
       </c>
@@ -47922,7 +47952,7 @@
       <c r="AE489" s="58"/>
       <c r="AF489" s="68"/>
     </row>
-    <row r="490" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="64">
         <v>487</v>
       </c>
@@ -47998,7 +48028,7 @@
       <c r="AE490" s="58"/>
       <c r="AF490" s="68"/>
     </row>
-    <row r="491" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="64">
         <v>488</v>
       </c>
@@ -48064,7 +48094,7 @@
       <c r="AE491" s="58"/>
       <c r="AF491" s="68"/>
     </row>
-    <row r="492" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="64">
         <v>489</v>
       </c>
@@ -48144,7 +48174,7 @@
       <c r="AE492" s="58"/>
       <c r="AF492" s="68"/>
     </row>
-    <row r="493" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="64">
         <v>490</v>
       </c>
@@ -48222,7 +48252,7 @@
       <c r="AE493" s="58"/>
       <c r="AF493" s="68"/>
     </row>
-    <row r="494" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="64">
         <v>491</v>
       </c>
@@ -48296,7 +48326,7 @@
       <c r="AE494" s="58"/>
       <c r="AF494" s="68"/>
     </row>
-    <row r="495" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="64">
         <v>492</v>
       </c>
@@ -48364,7 +48394,7 @@
       <c r="AE495" s="58"/>
       <c r="AF495" s="68"/>
     </row>
-    <row r="496" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="64">
         <v>493</v>
       </c>
@@ -48510,7 +48540,7 @@
       <c r="AE497" s="58"/>
       <c r="AF497" s="68"/>
     </row>
-    <row r="498" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="64">
         <v>495</v>
       </c>
@@ -48584,7 +48614,7 @@
       <c r="AE498" s="58"/>
       <c r="AF498" s="68"/>
     </row>
-    <row r="499" spans="1:32" ht="110.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:32" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="64">
         <v>496</v>
       </c>
@@ -48662,7 +48692,7 @@
       <c r="AE499" s="58"/>
       <c r="AF499" s="68"/>
     </row>
-    <row r="500" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="64">
         <v>497</v>
       </c>
@@ -48740,7 +48770,7 @@
       <c r="AE500" s="58"/>
       <c r="AF500" s="68"/>
     </row>
-    <row r="501" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="64">
         <v>498</v>
       </c>
@@ -48818,7 +48848,7 @@
       <c r="AE501" s="58"/>
       <c r="AF501" s="68"/>
     </row>
-    <row r="502" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="64">
         <v>499</v>
       </c>
@@ -48882,7 +48912,7 @@
       <c r="AE502" s="58"/>
       <c r="AF502" s="68"/>
     </row>
-    <row r="503" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="64">
         <v>500</v>
       </c>
@@ -48960,7 +48990,7 @@
       <c r="AE503" s="58"/>
       <c r="AF503" s="68"/>
     </row>
-    <row r="504" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="64">
         <v>501</v>
       </c>
@@ -49038,7 +49068,7 @@
       <c r="AE504" s="58"/>
       <c r="AF504" s="68"/>
     </row>
-    <row r="505" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="64">
         <v>502</v>
       </c>
@@ -49118,7 +49148,7 @@
       <c r="AE505" s="58"/>
       <c r="AF505" s="68"/>
     </row>
-    <row r="506" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="64">
         <v>503</v>
       </c>
@@ -49194,7 +49224,7 @@
       <c r="AE506" s="58"/>
       <c r="AF506" s="68"/>
     </row>
-    <row r="507" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="64">
         <v>504</v>
       </c>
@@ -49260,7 +49290,7 @@
       <c r="AE507" s="58"/>
       <c r="AF507" s="68"/>
     </row>
-    <row r="508" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="64">
         <v>505</v>
       </c>
@@ -49326,7 +49356,7 @@
       <c r="AE508" s="58"/>
       <c r="AF508" s="68"/>
     </row>
-    <row r="509" spans="1:32" ht="267.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:32" ht="267.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="64">
         <v>506</v>
       </c>
@@ -49402,7 +49432,7 @@
       <c r="AE509" s="58"/>
       <c r="AF509" s="68"/>
     </row>
-    <row r="510" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="64">
         <v>507</v>
       </c>
@@ -49474,7 +49504,7 @@
       <c r="AE510" s="58"/>
       <c r="AF510" s="59"/>
     </row>
-    <row r="511" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="64">
         <v>508</v>
       </c>
@@ -49548,7 +49578,7 @@
       <c r="AE511" s="58"/>
       <c r="AF511" s="59"/>
     </row>
-    <row r="512" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="64">
         <v>509</v>
       </c>
@@ -49620,7 +49650,7 @@
       <c r="AE512" s="58"/>
       <c r="AF512" s="59"/>
     </row>
-    <row r="513" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="64">
         <v>510</v>
       </c>
@@ -49698,7 +49728,7 @@
       <c r="AE513" s="58"/>
       <c r="AF513" s="68"/>
     </row>
-    <row r="514" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="64">
         <v>511</v>
       </c>
@@ -49772,7 +49802,7 @@
       <c r="AE514" s="58"/>
       <c r="AF514" s="68"/>
     </row>
-    <row r="515" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="64">
         <v>512</v>
       </c>
@@ -49848,7 +49878,7 @@
       <c r="AE515" s="58"/>
       <c r="AF515" s="68"/>
     </row>
-    <row r="516" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="64">
         <v>513</v>
       </c>
@@ -49920,7 +49950,7 @@
       <c r="AE516" s="58"/>
       <c r="AF516" s="68"/>
     </row>
-    <row r="517" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="64">
         <v>514</v>
       </c>
@@ -49994,7 +50024,7 @@
       <c r="AE517" s="58"/>
       <c r="AF517" s="68"/>
     </row>
-    <row r="518" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="64">
         <v>515</v>
       </c>
@@ -50058,7 +50088,7 @@
       <c r="AE518" s="58"/>
       <c r="AF518" s="68"/>
     </row>
-    <row r="519" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="64">
         <v>516</v>
       </c>
@@ -50132,7 +50162,7 @@
       <c r="AE519" s="58"/>
       <c r="AF519" s="68"/>
     </row>
-    <row r="520" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="64">
         <v>517</v>
       </c>
@@ -50204,7 +50234,7 @@
       <c r="AE520" s="58"/>
       <c r="AF520" s="68"/>
     </row>
-    <row r="521" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="64">
         <v>518</v>
       </c>
@@ -50278,7 +50308,7 @@
       <c r="AE521" s="58"/>
       <c r="AF521" s="68"/>
     </row>
-    <row r="522" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="64">
         <v>519</v>
       </c>
@@ -50350,7 +50380,7 @@
       <c r="AE522" s="58"/>
       <c r="AF522" s="68"/>
     </row>
-    <row r="523" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="64">
         <v>520</v>
       </c>
@@ -50410,7 +50440,7 @@
       <c r="AE523" s="58"/>
       <c r="AF523" s="68"/>
     </row>
-    <row r="524" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="64">
         <v>521</v>
       </c>
@@ -50470,7 +50500,7 @@
       <c r="AE524" s="58"/>
       <c r="AF524" s="68"/>
     </row>
-    <row r="525" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="64">
         <v>522</v>
       </c>
@@ -50542,7 +50572,7 @@
       <c r="AE525" s="58"/>
       <c r="AF525" s="59"/>
     </row>
-    <row r="526" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="64">
         <v>523</v>
       </c>
@@ -50604,7 +50634,7 @@
       <c r="AE526" s="58"/>
       <c r="AF526" s="59"/>
     </row>
-    <row r="527" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="64">
         <v>524</v>
       </c>
@@ -50668,7 +50698,7 @@
       <c r="AE527" s="58"/>
       <c r="AF527" s="68"/>
     </row>
-    <row r="528" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="64">
         <v>525</v>
       </c>
@@ -50732,7 +50762,7 @@
       <c r="AE528" s="58"/>
       <c r="AF528" s="68"/>
     </row>
-    <row r="529" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="64">
         <v>526</v>
       </c>
@@ -50790,7 +50820,7 @@
       <c r="AE529" s="58"/>
       <c r="AF529" s="68"/>
     </row>
-    <row r="530" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="64">
         <v>527</v>
       </c>
@@ -50848,7 +50878,7 @@
       <c r="AE530" s="58"/>
       <c r="AF530" s="68"/>
     </row>
-    <row r="531" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="64">
         <v>528</v>
       </c>
@@ -50918,7 +50948,7 @@
       <c r="AE531" s="58"/>
       <c r="AF531" s="68"/>
     </row>
-    <row r="532" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="64">
         <v>529</v>
       </c>
@@ -50982,7 +51012,7 @@
       <c r="AE532" s="58"/>
       <c r="AF532" s="68"/>
     </row>
-    <row r="533" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="64">
         <v>530</v>
       </c>
@@ -51046,7 +51076,7 @@
       <c r="AE533" s="58"/>
       <c r="AF533" s="68"/>
     </row>
-    <row r="534" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="64">
         <v>531</v>
       </c>
@@ -51106,7 +51136,7 @@
       <c r="AE534" s="58"/>
       <c r="AF534" s="68"/>
     </row>
-    <row r="535" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="64">
         <v>532</v>
       </c>
@@ -51182,7 +51212,7 @@
       <c r="AE535" s="58"/>
       <c r="AF535" s="68"/>
     </row>
-    <row r="536" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="64">
         <v>533</v>
       </c>
@@ -51246,7 +51276,7 @@
       <c r="AE536" s="58"/>
       <c r="AF536" s="68"/>
     </row>
-    <row r="537" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="64">
         <v>534</v>
       </c>
@@ -51306,7 +51336,7 @@
       <c r="AE537" s="58"/>
       <c r="AF537" s="68"/>
     </row>
-    <row r="538" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="64">
         <v>535</v>
       </c>
@@ -51428,7 +51458,7 @@
       <c r="AE539" s="58"/>
       <c r="AF539" s="68"/>
     </row>
-    <row r="540" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="64">
         <v>537</v>
       </c>
@@ -51500,7 +51530,7 @@
       <c r="AE540" s="58"/>
       <c r="AF540" s="68"/>
     </row>
-    <row r="541" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="64">
         <v>538</v>
       </c>
@@ -51572,7 +51602,7 @@
       <c r="AE541" s="58"/>
       <c r="AF541" s="68"/>
     </row>
-    <row r="542" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="64">
         <v>539</v>
       </c>
@@ -51644,7 +51674,7 @@
       <c r="AE542" s="58"/>
       <c r="AF542" s="68"/>
     </row>
-    <row r="543" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="64">
         <v>540</v>
       </c>
@@ -51716,7 +51746,7 @@
       <c r="AE543" s="58"/>
       <c r="AF543" s="68"/>
     </row>
-    <row r="544" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="64">
         <v>541</v>
       </c>
@@ -51790,7 +51820,7 @@
       <c r="AE544" s="58"/>
       <c r="AF544" s="59"/>
     </row>
-    <row r="545" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="64">
         <v>542</v>
       </c>
@@ -51830,7 +51860,9 @@
       <c r="Q545" s="52" t="s">
         <v>747</v>
       </c>
-      <c r="R545" s="52"/>
+      <c r="R545" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S545" s="52" t="s">
         <v>748</v>
       </c>
@@ -51866,7 +51898,7 @@
       <c r="AE545" s="58"/>
       <c r="AF545" s="59"/>
     </row>
-    <row r="546" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="64">
         <v>543</v>
       </c>
@@ -51928,7 +51960,7 @@
       <c r="AE546" s="58"/>
       <c r="AF546" s="59"/>
     </row>
-    <row r="547" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="64">
         <v>544</v>
       </c>
@@ -52050,7 +52082,7 @@
       <c r="AE548" s="58"/>
       <c r="AF548" s="59"/>
     </row>
-    <row r="549" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="64">
         <v>546</v>
       </c>
@@ -52116,7 +52148,7 @@
       <c r="AE549" s="58"/>
       <c r="AF549" s="68"/>
     </row>
-    <row r="550" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="64">
         <v>547</v>
       </c>
@@ -52180,7 +52212,7 @@
       <c r="AE550" s="58"/>
       <c r="AF550" s="68"/>
     </row>
-    <row r="551" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="64">
         <v>548</v>
       </c>
@@ -52246,7 +52278,7 @@
       <c r="AE551" s="58"/>
       <c r="AF551" s="69"/>
     </row>
-    <row r="552" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="64">
         <v>549</v>
       </c>
@@ -52306,7 +52338,7 @@
       <c r="AE552" s="58"/>
       <c r="AF552" s="68"/>
     </row>
-    <row r="553" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="64">
         <v>550</v>
       </c>
@@ -52370,7 +52402,7 @@
       <c r="AE553" s="58"/>
       <c r="AF553" s="68"/>
     </row>
-    <row r="554" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="64">
         <v>551</v>
       </c>
@@ -52430,7 +52462,7 @@
       <c r="AE554" s="58"/>
       <c r="AF554" s="68"/>
     </row>
-    <row r="555" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="64">
         <v>552</v>
       </c>
@@ -52490,7 +52522,7 @@
       <c r="AE555" s="58"/>
       <c r="AF555" s="68"/>
     </row>
-    <row r="556" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="64">
         <v>553</v>
       </c>
@@ -52556,7 +52588,7 @@
       <c r="AE556" s="58"/>
       <c r="AF556" s="68"/>
     </row>
-    <row r="557" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="64">
         <v>554</v>
       </c>
@@ -52632,7 +52664,7 @@
       <c r="AE557" s="58"/>
       <c r="AF557" s="68"/>
     </row>
-    <row r="558" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="64">
         <v>555</v>
       </c>
@@ -52696,7 +52728,7 @@
       <c r="AE558" s="58"/>
       <c r="AF558" s="68"/>
     </row>
-    <row r="559" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="64">
         <v>556</v>
       </c>
@@ -52758,7 +52790,7 @@
       <c r="AE559" s="58"/>
       <c r="AF559" s="68"/>
     </row>
-    <row r="560" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="64">
         <v>557</v>
       </c>
@@ -52822,7 +52854,7 @@
       <c r="AE560" s="58"/>
       <c r="AF560" s="68"/>
     </row>
-    <row r="561" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="64">
         <v>558</v>
       </c>
@@ -52888,7 +52920,7 @@
       <c r="AE561" s="58"/>
       <c r="AF561" s="68"/>
     </row>
-    <row r="562" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="64">
         <v>559</v>
       </c>
@@ -52960,7 +52992,7 @@
       <c r="AE562" s="58"/>
       <c r="AF562" s="59"/>
     </row>
-    <row r="563" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="64">
         <v>560</v>
       </c>
@@ -53022,7 +53054,7 @@
       <c r="AE563" s="58"/>
       <c r="AF563" s="68"/>
     </row>
-    <row r="564" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="64">
         <v>561</v>
       </c>
@@ -53094,7 +53126,7 @@
       <c r="AE564" s="58"/>
       <c r="AF564" s="68"/>
     </row>
-    <row r="565" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="64">
         <v>562</v>
       </c>
@@ -53158,7 +53190,7 @@
       <c r="AE565" s="58"/>
       <c r="AF565" s="68"/>
     </row>
-    <row r="566" spans="1:32" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:32" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="64">
         <v>563</v>
       </c>
@@ -53236,7 +53268,7 @@
       <c r="AE566" s="58"/>
       <c r="AF566" s="68"/>
     </row>
-    <row r="567" spans="1:32" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:32" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="64">
         <v>564</v>
       </c>
@@ -53310,7 +53342,7 @@
       <c r="AE567" s="58"/>
       <c r="AF567" s="68"/>
     </row>
-    <row r="568" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="64">
         <v>565</v>
       </c>
@@ -53352,7 +53384,9 @@
       <c r="Q568" s="52" t="s">
         <v>1752</v>
       </c>
-      <c r="R568" s="52"/>
+      <c r="R568" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S568" s="52" t="s">
         <v>1753</v>
       </c>
@@ -53388,7 +53422,7 @@
       <c r="AE568" s="58"/>
       <c r="AF568" s="68"/>
     </row>
-    <row r="569" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="64">
         <v>566</v>
       </c>
@@ -53460,7 +53494,7 @@
       <c r="AE569" s="58"/>
       <c r="AF569" s="68"/>
     </row>
-    <row r="570" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="64">
         <v>567</v>
       </c>
@@ -53538,7 +53572,7 @@
       <c r="AE570" s="58"/>
       <c r="AF570" s="68"/>
     </row>
-    <row r="571" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="64">
         <v>568</v>
       </c>
@@ -53614,7 +53648,7 @@
       <c r="AE571" s="58"/>
       <c r="AF571" s="68"/>
     </row>
-    <row r="572" spans="1:32" ht="112.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:32" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="64">
         <v>569</v>
       </c>
@@ -53692,7 +53726,7 @@
       <c r="AE572" s="58"/>
       <c r="AF572" s="68"/>
     </row>
-    <row r="573" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="64">
         <v>570</v>
       </c>
@@ -53764,7 +53798,7 @@
       <c r="AE573" s="58"/>
       <c r="AF573" s="68"/>
     </row>
-    <row r="574" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="64">
         <v>571</v>
       </c>
@@ -53840,7 +53874,7 @@
       <c r="AE574" s="58"/>
       <c r="AF574" s="68"/>
     </row>
-    <row r="575" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="64">
         <v>572</v>
       </c>
@@ -53914,7 +53948,7 @@
       <c r="AE575" s="58"/>
       <c r="AF575" s="68"/>
     </row>
-    <row r="576" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="64">
         <v>573</v>
       </c>
@@ -53988,7 +54022,7 @@
       <c r="AE576" s="58"/>
       <c r="AF576" s="68"/>
     </row>
-    <row r="577" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="64">
         <v>574</v>
       </c>
@@ -54056,7 +54090,7 @@
       <c r="AE577" s="58"/>
       <c r="AF577" s="68"/>
     </row>
-    <row r="578" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="64">
         <v>575</v>
       </c>
@@ -54134,7 +54168,7 @@
       <c r="AE578" s="58"/>
       <c r="AF578" s="68"/>
     </row>
-    <row r="579" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="64">
         <v>576</v>
       </c>
@@ -54200,7 +54234,7 @@
       <c r="AE579" s="58"/>
       <c r="AF579" s="68"/>
     </row>
-    <row r="580" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="64">
         <v>577</v>
       </c>
@@ -54274,7 +54308,7 @@
       <c r="AE580" s="58"/>
       <c r="AF580" s="68"/>
     </row>
-    <row r="581" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="64">
         <v>578</v>
       </c>
@@ -54350,7 +54384,7 @@
       <c r="AE581" s="58"/>
       <c r="AF581" s="68"/>
     </row>
-    <row r="582" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="64">
         <v>579</v>
       </c>
@@ -54426,7 +54460,7 @@
       <c r="AE582" s="58"/>
       <c r="AF582" s="68"/>
     </row>
-    <row r="583" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="64">
         <v>580</v>
       </c>
@@ -54500,7 +54534,7 @@
       <c r="AE583" s="58"/>
       <c r="AF583" s="68"/>
     </row>
-    <row r="584" spans="1:32" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:32" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="64">
         <v>581</v>
       </c>
@@ -54644,7 +54678,7 @@
       <c r="AE585" s="58"/>
       <c r="AF585" s="68"/>
     </row>
-    <row r="586" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="64">
         <v>583</v>
       </c>
@@ -54720,7 +54754,7 @@
       <c r="AE586" s="58"/>
       <c r="AF586" s="68"/>
     </row>
-    <row r="587" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="64">
         <v>584</v>
       </c>
@@ -54798,7 +54832,7 @@
       <c r="AE587" s="58"/>
       <c r="AF587" s="68"/>
     </row>
-    <row r="588" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="64">
         <v>585</v>
       </c>
@@ -54874,7 +54908,7 @@
       <c r="AE588" s="58"/>
       <c r="AF588" s="68"/>
     </row>
-    <row r="589" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="64">
         <v>586</v>
       </c>
@@ -55016,7 +55050,7 @@
       <c r="AE590" s="58"/>
       <c r="AF590" s="68"/>
     </row>
-    <row r="591" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="64">
         <v>588</v>
       </c>
@@ -55094,7 +55128,7 @@
       <c r="AE591" s="58"/>
       <c r="AF591" s="68"/>
     </row>
-    <row r="592" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="64">
         <v>589</v>
       </c>
@@ -55172,7 +55206,7 @@
       <c r="AE592" s="58"/>
       <c r="AF592" s="68"/>
     </row>
-    <row r="593" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="64">
         <v>590</v>
       </c>
@@ -55244,7 +55278,7 @@
       <c r="AE593" s="58"/>
       <c r="AF593" s="68"/>
     </row>
-    <row r="594" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="64">
         <v>591</v>
       </c>
@@ -55320,7 +55354,7 @@
       <c r="AE594" s="58"/>
       <c r="AF594" s="68"/>
     </row>
-    <row r="595" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="64">
         <v>592</v>
       </c>
@@ -55532,7 +55566,7 @@
       <c r="AE597" s="58"/>
       <c r="AF597" s="68"/>
     </row>
-    <row r="598" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="64">
         <v>595</v>
       </c>
@@ -55606,7 +55640,7 @@
       <c r="AE598" s="58"/>
       <c r="AF598" s="68"/>
     </row>
-    <row r="599" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="64">
         <v>596</v>
       </c>
@@ -55680,7 +55714,7 @@
       <c r="AE599" s="58"/>
       <c r="AF599" s="59"/>
     </row>
-    <row r="600" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="64">
         <v>597</v>
       </c>
@@ -55820,7 +55854,7 @@
       <c r="AE601" s="58"/>
       <c r="AF601" s="59"/>
     </row>
-    <row r="602" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="64">
         <v>599</v>
       </c>
@@ -55900,7 +55934,7 @@
       <c r="AE602" s="58"/>
       <c r="AF602" s="59"/>
     </row>
-    <row r="603" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="64">
         <v>600</v>
       </c>
@@ -56048,7 +56082,7 @@
       <c r="AE604" s="58"/>
       <c r="AF604" s="68"/>
     </row>
-    <row r="605" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="64">
         <v>602</v>
       </c>
@@ -56110,7 +56144,7 @@
       <c r="AE605" s="58"/>
       <c r="AF605" s="69"/>
     </row>
-    <row r="606" spans="1:32" ht="408" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:32" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="64">
         <v>603</v>
       </c>
@@ -56188,7 +56222,7 @@
       <c r="AE606" s="58"/>
       <c r="AF606" s="59"/>
     </row>
-    <row r="607" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="64">
         <v>604</v>
       </c>
@@ -56252,7 +56286,7 @@
       <c r="AE607" s="58"/>
       <c r="AF607" s="59"/>
     </row>
-    <row r="608" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="64">
         <v>605</v>
       </c>
@@ -56318,7 +56352,7 @@
       <c r="AE608" s="58"/>
       <c r="AF608" s="59"/>
     </row>
-    <row r="609" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="64">
         <v>606</v>
       </c>
@@ -56358,7 +56392,9 @@
         <v>58</v>
       </c>
       <c r="Q609" s="52"/>
-      <c r="R609" s="52"/>
+      <c r="R609" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S609" s="52" t="s">
         <v>640</v>
       </c>
@@ -56396,7 +56432,7 @@
       <c r="AE609" s="58"/>
       <c r="AF609" s="68"/>
     </row>
-    <row r="610" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="64">
         <v>607</v>
       </c>
@@ -56438,7 +56474,9 @@
       <c r="Q610" s="52" t="s">
         <v>1892</v>
       </c>
-      <c r="R610" s="52"/>
+      <c r="R610" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S610" s="52" t="s">
         <v>719</v>
       </c>
@@ -56476,7 +56514,7 @@
       <c r="AE610" s="58"/>
       <c r="AF610" s="69"/>
     </row>
-    <row r="611" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="64">
         <v>608</v>
       </c>
@@ -56516,7 +56554,9 @@
       <c r="Q611" s="52" t="s">
         <v>1895</v>
       </c>
-      <c r="R611" s="52"/>
+      <c r="R611" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S611" s="52" t="s">
         <v>748</v>
       </c>
@@ -56554,7 +56594,7 @@
       <c r="AE611" s="58"/>
       <c r="AF611" s="68"/>
     </row>
-    <row r="612" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="64">
         <v>609</v>
       </c>
@@ -56696,7 +56736,7 @@
       <c r="AE613" s="58"/>
       <c r="AF613" s="59"/>
     </row>
-    <row r="614" spans="1:32" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:32" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="64">
         <v>611</v>
       </c>
@@ -56776,7 +56816,7 @@
       <c r="AE614" s="58"/>
       <c r="AF614" s="59"/>
     </row>
-    <row r="615" spans="1:32" ht="216.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:32" ht="216.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="64">
         <v>612</v>
       </c>
@@ -56856,7 +56896,7 @@
       <c r="AE615" s="58"/>
       <c r="AF615" s="68"/>
     </row>
-    <row r="616" spans="1:32" ht="216.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:32" ht="216.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="64">
         <v>613</v>
       </c>
@@ -56928,7 +56968,7 @@
       <c r="AE616" s="58"/>
       <c r="AF616" s="68"/>
     </row>
-    <row r="617" spans="1:32" ht="280.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:32" ht="280.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="64">
         <v>614</v>
       </c>
@@ -57156,7 +57196,7 @@
       <c r="AE619" s="58"/>
       <c r="AF619" s="68"/>
     </row>
-    <row r="620" spans="1:32" ht="229.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:32" ht="229.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="64">
         <v>617</v>
       </c>
@@ -57234,7 +57274,7 @@
       <c r="AE620" s="58"/>
       <c r="AF620" s="68"/>
     </row>
-    <row r="621" spans="1:32" ht="306" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:32" ht="306" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="64">
         <v>618</v>
       </c>
@@ -57314,7 +57354,7 @@
       <c r="AE621" s="58"/>
       <c r="AF621" s="68"/>
     </row>
-    <row r="622" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="64">
         <v>619</v>
       </c>
@@ -57396,7 +57436,7 @@
       <c r="AE622" s="58"/>
       <c r="AF622" s="68"/>
     </row>
-    <row r="623" spans="1:32" ht="204" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:32" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="64">
         <v>620</v>
       </c>
@@ -57552,7 +57592,7 @@
       <c r="AE624" s="58"/>
       <c r="AF624" s="68"/>
     </row>
-    <row r="625" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="64">
         <v>622</v>
       </c>
@@ -57634,7 +57674,7 @@
       <c r="AE625" s="58"/>
       <c r="AF625" s="68"/>
     </row>
-    <row r="626" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="64">
         <v>623</v>
       </c>
@@ -57714,7 +57754,7 @@
       <c r="AE626" s="58"/>
       <c r="AF626" s="68"/>
     </row>
-    <row r="627" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="64">
         <v>624</v>
       </c>
@@ -57796,7 +57836,7 @@
       <c r="AE627" s="58"/>
       <c r="AF627" s="68"/>
     </row>
-    <row r="628" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="64">
         <v>625</v>
       </c>
@@ -57952,7 +57992,7 @@
       <c r="AE629" s="58"/>
       <c r="AF629" s="59"/>
     </row>
-    <row r="630" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="64">
         <v>627</v>
       </c>
@@ -58034,7 +58074,7 @@
       <c r="AE630" s="58"/>
       <c r="AF630" s="68"/>
     </row>
-    <row r="631" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="64">
         <v>628</v>
       </c>
@@ -58102,7 +58142,7 @@
       <c r="AE631" s="58"/>
       <c r="AF631" s="68"/>
     </row>
-    <row r="632" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="64">
         <v>629</v>
       </c>
@@ -58182,7 +58222,7 @@
       <c r="AE632" s="58"/>
       <c r="AF632" s="68"/>
     </row>
-    <row r="633" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="64">
         <v>630</v>
       </c>
@@ -58260,7 +58300,7 @@
       <c r="AE633" s="58"/>
       <c r="AF633" s="68"/>
     </row>
-    <row r="634" spans="1:32" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:32" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="64">
         <v>631</v>
       </c>
@@ -58342,7 +58382,7 @@
       <c r="AE634" s="58"/>
       <c r="AF634" s="68"/>
     </row>
-    <row r="635" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="64">
         <v>632</v>
       </c>
@@ -58422,7 +58462,7 @@
       <c r="AE635" s="58"/>
       <c r="AF635" s="68"/>
     </row>
-    <row r="636" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="64">
         <v>633</v>
       </c>
@@ -58500,7 +58540,7 @@
       <c r="AE636" s="58"/>
       <c r="AF636" s="68"/>
     </row>
-    <row r="637" spans="1:32" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:32" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="64">
         <v>634</v>
       </c>
@@ -58582,7 +58622,7 @@
       <c r="AE637" s="58"/>
       <c r="AF637" s="68"/>
     </row>
-    <row r="638" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="64">
         <v>635</v>
       </c>
@@ -58660,7 +58700,7 @@
       <c r="AE638" s="58"/>
       <c r="AF638" s="68"/>
     </row>
-    <row r="639" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="64">
         <v>636</v>
       </c>
@@ -58802,7 +58842,7 @@
       <c r="AE640" s="58"/>
       <c r="AF640" s="68"/>
     </row>
-    <row r="641" spans="1:32" ht="204" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:32" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="64">
         <v>638</v>
       </c>
@@ -59090,7 +59130,7 @@
       <c r="AE644" s="58"/>
       <c r="AF644" s="68"/>
     </row>
-    <row r="645" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="64">
         <v>642</v>
       </c>
@@ -59156,7 +59196,7 @@
       <c r="AE645" s="58"/>
       <c r="AF645" s="68"/>
     </row>
-    <row r="646" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="64">
         <v>643</v>
       </c>
@@ -59220,7 +59260,7 @@
       <c r="AE646" s="58"/>
       <c r="AF646" s="68"/>
     </row>
-    <row r="647" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="64">
         <v>644</v>
       </c>
@@ -59286,7 +59326,7 @@
       <c r="AE647" s="58"/>
       <c r="AF647" s="68"/>
     </row>
-    <row r="648" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="64">
         <v>645</v>
       </c>
@@ -59366,7 +59406,7 @@
       <c r="AE648" s="58"/>
       <c r="AF648" s="68"/>
     </row>
-    <row r="649" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="64">
         <v>646</v>
       </c>
@@ -59436,7 +59476,7 @@
       <c r="AE649" s="58"/>
       <c r="AF649" s="68"/>
     </row>
-    <row r="650" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="64">
         <v>647</v>
       </c>
@@ -59514,7 +59554,7 @@
       <c r="AE650" s="58"/>
       <c r="AF650" s="68"/>
     </row>
-    <row r="651" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="64">
         <v>648</v>
       </c>
@@ -59590,7 +59630,7 @@
       <c r="AE651" s="58"/>
       <c r="AF651" s="68"/>
     </row>
-    <row r="652" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="64">
         <v>649</v>
       </c>
@@ -59668,7 +59708,7 @@
       <c r="AE652" s="58"/>
       <c r="AF652" s="68"/>
     </row>
-    <row r="653" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="64">
         <v>650</v>
       </c>
@@ -59736,7 +59776,7 @@
       <c r="AE653" s="58"/>
       <c r="AF653" s="68"/>
     </row>
-    <row r="654" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="64">
         <v>651</v>
       </c>
@@ -59816,7 +59856,7 @@
       <c r="AE654" s="58"/>
       <c r="AF654" s="68"/>
     </row>
-    <row r="655" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="64">
         <v>652</v>
       </c>
@@ -59858,7 +59898,9 @@
       <c r="Q655" s="52" t="s">
         <v>2080</v>
       </c>
-      <c r="R655" s="52"/>
+      <c r="R655" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S655" s="52" t="s">
         <v>748</v>
       </c>
@@ -59896,7 +59938,7 @@
       <c r="AE655" s="58"/>
       <c r="AF655" s="68"/>
     </row>
-    <row r="656" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="64">
         <v>653</v>
       </c>
@@ -59960,7 +60002,7 @@
       <c r="AE656" s="58"/>
       <c r="AF656" s="68"/>
     </row>
-    <row r="657" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="64">
         <v>654</v>
       </c>
@@ -60040,7 +60082,7 @@
       <c r="AE657" s="58"/>
       <c r="AF657" s="68"/>
     </row>
-    <row r="658" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="64">
         <v>655</v>
       </c>
@@ -60118,7 +60160,7 @@
       <c r="AE658" s="58"/>
       <c r="AF658" s="68"/>
     </row>
-    <row r="659" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="64">
         <v>656</v>
       </c>
@@ -60326,7 +60368,7 @@
       <c r="AE661" s="58"/>
       <c r="AF661" s="68"/>
     </row>
-    <row r="662" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="64">
         <v>659</v>
       </c>
@@ -60406,7 +60448,7 @@
       <c r="AE662" s="58"/>
       <c r="AF662" s="68"/>
     </row>
-    <row r="663" spans="1:32" ht="165.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:32" ht="165.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="64">
         <v>660</v>
       </c>
@@ -60480,7 +60522,7 @@
       <c r="AE663" s="58"/>
       <c r="AF663" s="59"/>
     </row>
-    <row r="664" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="64">
         <v>661</v>
       </c>
@@ -60556,7 +60598,7 @@
       <c r="AE664" s="58"/>
       <c r="AF664" s="59"/>
     </row>
-    <row r="665" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="64">
         <v>662</v>
       </c>
@@ -60634,7 +60676,7 @@
       <c r="AE665" s="58"/>
       <c r="AF665" s="59"/>
     </row>
-    <row r="666" spans="1:32" ht="191.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:32" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="64">
         <v>663</v>
       </c>
@@ -60710,7 +60752,7 @@
       <c r="AE666" s="58"/>
       <c r="AF666" s="59"/>
     </row>
-    <row r="667" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="64">
         <v>664</v>
       </c>
@@ -60854,7 +60896,7 @@
       <c r="AE668" s="58"/>
       <c r="AF668" s="68"/>
     </row>
-    <row r="669" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="64">
         <v>666</v>
       </c>
@@ -60930,7 +60972,7 @@
       <c r="AE669" s="58"/>
       <c r="AF669" s="69"/>
     </row>
-    <row r="670" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="64">
         <v>667</v>
       </c>
@@ -61136,7 +61178,7 @@
       <c r="AE672" s="58"/>
       <c r="AF672" s="68"/>
     </row>
-    <row r="673" spans="1:32" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:32" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="64">
         <v>670</v>
       </c>
@@ -61212,7 +61254,7 @@
       <c r="AE673" s="58"/>
       <c r="AF673" s="68"/>
     </row>
-    <row r="674" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="64">
         <v>671</v>
       </c>
@@ -61290,7 +61332,7 @@
       <c r="AE674" s="58"/>
       <c r="AF674" s="68"/>
     </row>
-    <row r="675" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="64">
         <v>672</v>
       </c>
@@ -61642,7 +61684,7 @@
       <c r="AE679" s="58"/>
       <c r="AF679" s="68"/>
     </row>
-    <row r="680" spans="1:32" ht="318.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:32" ht="318.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="64">
         <v>677</v>
       </c>
@@ -61790,7 +61832,7 @@
       <c r="AE681" s="58"/>
       <c r="AF681" s="59"/>
     </row>
-    <row r="682" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="64">
         <v>679</v>
       </c>
@@ -61864,7 +61906,7 @@
       <c r="AE682" s="58"/>
       <c r="AF682" s="59"/>
     </row>
-    <row r="683" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="64">
         <v>680</v>
       </c>
@@ -61938,7 +61980,7 @@
       <c r="AE683" s="58"/>
       <c r="AF683" s="59"/>
     </row>
-    <row r="684" spans="1:32" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="64">
         <v>681</v>
       </c>
@@ -62208,7 +62250,7 @@
       <c r="AE687" s="58"/>
       <c r="AF687" s="59"/>
     </row>
-    <row r="688" spans="1:32" ht="293.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:32" ht="293.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="64">
         <v>685</v>
       </c>
@@ -62346,7 +62388,7 @@
       <c r="AE689" s="58"/>
       <c r="AF689" s="59"/>
     </row>
-    <row r="690" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="64">
         <v>687</v>
       </c>
@@ -62414,7 +62456,7 @@
       <c r="AE690" s="58"/>
       <c r="AF690" s="59"/>
     </row>
-    <row r="691" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="64">
         <v>688</v>
       </c>
@@ -62474,7 +62516,7 @@
       <c r="AE691" s="58"/>
       <c r="AF691" s="59"/>
     </row>
-    <row r="692" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="64">
         <v>689</v>
       </c>
@@ -62672,7 +62714,7 @@
       <c r="AE694" s="58"/>
       <c r="AF694" s="59"/>
     </row>
-    <row r="695" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="64">
         <v>692</v>
       </c>
@@ -62744,7 +62786,7 @@
       <c r="AE695" s="58"/>
       <c r="AF695" s="59"/>
     </row>
-    <row r="696" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="64">
         <v>693</v>
       </c>
@@ -62816,7 +62858,7 @@
       <c r="AE696" s="58"/>
       <c r="AF696" s="59"/>
     </row>
-    <row r="697" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="64">
         <v>694</v>
       </c>
@@ -62890,7 +62932,7 @@
       <c r="AE697" s="58"/>
       <c r="AF697" s="59"/>
     </row>
-    <row r="698" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="64">
         <v>695</v>
       </c>
@@ -62964,7 +63006,7 @@
       <c r="AE698" s="58"/>
       <c r="AF698" s="59"/>
     </row>
-    <row r="699" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="64">
         <v>696</v>
       </c>
@@ -63034,7 +63076,7 @@
       <c r="AE699" s="58"/>
       <c r="AF699" s="59"/>
     </row>
-    <row r="700" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="64">
         <v>697</v>
       </c>
@@ -63106,7 +63148,7 @@
       <c r="AE700" s="58"/>
       <c r="AF700" s="59"/>
     </row>
-    <row r="701" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="64">
         <v>698</v>
       </c>
@@ -63176,7 +63218,7 @@
       <c r="AE701" s="58"/>
       <c r="AF701" s="59"/>
     </row>
-    <row r="702" spans="1:32" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:32" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="64">
         <v>699</v>
       </c>
@@ -63248,7 +63290,7 @@
       <c r="AE702" s="58"/>
       <c r="AF702" s="59"/>
     </row>
-    <row r="703" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="64">
         <v>700</v>
       </c>
@@ -63318,7 +63360,7 @@
       <c r="AE703" s="58"/>
       <c r="AF703" s="59"/>
     </row>
-    <row r="704" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="64">
         <v>701</v>
       </c>
@@ -63420,7 +63462,7 @@
       <c r="AE705" s="58"/>
       <c r="AF705" s="58"/>
     </row>
-    <row r="706" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="64">
         <v>703</v>
       </c>
@@ -63474,7 +63516,7 @@
       <c r="AE706" s="58"/>
       <c r="AF706" s="58"/>
     </row>
-    <row r="707" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="64">
         <v>704</v>
       </c>
@@ -63528,7 +63570,7 @@
       <c r="AE707" s="58"/>
       <c r="AF707" s="58"/>
     </row>
-    <row r="708" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="64">
         <v>705</v>
       </c>
@@ -63586,7 +63628,7 @@
       <c r="AE708" s="58"/>
       <c r="AF708" s="58"/>
     </row>
-    <row r="709" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="64">
         <v>706</v>
       </c>
@@ -63642,7 +63684,7 @@
       <c r="AE709" s="58"/>
       <c r="AF709" s="58"/>
     </row>
-    <row r="710" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="64">
         <v>707</v>
       </c>
@@ -63698,7 +63740,7 @@
       <c r="AE710" s="58"/>
       <c r="AF710" s="58"/>
     </row>
-    <row r="711" spans="1:32" ht="100.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:32" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="64">
         <v>708</v>
       </c>
@@ -63753,37 +63795,6 @@
       <c r="AF711" s="58"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AF711">
-    <filterColumn colId="8">
-      <filters blank="1">
-        <filter val="Impl"/>
-        <filter val="Impl-Big"/>
-        <filter val="Methodology"/>
-        <filter val="Non-Impl"/>
-        <filter val="Versioning"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="12">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="13">
-      <filters>
-        <filter val="FHIR-CGIT"/>
-        <filter val="FHIR-Core"/>
-        <filter val="FHIR-FGB"/>
-        <filter val="FHIR-FMG"/>
-        <filter val="FHIR-IHE"/>
-        <filter val="FHIR-ITS"/>
-        <filter val="FHIR-MnM"/>
-        <filter val="FHIR-SD"/>
-        <filter val="FHIR-Security"/>
-        <filter val="FHIR-Tool"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="19">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:K1"/>
@@ -64491,10 +64502,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="218" t="s">
+      <c r="H1" s="179" t="s">
         <v>2256</v>
       </c>
-      <c r="I1" s="218"/>
+      <c r="I1" s="179"/>
     </row>
     <row r="2" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="76" t="s">
@@ -64509,16 +64520,16 @@
       <c r="I2" s="78"/>
     </row>
     <row r="3" spans="2:14" ht="303.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="219" t="s">
+      <c r="B3" s="180" t="s">
         <v>2258</v>
       </c>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="221"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="182"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J4" s="25"/>
@@ -64536,16 +64547,16 @@
       <c r="I5" s="78"/>
     </row>
     <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="201" t="s">
+      <c r="B6" s="183" t="s">
         <v>2260</v>
       </c>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="202"/>
-      <c r="I6" s="203"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="185"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -64555,15 +64566,15 @@
       <c r="B7" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="222" t="s">
+      <c r="C7" s="186" t="s">
         <v>2261</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="223"/>
-      <c r="I7" s="224"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="188"/>
       <c r="J7" s="80"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -64573,15 +64584,15 @@
       <c r="B8" s="81" t="s">
         <v>2262</v>
       </c>
-      <c r="C8" s="225" t="s">
+      <c r="C8" s="189" t="s">
         <v>2263</v>
       </c>
-      <c r="D8" s="225"/>
-      <c r="E8" s="225"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="225"/>
-      <c r="H8" s="225"/>
-      <c r="I8" s="226"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="189"/>
+      <c r="I8" s="190"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -64591,15 +64602,15 @@
       <c r="B9" s="82" t="s">
         <v>2264</v>
       </c>
-      <c r="C9" s="216" t="s">
+      <c r="C9" s="177" t="s">
         <v>2265</v>
       </c>
-      <c r="D9" s="216"/>
-      <c r="E9" s="216"/>
-      <c r="F9" s="216"/>
-      <c r="G9" s="216"/>
-      <c r="H9" s="216"/>
-      <c r="I9" s="217"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="178"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -64610,13 +64621,13 @@
       <c r="C10" s="84" t="s">
         <v>2266</v>
       </c>
-      <c r="D10" s="214" t="s">
+      <c r="D10" s="192" t="s">
         <v>2267</v>
       </c>
       <c r="E10" s="193"/>
       <c r="F10" s="193"/>
       <c r="G10" s="193"/>
-      <c r="H10" s="215"/>
+      <c r="H10" s="194"/>
       <c r="I10" s="85"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -64628,13 +64639,13 @@
       <c r="C11" s="84" t="s">
         <v>2268</v>
       </c>
-      <c r="D11" s="214" t="s">
+      <c r="D11" s="192" t="s">
         <v>2269</v>
       </c>
       <c r="E11" s="193"/>
       <c r="F11" s="193"/>
       <c r="G11" s="193"/>
-      <c r="H11" s="215"/>
+      <c r="H11" s="194"/>
       <c r="I11" s="85"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -64647,13 +64658,13 @@
       <c r="C12" s="84" t="s">
         <v>2270</v>
       </c>
-      <c r="D12" s="214" t="s">
+      <c r="D12" s="192" t="s">
         <v>2271</v>
       </c>
       <c r="E12" s="193"/>
       <c r="F12" s="193"/>
       <c r="G12" s="193"/>
-      <c r="H12" s="215"/>
+      <c r="H12" s="194"/>
       <c r="I12" s="85"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -64665,13 +64676,13 @@
       <c r="C13" s="84" t="s">
         <v>2272</v>
       </c>
-      <c r="D13" s="214" t="s">
+      <c r="D13" s="192" t="s">
         <v>2273</v>
       </c>
       <c r="E13" s="193"/>
       <c r="F13" s="193"/>
       <c r="G13" s="193"/>
-      <c r="H13" s="215"/>
+      <c r="H13" s="194"/>
       <c r="I13" s="85"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -64683,13 +64694,13 @@
       <c r="C14" s="84" t="s">
         <v>2274</v>
       </c>
-      <c r="D14" s="214" t="s">
+      <c r="D14" s="192" t="s">
         <v>2275</v>
       </c>
       <c r="E14" s="193"/>
       <c r="F14" s="193"/>
       <c r="G14" s="193"/>
-      <c r="H14" s="215"/>
+      <c r="H14" s="194"/>
       <c r="I14" s="85"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -64701,13 +64712,13 @@
       <c r="C15" s="84" t="s">
         <v>2276</v>
       </c>
-      <c r="D15" s="214" t="s">
+      <c r="D15" s="192" t="s">
         <v>2277</v>
       </c>
       <c r="E15" s="193"/>
       <c r="F15" s="193"/>
       <c r="G15" s="193"/>
-      <c r="H15" s="215"/>
+      <c r="H15" s="194"/>
       <c r="I15" s="85"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -64719,13 +64730,13 @@
       <c r="C16" s="84" t="s">
         <v>2278</v>
       </c>
-      <c r="D16" s="214" t="s">
+      <c r="D16" s="192" t="s">
         <v>2279</v>
       </c>
       <c r="E16" s="193"/>
       <c r="F16" s="193"/>
       <c r="G16" s="193"/>
-      <c r="H16" s="215"/>
+      <c r="H16" s="194"/>
       <c r="I16" s="85"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -64737,13 +64748,13 @@
       <c r="C17" s="84" t="s">
         <v>2280</v>
       </c>
-      <c r="D17" s="214" t="s">
+      <c r="D17" s="192" t="s">
         <v>2281</v>
       </c>
       <c r="E17" s="193"/>
       <c r="F17" s="193"/>
       <c r="G17" s="193"/>
-      <c r="H17" s="215"/>
+      <c r="H17" s="194"/>
       <c r="I17" s="85"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -64755,13 +64766,13 @@
       <c r="C18" s="84" t="s">
         <v>2282</v>
       </c>
-      <c r="D18" s="214" t="s">
+      <c r="D18" s="192" t="s">
         <v>2283</v>
       </c>
       <c r="E18" s="193"/>
       <c r="F18" s="193"/>
       <c r="G18" s="193"/>
-      <c r="H18" s="215"/>
+      <c r="H18" s="194"/>
       <c r="I18" s="85"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -64786,15 +64797,15 @@
       <c r="B20" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="197" t="s">
+      <c r="C20" s="195" t="s">
         <v>2284</v>
       </c>
-      <c r="D20" s="197"/>
-      <c r="E20" s="197"/>
-      <c r="F20" s="197"/>
-      <c r="G20" s="197"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="198"/>
+      <c r="D20" s="195"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="195"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="195"/>
+      <c r="I20" s="196"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -64812,11 +64823,11 @@
       <c r="F21" s="193"/>
       <c r="G21" s="193"/>
       <c r="H21" s="193"/>
-      <c r="I21" s="194"/>
+      <c r="I21" s="197"/>
       <c r="J21" s="90"/>
-      <c r="K21" s="213"/>
-      <c r="L21" s="213"/>
-      <c r="M21" s="213"/>
+      <c r="K21" s="191"/>
+      <c r="L21" s="191"/>
+      <c r="M21" s="191"/>
     </row>
     <row r="22" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="81" t="s">
@@ -64830,7 +64841,7 @@
       <c r="F22" s="193"/>
       <c r="G22" s="193"/>
       <c r="H22" s="193"/>
-      <c r="I22" s="194"/>
+      <c r="I22" s="197"/>
       <c r="J22" s="90"/>
       <c r="K22" s="91"/>
       <c r="L22" s="91"/>
@@ -64840,45 +64851,45 @@
       <c r="B23" s="81" t="s">
         <v>2288</v>
       </c>
-      <c r="C23" s="195" t="s">
+      <c r="C23" s="200" t="s">
         <v>2289</v>
       </c>
-      <c r="D23" s="195"/>
-      <c r="E23" s="195"/>
-      <c r="F23" s="195"/>
-      <c r="G23" s="195"/>
-      <c r="H23" s="195"/>
-      <c r="I23" s="196"/>
+      <c r="D23" s="200"/>
+      <c r="E23" s="200"/>
+      <c r="F23" s="200"/>
+      <c r="G23" s="200"/>
+      <c r="H23" s="200"/>
+      <c r="I23" s="201"/>
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="197" t="s">
+      <c r="C24" s="195" t="s">
         <v>2290</v>
       </c>
-      <c r="D24" s="197"/>
-      <c r="E24" s="197"/>
-      <c r="F24" s="197"/>
-      <c r="G24" s="197"/>
-      <c r="H24" s="197"/>
-      <c r="I24" s="198"/>
+      <c r="D24" s="195"/>
+      <c r="E24" s="195"/>
+      <c r="F24" s="195"/>
+      <c r="G24" s="195"/>
+      <c r="H24" s="195"/>
+      <c r="I24" s="196"/>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="197" t="s">
+      <c r="C25" s="195" t="s">
         <v>2291</v>
       </c>
-      <c r="D25" s="197"/>
-      <c r="E25" s="197"/>
-      <c r="F25" s="197"/>
-      <c r="G25" s="197"/>
-      <c r="H25" s="197"/>
-      <c r="I25" s="198"/>
+      <c r="D25" s="195"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="195"/>
+      <c r="H25" s="195"/>
+      <c r="I25" s="196"/>
       <c r="J25" s="92"/>
       <c r="M25" s="2"/>
     </row>
@@ -64886,15 +64897,15 @@
       <c r="B26" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="197" t="s">
+      <c r="C26" s="195" t="s">
         <v>2292</v>
       </c>
-      <c r="D26" s="197"/>
-      <c r="E26" s="197"/>
-      <c r="F26" s="197"/>
-      <c r="G26" s="197"/>
-      <c r="H26" s="197"/>
-      <c r="I26" s="198"/>
+      <c r="D26" s="195"/>
+      <c r="E26" s="195"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="195"/>
+      <c r="H26" s="195"/>
+      <c r="I26" s="196"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -64904,28 +64915,28 @@
       <c r="B27" s="93" t="s">
         <v>2293</v>
       </c>
-      <c r="C27" s="199" t="s">
+      <c r="C27" s="202" t="s">
         <v>2294</v>
       </c>
-      <c r="D27" s="199"/>
-      <c r="E27" s="199"/>
-      <c r="F27" s="199"/>
-      <c r="G27" s="199"/>
-      <c r="H27" s="199"/>
-      <c r="I27" s="200"/>
+      <c r="D27" s="202"/>
+      <c r="E27" s="202"/>
+      <c r="F27" s="202"/>
+      <c r="G27" s="202"/>
+      <c r="H27" s="202"/>
+      <c r="I27" s="203"/>
       <c r="J27" s="25"/>
     </row>
     <row r="28" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="201" t="s">
+      <c r="B28" s="183" t="s">
         <v>2295</v>
       </c>
-      <c r="C28" s="202"/>
-      <c r="D28" s="202"/>
-      <c r="E28" s="202"/>
-      <c r="F28" s="202"/>
-      <c r="G28" s="202"/>
-      <c r="H28" s="202"/>
-      <c r="I28" s="203"/>
+      <c r="C28" s="184"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="185"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -64989,15 +65000,15 @@
       <c r="B32" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="191" t="s">
+      <c r="C32" s="198" t="s">
         <v>2301</v>
       </c>
-      <c r="D32" s="191"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="191"/>
-      <c r="G32" s="191"/>
-      <c r="H32" s="191"/>
-      <c r="I32" s="192"/>
+      <c r="D32" s="198"/>
+      <c r="E32" s="198"/>
+      <c r="F32" s="198"/>
+      <c r="G32" s="198"/>
+      <c r="H32" s="198"/>
+      <c r="I32" s="199"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -65007,15 +65018,15 @@
       <c r="B33" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="191" t="s">
+      <c r="C33" s="198" t="s">
         <v>2302</v>
       </c>
-      <c r="D33" s="191"/>
-      <c r="E33" s="191"/>
-      <c r="F33" s="191"/>
-      <c r="G33" s="191"/>
-      <c r="H33" s="191"/>
-      <c r="I33" s="192"/>
+      <c r="D33" s="198"/>
+      <c r="E33" s="198"/>
+      <c r="F33" s="198"/>
+      <c r="G33" s="198"/>
+      <c r="H33" s="198"/>
+      <c r="I33" s="199"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -65025,15 +65036,15 @@
       <c r="B34" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="180" t="s">
+      <c r="C34" s="216" t="s">
         <v>2303</v>
       </c>
-      <c r="D34" s="180"/>
-      <c r="E34" s="180"/>
-      <c r="F34" s="180"/>
-      <c r="G34" s="180"/>
-      <c r="H34" s="180"/>
-      <c r="I34" s="181"/>
+      <c r="D34" s="216"/>
+      <c r="E34" s="216"/>
+      <c r="F34" s="216"/>
+      <c r="G34" s="216"/>
+      <c r="H34" s="216"/>
+      <c r="I34" s="217"/>
       <c r="J34" s="2"/>
       <c r="K34" s="91"/>
       <c r="L34" s="91"/>
@@ -65043,15 +65054,15 @@
       <c r="B35" s="97" t="s">
         <v>2304</v>
       </c>
-      <c r="C35" s="180" t="s">
+      <c r="C35" s="216" t="s">
         <v>2305</v>
       </c>
-      <c r="D35" s="180"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="180"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="180"/>
-      <c r="I35" s="181"/>
+      <c r="D35" s="216"/>
+      <c r="E35" s="216"/>
+      <c r="F35" s="216"/>
+      <c r="G35" s="216"/>
+      <c r="H35" s="216"/>
+      <c r="I35" s="217"/>
       <c r="J35" s="2"/>
       <c r="K35" s="91"/>
       <c r="L35" s="91"/>
@@ -65061,15 +65072,15 @@
       <c r="B36" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="180" t="s">
+      <c r="C36" s="216" t="s">
         <v>2306</v>
       </c>
-      <c r="D36" s="180"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="180"/>
-      <c r="G36" s="180"/>
-      <c r="H36" s="180"/>
-      <c r="I36" s="181"/>
+      <c r="D36" s="216"/>
+      <c r="E36" s="216"/>
+      <c r="F36" s="216"/>
+      <c r="G36" s="216"/>
+      <c r="H36" s="216"/>
+      <c r="I36" s="217"/>
       <c r="J36" s="2"/>
       <c r="K36" s="91"/>
       <c r="L36" s="91"/>
@@ -65079,15 +65090,15 @@
       <c r="B37" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="180" t="s">
+      <c r="C37" s="216" t="s">
         <v>2307</v>
       </c>
-      <c r="D37" s="180"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="180"/>
-      <c r="G37" s="180"/>
-      <c r="H37" s="180"/>
-      <c r="I37" s="181"/>
+      <c r="D37" s="216"/>
+      <c r="E37" s="216"/>
+      <c r="F37" s="216"/>
+      <c r="G37" s="216"/>
+      <c r="H37" s="216"/>
+      <c r="I37" s="217"/>
       <c r="J37" s="2"/>
       <c r="K37" s="91"/>
       <c r="L37" s="91"/>
@@ -65097,122 +65108,140 @@
       <c r="B38" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="182" t="s">
+      <c r="C38" s="218" t="s">
         <v>2308</v>
       </c>
-      <c r="D38" s="183"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="183"/>
-      <c r="G38" s="183"/>
-      <c r="H38" s="183"/>
-      <c r="I38" s="184"/>
+      <c r="D38" s="219"/>
+      <c r="E38" s="219"/>
+      <c r="F38" s="219"/>
+      <c r="G38" s="219"/>
+      <c r="H38" s="219"/>
+      <c r="I38" s="220"/>
     </row>
     <row r="39" spans="2:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="182" t="s">
+      <c r="C39" s="218" t="s">
         <v>2309</v>
       </c>
-      <c r="D39" s="183"/>
-      <c r="E39" s="183"/>
-      <c r="F39" s="183"/>
-      <c r="G39" s="183"/>
-      <c r="H39" s="183"/>
-      <c r="I39" s="184"/>
+      <c r="D39" s="219"/>
+      <c r="E39" s="219"/>
+      <c r="F39" s="219"/>
+      <c r="G39" s="219"/>
+      <c r="H39" s="219"/>
+      <c r="I39" s="220"/>
     </row>
     <row r="40" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="101" t="s">
         <v>2310</v>
       </c>
-      <c r="C40" s="185" t="s">
+      <c r="C40" s="221" t="s">
         <v>2311</v>
       </c>
-      <c r="D40" s="186"/>
-      <c r="E40" s="186"/>
-      <c r="F40" s="186"/>
-      <c r="G40" s="186"/>
-      <c r="H40" s="186"/>
-      <c r="I40" s="187"/>
+      <c r="D40" s="222"/>
+      <c r="E40" s="222"/>
+      <c r="F40" s="222"/>
+      <c r="G40" s="222"/>
+      <c r="H40" s="222"/>
+      <c r="I40" s="223"/>
     </row>
     <row r="41" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="102" t="s">
         <v>2312</v>
       </c>
-      <c r="C41" s="188" t="s">
+      <c r="C41" s="224" t="s">
         <v>2313</v>
       </c>
-      <c r="D41" s="186"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="186"/>
-      <c r="G41" s="186"/>
-      <c r="H41" s="186"/>
-      <c r="I41" s="187"/>
+      <c r="D41" s="222"/>
+      <c r="E41" s="222"/>
+      <c r="F41" s="222"/>
+      <c r="G41" s="222"/>
+      <c r="H41" s="222"/>
+      <c r="I41" s="223"/>
     </row>
     <row r="42" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="103" t="s">
         <v>2314</v>
       </c>
-      <c r="C42" s="189" t="s">
+      <c r="C42" s="225" t="s">
         <v>2315</v>
       </c>
-      <c r="D42" s="189"/>
-      <c r="E42" s="189"/>
-      <c r="F42" s="189"/>
-      <c r="G42" s="189"/>
-      <c r="H42" s="189"/>
-      <c r="I42" s="190"/>
+      <c r="D42" s="225"/>
+      <c r="E42" s="225"/>
+      <c r="F42" s="225"/>
+      <c r="G42" s="225"/>
+      <c r="H42" s="225"/>
+      <c r="I42" s="226"/>
     </row>
     <row r="43" spans="2:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="177" t="s">
+      <c r="C43" s="213" t="s">
         <v>2316</v>
       </c>
-      <c r="D43" s="178"/>
-      <c r="E43" s="178"/>
-      <c r="F43" s="178"/>
-      <c r="G43" s="178"/>
-      <c r="H43" s="178"/>
-      <c r="I43" s="179"/>
+      <c r="D43" s="214"/>
+      <c r="E43" s="214"/>
+      <c r="F43" s="214"/>
+      <c r="G43" s="214"/>
+      <c r="H43" s="214"/>
+      <c r="I43" s="215"/>
     </row>
     <row r="44" spans="2:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="177" t="s">
+      <c r="C44" s="213" t="s">
         <v>2317</v>
       </c>
-      <c r="D44" s="178"/>
-      <c r="E44" s="178"/>
-      <c r="F44" s="178"/>
-      <c r="G44" s="178"/>
-      <c r="H44" s="178"/>
-      <c r="I44" s="179"/>
+      <c r="D44" s="214"/>
+      <c r="E44" s="214"/>
+      <c r="F44" s="214"/>
+      <c r="G44" s="214"/>
+      <c r="H44" s="214"/>
+      <c r="I44" s="215"/>
     </row>
     <row r="45" spans="2:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="177" t="s">
+      <c r="C45" s="213" t="s">
         <v>2318</v>
       </c>
-      <c r="D45" s="178"/>
-      <c r="E45" s="178"/>
-      <c r="F45" s="178"/>
-      <c r="G45" s="178"/>
-      <c r="H45" s="178"/>
-      <c r="I45" s="179"/>
+      <c r="D45" s="214"/>
+      <c r="E45" s="214"/>
+      <c r="F45" s="214"/>
+      <c r="G45" s="214"/>
+      <c r="H45" s="214"/>
+      <c r="I45" s="215"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="C36:I36"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C32:I32"/>
     <mergeCell ref="K21:M21"/>
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D11:H11"/>
@@ -65225,30 +65254,12 @@
     <mergeCell ref="D18:H18"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="C36:I36"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C38:I38"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H1" location="Ballot!A1" display="Ballot!A1"/>
@@ -66988,7 +66999,7 @@
       <c r="A3" s="231" t="s">
         <v>2327</v>
       </c>
-      <c r="B3" s="233" t="s">
+      <c r="B3" s="234" t="s">
         <v>2328</v>
       </c>
       <c r="C3" s="125" t="s">
@@ -67003,7 +67014,7 @@
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="232"/>
-      <c r="B4" s="234"/>
+      <c r="B4" s="235"/>
       <c r="C4" s="125" t="s">
         <v>2332</v>
       </c>
@@ -67016,7 +67027,7 @@
     </row>
     <row r="5" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="232"/>
-      <c r="B5" s="234"/>
+      <c r="B5" s="235"/>
       <c r="C5" s="125" t="s">
         <v>2335</v>
       </c>
@@ -67029,7 +67040,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="232"/>
-      <c r="B6" s="234"/>
+      <c r="B6" s="235"/>
       <c r="C6" s="125" t="s">
         <v>2337</v>
       </c>
@@ -67042,7 +67053,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="232"/>
-      <c r="B7" s="234"/>
+      <c r="B7" s="235"/>
       <c r="C7" s="125" t="s">
         <v>2276</v>
       </c>
@@ -67055,7 +67066,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="232"/>
-      <c r="B8" s="234"/>
+      <c r="B8" s="235"/>
       <c r="C8" s="125" t="s">
         <v>2340</v>
       </c>
@@ -67068,7 +67079,7 @@
     </row>
     <row r="9" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="232"/>
-      <c r="B9" s="234"/>
+      <c r="B9" s="235"/>
       <c r="C9" s="125" t="s">
         <v>2343</v>
       </c>
@@ -67081,7 +67092,7 @@
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="232"/>
-      <c r="B10" s="234"/>
+      <c r="B10" s="235"/>
       <c r="C10" s="125" t="s">
         <v>2345</v>
       </c>
@@ -67093,8 +67104,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="239"/>
-      <c r="B11" s="235"/>
+      <c r="A11" s="233"/>
+      <c r="B11" s="236"/>
       <c r="C11" s="125" t="s">
         <v>2348</v>
       </c>
@@ -67261,7 +67272,7 @@
       <c r="A26" s="231" t="s">
         <v>2373</v>
       </c>
-      <c r="B26" s="233" t="s">
+      <c r="B26" s="234" t="s">
         <v>2374</v>
       </c>
       <c r="C26" s="125" t="s">
@@ -67276,7 +67287,7 @@
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="232"/>
-      <c r="B27" s="234"/>
+      <c r="B27" s="235"/>
       <c r="C27" s="132" t="s">
         <v>2377</v>
       </c>
@@ -67289,7 +67300,7 @@
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="232"/>
-      <c r="B28" s="234"/>
+      <c r="B28" s="235"/>
       <c r="C28" s="132" t="s">
         <v>2379</v>
       </c>
@@ -67302,7 +67313,7 @@
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="232"/>
-      <c r="B29" s="234"/>
+      <c r="B29" s="235"/>
       <c r="C29" s="132" t="s">
         <v>2381</v>
       </c>
@@ -67315,7 +67326,7 @@
     </row>
     <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="232"/>
-      <c r="B30" s="234"/>
+      <c r="B30" s="235"/>
       <c r="C30" s="132" t="s">
         <v>2383</v>
       </c>
@@ -67501,7 +67512,7 @@
       <c r="A46" s="231" t="s">
         <v>638</v>
       </c>
-      <c r="B46" s="236" t="s">
+      <c r="B46" s="237" t="s">
         <v>2408</v>
       </c>
       <c r="C46" s="125" t="s">
@@ -67516,7 +67527,7 @@
     </row>
     <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="232"/>
-      <c r="B47" s="237"/>
+      <c r="B47" s="238"/>
       <c r="C47" s="125" t="s">
         <v>2410</v>
       </c>
@@ -67529,7 +67540,7 @@
     </row>
     <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="232"/>
-      <c r="B48" s="238"/>
+      <c r="B48" s="239"/>
       <c r="C48" s="125" t="s">
         <v>2412</v>
       </c>
@@ -67593,7 +67604,7 @@
       <c r="A54" s="231" t="s">
         <v>2420</v>
       </c>
-      <c r="B54" s="233" t="s">
+      <c r="B54" s="234" t="s">
         <v>2421</v>
       </c>
       <c r="C54" s="125" t="s">
@@ -67608,7 +67619,7 @@
     </row>
     <row r="55" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="232"/>
-      <c r="B55" s="234"/>
+      <c r="B55" s="235"/>
       <c r="C55" s="125" t="s">
         <v>2424</v>
       </c>
@@ -67621,7 +67632,7 @@
     </row>
     <row r="56" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="232"/>
-      <c r="B56" s="235"/>
+      <c r="B56" s="236"/>
       <c r="C56" s="125" t="s">
         <v>2426</v>
       </c>
@@ -67823,18 +67834,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="B34:B43"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="B66:B67"/>
     <mergeCell ref="A69:A70"/>
@@ -67845,6 +67844,18 @@
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="B34:B43"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/ballots/2013-01 Draft/Comments-FHIR_R1_O2_2013JAN.xlsx
+++ b/ballots/2013-01 Draft/Comments-FHIR_R1_O2_2013JAN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-765" yWindow="-90" windowWidth="29040" windowHeight="12615" tabRatio="825" activeTab="1"/>
+    <workbookView xWindow="-765" yWindow="-30" windowWidth="29040" windowHeight="12555" tabRatio="825" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Submitter" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11083" uniqueCount="2513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11094" uniqueCount="2518">
   <si>
     <t xml:space="preserve">BALLOT TITLE: </t>
   </si>
@@ -8875,9 +8875,6 @@
   </si>
   <si>
     <t>Not Persausive</t>
-  </si>
-  <si>
-    <t>The exchange format is not intended for human consumption. Adding this parameter increases the load on server configurations etc without adding value</t>
   </si>
   <si>
     <r>
@@ -10129,6 +10126,24 @@
   </si>
   <si>
     <t>Lloyd/Laura</t>
+  </si>
+  <si>
+    <t>Austin/Jean</t>
+  </si>
+  <si>
+    <t>Jean/Andy</t>
+  </si>
+  <si>
+    <t>Andy/Austin</t>
+  </si>
+  <si>
+    <t>The exchange format is not intended for human consumption. Adding this parameter increases the load on server configurations etc without adding value.  Software developers can use free formatting tools.</t>
+  </si>
+  <si>
+    <t>Andy/Jean</t>
+  </si>
+  <si>
+    <t>Jean/Austin</t>
   </si>
 </sst>
 </file>
@@ -11888,23 +11903,8 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="19" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -11912,14 +11912,14 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -11932,6 +11932,12 @@
     <xf numFmtId="49" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -11957,23 +11963,32 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="19" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -11989,114 +12004,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="42" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -12140,6 +12047,114 @@
     <xf numFmtId="0" fontId="22" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="42" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -12156,9 +12171,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12178,6 +12190,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -12557,20 +12572,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:99" ht="45.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="152"/>
+      <c r="A1" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="148"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="153" t="s">
+      <c r="F1" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="155"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="171"/>
       <c r="K1" s="4"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -12578,12 +12593,12 @@
       <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:99" x14ac:dyDescent="0.2">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="148"/>
       <c r="E2" s="3"/>
       <c r="F2" s="6" t="s">
         <v>3</v>
@@ -12599,20 +12614,20 @@
       <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:99" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="147"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="165"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="156" t="s">
+      <c r="F3" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="158"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="154"/>
       <c r="K3" s="10"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -12620,18 +12635,18 @@
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:99" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="147"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="165"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="150"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="168"/>
       <c r="K4" s="10"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -12639,18 +12654,18 @@
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:99" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="159" t="s">
+      <c r="A5" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="159"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="160"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="158"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="158"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="154"/>
       <c r="K5" s="10"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -12658,18 +12673,18 @@
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:99" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="162"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="160"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="158"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="154"/>
       <c r="K6" s="10"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -12677,18 +12692,18 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="152"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="148"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="165"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="163"/>
       <c r="K7" s="4"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
@@ -12698,18 +12713,18 @@
       <c r="CU7" s="16"/>
     </row>
     <row r="8" spans="1:99" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="151" t="s">
+      <c r="A8" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="151"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="152"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="148"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="169"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="151"/>
       <c r="K8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -12717,18 +12732,18 @@
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:99" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="151" t="s">
+      <c r="A9" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="151"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="152"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="148"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="158"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="154"/>
       <c r="K9" s="18"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
@@ -12736,19 +12751,19 @@
       <c r="P9" s="19"/>
     </row>
     <row r="10" spans="1:99" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="170">
+      <c r="A10" s="155">
         <f>IF(Ov=Setup!C9,Disclaimer2,IF(Ov=Setup!B9,Disclaimer,IF(Ov=Setup!D9,,)))</f>
         <v>0</v>
       </c>
-      <c r="B10" s="170"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
     </row>
     <row r="11" spans="1:99" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F11" s="20" t="s">
@@ -12768,12 +12783,12 @@
       <c r="F21" s="24"/>
     </row>
     <row r="23" spans="6:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
     </row>
     <row r="24" spans="6:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="166"/>
-      <c r="G24" s="166"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F25" s="25"/>
@@ -12781,6 +12796,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:J7"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="F8:J8"/>
@@ -12788,19 +12816,6 @@
     <mergeCell ref="F9:J9"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:J3"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Organization You Represent" prompt="Please put the name of the HL7 member organization you represent if it is different from the name of the organization you are employed by.  " sqref="F6"/>
@@ -12826,11 +12841,11 @@
   <sheetPr codeName="Sheet2" filterMode="1"/>
   <dimension ref="A1:AF711"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E60" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="K18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G63" sqref="G63"/>
+      <selection pane="bottomRight" activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13215,7 +13230,7 @@
         <v>72</v>
       </c>
       <c r="S5" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T5" s="53">
         <v>5</v>
@@ -13293,7 +13308,7 @@
         <v>72</v>
       </c>
       <c r="S6" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T6" s="53">
         <v>5</v>
@@ -13373,7 +13388,7 @@
         <v>72</v>
       </c>
       <c r="S7" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T7" s="53">
         <v>5</v>
@@ -13453,7 +13468,7 @@
         <v>72</v>
       </c>
       <c r="S8" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T8" s="53">
         <v>5</v>
@@ -13529,7 +13544,7 @@
         <v>72</v>
       </c>
       <c r="S9" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T9" s="53">
         <v>5</v>
@@ -13607,7 +13622,7 @@
         <v>72</v>
       </c>
       <c r="S10" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T10" s="53">
         <v>5</v>
@@ -13687,7 +13702,7 @@
         <v>72</v>
       </c>
       <c r="S11" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T11" s="53">
         <v>5</v>
@@ -13765,7 +13780,7 @@
       </c>
       <c r="R12" s="52"/>
       <c r="S12" s="52" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="T12" s="53">
         <v>3</v>
@@ -13843,7 +13858,7 @@
         <v>72</v>
       </c>
       <c r="S13" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T13" s="53">
         <v>5</v>
@@ -13923,7 +13938,7 @@
         <v>72</v>
       </c>
       <c r="S14" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T14" s="53">
         <v>5</v>
@@ -14003,7 +14018,7 @@
         <v>72</v>
       </c>
       <c r="S15" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T15" s="53">
         <v>5</v>
@@ -14073,7 +14088,7 @@
         <v>80</v>
       </c>
       <c r="O16" s="50" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="P16" s="52" t="s">
         <v>131</v>
@@ -14157,7 +14172,7 @@
         <v>72</v>
       </c>
       <c r="S17" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T17" s="53">
         <v>5</v>
@@ -14307,7 +14322,7 @@
         <v>72</v>
       </c>
       <c r="S19" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T19" s="53">
         <v>5</v>
@@ -14387,7 +14402,7 @@
         <v>150</v>
       </c>
       <c r="S20" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T20" s="53">
         <v>5</v>
@@ -14603,7 +14618,7 @@
         <v>72</v>
       </c>
       <c r="S23" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T23" s="53">
         <v>5</v>
@@ -14677,7 +14692,7 @@
         <v>72</v>
       </c>
       <c r="S24" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T24" s="53">
         <v>5</v>
@@ -14753,7 +14768,7 @@
         <v>72</v>
       </c>
       <c r="S25" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T25" s="53">
         <v>5</v>
@@ -14831,7 +14846,7 @@
         <v>72</v>
       </c>
       <c r="S26" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T26" s="53">
         <v>5</v>
@@ -14979,7 +14994,7 @@
         <v>72</v>
       </c>
       <c r="S28" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T28" s="53">
         <v>5</v>
@@ -15057,7 +15072,7 @@
         <v>72</v>
       </c>
       <c r="S29" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T29" s="53">
         <v>5</v>
@@ -15135,7 +15150,7 @@
         <v>150</v>
       </c>
       <c r="S30" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T30" s="53">
         <v>5</v>
@@ -15209,7 +15224,7 @@
         <v>72</v>
       </c>
       <c r="S31" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T31" s="53">
         <v>5</v>
@@ -15287,7 +15302,7 @@
         <v>150</v>
       </c>
       <c r="S32" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T32" s="53">
         <v>5</v>
@@ -15591,7 +15606,7 @@
       </c>
       <c r="R36" s="52"/>
       <c r="S36" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T36" s="53">
         <v>5</v>
@@ -15646,7 +15661,7 @@
         <v>85</v>
       </c>
       <c r="J37" s="50" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="K37" s="50"/>
       <c r="L37" s="52" t="s">
@@ -15667,7 +15682,7 @@
       </c>
       <c r="R37" s="52"/>
       <c r="S37" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T37" s="53">
         <v>5</v>
@@ -15741,7 +15756,7 @@
         <v>292</v>
       </c>
       <c r="S38" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T38" s="53">
         <v>5</v>
@@ -15794,7 +15809,7 @@
       <c r="H39" s="49"/>
       <c r="I39" s="50"/>
       <c r="J39" s="50" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="K39" s="50" t="s">
         <v>195</v>
@@ -15891,7 +15906,7 @@
         <v>72</v>
       </c>
       <c r="S40" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T40" s="53">
         <v>5</v>
@@ -15965,7 +15980,7 @@
         <v>72</v>
       </c>
       <c r="S41" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T41" s="53">
         <v>5</v>
@@ -16039,7 +16054,7 @@
         <v>72</v>
       </c>
       <c r="S42" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T42" s="53">
         <v>5</v>
@@ -16117,7 +16132,7 @@
         <v>72</v>
       </c>
       <c r="S43" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T43" s="53">
         <v>5</v>
@@ -16353,7 +16368,7 @@
         <v>150</v>
       </c>
       <c r="S46" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T46" s="53">
         <v>5</v>
@@ -16429,7 +16444,7 @@
         <v>72</v>
       </c>
       <c r="S47" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T47" s="53">
         <v>5</v>
@@ -16509,7 +16524,7 @@
         <v>150</v>
       </c>
       <c r="S48" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T48" s="53">
         <v>5</v>
@@ -16585,7 +16600,7 @@
         <v>72</v>
       </c>
       <c r="S49" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T49" s="53">
         <v>5</v>
@@ -16665,7 +16680,7 @@
         <v>72</v>
       </c>
       <c r="S50" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T50" s="53">
         <v>5</v>
@@ -16893,7 +16908,7 @@
         <v>150</v>
       </c>
       <c r="S53" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T53" s="53">
         <v>5</v>
@@ -17123,7 +17138,7 @@
       </c>
       <c r="R56" s="52"/>
       <c r="S56" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T56" s="53">
         <v>5</v>
@@ -17197,7 +17212,7 @@
       </c>
       <c r="R57" s="52"/>
       <c r="S57" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T57" s="53">
         <v>5</v>
@@ -17349,7 +17364,7 @@
       </c>
       <c r="R59" s="52"/>
       <c r="S59" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T59" s="53">
         <v>5</v>
@@ -17381,7 +17396,7 @@
       <c r="AE59" s="58"/>
       <c r="AF59" s="59"/>
     </row>
-    <row r="60" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="45">
         <v>58</v>
       </c>
@@ -17406,8 +17421,8 @@
         <v>68</v>
       </c>
       <c r="J60" s="50"/>
-      <c r="K60" s="50" t="s">
-        <v>274</v>
+      <c r="K60" s="51">
+        <v>41388</v>
       </c>
       <c r="L60" s="52" t="s">
         <v>55</v>
@@ -17417,7 +17432,7 @@
         <v>275</v>
       </c>
       <c r="O60" s="50" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="P60" s="52" t="s">
         <v>70</v>
@@ -17428,10 +17443,18 @@
       <c r="R60" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="S60" s="52"/>
-      <c r="T60" s="53"/>
-      <c r="U60" s="53"/>
-      <c r="V60" s="53"/>
+      <c r="S60" s="52" t="s">
+        <v>2517</v>
+      </c>
+      <c r="T60" s="53">
+        <v>3</v>
+      </c>
+      <c r="U60" s="53">
+        <v>0</v>
+      </c>
+      <c r="V60" s="53">
+        <v>0</v>
+      </c>
       <c r="W60" s="52"/>
       <c r="X60" s="52"/>
       <c r="Y60" s="54" t="s">
@@ -17501,7 +17524,7 @@
         <v>72</v>
       </c>
       <c r="S61" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T61" s="53">
         <v>5</v>
@@ -17569,7 +17592,7 @@
         <v>275</v>
       </c>
       <c r="O62" s="50" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="P62" s="52" t="s">
         <v>70</v>
@@ -17578,10 +17601,10 @@
         <v>308</v>
       </c>
       <c r="R62" s="52" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="S62" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T62" s="53">
         <v>5</v>
@@ -17787,7 +17810,7 @@
         <v>72</v>
       </c>
       <c r="S65" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T65" s="53">
         <v>5</v>
@@ -17861,7 +17884,7 @@
       </c>
       <c r="R66" s="52"/>
       <c r="S66" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T66" s="53">
         <v>5</v>
@@ -17937,7 +17960,7 @@
       </c>
       <c r="R67" s="52"/>
       <c r="S67" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T67" s="53">
         <v>5</v>
@@ -18013,7 +18036,7 @@
       </c>
       <c r="R68" s="52"/>
       <c r="S68" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T68" s="53">
         <v>5</v>
@@ -18091,7 +18114,7 @@
         <v>72</v>
       </c>
       <c r="S69" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T69" s="53">
         <v>5</v>
@@ -18167,7 +18190,7 @@
       </c>
       <c r="R70" s="52"/>
       <c r="S70" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T70" s="53">
         <v>5</v>
@@ -18235,7 +18258,7 @@
         <v>275</v>
       </c>
       <c r="O71" s="50" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="P71" s="52" t="s">
         <v>70</v>
@@ -18245,7 +18268,7 @@
         <v>72</v>
       </c>
       <c r="S71" s="52" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="T71" s="53">
         <v>3</v>
@@ -18323,7 +18346,7 @@
         <v>72</v>
       </c>
       <c r="S72" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T72" s="53">
         <v>5</v>
@@ -18399,7 +18422,7 @@
       </c>
       <c r="R73" s="52"/>
       <c r="S73" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T73" s="53">
         <v>5</v>
@@ -18465,7 +18488,7 @@
         <v>275</v>
       </c>
       <c r="O74" s="50" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="P74" s="52" t="s">
         <v>70</v>
@@ -18551,7 +18574,7 @@
       </c>
       <c r="R75" s="52"/>
       <c r="S75" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T75" s="53">
         <v>5</v>
@@ -18627,7 +18650,7 @@
         <v>72</v>
       </c>
       <c r="S76" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T76" s="53">
         <v>5</v>
@@ -18707,7 +18730,7 @@
         <v>72</v>
       </c>
       <c r="S77" s="52" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="T77" s="53">
         <v>3</v>
@@ -18867,7 +18890,7 @@
         <v>72</v>
       </c>
       <c r="S79" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T79" s="53">
         <v>5</v>
@@ -19023,7 +19046,7 @@
         <v>72</v>
       </c>
       <c r="S81" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T81" s="53">
         <v>5</v>
@@ -19101,7 +19124,7 @@
         <v>72</v>
       </c>
       <c r="S82" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T82" s="53">
         <v>5</v>
@@ -19179,7 +19202,7 @@
         <v>72</v>
       </c>
       <c r="S83" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T83" s="53">
         <v>5</v>
@@ -19259,7 +19282,7 @@
         <v>72</v>
       </c>
       <c r="S84" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T84" s="53">
         <v>5</v>
@@ -19339,7 +19362,7 @@
         <v>72</v>
       </c>
       <c r="S85" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T85" s="53">
         <v>5</v>
@@ -19417,7 +19440,7 @@
         <v>72</v>
       </c>
       <c r="S86" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T86" s="53">
         <v>5</v>
@@ -19575,7 +19598,7 @@
         <v>150</v>
       </c>
       <c r="S88" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T88" s="53">
         <v>5</v>
@@ -19652,7 +19675,7 @@
         <v>406</v>
       </c>
       <c r="R89" s="52" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="S89" s="52" t="s">
         <v>407</v>
@@ -19731,7 +19754,7 @@
         <v>72</v>
       </c>
       <c r="S90" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T90" s="53">
         <v>5</v>
@@ -19807,7 +19830,7 @@
         <v>72</v>
       </c>
       <c r="S91" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T91" s="53">
         <v>5</v>
@@ -19889,7 +19912,7 @@
         <v>72</v>
       </c>
       <c r="S92" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T92" s="53">
         <v>5</v>
@@ -19967,7 +19990,7 @@
         <v>72</v>
       </c>
       <c r="S93" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T93" s="53">
         <v>5</v>
@@ -20047,7 +20070,7 @@
         <v>72</v>
       </c>
       <c r="S94" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T94" s="53">
         <v>5</v>
@@ -20209,7 +20232,7 @@
         <v>292</v>
       </c>
       <c r="S96" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T96" s="53">
         <v>5</v>
@@ -20289,7 +20312,7 @@
         <v>292</v>
       </c>
       <c r="S97" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T97" s="53">
         <v>5</v>
@@ -20367,7 +20390,7 @@
         <v>72</v>
       </c>
       <c r="S98" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T98" s="53">
         <v>5</v>
@@ -20445,7 +20468,7 @@
         <v>72</v>
       </c>
       <c r="S99" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T99" s="53">
         <v>5</v>
@@ -20525,7 +20548,7 @@
         <v>150</v>
       </c>
       <c r="S100" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T100" s="53">
         <v>5</v>
@@ -20751,7 +20774,7 @@
         <v>72</v>
       </c>
       <c r="S103" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T103" s="53">
         <v>5</v>
@@ -20831,7 +20854,7 @@
         <v>72</v>
       </c>
       <c r="S104" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T104" s="53">
         <v>5</v>
@@ -20909,7 +20932,7 @@
         <v>72</v>
       </c>
       <c r="S105" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T105" s="53">
         <v>5</v>
@@ -20989,7 +21012,7 @@
         <v>72</v>
       </c>
       <c r="S106" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T106" s="53">
         <v>5</v>
@@ -21065,7 +21088,7 @@
         <v>72</v>
       </c>
       <c r="S107" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T107" s="53">
         <v>5</v>
@@ -21143,7 +21166,7 @@
         <v>72</v>
       </c>
       <c r="S108" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T108" s="53">
         <v>5</v>
@@ -21223,7 +21246,7 @@
         <v>150</v>
       </c>
       <c r="S109" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T109" s="53">
         <v>5</v>
@@ -21301,7 +21324,7 @@
         <v>72</v>
       </c>
       <c r="S110" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T110" s="53">
         <v>5</v>
@@ -21375,7 +21398,7 @@
       </c>
       <c r="R111" s="52"/>
       <c r="S111" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T111" s="53">
         <v>5</v>
@@ -21430,7 +21453,7 @@
         <v>85</v>
       </c>
       <c r="J112" s="50" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="K112" s="50"/>
       <c r="L112" s="52" t="s">
@@ -21451,7 +21474,7 @@
       </c>
       <c r="R112" s="52"/>
       <c r="S112" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T112" s="53">
         <v>5</v>
@@ -21506,7 +21529,7 @@
         <v>79</v>
       </c>
       <c r="J113" s="50" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="K113" s="50"/>
       <c r="L113" s="52" t="s">
@@ -21527,7 +21550,7 @@
       </c>
       <c r="R113" s="52"/>
       <c r="S113" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T113" s="53">
         <v>5</v>
@@ -21757,7 +21780,7 @@
       </c>
       <c r="R116" s="52"/>
       <c r="S116" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T116" s="53">
         <v>5</v>
@@ -21837,7 +21860,7 @@
         <v>150</v>
       </c>
       <c r="S117" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T117" s="53">
         <v>5</v>
@@ -21917,7 +21940,7 @@
         <v>150</v>
       </c>
       <c r="S118" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T118" s="53">
         <v>5</v>
@@ -22075,7 +22098,7 @@
         <v>72</v>
       </c>
       <c r="S120" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T120" s="53">
         <v>5</v>
@@ -22153,7 +22176,7 @@
       </c>
       <c r="R121" s="52"/>
       <c r="S121" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T121" s="53">
         <v>5</v>
@@ -22229,7 +22252,7 @@
       </c>
       <c r="R122" s="52"/>
       <c r="S122" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T122" s="53">
         <v>5</v>
@@ -22309,7 +22332,7 @@
         <v>72</v>
       </c>
       <c r="S123" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T123" s="53">
         <v>5</v>
@@ -22379,7 +22402,7 @@
         <v>58</v>
       </c>
       <c r="Q124" s="52" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="R124" s="52"/>
       <c r="S124" s="52"/>
@@ -22445,7 +22468,7 @@
         <v>510</v>
       </c>
       <c r="O125" s="50" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="P125" s="52" t="s">
         <v>58</v>
@@ -22555,7 +22578,7 @@
       <c r="AE126" s="58"/>
       <c r="AF126" s="59"/>
     </row>
-    <row r="127" spans="1:32" s="60" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:32" s="60" customFormat="1" ht="165.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="45">
         <v>125</v>
       </c>
@@ -22663,7 +22686,7 @@
       </c>
       <c r="R128" s="52"/>
       <c r="S128" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T128" s="53">
         <v>5</v>
@@ -22737,7 +22760,7 @@
       </c>
       <c r="R129" s="52"/>
       <c r="S129" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T129" s="53">
         <v>5</v>
@@ -22817,7 +22840,7 @@
         <v>568</v>
       </c>
       <c r="S130" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T130" s="53">
         <v>5</v>
@@ -22849,7 +22872,7 @@
       <c r="AE130" s="58"/>
       <c r="AF130" s="59"/>
     </row>
-    <row r="131" spans="1:32" s="60" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:32" s="60" customFormat="1" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="45">
         <v>129</v>
       </c>
@@ -22874,9 +22897,11 @@
         <v>68</v>
       </c>
       <c r="J131" s="50"/>
-      <c r="K131" s="50"/>
+      <c r="K131" s="51">
+        <v>41388</v>
+      </c>
       <c r="L131" s="52" t="s">
-        <v>216</v>
+        <v>369</v>
       </c>
       <c r="M131" s="52"/>
       <c r="N131" s="52" t="s">
@@ -22892,10 +22917,18 @@
         <v>571</v>
       </c>
       <c r="R131" s="52"/>
-      <c r="S131" s="52"/>
-      <c r="T131" s="53"/>
-      <c r="U131" s="53"/>
-      <c r="V131" s="53"/>
+      <c r="S131" s="52" t="s">
+        <v>2512</v>
+      </c>
+      <c r="T131" s="53">
+        <v>3</v>
+      </c>
+      <c r="U131" s="53">
+        <v>0</v>
+      </c>
+      <c r="V131" s="53">
+        <v>0</v>
+      </c>
       <c r="W131" s="52"/>
       <c r="X131" s="52"/>
       <c r="Y131" s="54" t="s">
@@ -22963,7 +22996,7 @@
       </c>
       <c r="R132" s="52"/>
       <c r="S132" s="52" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="T132" s="53">
         <v>3</v>
@@ -23033,7 +23066,7 @@
         <v>70</v>
       </c>
       <c r="Q133" s="52" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="R133" s="52"/>
       <c r="S133" s="52"/>
@@ -23107,7 +23140,7 @@
         <v>72</v>
       </c>
       <c r="S134" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T134" s="53">
         <v>5</v>
@@ -23185,7 +23218,7 @@
       </c>
       <c r="R135" s="52"/>
       <c r="S135" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T135" s="53">
         <v>5</v>
@@ -23265,7 +23298,7 @@
         <v>72</v>
       </c>
       <c r="S136" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T136" s="53">
         <v>5</v>
@@ -23345,7 +23378,7 @@
         <v>72</v>
       </c>
       <c r="S137" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T137" s="53">
         <v>5</v>
@@ -23425,7 +23458,7 @@
         <v>72</v>
       </c>
       <c r="S138" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T138" s="53">
         <v>5</v>
@@ -23505,7 +23538,7 @@
         <v>150</v>
       </c>
       <c r="S139" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T139" s="53">
         <v>5</v>
@@ -23585,7 +23618,7 @@
         <v>72</v>
       </c>
       <c r="S140" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T140" s="53">
         <v>5</v>
@@ -23659,7 +23692,7 @@
       </c>
       <c r="R141" s="52"/>
       <c r="S141" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T141" s="53">
         <v>5</v>
@@ -23739,7 +23772,7 @@
         <v>72</v>
       </c>
       <c r="S142" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T142" s="53">
         <v>5</v>
@@ -23817,7 +23850,7 @@
       </c>
       <c r="R143" s="52"/>
       <c r="S143" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T143" s="53">
         <v>5</v>
@@ -23891,7 +23924,7 @@
       </c>
       <c r="R144" s="52"/>
       <c r="S144" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T144" s="53">
         <v>5</v>
@@ -23969,7 +24002,7 @@
         <v>150</v>
       </c>
       <c r="S145" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T145" s="53">
         <v>5</v>
@@ -24049,7 +24082,7 @@
         <v>150</v>
       </c>
       <c r="S146" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T146" s="53">
         <v>5</v>
@@ -24127,7 +24160,7 @@
         <v>292</v>
       </c>
       <c r="S147" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T147" s="53">
         <v>5</v>
@@ -24269,7 +24302,7 @@
         <v>72</v>
       </c>
       <c r="S149" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T149" s="53">
         <v>5</v>
@@ -24347,7 +24380,7 @@
         <v>72</v>
       </c>
       <c r="S150" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T150" s="53">
         <v>5</v>
@@ -24505,7 +24538,7 @@
         <v>72</v>
       </c>
       <c r="S152" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T152" s="53">
         <v>5</v>
@@ -24581,7 +24614,7 @@
         <v>72</v>
       </c>
       <c r="S153" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T153" s="53">
         <v>5</v>
@@ -24725,7 +24758,7 @@
         <v>275</v>
       </c>
       <c r="O155" s="50" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="P155" s="52" t="s">
         <v>70</v>
@@ -24891,7 +24924,7 @@
         <v>72</v>
       </c>
       <c r="S157" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T157" s="53">
         <v>5</v>
@@ -24969,7 +25002,7 @@
         <v>72</v>
       </c>
       <c r="S158" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T158" s="53">
         <v>5</v>
@@ -25047,7 +25080,7 @@
         <v>72</v>
       </c>
       <c r="S159" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T159" s="53">
         <v>5</v>
@@ -25125,7 +25158,7 @@
         <v>72</v>
       </c>
       <c r="S160" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T160" s="53">
         <v>5</v>
@@ -25201,7 +25234,7 @@
         <v>72</v>
       </c>
       <c r="S161" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T161" s="53">
         <v>5</v>
@@ -25275,7 +25308,7 @@
       </c>
       <c r="R162" s="52"/>
       <c r="S162" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T162" s="53">
         <v>5</v>
@@ -25353,7 +25386,7 @@
         <v>72</v>
       </c>
       <c r="S163" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T163" s="53">
         <v>5</v>
@@ -30943,7 +30976,7 @@
       </c>
       <c r="R245" s="52"/>
       <c r="S245" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T245" s="53">
         <v>5</v>
@@ -31009,7 +31042,7 @@
         <v>889</v>
       </c>
       <c r="O246" s="50" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="P246" s="52" t="s">
         <v>893</v>
@@ -31019,7 +31052,7 @@
       </c>
       <c r="R246" s="52"/>
       <c r="S246" s="52" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="T246" s="53">
         <v>2</v>
@@ -31095,7 +31128,7 @@
       </c>
       <c r="R247" s="52"/>
       <c r="S247" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T247" s="53">
         <v>5</v>
@@ -31169,7 +31202,7 @@
       </c>
       <c r="R248" s="52"/>
       <c r="S248" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T248" s="53">
         <v>5</v>
@@ -31237,7 +31270,7 @@
         <v>889</v>
       </c>
       <c r="O249" s="50" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="P249" s="52" t="s">
         <v>58</v>
@@ -31247,7 +31280,7 @@
       </c>
       <c r="R249" s="52"/>
       <c r="S249" s="52" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="T249" s="53">
         <v>2</v>
@@ -31399,7 +31432,7 @@
       </c>
       <c r="R251" s="52"/>
       <c r="S251" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T251" s="53">
         <v>5</v>
@@ -31477,7 +31510,7 @@
       </c>
       <c r="R252" s="52"/>
       <c r="S252" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T252" s="53">
         <v>5</v>
@@ -31555,7 +31588,7 @@
         <v>72</v>
       </c>
       <c r="S253" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T253" s="53">
         <v>5</v>
@@ -31635,7 +31668,7 @@
         <v>150</v>
       </c>
       <c r="S254" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T254" s="53">
         <v>5</v>
@@ -31767,7 +31800,7 @@
         <v>889</v>
       </c>
       <c r="O256" s="50" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="P256" s="52" t="s">
         <v>893</v>
@@ -31777,7 +31810,7 @@
       </c>
       <c r="R256" s="52"/>
       <c r="S256" s="52" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="T256" s="53">
         <v>2</v>
@@ -31855,7 +31888,7 @@
       </c>
       <c r="R257" s="52"/>
       <c r="S257" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T257" s="53">
         <v>5</v>
@@ -32145,7 +32178,7 @@
       </c>
       <c r="R261" s="52"/>
       <c r="S261" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T261" s="53">
         <v>5</v>
@@ -32219,7 +32252,7 @@
       </c>
       <c r="R262" s="52"/>
       <c r="S262" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T262" s="53">
         <v>5</v>
@@ -32297,7 +32330,7 @@
         <v>72</v>
       </c>
       <c r="S263" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T263" s="53">
         <v>5</v>
@@ -32375,7 +32408,7 @@
       </c>
       <c r="R264" s="52"/>
       <c r="S264" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T264" s="53">
         <v>5</v>
@@ -32451,7 +32484,7 @@
         <v>72</v>
       </c>
       <c r="S265" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T265" s="53">
         <v>5</v>
@@ -32519,17 +32552,17 @@
         <v>889</v>
       </c>
       <c r="O266" s="50" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="P266" s="52" t="s">
         <v>893</v>
       </c>
       <c r="Q266" s="52" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="R266" s="52"/>
       <c r="S266" s="52" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="T266" s="53">
         <v>2</v>
@@ -32603,7 +32636,7 @@
       </c>
       <c r="R267" s="52"/>
       <c r="S267" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T267" s="53">
         <v>5</v>
@@ -32635,7 +32668,7 @@
       <c r="AE267" s="58"/>
       <c r="AF267" s="59"/>
     </row>
-    <row r="268" spans="1:32" ht="178.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:32" ht="178.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="64">
         <v>266</v>
       </c>
@@ -32741,7 +32774,7 @@
       </c>
       <c r="R269" s="52"/>
       <c r="S269" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T269" s="53">
         <v>5</v>
@@ -32891,7 +32924,7 @@
       </c>
       <c r="R271" s="52"/>
       <c r="S271" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T271" s="53">
         <v>5</v>
@@ -32923,7 +32956,7 @@
       <c r="AE271" s="58"/>
       <c r="AF271" s="59"/>
     </row>
-    <row r="272" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="64">
         <v>270</v>
       </c>
@@ -33057,7 +33090,7 @@
       <c r="AE273" s="58"/>
       <c r="AF273" s="59"/>
     </row>
-    <row r="274" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="64">
         <v>272</v>
       </c>
@@ -33121,7 +33154,7 @@
       <c r="AE274" s="58"/>
       <c r="AF274" s="59"/>
     </row>
-    <row r="275" spans="1:32" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:32" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="64">
         <v>273</v>
       </c>
@@ -33225,7 +33258,7 @@
       </c>
       <c r="R276" s="52"/>
       <c r="S276" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T276" s="53">
         <v>5</v>
@@ -33257,7 +33290,7 @@
       <c r="AE276" s="58"/>
       <c r="AF276" s="59"/>
     </row>
-    <row r="277" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="64">
         <v>275</v>
       </c>
@@ -33319,7 +33352,7 @@
       <c r="AE277" s="58"/>
       <c r="AF277" s="59"/>
     </row>
-    <row r="278" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="64">
         <v>276</v>
       </c>
@@ -33495,7 +33528,7 @@
       </c>
       <c r="R280" s="52"/>
       <c r="S280" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T280" s="53">
         <v>5</v>
@@ -33571,7 +33604,7 @@
       </c>
       <c r="R281" s="52"/>
       <c r="S281" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T281" s="53">
         <v>5</v>
@@ -33647,7 +33680,7 @@
       </c>
       <c r="R282" s="52"/>
       <c r="S282" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T282" s="53">
         <v>5</v>
@@ -33679,7 +33712,7 @@
       <c r="AE282" s="58"/>
       <c r="AF282" s="59"/>
     </row>
-    <row r="283" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="64">
         <v>281</v>
       </c>
@@ -33739,7 +33772,7 @@
       <c r="AE283" s="58"/>
       <c r="AF283" s="59"/>
     </row>
-    <row r="284" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="64">
         <v>282</v>
       </c>
@@ -33799,7 +33832,7 @@
       <c r="AE284" s="58"/>
       <c r="AF284" s="59"/>
     </row>
-    <row r="285" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="64">
         <v>283</v>
       </c>
@@ -33863,7 +33896,7 @@
       <c r="AE285" s="58"/>
       <c r="AF285" s="59"/>
     </row>
-    <row r="286" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="64">
         <v>284</v>
       </c>
@@ -33927,7 +33960,7 @@
       <c r="AE286" s="58"/>
       <c r="AF286" s="59"/>
     </row>
-    <row r="287" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="64">
         <v>285</v>
       </c>
@@ -33987,7 +34020,7 @@
       <c r="AE287" s="58"/>
       <c r="AF287" s="59"/>
     </row>
-    <row r="288" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="64">
         <v>286</v>
       </c>
@@ -34047,7 +34080,7 @@
       <c r="AE288" s="58"/>
       <c r="AF288" s="59"/>
     </row>
-    <row r="289" spans="1:32" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:32" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="64">
         <v>287</v>
       </c>
@@ -34155,7 +34188,7 @@
       </c>
       <c r="R290" s="52"/>
       <c r="S290" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T290" s="53">
         <v>5</v>
@@ -34210,7 +34243,7 @@
         <v>246</v>
       </c>
       <c r="J291" s="50" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="K291" s="50"/>
       <c r="L291" s="52" t="s">
@@ -34231,7 +34264,7 @@
       </c>
       <c r="R291" s="52"/>
       <c r="S291" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T291" s="53">
         <v>5</v>
@@ -34263,7 +34296,7 @@
       <c r="AE291" s="58"/>
       <c r="AF291" s="59"/>
     </row>
-    <row r="292" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="64">
         <v>290</v>
       </c>
@@ -34286,7 +34319,7 @@
       <c r="H292" s="49"/>
       <c r="I292" s="50"/>
       <c r="J292" s="50" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="K292" s="50"/>
       <c r="L292" s="52"/>
@@ -34327,7 +34360,7 @@
       <c r="AE292" s="58"/>
       <c r="AF292" s="59"/>
     </row>
-    <row r="293" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="64">
         <v>291</v>
       </c>
@@ -34348,7 +34381,7 @@
       <c r="H293" s="49"/>
       <c r="I293" s="50"/>
       <c r="J293" s="50" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="K293" s="50"/>
       <c r="L293" s="52"/>
@@ -34412,7 +34445,7 @@
         <v>79</v>
       </c>
       <c r="J294" s="50" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="K294" s="50"/>
       <c r="L294" s="52" t="s">
@@ -34435,7 +34468,7 @@
         <v>72</v>
       </c>
       <c r="S294" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T294" s="53">
         <v>5</v>
@@ -34494,7 +34527,7 @@
         <v>246</v>
       </c>
       <c r="J295" s="50" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="K295" s="50"/>
       <c r="L295" s="52" t="s">
@@ -34515,7 +34548,7 @@
       </c>
       <c r="R295" s="52"/>
       <c r="S295" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T295" s="53">
         <v>5</v>
@@ -34547,7 +34580,7 @@
       <c r="AE295" s="58"/>
       <c r="AF295" s="59"/>
     </row>
-    <row r="296" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="64">
         <v>294</v>
       </c>
@@ -34568,7 +34601,7 @@
       <c r="H296" s="49"/>
       <c r="I296" s="50"/>
       <c r="J296" s="50" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="K296" s="50"/>
       <c r="L296" s="52"/>
@@ -34632,7 +34665,7 @@
         <v>207</v>
       </c>
       <c r="J297" s="50" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="K297" s="50"/>
       <c r="L297" s="52" t="s">
@@ -34653,7 +34686,7 @@
       </c>
       <c r="R297" s="52"/>
       <c r="S297" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T297" s="53">
         <v>5</v>
@@ -34685,7 +34718,7 @@
       <c r="AE297" s="58"/>
       <c r="AF297" s="59"/>
     </row>
-    <row r="298" spans="1:32" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:32" ht="191.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="64">
         <v>296</v>
       </c>
@@ -34708,7 +34741,7 @@
         <v>68</v>
       </c>
       <c r="J298" s="50" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="K298" s="50"/>
       <c r="L298" s="52"/>
@@ -34751,7 +34784,7 @@
       <c r="AE298" s="58"/>
       <c r="AF298" s="59"/>
     </row>
-    <row r="299" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="64">
         <v>297</v>
       </c>
@@ -34772,7 +34805,7 @@
       <c r="H299" s="49"/>
       <c r="I299" s="50"/>
       <c r="J299" s="50" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="K299" s="50"/>
       <c r="L299" s="52"/>
@@ -34813,7 +34846,7 @@
       <c r="AE299" s="58"/>
       <c r="AF299" s="59"/>
     </row>
-    <row r="300" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="64">
         <v>298</v>
       </c>
@@ -34836,7 +34869,7 @@
         <v>68</v>
       </c>
       <c r="J300" s="50" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="K300" s="50"/>
       <c r="L300" s="52"/>
@@ -34879,7 +34912,7 @@
       <c r="AE300" s="58"/>
       <c r="AF300" s="59"/>
     </row>
-    <row r="301" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="64">
         <v>299</v>
       </c>
@@ -34900,7 +34933,7 @@
       <c r="H301" s="49"/>
       <c r="I301" s="50"/>
       <c r="J301" s="50" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="K301" s="50"/>
       <c r="L301" s="52"/>
@@ -34983,7 +35016,7 @@
       </c>
       <c r="R302" s="52"/>
       <c r="S302" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T302" s="53">
         <v>5</v>
@@ -35059,7 +35092,7 @@
       </c>
       <c r="R303" s="52"/>
       <c r="S303" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T303" s="53">
         <v>5</v>
@@ -35091,7 +35124,7 @@
       <c r="AE303" s="58"/>
       <c r="AF303" s="59"/>
     </row>
-    <row r="304" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="64">
         <v>302</v>
       </c>
@@ -35157,7 +35190,7 @@
       <c r="AE304" s="58"/>
       <c r="AF304" s="59"/>
     </row>
-    <row r="305" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="64">
         <v>303</v>
       </c>
@@ -35267,7 +35300,7 @@
       </c>
       <c r="R306" s="52"/>
       <c r="S306" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T306" s="53">
         <v>5</v>
@@ -35341,7 +35374,7 @@
         <v>72</v>
       </c>
       <c r="S307" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T307" s="53">
         <v>5</v>
@@ -35415,7 +35448,7 @@
       </c>
       <c r="R308" s="52"/>
       <c r="S308" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T308" s="53">
         <v>5</v>
@@ -35493,7 +35526,7 @@
         <v>72</v>
       </c>
       <c r="S309" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T309" s="53">
         <v>5</v>
@@ -35525,7 +35558,7 @@
       <c r="AE309" s="58"/>
       <c r="AF309" s="59"/>
     </row>
-    <row r="310" spans="1:32" ht="229.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:32" ht="229.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="64">
         <v>308</v>
       </c>
@@ -35585,7 +35618,7 @@
       <c r="AE310" s="58"/>
       <c r="AF310" s="59"/>
     </row>
-    <row r="311" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="64">
         <v>309</v>
       </c>
@@ -35689,7 +35722,7 @@
       </c>
       <c r="R312" s="52"/>
       <c r="S312" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T312" s="53">
         <v>5</v>
@@ -35763,7 +35796,7 @@
       </c>
       <c r="R313" s="52"/>
       <c r="S313" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T313" s="53">
         <v>5</v>
@@ -35839,7 +35872,7 @@
         <v>72</v>
       </c>
       <c r="S314" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T314" s="53">
         <v>5</v>
@@ -35871,7 +35904,7 @@
       <c r="AE314" s="58"/>
       <c r="AF314" s="59"/>
     </row>
-    <row r="315" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="64">
         <v>313</v>
       </c>
@@ -35979,7 +36012,7 @@
       </c>
       <c r="R316" s="52"/>
       <c r="S316" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T316" s="53">
         <v>5</v>
@@ -36057,7 +36090,7 @@
         <v>72</v>
       </c>
       <c r="S317" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T317" s="53">
         <v>5</v>
@@ -36131,7 +36164,7 @@
       </c>
       <c r="R318" s="52"/>
       <c r="S318" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T318" s="53">
         <v>5</v>
@@ -36211,7 +36244,7 @@
         <v>150</v>
       </c>
       <c r="S319" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T319" s="53">
         <v>5</v>
@@ -36243,7 +36276,7 @@
       <c r="AE319" s="58"/>
       <c r="AF319" s="59"/>
     </row>
-    <row r="320" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="64">
         <v>318</v>
       </c>
@@ -36305,7 +36338,7 @@
       <c r="AE320" s="58"/>
       <c r="AF320" s="59"/>
     </row>
-    <row r="321" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="64">
         <v>319</v>
       </c>
@@ -36367,7 +36400,7 @@
       <c r="AE321" s="58"/>
       <c r="AF321" s="59"/>
     </row>
-    <row r="322" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="64">
         <v>320</v>
       </c>
@@ -36431,7 +36464,7 @@
       <c r="AE322" s="58"/>
       <c r="AF322" s="59"/>
     </row>
-    <row r="323" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="64">
         <v>321</v>
       </c>
@@ -36537,7 +36570,7 @@
         <v>72</v>
       </c>
       <c r="S324" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T324" s="53">
         <v>5</v>
@@ -36611,7 +36644,7 @@
       </c>
       <c r="R325" s="52"/>
       <c r="S325" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T325" s="53">
         <v>5</v>
@@ -36643,7 +36676,7 @@
       <c r="AE325" s="58"/>
       <c r="AF325" s="59"/>
     </row>
-    <row r="326" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="64">
         <v>324</v>
       </c>
@@ -36705,7 +36738,7 @@
       <c r="AE326" s="58"/>
       <c r="AF326" s="59"/>
     </row>
-    <row r="327" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="64">
         <v>325</v>
       </c>
@@ -36773,7 +36806,7 @@
       <c r="AE327" s="58"/>
       <c r="AF327" s="59"/>
     </row>
-    <row r="328" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="64">
         <v>326</v>
       </c>
@@ -36879,7 +36912,7 @@
       </c>
       <c r="R329" s="52"/>
       <c r="S329" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T329" s="53">
         <v>5</v>
@@ -36953,7 +36986,7 @@
       </c>
       <c r="R330" s="52"/>
       <c r="S330" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T330" s="53">
         <v>5</v>
@@ -37029,7 +37062,7 @@
       </c>
       <c r="R331" s="52"/>
       <c r="S331" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T331" s="53">
         <v>5</v>
@@ -37107,7 +37140,7 @@
       </c>
       <c r="R332" s="52"/>
       <c r="S332" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T332" s="53">
         <v>5</v>
@@ -37185,7 +37218,7 @@
       </c>
       <c r="R333" s="52"/>
       <c r="S333" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T333" s="53">
         <v>5</v>
@@ -37263,7 +37296,7 @@
       </c>
       <c r="R334" s="52"/>
       <c r="S334" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T334" s="53">
         <v>5</v>
@@ -37337,7 +37370,7 @@
       </c>
       <c r="R335" s="52"/>
       <c r="S335" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T335" s="53">
         <v>5</v>
@@ -37415,7 +37448,7 @@
       </c>
       <c r="R336" s="52"/>
       <c r="S336" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T336" s="53">
         <v>5</v>
@@ -37447,7 +37480,7 @@
       <c r="AE336" s="58"/>
       <c r="AF336" s="59"/>
     </row>
-    <row r="337" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="64">
         <v>335</v>
       </c>
@@ -37509,7 +37542,7 @@
       <c r="AE337" s="58"/>
       <c r="AF337" s="59"/>
     </row>
-    <row r="338" spans="1:32" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:32" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="64">
         <v>336</v>
       </c>
@@ -37617,7 +37650,7 @@
       </c>
       <c r="R339" s="52"/>
       <c r="S339" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T339" s="53">
         <v>5</v>
@@ -37649,7 +37682,7 @@
       <c r="AE339" s="58"/>
       <c r="AF339" s="59"/>
     </row>
-    <row r="340" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="64">
         <v>338</v>
       </c>
@@ -37711,7 +37744,7 @@
       <c r="AE340" s="58"/>
       <c r="AF340" s="59"/>
     </row>
-    <row r="341" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="64">
         <v>339</v>
       </c>
@@ -37813,7 +37846,7 @@
       </c>
       <c r="R342" s="52"/>
       <c r="S342" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T342" s="53">
         <v>5</v>
@@ -37887,7 +37920,7 @@
       </c>
       <c r="R343" s="52"/>
       <c r="S343" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T343" s="53">
         <v>5</v>
@@ -37919,7 +37952,7 @@
       <c r="AE343" s="58"/>
       <c r="AF343" s="59"/>
     </row>
-    <row r="344" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="64">
         <v>342</v>
       </c>
@@ -38023,7 +38056,7 @@
       </c>
       <c r="R345" s="52"/>
       <c r="S345" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T345" s="53">
         <v>5</v>
@@ -38097,7 +38130,7 @@
       </c>
       <c r="R346" s="52"/>
       <c r="S346" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T346" s="53">
         <v>5</v>
@@ -38171,7 +38204,7 @@
       </c>
       <c r="R347" s="52"/>
       <c r="S347" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T347" s="53">
         <v>5</v>
@@ -39473,7 +39506,7 @@
         <v>292</v>
       </c>
       <c r="S367" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T367" s="53">
         <v>5</v>
@@ -39551,7 +39584,7 @@
       </c>
       <c r="R368" s="52"/>
       <c r="S368" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T368" s="53">
         <v>5</v>
@@ -39695,7 +39728,7 @@
       </c>
       <c r="R370" s="52"/>
       <c r="S370" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T370" s="53">
         <v>5</v>
@@ -39847,7 +39880,7 @@
       </c>
       <c r="R372" s="52"/>
       <c r="S372" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T372" s="53">
         <v>5</v>
@@ -42881,7 +42914,7 @@
         <v>1183</v>
       </c>
       <c r="O420" s="50" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="P420" s="52" t="s">
         <v>81</v>
@@ -42893,7 +42926,7 @@
         <v>292</v>
       </c>
       <c r="S420" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T420" s="53">
         <v>5</v>
@@ -43037,7 +43070,7 @@
       </c>
       <c r="R422" s="52"/>
       <c r="S422" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T422" s="53">
         <v>5</v>
@@ -43111,7 +43144,7 @@
       </c>
       <c r="R423" s="52"/>
       <c r="S423" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T423" s="53">
         <v>5</v>
@@ -43185,7 +43218,7 @@
       </c>
       <c r="R424" s="52"/>
       <c r="S424" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T424" s="53">
         <v>5</v>
@@ -43259,7 +43292,7 @@
       </c>
       <c r="R425" s="52"/>
       <c r="S425" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T425" s="53">
         <v>5</v>
@@ -43333,7 +43366,7 @@
       </c>
       <c r="R426" s="52"/>
       <c r="S426" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T426" s="53">
         <v>5</v>
@@ -43388,7 +43421,7 @@
         <v>696</v>
       </c>
       <c r="J427" s="50" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="K427" s="50"/>
       <c r="L427" s="52"/>
@@ -43475,7 +43508,7 @@
       </c>
       <c r="R428" s="52"/>
       <c r="S428" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T428" s="53">
         <v>5</v>
@@ -43551,7 +43584,7 @@
       </c>
       <c r="R429" s="52"/>
       <c r="S429" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T429" s="53">
         <v>5</v>
@@ -43625,7 +43658,7 @@
       </c>
       <c r="R430" s="52"/>
       <c r="S430" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T430" s="53">
         <v>5</v>
@@ -43779,7 +43812,7 @@
       </c>
       <c r="R432" s="52"/>
       <c r="S432" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T432" s="53">
         <v>5</v>
@@ -43853,7 +43886,7 @@
       </c>
       <c r="R433" s="52"/>
       <c r="S433" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T433" s="53">
         <v>5</v>
@@ -43929,7 +43962,7 @@
         <v>72</v>
       </c>
       <c r="S434" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T434" s="53">
         <v>5</v>
@@ -43984,7 +44017,7 @@
         <v>286</v>
       </c>
       <c r="J435" s="50" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="K435" s="50"/>
       <c r="L435" s="52" t="s">
@@ -44005,7 +44038,7 @@
       </c>
       <c r="R435" s="52"/>
       <c r="S435" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T435" s="53">
         <v>5</v>
@@ -44081,7 +44114,7 @@
         <v>72</v>
       </c>
       <c r="S436" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T436" s="53">
         <v>5</v>
@@ -44159,7 +44192,7 @@
         <v>72</v>
       </c>
       <c r="S437" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T437" s="53">
         <v>5</v>
@@ -44232,10 +44265,10 @@
         <v>1359</v>
       </c>
       <c r="R438" s="52" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="S438" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T438" s="53">
         <v>5</v>
@@ -44309,7 +44342,7 @@
       </c>
       <c r="R439" s="52"/>
       <c r="S439" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T439" s="53">
         <v>5</v>
@@ -44451,7 +44484,7 @@
       </c>
       <c r="R441" s="52"/>
       <c r="S441" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T441" s="53">
         <v>5</v>
@@ -44525,7 +44558,7 @@
       </c>
       <c r="R442" s="52"/>
       <c r="S442" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T442" s="53">
         <v>5</v>
@@ -44681,7 +44714,7 @@
       </c>
       <c r="R444" s="52"/>
       <c r="S444" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T444" s="53">
         <v>5</v>
@@ -44759,7 +44792,7 @@
         <v>72</v>
       </c>
       <c r="S445" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T445" s="53">
         <v>5</v>
@@ -44835,7 +44868,7 @@
         <v>72</v>
       </c>
       <c r="S446" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T446" s="53">
         <v>5</v>
@@ -44909,7 +44942,7 @@
       </c>
       <c r="R447" s="52"/>
       <c r="S447" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T447" s="53">
         <v>5</v>
@@ -44985,7 +45018,7 @@
         <v>72</v>
       </c>
       <c r="S448" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T448" s="53">
         <v>5</v>
@@ -45061,7 +45094,7 @@
         <v>72</v>
       </c>
       <c r="S449" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T449" s="53">
         <v>5</v>
@@ -45207,7 +45240,7 @@
         <v>292</v>
       </c>
       <c r="S451" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T451" s="53">
         <v>5</v>
@@ -45275,7 +45308,7 @@
         <v>1153</v>
       </c>
       <c r="Q452" s="52" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="R452" s="52"/>
       <c r="S452" s="52"/>
@@ -45423,7 +45456,7 @@
         <v>72</v>
       </c>
       <c r="S454" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T454" s="53">
         <v>5</v>
@@ -45499,7 +45532,7 @@
         <v>72</v>
       </c>
       <c r="S455" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T455" s="53">
         <v>5</v>
@@ -45575,7 +45608,7 @@
       </c>
       <c r="R456" s="52"/>
       <c r="S456" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T456" s="53">
         <v>5</v>
@@ -45641,7 +45674,7 @@
         <v>244</v>
       </c>
       <c r="O457" s="50" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="P457" s="52" t="s">
         <v>70</v>
@@ -46221,7 +46254,7 @@
         <v>72</v>
       </c>
       <c r="S465" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T465" s="53">
         <v>5</v>
@@ -46299,7 +46332,7 @@
         <v>72</v>
       </c>
       <c r="S466" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T466" s="53">
         <v>5</v>
@@ -46373,7 +46406,7 @@
       </c>
       <c r="R467" s="52"/>
       <c r="S467" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T467" s="53">
         <v>5</v>
@@ -46523,7 +46556,7 @@
       </c>
       <c r="R469" s="52"/>
       <c r="S469" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T469" s="53">
         <v>5</v>
@@ -46601,7 +46634,7 @@
       </c>
       <c r="R470" s="52"/>
       <c r="S470" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T470" s="53">
         <v>5</v>
@@ -46681,7 +46714,7 @@
         <v>72</v>
       </c>
       <c r="S471" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T471" s="53">
         <v>5</v>
@@ -46761,7 +46794,7 @@
         <v>72</v>
       </c>
       <c r="S472" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T472" s="53">
         <v>5</v>
@@ -46905,7 +46938,7 @@
         <v>244</v>
       </c>
       <c r="O474" s="50" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="P474" s="52" t="s">
         <v>58</v>
@@ -46915,7 +46948,7 @@
       </c>
       <c r="R474" s="52"/>
       <c r="S474" s="52" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="T474" s="53">
         <v>6</v>
@@ -46981,7 +47014,7 @@
         <v>244</v>
       </c>
       <c r="O475" s="50" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="P475" s="52" t="s">
         <v>58</v>
@@ -46991,7 +47024,7 @@
       </c>
       <c r="R475" s="52"/>
       <c r="S475" s="52" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="T475" s="53">
         <v>6</v>
@@ -47057,7 +47090,7 @@
         <v>244</v>
       </c>
       <c r="O476" s="50" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="P476" s="52" t="s">
         <v>58</v>
@@ -47067,7 +47100,7 @@
       </c>
       <c r="R476" s="52"/>
       <c r="S476" s="52" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="T476" s="53">
         <v>6</v>
@@ -47131,7 +47164,7 @@
         <v>244</v>
       </c>
       <c r="O477" s="50" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="P477" s="52" t="s">
         <v>58</v>
@@ -47141,7 +47174,7 @@
       </c>
       <c r="R477" s="52"/>
       <c r="S477" s="52" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="T477" s="53">
         <v>6</v>
@@ -47283,7 +47316,7 @@
         <v>72</v>
       </c>
       <c r="S479" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T479" s="53">
         <v>5</v>
@@ -47517,7 +47550,7 @@
         <v>72</v>
       </c>
       <c r="S482" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T482" s="53">
         <v>5</v>
@@ -47549,7 +47582,7 @@
       <c r="AE482" s="58"/>
       <c r="AF482" s="68"/>
     </row>
-    <row r="483" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="64">
         <v>480</v>
       </c>
@@ -47743,7 +47776,7 @@
         <v>72</v>
       </c>
       <c r="S485" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T485" s="53">
         <v>5</v>
@@ -47817,7 +47850,7 @@
       </c>
       <c r="R486" s="52"/>
       <c r="S486" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T486" s="53">
         <v>5</v>
@@ -47897,7 +47930,7 @@
         <v>72</v>
       </c>
       <c r="S487" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T487" s="53">
         <v>5</v>
@@ -47973,7 +48006,7 @@
       </c>
       <c r="R488" s="52"/>
       <c r="S488" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T488" s="53">
         <v>5</v>
@@ -48049,7 +48082,7 @@
       </c>
       <c r="R489" s="52"/>
       <c r="S489" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T489" s="53">
         <v>5</v>
@@ -48125,7 +48158,7 @@
       </c>
       <c r="R490" s="52"/>
       <c r="S490" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T490" s="53">
         <v>5</v>
@@ -48191,7 +48224,7 @@
         <v>244</v>
       </c>
       <c r="O491" s="50" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="P491" s="52" t="s">
         <v>168</v>
@@ -48201,7 +48234,7 @@
       </c>
       <c r="R491" s="52"/>
       <c r="S491" s="52" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="T491" s="53">
         <v>6</v>
@@ -48359,7 +48392,7 @@
         <v>72</v>
       </c>
       <c r="S493" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T493" s="53">
         <v>5</v>
@@ -48501,7 +48534,7 @@
         <v>244</v>
       </c>
       <c r="O495" s="50" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="P495" s="52" t="s">
         <v>58</v>
@@ -48511,7 +48544,7 @@
       </c>
       <c r="R495" s="52"/>
       <c r="S495" s="52" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="T495" s="53">
         <v>6</v>
@@ -48731,7 +48764,7 @@
       </c>
       <c r="R498" s="52"/>
       <c r="S498" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T498" s="53">
         <v>5</v>
@@ -48809,7 +48842,7 @@
         <v>72</v>
       </c>
       <c r="S499" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T499" s="53">
         <v>5</v>
@@ -48887,7 +48920,7 @@
         <v>72</v>
       </c>
       <c r="S500" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T500" s="53">
         <v>5</v>
@@ -48965,7 +48998,7 @@
         <v>72</v>
       </c>
       <c r="S501" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T501" s="53">
         <v>5</v>
@@ -49104,10 +49137,10 @@
         <v>82</v>
       </c>
       <c r="R503" s="52" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="S503" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T503" s="53">
         <v>5</v>
@@ -49265,7 +49298,7 @@
         <v>72</v>
       </c>
       <c r="S505" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T505" s="53">
         <v>5</v>
@@ -49341,7 +49374,7 @@
       </c>
       <c r="R506" s="52"/>
       <c r="S506" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T506" s="53">
         <v>5</v>
@@ -49407,7 +49440,7 @@
         <v>244</v>
       </c>
       <c r="O507" s="50" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="P507" s="52" t="s">
         <v>58</v>
@@ -49417,7 +49450,7 @@
       </c>
       <c r="R507" s="52"/>
       <c r="S507" s="52" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="T507" s="53">
         <v>6</v>
@@ -49483,7 +49516,7 @@
         <v>244</v>
       </c>
       <c r="O508" s="50" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="P508" s="52" t="s">
         <v>58</v>
@@ -49493,7 +49526,7 @@
       </c>
       <c r="R508" s="52"/>
       <c r="S508" s="52" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="T508" s="53">
         <v>6</v>
@@ -49643,7 +49676,7 @@
       </c>
       <c r="R510" s="52"/>
       <c r="S510" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T510" s="53">
         <v>5</v>
@@ -49717,7 +49750,7 @@
         <v>72</v>
       </c>
       <c r="S511" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T511" s="53">
         <v>5</v>
@@ -49789,7 +49822,7 @@
         <v>72</v>
       </c>
       <c r="S512" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T512" s="53">
         <v>5</v>
@@ -49865,7 +49898,7 @@
         <v>72</v>
       </c>
       <c r="S513" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T513" s="53">
         <v>5</v>
@@ -49941,7 +49974,7 @@
         <v>72</v>
       </c>
       <c r="S514" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T514" s="53">
         <v>5</v>
@@ -50089,7 +50122,7 @@
       </c>
       <c r="R516" s="52"/>
       <c r="S516" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T516" s="53">
         <v>5</v>
@@ -50163,7 +50196,7 @@
         <v>72</v>
       </c>
       <c r="S517" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T517" s="53">
         <v>5</v>
@@ -50301,7 +50334,7 @@
         <v>292</v>
       </c>
       <c r="S519" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T519" s="53">
         <v>5</v>
@@ -50373,7 +50406,7 @@
       </c>
       <c r="R520" s="52"/>
       <c r="S520" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T520" s="53">
         <v>5</v>
@@ -50447,7 +50480,7 @@
         <v>72</v>
       </c>
       <c r="S521" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T521" s="53">
         <v>5</v>
@@ -50519,7 +50552,7 @@
       </c>
       <c r="R522" s="52"/>
       <c r="S522" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T522" s="53">
         <v>5</v>
@@ -50711,7 +50744,7 @@
       </c>
       <c r="R525" s="52"/>
       <c r="S525" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T525" s="53">
         <v>5</v>
@@ -51089,7 +51122,7 @@
       </c>
       <c r="R531" s="52"/>
       <c r="S531" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T531" s="53">
         <v>5</v>
@@ -51563,7 +51596,7 @@
       <c r="AE538" s="58"/>
       <c r="AF538" s="68"/>
     </row>
-    <row r="539" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="64">
         <v>536</v>
       </c>
@@ -51586,7 +51619,7 @@
         <v>68</v>
       </c>
       <c r="J539" s="50" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="K539" s="50"/>
       <c r="L539" s="52"/>
@@ -51669,7 +51702,7 @@
       </c>
       <c r="R540" s="52"/>
       <c r="S540" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T540" s="53">
         <v>5</v>
@@ -51741,7 +51774,7 @@
       </c>
       <c r="R541" s="52"/>
       <c r="S541" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T541" s="53">
         <v>5</v>
@@ -51813,7 +51846,7 @@
       </c>
       <c r="R542" s="52"/>
       <c r="S542" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T542" s="53">
         <v>5</v>
@@ -51885,7 +51918,7 @@
       </c>
       <c r="R543" s="52"/>
       <c r="S543" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T543" s="53">
         <v>5</v>
@@ -51959,7 +51992,7 @@
         <v>72</v>
       </c>
       <c r="S544" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T544" s="53">
         <v>5</v>
@@ -52187,7 +52220,7 @@
       <c r="AE547" s="58"/>
       <c r="AF547" s="59"/>
     </row>
-    <row r="548" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="64">
         <v>545</v>
       </c>
@@ -53131,7 +53164,7 @@
       </c>
       <c r="R562" s="52"/>
       <c r="S562" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T562" s="53">
         <v>5</v>
@@ -53265,7 +53298,7 @@
       </c>
       <c r="R564" s="52"/>
       <c r="S564" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T564" s="53">
         <v>5</v>
@@ -53407,7 +53440,7 @@
         <v>72</v>
       </c>
       <c r="S566" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T566" s="53">
         <v>5</v>
@@ -53633,7 +53666,7 @@
       </c>
       <c r="R569" s="52"/>
       <c r="S569" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T569" s="53">
         <v>5</v>
@@ -53711,7 +53744,7 @@
         <v>72</v>
       </c>
       <c r="S570" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T570" s="53">
         <v>5</v>
@@ -53787,7 +53820,7 @@
         <v>72</v>
       </c>
       <c r="S571" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T571" s="53">
         <v>5</v>
@@ -53865,7 +53898,7 @@
         <v>72</v>
       </c>
       <c r="S572" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T572" s="53">
         <v>5</v>
@@ -53937,7 +53970,7 @@
       </c>
       <c r="R573" s="52"/>
       <c r="S573" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T573" s="53">
         <v>5</v>
@@ -54087,7 +54120,7 @@
         <v>72</v>
       </c>
       <c r="S575" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T575" s="53">
         <v>5</v>
@@ -54161,7 +54194,7 @@
       </c>
       <c r="R576" s="52"/>
       <c r="S576" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T576" s="53">
         <v>5</v>
@@ -54307,7 +54340,7 @@
         <v>72</v>
       </c>
       <c r="S578" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T578" s="53">
         <v>5</v>
@@ -54447,7 +54480,7 @@
         <v>72</v>
       </c>
       <c r="S580" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T580" s="53">
         <v>5</v>
@@ -54523,7 +54556,7 @@
         <v>72</v>
       </c>
       <c r="S581" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T581" s="53">
         <v>5</v>
@@ -54599,7 +54632,7 @@
         <v>72</v>
       </c>
       <c r="S582" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T582" s="53">
         <v>5</v>
@@ -54673,7 +54706,7 @@
         <v>72</v>
       </c>
       <c r="S583" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T583" s="53">
         <v>5</v>
@@ -54737,7 +54770,7 @@
         <v>80</v>
       </c>
       <c r="O584" s="50" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="P584" s="52" t="s">
         <v>168</v>
@@ -54746,10 +54779,10 @@
         <v>82</v>
       </c>
       <c r="R584" s="52" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="S584" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T584" s="53">
         <v>5</v>
@@ -54827,7 +54860,7 @@
         <v>72</v>
       </c>
       <c r="S585" s="52" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="T585" s="53">
         <v>3</v>
@@ -54903,7 +54936,7 @@
         <v>72</v>
       </c>
       <c r="S586" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T586" s="53">
         <v>5</v>
@@ -54981,7 +55014,7 @@
         <v>72</v>
       </c>
       <c r="S587" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T587" s="53">
         <v>5</v>
@@ -55057,7 +55090,7 @@
       </c>
       <c r="R588" s="52"/>
       <c r="S588" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T588" s="53">
         <v>5</v>
@@ -55133,7 +55166,7 @@
         <v>72</v>
       </c>
       <c r="S589" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T589" s="53">
         <v>5</v>
@@ -55277,7 +55310,7 @@
         <v>72</v>
       </c>
       <c r="S591" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T591" s="53">
         <v>5</v>
@@ -55355,7 +55388,7 @@
         <v>72</v>
       </c>
       <c r="S592" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T592" s="53">
         <v>5</v>
@@ -55427,7 +55460,7 @@
       </c>
       <c r="R593" s="52"/>
       <c r="S593" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T593" s="53">
         <v>5</v>
@@ -55503,7 +55536,7 @@
         <v>72</v>
       </c>
       <c r="S594" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T594" s="53">
         <v>5</v>
@@ -55581,7 +55614,7 @@
         <v>72</v>
       </c>
       <c r="S595" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T595" s="53">
         <v>5</v>
@@ -55789,7 +55822,7 @@
         <v>72</v>
       </c>
       <c r="S598" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T598" s="53">
         <v>5</v>
@@ -55937,7 +55970,7 @@
       </c>
       <c r="R600" s="52"/>
       <c r="S600" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T600" s="53">
         <v>5</v>
@@ -55993,7 +56026,9 @@
       <c r="I601" s="50"/>
       <c r="J601" s="50"/>
       <c r="K601" s="50"/>
-      <c r="L601" s="52"/>
+      <c r="L601" s="52" t="s">
+        <v>369</v>
+      </c>
       <c r="M601" s="52"/>
       <c r="N601" s="52" t="s">
         <v>80</v>
@@ -56193,7 +56228,7 @@
       <c r="AE603" s="58"/>
       <c r="AF603" s="68"/>
     </row>
-    <row r="604" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="64">
         <v>601</v>
       </c>
@@ -56875,7 +56910,9 @@
       <c r="K613" s="51">
         <v>40945</v>
       </c>
-      <c r="L613" s="52"/>
+      <c r="L613" s="52" t="s">
+        <v>113</v>
+      </c>
       <c r="M613" s="52"/>
       <c r="N613" s="52" t="s">
         <v>80</v>
@@ -56963,7 +57000,7 @@
       </c>
       <c r="R614" s="52"/>
       <c r="S614" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T614" s="53">
         <v>5</v>
@@ -57231,7 +57268,7 @@
       <c r="AE617" s="58"/>
       <c r="AF617" s="69"/>
     </row>
-    <row r="618" spans="1:32" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:32" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="64">
         <v>615</v>
       </c>
@@ -57421,7 +57458,7 @@
       </c>
       <c r="R620" s="52"/>
       <c r="S620" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T620" s="53">
         <v>5</v>
@@ -57665,7 +57702,7 @@
         <v>72</v>
       </c>
       <c r="S623" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T623" s="53">
         <v>5</v>
@@ -57697,7 +57734,7 @@
       <c r="AE623" s="58"/>
       <c r="AF623" s="68"/>
     </row>
-    <row r="624" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="64">
         <v>621</v>
       </c>
@@ -57726,8 +57763,8 @@
       <c r="J624" s="50" t="s">
         <v>1888</v>
       </c>
-      <c r="K624" s="50" t="s">
-        <v>1889</v>
+      <c r="K624" s="51">
+        <v>41388</v>
       </c>
       <c r="L624" s="52" t="s">
         <v>113</v>
@@ -57746,10 +57783,18 @@
         <v>1950</v>
       </c>
       <c r="R624" s="52"/>
-      <c r="S624" s="52"/>
-      <c r="T624" s="53"/>
-      <c r="U624" s="53"/>
-      <c r="V624" s="53"/>
+      <c r="S624" s="52" t="s">
+        <v>2513</v>
+      </c>
+      <c r="T624" s="53">
+        <v>3</v>
+      </c>
+      <c r="U624" s="53">
+        <v>0</v>
+      </c>
+      <c r="V624" s="53">
+        <v>0</v>
+      </c>
       <c r="W624" s="52"/>
       <c r="X624" s="52"/>
       <c r="Y624" s="55" t="s">
@@ -57899,7 +57944,7 @@
       </c>
       <c r="R626" s="52"/>
       <c r="S626" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T626" s="53">
         <v>5</v>
@@ -58097,7 +58142,7 @@
       <c r="AE628" s="58"/>
       <c r="AF628" s="59"/>
     </row>
-    <row r="629" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="64">
         <v>626</v>
       </c>
@@ -58126,8 +58171,8 @@
       <c r="J629" s="50" t="s">
         <v>1888</v>
       </c>
-      <c r="K629" s="50" t="s">
-        <v>1889</v>
+      <c r="K629" s="51">
+        <v>41388</v>
       </c>
       <c r="L629" s="52" t="s">
         <v>113</v>
@@ -58146,10 +58191,18 @@
         <v>1969</v>
       </c>
       <c r="R629" s="52"/>
-      <c r="S629" s="52"/>
-      <c r="T629" s="53"/>
-      <c r="U629" s="53"/>
-      <c r="V629" s="53"/>
+      <c r="S629" s="52" t="s">
+        <v>2513</v>
+      </c>
+      <c r="T629" s="53">
+        <v>3</v>
+      </c>
+      <c r="U629" s="53">
+        <v>0</v>
+      </c>
+      <c r="V629" s="53">
+        <v>0</v>
+      </c>
       <c r="W629" s="52"/>
       <c r="X629" s="52"/>
       <c r="Y629" s="55" t="s">
@@ -58221,7 +58274,7 @@
       </c>
       <c r="R630" s="52"/>
       <c r="S630" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T630" s="53">
         <v>5</v>
@@ -58609,7 +58662,7 @@
       </c>
       <c r="R635" s="52"/>
       <c r="S635" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T635" s="53">
         <v>5</v>
@@ -58994,7 +59047,7 @@
         <v>2016</v>
       </c>
       <c r="R640" s="52" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="S640" s="52"/>
       <c r="T640" s="53"/>
@@ -59135,7 +59188,9 @@
       <c r="K642" s="51">
         <v>40945</v>
       </c>
-      <c r="L642" s="52"/>
+      <c r="L642" s="52" t="s">
+        <v>428</v>
+      </c>
       <c r="M642" s="52"/>
       <c r="N642" s="52" t="s">
         <v>80</v>
@@ -59175,7 +59230,7 @@
       <c r="AE642" s="58"/>
       <c r="AF642" s="68"/>
     </row>
-    <row r="643" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="64">
         <v>640</v>
       </c>
@@ -59239,7 +59294,7 @@
       <c r="AE643" s="58"/>
       <c r="AF643" s="68"/>
     </row>
-    <row r="644" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="64">
         <v>641</v>
       </c>
@@ -59264,7 +59319,7 @@
         <v>68</v>
       </c>
       <c r="J644" s="50" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="K644" s="50" t="s">
         <v>1918</v>
@@ -60407,7 +60462,7 @@
       <c r="AE659" s="58"/>
       <c r="AF659" s="68"/>
     </row>
-    <row r="660" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="64">
         <v>657</v>
       </c>
@@ -60477,7 +60532,7 @@
       <c r="AE660" s="58"/>
       <c r="AF660" s="68"/>
     </row>
-    <row r="661" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="64">
         <v>658</v>
       </c>
@@ -60585,7 +60640,7 @@
         <v>553</v>
       </c>
       <c r="O662" s="50" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="P662" s="52" t="s">
         <v>58</v>
@@ -60595,7 +60650,7 @@
       </c>
       <c r="R662" s="52"/>
       <c r="S662" s="52" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="T662" s="53">
         <v>6</v>
@@ -60669,7 +60724,7 @@
       </c>
       <c r="R663" s="52"/>
       <c r="S663" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T663" s="53">
         <v>5</v>
@@ -61035,7 +61090,9 @@
       <c r="K668" s="51">
         <v>40945</v>
       </c>
-      <c r="L668" s="52"/>
+      <c r="L668" s="52" t="s">
+        <v>428</v>
+      </c>
       <c r="M668" s="52"/>
       <c r="N668" s="52" t="s">
         <v>56</v>
@@ -61119,7 +61176,7 @@
       </c>
       <c r="R669" s="52"/>
       <c r="S669" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T669" s="53">
         <v>5</v>
@@ -61183,7 +61240,7 @@
         <v>946</v>
       </c>
       <c r="O670" s="50" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="P670" s="52" t="s">
         <v>58</v>
@@ -61191,7 +61248,7 @@
       <c r="Q670" s="52"/>
       <c r="R670" s="52"/>
       <c r="S670" s="52" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="T670" s="53">
         <v>4</v>
@@ -61249,7 +61306,9 @@
       <c r="K671" s="51">
         <v>40945</v>
       </c>
-      <c r="L671" s="52"/>
+      <c r="L671" s="52" t="s">
+        <v>113</v>
+      </c>
       <c r="M671" s="52"/>
       <c r="N671" s="52" t="s">
         <v>56</v>
@@ -61479,7 +61538,7 @@
         <v>72</v>
       </c>
       <c r="S674" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T674" s="53">
         <v>5</v>
@@ -61534,7 +61593,7 @@
         <v>85</v>
       </c>
       <c r="J675" s="50" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="K675" s="50"/>
       <c r="L675" s="52" t="s">
@@ -61555,7 +61614,7 @@
       </c>
       <c r="R675" s="52"/>
       <c r="S675" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T675" s="53">
         <v>5</v>
@@ -61587,7 +61646,7 @@
       <c r="AE675" s="58"/>
       <c r="AF675" s="68"/>
     </row>
-    <row r="676" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="64">
         <v>673</v>
       </c>
@@ -61612,7 +61671,7 @@
         <v>68</v>
       </c>
       <c r="J676" s="50" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="K676" s="50"/>
       <c r="L676" s="52"/>
@@ -61655,7 +61714,7 @@
       <c r="AE676" s="58"/>
       <c r="AF676" s="68"/>
     </row>
-    <row r="677" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="64">
         <v>674</v>
       </c>
@@ -61680,7 +61739,7 @@
         <v>54</v>
       </c>
       <c r="J677" s="50" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="K677" s="50" t="s">
         <v>546</v>
@@ -61727,7 +61786,7 @@
       <c r="AE677" s="58"/>
       <c r="AF677" s="68"/>
     </row>
-    <row r="678" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="64">
         <v>675</v>
       </c>
@@ -61752,7 +61811,7 @@
         <v>68</v>
       </c>
       <c r="J678" s="50" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="K678" s="50"/>
       <c r="L678" s="52" t="s">
@@ -61797,7 +61856,7 @@
       <c r="AE678" s="58"/>
       <c r="AF678" s="68"/>
     </row>
-    <row r="679" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="64">
         <v>676</v>
       </c>
@@ -61820,7 +61879,7 @@
         <v>68</v>
       </c>
       <c r="J679" s="50" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="K679" s="50"/>
       <c r="L679" s="52"/>
@@ -61890,7 +61949,7 @@
         <v>392</v>
       </c>
       <c r="J680" s="50" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="K680" s="50"/>
       <c r="L680" s="52" t="s">
@@ -61911,7 +61970,7 @@
       </c>
       <c r="R680" s="52"/>
       <c r="S680" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T680" s="53">
         <v>5</v>
@@ -61943,7 +62002,7 @@
       <c r="AE680" s="58"/>
       <c r="AF680" s="59"/>
     </row>
-    <row r="681" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="64">
         <v>678</v>
       </c>
@@ -61968,7 +62027,7 @@
         <v>68</v>
       </c>
       <c r="J681" s="50" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="K681" s="50"/>
       <c r="L681" s="52"/>
@@ -62129,7 +62188,7 @@
         <v>72</v>
       </c>
       <c r="S683" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T683" s="53">
         <v>5</v>
@@ -62201,7 +62260,7 @@
       </c>
       <c r="R684" s="52"/>
       <c r="S684" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T684" s="53">
         <v>5</v>
@@ -62259,7 +62318,9 @@
       <c r="K685" s="51">
         <v>40945</v>
       </c>
-      <c r="L685" s="52"/>
+      <c r="L685" s="52" t="s">
+        <v>55</v>
+      </c>
       <c r="M685" s="52"/>
       <c r="N685" s="52" t="s">
         <v>2178</v>
@@ -62325,7 +62386,9 @@
       <c r="K686" s="51">
         <v>40945</v>
       </c>
-      <c r="L686" s="52"/>
+      <c r="L686" s="52" t="s">
+        <v>290</v>
+      </c>
       <c r="M686" s="52"/>
       <c r="N686" s="52" t="s">
         <v>2184</v>
@@ -62449,7 +62512,7 @@
         <v>2193</v>
       </c>
       <c r="G688" s="47" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="H688" s="49"/>
       <c r="I688" s="50" t="s">
@@ -62467,7 +62530,7 @@
         <v>56</v>
       </c>
       <c r="O688" s="50" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="P688" s="52"/>
       <c r="Q688" s="52"/>
@@ -62529,7 +62592,9 @@
       <c r="K689" s="51">
         <v>40945</v>
       </c>
-      <c r="L689" s="52"/>
+      <c r="L689" s="52" t="s">
+        <v>55</v>
+      </c>
       <c r="M689" s="52"/>
       <c r="N689" s="52" t="s">
         <v>56</v>
@@ -62599,13 +62664,13 @@
         <v>56</v>
       </c>
       <c r="O690" s="50" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="P690" s="52"/>
       <c r="Q690" s="52"/>
       <c r="R690" s="52"/>
       <c r="S690" s="52" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="T690" s="53">
         <v>3</v>
@@ -62735,7 +62800,7 @@
       </c>
       <c r="R692" s="52"/>
       <c r="S692" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T692" s="53">
         <v>5</v>
@@ -62765,7 +62830,7 @@
       <c r="AE692" s="58"/>
       <c r="AF692" s="59"/>
     </row>
-    <row r="693" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="64">
         <v>690</v>
       </c>
@@ -62786,7 +62851,9 @@
         <v>696</v>
       </c>
       <c r="J693" s="50"/>
-      <c r="K693" s="50"/>
+      <c r="K693" s="51">
+        <v>41388</v>
+      </c>
       <c r="L693" s="52" t="s">
         <v>55</v>
       </c>
@@ -62802,10 +62869,18 @@
       </c>
       <c r="Q693" s="52"/>
       <c r="R693" s="52"/>
-      <c r="S693" s="52"/>
-      <c r="T693" s="53"/>
-      <c r="U693" s="53"/>
-      <c r="V693" s="53"/>
+      <c r="S693" s="52" t="s">
+        <v>2514</v>
+      </c>
+      <c r="T693" s="53">
+        <v>3</v>
+      </c>
+      <c r="U693" s="53">
+        <v>0</v>
+      </c>
+      <c r="V693" s="53">
+        <v>0</v>
+      </c>
       <c r="W693" s="52"/>
       <c r="X693" s="52"/>
       <c r="Y693" s="55" t="s">
@@ -62933,7 +63008,7 @@
       </c>
       <c r="R695" s="52"/>
       <c r="S695" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T695" s="53">
         <v>5</v>
@@ -63005,7 +63080,7 @@
       </c>
       <c r="R696" s="52"/>
       <c r="S696" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T696" s="53">
         <v>5</v>
@@ -63223,7 +63298,7 @@
       <c r="Q699" s="52"/>
       <c r="R699" s="52"/>
       <c r="S699" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T699" s="53">
         <v>5</v>
@@ -63365,7 +63440,7 @@
         <v>72</v>
       </c>
       <c r="S701" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T701" s="53">
         <v>5</v>
@@ -63507,7 +63582,7 @@
         <v>72</v>
       </c>
       <c r="S703" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T703" s="53">
         <v>5</v>
@@ -63577,7 +63652,7 @@
         <v>72</v>
       </c>
       <c r="S704" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T704" s="53">
         <v>5</v>
@@ -63595,7 +63670,7 @@
       <c r="AE704" s="58"/>
       <c r="AF704" s="58"/>
     </row>
-    <row r="705" spans="1:32" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:32" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="64">
         <v>702</v>
       </c>
@@ -63614,7 +63689,9 @@
         <v>68</v>
       </c>
       <c r="J705" s="50"/>
-      <c r="K705" s="50"/>
+      <c r="K705" s="51">
+        <v>41388</v>
+      </c>
       <c r="L705" s="50" t="s">
         <v>2233</v>
       </c>
@@ -63623,17 +63700,25 @@
         <v>56</v>
       </c>
       <c r="O705" s="50" t="s">
-        <v>2234</v>
+        <v>2515</v>
       </c>
       <c r="P705" s="50"/>
       <c r="Q705" s="71" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="R705" s="50"/>
-      <c r="S705" s="50"/>
-      <c r="T705" s="50"/>
-      <c r="U705" s="50"/>
-      <c r="V705" s="50"/>
+      <c r="S705" s="50" t="s">
+        <v>2516</v>
+      </c>
+      <c r="T705" s="50">
+        <v>3</v>
+      </c>
+      <c r="U705" s="50">
+        <v>0</v>
+      </c>
+      <c r="V705" s="50">
+        <v>0</v>
+      </c>
       <c r="AA705" s="55" t="s">
         <v>2203</v>
       </c>
@@ -63653,7 +63738,7 @@
       <c r="E706" s="46"/>
       <c r="F706" s="46"/>
       <c r="G706" s="47" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="H706" s="49"/>
       <c r="I706" s="50" t="s">
@@ -63677,7 +63762,7 @@
         <v>150</v>
       </c>
       <c r="S706" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T706" s="53">
         <v>5</v>
@@ -63707,7 +63792,7 @@
       <c r="E707" s="46"/>
       <c r="F707" s="46"/>
       <c r="G707" s="47" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="H707" s="49"/>
       <c r="I707" s="50" t="s">
@@ -63731,7 +63816,7 @@
         <v>72</v>
       </c>
       <c r="S707" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T707" s="53">
         <v>5</v>
@@ -63761,7 +63846,7 @@
       <c r="E708" s="46"/>
       <c r="F708" s="46"/>
       <c r="G708" s="47" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="H708" s="49"/>
       <c r="I708" s="50" t="s">
@@ -63779,14 +63864,14 @@
         <v>56</v>
       </c>
       <c r="O708" s="50" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="P708" s="50" t="s">
         <v>70</v>
       </c>
       <c r="Q708" s="50"/>
       <c r="R708" s="50" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="S708" s="50" t="s">
         <v>239</v>
@@ -63819,7 +63904,7 @@
       <c r="E709" s="46"/>
       <c r="F709" s="46"/>
       <c r="G709" s="47" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="H709" s="49"/>
       <c r="I709" s="50" t="s">
@@ -63835,7 +63920,7 @@
         <v>80</v>
       </c>
       <c r="O709" s="47" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="P709" s="50" t="s">
         <v>58</v>
@@ -63845,7 +63930,7 @@
         <v>72</v>
       </c>
       <c r="S709" s="50" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="T709" s="50">
         <v>4</v>
@@ -63875,7 +63960,7 @@
       <c r="E710" s="46"/>
       <c r="F710" s="46"/>
       <c r="G710" s="47" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="H710" s="49"/>
       <c r="I710" s="50" t="s">
@@ -63901,7 +63986,7 @@
         <v>72</v>
       </c>
       <c r="S710" s="52" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="T710" s="53">
         <v>5</v>
@@ -63931,7 +64016,7 @@
       <c r="E711" s="46"/>
       <c r="F711" s="46"/>
       <c r="G711" s="47" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="H711" s="49"/>
       <c r="I711" s="50" t="s">
@@ -63947,7 +64032,7 @@
         <v>56</v>
       </c>
       <c r="O711" s="50" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="P711" s="50"/>
       <c r="Q711" s="74"/>
@@ -63955,7 +64040,7 @@
         <v>72</v>
       </c>
       <c r="S711" s="50" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="T711" s="50">
         <v>3</v>
@@ -63983,6 +64068,9 @@
         <filter val="Versioning"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="11">
+      <filters blank="1"/>
+    </filterColumn>
     <filterColumn colId="12">
       <filters blank="1"/>
     </filterColumn>
@@ -63992,11 +64080,9 @@
         <filter val="FHIR-Core"/>
         <filter val="FHIR-FGB"/>
         <filter val="FHIR-FMG"/>
-        <filter val="FHIR-IHE"/>
         <filter val="FHIR-ITS"/>
         <filter val="FHIR-MnM"/>
         <filter val="FHIR-SD"/>
-        <filter val="FHIR-Security"/>
         <filter val="FHIR-Tool"/>
       </filters>
     </filterColumn>
@@ -64711,14 +64797,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="179" t="s">
-        <v>2246</v>
-      </c>
-      <c r="I1" s="179"/>
+      <c r="H1" s="218" t="s">
+        <v>2245</v>
+      </c>
+      <c r="I1" s="218"/>
     </row>
     <row r="2" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="76" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
@@ -64729,23 +64815,23 @@
       <c r="I2" s="78"/>
     </row>
     <row r="3" spans="2:14" ht="303.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="180" t="s">
-        <v>2248</v>
-      </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="182"/>
+      <c r="B3" s="219" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="221"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="76" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="C5" s="77"/>
       <c r="D5" s="77"/>
@@ -64756,16 +64842,16 @@
       <c r="I5" s="78"/>
     </row>
     <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="183" t="s">
-        <v>2250</v>
-      </c>
-      <c r="C6" s="184"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="184"/>
-      <c r="F6" s="184"/>
-      <c r="G6" s="184"/>
-      <c r="H6" s="184"/>
-      <c r="I6" s="185"/>
+      <c r="B6" s="201" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="203"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -64775,15 +64861,15 @@
       <c r="B7" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="186" t="s">
-        <v>2251</v>
-      </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="188"/>
+      <c r="C7" s="222" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D7" s="223"/>
+      <c r="E7" s="223"/>
+      <c r="F7" s="223"/>
+      <c r="G7" s="223"/>
+      <c r="H7" s="223"/>
+      <c r="I7" s="224"/>
       <c r="J7" s="80"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -64791,17 +64877,17 @@
     </row>
     <row r="8" spans="2:14" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="81" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C8" s="225" t="s">
         <v>2252</v>
       </c>
-      <c r="C8" s="189" t="s">
-        <v>2253</v>
-      </c>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="190"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="225"/>
+      <c r="F8" s="225"/>
+      <c r="G8" s="225"/>
+      <c r="H8" s="225"/>
+      <c r="I8" s="226"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -64809,17 +64895,17 @@
     </row>
     <row r="9" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="82" t="s">
+        <v>2253</v>
+      </c>
+      <c r="C9" s="216" t="s">
         <v>2254</v>
       </c>
-      <c r="C9" s="177" t="s">
-        <v>2255</v>
-      </c>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="178"/>
+      <c r="D9" s="216"/>
+      <c r="E9" s="216"/>
+      <c r="F9" s="216"/>
+      <c r="G9" s="216"/>
+      <c r="H9" s="216"/>
+      <c r="I9" s="217"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -64828,15 +64914,15 @@
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="83"/>
       <c r="C10" s="84" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D10" s="214" t="s">
         <v>2256</v>
-      </c>
-      <c r="D10" s="192" t="s">
-        <v>2257</v>
       </c>
       <c r="E10" s="193"/>
       <c r="F10" s="193"/>
       <c r="G10" s="193"/>
-      <c r="H10" s="194"/>
+      <c r="H10" s="215"/>
       <c r="I10" s="85"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -64846,15 +64932,15 @@
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="83"/>
       <c r="C11" s="84" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D11" s="214" t="s">
         <v>2258</v>
-      </c>
-      <c r="D11" s="192" t="s">
-        <v>2259</v>
       </c>
       <c r="E11" s="193"/>
       <c r="F11" s="193"/>
       <c r="G11" s="193"/>
-      <c r="H11" s="194"/>
+      <c r="H11" s="215"/>
       <c r="I11" s="85"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -64865,15 +64951,15 @@
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="83"/>
       <c r="C12" s="84" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D12" s="214" t="s">
         <v>2260</v>
-      </c>
-      <c r="D12" s="192" t="s">
-        <v>2261</v>
       </c>
       <c r="E12" s="193"/>
       <c r="F12" s="193"/>
       <c r="G12" s="193"/>
-      <c r="H12" s="194"/>
+      <c r="H12" s="215"/>
       <c r="I12" s="85"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -64883,15 +64969,15 @@
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="83"/>
       <c r="C13" s="84" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D13" s="214" t="s">
         <v>2262</v>
-      </c>
-      <c r="D13" s="192" t="s">
-        <v>2263</v>
       </c>
       <c r="E13" s="193"/>
       <c r="F13" s="193"/>
       <c r="G13" s="193"/>
-      <c r="H13" s="194"/>
+      <c r="H13" s="215"/>
       <c r="I13" s="85"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -64901,15 +64987,15 @@
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="83"/>
       <c r="C14" s="84" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D14" s="214" t="s">
         <v>2264</v>
-      </c>
-      <c r="D14" s="192" t="s">
-        <v>2265</v>
       </c>
       <c r="E14" s="193"/>
       <c r="F14" s="193"/>
       <c r="G14" s="193"/>
-      <c r="H14" s="194"/>
+      <c r="H14" s="215"/>
       <c r="I14" s="85"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -64919,15 +65005,15 @@
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="83"/>
       <c r="C15" s="84" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D15" s="214" t="s">
         <v>2266</v>
-      </c>
-      <c r="D15" s="192" t="s">
-        <v>2267</v>
       </c>
       <c r="E15" s="193"/>
       <c r="F15" s="193"/>
       <c r="G15" s="193"/>
-      <c r="H15" s="194"/>
+      <c r="H15" s="215"/>
       <c r="I15" s="85"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -64937,15 +65023,15 @@
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="83"/>
       <c r="C16" s="84" t="s">
+        <v>2267</v>
+      </c>
+      <c r="D16" s="214" t="s">
         <v>2268</v>
-      </c>
-      <c r="D16" s="192" t="s">
-        <v>2269</v>
       </c>
       <c r="E16" s="193"/>
       <c r="F16" s="193"/>
       <c r="G16" s="193"/>
-      <c r="H16" s="194"/>
+      <c r="H16" s="215"/>
       <c r="I16" s="85"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -64955,15 +65041,15 @@
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="83"/>
       <c r="C17" s="84" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D17" s="214" t="s">
         <v>2270</v>
-      </c>
-      <c r="D17" s="192" t="s">
-        <v>2271</v>
       </c>
       <c r="E17" s="193"/>
       <c r="F17" s="193"/>
       <c r="G17" s="193"/>
-      <c r="H17" s="194"/>
+      <c r="H17" s="215"/>
       <c r="I17" s="85"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -64973,15 +65059,15 @@
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="83"/>
       <c r="C18" s="84" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D18" s="214" t="s">
         <v>2272</v>
-      </c>
-      <c r="D18" s="192" t="s">
-        <v>2273</v>
       </c>
       <c r="E18" s="193"/>
       <c r="F18" s="193"/>
       <c r="G18" s="193"/>
-      <c r="H18" s="194"/>
+      <c r="H18" s="215"/>
       <c r="I18" s="85"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -65006,15 +65092,15 @@
       <c r="B20" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="195" t="s">
-        <v>2274</v>
-      </c>
-      <c r="D20" s="195"/>
-      <c r="E20" s="195"/>
-      <c r="F20" s="195"/>
-      <c r="G20" s="195"/>
-      <c r="H20" s="195"/>
-      <c r="I20" s="196"/>
+      <c r="C20" s="197" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D20" s="197"/>
+      <c r="E20" s="197"/>
+      <c r="F20" s="197"/>
+      <c r="G20" s="197"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="198"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -65025,32 +65111,32 @@
         <v>19</v>
       </c>
       <c r="C21" s="193" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="D21" s="193"/>
       <c r="E21" s="193"/>
       <c r="F21" s="193"/>
       <c r="G21" s="193"/>
       <c r="H21" s="193"/>
-      <c r="I21" s="197"/>
+      <c r="I21" s="194"/>
       <c r="J21" s="90"/>
-      <c r="K21" s="191"/>
-      <c r="L21" s="191"/>
-      <c r="M21" s="191"/>
+      <c r="K21" s="213"/>
+      <c r="L21" s="213"/>
+      <c r="M21" s="213"/>
     </row>
     <row r="22" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="81" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C22" s="193" t="s">
         <v>2276</v>
-      </c>
-      <c r="C22" s="193" t="s">
-        <v>2277</v>
       </c>
       <c r="D22" s="193"/>
       <c r="E22" s="193"/>
       <c r="F22" s="193"/>
       <c r="G22" s="193"/>
       <c r="H22" s="193"/>
-      <c r="I22" s="197"/>
+      <c r="I22" s="194"/>
       <c r="J22" s="90"/>
       <c r="K22" s="91"/>
       <c r="L22" s="91"/>
@@ -65058,47 +65144,47 @@
     </row>
     <row r="23" spans="2:13" ht="255.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="81" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C23" s="195" t="s">
         <v>2278</v>
       </c>
-      <c r="C23" s="200" t="s">
-        <v>2279</v>
-      </c>
-      <c r="D23" s="200"/>
-      <c r="E23" s="200"/>
-      <c r="F23" s="200"/>
-      <c r="G23" s="200"/>
-      <c r="H23" s="200"/>
-      <c r="I23" s="201"/>
+      <c r="D23" s="195"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="195"/>
+      <c r="G23" s="195"/>
+      <c r="H23" s="195"/>
+      <c r="I23" s="196"/>
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="195" t="s">
-        <v>2280</v>
-      </c>
-      <c r="D24" s="195"/>
-      <c r="E24" s="195"/>
-      <c r="F24" s="195"/>
-      <c r="G24" s="195"/>
-      <c r="H24" s="195"/>
-      <c r="I24" s="196"/>
+      <c r="C24" s="197" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D24" s="197"/>
+      <c r="E24" s="197"/>
+      <c r="F24" s="197"/>
+      <c r="G24" s="197"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="198"/>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="195" t="s">
-        <v>2281</v>
-      </c>
-      <c r="D25" s="195"/>
-      <c r="E25" s="195"/>
-      <c r="F25" s="195"/>
-      <c r="G25" s="195"/>
-      <c r="H25" s="195"/>
-      <c r="I25" s="196"/>
+      <c r="C25" s="197" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D25" s="197"/>
+      <c r="E25" s="197"/>
+      <c r="F25" s="197"/>
+      <c r="G25" s="197"/>
+      <c r="H25" s="197"/>
+      <c r="I25" s="198"/>
       <c r="J25" s="92"/>
       <c r="M25" s="2"/>
     </row>
@@ -65106,15 +65192,15 @@
       <c r="B26" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="195" t="s">
-        <v>2282</v>
-      </c>
-      <c r="D26" s="195"/>
-      <c r="E26" s="195"/>
-      <c r="F26" s="195"/>
-      <c r="G26" s="195"/>
-      <c r="H26" s="195"/>
-      <c r="I26" s="196"/>
+      <c r="C26" s="197" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D26" s="197"/>
+      <c r="E26" s="197"/>
+      <c r="F26" s="197"/>
+      <c r="G26" s="197"/>
+      <c r="H26" s="197"/>
+      <c r="I26" s="198"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -65122,30 +65208,30 @@
     </row>
     <row r="27" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="93" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C27" s="199" t="s">
         <v>2283</v>
       </c>
-      <c r="C27" s="202" t="s">
+      <c r="D27" s="199"/>
+      <c r="E27" s="199"/>
+      <c r="F27" s="199"/>
+      <c r="G27" s="199"/>
+      <c r="H27" s="199"/>
+      <c r="I27" s="200"/>
+      <c r="J27" s="25"/>
+    </row>
+    <row r="28" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="201" t="s">
         <v>2284</v>
       </c>
-      <c r="D27" s="202"/>
-      <c r="E27" s="202"/>
-      <c r="F27" s="202"/>
-      <c r="G27" s="202"/>
-      <c r="H27" s="202"/>
-      <c r="I27" s="203"/>
-      <c r="J27" s="25"/>
-    </row>
-    <row r="28" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="183" t="s">
-        <v>2285</v>
-      </c>
-      <c r="C28" s="184"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="184"/>
-      <c r="I28" s="185"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="202"/>
+      <c r="E28" s="202"/>
+      <c r="F28" s="202"/>
+      <c r="G28" s="202"/>
+      <c r="H28" s="202"/>
+      <c r="I28" s="203"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -65153,10 +65239,10 @@
     </row>
     <row r="29" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="94" t="s">
+        <v>2285</v>
+      </c>
+      <c r="C29" s="204" t="s">
         <v>2286</v>
-      </c>
-      <c r="C29" s="204" t="s">
-        <v>2287</v>
       </c>
       <c r="D29" s="205"/>
       <c r="E29" s="205"/>
@@ -65174,7 +65260,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="207" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="D30" s="208"/>
       <c r="E30" s="208"/>
@@ -65189,10 +65275,10 @@
     </row>
     <row r="31" spans="2:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="94" t="s">
+        <v>2288</v>
+      </c>
+      <c r="C31" s="210" t="s">
         <v>2289</v>
-      </c>
-      <c r="C31" s="210" t="s">
-        <v>2290</v>
       </c>
       <c r="D31" s="211"/>
       <c r="E31" s="211"/>
@@ -65209,15 +65295,15 @@
       <c r="B32" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="198" t="s">
-        <v>2291</v>
-      </c>
-      <c r="D32" s="198"/>
-      <c r="E32" s="198"/>
-      <c r="F32" s="198"/>
-      <c r="G32" s="198"/>
-      <c r="H32" s="198"/>
-      <c r="I32" s="199"/>
+      <c r="C32" s="191" t="s">
+        <v>2290</v>
+      </c>
+      <c r="D32" s="191"/>
+      <c r="E32" s="191"/>
+      <c r="F32" s="191"/>
+      <c r="G32" s="191"/>
+      <c r="H32" s="191"/>
+      <c r="I32" s="192"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -65227,15 +65313,15 @@
       <c r="B33" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="198" t="s">
-        <v>2292</v>
-      </c>
-      <c r="D33" s="198"/>
-      <c r="E33" s="198"/>
-      <c r="F33" s="198"/>
-      <c r="G33" s="198"/>
-      <c r="H33" s="198"/>
-      <c r="I33" s="199"/>
+      <c r="C33" s="191" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D33" s="191"/>
+      <c r="E33" s="191"/>
+      <c r="F33" s="191"/>
+      <c r="G33" s="191"/>
+      <c r="H33" s="191"/>
+      <c r="I33" s="192"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -65245,15 +65331,15 @@
       <c r="B34" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="216" t="s">
-        <v>2293</v>
-      </c>
-      <c r="D34" s="216"/>
-      <c r="E34" s="216"/>
-      <c r="F34" s="216"/>
-      <c r="G34" s="216"/>
-      <c r="H34" s="216"/>
-      <c r="I34" s="217"/>
+      <c r="C34" s="180" t="s">
+        <v>2292</v>
+      </c>
+      <c r="D34" s="180"/>
+      <c r="E34" s="180"/>
+      <c r="F34" s="180"/>
+      <c r="G34" s="180"/>
+      <c r="H34" s="180"/>
+      <c r="I34" s="181"/>
       <c r="J34" s="2"/>
       <c r="K34" s="91"/>
       <c r="L34" s="91"/>
@@ -65261,17 +65347,17 @@
     </row>
     <row r="35" spans="2:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="97" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C35" s="180" t="s">
         <v>2294</v>
       </c>
-      <c r="C35" s="216" t="s">
-        <v>2295</v>
-      </c>
-      <c r="D35" s="216"/>
-      <c r="E35" s="216"/>
-      <c r="F35" s="216"/>
-      <c r="G35" s="216"/>
-      <c r="H35" s="216"/>
-      <c r="I35" s="217"/>
+      <c r="D35" s="180"/>
+      <c r="E35" s="180"/>
+      <c r="F35" s="180"/>
+      <c r="G35" s="180"/>
+      <c r="H35" s="180"/>
+      <c r="I35" s="181"/>
       <c r="J35" s="2"/>
       <c r="K35" s="91"/>
       <c r="L35" s="91"/>
@@ -65281,15 +65367,15 @@
       <c r="B36" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="216" t="s">
-        <v>2296</v>
-      </c>
-      <c r="D36" s="216"/>
-      <c r="E36" s="216"/>
-      <c r="F36" s="216"/>
-      <c r="G36" s="216"/>
-      <c r="H36" s="216"/>
-      <c r="I36" s="217"/>
+      <c r="C36" s="180" t="s">
+        <v>2295</v>
+      </c>
+      <c r="D36" s="180"/>
+      <c r="E36" s="180"/>
+      <c r="F36" s="180"/>
+      <c r="G36" s="180"/>
+      <c r="H36" s="180"/>
+      <c r="I36" s="181"/>
       <c r="J36" s="2"/>
       <c r="K36" s="91"/>
       <c r="L36" s="91"/>
@@ -65299,15 +65385,15 @@
       <c r="B37" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="216" t="s">
-        <v>2297</v>
-      </c>
-      <c r="D37" s="216"/>
-      <c r="E37" s="216"/>
-      <c r="F37" s="216"/>
-      <c r="G37" s="216"/>
-      <c r="H37" s="216"/>
-      <c r="I37" s="217"/>
+      <c r="C37" s="180" t="s">
+        <v>2296</v>
+      </c>
+      <c r="D37" s="180"/>
+      <c r="E37" s="180"/>
+      <c r="F37" s="180"/>
+      <c r="G37" s="180"/>
+      <c r="H37" s="180"/>
+      <c r="I37" s="181"/>
       <c r="J37" s="2"/>
       <c r="K37" s="91"/>
       <c r="L37" s="91"/>
@@ -65317,116 +65403,146 @@
       <c r="B38" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="218" t="s">
-        <v>2298</v>
-      </c>
-      <c r="D38" s="219"/>
-      <c r="E38" s="219"/>
-      <c r="F38" s="219"/>
-      <c r="G38" s="219"/>
-      <c r="H38" s="219"/>
-      <c r="I38" s="220"/>
+      <c r="C38" s="182" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D38" s="183"/>
+      <c r="E38" s="183"/>
+      <c r="F38" s="183"/>
+      <c r="G38" s="183"/>
+      <c r="H38" s="183"/>
+      <c r="I38" s="184"/>
     </row>
     <row r="39" spans="2:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="218" t="s">
-        <v>2299</v>
-      </c>
-      <c r="D39" s="219"/>
-      <c r="E39" s="219"/>
-      <c r="F39" s="219"/>
-      <c r="G39" s="219"/>
-      <c r="H39" s="219"/>
-      <c r="I39" s="220"/>
+      <c r="C39" s="182" t="s">
+        <v>2298</v>
+      </c>
+      <c r="D39" s="183"/>
+      <c r="E39" s="183"/>
+      <c r="F39" s="183"/>
+      <c r="G39" s="183"/>
+      <c r="H39" s="183"/>
+      <c r="I39" s="184"/>
     </row>
     <row r="40" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="101" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C40" s="185" t="s">
         <v>2300</v>
       </c>
-      <c r="C40" s="221" t="s">
-        <v>2301</v>
-      </c>
-      <c r="D40" s="222"/>
-      <c r="E40" s="222"/>
-      <c r="F40" s="222"/>
-      <c r="G40" s="222"/>
-      <c r="H40" s="222"/>
-      <c r="I40" s="223"/>
+      <c r="D40" s="186"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="186"/>
+      <c r="G40" s="186"/>
+      <c r="H40" s="186"/>
+      <c r="I40" s="187"/>
     </row>
     <row r="41" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="102" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C41" s="188" t="s">
         <v>2302</v>
       </c>
-      <c r="C41" s="224" t="s">
-        <v>2303</v>
-      </c>
-      <c r="D41" s="222"/>
-      <c r="E41" s="222"/>
-      <c r="F41" s="222"/>
-      <c r="G41" s="222"/>
-      <c r="H41" s="222"/>
-      <c r="I41" s="223"/>
+      <c r="D41" s="186"/>
+      <c r="E41" s="186"/>
+      <c r="F41" s="186"/>
+      <c r="G41" s="186"/>
+      <c r="H41" s="186"/>
+      <c r="I41" s="187"/>
     </row>
     <row r="42" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="103" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C42" s="189" t="s">
         <v>2304</v>
       </c>
-      <c r="C42" s="225" t="s">
-        <v>2305</v>
-      </c>
-      <c r="D42" s="225"/>
-      <c r="E42" s="225"/>
-      <c r="F42" s="225"/>
-      <c r="G42" s="225"/>
-      <c r="H42" s="225"/>
-      <c r="I42" s="226"/>
+      <c r="D42" s="189"/>
+      <c r="E42" s="189"/>
+      <c r="F42" s="189"/>
+      <c r="G42" s="189"/>
+      <c r="H42" s="189"/>
+      <c r="I42" s="190"/>
     </row>
     <row r="43" spans="2:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="213" t="s">
-        <v>2306</v>
-      </c>
-      <c r="D43" s="214"/>
-      <c r="E43" s="214"/>
-      <c r="F43" s="214"/>
-      <c r="G43" s="214"/>
-      <c r="H43" s="214"/>
-      <c r="I43" s="215"/>
+      <c r="C43" s="177" t="s">
+        <v>2305</v>
+      </c>
+      <c r="D43" s="178"/>
+      <c r="E43" s="178"/>
+      <c r="F43" s="178"/>
+      <c r="G43" s="178"/>
+      <c r="H43" s="178"/>
+      <c r="I43" s="179"/>
     </row>
     <row r="44" spans="2:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="213" t="s">
-        <v>2307</v>
-      </c>
-      <c r="D44" s="214"/>
-      <c r="E44" s="214"/>
-      <c r="F44" s="214"/>
-      <c r="G44" s="214"/>
-      <c r="H44" s="214"/>
-      <c r="I44" s="215"/>
+      <c r="C44" s="177" t="s">
+        <v>2306</v>
+      </c>
+      <c r="D44" s="178"/>
+      <c r="E44" s="178"/>
+      <c r="F44" s="178"/>
+      <c r="G44" s="178"/>
+      <c r="H44" s="178"/>
+      <c r="I44" s="179"/>
     </row>
     <row r="45" spans="2:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="213" t="s">
-        <v>2308</v>
-      </c>
-      <c r="D45" s="214"/>
-      <c r="E45" s="214"/>
-      <c r="F45" s="214"/>
-      <c r="G45" s="214"/>
-      <c r="H45" s="214"/>
-      <c r="I45" s="215"/>
+      <c r="C45" s="177" t="s">
+        <v>2307</v>
+      </c>
+      <c r="D45" s="178"/>
+      <c r="E45" s="178"/>
+      <c r="F45" s="178"/>
+      <c r="G45" s="178"/>
+      <c r="H45" s="178"/>
+      <c r="I45" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C32:I32"/>
     <mergeCell ref="C45:I45"/>
     <mergeCell ref="C34:I34"/>
     <mergeCell ref="C35:I35"/>
@@ -65439,36 +65555,6 @@
     <mergeCell ref="C42:I42"/>
     <mergeCell ref="C43:I43"/>
     <mergeCell ref="C44:I44"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H1" location="Ballot!A1" display="Ballot!A1"/>
@@ -65507,7 +65593,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="227" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="B1" s="228"/>
       <c r="C1" s="228"/>
@@ -65518,11 +65604,11 @@
       <c r="H1" s="228"/>
       <c r="I1" s="228"/>
       <c r="J1" s="105" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="K1" s="106"/>
       <c r="L1" s="105" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="M1" s="107"/>
     </row>
@@ -67184,19 +67270,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="119" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="120" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B1" s="121" t="s">
         <v>2312</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="C1" s="121" t="s">
         <v>2313</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="D1" s="121" t="s">
         <v>2314</v>
       </c>
-      <c r="D1" s="121" t="s">
+      <c r="E1" s="121" t="s">
         <v>2315</v>
-      </c>
-      <c r="E1" s="121" t="s">
-        <v>2316</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -67206,123 +67292,123 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="231" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B3" s="233" t="s">
         <v>2317</v>
       </c>
-      <c r="B3" s="234" t="s">
+      <c r="C3" s="125" t="s">
         <v>2318</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="D3" s="126" t="s">
         <v>2319</v>
       </c>
-      <c r="D3" s="126" t="s">
+      <c r="E3" s="117" t="s">
         <v>2320</v>
-      </c>
-      <c r="E3" s="117" t="s">
-        <v>2321</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="232"/>
-      <c r="B4" s="235"/>
+      <c r="B4" s="234"/>
       <c r="C4" s="125" t="s">
+        <v>2321</v>
+      </c>
+      <c r="D4" s="126" t="s">
         <v>2322</v>
       </c>
-      <c r="D4" s="126" t="s">
+      <c r="E4" s="117" t="s">
         <v>2323</v>
-      </c>
-      <c r="E4" s="117" t="s">
-        <v>2324</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="232"/>
-      <c r="B5" s="235"/>
+      <c r="B5" s="234"/>
       <c r="C5" s="125" t="s">
+        <v>2324</v>
+      </c>
+      <c r="D5" s="126" t="s">
         <v>2325</v>
       </c>
-      <c r="D5" s="126" t="s">
-        <v>2326</v>
-      </c>
       <c r="E5" s="117" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="232"/>
-      <c r="B6" s="235"/>
+      <c r="B6" s="234"/>
       <c r="C6" s="125" t="s">
+        <v>2326</v>
+      </c>
+      <c r="D6" s="126" t="s">
         <v>2327</v>
       </c>
-      <c r="D6" s="126" t="s">
-        <v>2328</v>
-      </c>
       <c r="E6" s="117" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="232"/>
-      <c r="B7" s="235"/>
+      <c r="B7" s="234"/>
       <c r="C7" s="125" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="D7" s="126" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="E7" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="232"/>
-      <c r="B8" s="235"/>
+      <c r="B8" s="234"/>
       <c r="C8" s="125" t="s">
+        <v>2329</v>
+      </c>
+      <c r="D8" s="126" t="s">
         <v>2330</v>
       </c>
-      <c r="D8" s="126" t="s">
+      <c r="E8" s="117" t="s">
         <v>2331</v>
-      </c>
-      <c r="E8" s="117" t="s">
-        <v>2332</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="232"/>
-      <c r="B9" s="235"/>
+      <c r="B9" s="234"/>
       <c r="C9" s="125" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D9" s="126" t="s">
         <v>2333</v>
       </c>
-      <c r="D9" s="126" t="s">
-        <v>2334</v>
-      </c>
       <c r="E9" s="117" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="232"/>
-      <c r="B10" s="235"/>
+      <c r="B10" s="234"/>
       <c r="C10" s="125" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D10" s="126" t="s">
         <v>2335</v>
       </c>
-      <c r="D10" s="126" t="s">
+      <c r="E10" s="117" t="s">
         <v>2336</v>
       </c>
-      <c r="E10" s="117" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="239"/>
+      <c r="B11" s="235"/>
+      <c r="C11" s="125" t="s">
         <v>2337</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="233"/>
-      <c r="B11" s="236"/>
-      <c r="C11" s="125" t="s">
+      <c r="D11" s="126" t="s">
         <v>2338</v>
       </c>
-      <c r="D11" s="126" t="s">
-        <v>2339</v>
-      </c>
       <c r="E11" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -67330,19 +67416,19 @@
     </row>
     <row r="13" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="127" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B13" s="128" t="s">
         <v>2340</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="C13" s="125" t="s">
         <v>2341</v>
       </c>
-      <c r="C13" s="125" t="s">
+      <c r="D13" s="126" t="s">
         <v>2342</v>
       </c>
-      <c r="D13" s="126" t="s">
-        <v>2343</v>
-      </c>
       <c r="E13" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -67352,19 +67438,19 @@
     </row>
     <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="130" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B15" s="131" t="s">
         <v>2344</v>
       </c>
-      <c r="B15" s="131" t="s">
+      <c r="C15" s="125" t="s">
         <v>2345</v>
       </c>
-      <c r="C15" s="125" t="s">
+      <c r="D15" s="126" t="s">
         <v>2346</v>
       </c>
-      <c r="D15" s="126" t="s">
-        <v>2347</v>
-      </c>
       <c r="E15" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -67374,19 +67460,19 @@
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="130" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B17" s="131" t="s">
         <v>2348</v>
       </c>
-      <c r="B17" s="131" t="s">
+      <c r="C17" s="125" t="s">
+        <v>2347</v>
+      </c>
+      <c r="D17" s="126" t="s">
         <v>2349</v>
       </c>
-      <c r="C17" s="125" t="s">
-        <v>2348</v>
-      </c>
-      <c r="D17" s="126" t="s">
-        <v>2350</v>
-      </c>
       <c r="E17" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -67399,42 +67485,42 @@
         <v>1158</v>
       </c>
       <c r="B19" s="231" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C19" s="125" t="s">
         <v>2351</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="D19" s="126" t="s">
         <v>2352</v>
       </c>
-      <c r="D19" s="126" t="s">
-        <v>2353</v>
-      </c>
       <c r="E19" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="232"/>
       <c r="B20" s="232"/>
       <c r="C20" s="125" t="s">
+        <v>2353</v>
+      </c>
+      <c r="D20" s="126" t="s">
         <v>2354</v>
       </c>
-      <c r="D20" s="126" t="s">
-        <v>2355</v>
-      </c>
       <c r="E20" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="232"/>
       <c r="B21" s="232"/>
       <c r="C21" s="125" t="s">
+        <v>2355</v>
+      </c>
+      <c r="D21" s="126" t="s">
         <v>2356</v>
       </c>
-      <c r="D21" s="126" t="s">
-        <v>2357</v>
-      </c>
       <c r="E21" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -67444,32 +67530,32 @@
     </row>
     <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="231" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B23" s="231" t="s">
         <v>2358</v>
       </c>
-      <c r="B23" s="231" t="s">
+      <c r="C23" s="125" t="s">
         <v>2359</v>
       </c>
-      <c r="C23" s="125" t="s">
+      <c r="D23" s="126" t="s">
         <v>2360</v>
       </c>
-      <c r="D23" s="126" t="s">
-        <v>2361</v>
-      </c>
       <c r="E23" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="232"/>
       <c r="B24" s="232"/>
       <c r="C24" s="125" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="D24" s="126" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="E24" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -67479,71 +67565,71 @@
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="231" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B26" s="233" t="s">
         <v>2363</v>
       </c>
-      <c r="B26" s="234" t="s">
+      <c r="C26" s="125" t="s">
         <v>2364</v>
       </c>
-      <c r="C26" s="125" t="s">
+      <c r="D26" s="126" t="s">
         <v>2365</v>
       </c>
-      <c r="D26" s="126" t="s">
-        <v>2366</v>
-      </c>
       <c r="E26" s="117" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="232"/>
-      <c r="B27" s="235"/>
+      <c r="B27" s="234"/>
       <c r="C27" s="132" t="s">
+        <v>2366</v>
+      </c>
+      <c r="D27" s="126" t="s">
         <v>2367</v>
       </c>
-      <c r="D27" s="126" t="s">
-        <v>2368</v>
-      </c>
       <c r="E27" s="117" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="232"/>
-      <c r="B28" s="235"/>
+      <c r="B28" s="234"/>
       <c r="C28" s="132" t="s">
+        <v>2368</v>
+      </c>
+      <c r="D28" s="126" t="s">
         <v>2369</v>
       </c>
-      <c r="D28" s="126" t="s">
-        <v>2370</v>
-      </c>
       <c r="E28" s="117" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="232"/>
-      <c r="B29" s="235"/>
+      <c r="B29" s="234"/>
       <c r="C29" s="132" t="s">
+        <v>2370</v>
+      </c>
+      <c r="D29" s="126" t="s">
         <v>2371</v>
       </c>
-      <c r="D29" s="126" t="s">
-        <v>2372</v>
-      </c>
       <c r="E29" s="117" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="232"/>
-      <c r="B30" s="235"/>
+      <c r="B30" s="234"/>
       <c r="C30" s="132" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D30" s="126" t="s">
         <v>2373</v>
       </c>
-      <c r="D30" s="126" t="s">
-        <v>2374</v>
-      </c>
       <c r="E30" s="117" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -67553,19 +67639,19 @@
     </row>
     <row r="32" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="127" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B32" s="128" t="s">
         <v>2375</v>
       </c>
-      <c r="B32" s="128" t="s">
+      <c r="C32" s="125" t="s">
+        <v>2341</v>
+      </c>
+      <c r="D32" s="126" t="s">
         <v>2376</v>
       </c>
-      <c r="C32" s="125" t="s">
-        <v>2342</v>
-      </c>
-      <c r="D32" s="126" t="s">
-        <v>2377</v>
-      </c>
       <c r="E32" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -67578,94 +67664,94 @@
         <v>1183</v>
       </c>
       <c r="B34" s="231" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C34" s="125" t="s">
         <v>2378</v>
       </c>
-      <c r="C34" s="125" t="s">
+      <c r="D34" s="126" t="s">
         <v>2379</v>
       </c>
-      <c r="D34" s="126" t="s">
-        <v>2380</v>
-      </c>
       <c r="E34" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="232"/>
       <c r="B35" s="232"/>
       <c r="C35" s="125" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D35" s="126" t="s">
         <v>2381</v>
       </c>
-      <c r="D35" s="126" t="s">
-        <v>2382</v>
-      </c>
       <c r="E35" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="232"/>
       <c r="B36" s="232"/>
       <c r="C36" s="125" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D36" s="126" t="s">
         <v>2383</v>
       </c>
-      <c r="D36" s="126" t="s">
-        <v>2384</v>
-      </c>
       <c r="E36" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="232"/>
       <c r="B37" s="232"/>
       <c r="C37" s="125" t="s">
+        <v>2384</v>
+      </c>
+      <c r="D37" s="126" t="s">
         <v>2385</v>
       </c>
-      <c r="D37" s="126" t="s">
-        <v>2386</v>
-      </c>
       <c r="E37" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="232"/>
       <c r="B38" s="232"/>
       <c r="C38" s="125" t="s">
+        <v>2386</v>
+      </c>
+      <c r="D38" s="126" t="s">
         <v>2387</v>
       </c>
-      <c r="D38" s="126" t="s">
-        <v>2388</v>
-      </c>
       <c r="E38" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="232"/>
       <c r="B39" s="232"/>
       <c r="C39" s="125" t="s">
+        <v>2388</v>
+      </c>
+      <c r="D39" s="126" t="s">
         <v>2389</v>
       </c>
-      <c r="D39" s="126" t="s">
-        <v>2390</v>
-      </c>
       <c r="E39" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="232"/>
       <c r="B40" s="232"/>
       <c r="C40" s="125" t="s">
+        <v>2390</v>
+      </c>
+      <c r="D40" s="126" t="s">
         <v>2391</v>
       </c>
-      <c r="D40" s="126" t="s">
-        <v>2392</v>
-      </c>
       <c r="E40" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -67675,36 +67761,36 @@
         <v>870</v>
       </c>
       <c r="D41" s="126" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="E41" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="232"/>
       <c r="B42" s="232"/>
       <c r="C42" s="125" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D42" s="126" t="s">
         <v>2394</v>
       </c>
-      <c r="D42" s="126" t="s">
-        <v>2395</v>
-      </c>
       <c r="E42" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="232"/>
       <c r="B43" s="232"/>
       <c r="C43" s="125" t="s">
+        <v>2395</v>
+      </c>
+      <c r="D43" s="126" t="s">
         <v>2396</v>
       </c>
-      <c r="D43" s="126" t="s">
-        <v>2397</v>
-      </c>
       <c r="E43" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -67721,43 +67807,43 @@
       <c r="A46" s="231" t="s">
         <v>638</v>
       </c>
-      <c r="B46" s="237" t="s">
-        <v>2398</v>
+      <c r="B46" s="236" t="s">
+        <v>2397</v>
       </c>
       <c r="C46" s="125" t="s">
         <v>638</v>
       </c>
       <c r="D46" s="126" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="E46" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="232"/>
-      <c r="B47" s="238"/>
+      <c r="B47" s="237"/>
       <c r="C47" s="125" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D47" s="126" t="s">
         <v>2400</v>
       </c>
-      <c r="D47" s="126" t="s">
-        <v>2401</v>
-      </c>
       <c r="E47" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="232"/>
-      <c r="B48" s="239"/>
+      <c r="B48" s="238"/>
       <c r="C48" s="125" t="s">
+        <v>2401</v>
+      </c>
+      <c r="D48" s="126" t="s">
         <v>2402</v>
       </c>
-      <c r="D48" s="126" t="s">
-        <v>2403</v>
-      </c>
       <c r="E48" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -67767,19 +67853,19 @@
     </row>
     <row r="50" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="130" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B50" s="131" t="s">
         <v>2404</v>
       </c>
-      <c r="B50" s="131" t="s">
+      <c r="C50" s="125" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D50" s="126" t="s">
         <v>2405</v>
       </c>
-      <c r="C50" s="125" t="s">
-        <v>2404</v>
-      </c>
-      <c r="D50" s="126" t="s">
-        <v>2406</v>
-      </c>
       <c r="E50" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -67789,19 +67875,19 @@
     </row>
     <row r="52" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="130" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B52" s="131" t="s">
         <v>2407</v>
       </c>
-      <c r="B52" s="131" t="s">
+      <c r="C52" s="125" t="s">
+        <v>2406</v>
+      </c>
+      <c r="D52" s="126" t="s">
         <v>2408</v>
       </c>
-      <c r="C52" s="125" t="s">
-        <v>2407</v>
-      </c>
-      <c r="D52" s="126" t="s">
-        <v>2409</v>
-      </c>
       <c r="E52" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -67811,45 +67897,45 @@
     </row>
     <row r="54" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="231" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B54" s="233" t="s">
         <v>2410</v>
       </c>
-      <c r="B54" s="234" t="s">
+      <c r="C54" s="125" t="s">
         <v>2411</v>
       </c>
-      <c r="C54" s="125" t="s">
+      <c r="D54" s="126" t="s">
         <v>2412</v>
       </c>
-      <c r="D54" s="126" t="s">
-        <v>2413</v>
-      </c>
       <c r="E54" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="232"/>
-      <c r="B55" s="235"/>
+      <c r="B55" s="234"/>
       <c r="C55" s="125" t="s">
+        <v>2413</v>
+      </c>
+      <c r="D55" s="126" t="s">
         <v>2414</v>
       </c>
-      <c r="D55" s="126" t="s">
-        <v>2415</v>
-      </c>
       <c r="E55" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="232"/>
-      <c r="B56" s="236"/>
+      <c r="B56" s="235"/>
       <c r="C56" s="125" t="s">
+        <v>2415</v>
+      </c>
+      <c r="D56" s="126" t="s">
         <v>2416</v>
       </c>
-      <c r="D56" s="126" t="s">
-        <v>2417</v>
-      </c>
       <c r="E56" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -67865,26 +67951,26 @@
         <v>118</v>
       </c>
       <c r="C58" s="125" t="s">
+        <v>2417</v>
+      </c>
+      <c r="D58" s="126" t="s">
         <v>2418</v>
       </c>
-      <c r="D58" s="126" t="s">
+      <c r="E58" s="117" t="s">
         <v>2419</v>
-      </c>
-      <c r="E58" s="117" t="s">
-        <v>2420</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="232"/>
       <c r="B59" s="232"/>
       <c r="C59" s="125" t="s">
+        <v>2420</v>
+      </c>
+      <c r="D59" s="126" t="s">
         <v>2421</v>
       </c>
-      <c r="D59" s="126" t="s">
-        <v>2422</v>
-      </c>
       <c r="E59" s="117" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -67894,32 +67980,32 @@
     </row>
     <row r="61" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="231" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B61" s="231" t="s">
         <v>2423</v>
       </c>
-      <c r="B61" s="231" t="s">
+      <c r="C61" s="125" t="s">
         <v>2424</v>
       </c>
-      <c r="C61" s="125" t="s">
+      <c r="D61" s="126" t="s">
         <v>2425</v>
       </c>
-      <c r="D61" s="126" t="s">
-        <v>2426</v>
-      </c>
       <c r="E61" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="232"/>
       <c r="B62" s="232"/>
       <c r="C62" s="125" t="s">
+        <v>2426</v>
+      </c>
+      <c r="D62" s="126" t="s">
         <v>2427</v>
       </c>
-      <c r="D62" s="126" t="s">
-        <v>2428</v>
-      </c>
       <c r="E62" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -67929,49 +68015,49 @@
     </row>
     <row r="64" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="134" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B64" s="131" t="s">
         <v>2429</v>
       </c>
-      <c r="B64" s="131" t="s">
+      <c r="C64" s="125" t="s">
+        <v>2401</v>
+      </c>
+      <c r="D64" s="126" t="s">
         <v>2430</v>
       </c>
-      <c r="C64" s="125" t="s">
-        <v>2402</v>
-      </c>
-      <c r="D64" s="126" t="s">
-        <v>2431</v>
-      </c>
       <c r="E64" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="231" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B66" s="231" t="s">
         <v>2432</v>
       </c>
-      <c r="B66" s="231" t="s">
+      <c r="C66" s="125" t="s">
         <v>2433</v>
       </c>
-      <c r="C66" s="125" t="s">
+      <c r="D66" s="126" t="s">
         <v>2434</v>
       </c>
-      <c r="D66" s="126" t="s">
-        <v>2435</v>
-      </c>
       <c r="E66" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="232"/>
       <c r="B67" s="232"/>
       <c r="C67" s="125" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D67" s="126" t="s">
         <v>2436</v>
       </c>
-      <c r="D67" s="126" t="s">
-        <v>2437</v>
-      </c>
       <c r="E67" s="117" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -67981,68 +68067,80 @@
     </row>
     <row r="69" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="231" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B69" s="231" t="s">
         <v>2438</v>
       </c>
-      <c r="B69" s="231" t="s">
+      <c r="C69" s="125" t="s">
         <v>2439</v>
       </c>
-      <c r="C69" s="125" t="s">
+      <c r="D69" s="126" t="s">
         <v>2440</v>
       </c>
-      <c r="D69" s="126" t="s">
-        <v>2441</v>
-      </c>
       <c r="E69" s="117" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="232"/>
       <c r="B70" s="232"/>
       <c r="C70" s="125" t="s">
+        <v>2441</v>
+      </c>
+      <c r="D70" s="126" t="s">
         <v>2442</v>
       </c>
-      <c r="D70" s="126" t="s">
-        <v>2443</v>
-      </c>
       <c r="E70" s="117" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="122" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B72" s="117" t="s">
         <v>2444</v>
-      </c>
-      <c r="B72" s="117" t="s">
-        <v>2445</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="122" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B73" s="117" t="s">
         <v>2446</v>
-      </c>
-      <c r="B73" s="117" t="s">
-        <v>2447</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="122" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B74" s="117" t="s">
         <v>2448</v>
-      </c>
-      <c r="B74" s="117" t="s">
-        <v>2449</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="122" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B75" s="117" t="s">
         <v>2450</v>
-      </c>
-      <c r="B75" s="117" t="s">
-        <v>2451</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="B34:B43"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="B66:B67"/>
     <mergeCell ref="A69:A70"/>
@@ -68053,18 +68151,6 @@
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="B34:B43"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -68098,7 +68184,7 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="110" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="3" spans="1:32" s="135" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -68204,26 +68290,26 @@
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="142"/>
       <c r="B9" s="140" t="s">
+        <v>2452</v>
+      </c>
+      <c r="C9" s="140" t="s">
         <v>2453</v>
-      </c>
-      <c r="C9" s="140" t="s">
-        <v>2454</v>
       </c>
       <c r="D9" s="140"/>
     </row>
     <row r="10" spans="1:32" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="136" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="136" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="136" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -68293,7 +68379,7 @@
         <v>764</v>
       </c>
       <c r="K20" s="138" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="21" spans="1:30" s="60" customFormat="1" x14ac:dyDescent="0.2">
@@ -68302,61 +68388,61 @@
     </row>
     <row r="22" spans="1:30" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="135" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="B22" s="61"/>
     </row>
     <row r="23" spans="1:30" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="144" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="B23" s="116"/>
     </row>
     <row r="24" spans="1:30" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="144" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="B24" s="116"/>
     </row>
     <row r="25" spans="1:30" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="144" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="B25" s="116"/>
     </row>
     <row r="26" spans="1:30" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="144" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="B26" s="116"/>
     </row>
     <row r="27" spans="1:30" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="144" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="B27" s="116"/>
     </row>
     <row r="28" spans="1:30" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="144" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="B28" s="116"/>
     </row>
     <row r="29" spans="1:30" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="144" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="B29" s="116"/>
     </row>
     <row r="30" spans="1:30" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="144" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="B30" s="116"/>
     </row>
     <row r="31" spans="1:30" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="143" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="B31" s="116" t="s">
         <v>757</v>
@@ -68365,43 +68451,43 @@
         <v>287</v>
       </c>
       <c r="D31" s="60" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="E31" s="60" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="F31" s="60" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="G31" s="60" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="H31" s="60" t="s">
         <v>1158</v>
       </c>
       <c r="I31" s="60" t="s">
+        <v>2460</v>
+      </c>
+      <c r="J31" s="60" t="s">
+        <v>2357</v>
+      </c>
+      <c r="K31" s="60" t="s">
         <v>2461</v>
       </c>
-      <c r="J31" s="60" t="s">
-        <v>2358</v>
-      </c>
-      <c r="K31" s="60" t="s">
+      <c r="L31" s="60" t="s">
+        <v>2316</v>
+      </c>
+      <c r="M31" s="60" t="s">
         <v>2462</v>
       </c>
-      <c r="L31" s="60" t="s">
-        <v>2317</v>
-      </c>
-      <c r="M31" s="60" t="s">
+      <c r="N31" s="60" t="s">
         <v>2463</v>
-      </c>
-      <c r="N31" s="60" t="s">
-        <v>2464</v>
       </c>
       <c r="O31" s="60" t="s">
         <v>154</v>
       </c>
       <c r="P31" s="60" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="Q31" s="60" t="s">
         <v>1183</v>
@@ -68410,40 +68496,40 @@
         <v>638</v>
       </c>
       <c r="S31" s="60" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="T31" s="60" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="U31" s="60" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="V31" s="60" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="W31" s="60" t="s">
         <v>870</v>
       </c>
       <c r="X31" s="60" t="s">
+        <v>2465</v>
+      </c>
+      <c r="Y31" s="60" t="s">
         <v>2466</v>
       </c>
-      <c r="Y31" s="60" t="s">
+      <c r="Z31" s="60" t="s">
         <v>2467</v>
       </c>
-      <c r="Z31" s="60" t="s">
+      <c r="AA31" s="60" t="s">
         <v>2468</v>
       </c>
-      <c r="AA31" s="60" t="s">
+      <c r="AB31" s="60" t="s">
         <v>2469</v>
       </c>
-      <c r="AB31" s="60" t="s">
+      <c r="AC31" s="60" t="s">
         <v>2470</v>
       </c>
-      <c r="AC31" s="60" t="s">
+      <c r="AD31" s="60" t="s">
         <v>2471</v>
-      </c>
-      <c r="AD31" s="60" t="s">
-        <v>2472</v>
       </c>
     </row>
     <row r="32" spans="1:30" s="60" customFormat="1" x14ac:dyDescent="0.2">

--- a/ballots/2013-01 Draft/Comments-FHIR_R1_O2_2013JAN.xlsx
+++ b/ballots/2013-01 Draft/Comments-FHIR_R1_O2_2013JAN.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Setup" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ballot!$A$2:$AF$711</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ballot!$A$2:$AF$713</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Submitter!#REF!</definedName>
     <definedName name="Artifact" localSheetId="3">'Instructions Cont..'!#REF!</definedName>
     <definedName name="Artifact">Instructions!$B$9</definedName>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11094" uniqueCount="2518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11120" uniqueCount="2524">
   <si>
     <t xml:space="preserve">BALLOT TITLE: </t>
   </si>
@@ -10144,6 +10144,26 @@
   </si>
   <si>
     <t>Jean/Austin</t>
+  </si>
+  <si>
+    <t>Post-Connectathon</t>
+  </si>
+  <si>
+    <t>Michael van der Zel</t>
+  </si>
+  <si>
+    <t>m.van.der.zel@umcg.nl</t>
+  </si>
+  <si>
+    <t>Chapter number looks like a version e.g. for "Welcome to FHIR 1.0", put chapter number in front of chapter name</t>
+  </si>
+  <si>
+    <t>Paging; I have a requirement for showing the number of pages and progress. There is no reliable way to do this right now. I would expect that if you use paging that this information is required and not optional.
+I am referring to the RFC5005 paging of the results/response in the REST interfaceI.
+Servers SHOULD implement RFC5005, but when they do I think they MUST allow for progres indication, that means that they SHALL return "number of items per page", "current page number" and "total number of pages" in each page. Now it is kind of free and choice by the implementer.</t>
+  </si>
+  <si>
+    <t>FHIR Core</t>
   </si>
 </sst>
 </file>
@@ -11740,10 +11760,6 @@
     <xf numFmtId="165" fontId="0" fillId="39" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -11903,8 +11919,23 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="19" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -11912,14 +11943,14 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -11932,12 +11963,6 @@
     <xf numFmtId="49" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -11963,32 +11988,23 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="19" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -12004,6 +12020,114 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="42" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -12047,114 +12171,6 @@
     <xf numFmtId="0" fontId="22" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="42" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -12171,6 +12187,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12191,8 +12210,9 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="165" fontId="18" fillId="39" borderId="33" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -12572,20 +12592,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:99" ht="45.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="148"/>
+      <c r="A1" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="151"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="169" t="s">
+      <c r="F1" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="171"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="154"/>
       <c r="K1" s="4"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -12593,12 +12613,12 @@
       <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:99" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="148"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="151"/>
       <c r="E2" s="3"/>
       <c r="F2" s="6" t="s">
         <v>3</v>
@@ -12614,20 +12634,20 @@
       <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:99" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="164"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="165"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="146"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="152" t="s">
+      <c r="F3" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="154"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="157"/>
       <c r="K3" s="10"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -12635,18 +12655,18 @@
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:99" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="164" t="s">
+      <c r="A4" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="164"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="165"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="146"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="168"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="149"/>
       <c r="K4" s="10"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -12654,18 +12674,18 @@
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:99" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="157"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="158"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="159"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="154"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="157"/>
       <c r="K5" s="10"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -12673,18 +12693,18 @@
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:99" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="160"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="161"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="154"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="157"/>
       <c r="K6" s="10"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -12692,18 +12712,18 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="147" t="s">
+      <c r="A7" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="147"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="148"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="151"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="163"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="164"/>
       <c r="K7" s="4"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
@@ -12713,18 +12733,18 @@
       <c r="CU7" s="16"/>
     </row>
     <row r="8" spans="1:99" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="147" t="s">
+      <c r="A8" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="148"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="151"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="151"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="168"/>
       <c r="K8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -12732,18 +12752,18 @@
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:99" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="147" t="s">
+      <c r="A9" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="147"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="148"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="151"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="154"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="157"/>
       <c r="K9" s="18"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
@@ -12751,19 +12771,19 @@
       <c r="P9" s="19"/>
     </row>
     <row r="10" spans="1:99" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="155">
+      <c r="A10" s="169">
         <f>IF(Ov=Setup!C9,Disclaimer2,IF(Ov=Setup!B9,Disclaimer,IF(Ov=Setup!D9,,)))</f>
         <v>0</v>
       </c>
-      <c r="B10" s="155"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="155"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="169"/>
     </row>
     <row r="11" spans="1:99" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F11" s="20" t="s">
@@ -12783,12 +12803,12 @@
       <c r="F21" s="24"/>
     </row>
     <row r="23" spans="6:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
     </row>
     <row r="24" spans="6:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F25" s="25"/>
@@ -12796,6 +12816,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:J7"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="A1:D1"/>
@@ -12803,19 +12836,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:J3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Organization You Represent" prompt="Please put the name of the HL7 member organization you represent if it is different from the name of the organization you are employed by.  " sqref="F6"/>
@@ -12839,13 +12859,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" filterMode="1"/>
-  <dimension ref="A1:AF711"/>
+  <dimension ref="A1:AF713"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="K18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R21" sqref="R21"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12864,65 +12884,64 @@
     <col min="13" max="13" width="12.85546875" style="26" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" style="26" customWidth="1"/>
     <col min="15" max="15" width="38.5703125" style="26" customWidth="1"/>
-    <col min="16" max="16" width="24.42578125" style="26" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" style="26" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="24.42578125" style="26" customWidth="1"/>
     <col min="18" max="18" width="9.42578125" style="26" customWidth="1"/>
     <col min="19" max="19" width="14.28515625" style="26" customWidth="1"/>
     <col min="20" max="20" width="4" style="26" customWidth="1"/>
     <col min="21" max="22" width="6.28515625" style="26" customWidth="1"/>
-    <col min="23" max="23" width="10" style="26" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="28" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="29" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="10" style="26" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="28" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="29" customWidth="1"/>
     <col min="26" max="26" width="14.42578125" style="30" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="15.42578125" style="27" customWidth="1"/>
     <col min="28" max="28" width="15.42578125" style="27" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="11" style="26" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="12.28515625" style="31" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" style="31" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="15.7109375" style="26" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="27.85546875" style="26" customWidth="1"/>
+    <col min="32" max="32" width="27.85546875" style="26" hidden="1" customWidth="1"/>
     <col min="33" max="93" width="6.28515625" style="26" customWidth="1"/>
     <col min="94" max="16384" width="11.42578125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32"/>
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="174" t="s">
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="175"/>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="175"/>
-      <c r="R1" s="175"/>
-      <c r="S1" s="175"/>
-      <c r="T1" s="175"/>
-      <c r="U1" s="175"/>
-      <c r="V1" s="175"/>
-      <c r="W1" s="175"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="174" t="s">
+      <c r="M1" s="174"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="174"/>
+      <c r="Q1" s="174"/>
+      <c r="R1" s="174"/>
+      <c r="S1" s="174"/>
+      <c r="T1" s="174"/>
+      <c r="U1" s="174"/>
+      <c r="V1" s="174"/>
+      <c r="W1" s="174"/>
+      <c r="X1" s="175"/>
+      <c r="Y1" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="175"/>
-      <c r="AA1" s="175"/>
-      <c r="AB1" s="175"/>
-      <c r="AC1" s="175"/>
-      <c r="AD1" s="175"/>
-      <c r="AE1" s="175"/>
-      <c r="AF1" s="176"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="174"/>
+      <c r="AB1" s="174"/>
+      <c r="AC1" s="174"/>
+      <c r="AD1" s="174"/>
+      <c r="AE1" s="174"/>
+      <c r="AF1" s="175"/>
     </row>
     <row r="2" spans="1:32" s="33" customFormat="1" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
@@ -22578,7 +22597,7 @@
       <c r="AE126" s="58"/>
       <c r="AF126" s="59"/>
     </row>
-    <row r="127" spans="1:32" s="60" customFormat="1" ht="165.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:32" s="60" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="45">
         <v>125</v>
       </c>
@@ -32668,7 +32687,7 @@
       <c r="AE267" s="58"/>
       <c r="AF267" s="59"/>
     </row>
-    <row r="268" spans="1:32" ht="178.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:32" ht="178.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="64">
         <v>266</v>
       </c>
@@ -32956,7 +32975,7 @@
       <c r="AE271" s="58"/>
       <c r="AF271" s="59"/>
     </row>
-    <row r="272" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="64">
         <v>270</v>
       </c>
@@ -33090,7 +33109,7 @@
       <c r="AE273" s="58"/>
       <c r="AF273" s="59"/>
     </row>
-    <row r="274" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="64">
         <v>272</v>
       </c>
@@ -33154,7 +33173,7 @@
       <c r="AE274" s="58"/>
       <c r="AF274" s="59"/>
     </row>
-    <row r="275" spans="1:32" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:32" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="64">
         <v>273</v>
       </c>
@@ -33290,7 +33309,7 @@
       <c r="AE276" s="58"/>
       <c r="AF276" s="59"/>
     </row>
-    <row r="277" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="64">
         <v>275</v>
       </c>
@@ -33352,7 +33371,7 @@
       <c r="AE277" s="58"/>
       <c r="AF277" s="59"/>
     </row>
-    <row r="278" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="64">
         <v>276</v>
       </c>
@@ -33712,7 +33731,7 @@
       <c r="AE282" s="58"/>
       <c r="AF282" s="59"/>
     </row>
-    <row r="283" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="64">
         <v>281</v>
       </c>
@@ -33772,7 +33791,7 @@
       <c r="AE283" s="58"/>
       <c r="AF283" s="59"/>
     </row>
-    <row r="284" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="64">
         <v>282</v>
       </c>
@@ -33832,7 +33851,7 @@
       <c r="AE284" s="58"/>
       <c r="AF284" s="59"/>
     </row>
-    <row r="285" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="64">
         <v>283</v>
       </c>
@@ -33896,7 +33915,7 @@
       <c r="AE285" s="58"/>
       <c r="AF285" s="59"/>
     </row>
-    <row r="286" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="64">
         <v>284</v>
       </c>
@@ -33960,7 +33979,7 @@
       <c r="AE286" s="58"/>
       <c r="AF286" s="59"/>
     </row>
-    <row r="287" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="64">
         <v>285</v>
       </c>
@@ -34020,7 +34039,7 @@
       <c r="AE287" s="58"/>
       <c r="AF287" s="59"/>
     </row>
-    <row r="288" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="64">
         <v>286</v>
       </c>
@@ -34080,7 +34099,7 @@
       <c r="AE288" s="58"/>
       <c r="AF288" s="59"/>
     </row>
-    <row r="289" spans="1:32" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:32" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="64">
         <v>287</v>
       </c>
@@ -34296,7 +34315,7 @@
       <c r="AE291" s="58"/>
       <c r="AF291" s="59"/>
     </row>
-    <row r="292" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="64">
         <v>290</v>
       </c>
@@ -34360,7 +34379,7 @@
       <c r="AE292" s="58"/>
       <c r="AF292" s="59"/>
     </row>
-    <row r="293" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="64">
         <v>291</v>
       </c>
@@ -34580,7 +34599,7 @@
       <c r="AE295" s="58"/>
       <c r="AF295" s="59"/>
     </row>
-    <row r="296" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="64">
         <v>294</v>
       </c>
@@ -34718,7 +34737,7 @@
       <c r="AE297" s="58"/>
       <c r="AF297" s="59"/>
     </row>
-    <row r="298" spans="1:32" ht="191.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:32" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="64">
         <v>296</v>
       </c>
@@ -34784,7 +34803,7 @@
       <c r="AE298" s="58"/>
       <c r="AF298" s="59"/>
     </row>
-    <row r="299" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="64">
         <v>297</v>
       </c>
@@ -34846,7 +34865,7 @@
       <c r="AE299" s="58"/>
       <c r="AF299" s="59"/>
     </row>
-    <row r="300" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="64">
         <v>298</v>
       </c>
@@ -34912,7 +34931,7 @@
       <c r="AE300" s="58"/>
       <c r="AF300" s="59"/>
     </row>
-    <row r="301" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="64">
         <v>299</v>
       </c>
@@ -35124,7 +35143,7 @@
       <c r="AE303" s="58"/>
       <c r="AF303" s="59"/>
     </row>
-    <row r="304" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="64">
         <v>302</v>
       </c>
@@ -35190,7 +35209,7 @@
       <c r="AE304" s="58"/>
       <c r="AF304" s="59"/>
     </row>
-    <row r="305" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="64">
         <v>303</v>
       </c>
@@ -35558,7 +35577,7 @@
       <c r="AE309" s="58"/>
       <c r="AF309" s="59"/>
     </row>
-    <row r="310" spans="1:32" ht="229.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:32" ht="229.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="64">
         <v>308</v>
       </c>
@@ -35618,7 +35637,7 @@
       <c r="AE310" s="58"/>
       <c r="AF310" s="59"/>
     </row>
-    <row r="311" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="64">
         <v>309</v>
       </c>
@@ -35904,7 +35923,7 @@
       <c r="AE314" s="58"/>
       <c r="AF314" s="59"/>
     </row>
-    <row r="315" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="64">
         <v>313</v>
       </c>
@@ -36276,7 +36295,7 @@
       <c r="AE319" s="58"/>
       <c r="AF319" s="59"/>
     </row>
-    <row r="320" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="64">
         <v>318</v>
       </c>
@@ -36338,7 +36357,7 @@
       <c r="AE320" s="58"/>
       <c r="AF320" s="59"/>
     </row>
-    <row r="321" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="64">
         <v>319</v>
       </c>
@@ -36400,7 +36419,7 @@
       <c r="AE321" s="58"/>
       <c r="AF321" s="59"/>
     </row>
-    <row r="322" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="64">
         <v>320</v>
       </c>
@@ -36464,7 +36483,7 @@
       <c r="AE322" s="58"/>
       <c r="AF322" s="59"/>
     </row>
-    <row r="323" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="64">
         <v>321</v>
       </c>
@@ -36676,7 +36695,7 @@
       <c r="AE325" s="58"/>
       <c r="AF325" s="59"/>
     </row>
-    <row r="326" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="64">
         <v>324</v>
       </c>
@@ -36738,7 +36757,7 @@
       <c r="AE326" s="58"/>
       <c r="AF326" s="59"/>
     </row>
-    <row r="327" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="64">
         <v>325</v>
       </c>
@@ -36806,7 +36825,7 @@
       <c r="AE327" s="58"/>
       <c r="AF327" s="59"/>
     </row>
-    <row r="328" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="64">
         <v>326</v>
       </c>
@@ -37480,7 +37499,7 @@
       <c r="AE336" s="58"/>
       <c r="AF336" s="59"/>
     </row>
-    <row r="337" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="64">
         <v>335</v>
       </c>
@@ -37542,7 +37561,7 @@
       <c r="AE337" s="58"/>
       <c r="AF337" s="59"/>
     </row>
-    <row r="338" spans="1:32" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:32" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="64">
         <v>336</v>
       </c>
@@ -37682,7 +37701,7 @@
       <c r="AE339" s="58"/>
       <c r="AF339" s="59"/>
     </row>
-    <row r="340" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="64">
         <v>338</v>
       </c>
@@ -37744,7 +37763,7 @@
       <c r="AE340" s="58"/>
       <c r="AF340" s="59"/>
     </row>
-    <row r="341" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="64">
         <v>339</v>
       </c>
@@ -37952,7 +37971,7 @@
       <c r="AE343" s="58"/>
       <c r="AF343" s="59"/>
     </row>
-    <row r="344" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="64">
         <v>342</v>
       </c>
@@ -51596,7 +51615,7 @@
       <c r="AE538" s="58"/>
       <c r="AF538" s="68"/>
     </row>
-    <row r="539" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="64">
         <v>536</v>
       </c>
@@ -52220,7 +52239,7 @@
       <c r="AE547" s="58"/>
       <c r="AF547" s="59"/>
     </row>
-    <row r="548" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="64">
         <v>545</v>
       </c>
@@ -57268,7 +57287,7 @@
       <c r="AE617" s="58"/>
       <c r="AF617" s="69"/>
     </row>
-    <row r="618" spans="1:32" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:32" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="64">
         <v>615</v>
       </c>
@@ -59230,7 +59249,7 @@
       <c r="AE642" s="58"/>
       <c r="AF642" s="68"/>
     </row>
-    <row r="643" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="64">
         <v>640</v>
       </c>
@@ -59294,7 +59313,7 @@
       <c r="AE643" s="58"/>
       <c r="AF643" s="68"/>
     </row>
-    <row r="644" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="64">
         <v>641</v>
       </c>
@@ -60462,7 +60481,7 @@
       <c r="AE659" s="58"/>
       <c r="AF659" s="68"/>
     </row>
-    <row r="660" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="64">
         <v>657</v>
       </c>
@@ -60532,7 +60551,7 @@
       <c r="AE660" s="58"/>
       <c r="AF660" s="68"/>
     </row>
-    <row r="661" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="64">
         <v>658</v>
       </c>
@@ -61646,7 +61665,7 @@
       <c r="AE675" s="58"/>
       <c r="AF675" s="68"/>
     </row>
-    <row r="676" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="64">
         <v>673</v>
       </c>
@@ -61714,7 +61733,7 @@
       <c r="AE676" s="58"/>
       <c r="AF676" s="68"/>
     </row>
-    <row r="677" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="64">
         <v>674</v>
       </c>
@@ -61856,7 +61875,7 @@
       <c r="AE678" s="58"/>
       <c r="AF678" s="68"/>
     </row>
-    <row r="679" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="64">
         <v>676</v>
       </c>
@@ -62002,7 +62021,7 @@
       <c r="AE680" s="58"/>
       <c r="AF680" s="59"/>
     </row>
-    <row r="681" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="64">
         <v>678</v>
       </c>
@@ -63619,7 +63638,9 @@
         <v>701</v>
       </c>
       <c r="B704" s="46"/>
-      <c r="C704" s="46"/>
+      <c r="C704" s="47" t="s">
+        <v>50</v>
+      </c>
       <c r="D704" s="46" t="s">
         <v>100</v>
       </c>
@@ -63663,9 +63684,15 @@
       <c r="V704" s="53">
         <v>0</v>
       </c>
+      <c r="W704" s="52"/>
+      <c r="X704" s="52"/>
+      <c r="Y704" s="55"/>
+      <c r="Z704" s="55"/>
       <c r="AA704" s="55" t="s">
         <v>2203</v>
       </c>
+      <c r="AB704" s="55"/>
+      <c r="AC704" s="57"/>
       <c r="AD704" s="58"/>
       <c r="AE704" s="58"/>
       <c r="AF704" s="58"/>
@@ -63675,7 +63702,9 @@
         <v>702</v>
       </c>
       <c r="B705" s="46"/>
-      <c r="C705" s="46"/>
+      <c r="C705" s="47" t="s">
+        <v>50</v>
+      </c>
       <c r="D705" s="46" t="s">
         <v>90</v>
       </c>
@@ -63719,9 +63748,15 @@
       <c r="V705" s="50">
         <v>0</v>
       </c>
+      <c r="W705" s="52"/>
+      <c r="X705" s="52"/>
+      <c r="Y705" s="55"/>
+      <c r="Z705" s="55"/>
       <c r="AA705" s="55" t="s">
         <v>2203</v>
       </c>
+      <c r="AB705" s="55"/>
+      <c r="AC705" s="57"/>
       <c r="AD705" s="58"/>
       <c r="AE705" s="58"/>
       <c r="AF705" s="58"/>
@@ -63731,7 +63766,9 @@
         <v>703</v>
       </c>
       <c r="B706" s="46"/>
-      <c r="C706" s="46"/>
+      <c r="C706" s="47" t="s">
+        <v>50</v>
+      </c>
       <c r="D706" s="46" t="s">
         <v>90</v>
       </c>
@@ -63773,9 +63810,15 @@
       <c r="V706" s="53">
         <v>0</v>
       </c>
+      <c r="W706" s="52"/>
+      <c r="X706" s="52"/>
+      <c r="Y706" s="55"/>
+      <c r="Z706" s="55"/>
       <c r="AA706" s="55" t="s">
         <v>2203</v>
       </c>
+      <c r="AB706" s="55"/>
+      <c r="AC706" s="57"/>
       <c r="AD706" s="58"/>
       <c r="AE706" s="58"/>
       <c r="AF706" s="58"/>
@@ -63785,7 +63828,9 @@
         <v>704</v>
       </c>
       <c r="B707" s="46"/>
-      <c r="C707" s="46"/>
+      <c r="C707" s="47" t="s">
+        <v>50</v>
+      </c>
       <c r="D707" s="46" t="s">
         <v>65</v>
       </c>
@@ -63827,9 +63872,15 @@
       <c r="V707" s="53">
         <v>0</v>
       </c>
+      <c r="W707" s="52"/>
+      <c r="X707" s="52"/>
+      <c r="Y707" s="55"/>
+      <c r="Z707" s="55"/>
       <c r="AA707" s="55" t="s">
         <v>2203</v>
       </c>
+      <c r="AB707" s="55"/>
+      <c r="AC707" s="57"/>
       <c r="AD707" s="58"/>
       <c r="AE707" s="58"/>
       <c r="AF707" s="58"/>
@@ -63839,7 +63890,9 @@
         <v>705</v>
       </c>
       <c r="B708" s="46"/>
-      <c r="C708" s="46"/>
+      <c r="C708" s="47" t="s">
+        <v>50</v>
+      </c>
       <c r="D708" s="46" t="s">
         <v>65</v>
       </c>
@@ -63885,9 +63938,15 @@
       <c r="V708" s="50">
         <v>1</v>
       </c>
+      <c r="W708" s="52"/>
+      <c r="X708" s="52"/>
+      <c r="Y708" s="55"/>
+      <c r="Z708" s="55"/>
       <c r="AA708" s="55" t="s">
         <v>2203</v>
       </c>
+      <c r="AB708" s="55"/>
+      <c r="AC708" s="57"/>
       <c r="AD708" s="58"/>
       <c r="AE708" s="58"/>
       <c r="AF708" s="58"/>
@@ -63897,7 +63956,9 @@
         <v>706</v>
       </c>
       <c r="B709" s="46"/>
-      <c r="C709" s="46"/>
+      <c r="C709" s="47" t="s">
+        <v>50</v>
+      </c>
       <c r="D709" s="46" t="s">
         <v>65</v>
       </c>
@@ -63941,9 +64002,15 @@
       <c r="V709" s="50">
         <v>0</v>
       </c>
+      <c r="W709" s="52"/>
+      <c r="X709" s="52"/>
+      <c r="Y709" s="55"/>
+      <c r="Z709" s="55"/>
       <c r="AA709" s="55" t="s">
         <v>2203</v>
       </c>
+      <c r="AB709" s="55"/>
+      <c r="AC709" s="57"/>
       <c r="AD709" s="58"/>
       <c r="AE709" s="58"/>
       <c r="AF709" s="58"/>
@@ -63953,7 +64020,9 @@
         <v>707</v>
       </c>
       <c r="B710" s="46"/>
-      <c r="C710" s="46"/>
+      <c r="C710" s="47" t="s">
+        <v>50</v>
+      </c>
       <c r="D710" s="46" t="s">
         <v>90</v>
       </c>
@@ -63997,9 +64066,15 @@
       <c r="V710" s="53">
         <v>0</v>
       </c>
+      <c r="W710" s="52"/>
+      <c r="X710" s="52"/>
+      <c r="Y710" s="55"/>
+      <c r="Z710" s="55"/>
       <c r="AA710" s="55" t="s">
         <v>2203</v>
       </c>
+      <c r="AB710" s="55"/>
+      <c r="AC710" s="57"/>
       <c r="AD710" s="58"/>
       <c r="AE710" s="58"/>
       <c r="AF710" s="58"/>
@@ -64009,7 +64084,9 @@
         <v>708</v>
       </c>
       <c r="B711" s="46"/>
-      <c r="C711" s="46"/>
+      <c r="C711" s="47" t="s">
+        <v>50</v>
+      </c>
       <c r="D711" s="46" t="s">
         <v>90</v>
       </c>
@@ -64035,7 +64112,7 @@
         <v>2476</v>
       </c>
       <c r="P711" s="50"/>
-      <c r="Q711" s="74"/>
+      <c r="Q711" s="50"/>
       <c r="R711" s="50" t="s">
         <v>72</v>
       </c>
@@ -64051,39 +64128,165 @@
       <c r="V711" s="50">
         <v>0</v>
       </c>
+      <c r="W711" s="52"/>
+      <c r="X711" s="52"/>
+      <c r="Y711" s="55"/>
+      <c r="Z711" s="55"/>
       <c r="AA711" s="55" t="s">
         <v>2203</v>
       </c>
+      <c r="AB711" s="55"/>
+      <c r="AC711" s="57"/>
       <c r="AD711" s="58"/>
       <c r="AE711" s="58"/>
       <c r="AF711" s="58"/>
     </row>
+    <row r="712" spans="1:32" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A712" s="64">
+        <v>709</v>
+      </c>
+      <c r="B712" s="46"/>
+      <c r="C712" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D712" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E712" s="46"/>
+      <c r="F712" s="46"/>
+      <c r="G712" s="47" t="s">
+        <v>2521</v>
+      </c>
+      <c r="H712" s="49"/>
+      <c r="I712" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="J712" s="50"/>
+      <c r="K712" s="50"/>
+      <c r="L712" s="50"/>
+      <c r="M712" s="50"/>
+      <c r="N712" s="52" t="s">
+        <v>2523</v>
+      </c>
+      <c r="O712" s="50"/>
+      <c r="P712" s="50"/>
+      <c r="Q712" s="50"/>
+      <c r="R712" s="50"/>
+      <c r="S712" s="50"/>
+      <c r="T712" s="50"/>
+      <c r="U712" s="50"/>
+      <c r="V712" s="50"/>
+      <c r="W712" s="52"/>
+      <c r="X712" s="52"/>
+      <c r="Y712" s="55" t="s">
+        <v>2519</v>
+      </c>
+      <c r="Z712" s="55" t="s">
+        <v>1868</v>
+      </c>
+      <c r="AA712" s="55" t="s">
+        <v>2518</v>
+      </c>
+      <c r="AB712" s="239" t="s">
+        <v>2520</v>
+      </c>
+      <c r="AC712" s="57"/>
+      <c r="AD712" s="58"/>
+      <c r="AE712" s="58"/>
+      <c r="AF712" s="58"/>
+    </row>
+    <row r="713" spans="1:32" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A713" s="64">
+        <v>710</v>
+      </c>
+      <c r="B713" s="46"/>
+      <c r="C713" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D713" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E713" s="46"/>
+      <c r="F713" s="46"/>
+      <c r="G713" s="47" t="s">
+        <v>2522</v>
+      </c>
+      <c r="H713" s="49"/>
+      <c r="I713" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="J713" s="50"/>
+      <c r="K713" s="50"/>
+      <c r="L713" s="50"/>
+      <c r="M713" s="50"/>
+      <c r="N713" s="52" t="s">
+        <v>2523</v>
+      </c>
+      <c r="O713" s="50"/>
+      <c r="P713" s="50"/>
+      <c r="Q713" s="50"/>
+      <c r="R713" s="50"/>
+      <c r="S713" s="50"/>
+      <c r="T713" s="50"/>
+      <c r="U713" s="50"/>
+      <c r="V713" s="50"/>
+      <c r="W713" s="52"/>
+      <c r="X713" s="52"/>
+      <c r="Y713" s="55" t="s">
+        <v>2519</v>
+      </c>
+      <c r="Z713" s="55" t="s">
+        <v>1868</v>
+      </c>
+      <c r="AA713" s="55" t="s">
+        <v>2518</v>
+      </c>
+      <c r="AB713" s="239" t="s">
+        <v>2520</v>
+      </c>
+      <c r="AC713" s="57"/>
+      <c r="AD713" s="58"/>
+      <c r="AE713" s="58"/>
+      <c r="AF713" s="58"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AF711">
+  <autoFilter ref="A2:AF713">
     <filterColumn colId="8">
       <filters blank="1">
         <filter val="Impl"/>
         <filter val="Methodology"/>
         <filter val="Non-Impl"/>
+        <filter val="Tooling Fix"/>
         <filter val="Versioning"/>
       </filters>
     </filterColumn>
     <filterColumn colId="11">
-      <filters blank="1"/>
+      <filters blank="1">
+        <filter val="Considered for future use"/>
+        <filter val="Not Persuasive"/>
+        <filter val="Not persuasive with mod"/>
+        <filter val="Persuasive"/>
+        <filter val="Persuasive with mod"/>
+      </filters>
     </filterColumn>
     <filterColumn colId="12">
       <filters blank="1"/>
     </filterColumn>
     <filterColumn colId="13">
       <filters>
+        <filter val="FHIR Core"/>
         <filter val="FHIR-CGIT"/>
         <filter val="FHIR-Core"/>
         <filter val="FHIR-FGB"/>
         <filter val="FHIR-FMG"/>
+        <filter val="FHIR-IHE"/>
         <filter val="FHIR-ITS"/>
         <filter val="FHIR-MnM"/>
+        <filter val="FHIR-PC"/>
         <filter val="FHIR-SD"/>
+        <filter val="FHIR-Security"/>
         <filter val="FHIR-Tool"/>
+        <filter val="FHIR-Vocab"/>
       </filters>
     </filterColumn>
     <filterColumn colId="19">
@@ -64104,7 +64307,7 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3:D703">
       <formula1>"Neg-Mj,Neg-Mi,A-S,A-T,A-Q,A-C"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="W3:X150 W152:X163 W656:X703 W188:X199 W201:X209 W211:X217 W546:X567 W569:X598 W600:X608 W612:X653 X219:X544 W219:W491 W493:W544">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="W3:X150 W152:X163 W656:X713 W188:X199 W201:X209 W211:X217 W546:X567 W569:X598 W600:X608 W612:X653 X219:X544 W219:W491 W493:W544">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M706:M710 M650:M652 M3:M648 R599 M654:M703">
@@ -64765,6 +64968,8 @@
     <hyperlink ref="AB680" r:id="rId615" display="mailto:John.Moehrke@med.ge.com"/>
     <hyperlink ref="AB681" r:id="rId616" display="mailto:John.Moehrke@med.ge.com"/>
     <hyperlink ref="AB682" r:id="rId617" display="mailto:rrhausam@gmail.com"/>
+    <hyperlink ref="AB712" r:id="rId618"/>
+    <hyperlink ref="AB713" r:id="rId619"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="4294967294" verticalDpi="4294967294"/>
@@ -64788,737 +64993,755 @@
   <cols>
     <col min="1" max="1" width="1.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="75" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="75"/>
-    <col min="7" max="7" width="12.7109375" style="75" customWidth="1"/>
-    <col min="8" max="8" width="15" style="75" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" style="75" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="74" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="74"/>
+    <col min="7" max="7" width="12.7109375" style="74" customWidth="1"/>
+    <col min="8" max="8" width="15" style="74" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="74" customWidth="1"/>
     <col min="10" max="10" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="218" t="s">
+      <c r="H1" s="178" t="s">
         <v>2245</v>
       </c>
-      <c r="I1" s="218"/>
+      <c r="I1" s="178"/>
     </row>
     <row r="2" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="75" t="s">
         <v>2246</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
     </row>
     <row r="3" spans="2:14" ht="303.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="219" t="s">
+      <c r="B3" s="179" t="s">
         <v>2247</v>
       </c>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="221"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="181"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="75" t="s">
         <v>2248</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="78"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="77"/>
     </row>
     <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="201" t="s">
+      <c r="B6" s="182" t="s">
         <v>2249</v>
       </c>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="202"/>
-      <c r="I6" s="203"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="184"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="222" t="s">
+      <c r="C7" s="185" t="s">
         <v>2250</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="223"/>
-      <c r="I7" s="224"/>
-      <c r="J7" s="80"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="187"/>
+      <c r="J7" s="79"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="2:14" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="80" t="s">
         <v>2251</v>
       </c>
-      <c r="C8" s="225" t="s">
+      <c r="C8" s="188" t="s">
         <v>2252</v>
       </c>
-      <c r="D8" s="225"/>
-      <c r="E8" s="225"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="225"/>
-      <c r="H8" s="225"/>
-      <c r="I8" s="226"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="189"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="81" t="s">
         <v>2253</v>
       </c>
-      <c r="C9" s="216" t="s">
+      <c r="C9" s="176" t="s">
         <v>2254</v>
       </c>
-      <c r="D9" s="216"/>
-      <c r="E9" s="216"/>
-      <c r="F9" s="216"/>
-      <c r="G9" s="216"/>
-      <c r="H9" s="216"/>
-      <c r="I9" s="217"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="177"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="83"/>
-      <c r="C10" s="84" t="s">
+      <c r="B10" s="82"/>
+      <c r="C10" s="83" t="s">
         <v>2255</v>
       </c>
-      <c r="D10" s="214" t="s">
+      <c r="D10" s="191" t="s">
         <v>2256</v>
       </c>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="215"/>
-      <c r="I10" s="85"/>
+      <c r="E10" s="192"/>
+      <c r="F10" s="192"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="84"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="83"/>
-      <c r="C11" s="84" t="s">
+      <c r="B11" s="82"/>
+      <c r="C11" s="83" t="s">
         <v>2257</v>
       </c>
-      <c r="D11" s="214" t="s">
+      <c r="D11" s="191" t="s">
         <v>2258</v>
       </c>
-      <c r="E11" s="193"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="215"/>
-      <c r="I11" s="85"/>
+      <c r="E11" s="192"/>
+      <c r="F11" s="192"/>
+      <c r="G11" s="192"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="84"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="86"/>
+      <c r="N11" s="85"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="83"/>
-      <c r="C12" s="84" t="s">
+      <c r="B12" s="82"/>
+      <c r="C12" s="83" t="s">
         <v>2259</v>
       </c>
-      <c r="D12" s="214" t="s">
+      <c r="D12" s="191" t="s">
         <v>2260</v>
       </c>
-      <c r="E12" s="193"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="215"/>
-      <c r="I12" s="85"/>
+      <c r="E12" s="192"/>
+      <c r="F12" s="192"/>
+      <c r="G12" s="192"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="84"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="83"/>
-      <c r="C13" s="84" t="s">
+      <c r="B13" s="82"/>
+      <c r="C13" s="83" t="s">
         <v>2261</v>
       </c>
-      <c r="D13" s="214" t="s">
+      <c r="D13" s="191" t="s">
         <v>2262</v>
       </c>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="215"/>
-      <c r="I13" s="85"/>
+      <c r="E13" s="192"/>
+      <c r="F13" s="192"/>
+      <c r="G13" s="192"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="84"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="83"/>
-      <c r="C14" s="84" t="s">
+      <c r="B14" s="82"/>
+      <c r="C14" s="83" t="s">
         <v>2263</v>
       </c>
-      <c r="D14" s="214" t="s">
+      <c r="D14" s="191" t="s">
         <v>2264</v>
       </c>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="215"/>
-      <c r="I14" s="85"/>
+      <c r="E14" s="192"/>
+      <c r="F14" s="192"/>
+      <c r="G14" s="192"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="84"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="83"/>
-      <c r="C15" s="84" t="s">
+      <c r="B15" s="82"/>
+      <c r="C15" s="83" t="s">
         <v>2265</v>
       </c>
-      <c r="D15" s="214" t="s">
+      <c r="D15" s="191" t="s">
         <v>2266</v>
       </c>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="215"/>
-      <c r="I15" s="85"/>
+      <c r="E15" s="192"/>
+      <c r="F15" s="192"/>
+      <c r="G15" s="192"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="84"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="83"/>
-      <c r="C16" s="84" t="s">
+      <c r="B16" s="82"/>
+      <c r="C16" s="83" t="s">
         <v>2267</v>
       </c>
-      <c r="D16" s="214" t="s">
+      <c r="D16" s="191" t="s">
         <v>2268</v>
       </c>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="215"/>
-      <c r="I16" s="85"/>
+      <c r="E16" s="192"/>
+      <c r="F16" s="192"/>
+      <c r="G16" s="192"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="84"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="83"/>
-      <c r="C17" s="84" t="s">
+      <c r="B17" s="82"/>
+      <c r="C17" s="83" t="s">
         <v>2269</v>
       </c>
-      <c r="D17" s="214" t="s">
+      <c r="D17" s="191" t="s">
         <v>2270</v>
       </c>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="215"/>
-      <c r="I17" s="85"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="84"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="83"/>
-      <c r="C18" s="84" t="s">
+      <c r="B18" s="82"/>
+      <c r="C18" s="83" t="s">
         <v>2271</v>
       </c>
-      <c r="D18" s="214" t="s">
+      <c r="D18" s="191" t="s">
         <v>2272</v>
       </c>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="215"/>
-      <c r="I18" s="85"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="84"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="87"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="85"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="84"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="197" t="s">
+      <c r="C20" s="194" t="s">
         <v>2273</v>
       </c>
-      <c r="D20" s="197"/>
-      <c r="E20" s="197"/>
-      <c r="F20" s="197"/>
-      <c r="G20" s="197"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="198"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="195"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="2:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="193" t="s">
+      <c r="C21" s="192" t="s">
         <v>2274</v>
       </c>
-      <c r="D21" s="193"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="194"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="213"/>
-      <c r="L21" s="213"/>
-      <c r="M21" s="213"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="192"/>
+      <c r="G21" s="192"/>
+      <c r="H21" s="192"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="190"/>
+      <c r="L21" s="190"/>
+      <c r="M21" s="190"/>
     </row>
     <row r="22" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="80" t="s">
         <v>2275</v>
       </c>
-      <c r="C22" s="193" t="s">
+      <c r="C22" s="192" t="s">
         <v>2276</v>
       </c>
-      <c r="D22" s="193"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="193"/>
-      <c r="G22" s="193"/>
-      <c r="H22" s="193"/>
-      <c r="I22" s="194"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
+      <c r="D22" s="192"/>
+      <c r="E22" s="192"/>
+      <c r="F22" s="192"/>
+      <c r="G22" s="192"/>
+      <c r="H22" s="192"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
     </row>
     <row r="23" spans="2:13" ht="255.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="80" t="s">
         <v>2277</v>
       </c>
-      <c r="C23" s="195" t="s">
+      <c r="C23" s="199" t="s">
         <v>2278</v>
       </c>
-      <c r="D23" s="195"/>
-      <c r="E23" s="195"/>
-      <c r="F23" s="195"/>
-      <c r="G23" s="195"/>
-      <c r="H23" s="195"/>
-      <c r="I23" s="196"/>
+      <c r="D23" s="199"/>
+      <c r="E23" s="199"/>
+      <c r="F23" s="199"/>
+      <c r="G23" s="199"/>
+      <c r="H23" s="199"/>
+      <c r="I23" s="200"/>
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="197" t="s">
+      <c r="C24" s="194" t="s">
         <v>2279</v>
       </c>
-      <c r="D24" s="197"/>
-      <c r="E24" s="197"/>
-      <c r="F24" s="197"/>
-      <c r="G24" s="197"/>
-      <c r="H24" s="197"/>
-      <c r="I24" s="198"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="194"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="195"/>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="197" t="s">
+      <c r="C25" s="194" t="s">
         <v>2280</v>
       </c>
-      <c r="D25" s="197"/>
-      <c r="E25" s="197"/>
-      <c r="F25" s="197"/>
-      <c r="G25" s="197"/>
-      <c r="H25" s="197"/>
-      <c r="I25" s="198"/>
-      <c r="J25" s="92"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="195"/>
+      <c r="J25" s="91"/>
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="2:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="197" t="s">
+      <c r="C26" s="194" t="s">
         <v>2281</v>
       </c>
-      <c r="D26" s="197"/>
-      <c r="E26" s="197"/>
-      <c r="F26" s="197"/>
-      <c r="G26" s="197"/>
-      <c r="H26" s="197"/>
-      <c r="I26" s="198"/>
+      <c r="D26" s="194"/>
+      <c r="E26" s="194"/>
+      <c r="F26" s="194"/>
+      <c r="G26" s="194"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="195"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="92" t="s">
         <v>2282</v>
       </c>
-      <c r="C27" s="199" t="s">
+      <c r="C27" s="201" t="s">
         <v>2283</v>
       </c>
-      <c r="D27" s="199"/>
-      <c r="E27" s="199"/>
-      <c r="F27" s="199"/>
-      <c r="G27" s="199"/>
-      <c r="H27" s="199"/>
-      <c r="I27" s="200"/>
+      <c r="D27" s="201"/>
+      <c r="E27" s="201"/>
+      <c r="F27" s="201"/>
+      <c r="G27" s="201"/>
+      <c r="H27" s="201"/>
+      <c r="I27" s="202"/>
       <c r="J27" s="25"/>
     </row>
     <row r="28" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="201" t="s">
+      <c r="B28" s="182" t="s">
         <v>2284</v>
       </c>
-      <c r="C28" s="202"/>
-      <c r="D28" s="202"/>
-      <c r="E28" s="202"/>
-      <c r="F28" s="202"/>
-      <c r="G28" s="202"/>
-      <c r="H28" s="202"/>
-      <c r="I28" s="203"/>
+      <c r="C28" s="183"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="183"/>
+      <c r="I28" s="184"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="94" t="s">
+      <c r="B29" s="93" t="s">
         <v>2285</v>
       </c>
-      <c r="C29" s="204" t="s">
+      <c r="C29" s="203" t="s">
         <v>2286</v>
       </c>
-      <c r="D29" s="205"/>
-      <c r="E29" s="205"/>
-      <c r="F29" s="205"/>
-      <c r="G29" s="205"/>
-      <c r="H29" s="205"/>
-      <c r="I29" s="206"/>
+      <c r="D29" s="204"/>
+      <c r="E29" s="204"/>
+      <c r="F29" s="204"/>
+      <c r="G29" s="204"/>
+      <c r="H29" s="204"/>
+      <c r="I29" s="205"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="95" t="s">
+      <c r="B30" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="207" t="s">
+      <c r="C30" s="206" t="s">
         <v>2287</v>
       </c>
-      <c r="D30" s="208"/>
-      <c r="E30" s="208"/>
-      <c r="F30" s="208"/>
-      <c r="G30" s="208"/>
-      <c r="H30" s="208"/>
-      <c r="I30" s="209"/>
+      <c r="D30" s="207"/>
+      <c r="E30" s="207"/>
+      <c r="F30" s="207"/>
+      <c r="G30" s="207"/>
+      <c r="H30" s="207"/>
+      <c r="I30" s="208"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="2:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>2288</v>
       </c>
-      <c r="C31" s="210" t="s">
+      <c r="C31" s="209" t="s">
         <v>2289</v>
       </c>
-      <c r="D31" s="211"/>
-      <c r="E31" s="211"/>
-      <c r="F31" s="211"/>
-      <c r="G31" s="211"/>
-      <c r="H31" s="211"/>
-      <c r="I31" s="212"/>
+      <c r="D31" s="210"/>
+      <c r="E31" s="210"/>
+      <c r="F31" s="210"/>
+      <c r="G31" s="210"/>
+      <c r="H31" s="210"/>
+      <c r="I31" s="211"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="2:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="95" t="s">
+      <c r="B32" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="191" t="s">
+      <c r="C32" s="197" t="s">
         <v>2290</v>
       </c>
-      <c r="D32" s="191"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="191"/>
-      <c r="G32" s="191"/>
-      <c r="H32" s="191"/>
-      <c r="I32" s="192"/>
+      <c r="D32" s="197"/>
+      <c r="E32" s="197"/>
+      <c r="F32" s="197"/>
+      <c r="G32" s="197"/>
+      <c r="H32" s="197"/>
+      <c r="I32" s="198"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="2:13" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="191" t="s">
+      <c r="C33" s="197" t="s">
         <v>2291</v>
       </c>
-      <c r="D33" s="191"/>
-      <c r="E33" s="191"/>
-      <c r="F33" s="191"/>
-      <c r="G33" s="191"/>
-      <c r="H33" s="191"/>
-      <c r="I33" s="192"/>
+      <c r="D33" s="197"/>
+      <c r="E33" s="197"/>
+      <c r="F33" s="197"/>
+      <c r="G33" s="197"/>
+      <c r="H33" s="197"/>
+      <c r="I33" s="198"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="2:13" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="96" t="s">
+      <c r="B34" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="180" t="s">
+      <c r="C34" s="215" t="s">
         <v>2292</v>
       </c>
-      <c r="D34" s="180"/>
-      <c r="E34" s="180"/>
-      <c r="F34" s="180"/>
-      <c r="G34" s="180"/>
-      <c r="H34" s="180"/>
-      <c r="I34" s="181"/>
+      <c r="D34" s="215"/>
+      <c r="E34" s="215"/>
+      <c r="F34" s="215"/>
+      <c r="G34" s="215"/>
+      <c r="H34" s="215"/>
+      <c r="I34" s="216"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
     </row>
     <row r="35" spans="2:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="97" t="s">
+      <c r="B35" s="96" t="s">
         <v>2293</v>
       </c>
-      <c r="C35" s="180" t="s">
+      <c r="C35" s="215" t="s">
         <v>2294</v>
       </c>
-      <c r="D35" s="180"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="180"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="180"/>
-      <c r="I35" s="181"/>
+      <c r="D35" s="215"/>
+      <c r="E35" s="215"/>
+      <c r="F35" s="215"/>
+      <c r="G35" s="215"/>
+      <c r="H35" s="215"/>
+      <c r="I35" s="216"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="90"/>
+      <c r="M35" s="90"/>
     </row>
     <row r="36" spans="2:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="98" t="s">
+      <c r="B36" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="180" t="s">
+      <c r="C36" s="215" t="s">
         <v>2295</v>
       </c>
-      <c r="D36" s="180"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="180"/>
-      <c r="G36" s="180"/>
-      <c r="H36" s="180"/>
-      <c r="I36" s="181"/>
+      <c r="D36" s="215"/>
+      <c r="E36" s="215"/>
+      <c r="F36" s="215"/>
+      <c r="G36" s="215"/>
+      <c r="H36" s="215"/>
+      <c r="I36" s="216"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="91"/>
-      <c r="M36" s="91"/>
+      <c r="K36" s="90"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="90"/>
     </row>
     <row r="37" spans="2:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="99" t="s">
+      <c r="B37" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="180" t="s">
+      <c r="C37" s="215" t="s">
         <v>2296</v>
       </c>
-      <c r="D37" s="180"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="180"/>
-      <c r="G37" s="180"/>
-      <c r="H37" s="180"/>
-      <c r="I37" s="181"/>
+      <c r="D37" s="215"/>
+      <c r="E37" s="215"/>
+      <c r="F37" s="215"/>
+      <c r="G37" s="215"/>
+      <c r="H37" s="215"/>
+      <c r="I37" s="216"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="91"/>
-      <c r="M37" s="91"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
     </row>
     <row r="38" spans="2:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="100" t="s">
+      <c r="B38" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="182" t="s">
+      <c r="C38" s="217" t="s">
         <v>2297</v>
       </c>
-      <c r="D38" s="183"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="183"/>
-      <c r="G38" s="183"/>
-      <c r="H38" s="183"/>
-      <c r="I38" s="184"/>
+      <c r="D38" s="218"/>
+      <c r="E38" s="218"/>
+      <c r="F38" s="218"/>
+      <c r="G38" s="218"/>
+      <c r="H38" s="218"/>
+      <c r="I38" s="219"/>
     </row>
     <row r="39" spans="2:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="100" t="s">
+      <c r="B39" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="182" t="s">
+      <c r="C39" s="217" t="s">
         <v>2298</v>
       </c>
-      <c r="D39" s="183"/>
-      <c r="E39" s="183"/>
-      <c r="F39" s="183"/>
-      <c r="G39" s="183"/>
-      <c r="H39" s="183"/>
-      <c r="I39" s="184"/>
+      <c r="D39" s="218"/>
+      <c r="E39" s="218"/>
+      <c r="F39" s="218"/>
+      <c r="G39" s="218"/>
+      <c r="H39" s="218"/>
+      <c r="I39" s="219"/>
     </row>
     <row r="40" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="101" t="s">
+      <c r="B40" s="100" t="s">
         <v>2299</v>
       </c>
-      <c r="C40" s="185" t="s">
+      <c r="C40" s="220" t="s">
         <v>2300</v>
       </c>
-      <c r="D40" s="186"/>
-      <c r="E40" s="186"/>
-      <c r="F40" s="186"/>
-      <c r="G40" s="186"/>
-      <c r="H40" s="186"/>
-      <c r="I40" s="187"/>
+      <c r="D40" s="221"/>
+      <c r="E40" s="221"/>
+      <c r="F40" s="221"/>
+      <c r="G40" s="221"/>
+      <c r="H40" s="221"/>
+      <c r="I40" s="222"/>
     </row>
     <row r="41" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="102" t="s">
+      <c r="B41" s="101" t="s">
         <v>2301</v>
       </c>
-      <c r="C41" s="188" t="s">
+      <c r="C41" s="223" t="s">
         <v>2302</v>
       </c>
-      <c r="D41" s="186"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="186"/>
-      <c r="G41" s="186"/>
-      <c r="H41" s="186"/>
-      <c r="I41" s="187"/>
+      <c r="D41" s="221"/>
+      <c r="E41" s="221"/>
+      <c r="F41" s="221"/>
+      <c r="G41" s="221"/>
+      <c r="H41" s="221"/>
+      <c r="I41" s="222"/>
     </row>
     <row r="42" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="103" t="s">
+      <c r="B42" s="102" t="s">
         <v>2303</v>
       </c>
-      <c r="C42" s="189" t="s">
+      <c r="C42" s="224" t="s">
         <v>2304</v>
       </c>
-      <c r="D42" s="189"/>
-      <c r="E42" s="189"/>
-      <c r="F42" s="189"/>
-      <c r="G42" s="189"/>
-      <c r="H42" s="189"/>
-      <c r="I42" s="190"/>
+      <c r="D42" s="224"/>
+      <c r="E42" s="224"/>
+      <c r="F42" s="224"/>
+      <c r="G42" s="224"/>
+      <c r="H42" s="224"/>
+      <c r="I42" s="225"/>
     </row>
     <row r="43" spans="2:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="104" t="s">
+      <c r="B43" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="177" t="s">
+      <c r="C43" s="212" t="s">
         <v>2305</v>
       </c>
-      <c r="D43" s="178"/>
-      <c r="E43" s="178"/>
-      <c r="F43" s="178"/>
-      <c r="G43" s="178"/>
-      <c r="H43" s="178"/>
-      <c r="I43" s="179"/>
+      <c r="D43" s="213"/>
+      <c r="E43" s="213"/>
+      <c r="F43" s="213"/>
+      <c r="G43" s="213"/>
+      <c r="H43" s="213"/>
+      <c r="I43" s="214"/>
     </row>
     <row r="44" spans="2:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="104" t="s">
+      <c r="B44" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="177" t="s">
+      <c r="C44" s="212" t="s">
         <v>2306</v>
       </c>
-      <c r="D44" s="178"/>
-      <c r="E44" s="178"/>
-      <c r="F44" s="178"/>
-      <c r="G44" s="178"/>
-      <c r="H44" s="178"/>
-      <c r="I44" s="179"/>
+      <c r="D44" s="213"/>
+      <c r="E44" s="213"/>
+      <c r="F44" s="213"/>
+      <c r="G44" s="213"/>
+      <c r="H44" s="213"/>
+      <c r="I44" s="214"/>
     </row>
     <row r="45" spans="2:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="104" t="s">
+      <c r="B45" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="177" t="s">
+      <c r="C45" s="212" t="s">
         <v>2307</v>
       </c>
-      <c r="D45" s="178"/>
-      <c r="E45" s="178"/>
-      <c r="F45" s="178"/>
-      <c r="G45" s="178"/>
-      <c r="H45" s="178"/>
-      <c r="I45" s="179"/>
+      <c r="D45" s="213"/>
+      <c r="E45" s="213"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="213"/>
+      <c r="H45" s="213"/>
+      <c r="I45" s="214"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="C36:I36"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C32:I32"/>
     <mergeCell ref="K21:M21"/>
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D11:H11"/>
@@ -65531,30 +65754,12 @@
     <mergeCell ref="D18:H18"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="C36:I36"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C38:I38"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H1" location="Ballot!A1" display="Ballot!A1"/>
@@ -65584,48 +65789,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="9.140625" style="75"/>
-    <col min="5" max="5" width="9.42578125" style="75" customWidth="1"/>
-    <col min="6" max="9" width="9.140625" style="75"/>
+    <col min="3" max="4" width="9.140625" style="74"/>
+    <col min="5" max="5" width="9.42578125" style="74" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="74"/>
     <col min="11" max="11" width="10.42578125" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="226" t="s">
         <v>2308</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="105" t="s">
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
+      <c r="I1" s="227"/>
+      <c r="J1" s="104" t="s">
         <v>2309</v>
       </c>
-      <c r="K1" s="106"/>
-      <c r="L1" s="105" t="s">
+      <c r="K1" s="105"/>
+      <c r="L1" s="104" t="s">
         <v>2310</v>
       </c>
-      <c r="M1" s="107"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="229"/>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
+      <c r="A2" s="228"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -65654,7 +65859,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="110" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="109" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="14" width="6.28515625" style="1" customWidth="1"/>
@@ -65666,23 +65871,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="111"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
     </row>
     <row r="2" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="113"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="112"/>
     </row>
     <row r="3" spans="1:28" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="16"/>
@@ -65695,13 +65900,13 @@
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
     </row>
     <row r="4" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="16"/>
@@ -65710,731 +65915,731 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="113"/>
-      <c r="AB5" s="111"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="112"/>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="112"/>
+      <c r="AB5" s="110"/>
     </row>
     <row r="8" spans="1:28" ht="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:28" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="114"/>
+      <c r="A12" s="113"/>
     </row>
     <row r="13" spans="1:28" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="114"/>
-    </row>
-    <row r="14" spans="1:28" s="115" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="110"/>
+      <c r="A13" s="113"/>
+    </row>
+    <row r="14" spans="1:28" s="114" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="109"/>
       <c r="B14" s="60"/>
     </row>
     <row r="15" spans="1:28" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="114"/>
+      <c r="A15" s="113"/>
     </row>
     <row r="16" spans="1:28" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="114"/>
+      <c r="A16" s="113"/>
       <c r="B16" s="61"/>
     </row>
     <row r="17" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="114"/>
+      <c r="A17" s="113"/>
       <c r="B17" s="61"/>
     </row>
     <row r="18" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="114"/>
+      <c r="A18" s="113"/>
       <c r="B18" s="61"/>
     </row>
     <row r="19" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="114"/>
+      <c r="A19" s="113"/>
       <c r="B19" s="61"/>
     </row>
     <row r="20" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="114"/>
-      <c r="B20" s="116"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="115"/>
     </row>
     <row r="21" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="114"/>
-      <c r="B21" s="116"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="115"/>
     </row>
     <row r="22" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="114"/>
-      <c r="B22" s="116"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="115"/>
     </row>
     <row r="23" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="114"/>
-      <c r="B23" s="116"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="115"/>
     </row>
     <row r="24" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="114"/>
-      <c r="B24" s="116"/>
+      <c r="A24" s="113"/>
+      <c r="B24" s="115"/>
     </row>
     <row r="25" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="114"/>
-      <c r="B25" s="116"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="115"/>
     </row>
     <row r="26" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="114"/>
-      <c r="B26" s="116"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="115"/>
     </row>
     <row r="27" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="114"/>
-      <c r="B27" s="116"/>
+      <c r="A27" s="113"/>
+      <c r="B27" s="115"/>
     </row>
     <row r="28" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="114"/>
-      <c r="B28" s="116"/>
+      <c r="A28" s="113"/>
+      <c r="B28" s="115"/>
     </row>
     <row r="29" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="114"/>
+      <c r="A29" s="113"/>
       <c r="B29" s="61"/>
     </row>
     <row r="30" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="114"/>
+      <c r="A30" s="113"/>
     </row>
     <row r="31" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="114"/>
+      <c r="A31" s="113"/>
     </row>
     <row r="32" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="114"/>
+      <c r="A32" s="113"/>
     </row>
     <row r="33" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="114"/>
+      <c r="A33" s="113"/>
     </row>
     <row r="34" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="114"/>
+      <c r="A34" s="113"/>
     </row>
     <row r="35" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="114"/>
+      <c r="A35" s="113"/>
     </row>
     <row r="36" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="114"/>
+      <c r="A36" s="113"/>
     </row>
     <row r="37" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="114"/>
+      <c r="A37" s="113"/>
     </row>
     <row r="38" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="114"/>
+      <c r="A38" s="113"/>
     </row>
     <row r="39" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="114"/>
+      <c r="A39" s="113"/>
     </row>
     <row r="40" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="114"/>
+      <c r="A40" s="113"/>
     </row>
     <row r="41" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="114"/>
+      <c r="A41" s="113"/>
     </row>
     <row r="42" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="114"/>
+      <c r="A42" s="113"/>
     </row>
     <row r="43" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="114"/>
+      <c r="A43" s="113"/>
     </row>
     <row r="44" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="114"/>
+      <c r="A44" s="113"/>
     </row>
     <row r="45" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="114"/>
+      <c r="A45" s="113"/>
     </row>
     <row r="46" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="114"/>
+      <c r="A46" s="113"/>
     </row>
     <row r="47" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="114"/>
+      <c r="A47" s="113"/>
     </row>
     <row r="48" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="114"/>
+      <c r="A48" s="113"/>
     </row>
     <row r="49" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="114"/>
+      <c r="A49" s="113"/>
     </row>
     <row r="50" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="114"/>
+      <c r="A50" s="113"/>
     </row>
     <row r="51" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="114"/>
+      <c r="A51" s="113"/>
     </row>
     <row r="52" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="114"/>
+      <c r="A52" s="113"/>
     </row>
     <row r="53" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="114"/>
+      <c r="A53" s="113"/>
     </row>
     <row r="54" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="114"/>
+      <c r="A54" s="113"/>
     </row>
     <row r="55" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="114"/>
+      <c r="A55" s="113"/>
     </row>
     <row r="56" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="114"/>
+      <c r="A56" s="113"/>
     </row>
     <row r="57" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="114"/>
+      <c r="A57" s="113"/>
     </row>
     <row r="58" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="114"/>
+      <c r="A58" s="113"/>
     </row>
     <row r="59" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="114"/>
+      <c r="A59" s="113"/>
     </row>
     <row r="60" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="114"/>
+      <c r="A60" s="113"/>
     </row>
     <row r="61" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="114"/>
+      <c r="A61" s="113"/>
     </row>
     <row r="62" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="114"/>
+      <c r="A62" s="113"/>
     </row>
     <row r="63" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="114"/>
+      <c r="A63" s="113"/>
     </row>
     <row r="64" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="114"/>
+      <c r="A64" s="113"/>
     </row>
     <row r="65" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="114"/>
+      <c r="A65" s="113"/>
     </row>
     <row r="66" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="114"/>
+      <c r="A66" s="113"/>
     </row>
     <row r="67" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="114"/>
+      <c r="A67" s="113"/>
     </row>
     <row r="68" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="114"/>
+      <c r="A68" s="113"/>
     </row>
     <row r="69" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="114"/>
+      <c r="A69" s="113"/>
     </row>
     <row r="70" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="114"/>
+      <c r="A70" s="113"/>
     </row>
     <row r="71" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="114"/>
+      <c r="A71" s="113"/>
     </row>
     <row r="72" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="114"/>
+      <c r="A72" s="113"/>
     </row>
     <row r="73" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="114"/>
+      <c r="A73" s="113"/>
     </row>
     <row r="74" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="114"/>
+      <c r="A74" s="113"/>
     </row>
     <row r="75" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="114"/>
+      <c r="A75" s="113"/>
     </row>
     <row r="76" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="114"/>
+      <c r="A76" s="113"/>
     </row>
     <row r="77" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="114"/>
+      <c r="A77" s="113"/>
     </row>
     <row r="78" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="114"/>
+      <c r="A78" s="113"/>
     </row>
     <row r="79" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="114"/>
+      <c r="A79" s="113"/>
     </row>
     <row r="80" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="114"/>
+      <c r="A80" s="113"/>
     </row>
     <row r="81" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="114"/>
+      <c r="A81" s="113"/>
     </row>
     <row r="82" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="114"/>
+      <c r="A82" s="113"/>
     </row>
     <row r="83" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="114"/>
+      <c r="A83" s="113"/>
     </row>
     <row r="84" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="114"/>
+      <c r="A84" s="113"/>
     </row>
     <row r="85" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="114"/>
+      <c r="A85" s="113"/>
     </row>
     <row r="86" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="114"/>
+      <c r="A86" s="113"/>
     </row>
     <row r="87" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="114"/>
+      <c r="A87" s="113"/>
     </row>
     <row r="88" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="114"/>
+      <c r="A88" s="113"/>
     </row>
     <row r="89" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="114"/>
+      <c r="A89" s="113"/>
     </row>
     <row r="90" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="114"/>
+      <c r="A90" s="113"/>
     </row>
     <row r="91" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="114"/>
+      <c r="A91" s="113"/>
     </row>
     <row r="92" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="114"/>
+      <c r="A92" s="113"/>
     </row>
     <row r="93" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="114"/>
+      <c r="A93" s="113"/>
     </row>
     <row r="94" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="114"/>
+      <c r="A94" s="113"/>
     </row>
     <row r="95" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="114"/>
+      <c r="A95" s="113"/>
     </row>
     <row r="96" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="114"/>
+      <c r="A96" s="113"/>
     </row>
     <row r="97" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="114"/>
+      <c r="A97" s="113"/>
     </row>
     <row r="98" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="114"/>
+      <c r="A98" s="113"/>
     </row>
     <row r="99" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="114"/>
+      <c r="A99" s="113"/>
     </row>
     <row r="100" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="114"/>
+      <c r="A100" s="113"/>
     </row>
     <row r="101" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="114"/>
+      <c r="A101" s="113"/>
     </row>
     <row r="102" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="114"/>
+      <c r="A102" s="113"/>
     </row>
     <row r="103" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="114"/>
+      <c r="A103" s="113"/>
     </row>
     <row r="104" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="114"/>
+      <c r="A104" s="113"/>
     </row>
     <row r="105" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="114"/>
+      <c r="A105" s="113"/>
     </row>
     <row r="106" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="114"/>
+      <c r="A106" s="113"/>
     </row>
     <row r="107" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="114"/>
+      <c r="A107" s="113"/>
     </row>
     <row r="108" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="114"/>
+      <c r="A108" s="113"/>
     </row>
     <row r="109" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="114"/>
+      <c r="A109" s="113"/>
     </row>
     <row r="110" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="114"/>
+      <c r="A110" s="113"/>
     </row>
     <row r="111" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="114"/>
+      <c r="A111" s="113"/>
     </row>
     <row r="112" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="114"/>
+      <c r="A112" s="113"/>
     </row>
     <row r="113" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="114"/>
+      <c r="A113" s="113"/>
     </row>
     <row r="114" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="114"/>
+      <c r="A114" s="113"/>
     </row>
     <row r="115" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="114"/>
+      <c r="A115" s="113"/>
     </row>
     <row r="116" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="114"/>
+      <c r="A116" s="113"/>
     </row>
     <row r="117" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="114"/>
+      <c r="A117" s="113"/>
     </row>
     <row r="118" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="114"/>
+      <c r="A118" s="113"/>
     </row>
     <row r="119" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="114"/>
+      <c r="A119" s="113"/>
     </row>
     <row r="120" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="114"/>
+      <c r="A120" s="113"/>
     </row>
     <row r="121" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="114"/>
+      <c r="A121" s="113"/>
     </row>
     <row r="122" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="114"/>
+      <c r="A122" s="113"/>
     </row>
     <row r="123" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="114"/>
+      <c r="A123" s="113"/>
     </row>
     <row r="124" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="114"/>
+      <c r="A124" s="113"/>
     </row>
     <row r="125" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="114"/>
+      <c r="A125" s="113"/>
     </row>
     <row r="126" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="114"/>
+      <c r="A126" s="113"/>
     </row>
     <row r="127" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="114"/>
+      <c r="A127" s="113"/>
     </row>
     <row r="128" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="114"/>
+      <c r="A128" s="113"/>
     </row>
     <row r="129" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="114"/>
+      <c r="A129" s="113"/>
     </row>
     <row r="130" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="114"/>
+      <c r="A130" s="113"/>
     </row>
     <row r="131" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="114"/>
+      <c r="A131" s="113"/>
     </row>
     <row r="132" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="114"/>
+      <c r="A132" s="113"/>
     </row>
     <row r="133" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="114"/>
+      <c r="A133" s="113"/>
     </row>
     <row r="134" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="114"/>
+      <c r="A134" s="113"/>
     </row>
     <row r="135" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="114"/>
+      <c r="A135" s="113"/>
     </row>
     <row r="136" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="114"/>
+      <c r="A136" s="113"/>
     </row>
     <row r="137" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="114"/>
+      <c r="A137" s="113"/>
     </row>
     <row r="138" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="114"/>
+      <c r="A138" s="113"/>
     </row>
     <row r="139" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="114"/>
+      <c r="A139" s="113"/>
     </row>
     <row r="140" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="114"/>
+      <c r="A140" s="113"/>
     </row>
     <row r="141" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="114"/>
+      <c r="A141" s="113"/>
     </row>
     <row r="142" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="114"/>
+      <c r="A142" s="113"/>
     </row>
     <row r="143" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="114"/>
+      <c r="A143" s="113"/>
     </row>
     <row r="144" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="114"/>
+      <c r="A144" s="113"/>
     </row>
     <row r="145" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="114"/>
+      <c r="A145" s="113"/>
     </row>
     <row r="146" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="114"/>
+      <c r="A146" s="113"/>
     </row>
     <row r="147" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="114"/>
+      <c r="A147" s="113"/>
     </row>
     <row r="148" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="114"/>
+      <c r="A148" s="113"/>
     </row>
     <row r="149" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="114"/>
+      <c r="A149" s="113"/>
     </row>
     <row r="150" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="114"/>
+      <c r="A150" s="113"/>
     </row>
     <row r="151" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="114"/>
+      <c r="A151" s="113"/>
     </row>
     <row r="152" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="114"/>
+      <c r="A152" s="113"/>
     </row>
     <row r="153" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="114"/>
+      <c r="A153" s="113"/>
     </row>
     <row r="154" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="114"/>
+      <c r="A154" s="113"/>
     </row>
     <row r="155" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="114"/>
+      <c r="A155" s="113"/>
     </row>
     <row r="156" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="114"/>
+      <c r="A156" s="113"/>
     </row>
     <row r="157" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="114"/>
+      <c r="A157" s="113"/>
     </row>
     <row r="158" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="114"/>
+      <c r="A158" s="113"/>
     </row>
     <row r="159" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="114"/>
+      <c r="A159" s="113"/>
     </row>
     <row r="160" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="114"/>
+      <c r="A160" s="113"/>
     </row>
     <row r="161" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="114"/>
+      <c r="A161" s="113"/>
     </row>
     <row r="162" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="114"/>
+      <c r="A162" s="113"/>
     </row>
     <row r="163" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="114"/>
+      <c r="A163" s="113"/>
     </row>
     <row r="164" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="114"/>
+      <c r="A164" s="113"/>
     </row>
     <row r="165" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="114"/>
+      <c r="A165" s="113"/>
     </row>
     <row r="166" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="114"/>
+      <c r="A166" s="113"/>
     </row>
     <row r="167" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="114"/>
+      <c r="A167" s="113"/>
     </row>
     <row r="168" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="114"/>
+      <c r="A168" s="113"/>
     </row>
     <row r="169" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="114"/>
+      <c r="A169" s="113"/>
     </row>
     <row r="170" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="114"/>
+      <c r="A170" s="113"/>
     </row>
     <row r="171" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="114"/>
+      <c r="A171" s="113"/>
     </row>
     <row r="172" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="114"/>
+      <c r="A172" s="113"/>
     </row>
     <row r="173" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="114"/>
+      <c r="A173" s="113"/>
     </row>
     <row r="174" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="114"/>
+      <c r="A174" s="113"/>
     </row>
     <row r="175" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="114"/>
+      <c r="A175" s="113"/>
     </row>
     <row r="176" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="114"/>
+      <c r="A176" s="113"/>
     </row>
     <row r="177" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="114"/>
+      <c r="A177" s="113"/>
     </row>
     <row r="178" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="114"/>
+      <c r="A178" s="113"/>
     </row>
     <row r="179" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="114"/>
+      <c r="A179" s="113"/>
     </row>
     <row r="180" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="114"/>
+      <c r="A180" s="113"/>
     </row>
     <row r="181" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="114"/>
+      <c r="A181" s="113"/>
     </row>
     <row r="182" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="114"/>
+      <c r="A182" s="113"/>
     </row>
     <row r="183" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="114"/>
+      <c r="A183" s="113"/>
     </row>
     <row r="184" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="114"/>
+      <c r="A184" s="113"/>
     </row>
     <row r="185" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="114"/>
+      <c r="A185" s="113"/>
     </row>
     <row r="186" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="114"/>
+      <c r="A186" s="113"/>
     </row>
     <row r="187" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="114"/>
+      <c r="A187" s="113"/>
     </row>
     <row r="188" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="114"/>
+      <c r="A188" s="113"/>
     </row>
     <row r="189" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="114"/>
+      <c r="A189" s="113"/>
     </row>
     <row r="190" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="114"/>
+      <c r="A190" s="113"/>
     </row>
     <row r="191" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="114"/>
+      <c r="A191" s="113"/>
     </row>
     <row r="192" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="114"/>
+      <c r="A192" s="113"/>
     </row>
     <row r="193" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="114"/>
+      <c r="A193" s="113"/>
     </row>
     <row r="194" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="114"/>
+      <c r="A194" s="113"/>
     </row>
     <row r="195" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="114"/>
+      <c r="A195" s="113"/>
     </row>
     <row r="196" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="114"/>
+      <c r="A196" s="113"/>
     </row>
     <row r="197" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="114"/>
+      <c r="A197" s="113"/>
     </row>
     <row r="198" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="114"/>
+      <c r="A198" s="113"/>
     </row>
     <row r="199" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="114"/>
+      <c r="A199" s="113"/>
     </row>
     <row r="200" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="114"/>
+      <c r="A200" s="113"/>
     </row>
     <row r="201" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="114"/>
+      <c r="A201" s="113"/>
     </row>
     <row r="202" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="114"/>
+      <c r="A202" s="113"/>
     </row>
     <row r="203" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="114"/>
+      <c r="A203" s="113"/>
     </row>
     <row r="204" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="114"/>
+      <c r="A204" s="113"/>
     </row>
     <row r="205" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="114"/>
+      <c r="A205" s="113"/>
     </row>
     <row r="206" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="114"/>
+      <c r="A206" s="113"/>
     </row>
     <row r="207" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="114"/>
+      <c r="A207" s="113"/>
     </row>
     <row r="208" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="114"/>
+      <c r="A208" s="113"/>
     </row>
     <row r="209" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="114"/>
+      <c r="A209" s="113"/>
     </row>
     <row r="210" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="114"/>
+      <c r="A210" s="113"/>
     </row>
     <row r="211" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="114"/>
+      <c r="A211" s="113"/>
     </row>
     <row r="212" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="114"/>
+      <c r="A212" s="113"/>
     </row>
     <row r="213" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="114"/>
+      <c r="A213" s="113"/>
     </row>
     <row r="214" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="114"/>
+      <c r="A214" s="113"/>
     </row>
     <row r="215" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="114"/>
+      <c r="A215" s="113"/>
     </row>
     <row r="216" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="114"/>
+      <c r="A216" s="113"/>
     </row>
     <row r="217" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="114"/>
+      <c r="A217" s="113"/>
     </row>
     <row r="218" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="114"/>
+      <c r="A218" s="113"/>
     </row>
     <row r="219" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="114"/>
+      <c r="A219" s="113"/>
     </row>
     <row r="220" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="114"/>
+      <c r="A220" s="113"/>
     </row>
     <row r="221" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="114"/>
+      <c r="A221" s="113"/>
     </row>
     <row r="222" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="114"/>
+      <c r="A222" s="113"/>
     </row>
     <row r="223" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="114"/>
+      <c r="A223" s="113"/>
     </row>
     <row r="224" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="114"/>
+      <c r="A224" s="113"/>
     </row>
     <row r="225" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="114"/>
+      <c r="A225" s="113"/>
     </row>
     <row r="226" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="114"/>
+      <c r="A226" s="113"/>
     </row>
     <row r="227" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="114"/>
+      <c r="A227" s="113"/>
     </row>
     <row r="228" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="114"/>
+      <c r="A228" s="113"/>
     </row>
     <row r="229" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="114"/>
+      <c r="A229" s="113"/>
     </row>
     <row r="230" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="114"/>
+      <c r="A230" s="113"/>
     </row>
     <row r="231" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="114"/>
+      <c r="A231" s="113"/>
     </row>
     <row r="232" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="114"/>
+      <c r="A232" s="113"/>
     </row>
     <row r="233" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="114"/>
+      <c r="A233" s="113"/>
     </row>
     <row r="234" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="114"/>
+      <c r="A234" s="113"/>
     </row>
     <row r="235" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="114"/>
+      <c r="A235" s="113"/>
     </row>
     <row r="236" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="114"/>
+      <c r="A236" s="113"/>
     </row>
     <row r="237" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="114"/>
+      <c r="A237" s="113"/>
     </row>
     <row r="238" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="114"/>
+      <c r="A238" s="113"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -66457,7 +66662,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="110" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="109" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="14" width="6.28515625" style="1" customWidth="1"/>
@@ -66469,23 +66674,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="111"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
     </row>
     <row r="2" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="113"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="112"/>
     </row>
     <row r="3" spans="1:28" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="16"/>
@@ -66498,13 +66703,13 @@
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
     </row>
     <row r="4" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="16"/>
@@ -66513,731 +66718,731 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="113"/>
-      <c r="AB5" s="111"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="112"/>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="112"/>
+      <c r="AB5" s="110"/>
     </row>
     <row r="8" spans="1:28" ht="50.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:28" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="114"/>
+      <c r="A12" s="113"/>
     </row>
     <row r="13" spans="1:28" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="114"/>
-    </row>
-    <row r="14" spans="1:28" s="115" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="110"/>
+      <c r="A13" s="113"/>
+    </row>
+    <row r="14" spans="1:28" s="114" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="109"/>
       <c r="B14" s="60"/>
     </row>
     <row r="15" spans="1:28" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="114"/>
+      <c r="A15" s="113"/>
     </row>
     <row r="16" spans="1:28" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="114"/>
+      <c r="A16" s="113"/>
       <c r="B16" s="61"/>
     </row>
     <row r="17" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="114"/>
+      <c r="A17" s="113"/>
       <c r="B17" s="61"/>
     </row>
     <row r="18" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="114"/>
+      <c r="A18" s="113"/>
       <c r="B18" s="61"/>
     </row>
     <row r="19" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="114"/>
+      <c r="A19" s="113"/>
       <c r="B19" s="61"/>
     </row>
     <row r="20" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="114"/>
-      <c r="B20" s="116"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="115"/>
     </row>
     <row r="21" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="114"/>
-      <c r="B21" s="116"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="115"/>
     </row>
     <row r="22" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="114"/>
-      <c r="B22" s="116"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="115"/>
     </row>
     <row r="23" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="114"/>
-      <c r="B23" s="116"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="115"/>
     </row>
     <row r="24" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="114"/>
-      <c r="B24" s="116"/>
+      <c r="A24" s="113"/>
+      <c r="B24" s="115"/>
     </row>
     <row r="25" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="114"/>
-      <c r="B25" s="116"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="115"/>
     </row>
     <row r="26" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="114"/>
-      <c r="B26" s="116"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="115"/>
     </row>
     <row r="27" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="114"/>
-      <c r="B27" s="116"/>
+      <c r="A27" s="113"/>
+      <c r="B27" s="115"/>
     </row>
     <row r="28" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="114"/>
-      <c r="B28" s="116"/>
+      <c r="A28" s="113"/>
+      <c r="B28" s="115"/>
     </row>
     <row r="29" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="114"/>
+      <c r="A29" s="113"/>
       <c r="B29" s="61"/>
     </row>
     <row r="30" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="114"/>
+      <c r="A30" s="113"/>
     </row>
     <row r="31" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="114"/>
+      <c r="A31" s="113"/>
     </row>
     <row r="32" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="114"/>
+      <c r="A32" s="113"/>
     </row>
     <row r="33" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="114"/>
+      <c r="A33" s="113"/>
     </row>
     <row r="34" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="114"/>
+      <c r="A34" s="113"/>
     </row>
     <row r="35" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="114"/>
+      <c r="A35" s="113"/>
     </row>
     <row r="36" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="114"/>
+      <c r="A36" s="113"/>
     </row>
     <row r="37" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="114"/>
+      <c r="A37" s="113"/>
     </row>
     <row r="38" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="114"/>
+      <c r="A38" s="113"/>
     </row>
     <row r="39" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="114"/>
+      <c r="A39" s="113"/>
     </row>
     <row r="40" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="114"/>
+      <c r="A40" s="113"/>
     </row>
     <row r="41" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="114"/>
+      <c r="A41" s="113"/>
     </row>
     <row r="42" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="114"/>
+      <c r="A42" s="113"/>
     </row>
     <row r="43" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="114"/>
+      <c r="A43" s="113"/>
     </row>
     <row r="44" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="114"/>
+      <c r="A44" s="113"/>
     </row>
     <row r="45" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="114"/>
+      <c r="A45" s="113"/>
     </row>
     <row r="46" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="114"/>
+      <c r="A46" s="113"/>
     </row>
     <row r="47" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="114"/>
+      <c r="A47" s="113"/>
     </row>
     <row r="48" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="114"/>
+      <c r="A48" s="113"/>
     </row>
     <row r="49" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="114"/>
+      <c r="A49" s="113"/>
     </row>
     <row r="50" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="114"/>
+      <c r="A50" s="113"/>
     </row>
     <row r="51" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="114"/>
+      <c r="A51" s="113"/>
     </row>
     <row r="52" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="114"/>
+      <c r="A52" s="113"/>
     </row>
     <row r="53" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="114"/>
+      <c r="A53" s="113"/>
     </row>
     <row r="54" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="114"/>
+      <c r="A54" s="113"/>
     </row>
     <row r="55" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="114"/>
+      <c r="A55" s="113"/>
     </row>
     <row r="56" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="114"/>
+      <c r="A56" s="113"/>
     </row>
     <row r="57" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="114"/>
+      <c r="A57" s="113"/>
     </row>
     <row r="58" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="114"/>
+      <c r="A58" s="113"/>
     </row>
     <row r="59" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="114"/>
+      <c r="A59" s="113"/>
     </row>
     <row r="60" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="114"/>
+      <c r="A60" s="113"/>
     </row>
     <row r="61" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="114"/>
+      <c r="A61" s="113"/>
     </row>
     <row r="62" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="114"/>
+      <c r="A62" s="113"/>
     </row>
     <row r="63" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="114"/>
+      <c r="A63" s="113"/>
     </row>
     <row r="64" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="114"/>
+      <c r="A64" s="113"/>
     </row>
     <row r="65" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="114"/>
+      <c r="A65" s="113"/>
     </row>
     <row r="66" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="114"/>
+      <c r="A66" s="113"/>
     </row>
     <row r="67" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="114"/>
+      <c r="A67" s="113"/>
     </row>
     <row r="68" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="114"/>
+      <c r="A68" s="113"/>
     </row>
     <row r="69" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="114"/>
+      <c r="A69" s="113"/>
     </row>
     <row r="70" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="114"/>
+      <c r="A70" s="113"/>
     </row>
     <row r="71" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="114"/>
+      <c r="A71" s="113"/>
     </row>
     <row r="72" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="114"/>
+      <c r="A72" s="113"/>
     </row>
     <row r="73" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="114"/>
+      <c r="A73" s="113"/>
     </row>
     <row r="74" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="114"/>
+      <c r="A74" s="113"/>
     </row>
     <row r="75" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="114"/>
+      <c r="A75" s="113"/>
     </row>
     <row r="76" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="114"/>
+      <c r="A76" s="113"/>
     </row>
     <row r="77" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="114"/>
+      <c r="A77" s="113"/>
     </row>
     <row r="78" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="114"/>
+      <c r="A78" s="113"/>
     </row>
     <row r="79" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="114"/>
+      <c r="A79" s="113"/>
     </row>
     <row r="80" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="114"/>
+      <c r="A80" s="113"/>
     </row>
     <row r="81" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="114"/>
+      <c r="A81" s="113"/>
     </row>
     <row r="82" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="114"/>
+      <c r="A82" s="113"/>
     </row>
     <row r="83" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="114"/>
+      <c r="A83" s="113"/>
     </row>
     <row r="84" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="114"/>
+      <c r="A84" s="113"/>
     </row>
     <row r="85" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="114"/>
+      <c r="A85" s="113"/>
     </row>
     <row r="86" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="114"/>
+      <c r="A86" s="113"/>
     </row>
     <row r="87" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="114"/>
+      <c r="A87" s="113"/>
     </row>
     <row r="88" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="114"/>
+      <c r="A88" s="113"/>
     </row>
     <row r="89" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="114"/>
+      <c r="A89" s="113"/>
     </row>
     <row r="90" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="114"/>
+      <c r="A90" s="113"/>
     </row>
     <row r="91" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="114"/>
+      <c r="A91" s="113"/>
     </row>
     <row r="92" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="114"/>
+      <c r="A92" s="113"/>
     </row>
     <row r="93" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="114"/>
+      <c r="A93" s="113"/>
     </row>
     <row r="94" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="114"/>
+      <c r="A94" s="113"/>
     </row>
     <row r="95" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="114"/>
+      <c r="A95" s="113"/>
     </row>
     <row r="96" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="114"/>
+      <c r="A96" s="113"/>
     </row>
     <row r="97" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="114"/>
+      <c r="A97" s="113"/>
     </row>
     <row r="98" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="114"/>
+      <c r="A98" s="113"/>
     </row>
     <row r="99" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="114"/>
+      <c r="A99" s="113"/>
     </row>
     <row r="100" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="114"/>
+      <c r="A100" s="113"/>
     </row>
     <row r="101" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="114"/>
+      <c r="A101" s="113"/>
     </row>
     <row r="102" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="114"/>
+      <c r="A102" s="113"/>
     </row>
     <row r="103" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="114"/>
+      <c r="A103" s="113"/>
     </row>
     <row r="104" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="114"/>
+      <c r="A104" s="113"/>
     </row>
     <row r="105" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="114"/>
+      <c r="A105" s="113"/>
     </row>
     <row r="106" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="114"/>
+      <c r="A106" s="113"/>
     </row>
     <row r="107" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="114"/>
+      <c r="A107" s="113"/>
     </row>
     <row r="108" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="114"/>
+      <c r="A108" s="113"/>
     </row>
     <row r="109" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="114"/>
+      <c r="A109" s="113"/>
     </row>
     <row r="110" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="114"/>
+      <c r="A110" s="113"/>
     </row>
     <row r="111" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="114"/>
+      <c r="A111" s="113"/>
     </row>
     <row r="112" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="114"/>
+      <c r="A112" s="113"/>
     </row>
     <row r="113" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="114"/>
+      <c r="A113" s="113"/>
     </row>
     <row r="114" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="114"/>
+      <c r="A114" s="113"/>
     </row>
     <row r="115" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="114"/>
+      <c r="A115" s="113"/>
     </row>
     <row r="116" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="114"/>
+      <c r="A116" s="113"/>
     </row>
     <row r="117" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="114"/>
+      <c r="A117" s="113"/>
     </row>
     <row r="118" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="114"/>
+      <c r="A118" s="113"/>
     </row>
     <row r="119" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="114"/>
+      <c r="A119" s="113"/>
     </row>
     <row r="120" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="114"/>
+      <c r="A120" s="113"/>
     </row>
     <row r="121" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="114"/>
+      <c r="A121" s="113"/>
     </row>
     <row r="122" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="114"/>
+      <c r="A122" s="113"/>
     </row>
     <row r="123" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="114"/>
+      <c r="A123" s="113"/>
     </row>
     <row r="124" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="114"/>
+      <c r="A124" s="113"/>
     </row>
     <row r="125" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="114"/>
+      <c r="A125" s="113"/>
     </row>
     <row r="126" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="114"/>
+      <c r="A126" s="113"/>
     </row>
     <row r="127" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="114"/>
+      <c r="A127" s="113"/>
     </row>
     <row r="128" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="114"/>
+      <c r="A128" s="113"/>
     </row>
     <row r="129" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="114"/>
+      <c r="A129" s="113"/>
     </row>
     <row r="130" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="114"/>
+      <c r="A130" s="113"/>
     </row>
     <row r="131" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="114"/>
+      <c r="A131" s="113"/>
     </row>
     <row r="132" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="114"/>
+      <c r="A132" s="113"/>
     </row>
     <row r="133" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="114"/>
+      <c r="A133" s="113"/>
     </row>
     <row r="134" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="114"/>
+      <c r="A134" s="113"/>
     </row>
     <row r="135" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="114"/>
+      <c r="A135" s="113"/>
     </row>
     <row r="136" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="114"/>
+      <c r="A136" s="113"/>
     </row>
     <row r="137" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="114"/>
+      <c r="A137" s="113"/>
     </row>
     <row r="138" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="114"/>
+      <c r="A138" s="113"/>
     </row>
     <row r="139" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="114"/>
+      <c r="A139" s="113"/>
     </row>
     <row r="140" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="114"/>
+      <c r="A140" s="113"/>
     </row>
     <row r="141" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="114"/>
+      <c r="A141" s="113"/>
     </row>
     <row r="142" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="114"/>
+      <c r="A142" s="113"/>
     </row>
     <row r="143" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="114"/>
+      <c r="A143" s="113"/>
     </row>
     <row r="144" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="114"/>
+      <c r="A144" s="113"/>
     </row>
     <row r="145" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="114"/>
+      <c r="A145" s="113"/>
     </row>
     <row r="146" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="114"/>
+      <c r="A146" s="113"/>
     </row>
     <row r="147" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="114"/>
+      <c r="A147" s="113"/>
     </row>
     <row r="148" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="114"/>
+      <c r="A148" s="113"/>
     </row>
     <row r="149" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="114"/>
+      <c r="A149" s="113"/>
     </row>
     <row r="150" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="114"/>
+      <c r="A150" s="113"/>
     </row>
     <row r="151" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="114"/>
+      <c r="A151" s="113"/>
     </row>
     <row r="152" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="114"/>
+      <c r="A152" s="113"/>
     </row>
     <row r="153" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="114"/>
+      <c r="A153" s="113"/>
     </row>
     <row r="154" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="114"/>
+      <c r="A154" s="113"/>
     </row>
     <row r="155" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="114"/>
+      <c r="A155" s="113"/>
     </row>
     <row r="156" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="114"/>
+      <c r="A156" s="113"/>
     </row>
     <row r="157" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="114"/>
+      <c r="A157" s="113"/>
     </row>
     <row r="158" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="114"/>
+      <c r="A158" s="113"/>
     </row>
     <row r="159" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="114"/>
+      <c r="A159" s="113"/>
     </row>
     <row r="160" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="114"/>
+      <c r="A160" s="113"/>
     </row>
     <row r="161" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="114"/>
+      <c r="A161" s="113"/>
     </row>
     <row r="162" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="114"/>
+      <c r="A162" s="113"/>
     </row>
     <row r="163" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="114"/>
+      <c r="A163" s="113"/>
     </row>
     <row r="164" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="114"/>
+      <c r="A164" s="113"/>
     </row>
     <row r="165" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="114"/>
+      <c r="A165" s="113"/>
     </row>
     <row r="166" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="114"/>
+      <c r="A166" s="113"/>
     </row>
     <row r="167" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="114"/>
+      <c r="A167" s="113"/>
     </row>
     <row r="168" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="114"/>
+      <c r="A168" s="113"/>
     </row>
     <row r="169" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="114"/>
+      <c r="A169" s="113"/>
     </row>
     <row r="170" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="114"/>
+      <c r="A170" s="113"/>
     </row>
     <row r="171" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="114"/>
+      <c r="A171" s="113"/>
     </row>
     <row r="172" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="114"/>
+      <c r="A172" s="113"/>
     </row>
     <row r="173" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="114"/>
+      <c r="A173" s="113"/>
     </row>
     <row r="174" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="114"/>
+      <c r="A174" s="113"/>
     </row>
     <row r="175" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="114"/>
+      <c r="A175" s="113"/>
     </row>
     <row r="176" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="114"/>
+      <c r="A176" s="113"/>
     </row>
     <row r="177" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="114"/>
+      <c r="A177" s="113"/>
     </row>
     <row r="178" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="114"/>
+      <c r="A178" s="113"/>
     </row>
     <row r="179" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="114"/>
+      <c r="A179" s="113"/>
     </row>
     <row r="180" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="114"/>
+      <c r="A180" s="113"/>
     </row>
     <row r="181" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="114"/>
+      <c r="A181" s="113"/>
     </row>
     <row r="182" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="114"/>
+      <c r="A182" s="113"/>
     </row>
     <row r="183" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="114"/>
+      <c r="A183" s="113"/>
     </row>
     <row r="184" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="114"/>
+      <c r="A184" s="113"/>
     </row>
     <row r="185" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="114"/>
+      <c r="A185" s="113"/>
     </row>
     <row r="186" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="114"/>
+      <c r="A186" s="113"/>
     </row>
     <row r="187" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="114"/>
+      <c r="A187" s="113"/>
     </row>
     <row r="188" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="114"/>
+      <c r="A188" s="113"/>
     </row>
     <row r="189" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="114"/>
+      <c r="A189" s="113"/>
     </row>
     <row r="190" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="114"/>
+      <c r="A190" s="113"/>
     </row>
     <row r="191" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="114"/>
+      <c r="A191" s="113"/>
     </row>
     <row r="192" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="114"/>
+      <c r="A192" s="113"/>
     </row>
     <row r="193" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="114"/>
+      <c r="A193" s="113"/>
     </row>
     <row r="194" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="114"/>
+      <c r="A194" s="113"/>
     </row>
     <row r="195" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="114"/>
+      <c r="A195" s="113"/>
     </row>
     <row r="196" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="114"/>
+      <c r="A196" s="113"/>
     </row>
     <row r="197" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="114"/>
+      <c r="A197" s="113"/>
     </row>
     <row r="198" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="114"/>
+      <c r="A198" s="113"/>
     </row>
     <row r="199" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="114"/>
+      <c r="A199" s="113"/>
     </row>
     <row r="200" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="114"/>
+      <c r="A200" s="113"/>
     </row>
     <row r="201" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="114"/>
+      <c r="A201" s="113"/>
     </row>
     <row r="202" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="114"/>
+      <c r="A202" s="113"/>
     </row>
     <row r="203" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="114"/>
+      <c r="A203" s="113"/>
     </row>
     <row r="204" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="114"/>
+      <c r="A204" s="113"/>
     </row>
     <row r="205" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="114"/>
+      <c r="A205" s="113"/>
     </row>
     <row r="206" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="114"/>
+      <c r="A206" s="113"/>
     </row>
     <row r="207" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="114"/>
+      <c r="A207" s="113"/>
     </row>
     <row r="208" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="114"/>
+      <c r="A208" s="113"/>
     </row>
     <row r="209" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="114"/>
+      <c r="A209" s="113"/>
     </row>
     <row r="210" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="114"/>
+      <c r="A210" s="113"/>
     </row>
     <row r="211" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="114"/>
+      <c r="A211" s="113"/>
     </row>
     <row r="212" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="114"/>
+      <c r="A212" s="113"/>
     </row>
     <row r="213" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="114"/>
+      <c r="A213" s="113"/>
     </row>
     <row r="214" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="114"/>
+      <c r="A214" s="113"/>
     </row>
     <row r="215" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="114"/>
+      <c r="A215" s="113"/>
     </row>
     <row r="216" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="114"/>
+      <c r="A216" s="113"/>
     </row>
     <row r="217" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="114"/>
+      <c r="A217" s="113"/>
     </row>
     <row r="218" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="114"/>
+      <c r="A218" s="113"/>
     </row>
     <row r="219" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="114"/>
+      <c r="A219" s="113"/>
     </row>
     <row r="220" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="114"/>
+      <c r="A220" s="113"/>
     </row>
     <row r="221" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="114"/>
+      <c r="A221" s="113"/>
     </row>
     <row r="222" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="114"/>
+      <c r="A222" s="113"/>
     </row>
     <row r="223" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="114"/>
+      <c r="A223" s="113"/>
     </row>
     <row r="224" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="114"/>
+      <c r="A224" s="113"/>
     </row>
     <row r="225" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="114"/>
+      <c r="A225" s="113"/>
     </row>
     <row r="226" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="114"/>
+      <c r="A226" s="113"/>
     </row>
     <row r="227" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="114"/>
+      <c r="A227" s="113"/>
     </row>
     <row r="228" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="114"/>
+      <c r="A228" s="113"/>
     </row>
     <row r="229" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="114"/>
+      <c r="A229" s="113"/>
     </row>
     <row r="230" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="114"/>
+      <c r="A230" s="113"/>
     </row>
     <row r="231" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="114"/>
+      <c r="A231" s="113"/>
     </row>
     <row r="232" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="114"/>
+      <c r="A232" s="113"/>
     </row>
     <row r="233" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="114"/>
+      <c r="A233" s="113"/>
     </row>
     <row r="234" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="114"/>
+      <c r="A234" s="113"/>
     </row>
     <row r="235" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="114"/>
+      <c r="A235" s="113"/>
     </row>
     <row r="236" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="114"/>
+      <c r="A236" s="113"/>
     </row>
     <row r="237" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="114"/>
+      <c r="A237" s="113"/>
     </row>
     <row r="238" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="114"/>
+      <c r="A238" s="113"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -67261,886 +67466,874 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="118" customWidth="1"/>
-    <col min="2" max="2" width="21" style="117" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="117" customWidth="1"/>
-    <col min="4" max="4" width="73.140625" style="117" customWidth="1"/>
-    <col min="5" max="16384" width="29.28515625" style="117"/>
+    <col min="1" max="1" width="23.140625" style="117" customWidth="1"/>
+    <col min="2" max="2" width="21" style="116" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="116" customWidth="1"/>
+    <col min="4" max="4" width="73.140625" style="116" customWidth="1"/>
+    <col min="5" max="16384" width="29.28515625" style="116"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="119" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="s">
+    <row r="1" spans="1:5" s="118" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="119" t="s">
         <v>2311</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="120" t="s">
         <v>2312</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="120" t="s">
         <v>2313</v>
       </c>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="120" t="s">
         <v>2314</v>
       </c>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="120" t="s">
         <v>2315</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="122"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="124"/>
+      <c r="A2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="231" t="s">
+      <c r="A3" s="230" t="s">
         <v>2316</v>
       </c>
       <c r="B3" s="233" t="s">
         <v>2317</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="124" t="s">
         <v>2318</v>
       </c>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="125" t="s">
         <v>2319</v>
       </c>
-      <c r="E3" s="117" t="s">
+      <c r="E3" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="232"/>
+      <c r="A4" s="231"/>
       <c r="B4" s="234"/>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="124" t="s">
         <v>2321</v>
       </c>
-      <c r="D4" s="126" t="s">
+      <c r="D4" s="125" t="s">
         <v>2322</v>
       </c>
-      <c r="E4" s="117" t="s">
+      <c r="E4" s="116" t="s">
         <v>2323</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="232"/>
+      <c r="A5" s="231"/>
       <c r="B5" s="234"/>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="124" t="s">
         <v>2324</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="125" t="s">
         <v>2325</v>
       </c>
-      <c r="E5" s="117" t="s">
+      <c r="E5" s="116" t="s">
         <v>2323</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="232"/>
+      <c r="A6" s="231"/>
       <c r="B6" s="234"/>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="124" t="s">
         <v>2326</v>
       </c>
-      <c r="D6" s="126" t="s">
+      <c r="D6" s="125" t="s">
         <v>2327</v>
       </c>
-      <c r="E6" s="117" t="s">
+      <c r="E6" s="116" t="s">
         <v>2323</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="232"/>
+      <c r="A7" s="231"/>
       <c r="B7" s="234"/>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="124" t="s">
         <v>2265</v>
       </c>
-      <c r="D7" s="126" t="s">
+      <c r="D7" s="125" t="s">
         <v>2328</v>
       </c>
-      <c r="E7" s="117" t="s">
+      <c r="E7" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="232"/>
+      <c r="A8" s="231"/>
       <c r="B8" s="234"/>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="124" t="s">
         <v>2329</v>
       </c>
-      <c r="D8" s="126" t="s">
+      <c r="D8" s="125" t="s">
         <v>2330</v>
       </c>
-      <c r="E8" s="117" t="s">
+      <c r="E8" s="116" t="s">
         <v>2331</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="232"/>
+      <c r="A9" s="231"/>
       <c r="B9" s="234"/>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="124" t="s">
         <v>2332</v>
       </c>
-      <c r="D9" s="126" t="s">
+      <c r="D9" s="125" t="s">
         <v>2333</v>
       </c>
-      <c r="E9" s="117" t="s">
+      <c r="E9" s="116" t="s">
         <v>2323</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="232"/>
+      <c r="A10" s="231"/>
       <c r="B10" s="234"/>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="124" t="s">
         <v>2334</v>
       </c>
-      <c r="D10" s="126" t="s">
+      <c r="D10" s="125" t="s">
         <v>2335</v>
       </c>
-      <c r="E10" s="117" t="s">
+      <c r="E10" s="116" t="s">
         <v>2336</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="239"/>
+      <c r="A11" s="232"/>
       <c r="B11" s="235"/>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="124" t="s">
         <v>2337</v>
       </c>
-      <c r="D11" s="126" t="s">
+      <c r="D11" s="125" t="s">
         <v>2338</v>
       </c>
-      <c r="E11" s="117" t="s">
+      <c r="E11" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="122"/>
+      <c r="A12" s="121"/>
     </row>
     <row r="13" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="126" t="s">
         <v>2339</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="127" t="s">
         <v>2340</v>
       </c>
-      <c r="C13" s="125" t="s">
+      <c r="C13" s="124" t="s">
         <v>2341</v>
       </c>
-      <c r="D13" s="126" t="s">
+      <c r="D13" s="125" t="s">
         <v>2342</v>
       </c>
-      <c r="E13" s="117" t="s">
+      <c r="E13" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="129"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="124"/>
+      <c r="A14" s="128"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="123"/>
     </row>
     <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="129" t="s">
         <v>2343</v>
       </c>
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="130" t="s">
         <v>2344</v>
       </c>
-      <c r="C15" s="125" t="s">
+      <c r="C15" s="124" t="s">
         <v>2345</v>
       </c>
-      <c r="D15" s="126" t="s">
+      <c r="D15" s="125" t="s">
         <v>2346</v>
       </c>
-      <c r="E15" s="117" t="s">
+      <c r="E15" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="129"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="124"/>
+      <c r="A16" s="128"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="123"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="129" t="s">
         <v>2347</v>
       </c>
-      <c r="B17" s="131" t="s">
+      <c r="B17" s="130" t="s">
         <v>2348</v>
       </c>
-      <c r="C17" s="125" t="s">
+      <c r="C17" s="124" t="s">
         <v>2347</v>
       </c>
-      <c r="D17" s="126" t="s">
+      <c r="D17" s="125" t="s">
         <v>2349</v>
       </c>
-      <c r="E17" s="117" t="s">
+      <c r="E17" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="129"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="124"/>
+      <c r="A18" s="128"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="123"/>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="231" t="s">
+      <c r="A19" s="230" t="s">
         <v>1158</v>
       </c>
-      <c r="B19" s="231" t="s">
+      <c r="B19" s="230" t="s">
         <v>2350</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="124" t="s">
         <v>2351</v>
       </c>
-      <c r="D19" s="126" t="s">
+      <c r="D19" s="125" t="s">
         <v>2352</v>
       </c>
-      <c r="E19" s="117" t="s">
+      <c r="E19" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="232"/>
-      <c r="B20" s="232"/>
-      <c r="C20" s="125" t="s">
+      <c r="A20" s="231"/>
+      <c r="B20" s="231"/>
+      <c r="C20" s="124" t="s">
         <v>2353</v>
       </c>
-      <c r="D20" s="126" t="s">
+      <c r="D20" s="125" t="s">
         <v>2354</v>
       </c>
-      <c r="E20" s="117" t="s">
+      <c r="E20" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="232"/>
-      <c r="B21" s="232"/>
-      <c r="C21" s="125" t="s">
+      <c r="A21" s="231"/>
+      <c r="B21" s="231"/>
+      <c r="C21" s="124" t="s">
         <v>2355</v>
       </c>
-      <c r="D21" s="126" t="s">
+      <c r="D21" s="125" t="s">
         <v>2356</v>
       </c>
-      <c r="E21" s="117" t="s">
+      <c r="E21" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="122"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="124"/>
+      <c r="A22" s="121"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="123"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="231" t="s">
+      <c r="A23" s="230" t="s">
         <v>2357</v>
       </c>
-      <c r="B23" s="231" t="s">
+      <c r="B23" s="230" t="s">
         <v>2358</v>
       </c>
-      <c r="C23" s="125" t="s">
+      <c r="C23" s="124" t="s">
         <v>2359</v>
       </c>
-      <c r="D23" s="126" t="s">
+      <c r="D23" s="125" t="s">
         <v>2360</v>
       </c>
-      <c r="E23" s="117" t="s">
+      <c r="E23" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="232"/>
-      <c r="B24" s="232"/>
-      <c r="C24" s="125" t="s">
+      <c r="A24" s="231"/>
+      <c r="B24" s="231"/>
+      <c r="C24" s="124" t="s">
         <v>2357</v>
       </c>
-      <c r="D24" s="126" t="s">
+      <c r="D24" s="125" t="s">
         <v>2361</v>
       </c>
-      <c r="E24" s="117" t="s">
+      <c r="E24" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="129"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="124"/>
+      <c r="A25" s="128"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="123"/>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="231" t="s">
+      <c r="A26" s="230" t="s">
         <v>2362</v>
       </c>
       <c r="B26" s="233" t="s">
         <v>2363</v>
       </c>
-      <c r="C26" s="125" t="s">
+      <c r="C26" s="124" t="s">
         <v>2364</v>
       </c>
-      <c r="D26" s="126" t="s">
+      <c r="D26" s="125" t="s">
         <v>2365</v>
       </c>
-      <c r="E26" s="117" t="s">
+      <c r="E26" s="116" t="s">
         <v>2323</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="232"/>
+      <c r="A27" s="231"/>
       <c r="B27" s="234"/>
-      <c r="C27" s="132" t="s">
+      <c r="C27" s="131" t="s">
         <v>2366</v>
       </c>
-      <c r="D27" s="126" t="s">
+      <c r="D27" s="125" t="s">
         <v>2367</v>
       </c>
-      <c r="E27" s="117" t="s">
+      <c r="E27" s="116" t="s">
         <v>2323</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="232"/>
+      <c r="A28" s="231"/>
       <c r="B28" s="234"/>
-      <c r="C28" s="132" t="s">
+      <c r="C28" s="131" t="s">
         <v>2368</v>
       </c>
-      <c r="D28" s="126" t="s">
+      <c r="D28" s="125" t="s">
         <v>2369</v>
       </c>
-      <c r="E28" s="117" t="s">
+      <c r="E28" s="116" t="s">
         <v>2323</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="232"/>
+      <c r="A29" s="231"/>
       <c r="B29" s="234"/>
-      <c r="C29" s="132" t="s">
+      <c r="C29" s="131" t="s">
         <v>2370</v>
       </c>
-      <c r="D29" s="126" t="s">
+      <c r="D29" s="125" t="s">
         <v>2371</v>
       </c>
-      <c r="E29" s="117" t="s">
+      <c r="E29" s="116" t="s">
         <v>2323</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="232"/>
+      <c r="A30" s="231"/>
       <c r="B30" s="234"/>
-      <c r="C30" s="132" t="s">
+      <c r="C30" s="131" t="s">
         <v>2372</v>
       </c>
-      <c r="D30" s="126" t="s">
+      <c r="D30" s="125" t="s">
         <v>2373</v>
       </c>
-      <c r="E30" s="117" t="s">
+      <c r="E30" s="116" t="s">
         <v>2323</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="122"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="124"/>
+      <c r="A31" s="121"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="123"/>
     </row>
     <row r="32" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="127" t="s">
+      <c r="A32" s="126" t="s">
         <v>2374</v>
       </c>
-      <c r="B32" s="128" t="s">
+      <c r="B32" s="127" t="s">
         <v>2375</v>
       </c>
-      <c r="C32" s="125" t="s">
+      <c r="C32" s="124" t="s">
         <v>2341</v>
       </c>
-      <c r="D32" s="126" t="s">
+      <c r="D32" s="125" t="s">
         <v>2376</v>
       </c>
-      <c r="E32" s="117" t="s">
+      <c r="E32" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="122"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="124"/>
+      <c r="A33" s="121"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="123"/>
     </row>
     <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="231" t="s">
+      <c r="A34" s="230" t="s">
         <v>1183</v>
       </c>
-      <c r="B34" s="231" t="s">
+      <c r="B34" s="230" t="s">
         <v>2377</v>
       </c>
-      <c r="C34" s="125" t="s">
+      <c r="C34" s="124" t="s">
         <v>2378</v>
       </c>
-      <c r="D34" s="126" t="s">
+      <c r="D34" s="125" t="s">
         <v>2379</v>
       </c>
-      <c r="E34" s="117" t="s">
+      <c r="E34" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="232"/>
-      <c r="B35" s="232"/>
-      <c r="C35" s="125" t="s">
+      <c r="A35" s="231"/>
+      <c r="B35" s="231"/>
+      <c r="C35" s="124" t="s">
         <v>2380</v>
       </c>
-      <c r="D35" s="126" t="s">
+      <c r="D35" s="125" t="s">
         <v>2381</v>
       </c>
-      <c r="E35" s="117" t="s">
+      <c r="E35" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="232"/>
-      <c r="B36" s="232"/>
-      <c r="C36" s="125" t="s">
+      <c r="A36" s="231"/>
+      <c r="B36" s="231"/>
+      <c r="C36" s="124" t="s">
         <v>2382</v>
       </c>
-      <c r="D36" s="126" t="s">
+      <c r="D36" s="125" t="s">
         <v>2383</v>
       </c>
-      <c r="E36" s="117" t="s">
+      <c r="E36" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="232"/>
-      <c r="B37" s="232"/>
-      <c r="C37" s="125" t="s">
+      <c r="A37" s="231"/>
+      <c r="B37" s="231"/>
+      <c r="C37" s="124" t="s">
         <v>2384</v>
       </c>
-      <c r="D37" s="126" t="s">
+      <c r="D37" s="125" t="s">
         <v>2385</v>
       </c>
-      <c r="E37" s="117" t="s">
+      <c r="E37" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="232"/>
-      <c r="B38" s="232"/>
-      <c r="C38" s="125" t="s">
+      <c r="A38" s="231"/>
+      <c r="B38" s="231"/>
+      <c r="C38" s="124" t="s">
         <v>2386</v>
       </c>
-      <c r="D38" s="126" t="s">
+      <c r="D38" s="125" t="s">
         <v>2387</v>
       </c>
-      <c r="E38" s="117" t="s">
+      <c r="E38" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="232"/>
-      <c r="B39" s="232"/>
-      <c r="C39" s="125" t="s">
+      <c r="A39" s="231"/>
+      <c r="B39" s="231"/>
+      <c r="C39" s="124" t="s">
         <v>2388</v>
       </c>
-      <c r="D39" s="126" t="s">
+      <c r="D39" s="125" t="s">
         <v>2389</v>
       </c>
-      <c r="E39" s="117" t="s">
+      <c r="E39" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="232"/>
-      <c r="B40" s="232"/>
-      <c r="C40" s="125" t="s">
+      <c r="A40" s="231"/>
+      <c r="B40" s="231"/>
+      <c r="C40" s="124" t="s">
         <v>2390</v>
       </c>
-      <c r="D40" s="126" t="s">
+      <c r="D40" s="125" t="s">
         <v>2391</v>
       </c>
-      <c r="E40" s="117" t="s">
+      <c r="E40" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="232"/>
-      <c r="B41" s="232"/>
-      <c r="C41" s="125" t="s">
+      <c r="A41" s="231"/>
+      <c r="B41" s="231"/>
+      <c r="C41" s="124" t="s">
         <v>870</v>
       </c>
-      <c r="D41" s="126" t="s">
+      <c r="D41" s="125" t="s">
         <v>2392</v>
       </c>
-      <c r="E41" s="117" t="s">
+      <c r="E41" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="232"/>
-      <c r="B42" s="232"/>
-      <c r="C42" s="125" t="s">
+      <c r="A42" s="231"/>
+      <c r="B42" s="231"/>
+      <c r="C42" s="124" t="s">
         <v>2393</v>
       </c>
-      <c r="D42" s="126" t="s">
+      <c r="D42" s="125" t="s">
         <v>2394</v>
       </c>
-      <c r="E42" s="117" t="s">
+      <c r="E42" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="232"/>
-      <c r="B43" s="232"/>
-      <c r="C43" s="125" t="s">
+      <c r="A43" s="231"/>
+      <c r="B43" s="231"/>
+      <c r="C43" s="124" t="s">
         <v>2395</v>
       </c>
-      <c r="D43" s="126" t="s">
+      <c r="D43" s="125" t="s">
         <v>2396</v>
       </c>
-      <c r="E43" s="117" t="s">
+      <c r="E43" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="122"/>
-      <c r="C44" s="123"/>
-      <c r="D44" s="124"/>
+      <c r="A44" s="121"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="123"/>
     </row>
     <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="122"/>
-      <c r="C45" s="123"/>
-      <c r="D45" s="124"/>
+      <c r="A45" s="121"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="123"/>
     </row>
     <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="231" t="s">
+      <c r="A46" s="230" t="s">
         <v>638</v>
       </c>
       <c r="B46" s="236" t="s">
         <v>2397</v>
       </c>
-      <c r="C46" s="125" t="s">
+      <c r="C46" s="124" t="s">
         <v>638</v>
       </c>
-      <c r="D46" s="126" t="s">
+      <c r="D46" s="125" t="s">
         <v>2398</v>
       </c>
-      <c r="E46" s="117" t="s">
+      <c r="E46" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="232"/>
+      <c r="A47" s="231"/>
       <c r="B47" s="237"/>
-      <c r="C47" s="125" t="s">
+      <c r="C47" s="124" t="s">
         <v>2399</v>
       </c>
-      <c r="D47" s="126" t="s">
+      <c r="D47" s="125" t="s">
         <v>2400</v>
       </c>
-      <c r="E47" s="117" t="s">
+      <c r="E47" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="232"/>
+      <c r="A48" s="231"/>
       <c r="B48" s="238"/>
-      <c r="C48" s="125" t="s">
+      <c r="C48" s="124" t="s">
         <v>2401</v>
       </c>
-      <c r="D48" s="126" t="s">
+      <c r="D48" s="125" t="s">
         <v>2402</v>
       </c>
-      <c r="E48" s="117" t="s">
+      <c r="E48" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="122"/>
-      <c r="C49" s="123"/>
-      <c r="D49" s="124"/>
+      <c r="A49" s="121"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="123"/>
     </row>
     <row r="50" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="130" t="s">
+      <c r="A50" s="129" t="s">
         <v>2403</v>
       </c>
-      <c r="B50" s="131" t="s">
+      <c r="B50" s="130" t="s">
         <v>2404</v>
       </c>
-      <c r="C50" s="125" t="s">
+      <c r="C50" s="124" t="s">
         <v>2403</v>
       </c>
-      <c r="D50" s="126" t="s">
+      <c r="D50" s="125" t="s">
         <v>2405</v>
       </c>
-      <c r="E50" s="117" t="s">
+      <c r="E50" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="129"/>
-      <c r="C51" s="123"/>
-      <c r="D51" s="124"/>
+      <c r="A51" s="128"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="123"/>
     </row>
     <row r="52" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="130" t="s">
+      <c r="A52" s="129" t="s">
         <v>2406</v>
       </c>
-      <c r="B52" s="131" t="s">
+      <c r="B52" s="130" t="s">
         <v>2407</v>
       </c>
-      <c r="C52" s="125" t="s">
+      <c r="C52" s="124" t="s">
         <v>2406</v>
       </c>
-      <c r="D52" s="126" t="s">
+      <c r="D52" s="125" t="s">
         <v>2408</v>
       </c>
-      <c r="E52" s="117" t="s">
+      <c r="E52" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="129"/>
-      <c r="C53" s="123"/>
-      <c r="D53" s="124"/>
+      <c r="A53" s="128"/>
+      <c r="C53" s="122"/>
+      <c r="D53" s="123"/>
     </row>
     <row r="54" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="231" t="s">
+      <c r="A54" s="230" t="s">
         <v>2409</v>
       </c>
       <c r="B54" s="233" t="s">
         <v>2410</v>
       </c>
-      <c r="C54" s="125" t="s">
+      <c r="C54" s="124" t="s">
         <v>2411</v>
       </c>
-      <c r="D54" s="126" t="s">
+      <c r="D54" s="125" t="s">
         <v>2412</v>
       </c>
-      <c r="E54" s="117" t="s">
+      <c r="E54" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="232"/>
+      <c r="A55" s="231"/>
       <c r="B55" s="234"/>
-      <c r="C55" s="125" t="s">
+      <c r="C55" s="124" t="s">
         <v>2413</v>
       </c>
-      <c r="D55" s="126" t="s">
+      <c r="D55" s="125" t="s">
         <v>2414</v>
       </c>
-      <c r="E55" s="117" t="s">
+      <c r="E55" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="232"/>
+      <c r="A56" s="231"/>
       <c r="B56" s="235"/>
-      <c r="C56" s="125" t="s">
+      <c r="C56" s="124" t="s">
         <v>2415</v>
       </c>
-      <c r="D56" s="126" t="s">
+      <c r="D56" s="125" t="s">
         <v>2416</v>
       </c>
-      <c r="E56" s="117" t="s">
+      <c r="E56" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="129"/>
-      <c r="C57" s="123"/>
-      <c r="D57" s="124"/>
+      <c r="A57" s="128"/>
+      <c r="C57" s="122"/>
+      <c r="D57" s="123"/>
     </row>
     <row r="58" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="231" t="s">
+      <c r="A58" s="230" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="231" t="s">
+      <c r="B58" s="230" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="125" t="s">
+      <c r="C58" s="124" t="s">
         <v>2417</v>
       </c>
-      <c r="D58" s="126" t="s">
+      <c r="D58" s="125" t="s">
         <v>2418</v>
       </c>
-      <c r="E58" s="117" t="s">
+      <c r="E58" s="116" t="s">
         <v>2419</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="232"/>
-      <c r="B59" s="232"/>
-      <c r="C59" s="125" t="s">
+      <c r="A59" s="231"/>
+      <c r="B59" s="231"/>
+      <c r="C59" s="124" t="s">
         <v>2420</v>
       </c>
-      <c r="D59" s="126" t="s">
+      <c r="D59" s="125" t="s">
         <v>2421</v>
       </c>
-      <c r="E59" s="117" t="s">
+      <c r="E59" s="116" t="s">
         <v>2419</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="129"/>
-      <c r="C60" s="123"/>
-      <c r="D60" s="124"/>
+      <c r="A60" s="128"/>
+      <c r="C60" s="122"/>
+      <c r="D60" s="123"/>
     </row>
     <row r="61" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="231" t="s">
+      <c r="A61" s="230" t="s">
         <v>2422</v>
       </c>
-      <c r="B61" s="231" t="s">
+      <c r="B61" s="230" t="s">
         <v>2423</v>
       </c>
-      <c r="C61" s="125" t="s">
+      <c r="C61" s="124" t="s">
         <v>2424</v>
       </c>
-      <c r="D61" s="126" t="s">
+      <c r="D61" s="125" t="s">
         <v>2425</v>
       </c>
-      <c r="E61" s="117" t="s">
+      <c r="E61" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="232"/>
-      <c r="B62" s="232"/>
-      <c r="C62" s="125" t="s">
+      <c r="A62" s="231"/>
+      <c r="B62" s="231"/>
+      <c r="C62" s="124" t="s">
         <v>2426</v>
       </c>
-      <c r="D62" s="126" t="s">
+      <c r="D62" s="125" t="s">
         <v>2427</v>
       </c>
-      <c r="E62" s="117" t="s">
+      <c r="E62" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="122"/>
-      <c r="C63" s="123"/>
-      <c r="D63" s="124"/>
+      <c r="A63" s="121"/>
+      <c r="C63" s="122"/>
+      <c r="D63" s="123"/>
     </row>
     <row r="64" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="134" t="s">
+      <c r="A64" s="133" t="s">
         <v>2428</v>
       </c>
-      <c r="B64" s="131" t="s">
+      <c r="B64" s="130" t="s">
         <v>2429</v>
       </c>
-      <c r="C64" s="125" t="s">
+      <c r="C64" s="124" t="s">
         <v>2401</v>
       </c>
-      <c r="D64" s="126" t="s">
+      <c r="D64" s="125" t="s">
         <v>2430</v>
       </c>
-      <c r="E64" s="117" t="s">
+      <c r="E64" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="231" t="s">
+      <c r="A66" s="230" t="s">
         <v>2431</v>
       </c>
-      <c r="B66" s="231" t="s">
+      <c r="B66" s="230" t="s">
         <v>2432</v>
       </c>
-      <c r="C66" s="125" t="s">
+      <c r="C66" s="124" t="s">
         <v>2433</v>
       </c>
-      <c r="D66" s="126" t="s">
+      <c r="D66" s="125" t="s">
         <v>2434</v>
       </c>
-      <c r="E66" s="117" t="s">
+      <c r="E66" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="232"/>
-      <c r="B67" s="232"/>
-      <c r="C67" s="125" t="s">
+      <c r="A67" s="231"/>
+      <c r="B67" s="231"/>
+      <c r="C67" s="124" t="s">
         <v>2435</v>
       </c>
-      <c r="D67" s="126" t="s">
+      <c r="D67" s="125" t="s">
         <v>2436</v>
       </c>
-      <c r="E67" s="117" t="s">
+      <c r="E67" s="116" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="122"/>
-      <c r="C68" s="123"/>
-      <c r="D68" s="124"/>
+      <c r="A68" s="121"/>
+      <c r="C68" s="122"/>
+      <c r="D68" s="123"/>
     </row>
     <row r="69" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="231" t="s">
+      <c r="A69" s="230" t="s">
         <v>2437</v>
       </c>
-      <c r="B69" s="231" t="s">
+      <c r="B69" s="230" t="s">
         <v>2438</v>
       </c>
-      <c r="C69" s="125" t="s">
+      <c r="C69" s="124" t="s">
         <v>2439</v>
       </c>
-      <c r="D69" s="126" t="s">
+      <c r="D69" s="125" t="s">
         <v>2440</v>
       </c>
-      <c r="E69" s="117" t="s">
+      <c r="E69" s="116" t="s">
         <v>2323</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="232"/>
-      <c r="B70" s="232"/>
-      <c r="C70" s="125" t="s">
+      <c r="A70" s="231"/>
+      <c r="B70" s="231"/>
+      <c r="C70" s="124" t="s">
         <v>2441</v>
       </c>
-      <c r="D70" s="126" t="s">
+      <c r="D70" s="125" t="s">
         <v>2442</v>
       </c>
-      <c r="E70" s="117" t="s">
+      <c r="E70" s="116" t="s">
         <v>2419</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="122" t="s">
+      <c r="A72" s="121" t="s">
         <v>2443</v>
       </c>
-      <c r="B72" s="117" t="s">
+      <c r="B72" s="116" t="s">
         <v>2444</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="122" t="s">
+      <c r="A73" s="121" t="s">
         <v>2445</v>
       </c>
-      <c r="B73" s="117" t="s">
+      <c r="B73" s="116" t="s">
         <v>2446</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="122" t="s">
+      <c r="A74" s="121" t="s">
         <v>2447</v>
       </c>
-      <c r="B74" s="117" t="s">
+      <c r="B74" s="116" t="s">
         <v>2448</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="122" t="s">
+      <c r="A75" s="121" t="s">
         <v>2449</v>
       </c>
-      <c r="B75" s="117" t="s">
+      <c r="B75" s="116" t="s">
         <v>2450</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="B34:B43"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="B66:B67"/>
     <mergeCell ref="A69:A70"/>
@@ -68151,6 +68344,18 @@
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="B34:B43"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -68168,7 +68373,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="110" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="109" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -68183,156 +68388,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="109" t="s">
         <v>2451</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="135" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="136"/>
-      <c r="B3" s="137"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-    </row>
-    <row r="4" spans="1:32" s="135" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="138"/>
-    </row>
-    <row r="5" spans="1:32" s="135" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="136"/>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="138"/>
-      <c r="O5" s="138"/>
-      <c r="P5" s="138"/>
-      <c r="Q5" s="140"/>
-      <c r="R5" s="140"/>
-      <c r="S5" s="138"/>
-      <c r="T5" s="138"/>
-      <c r="U5" s="138"/>
-    </row>
-    <row r="6" spans="1:32" s="135" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="136"/>
-      <c r="B6" s="140"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-    </row>
-    <row r="7" spans="1:32" s="135" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="136"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="R7" s="139"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="139"/>
-      <c r="U7" s="139"/>
-      <c r="V7" s="139"/>
-      <c r="W7" s="139"/>
-      <c r="X7" s="139"/>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="139"/>
-      <c r="AB7" s="139"/>
-      <c r="AC7" s="139"/>
-      <c r="AD7" s="139"/>
-      <c r="AE7" s="139"/>
-      <c r="AF7" s="139"/>
-    </row>
-    <row r="8" spans="1:32" s="135" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="136"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="140"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="138"/>
-      <c r="N8" s="138"/>
+    <row r="3" spans="1:32" s="134" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="135"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+    </row>
+    <row r="4" spans="1:32" s="134" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="137"/>
+    </row>
+    <row r="5" spans="1:32" s="134" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="135"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="139"/>
+      <c r="R5" s="139"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+    </row>
+    <row r="6" spans="1:32" s="134" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="135"/>
+      <c r="B6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+    </row>
+    <row r="7" spans="1:32" s="134" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="135"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="R7" s="138"/>
+      <c r="S7" s="138"/>
+      <c r="T7" s="138"/>
+      <c r="U7" s="138"/>
+      <c r="V7" s="138"/>
+      <c r="W7" s="138"/>
+      <c r="X7" s="138"/>
+      <c r="Y7" s="138"/>
+      <c r="Z7" s="138"/>
+      <c r="AA7" s="138"/>
+      <c r="AB7" s="138"/>
+      <c r="AC7" s="138"/>
+      <c r="AD7" s="138"/>
+      <c r="AE7" s="138"/>
+      <c r="AF7" s="138"/>
+    </row>
+    <row r="8" spans="1:32" s="134" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="135"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A9" s="142"/>
-      <c r="B9" s="140" t="s">
+      <c r="A9" s="141"/>
+      <c r="B9" s="139" t="s">
         <v>2452</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="139" t="s">
         <v>2453</v>
       </c>
-      <c r="D9" s="140"/>
+      <c r="D9" s="139"/>
     </row>
     <row r="10" spans="1:32" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="135" t="s">
         <v>2454</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="135" t="s">
         <v>2455</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="135" t="s">
         <v>2456</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="136"/>
+      <c r="A13" s="135"/>
       <c r="I13" s="60"/>
       <c r="J13" s="60"/>
     </row>
     <row r="14" spans="1:32" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="114"/>
+      <c r="A14" s="113"/>
     </row>
     <row r="15" spans="1:32" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="114"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-    </row>
-    <row r="16" spans="1:32" s="115" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="110"/>
+      <c r="A15" s="113"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+    </row>
+    <row r="16" spans="1:32" s="114" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="109"/>
       <c r="B16" s="60"/>
       <c r="I16" s="60"/>
       <c r="J16" s="60"/>
     </row>
     <row r="17" spans="1:30" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="143" t="s">
+      <c r="A17" s="142" t="s">
         <v>686</v>
       </c>
       <c r="B17" s="60" t="s">
@@ -68340,111 +68545,111 @@
       </c>
     </row>
     <row r="18" spans="1:30" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="114"/>
+      <c r="A18" s="113"/>
       <c r="B18" s="61"/>
     </row>
     <row r="19" spans="1:30" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="138"/>
+      <c r="A19" s="137"/>
       <c r="B19" s="61"/>
     </row>
     <row r="20" spans="1:30" s="60" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="138" t="s">
+      <c r="A20" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="139" t="s">
+      <c r="B20" s="138" t="s">
         <v>369</v>
       </c>
-      <c r="C20" s="139" t="s">
+      <c r="C20" s="138" t="s">
         <v>660</v>
       </c>
-      <c r="D20" s="139" t="s">
+      <c r="D20" s="138" t="s">
         <v>113</v>
       </c>
-      <c r="E20" s="139" t="s">
+      <c r="E20" s="138" t="s">
         <v>1828</v>
       </c>
-      <c r="F20" s="139" t="s">
+      <c r="F20" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="G20" s="139" t="s">
+      <c r="G20" s="138" t="s">
         <v>2120</v>
       </c>
-      <c r="H20" s="139" t="s">
+      <c r="H20" s="138" t="s">
         <v>216</v>
       </c>
-      <c r="I20" s="140" t="s">
+      <c r="I20" s="139" t="s">
         <v>751</v>
       </c>
-      <c r="J20" s="139" t="s">
+      <c r="J20" s="138" t="s">
         <v>764</v>
       </c>
-      <c r="K20" s="138" t="s">
+      <c r="K20" s="137" t="s">
         <v>2457</v>
       </c>
     </row>
     <row r="21" spans="1:30" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="114"/>
+      <c r="A21" s="113"/>
       <c r="B21" s="61"/>
     </row>
     <row r="22" spans="1:30" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="135" t="s">
+      <c r="A22" s="134" t="s">
         <v>2255</v>
       </c>
       <c r="B22" s="61"/>
     </row>
     <row r="23" spans="1:30" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="144" t="s">
+      <c r="A23" s="143" t="s">
         <v>2257</v>
       </c>
-      <c r="B23" s="116"/>
+      <c r="B23" s="115"/>
     </row>
     <row r="24" spans="1:30" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="144" t="s">
+      <c r="A24" s="143" t="s">
         <v>2259</v>
       </c>
-      <c r="B24" s="116"/>
+      <c r="B24" s="115"/>
     </row>
     <row r="25" spans="1:30" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="144" t="s">
+      <c r="A25" s="143" t="s">
         <v>2261</v>
       </c>
-      <c r="B25" s="116"/>
+      <c r="B25" s="115"/>
     </row>
     <row r="26" spans="1:30" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="144" t="s">
+      <c r="A26" s="143" t="s">
         <v>2263</v>
       </c>
-      <c r="B26" s="116"/>
+      <c r="B26" s="115"/>
     </row>
     <row r="27" spans="1:30" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="144" t="s">
+      <c r="A27" s="143" t="s">
         <v>2265</v>
       </c>
-      <c r="B27" s="116"/>
+      <c r="B27" s="115"/>
     </row>
     <row r="28" spans="1:30" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="144" t="s">
+      <c r="A28" s="143" t="s">
         <v>2267</v>
       </c>
-      <c r="B28" s="116"/>
+      <c r="B28" s="115"/>
     </row>
     <row r="29" spans="1:30" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="144" t="s">
+      <c r="A29" s="143" t="s">
         <v>2269</v>
       </c>
-      <c r="B29" s="116"/>
+      <c r="B29" s="115"/>
     </row>
     <row r="30" spans="1:30" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="144" t="s">
+      <c r="A30" s="143" t="s">
         <v>2271</v>
       </c>
-      <c r="B30" s="116"/>
+      <c r="B30" s="115"/>
     </row>
     <row r="31" spans="1:30" s="60" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="143" t="s">
+      <c r="A31" s="142" t="s">
         <v>2458</v>
       </c>
-      <c r="B31" s="116" t="s">
+      <c r="B31" s="115" t="s">
         <v>757</v>
       </c>
       <c r="C31" s="60" t="s">
@@ -68533,635 +68738,635 @@
       </c>
     </row>
     <row r="32" spans="1:30" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="144"/>
+      <c r="A32" s="143"/>
       <c r="B32" s="61"/>
     </row>
     <row r="33" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="144"/>
+      <c r="A33" s="143"/>
     </row>
     <row r="34" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="145"/>
+      <c r="A34" s="144"/>
     </row>
     <row r="35" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="145"/>
+      <c r="A35" s="144"/>
     </row>
     <row r="36" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="145"/>
+      <c r="A36" s="144"/>
     </row>
     <row r="37" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="114"/>
+      <c r="A37" s="113"/>
     </row>
     <row r="38" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="114"/>
+      <c r="A38" s="113"/>
     </row>
     <row r="39" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="114"/>
+      <c r="A39" s="113"/>
     </row>
     <row r="40" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="114"/>
+      <c r="A40" s="113"/>
     </row>
     <row r="41" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="114"/>
+      <c r="A41" s="113"/>
     </row>
     <row r="42" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="114"/>
+      <c r="A42" s="113"/>
     </row>
     <row r="43" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="114"/>
+      <c r="A43" s="113"/>
     </row>
     <row r="44" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="114"/>
+      <c r="A44" s="113"/>
     </row>
     <row r="45" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="114"/>
+      <c r="A45" s="113"/>
     </row>
     <row r="46" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="114"/>
+      <c r="A46" s="113"/>
     </row>
     <row r="47" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="114"/>
+      <c r="A47" s="113"/>
     </row>
     <row r="48" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="114"/>
+      <c r="A48" s="113"/>
     </row>
     <row r="49" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="114"/>
+      <c r="A49" s="113"/>
     </row>
     <row r="50" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="114"/>
+      <c r="A50" s="113"/>
     </row>
     <row r="51" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="114"/>
+      <c r="A51" s="113"/>
     </row>
     <row r="52" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="114"/>
+      <c r="A52" s="113"/>
     </row>
     <row r="53" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="114"/>
+      <c r="A53" s="113"/>
     </row>
     <row r="54" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="114"/>
+      <c r="A54" s="113"/>
     </row>
     <row r="55" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="114"/>
+      <c r="A55" s="113"/>
     </row>
     <row r="56" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="114"/>
+      <c r="A56" s="113"/>
     </row>
     <row r="57" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="114"/>
+      <c r="A57" s="113"/>
     </row>
     <row r="58" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="114"/>
+      <c r="A58" s="113"/>
     </row>
     <row r="59" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="114"/>
+      <c r="A59" s="113"/>
     </row>
     <row r="60" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="114"/>
+      <c r="A60" s="113"/>
     </row>
     <row r="61" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="114"/>
+      <c r="A61" s="113"/>
     </row>
     <row r="62" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="114"/>
+      <c r="A62" s="113"/>
     </row>
     <row r="63" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="114"/>
+      <c r="A63" s="113"/>
     </row>
     <row r="64" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="114"/>
+      <c r="A64" s="113"/>
     </row>
     <row r="65" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="114"/>
+      <c r="A65" s="113"/>
     </row>
     <row r="66" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="114"/>
+      <c r="A66" s="113"/>
     </row>
     <row r="67" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="114"/>
+      <c r="A67" s="113"/>
     </row>
     <row r="68" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="114"/>
+      <c r="A68" s="113"/>
     </row>
     <row r="69" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="114"/>
+      <c r="A69" s="113"/>
     </row>
     <row r="70" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="114"/>
+      <c r="A70" s="113"/>
     </row>
     <row r="71" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="114"/>
+      <c r="A71" s="113"/>
     </row>
     <row r="72" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="114"/>
+      <c r="A72" s="113"/>
     </row>
     <row r="73" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="114"/>
+      <c r="A73" s="113"/>
     </row>
     <row r="74" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="114"/>
+      <c r="A74" s="113"/>
     </row>
     <row r="75" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="114"/>
+      <c r="A75" s="113"/>
     </row>
     <row r="76" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="114"/>
+      <c r="A76" s="113"/>
     </row>
     <row r="77" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="114"/>
+      <c r="A77" s="113"/>
     </row>
     <row r="78" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="114"/>
+      <c r="A78" s="113"/>
     </row>
     <row r="79" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="114"/>
+      <c r="A79" s="113"/>
     </row>
     <row r="80" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="114"/>
+      <c r="A80" s="113"/>
     </row>
     <row r="81" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="114"/>
+      <c r="A81" s="113"/>
     </row>
     <row r="82" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="114"/>
+      <c r="A82" s="113"/>
     </row>
     <row r="83" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="114"/>
+      <c r="A83" s="113"/>
     </row>
     <row r="84" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="114"/>
+      <c r="A84" s="113"/>
     </row>
     <row r="85" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="114"/>
+      <c r="A85" s="113"/>
     </row>
     <row r="86" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="114"/>
+      <c r="A86" s="113"/>
     </row>
     <row r="87" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="114"/>
+      <c r="A87" s="113"/>
     </row>
     <row r="88" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="114"/>
+      <c r="A88" s="113"/>
     </row>
     <row r="89" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="114"/>
+      <c r="A89" s="113"/>
     </row>
     <row r="90" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="114"/>
+      <c r="A90" s="113"/>
     </row>
     <row r="91" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="114"/>
+      <c r="A91" s="113"/>
     </row>
     <row r="92" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="114"/>
+      <c r="A92" s="113"/>
     </row>
     <row r="93" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="114"/>
+      <c r="A93" s="113"/>
     </row>
     <row r="94" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="114"/>
+      <c r="A94" s="113"/>
     </row>
     <row r="95" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="114"/>
+      <c r="A95" s="113"/>
     </row>
     <row r="96" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="114"/>
+      <c r="A96" s="113"/>
     </row>
     <row r="97" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="114"/>
+      <c r="A97" s="113"/>
     </row>
     <row r="98" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="114"/>
+      <c r="A98" s="113"/>
     </row>
     <row r="99" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="114"/>
+      <c r="A99" s="113"/>
     </row>
     <row r="100" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="114"/>
+      <c r="A100" s="113"/>
     </row>
     <row r="101" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="114"/>
+      <c r="A101" s="113"/>
     </row>
     <row r="102" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="114"/>
+      <c r="A102" s="113"/>
     </row>
     <row r="103" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="114"/>
+      <c r="A103" s="113"/>
     </row>
     <row r="104" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="114"/>
+      <c r="A104" s="113"/>
     </row>
     <row r="105" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="114"/>
+      <c r="A105" s="113"/>
     </row>
     <row r="106" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="114"/>
+      <c r="A106" s="113"/>
     </row>
     <row r="107" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="114"/>
+      <c r="A107" s="113"/>
     </row>
     <row r="108" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="114"/>
+      <c r="A108" s="113"/>
     </row>
     <row r="109" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="114"/>
+      <c r="A109" s="113"/>
     </row>
     <row r="110" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="114"/>
+      <c r="A110" s="113"/>
     </row>
     <row r="111" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="114"/>
+      <c r="A111" s="113"/>
     </row>
     <row r="112" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="114"/>
+      <c r="A112" s="113"/>
     </row>
     <row r="113" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="114"/>
+      <c r="A113" s="113"/>
     </row>
     <row r="114" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="114"/>
+      <c r="A114" s="113"/>
     </row>
     <row r="115" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="114"/>
+      <c r="A115" s="113"/>
     </row>
     <row r="116" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="114"/>
+      <c r="A116" s="113"/>
     </row>
     <row r="117" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="114"/>
+      <c r="A117" s="113"/>
     </row>
     <row r="118" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="114"/>
+      <c r="A118" s="113"/>
     </row>
     <row r="119" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="114"/>
+      <c r="A119" s="113"/>
     </row>
     <row r="120" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="114"/>
+      <c r="A120" s="113"/>
     </row>
     <row r="121" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="114"/>
+      <c r="A121" s="113"/>
     </row>
     <row r="122" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="114"/>
+      <c r="A122" s="113"/>
     </row>
     <row r="123" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="114"/>
+      <c r="A123" s="113"/>
     </row>
     <row r="124" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="114"/>
+      <c r="A124" s="113"/>
     </row>
     <row r="125" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="114"/>
+      <c r="A125" s="113"/>
     </row>
     <row r="126" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="114"/>
+      <c r="A126" s="113"/>
     </row>
     <row r="127" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="114"/>
+      <c r="A127" s="113"/>
     </row>
     <row r="128" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="114"/>
+      <c r="A128" s="113"/>
     </row>
     <row r="129" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="114"/>
+      <c r="A129" s="113"/>
     </row>
     <row r="130" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="114"/>
+      <c r="A130" s="113"/>
     </row>
     <row r="131" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="114"/>
+      <c r="A131" s="113"/>
     </row>
     <row r="132" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="114"/>
+      <c r="A132" s="113"/>
     </row>
     <row r="133" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="114"/>
+      <c r="A133" s="113"/>
     </row>
     <row r="134" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="114"/>
+      <c r="A134" s="113"/>
     </row>
     <row r="135" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="114"/>
+      <c r="A135" s="113"/>
     </row>
     <row r="136" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="114"/>
+      <c r="A136" s="113"/>
     </row>
     <row r="137" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="114"/>
+      <c r="A137" s="113"/>
     </row>
     <row r="138" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="114"/>
+      <c r="A138" s="113"/>
     </row>
     <row r="139" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="114"/>
+      <c r="A139" s="113"/>
     </row>
     <row r="140" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="114"/>
+      <c r="A140" s="113"/>
     </row>
     <row r="141" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="114"/>
+      <c r="A141" s="113"/>
     </row>
     <row r="142" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="114"/>
+      <c r="A142" s="113"/>
     </row>
     <row r="143" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="114"/>
+      <c r="A143" s="113"/>
     </row>
     <row r="144" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="114"/>
+      <c r="A144" s="113"/>
     </row>
     <row r="145" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="114"/>
+      <c r="A145" s="113"/>
     </row>
     <row r="146" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="114"/>
+      <c r="A146" s="113"/>
     </row>
     <row r="147" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="114"/>
+      <c r="A147" s="113"/>
     </row>
     <row r="148" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="114"/>
+      <c r="A148" s="113"/>
     </row>
     <row r="149" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="114"/>
+      <c r="A149" s="113"/>
     </row>
     <row r="150" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="114"/>
+      <c r="A150" s="113"/>
     </row>
     <row r="151" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="114"/>
+      <c r="A151" s="113"/>
     </row>
     <row r="152" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="114"/>
+      <c r="A152" s="113"/>
     </row>
     <row r="153" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="114"/>
+      <c r="A153" s="113"/>
     </row>
     <row r="154" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="114"/>
+      <c r="A154" s="113"/>
     </row>
     <row r="155" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="114"/>
+      <c r="A155" s="113"/>
     </row>
     <row r="156" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="114"/>
+      <c r="A156" s="113"/>
     </row>
     <row r="157" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="114"/>
+      <c r="A157" s="113"/>
     </row>
     <row r="158" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="114"/>
+      <c r="A158" s="113"/>
     </row>
     <row r="159" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="114"/>
+      <c r="A159" s="113"/>
     </row>
     <row r="160" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="114"/>
+      <c r="A160" s="113"/>
     </row>
     <row r="161" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="114"/>
+      <c r="A161" s="113"/>
     </row>
     <row r="162" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="114"/>
+      <c r="A162" s="113"/>
     </row>
     <row r="163" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="114"/>
+      <c r="A163" s="113"/>
     </row>
     <row r="164" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="114"/>
+      <c r="A164" s="113"/>
     </row>
     <row r="165" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="114"/>
+      <c r="A165" s="113"/>
     </row>
     <row r="166" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="114"/>
+      <c r="A166" s="113"/>
     </row>
     <row r="167" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="114"/>
+      <c r="A167" s="113"/>
     </row>
     <row r="168" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="114"/>
+      <c r="A168" s="113"/>
     </row>
     <row r="169" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="114"/>
+      <c r="A169" s="113"/>
     </row>
     <row r="170" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="114"/>
+      <c r="A170" s="113"/>
     </row>
     <row r="171" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="114"/>
+      <c r="A171" s="113"/>
     </row>
     <row r="172" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="114"/>
+      <c r="A172" s="113"/>
     </row>
     <row r="173" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="114"/>
+      <c r="A173" s="113"/>
     </row>
     <row r="174" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="114"/>
+      <c r="A174" s="113"/>
     </row>
     <row r="175" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="114"/>
+      <c r="A175" s="113"/>
     </row>
     <row r="176" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="114"/>
+      <c r="A176" s="113"/>
     </row>
     <row r="177" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="114"/>
+      <c r="A177" s="113"/>
     </row>
     <row r="178" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="114"/>
+      <c r="A178" s="113"/>
     </row>
     <row r="179" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="114"/>
+      <c r="A179" s="113"/>
     </row>
     <row r="180" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="114"/>
+      <c r="A180" s="113"/>
     </row>
     <row r="181" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="114"/>
+      <c r="A181" s="113"/>
     </row>
     <row r="182" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="114"/>
+      <c r="A182" s="113"/>
     </row>
     <row r="183" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="114"/>
+      <c r="A183" s="113"/>
     </row>
     <row r="184" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="114"/>
+      <c r="A184" s="113"/>
     </row>
     <row r="185" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="114"/>
+      <c r="A185" s="113"/>
     </row>
     <row r="186" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="114"/>
+      <c r="A186" s="113"/>
     </row>
     <row r="187" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="114"/>
+      <c r="A187" s="113"/>
     </row>
     <row r="188" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="114"/>
+      <c r="A188" s="113"/>
     </row>
     <row r="189" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="114"/>
+      <c r="A189" s="113"/>
     </row>
     <row r="190" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="114"/>
+      <c r="A190" s="113"/>
     </row>
     <row r="191" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="114"/>
+      <c r="A191" s="113"/>
     </row>
     <row r="192" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="114"/>
+      <c r="A192" s="113"/>
     </row>
     <row r="193" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="114"/>
+      <c r="A193" s="113"/>
     </row>
     <row r="194" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="114"/>
+      <c r="A194" s="113"/>
     </row>
     <row r="195" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="114"/>
+      <c r="A195" s="113"/>
     </row>
     <row r="196" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="114"/>
+      <c r="A196" s="113"/>
     </row>
     <row r="197" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="114"/>
+      <c r="A197" s="113"/>
     </row>
     <row r="198" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="114"/>
+      <c r="A198" s="113"/>
     </row>
     <row r="199" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="114"/>
+      <c r="A199" s="113"/>
     </row>
     <row r="200" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="114"/>
+      <c r="A200" s="113"/>
     </row>
     <row r="201" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="114"/>
+      <c r="A201" s="113"/>
     </row>
     <row r="202" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="114"/>
+      <c r="A202" s="113"/>
     </row>
     <row r="203" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="114"/>
+      <c r="A203" s="113"/>
     </row>
     <row r="204" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="114"/>
+      <c r="A204" s="113"/>
     </row>
     <row r="205" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="114"/>
+      <c r="A205" s="113"/>
     </row>
     <row r="206" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="114"/>
+      <c r="A206" s="113"/>
     </row>
     <row r="207" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="114"/>
+      <c r="A207" s="113"/>
     </row>
     <row r="208" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="114"/>
+      <c r="A208" s="113"/>
     </row>
     <row r="209" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="114"/>
+      <c r="A209" s="113"/>
     </row>
     <row r="210" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="114"/>
+      <c r="A210" s="113"/>
     </row>
     <row r="211" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="114"/>
+      <c r="A211" s="113"/>
     </row>
     <row r="212" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="114"/>
+      <c r="A212" s="113"/>
     </row>
     <row r="213" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="114"/>
+      <c r="A213" s="113"/>
     </row>
     <row r="214" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="114"/>
+      <c r="A214" s="113"/>
     </row>
     <row r="215" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="114"/>
+      <c r="A215" s="113"/>
     </row>
     <row r="216" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="114"/>
+      <c r="A216" s="113"/>
     </row>
     <row r="217" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="114"/>
+      <c r="A217" s="113"/>
     </row>
     <row r="218" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="114"/>
+      <c r="A218" s="113"/>
     </row>
     <row r="219" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="114"/>
+      <c r="A219" s="113"/>
     </row>
     <row r="220" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="114"/>
+      <c r="A220" s="113"/>
     </row>
     <row r="221" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="114"/>
+      <c r="A221" s="113"/>
     </row>
     <row r="222" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="114"/>
+      <c r="A222" s="113"/>
     </row>
     <row r="223" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="114"/>
+      <c r="A223" s="113"/>
     </row>
     <row r="224" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="114"/>
+      <c r="A224" s="113"/>
     </row>
     <row r="225" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="114"/>
+      <c r="A225" s="113"/>
     </row>
     <row r="226" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="114"/>
+      <c r="A226" s="113"/>
     </row>
     <row r="227" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="114"/>
+      <c r="A227" s="113"/>
     </row>
     <row r="228" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="114"/>
+      <c r="A228" s="113"/>
     </row>
     <row r="229" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="114"/>
+      <c r="A229" s="113"/>
     </row>
     <row r="230" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="114"/>
+      <c r="A230" s="113"/>
     </row>
     <row r="231" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="114"/>
+      <c r="A231" s="113"/>
     </row>
     <row r="232" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="114"/>
+      <c r="A232" s="113"/>
     </row>
     <row r="233" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="114"/>
+      <c r="A233" s="113"/>
     </row>
     <row r="234" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="114"/>
+      <c r="A234" s="113"/>
     </row>
     <row r="235" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="114"/>
+      <c r="A235" s="113"/>
     </row>
     <row r="236" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="114"/>
+      <c r="A236" s="113"/>
     </row>
     <row r="237" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="114"/>
+      <c r="A237" s="113"/>
     </row>
     <row r="238" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="114"/>
+      <c r="A238" s="113"/>
     </row>
     <row r="239" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="114"/>
+      <c r="A239" s="113"/>
     </row>
     <row r="240" spans="1:1" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="114"/>
+      <c r="A240" s="113"/>
     </row>
     <row r="241" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="114"/>
+      <c r="A241" s="113"/>
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
     </row>

--- a/ballots/2013-01 Draft/Comments-FHIR_R1_O2_2013JAN.xlsx
+++ b/ballots/2013-01 Draft/Comments-FHIR_R1_O2_2013JAN.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11120" uniqueCount="2524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11135" uniqueCount="2531">
   <si>
     <t xml:space="preserve">BALLOT TITLE: </t>
   </si>
@@ -10164,6 +10164,27 @@
   </si>
   <si>
     <t>FHIR Core</t>
+  </si>
+  <si>
+    <t>Persuasive: There's no strong use-cases for defining additional constraints on simple data types except in the context of specific usage.  As well, the current structure of Profile doesn't provide an easy mechanism for defining such constraints.  Therefore (at least for now), constrain profile to only being used in constraining complex data types.</t>
+  </si>
+  <si>
+    <t>WG needs to discuss these in detail (in particular, does BIN live on Organization or is it specific to Coverage instance)</t>
+  </si>
+  <si>
+    <t>Will make the v3 value set "preferred" (recommended)</t>
+  </si>
+  <si>
+    <t>Loosened everything except "type" to 0..1</t>
+  </si>
+  <si>
+    <t>Clarify to be "name of subscriber" (rename PolicyHolder to Subscriber)</t>
+  </si>
+  <si>
+    <t>Added all identifiers to search criteria.  Period isn't relevant within the 80%.</t>
+  </si>
+  <si>
+    <t>Lloyd/Beat</t>
   </si>
 </sst>
 </file>
@@ -11919,6 +11940,10 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="18" fillId="39" borderId="33" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -12209,10 +12234,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="39" borderId="33" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -12592,20 +12613,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:99" ht="45.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="151"/>
+      <c r="A1" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="152" t="s">
+      <c r="F1" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="155"/>
       <c r="K1" s="4"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -12613,12 +12634,12 @@
       <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:99" x14ac:dyDescent="0.2">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="151"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="152"/>
       <c r="E2" s="3"/>
       <c r="F2" s="6" t="s">
         <v>3</v>
@@ -12634,20 +12655,20 @@
       <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:99" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="146"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="147"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="155" t="s">
+      <c r="F3" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="158"/>
       <c r="K3" s="10"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -12655,18 +12676,18 @@
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:99" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="146"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="147"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="149"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="150"/>
       <c r="K4" s="10"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -12674,18 +12695,18 @@
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:99" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="159"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="160"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="157"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="158"/>
       <c r="K5" s="10"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -12693,18 +12714,18 @@
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:99" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="161" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="161"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="162"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="157"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="158"/>
       <c r="K6" s="10"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -12712,18 +12733,18 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="150" t="s">
+      <c r="A7" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="150"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="151"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="152"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="164"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="165"/>
       <c r="K7" s="4"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
@@ -12733,18 +12754,18 @@
       <c r="CU7" s="16"/>
     </row>
     <row r="8" spans="1:99" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="150" t="s">
+      <c r="A8" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="150"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="151"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="152"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="168"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="169"/>
       <c r="K8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -12752,18 +12773,18 @@
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:99" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="150" t="s">
+      <c r="A9" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="150"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="151"/>
+      <c r="B9" s="151"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="152"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="157"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="158"/>
       <c r="K9" s="18"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
@@ -12771,19 +12792,19 @@
       <c r="P9" s="19"/>
     </row>
     <row r="10" spans="1:99" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="169">
+      <c r="A10" s="170">
         <f>IF(Ov=Setup!C9,Disclaimer2,IF(Ov=Setup!B9,Disclaimer,IF(Ov=Setup!D9,,)))</f>
         <v>0</v>
       </c>
-      <c r="B10" s="169"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="169"/>
+      <c r="B10" s="170"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
     </row>
     <row r="11" spans="1:99" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F11" s="20" t="s">
@@ -12803,12 +12824,12 @@
       <c r="F21" s="24"/>
     </row>
     <row r="23" spans="6:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="171"/>
     </row>
     <row r="24" spans="6:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="165"/>
-      <c r="G24" s="165"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="166"/>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F25" s="25"/>
@@ -12861,11 +12882,11 @@
   <sheetPr codeName="Sheet2" filterMode="1"/>
   <dimension ref="A1:AF713"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="S353" sqref="S353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12905,43 +12926,43 @@
   <sheetData>
     <row r="1" spans="1:32" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32"/>
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="173" t="s">
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="175"/>
-      <c r="Y1" s="173" t="s">
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
+      <c r="R1" s="175"/>
+      <c r="S1" s="175"/>
+      <c r="T1" s="175"/>
+      <c r="U1" s="175"/>
+      <c r="V1" s="175"/>
+      <c r="W1" s="175"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="174"/>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="174"/>
-      <c r="AD1" s="174"/>
-      <c r="AE1" s="174"/>
-      <c r="AF1" s="175"/>
+      <c r="Z1" s="175"/>
+      <c r="AA1" s="175"/>
+      <c r="AB1" s="175"/>
+      <c r="AC1" s="175"/>
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="175"/>
+      <c r="AF1" s="176"/>
     </row>
     <row r="2" spans="1:32" s="33" customFormat="1" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
@@ -14223,7 +14244,7 @@
       <c r="AE17" s="58"/>
       <c r="AF17" s="59"/>
     </row>
-    <row r="18" spans="1:32" s="60" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" s="60" customFormat="1" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="45">
         <v>16</v>
       </c>
@@ -14453,7 +14474,7 @@
       <c r="AE20" s="58"/>
       <c r="AF20" s="59"/>
     </row>
-    <row r="21" spans="1:32" s="60" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" s="60" customFormat="1" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="45">
         <v>19</v>
       </c>
@@ -14523,7 +14544,7 @@
       <c r="AE21" s="58"/>
       <c r="AF21" s="59"/>
     </row>
-    <row r="22" spans="1:32" s="60" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" s="60" customFormat="1" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="45">
         <v>20</v>
       </c>
@@ -17655,7 +17676,7 @@
       <c r="AE62" s="58"/>
       <c r="AF62" s="59"/>
     </row>
-    <row r="63" spans="1:32" s="60" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" s="60" customFormat="1" ht="188.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="45">
         <v>61</v>
       </c>
@@ -17687,7 +17708,7 @@
         <v>275</v>
       </c>
       <c r="O63" s="50" t="s">
-        <v>87</v>
+        <v>2524</v>
       </c>
       <c r="P63" s="52" t="s">
         <v>70</v>
@@ -17723,7 +17744,7 @@
       <c r="AE63" s="58"/>
       <c r="AF63" s="59"/>
     </row>
-    <row r="64" spans="1:32" s="60" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" s="60" customFormat="1" ht="138" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="45">
         <v>62</v>
       </c>
@@ -20599,7 +20620,7 @@
       <c r="AE100" s="58"/>
       <c r="AF100" s="59"/>
     </row>
-    <row r="101" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="45">
         <v>99</v>
       </c>
@@ -22383,7 +22404,7 @@
       <c r="AE123" s="58"/>
       <c r="AF123" s="59"/>
     </row>
-    <row r="124" spans="1:32" s="60" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:32" s="60" customFormat="1" ht="198" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="45">
         <v>122</v>
       </c>
@@ -22597,7 +22618,7 @@
       <c r="AE126" s="58"/>
       <c r="AF126" s="59"/>
     </row>
-    <row r="127" spans="1:32" s="60" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:32" s="60" customFormat="1" ht="165.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="45">
         <v>125</v>
       </c>
@@ -23047,7 +23068,7 @@
       <c r="AE132" s="58"/>
       <c r="AF132" s="59"/>
     </row>
-    <row r="133" spans="1:32" s="60" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:32" s="60" customFormat="1" ht="192" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="45">
         <v>131</v>
       </c>
@@ -32687,7 +32708,7 @@
       <c r="AE267" s="58"/>
       <c r="AF267" s="59"/>
     </row>
-    <row r="268" spans="1:32" ht="178.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:32" ht="178.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="64">
         <v>266</v>
       </c>
@@ -32975,7 +32996,7 @@
       <c r="AE271" s="58"/>
       <c r="AF271" s="59"/>
     </row>
-    <row r="272" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="64">
         <v>270</v>
       </c>
@@ -33109,7 +33130,7 @@
       <c r="AE273" s="58"/>
       <c r="AF273" s="59"/>
     </row>
-    <row r="274" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="64">
         <v>272</v>
       </c>
@@ -33173,7 +33194,7 @@
       <c r="AE274" s="58"/>
       <c r="AF274" s="59"/>
     </row>
-    <row r="275" spans="1:32" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:32" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="64">
         <v>273</v>
       </c>
@@ -33309,7 +33330,7 @@
       <c r="AE276" s="58"/>
       <c r="AF276" s="59"/>
     </row>
-    <row r="277" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="64">
         <v>275</v>
       </c>
@@ -33371,7 +33392,7 @@
       <c r="AE277" s="58"/>
       <c r="AF277" s="59"/>
     </row>
-    <row r="278" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="64">
         <v>276</v>
       </c>
@@ -33731,7 +33752,7 @@
       <c r="AE282" s="58"/>
       <c r="AF282" s="59"/>
     </row>
-    <row r="283" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="64">
         <v>281</v>
       </c>
@@ -33791,7 +33812,7 @@
       <c r="AE283" s="58"/>
       <c r="AF283" s="59"/>
     </row>
-    <row r="284" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="64">
         <v>282</v>
       </c>
@@ -33851,7 +33872,7 @@
       <c r="AE284" s="58"/>
       <c r="AF284" s="59"/>
     </row>
-    <row r="285" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="64">
         <v>283</v>
       </c>
@@ -33915,7 +33936,7 @@
       <c r="AE285" s="58"/>
       <c r="AF285" s="59"/>
     </row>
-    <row r="286" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="64">
         <v>284</v>
       </c>
@@ -33979,7 +34000,7 @@
       <c r="AE286" s="58"/>
       <c r="AF286" s="59"/>
     </row>
-    <row r="287" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="64">
         <v>285</v>
       </c>
@@ -34039,7 +34060,7 @@
       <c r="AE287" s="58"/>
       <c r="AF287" s="59"/>
     </row>
-    <row r="288" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="64">
         <v>286</v>
       </c>
@@ -34099,7 +34120,7 @@
       <c r="AE288" s="58"/>
       <c r="AF288" s="59"/>
     </row>
-    <row r="289" spans="1:32" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:32" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="64">
         <v>287</v>
       </c>
@@ -34315,7 +34336,7 @@
       <c r="AE291" s="58"/>
       <c r="AF291" s="59"/>
     </row>
-    <row r="292" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="64">
         <v>290</v>
       </c>
@@ -34379,7 +34400,7 @@
       <c r="AE292" s="58"/>
       <c r="AF292" s="59"/>
     </row>
-    <row r="293" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="64">
         <v>291</v>
       </c>
@@ -34599,7 +34620,7 @@
       <c r="AE295" s="58"/>
       <c r="AF295" s="59"/>
     </row>
-    <row r="296" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="64">
         <v>294</v>
       </c>
@@ -34737,7 +34758,7 @@
       <c r="AE297" s="58"/>
       <c r="AF297" s="59"/>
     </row>
-    <row r="298" spans="1:32" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:32" ht="191.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="64">
         <v>296</v>
       </c>
@@ -34803,7 +34824,7 @@
       <c r="AE298" s="58"/>
       <c r="AF298" s="59"/>
     </row>
-    <row r="299" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="64">
         <v>297</v>
       </c>
@@ -34865,7 +34886,7 @@
       <c r="AE299" s="58"/>
       <c r="AF299" s="59"/>
     </row>
-    <row r="300" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="64">
         <v>298</v>
       </c>
@@ -34931,7 +34952,7 @@
       <c r="AE300" s="58"/>
       <c r="AF300" s="59"/>
     </row>
-    <row r="301" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="64">
         <v>299</v>
       </c>
@@ -35143,7 +35164,7 @@
       <c r="AE303" s="58"/>
       <c r="AF303" s="59"/>
     </row>
-    <row r="304" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="64">
         <v>302</v>
       </c>
@@ -35209,7 +35230,7 @@
       <c r="AE304" s="58"/>
       <c r="AF304" s="59"/>
     </row>
-    <row r="305" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="64">
         <v>303</v>
       </c>
@@ -35577,7 +35598,7 @@
       <c r="AE309" s="58"/>
       <c r="AF309" s="59"/>
     </row>
-    <row r="310" spans="1:32" ht="229.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:32" ht="229.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="64">
         <v>308</v>
       </c>
@@ -35637,7 +35658,7 @@
       <c r="AE310" s="58"/>
       <c r="AF310" s="59"/>
     </row>
-    <row r="311" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="64">
         <v>309</v>
       </c>
@@ -35923,7 +35944,7 @@
       <c r="AE314" s="58"/>
       <c r="AF314" s="59"/>
     </row>
-    <row r="315" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="64">
         <v>313</v>
       </c>
@@ -36295,7 +36316,7 @@
       <c r="AE319" s="58"/>
       <c r="AF319" s="59"/>
     </row>
-    <row r="320" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="64">
         <v>318</v>
       </c>
@@ -36357,7 +36378,7 @@
       <c r="AE320" s="58"/>
       <c r="AF320" s="59"/>
     </row>
-    <row r="321" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="64">
         <v>319</v>
       </c>
@@ -36419,7 +36440,7 @@
       <c r="AE321" s="58"/>
       <c r="AF321" s="59"/>
     </row>
-    <row r="322" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="64">
         <v>320</v>
       </c>
@@ -36483,7 +36504,7 @@
       <c r="AE322" s="58"/>
       <c r="AF322" s="59"/>
     </row>
-    <row r="323" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="64">
         <v>321</v>
       </c>
@@ -36695,7 +36716,7 @@
       <c r="AE325" s="58"/>
       <c r="AF325" s="59"/>
     </row>
-    <row r="326" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="64">
         <v>324</v>
       </c>
@@ -36757,7 +36778,7 @@
       <c r="AE326" s="58"/>
       <c r="AF326" s="59"/>
     </row>
-    <row r="327" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="64">
         <v>325</v>
       </c>
@@ -36825,7 +36846,7 @@
       <c r="AE327" s="58"/>
       <c r="AF327" s="59"/>
     </row>
-    <row r="328" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="64">
         <v>326</v>
       </c>
@@ -37499,7 +37520,7 @@
       <c r="AE336" s="58"/>
       <c r="AF336" s="59"/>
     </row>
-    <row r="337" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="64">
         <v>335</v>
       </c>
@@ -37561,7 +37582,7 @@
       <c r="AE337" s="58"/>
       <c r="AF337" s="59"/>
     </row>
-    <row r="338" spans="1:32" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:32" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="64">
         <v>336</v>
       </c>
@@ -37701,7 +37722,7 @@
       <c r="AE339" s="58"/>
       <c r="AF339" s="59"/>
     </row>
-    <row r="340" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="64">
         <v>338</v>
       </c>
@@ -37763,7 +37784,7 @@
       <c r="AE340" s="58"/>
       <c r="AF340" s="59"/>
     </row>
-    <row r="341" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="64">
         <v>339</v>
       </c>
@@ -37971,7 +37992,7 @@
       <c r="AE343" s="58"/>
       <c r="AF343" s="59"/>
     </row>
-    <row r="344" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="64">
         <v>342</v>
       </c>
@@ -38559,7 +38580,7 @@
       <c r="AE352" s="58"/>
       <c r="AF352" s="59"/>
     </row>
-    <row r="353" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="64">
         <v>351</v>
       </c>
@@ -38583,19 +38604,31 @@
       </c>
       <c r="J353" s="50"/>
       <c r="K353" s="50"/>
-      <c r="L353" s="52"/>
+      <c r="L353" s="52" t="s">
+        <v>55</v>
+      </c>
       <c r="M353" s="52"/>
       <c r="N353" s="52" t="s">
         <v>1158</v>
       </c>
-      <c r="O353" s="50"/>
+      <c r="O353" s="50" t="s">
+        <v>2528</v>
+      </c>
       <c r="P353" s="52"/>
       <c r="Q353" s="52"/>
       <c r="R353" s="52"/>
-      <c r="S353" s="52"/>
-      <c r="T353" s="53"/>
-      <c r="U353" s="53"/>
-      <c r="V353" s="53"/>
+      <c r="S353" s="52" t="s">
+        <v>2530</v>
+      </c>
+      <c r="T353" s="53">
+        <v>2</v>
+      </c>
+      <c r="U353" s="53">
+        <v>0</v>
+      </c>
+      <c r="V353" s="53">
+        <v>1</v>
+      </c>
       <c r="W353" s="52"/>
       <c r="X353" s="52"/>
       <c r="Y353" s="54" t="s">
@@ -38619,7 +38652,7 @@
       <c r="AE353" s="58"/>
       <c r="AF353" s="59"/>
     </row>
-    <row r="354" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="64">
         <v>352</v>
       </c>
@@ -38643,19 +38676,31 @@
       </c>
       <c r="J354" s="50"/>
       <c r="K354" s="50"/>
-      <c r="L354" s="52"/>
+      <c r="L354" s="52" t="s">
+        <v>55</v>
+      </c>
       <c r="M354" s="52"/>
       <c r="N354" s="52" t="s">
         <v>1158</v>
       </c>
-      <c r="O354" s="50"/>
+      <c r="O354" s="50" t="s">
+        <v>2529</v>
+      </c>
       <c r="P354" s="52"/>
       <c r="Q354" s="52"/>
       <c r="R354" s="52"/>
-      <c r="S354" s="52"/>
-      <c r="T354" s="53"/>
-      <c r="U354" s="53"/>
-      <c r="V354" s="53"/>
+      <c r="S354" s="52" t="s">
+        <v>2530</v>
+      </c>
+      <c r="T354" s="53">
+        <v>2</v>
+      </c>
+      <c r="U354" s="53">
+        <v>0</v>
+      </c>
+      <c r="V354" s="53">
+        <v>1</v>
+      </c>
       <c r="W354" s="52"/>
       <c r="X354" s="52"/>
       <c r="Y354" s="54" t="s">
@@ -38679,7 +38724,7 @@
       <c r="AE354" s="58"/>
       <c r="AF354" s="59"/>
     </row>
-    <row r="355" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="64">
         <v>353</v>
       </c>
@@ -38703,7 +38748,9 @@
       </c>
       <c r="J355" s="50"/>
       <c r="K355" s="50"/>
-      <c r="L355" s="52"/>
+      <c r="L355" s="52" t="s">
+        <v>55</v>
+      </c>
       <c r="M355" s="52"/>
       <c r="N355" s="52" t="s">
         <v>1158</v>
@@ -38714,10 +38761,18 @@
         <v>82</v>
       </c>
       <c r="R355" s="52"/>
-      <c r="S355" s="52"/>
-      <c r="T355" s="53"/>
-      <c r="U355" s="53"/>
-      <c r="V355" s="53"/>
+      <c r="S355" s="52" t="s">
+        <v>2530</v>
+      </c>
+      <c r="T355" s="53">
+        <v>2</v>
+      </c>
+      <c r="U355" s="53">
+        <v>0</v>
+      </c>
+      <c r="V355" s="53">
+        <v>1</v>
+      </c>
       <c r="W355" s="52"/>
       <c r="X355" s="52"/>
       <c r="Y355" s="54" t="s">
@@ -38741,7 +38796,7 @@
       <c r="AE355" s="58"/>
       <c r="AF355" s="59"/>
     </row>
-    <row r="356" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="64">
         <v>354</v>
       </c>
@@ -38767,21 +38822,33 @@
       </c>
       <c r="J356" s="50"/>
       <c r="K356" s="50"/>
-      <c r="L356" s="52"/>
+      <c r="L356" s="52" t="s">
+        <v>55</v>
+      </c>
       <c r="M356" s="52"/>
       <c r="N356" s="52" t="s">
         <v>1158</v>
       </c>
-      <c r="O356" s="50"/>
+      <c r="O356" s="50" t="s">
+        <v>2526</v>
+      </c>
       <c r="P356" s="52"/>
       <c r="Q356" s="52" t="s">
         <v>644</v>
       </c>
       <c r="R356" s="52"/>
-      <c r="S356" s="52"/>
-      <c r="T356" s="53"/>
-      <c r="U356" s="53"/>
-      <c r="V356" s="53"/>
+      <c r="S356" s="52" t="s">
+        <v>2530</v>
+      </c>
+      <c r="T356" s="53">
+        <v>2</v>
+      </c>
+      <c r="U356" s="53">
+        <v>0</v>
+      </c>
+      <c r="V356" s="53">
+        <v>1</v>
+      </c>
       <c r="W356" s="52"/>
       <c r="X356" s="52"/>
       <c r="Y356" s="54" t="s">
@@ -38989,7 +39056,7 @@
       <c r="AE359" s="58"/>
       <c r="AF359" s="59"/>
     </row>
-    <row r="360" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="64">
         <v>358</v>
       </c>
@@ -39013,19 +39080,31 @@
       </c>
       <c r="J360" s="50"/>
       <c r="K360" s="50"/>
-      <c r="L360" s="52"/>
+      <c r="L360" s="52" t="s">
+        <v>55</v>
+      </c>
       <c r="M360" s="52"/>
       <c r="N360" s="52" t="s">
         <v>1158</v>
       </c>
-      <c r="O360" s="50"/>
+      <c r="O360" s="50" t="s">
+        <v>2527</v>
+      </c>
       <c r="P360" s="52"/>
       <c r="Q360" s="52"/>
       <c r="R360" s="52"/>
-      <c r="S360" s="52"/>
-      <c r="T360" s="53"/>
-      <c r="U360" s="53"/>
-      <c r="V360" s="53"/>
+      <c r="S360" s="52" t="s">
+        <v>2530</v>
+      </c>
+      <c r="T360" s="53">
+        <v>2</v>
+      </c>
+      <c r="U360" s="53">
+        <v>0</v>
+      </c>
+      <c r="V360" s="53">
+        <v>1</v>
+      </c>
       <c r="W360" s="52"/>
       <c r="X360" s="52"/>
       <c r="Y360" s="54" t="s">
@@ -42979,7 +43058,7 @@
       <c r="AE420" s="58"/>
       <c r="AF420" s="59"/>
     </row>
-    <row r="421" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="64">
         <v>419</v>
       </c>
@@ -43417,7 +43496,7 @@
       <c r="AE426" s="58"/>
       <c r="AF426" s="59"/>
     </row>
-    <row r="427" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="64">
         <v>425</v>
       </c>
@@ -45145,7 +45224,7 @@
       <c r="AE449" s="58"/>
       <c r="AF449" s="59"/>
     </row>
-    <row r="450" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="64">
         <v>448</v>
       </c>
@@ -45291,7 +45370,7 @@
       <c r="AE451" s="58"/>
       <c r="AF451" s="59"/>
     </row>
-    <row r="452" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:32" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="64">
         <v>450</v>
       </c>
@@ -48673,7 +48752,7 @@
       <c r="AE496" s="58"/>
       <c r="AF496" s="68"/>
     </row>
-    <row r="497" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="64">
         <v>494</v>
       </c>
@@ -51615,7 +51694,7 @@
       <c r="AE538" s="58"/>
       <c r="AF538" s="68"/>
     </row>
-    <row r="539" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="64">
         <v>536</v>
       </c>
@@ -52239,7 +52318,7 @@
       <c r="AE547" s="58"/>
       <c r="AF547" s="59"/>
     </row>
-    <row r="548" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="64">
         <v>545</v>
       </c>
@@ -55215,7 +55294,7 @@
       <c r="AE589" s="58"/>
       <c r="AF589" s="68"/>
     </row>
-    <row r="590" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="64">
         <v>587</v>
       </c>
@@ -55663,7 +55742,7 @@
       <c r="AE595" s="58"/>
       <c r="AF595" s="68"/>
     </row>
-    <row r="596" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="64">
         <v>593</v>
       </c>
@@ -55731,7 +55810,7 @@
       <c r="AE596" s="58"/>
       <c r="AF596" s="68"/>
     </row>
-    <row r="597" spans="1:32" ht="306" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:32" ht="306" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="64">
         <v>594</v>
       </c>
@@ -56021,7 +56100,7 @@
       <c r="AE600" s="58"/>
       <c r="AF600" s="59"/>
     </row>
-    <row r="601" spans="1:32" ht="216.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:32" ht="216.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="64">
         <v>598</v>
       </c>
@@ -56899,7 +56978,7 @@
       <c r="AE612" s="58"/>
       <c r="AF612" s="59"/>
     </row>
-    <row r="613" spans="1:32" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:32" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="64">
         <v>610</v>
       </c>
@@ -57287,7 +57366,7 @@
       <c r="AE617" s="58"/>
       <c r="AF617" s="69"/>
     </row>
-    <row r="618" spans="1:32" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:32" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="64">
         <v>615</v>
       </c>
@@ -57359,7 +57438,7 @@
       <c r="AE618" s="58"/>
       <c r="AF618" s="68"/>
     </row>
-    <row r="619" spans="1:32" ht="229.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:32" ht="229.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="64">
         <v>616</v>
       </c>
@@ -59023,7 +59102,7 @@
       <c r="AE639" s="58"/>
       <c r="AF639" s="68"/>
     </row>
-    <row r="640" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="64">
         <v>637</v>
       </c>
@@ -59175,7 +59254,7 @@
       <c r="AE641" s="58"/>
       <c r="AF641" s="68"/>
     </row>
-    <row r="642" spans="1:32" ht="165.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:32" ht="165.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="64">
         <v>639</v>
       </c>
@@ -59249,7 +59328,7 @@
       <c r="AE642" s="58"/>
       <c r="AF642" s="68"/>
     </row>
-    <row r="643" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="64">
         <v>640</v>
       </c>
@@ -59313,7 +59392,7 @@
       <c r="AE643" s="58"/>
       <c r="AF643" s="68"/>
     </row>
-    <row r="644" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="64">
         <v>641</v>
       </c>
@@ -59544,7 +59623,9 @@
       <c r="N647" s="52" t="s">
         <v>1158</v>
       </c>
-      <c r="O647" s="50"/>
+      <c r="O647" s="50" t="s">
+        <v>2525</v>
+      </c>
       <c r="P647" s="52" t="s">
         <v>70</v>
       </c>
@@ -60481,7 +60562,7 @@
       <c r="AE659" s="58"/>
       <c r="AF659" s="68"/>
     </row>
-    <row r="660" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="64">
         <v>657</v>
       </c>
@@ -60551,7 +60632,7 @@
       <c r="AE660" s="58"/>
       <c r="AF660" s="68"/>
     </row>
-    <row r="661" spans="1:32" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:32" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="64">
         <v>658</v>
       </c>
@@ -61081,7 +61162,7 @@
       <c r="AE667" s="58"/>
       <c r="AF667" s="68"/>
     </row>
-    <row r="668" spans="1:32" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:32" ht="191.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="64">
         <v>665</v>
       </c>
@@ -61297,7 +61378,7 @@
       <c r="AE670" s="58"/>
       <c r="AF670" s="68"/>
     </row>
-    <row r="671" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="64">
         <v>668</v>
       </c>
@@ -61367,7 +61448,7 @@
       <c r="AE671" s="58"/>
       <c r="AF671" s="68"/>
     </row>
-    <row r="672" spans="1:32" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:32" ht="89.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="64">
         <v>669</v>
       </c>
@@ -61665,7 +61746,7 @@
       <c r="AE675" s="58"/>
       <c r="AF675" s="68"/>
     </row>
-    <row r="676" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="64">
         <v>673</v>
       </c>
@@ -61733,7 +61814,7 @@
       <c r="AE676" s="58"/>
       <c r="AF676" s="68"/>
     </row>
-    <row r="677" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="64">
         <v>674</v>
       </c>
@@ -61875,7 +61956,7 @@
       <c r="AE678" s="58"/>
       <c r="AF678" s="68"/>
     </row>
-    <row r="679" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:32" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="64">
         <v>676</v>
       </c>
@@ -62021,7 +62102,7 @@
       <c r="AE680" s="58"/>
       <c r="AF680" s="59"/>
     </row>
-    <row r="681" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:32" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="64">
         <v>678</v>
       </c>
@@ -62309,7 +62390,7 @@
       <c r="AE684" s="58"/>
       <c r="AF684" s="59"/>
     </row>
-    <row r="685" spans="1:32" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:32" ht="191.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="64">
         <v>682</v>
       </c>
@@ -62377,7 +62458,7 @@
       <c r="AE685" s="58"/>
       <c r="AF685" s="59"/>
     </row>
-    <row r="686" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:32" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="64">
         <v>683</v>
       </c>
@@ -62445,7 +62526,7 @@
       <c r="AE686" s="58"/>
       <c r="AF686" s="59"/>
     </row>
-    <row r="687" spans="1:32" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:32" ht="191.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="64">
         <v>684</v>
       </c>
@@ -62585,7 +62666,7 @@
       <c r="AE688" s="58"/>
       <c r="AF688" s="59"/>
     </row>
-    <row r="689" spans="1:32" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:32" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="64">
         <v>686</v>
       </c>
@@ -62919,7 +63000,7 @@
       <c r="AE693" s="58"/>
       <c r="AF693" s="59"/>
     </row>
-    <row r="694" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:32" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="64">
         <v>691</v>
       </c>
@@ -64141,7 +64222,7 @@
       <c r="AE711" s="58"/>
       <c r="AF711" s="58"/>
     </row>
-    <row r="712" spans="1:32" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:32" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="64">
         <v>709</v>
       </c>
@@ -64187,7 +64268,7 @@
       <c r="AA712" s="55" t="s">
         <v>2518</v>
       </c>
-      <c r="AB712" s="239" t="s">
+      <c r="AB712" s="145" t="s">
         <v>2520</v>
       </c>
       <c r="AC712" s="57"/>
@@ -64195,7 +64276,7 @@
       <c r="AE712" s="58"/>
       <c r="AF712" s="58"/>
     </row>
-    <row r="713" spans="1:32" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:32" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="64">
         <v>710</v>
       </c>
@@ -64241,7 +64322,7 @@
       <c r="AA713" s="55" t="s">
         <v>2518</v>
       </c>
-      <c r="AB713" s="239" t="s">
+      <c r="AB713" s="145" t="s">
         <v>2520</v>
       </c>
       <c r="AC713" s="57"/>
@@ -64261,36 +64342,17 @@
       </filters>
     </filterColumn>
     <filterColumn colId="11">
-      <filters blank="1">
-        <filter val="Considered for future use"/>
-        <filter val="Not Persuasive"/>
-        <filter val="Not persuasive with mod"/>
-        <filter val="Persuasive"/>
-        <filter val="Persuasive with mod"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
     <filterColumn colId="12">
       <filters blank="1"/>
     </filterColumn>
     <filterColumn colId="13">
       <filters>
-        <filter val="FHIR Core"/>
-        <filter val="FHIR-CGIT"/>
-        <filter val="FHIR-Core"/>
-        <filter val="FHIR-FGB"/>
-        <filter val="FHIR-FMG"/>
-        <filter val="FHIR-IHE"/>
-        <filter val="FHIR-ITS"/>
-        <filter val="FHIR-MnM"/>
-        <filter val="FHIR-PC"/>
-        <filter val="FHIR-SD"/>
-        <filter val="FHIR-Security"/>
-        <filter val="FHIR-Tool"/>
-        <filter val="FHIR-Vocab"/>
+        <filter val="FM"/>
       </filters>
-    </filterColumn>
-    <filterColumn colId="19">
-      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <mergeCells count="4">
@@ -65002,10 +65064,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="178" t="s">
+      <c r="H1" s="179" t="s">
         <v>2245</v>
       </c>
-      <c r="I1" s="178"/>
+      <c r="I1" s="179"/>
     </row>
     <row r="2" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="75" t="s">
@@ -65020,16 +65082,16 @@
       <c r="I2" s="77"/>
     </row>
     <row r="3" spans="2:14" ht="303.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="179" t="s">
+      <c r="B3" s="180" t="s">
         <v>2247</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="182"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J4" s="25"/>
@@ -65047,16 +65109,16 @@
       <c r="I5" s="77"/>
     </row>
     <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="182" t="s">
+      <c r="B6" s="183" t="s">
         <v>2249</v>
       </c>
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="183"/>
-      <c r="H6" s="183"/>
-      <c r="I6" s="184"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="185"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -65066,15 +65128,15 @@
       <c r="B7" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="185" t="s">
+      <c r="C7" s="186" t="s">
         <v>2250</v>
       </c>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="187"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="188"/>
       <c r="J7" s="79"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -65084,15 +65146,15 @@
       <c r="B8" s="80" t="s">
         <v>2251</v>
       </c>
-      <c r="C8" s="188" t="s">
+      <c r="C8" s="189" t="s">
         <v>2252</v>
       </c>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="189"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="189"/>
+      <c r="I8" s="190"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -65102,15 +65164,15 @@
       <c r="B9" s="81" t="s">
         <v>2253</v>
       </c>
-      <c r="C9" s="176" t="s">
+      <c r="C9" s="177" t="s">
         <v>2254</v>
       </c>
-      <c r="D9" s="176"/>
-      <c r="E9" s="176"/>
-      <c r="F9" s="176"/>
-      <c r="G9" s="176"/>
-      <c r="H9" s="176"/>
-      <c r="I9" s="177"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="178"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -65121,13 +65183,13 @@
       <c r="C10" s="83" t="s">
         <v>2255</v>
       </c>
-      <c r="D10" s="191" t="s">
+      <c r="D10" s="192" t="s">
         <v>2256</v>
       </c>
-      <c r="E10" s="192"/>
-      <c r="F10" s="192"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="193"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="194"/>
       <c r="I10" s="84"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -65139,13 +65201,13 @@
       <c r="C11" s="83" t="s">
         <v>2257</v>
       </c>
-      <c r="D11" s="191" t="s">
+      <c r="D11" s="192" t="s">
         <v>2258</v>
       </c>
-      <c r="E11" s="192"/>
-      <c r="F11" s="192"/>
-      <c r="G11" s="192"/>
-      <c r="H11" s="193"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="193"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="194"/>
       <c r="I11" s="84"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -65158,13 +65220,13 @@
       <c r="C12" s="83" t="s">
         <v>2259</v>
       </c>
-      <c r="D12" s="191" t="s">
+      <c r="D12" s="192" t="s">
         <v>2260</v>
       </c>
-      <c r="E12" s="192"/>
-      <c r="F12" s="192"/>
-      <c r="G12" s="192"/>
-      <c r="H12" s="193"/>
+      <c r="E12" s="193"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="194"/>
       <c r="I12" s="84"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -65176,13 +65238,13 @@
       <c r="C13" s="83" t="s">
         <v>2261</v>
       </c>
-      <c r="D13" s="191" t="s">
+      <c r="D13" s="192" t="s">
         <v>2262</v>
       </c>
-      <c r="E13" s="192"/>
-      <c r="F13" s="192"/>
-      <c r="G13" s="192"/>
-      <c r="H13" s="193"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="194"/>
       <c r="I13" s="84"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -65194,13 +65256,13 @@
       <c r="C14" s="83" t="s">
         <v>2263</v>
       </c>
-      <c r="D14" s="191" t="s">
+      <c r="D14" s="192" t="s">
         <v>2264</v>
       </c>
-      <c r="E14" s="192"/>
-      <c r="F14" s="192"/>
-      <c r="G14" s="192"/>
-      <c r="H14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="194"/>
       <c r="I14" s="84"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -65212,13 +65274,13 @@
       <c r="C15" s="83" t="s">
         <v>2265</v>
       </c>
-      <c r="D15" s="191" t="s">
+      <c r="D15" s="192" t="s">
         <v>2266</v>
       </c>
-      <c r="E15" s="192"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="192"/>
-      <c r="H15" s="193"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="194"/>
       <c r="I15" s="84"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -65230,13 +65292,13 @@
       <c r="C16" s="83" t="s">
         <v>2267</v>
       </c>
-      <c r="D16" s="191" t="s">
+      <c r="D16" s="192" t="s">
         <v>2268</v>
       </c>
-      <c r="E16" s="192"/>
-      <c r="F16" s="192"/>
-      <c r="G16" s="192"/>
-      <c r="H16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="194"/>
       <c r="I16" s="84"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -65248,13 +65310,13 @@
       <c r="C17" s="83" t="s">
         <v>2269</v>
       </c>
-      <c r="D17" s="191" t="s">
+      <c r="D17" s="192" t="s">
         <v>2270</v>
       </c>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="194"/>
       <c r="I17" s="84"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -65266,13 +65328,13 @@
       <c r="C18" s="83" t="s">
         <v>2271</v>
       </c>
-      <c r="D18" s="191" t="s">
+      <c r="D18" s="192" t="s">
         <v>2272</v>
       </c>
-      <c r="E18" s="192"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="193"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="194"/>
       <c r="I18" s="84"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -65297,15 +65359,15 @@
       <c r="B20" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="194" t="s">
+      <c r="C20" s="195" t="s">
         <v>2273</v>
       </c>
-      <c r="D20" s="194"/>
-      <c r="E20" s="194"/>
-      <c r="F20" s="194"/>
-      <c r="G20" s="194"/>
-      <c r="H20" s="194"/>
-      <c r="I20" s="195"/>
+      <c r="D20" s="195"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="195"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="195"/>
+      <c r="I20" s="196"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -65315,33 +65377,33 @@
       <c r="B21" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="192" t="s">
+      <c r="C21" s="193" t="s">
         <v>2274</v>
       </c>
-      <c r="D21" s="192"/>
-      <c r="E21" s="192"/>
-      <c r="F21" s="192"/>
-      <c r="G21" s="192"/>
-      <c r="H21" s="192"/>
-      <c r="I21" s="196"/>
+      <c r="D21" s="193"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="193"/>
+      <c r="G21" s="193"/>
+      <c r="H21" s="193"/>
+      <c r="I21" s="197"/>
       <c r="J21" s="89"/>
-      <c r="K21" s="190"/>
-      <c r="L21" s="190"/>
-      <c r="M21" s="190"/>
+      <c r="K21" s="191"/>
+      <c r="L21" s="191"/>
+      <c r="M21" s="191"/>
     </row>
     <row r="22" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="80" t="s">
         <v>2275</v>
       </c>
-      <c r="C22" s="192" t="s">
+      <c r="C22" s="193" t="s">
         <v>2276</v>
       </c>
-      <c r="D22" s="192"/>
-      <c r="E22" s="192"/>
-      <c r="F22" s="192"/>
-      <c r="G22" s="192"/>
-      <c r="H22" s="192"/>
-      <c r="I22" s="196"/>
+      <c r="D22" s="193"/>
+      <c r="E22" s="193"/>
+      <c r="F22" s="193"/>
+      <c r="G22" s="193"/>
+      <c r="H22" s="193"/>
+      <c r="I22" s="197"/>
       <c r="J22" s="89"/>
       <c r="K22" s="90"/>
       <c r="L22" s="90"/>
@@ -65351,45 +65413,45 @@
       <c r="B23" s="80" t="s">
         <v>2277</v>
       </c>
-      <c r="C23" s="199" t="s">
+      <c r="C23" s="200" t="s">
         <v>2278</v>
       </c>
-      <c r="D23" s="199"/>
-      <c r="E23" s="199"/>
-      <c r="F23" s="199"/>
-      <c r="G23" s="199"/>
-      <c r="H23" s="199"/>
-      <c r="I23" s="200"/>
+      <c r="D23" s="200"/>
+      <c r="E23" s="200"/>
+      <c r="F23" s="200"/>
+      <c r="G23" s="200"/>
+      <c r="H23" s="200"/>
+      <c r="I23" s="201"/>
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="194" t="s">
+      <c r="C24" s="195" t="s">
         <v>2279</v>
       </c>
-      <c r="D24" s="194"/>
-      <c r="E24" s="194"/>
-      <c r="F24" s="194"/>
-      <c r="G24" s="194"/>
-      <c r="H24" s="194"/>
-      <c r="I24" s="195"/>
+      <c r="D24" s="195"/>
+      <c r="E24" s="195"/>
+      <c r="F24" s="195"/>
+      <c r="G24" s="195"/>
+      <c r="H24" s="195"/>
+      <c r="I24" s="196"/>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="194" t="s">
+      <c r="C25" s="195" t="s">
         <v>2280</v>
       </c>
-      <c r="D25" s="194"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="194"/>
-      <c r="G25" s="194"/>
-      <c r="H25" s="194"/>
-      <c r="I25" s="195"/>
+      <c r="D25" s="195"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="195"/>
+      <c r="H25" s="195"/>
+      <c r="I25" s="196"/>
       <c r="J25" s="91"/>
       <c r="M25" s="2"/>
     </row>
@@ -65397,15 +65459,15 @@
       <c r="B26" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="194" t="s">
+      <c r="C26" s="195" t="s">
         <v>2281</v>
       </c>
-      <c r="D26" s="194"/>
-      <c r="E26" s="194"/>
-      <c r="F26" s="194"/>
-      <c r="G26" s="194"/>
-      <c r="H26" s="194"/>
-      <c r="I26" s="195"/>
+      <c r="D26" s="195"/>
+      <c r="E26" s="195"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="195"/>
+      <c r="H26" s="195"/>
+      <c r="I26" s="196"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -65415,28 +65477,28 @@
       <c r="B27" s="92" t="s">
         <v>2282</v>
       </c>
-      <c r="C27" s="201" t="s">
+      <c r="C27" s="202" t="s">
         <v>2283</v>
       </c>
-      <c r="D27" s="201"/>
-      <c r="E27" s="201"/>
-      <c r="F27" s="201"/>
-      <c r="G27" s="201"/>
-      <c r="H27" s="201"/>
-      <c r="I27" s="202"/>
+      <c r="D27" s="202"/>
+      <c r="E27" s="202"/>
+      <c r="F27" s="202"/>
+      <c r="G27" s="202"/>
+      <c r="H27" s="202"/>
+      <c r="I27" s="203"/>
       <c r="J27" s="25"/>
     </row>
     <row r="28" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="182" t="s">
+      <c r="B28" s="183" t="s">
         <v>2284</v>
       </c>
-      <c r="C28" s="183"/>
-      <c r="D28" s="183"/>
-      <c r="E28" s="183"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="183"/>
-      <c r="I28" s="184"/>
+      <c r="C28" s="184"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="185"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -65446,15 +65508,15 @@
       <c r="B29" s="93" t="s">
         <v>2285</v>
       </c>
-      <c r="C29" s="203" t="s">
+      <c r="C29" s="204" t="s">
         <v>2286</v>
       </c>
-      <c r="D29" s="204"/>
-      <c r="E29" s="204"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="204"/>
-      <c r="H29" s="204"/>
-      <c r="I29" s="205"/>
+      <c r="D29" s="205"/>
+      <c r="E29" s="205"/>
+      <c r="F29" s="205"/>
+      <c r="G29" s="205"/>
+      <c r="H29" s="205"/>
+      <c r="I29" s="206"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -65464,15 +65526,15 @@
       <c r="B30" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="206" t="s">
+      <c r="C30" s="207" t="s">
         <v>2287</v>
       </c>
-      <c r="D30" s="207"/>
-      <c r="E30" s="207"/>
-      <c r="F30" s="207"/>
-      <c r="G30" s="207"/>
-      <c r="H30" s="207"/>
-      <c r="I30" s="208"/>
+      <c r="D30" s="208"/>
+      <c r="E30" s="208"/>
+      <c r="F30" s="208"/>
+      <c r="G30" s="208"/>
+      <c r="H30" s="208"/>
+      <c r="I30" s="209"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -65482,15 +65544,15 @@
       <c r="B31" s="93" t="s">
         <v>2288</v>
       </c>
-      <c r="C31" s="209" t="s">
+      <c r="C31" s="210" t="s">
         <v>2289</v>
       </c>
-      <c r="D31" s="210"/>
-      <c r="E31" s="210"/>
-      <c r="F31" s="210"/>
-      <c r="G31" s="210"/>
-      <c r="H31" s="210"/>
-      <c r="I31" s="211"/>
+      <c r="D31" s="211"/>
+      <c r="E31" s="211"/>
+      <c r="F31" s="211"/>
+      <c r="G31" s="211"/>
+      <c r="H31" s="211"/>
+      <c r="I31" s="212"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -65500,15 +65562,15 @@
       <c r="B32" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="197" t="s">
+      <c r="C32" s="198" t="s">
         <v>2290</v>
       </c>
-      <c r="D32" s="197"/>
-      <c r="E32" s="197"/>
-      <c r="F32" s="197"/>
-      <c r="G32" s="197"/>
-      <c r="H32" s="197"/>
-      <c r="I32" s="198"/>
+      <c r="D32" s="198"/>
+      <c r="E32" s="198"/>
+      <c r="F32" s="198"/>
+      <c r="G32" s="198"/>
+      <c r="H32" s="198"/>
+      <c r="I32" s="199"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -65518,15 +65580,15 @@
       <c r="B33" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="197" t="s">
+      <c r="C33" s="198" t="s">
         <v>2291</v>
       </c>
-      <c r="D33" s="197"/>
-      <c r="E33" s="197"/>
-      <c r="F33" s="197"/>
-      <c r="G33" s="197"/>
-      <c r="H33" s="197"/>
-      <c r="I33" s="198"/>
+      <c r="D33" s="198"/>
+      <c r="E33" s="198"/>
+      <c r="F33" s="198"/>
+      <c r="G33" s="198"/>
+      <c r="H33" s="198"/>
+      <c r="I33" s="199"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -65536,15 +65598,15 @@
       <c r="B34" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="215" t="s">
+      <c r="C34" s="216" t="s">
         <v>2292</v>
       </c>
-      <c r="D34" s="215"/>
-      <c r="E34" s="215"/>
-      <c r="F34" s="215"/>
-      <c r="G34" s="215"/>
-      <c r="H34" s="215"/>
-      <c r="I34" s="216"/>
+      <c r="D34" s="216"/>
+      <c r="E34" s="216"/>
+      <c r="F34" s="216"/>
+      <c r="G34" s="216"/>
+      <c r="H34" s="216"/>
+      <c r="I34" s="217"/>
       <c r="J34" s="2"/>
       <c r="K34" s="90"/>
       <c r="L34" s="90"/>
@@ -65554,15 +65616,15 @@
       <c r="B35" s="96" t="s">
         <v>2293</v>
       </c>
-      <c r="C35" s="215" t="s">
+      <c r="C35" s="216" t="s">
         <v>2294</v>
       </c>
-      <c r="D35" s="215"/>
-      <c r="E35" s="215"/>
-      <c r="F35" s="215"/>
-      <c r="G35" s="215"/>
-      <c r="H35" s="215"/>
-      <c r="I35" s="216"/>
+      <c r="D35" s="216"/>
+      <c r="E35" s="216"/>
+      <c r="F35" s="216"/>
+      <c r="G35" s="216"/>
+      <c r="H35" s="216"/>
+      <c r="I35" s="217"/>
       <c r="J35" s="2"/>
       <c r="K35" s="90"/>
       <c r="L35" s="90"/>
@@ -65572,15 +65634,15 @@
       <c r="B36" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="215" t="s">
+      <c r="C36" s="216" t="s">
         <v>2295</v>
       </c>
-      <c r="D36" s="215"/>
-      <c r="E36" s="215"/>
-      <c r="F36" s="215"/>
-      <c r="G36" s="215"/>
-      <c r="H36" s="215"/>
-      <c r="I36" s="216"/>
+      <c r="D36" s="216"/>
+      <c r="E36" s="216"/>
+      <c r="F36" s="216"/>
+      <c r="G36" s="216"/>
+      <c r="H36" s="216"/>
+      <c r="I36" s="217"/>
       <c r="J36" s="2"/>
       <c r="K36" s="90"/>
       <c r="L36" s="90"/>
@@ -65590,15 +65652,15 @@
       <c r="B37" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="215" t="s">
+      <c r="C37" s="216" t="s">
         <v>2296</v>
       </c>
-      <c r="D37" s="215"/>
-      <c r="E37" s="215"/>
-      <c r="F37" s="215"/>
-      <c r="G37" s="215"/>
-      <c r="H37" s="215"/>
-      <c r="I37" s="216"/>
+      <c r="D37" s="216"/>
+      <c r="E37" s="216"/>
+      <c r="F37" s="216"/>
+      <c r="G37" s="216"/>
+      <c r="H37" s="216"/>
+      <c r="I37" s="217"/>
       <c r="J37" s="2"/>
       <c r="K37" s="90"/>
       <c r="L37" s="90"/>
@@ -65608,113 +65670,113 @@
       <c r="B38" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="217" t="s">
+      <c r="C38" s="218" t="s">
         <v>2297</v>
       </c>
-      <c r="D38" s="218"/>
-      <c r="E38" s="218"/>
-      <c r="F38" s="218"/>
-      <c r="G38" s="218"/>
-      <c r="H38" s="218"/>
-      <c r="I38" s="219"/>
+      <c r="D38" s="219"/>
+      <c r="E38" s="219"/>
+      <c r="F38" s="219"/>
+      <c r="G38" s="219"/>
+      <c r="H38" s="219"/>
+      <c r="I38" s="220"/>
     </row>
     <row r="39" spans="2:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="217" t="s">
+      <c r="C39" s="218" t="s">
         <v>2298</v>
       </c>
-      <c r="D39" s="218"/>
-      <c r="E39" s="218"/>
-      <c r="F39" s="218"/>
-      <c r="G39" s="218"/>
-      <c r="H39" s="218"/>
-      <c r="I39" s="219"/>
+      <c r="D39" s="219"/>
+      <c r="E39" s="219"/>
+      <c r="F39" s="219"/>
+      <c r="G39" s="219"/>
+      <c r="H39" s="219"/>
+      <c r="I39" s="220"/>
     </row>
     <row r="40" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="100" t="s">
         <v>2299</v>
       </c>
-      <c r="C40" s="220" t="s">
+      <c r="C40" s="221" t="s">
         <v>2300</v>
       </c>
-      <c r="D40" s="221"/>
-      <c r="E40" s="221"/>
-      <c r="F40" s="221"/>
-      <c r="G40" s="221"/>
-      <c r="H40" s="221"/>
-      <c r="I40" s="222"/>
+      <c r="D40" s="222"/>
+      <c r="E40" s="222"/>
+      <c r="F40" s="222"/>
+      <c r="G40" s="222"/>
+      <c r="H40" s="222"/>
+      <c r="I40" s="223"/>
     </row>
     <row r="41" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="101" t="s">
         <v>2301</v>
       </c>
-      <c r="C41" s="223" t="s">
+      <c r="C41" s="224" t="s">
         <v>2302</v>
       </c>
-      <c r="D41" s="221"/>
-      <c r="E41" s="221"/>
-      <c r="F41" s="221"/>
-      <c r="G41" s="221"/>
-      <c r="H41" s="221"/>
-      <c r="I41" s="222"/>
+      <c r="D41" s="222"/>
+      <c r="E41" s="222"/>
+      <c r="F41" s="222"/>
+      <c r="G41" s="222"/>
+      <c r="H41" s="222"/>
+      <c r="I41" s="223"/>
     </row>
     <row r="42" spans="2:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="102" t="s">
         <v>2303</v>
       </c>
-      <c r="C42" s="224" t="s">
+      <c r="C42" s="225" t="s">
         <v>2304</v>
       </c>
-      <c r="D42" s="224"/>
-      <c r="E42" s="224"/>
-      <c r="F42" s="224"/>
-      <c r="G42" s="224"/>
-      <c r="H42" s="224"/>
-      <c r="I42" s="225"/>
+      <c r="D42" s="225"/>
+      <c r="E42" s="225"/>
+      <c r="F42" s="225"/>
+      <c r="G42" s="225"/>
+      <c r="H42" s="225"/>
+      <c r="I42" s="226"/>
     </row>
     <row r="43" spans="2:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="212" t="s">
+      <c r="C43" s="213" t="s">
         <v>2305</v>
       </c>
-      <c r="D43" s="213"/>
-      <c r="E43" s="213"/>
-      <c r="F43" s="213"/>
-      <c r="G43" s="213"/>
-      <c r="H43" s="213"/>
-      <c r="I43" s="214"/>
+      <c r="D43" s="214"/>
+      <c r="E43" s="214"/>
+      <c r="F43" s="214"/>
+      <c r="G43" s="214"/>
+      <c r="H43" s="214"/>
+      <c r="I43" s="215"/>
     </row>
     <row r="44" spans="2:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="212" t="s">
+      <c r="C44" s="213" t="s">
         <v>2306</v>
       </c>
-      <c r="D44" s="213"/>
-      <c r="E44" s="213"/>
-      <c r="F44" s="213"/>
-      <c r="G44" s="213"/>
-      <c r="H44" s="213"/>
-      <c r="I44" s="214"/>
+      <c r="D44" s="214"/>
+      <c r="E44" s="214"/>
+      <c r="F44" s="214"/>
+      <c r="G44" s="214"/>
+      <c r="H44" s="214"/>
+      <c r="I44" s="215"/>
     </row>
     <row r="45" spans="2:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="212" t="s">
+      <c r="C45" s="213" t="s">
         <v>2307</v>
       </c>
-      <c r="D45" s="213"/>
-      <c r="E45" s="213"/>
-      <c r="F45" s="213"/>
-      <c r="G45" s="213"/>
-      <c r="H45" s="213"/>
-      <c r="I45" s="214"/>
+      <c r="D45" s="214"/>
+      <c r="E45" s="214"/>
+      <c r="F45" s="214"/>
+      <c r="G45" s="214"/>
+      <c r="H45" s="214"/>
+      <c r="I45" s="215"/>
     </row>
   </sheetData>
   <mergeCells count="42">
@@ -65797,17 +65859,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="227" t="s">
         <v>2308</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
       <c r="J1" s="104" t="s">
         <v>2309</v>
       </c>
@@ -65818,15 +65880,15 @@
       <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="228"/>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
+      <c r="A2" s="229"/>
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
       <c r="J2" s="107"/>
       <c r="K2" s="107"/>
       <c r="L2" s="107"/>
@@ -67496,10 +67558,10 @@
       <c r="D2" s="123"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="231" t="s">
         <v>2316</v>
       </c>
-      <c r="B3" s="233" t="s">
+      <c r="B3" s="234" t="s">
         <v>2317</v>
       </c>
       <c r="C3" s="124" t="s">
@@ -67513,8 +67575,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="231"/>
-      <c r="B4" s="234"/>
+      <c r="A4" s="232"/>
+      <c r="B4" s="235"/>
       <c r="C4" s="124" t="s">
         <v>2321</v>
       </c>
@@ -67526,8 +67588,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="231"/>
-      <c r="B5" s="234"/>
+      <c r="A5" s="232"/>
+      <c r="B5" s="235"/>
       <c r="C5" s="124" t="s">
         <v>2324</v>
       </c>
@@ -67539,8 +67601,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="231"/>
-      <c r="B6" s="234"/>
+      <c r="A6" s="232"/>
+      <c r="B6" s="235"/>
       <c r="C6" s="124" t="s">
         <v>2326</v>
       </c>
@@ -67552,8 +67614,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="231"/>
-      <c r="B7" s="234"/>
+      <c r="A7" s="232"/>
+      <c r="B7" s="235"/>
       <c r="C7" s="124" t="s">
         <v>2265</v>
       </c>
@@ -67565,8 +67627,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="231"/>
-      <c r="B8" s="234"/>
+      <c r="A8" s="232"/>
+      <c r="B8" s="235"/>
       <c r="C8" s="124" t="s">
         <v>2329</v>
       </c>
@@ -67578,8 +67640,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="231"/>
-      <c r="B9" s="234"/>
+      <c r="A9" s="232"/>
+      <c r="B9" s="235"/>
       <c r="C9" s="124" t="s">
         <v>2332</v>
       </c>
@@ -67591,8 +67653,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="231"/>
-      <c r="B10" s="234"/>
+      <c r="A10" s="232"/>
+      <c r="B10" s="235"/>
       <c r="C10" s="124" t="s">
         <v>2334</v>
       </c>
@@ -67604,8 +67666,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="232"/>
-      <c r="B11" s="235"/>
+      <c r="A11" s="233"/>
+      <c r="B11" s="236"/>
       <c r="C11" s="124" t="s">
         <v>2337</v>
       </c>
@@ -67686,10 +67748,10 @@
       <c r="D18" s="123"/>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="230" t="s">
+      <c r="A19" s="231" t="s">
         <v>1158</v>
       </c>
-      <c r="B19" s="230" t="s">
+      <c r="B19" s="231" t="s">
         <v>2350</v>
       </c>
       <c r="C19" s="124" t="s">
@@ -67703,8 +67765,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="231"/>
-      <c r="B20" s="231"/>
+      <c r="A20" s="232"/>
+      <c r="B20" s="232"/>
       <c r="C20" s="124" t="s">
         <v>2353</v>
       </c>
@@ -67716,8 +67778,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="231"/>
-      <c r="B21" s="231"/>
+      <c r="A21" s="232"/>
+      <c r="B21" s="232"/>
       <c r="C21" s="124" t="s">
         <v>2355</v>
       </c>
@@ -67734,10 +67796,10 @@
       <c r="D22" s="123"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="230" t="s">
+      <c r="A23" s="231" t="s">
         <v>2357</v>
       </c>
-      <c r="B23" s="230" t="s">
+      <c r="B23" s="231" t="s">
         <v>2358</v>
       </c>
       <c r="C23" s="124" t="s">
@@ -67751,8 +67813,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="231"/>
-      <c r="B24" s="231"/>
+      <c r="A24" s="232"/>
+      <c r="B24" s="232"/>
       <c r="C24" s="124" t="s">
         <v>2357</v>
       </c>
@@ -67769,10 +67831,10 @@
       <c r="D25" s="123"/>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="230" t="s">
+      <c r="A26" s="231" t="s">
         <v>2362</v>
       </c>
-      <c r="B26" s="233" t="s">
+      <c r="B26" s="234" t="s">
         <v>2363</v>
       </c>
       <c r="C26" s="124" t="s">
@@ -67786,8 +67848,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="231"/>
-      <c r="B27" s="234"/>
+      <c r="A27" s="232"/>
+      <c r="B27" s="235"/>
       <c r="C27" s="131" t="s">
         <v>2366</v>
       </c>
@@ -67799,8 +67861,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="231"/>
-      <c r="B28" s="234"/>
+      <c r="A28" s="232"/>
+      <c r="B28" s="235"/>
       <c r="C28" s="131" t="s">
         <v>2368</v>
       </c>
@@ -67812,8 +67874,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="231"/>
-      <c r="B29" s="234"/>
+      <c r="A29" s="232"/>
+      <c r="B29" s="235"/>
       <c r="C29" s="131" t="s">
         <v>2370</v>
       </c>
@@ -67825,8 +67887,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="231"/>
-      <c r="B30" s="234"/>
+      <c r="A30" s="232"/>
+      <c r="B30" s="235"/>
       <c r="C30" s="131" t="s">
         <v>2372</v>
       </c>
@@ -67865,10 +67927,10 @@
       <c r="D33" s="123"/>
     </row>
     <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="230" t="s">
+      <c r="A34" s="231" t="s">
         <v>1183</v>
       </c>
-      <c r="B34" s="230" t="s">
+      <c r="B34" s="231" t="s">
         <v>2377</v>
       </c>
       <c r="C34" s="124" t="s">
@@ -67882,8 +67944,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="231"/>
-      <c r="B35" s="231"/>
+      <c r="A35" s="232"/>
+      <c r="B35" s="232"/>
       <c r="C35" s="124" t="s">
         <v>2380</v>
       </c>
@@ -67895,8 +67957,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="231"/>
-      <c r="B36" s="231"/>
+      <c r="A36" s="232"/>
+      <c r="B36" s="232"/>
       <c r="C36" s="124" t="s">
         <v>2382</v>
       </c>
@@ -67908,8 +67970,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="231"/>
-      <c r="B37" s="231"/>
+      <c r="A37" s="232"/>
+      <c r="B37" s="232"/>
       <c r="C37" s="124" t="s">
         <v>2384</v>
       </c>
@@ -67921,8 +67983,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="231"/>
-      <c r="B38" s="231"/>
+      <c r="A38" s="232"/>
+      <c r="B38" s="232"/>
       <c r="C38" s="124" t="s">
         <v>2386</v>
       </c>
@@ -67934,8 +67996,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="231"/>
-      <c r="B39" s="231"/>
+      <c r="A39" s="232"/>
+      <c r="B39" s="232"/>
       <c r="C39" s="124" t="s">
         <v>2388</v>
       </c>
@@ -67947,8 +68009,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="231"/>
-      <c r="B40" s="231"/>
+      <c r="A40" s="232"/>
+      <c r="B40" s="232"/>
       <c r="C40" s="124" t="s">
         <v>2390</v>
       </c>
@@ -67960,8 +68022,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="231"/>
-      <c r="B41" s="231"/>
+      <c r="A41" s="232"/>
+      <c r="B41" s="232"/>
       <c r="C41" s="124" t="s">
         <v>870</v>
       </c>
@@ -67973,8 +68035,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="231"/>
-      <c r="B42" s="231"/>
+      <c r="A42" s="232"/>
+      <c r="B42" s="232"/>
       <c r="C42" s="124" t="s">
         <v>2393</v>
       </c>
@@ -67986,8 +68048,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="231"/>
-      <c r="B43" s="231"/>
+      <c r="A43" s="232"/>
+      <c r="B43" s="232"/>
       <c r="C43" s="124" t="s">
         <v>2395</v>
       </c>
@@ -68009,10 +68071,10 @@
       <c r="D45" s="123"/>
     </row>
     <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="230" t="s">
+      <c r="A46" s="231" t="s">
         <v>638</v>
       </c>
-      <c r="B46" s="236" t="s">
+      <c r="B46" s="237" t="s">
         <v>2397</v>
       </c>
       <c r="C46" s="124" t="s">
@@ -68026,8 +68088,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="231"/>
-      <c r="B47" s="237"/>
+      <c r="A47" s="232"/>
+      <c r="B47" s="238"/>
       <c r="C47" s="124" t="s">
         <v>2399</v>
       </c>
@@ -68039,8 +68101,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="231"/>
-      <c r="B48" s="238"/>
+      <c r="A48" s="232"/>
+      <c r="B48" s="239"/>
       <c r="C48" s="124" t="s">
         <v>2401</v>
       </c>
@@ -68101,10 +68163,10 @@
       <c r="D53" s="123"/>
     </row>
     <row r="54" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="230" t="s">
+      <c r="A54" s="231" t="s">
         <v>2409</v>
       </c>
-      <c r="B54" s="233" t="s">
+      <c r="B54" s="234" t="s">
         <v>2410</v>
       </c>
       <c r="C54" s="124" t="s">
@@ -68118,8 +68180,8 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="231"/>
-      <c r="B55" s="234"/>
+      <c r="A55" s="232"/>
+      <c r="B55" s="235"/>
       <c r="C55" s="124" t="s">
         <v>2413</v>
       </c>
@@ -68131,8 +68193,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="231"/>
-      <c r="B56" s="235"/>
+      <c r="A56" s="232"/>
+      <c r="B56" s="236"/>
       <c r="C56" s="124" t="s">
         <v>2415</v>
       </c>
@@ -68149,10 +68211,10 @@
       <c r="D57" s="123"/>
     </row>
     <row r="58" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="230" t="s">
+      <c r="A58" s="231" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="230" t="s">
+      <c r="B58" s="231" t="s">
         <v>118</v>
       </c>
       <c r="C58" s="124" t="s">
@@ -68166,8 +68228,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="231"/>
-      <c r="B59" s="231"/>
+      <c r="A59" s="232"/>
+      <c r="B59" s="232"/>
       <c r="C59" s="124" t="s">
         <v>2420</v>
       </c>
@@ -68184,10 +68246,10 @@
       <c r="D60" s="123"/>
     </row>
     <row r="61" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="230" t="s">
+      <c r="A61" s="231" t="s">
         <v>2422</v>
       </c>
-      <c r="B61" s="230" t="s">
+      <c r="B61" s="231" t="s">
         <v>2423</v>
       </c>
       <c r="C61" s="124" t="s">
@@ -68201,8 +68263,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="231"/>
-      <c r="B62" s="231"/>
+      <c r="A62" s="232"/>
+      <c r="B62" s="232"/>
       <c r="C62" s="124" t="s">
         <v>2426</v>
       </c>
@@ -68236,10 +68298,10 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="230" t="s">
+      <c r="A66" s="231" t="s">
         <v>2431</v>
       </c>
-      <c r="B66" s="230" t="s">
+      <c r="B66" s="231" t="s">
         <v>2432</v>
       </c>
       <c r="C66" s="124" t="s">
@@ -68253,8 +68315,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="231"/>
-      <c r="B67" s="231"/>
+      <c r="A67" s="232"/>
+      <c r="B67" s="232"/>
       <c r="C67" s="124" t="s">
         <v>2435</v>
       </c>
@@ -68271,10 +68333,10 @@
       <c r="D68" s="123"/>
     </row>
     <row r="69" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="230" t="s">
+      <c r="A69" s="231" t="s">
         <v>2437</v>
       </c>
-      <c r="B69" s="230" t="s">
+      <c r="B69" s="231" t="s">
         <v>2438</v>
       </c>
       <c r="C69" s="124" t="s">
@@ -68288,8 +68350,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="231"/>
-      <c r="B70" s="231"/>
+      <c r="A70" s="232"/>
+      <c r="B70" s="232"/>
       <c r="C70" s="124" t="s">
         <v>2441</v>
       </c>

--- a/ballots/2013-01 Draft/Comments-FHIR_R1_O2_2013JAN.xlsx
+++ b/ballots/2013-01 Draft/Comments-FHIR_R1_O2_2013JAN.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11255" uniqueCount="2554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11265" uniqueCount="2554">
   <si>
     <t xml:space="preserve">BALLOT TITLE: </t>
   </si>
@@ -12409,23 +12409,12 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="19" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="37" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -12433,14 +12422,14 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -12453,6 +12442,12 @@
     <xf numFmtId="49" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -12478,23 +12473,32 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="19" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -12510,114 +12514,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="42" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -12661,6 +12557,114 @@
     <xf numFmtId="0" fontId="23" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="42" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -12677,9 +12681,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12700,9 +12701,8 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="37" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="56">
@@ -13095,20 +13095,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:99" ht="45.75" customHeight="1" thickTop="1">
-      <c r="A1" s="249" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="249"/>
-      <c r="C1" s="249"/>
-      <c r="D1" s="250"/>
+      <c r="A1" s="246" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="247"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="251" t="s">
+      <c r="F1" s="268" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="253"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="270"/>
       <c r="K1" s="4"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -13116,12 +13116,12 @@
       <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:99">
-      <c r="A2" s="249" t="s">
+      <c r="A2" s="246" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="250"/>
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="247"/>
       <c r="E2" s="3"/>
       <c r="F2" s="6" t="s">
         <v>3</v>
@@ -13137,20 +13137,20 @@
       <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:99" ht="18.75" customHeight="1">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="245"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="264"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="254" t="s">
+      <c r="F3" s="251" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="255"/>
-      <c r="H3" s="255"/>
-      <c r="I3" s="255"/>
-      <c r="J3" s="256"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="253"/>
       <c r="K3" s="10"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -13158,18 +13158,18 @@
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:99" ht="18.75" customHeight="1">
-      <c r="A4" s="244" t="s">
+      <c r="A4" s="263" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="244"/>
-      <c r="C4" s="244"/>
-      <c r="D4" s="245"/>
+      <c r="B4" s="263"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="264"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="246"/>
-      <c r="G4" s="247"/>
-      <c r="H4" s="247"/>
-      <c r="I4" s="247"/>
-      <c r="J4" s="248"/>
+      <c r="F4" s="265"/>
+      <c r="G4" s="266"/>
+      <c r="H4" s="266"/>
+      <c r="I4" s="266"/>
+      <c r="J4" s="267"/>
       <c r="K4" s="10"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -13177,18 +13177,18 @@
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:99" ht="18.75" customHeight="1">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="256" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="258"/>
+      <c r="B5" s="256"/>
+      <c r="C5" s="256"/>
+      <c r="D5" s="257"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="255"/>
-      <c r="H5" s="255"/>
-      <c r="I5" s="255"/>
-      <c r="J5" s="256"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252"/>
+      <c r="J5" s="253"/>
       <c r="K5" s="10"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -13196,18 +13196,18 @@
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:99" ht="29.25" customHeight="1">
-      <c r="A6" s="259" t="s">
+      <c r="A6" s="258" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="259"/>
-      <c r="C6" s="259"/>
-      <c r="D6" s="260"/>
+      <c r="B6" s="258"/>
+      <c r="C6" s="258"/>
+      <c r="D6" s="259"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="254"/>
-      <c r="G6" s="255"/>
-      <c r="H6" s="255"/>
-      <c r="I6" s="255"/>
-      <c r="J6" s="256"/>
+      <c r="F6" s="251"/>
+      <c r="G6" s="252"/>
+      <c r="H6" s="252"/>
+      <c r="I6" s="252"/>
+      <c r="J6" s="253"/>
       <c r="K6" s="10"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -13215,18 +13215,18 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:99" ht="15.75" customHeight="1">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="246" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="249"/>
-      <c r="D7" s="250"/>
+      <c r="B7" s="246"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="247"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="261"/>
-      <c r="G7" s="262"/>
-      <c r="H7" s="262"/>
-      <c r="I7" s="262"/>
-      <c r="J7" s="263"/>
+      <c r="F7" s="260"/>
+      <c r="G7" s="261"/>
+      <c r="H7" s="261"/>
+      <c r="I7" s="261"/>
+      <c r="J7" s="262"/>
       <c r="K7" s="4"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
@@ -13236,18 +13236,18 @@
       <c r="CU7" s="16"/>
     </row>
     <row r="8" spans="1:99" ht="17.25" customHeight="1">
-      <c r="A8" s="249" t="s">
+      <c r="A8" s="246" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="249"/>
-      <c r="C8" s="249"/>
-      <c r="D8" s="250"/>
+      <c r="B8" s="246"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="247"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="265"/>
-      <c r="G8" s="266"/>
-      <c r="H8" s="266"/>
-      <c r="I8" s="266"/>
-      <c r="J8" s="267"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="249"/>
+      <c r="I8" s="249"/>
+      <c r="J8" s="250"/>
       <c r="K8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -13255,18 +13255,18 @@
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:99" ht="62.25" customHeight="1">
-      <c r="A9" s="249" t="s">
+      <c r="A9" s="246" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="249"/>
-      <c r="C9" s="249"/>
-      <c r="D9" s="250"/>
+      <c r="B9" s="246"/>
+      <c r="C9" s="246"/>
+      <c r="D9" s="247"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="255"/>
-      <c r="H9" s="255"/>
-      <c r="I9" s="255"/>
-      <c r="J9" s="256"/>
+      <c r="F9" s="251"/>
+      <c r="G9" s="252"/>
+      <c r="H9" s="252"/>
+      <c r="I9" s="252"/>
+      <c r="J9" s="253"/>
       <c r="K9" s="18"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
@@ -13274,19 +13274,19 @@
       <c r="P9" s="19"/>
     </row>
     <row r="10" spans="1:99" ht="66.75" customHeight="1">
-      <c r="A10" s="268">
+      <c r="A10" s="254">
         <f>IF(Ov=Setup!C9,Disclaimer2,IF(Ov=Setup!B9,Disclaimer,IF(Ov=Setup!D9,,)))</f>
         <v>0</v>
       </c>
-      <c r="B10" s="268"/>
-      <c r="C10" s="268"/>
-      <c r="D10" s="268"/>
-      <c r="E10" s="268"/>
-      <c r="F10" s="268"/>
-      <c r="G10" s="268"/>
-      <c r="H10" s="268"/>
-      <c r="I10" s="268"/>
-      <c r="J10" s="268"/>
+      <c r="B10" s="254"/>
+      <c r="C10" s="254"/>
+      <c r="D10" s="254"/>
+      <c r="E10" s="254"/>
+      <c r="F10" s="254"/>
+      <c r="G10" s="254"/>
+      <c r="H10" s="254"/>
+      <c r="I10" s="254"/>
+      <c r="J10" s="254"/>
     </row>
     <row r="11" spans="1:99" ht="30.75" customHeight="1">
       <c r="F11" s="20" t="s">
@@ -13306,12 +13306,12 @@
       <c r="F21" s="24"/>
     </row>
     <row r="23" spans="6:7" ht="114.75" customHeight="1">
-      <c r="F23" s="269"/>
-      <c r="G23" s="269"/>
+      <c r="F23" s="255"/>
+      <c r="G23" s="255"/>
     </row>
     <row r="24" spans="6:7" ht="409.5" customHeight="1">
-      <c r="F24" s="264"/>
-      <c r="G24" s="264"/>
+      <c r="F24" s="245"/>
+      <c r="G24" s="245"/>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" s="25"/>
@@ -13319,6 +13319,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:J7"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="F8:J8"/>
@@ -13326,19 +13339,6 @@
     <mergeCell ref="F9:J9"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:J3"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Organization You Represent" prompt="Please put the name of the HL7 member organization you represent if it is different from the name of the organization you are employed by.  " sqref="F6"/>
@@ -13365,10 +13365,10 @@
   <dimension ref="A1:AF713"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E166" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E197" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A166" sqref="A166"/>
+      <selection pane="bottomRight" activeCell="G526" sqref="G526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -13408,43 +13408,43 @@
   <sheetData>
     <row r="1" spans="1:32" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="32"/>
-      <c r="B1" s="270" t="s">
+      <c r="B1" s="271" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="271"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="271"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="273"/>
-      <c r="J1" s="273"/>
-      <c r="K1" s="274"/>
-      <c r="L1" s="272" t="s">
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="275"/>
+      <c r="L1" s="273" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="273"/>
-      <c r="N1" s="273"/>
-      <c r="O1" s="273"/>
-      <c r="P1" s="273"/>
-      <c r="Q1" s="273"/>
-      <c r="R1" s="273"/>
-      <c r="S1" s="273"/>
-      <c r="T1" s="273"/>
-      <c r="U1" s="273"/>
-      <c r="V1" s="273"/>
-      <c r="W1" s="273"/>
-      <c r="X1" s="274"/>
-      <c r="Y1" s="272" t="s">
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="274"/>
+      <c r="P1" s="274"/>
+      <c r="Q1" s="274"/>
+      <c r="R1" s="274"/>
+      <c r="S1" s="274"/>
+      <c r="T1" s="274"/>
+      <c r="U1" s="274"/>
+      <c r="V1" s="274"/>
+      <c r="W1" s="274"/>
+      <c r="X1" s="275"/>
+      <c r="Y1" s="273" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="273"/>
-      <c r="AA1" s="273"/>
-      <c r="AB1" s="273"/>
-      <c r="AC1" s="273"/>
-      <c r="AD1" s="273"/>
-      <c r="AE1" s="273"/>
-      <c r="AF1" s="274"/>
+      <c r="Z1" s="274"/>
+      <c r="AA1" s="274"/>
+      <c r="AB1" s="274"/>
+      <c r="AC1" s="274"/>
+      <c r="AD1" s="274"/>
+      <c r="AE1" s="274"/>
+      <c r="AF1" s="275"/>
     </row>
     <row r="2" spans="1:32" s="33" customFormat="1" ht="41.25" customHeight="1" thickTop="1">
       <c r="A2" s="34" t="s">
@@ -27851,7 +27851,7 @@
       </c>
       <c r="E188" s="47"/>
       <c r="F188" s="47"/>
-      <c r="G188" s="338" t="s">
+      <c r="G188" s="244" t="s">
         <v>768</v>
       </c>
       <c r="H188" s="49"/>
@@ -27977,7 +27977,7 @@
       </c>
       <c r="E190" s="47"/>
       <c r="F190" s="47"/>
-      <c r="G190" s="338" t="s">
+      <c r="G190" s="244" t="s">
         <v>770</v>
       </c>
       <c r="H190" s="49"/>
@@ -29708,7 +29708,7 @@
       <c r="AE213" s="214"/>
       <c r="AF213" s="215"/>
     </row>
-    <row r="214" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1">
+    <row r="214" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1">
       <c r="A214" s="45">
         <v>212</v>
       </c>
@@ -29746,7 +29746,9 @@
       <c r="Q214" s="52" t="s">
         <v>820</v>
       </c>
-      <c r="R214" s="52"/>
+      <c r="R214" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S214" s="52"/>
       <c r="T214" s="53"/>
       <c r="U214" s="53"/>
@@ -29846,7 +29848,7 @@
       <c r="AE215" s="58"/>
       <c r="AF215" s="59"/>
     </row>
-    <row r="216" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1">
+    <row r="216" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1">
       <c r="A216" s="45">
         <v>214</v>
       </c>
@@ -29887,7 +29889,7 @@
         <v>82</v>
       </c>
       <c r="R216" s="52" t="s">
-        <v>2526</v>
+        <v>72</v>
       </c>
       <c r="S216" s="52"/>
       <c r="T216" s="53"/>
@@ -30260,7 +30262,7 @@
       <c r="AE221" s="58"/>
       <c r="AF221" s="59"/>
     </row>
-    <row r="222" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1">
+    <row r="222" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1">
       <c r="A222" s="45">
         <v>220</v>
       </c>
@@ -30300,7 +30302,9 @@
       <c r="Q222" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="R222" s="52"/>
+      <c r="R222" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S222" s="52"/>
       <c r="T222" s="53"/>
       <c r="U222" s="53"/>
@@ -30328,7 +30332,7 @@
       <c r="AE222" s="58"/>
       <c r="AF222" s="59"/>
     </row>
-    <row r="223" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1">
+    <row r="223" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1">
       <c r="A223" s="45">
         <v>221</v>
       </c>
@@ -30368,7 +30372,9 @@
       <c r="Q223" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="R223" s="52"/>
+      <c r="R223" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S223" s="52"/>
       <c r="T223" s="53"/>
       <c r="U223" s="53"/>
@@ -30432,7 +30438,9 @@
       <c r="Q224" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="R224" s="52"/>
+      <c r="R224" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S224" s="52"/>
       <c r="T224" s="53"/>
       <c r="U224" s="53"/>
@@ -30460,7 +30468,7 @@
       <c r="AE224" s="58"/>
       <c r="AF224" s="59"/>
     </row>
-    <row r="225" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1">
+    <row r="225" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1">
       <c r="A225" s="45">
         <v>223</v>
       </c>
@@ -30494,7 +30502,9 @@
       <c r="O225" s="50"/>
       <c r="P225" s="52"/>
       <c r="Q225" s="52"/>
-      <c r="R225" s="52"/>
+      <c r="R225" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S225" s="52"/>
       <c r="T225" s="53"/>
       <c r="U225" s="53"/>
@@ -30590,7 +30600,7 @@
       <c r="AE226" s="58"/>
       <c r="AF226" s="59"/>
     </row>
-    <row r="227" spans="1:32" s="60" customFormat="1" ht="51" customHeight="1">
+    <row r="227" spans="1:32" s="60" customFormat="1" ht="51" hidden="1" customHeight="1">
       <c r="A227" s="45">
         <v>225</v>
       </c>
@@ -30626,7 +30636,9 @@
       <c r="O227" s="50"/>
       <c r="P227" s="52"/>
       <c r="Q227" s="52"/>
-      <c r="R227" s="52"/>
+      <c r="R227" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S227" s="52"/>
       <c r="T227" s="53"/>
       <c r="U227" s="53"/>
@@ -30718,7 +30730,7 @@
       <c r="AE228" s="58"/>
       <c r="AF228" s="59"/>
     </row>
-    <row r="229" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1">
+    <row r="229" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1">
       <c r="A229" s="45">
         <v>227</v>
       </c>
@@ -30754,7 +30766,9 @@
       <c r="O229" s="50"/>
       <c r="P229" s="52"/>
       <c r="Q229" s="52"/>
-      <c r="R229" s="52"/>
+      <c r="R229" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S229" s="52"/>
       <c r="T229" s="53"/>
       <c r="U229" s="53"/>
@@ -30782,7 +30796,7 @@
       <c r="AE229" s="58"/>
       <c r="AF229" s="59"/>
     </row>
-    <row r="230" spans="1:32" s="60" customFormat="1" ht="63.75" customHeight="1">
+    <row r="230" spans="1:32" s="60" customFormat="1" ht="63.75" hidden="1" customHeight="1">
       <c r="A230" s="64">
         <v>228</v>
       </c>
@@ -30822,7 +30836,9 @@
       <c r="Q230" s="52" t="s">
         <v>857</v>
       </c>
-      <c r="R230" s="52"/>
+      <c r="R230" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S230" s="52"/>
       <c r="T230" s="53"/>
       <c r="U230" s="53"/>
@@ -49868,7 +49884,7 @@
       <c r="AE501" s="58"/>
       <c r="AF501" s="68"/>
     </row>
-    <row r="502" spans="1:32" ht="38.25" customHeight="1">
+    <row r="502" spans="1:32" ht="38.25" hidden="1" customHeight="1">
       <c r="A502" s="64">
         <v>499</v>
       </c>
@@ -49906,7 +49922,9 @@
       <c r="Q502" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="R502" s="52"/>
+      <c r="R502" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S502" s="52"/>
       <c r="T502" s="53"/>
       <c r="U502" s="53"/>
@@ -60314,7 +60332,7 @@
       <c r="AE645" s="58"/>
       <c r="AF645" s="68"/>
     </row>
-    <row r="646" spans="1:32" ht="25.5" customHeight="1">
+    <row r="646" spans="1:32" ht="25.5" hidden="1" customHeight="1">
       <c r="A646" s="64">
         <v>643</v>
       </c>
@@ -60352,7 +60370,9 @@
       <c r="Q646" s="52" t="s">
         <v>2030</v>
       </c>
-      <c r="R646" s="52"/>
+      <c r="R646" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S646" s="52"/>
       <c r="T646" s="53"/>
       <c r="U646" s="53"/>
@@ -65840,10 +65860,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
-      <c r="H1" s="277" t="s">
+      <c r="H1" s="317" t="s">
         <v>2237</v>
       </c>
-      <c r="I1" s="277"/>
+      <c r="I1" s="317"/>
     </row>
     <row r="2" spans="2:14" ht="15.75" customHeight="1">
       <c r="B2" s="75" t="s">
@@ -65858,16 +65878,16 @@
       <c r="I2" s="77"/>
     </row>
     <row r="3" spans="2:14" ht="303.75" customHeight="1" thickBot="1">
-      <c r="B3" s="278" t="s">
+      <c r="B3" s="318" t="s">
         <v>2239</v>
       </c>
-      <c r="C3" s="279"/>
-      <c r="D3" s="279"/>
-      <c r="E3" s="279"/>
-      <c r="F3" s="279"/>
-      <c r="G3" s="279"/>
-      <c r="H3" s="279"/>
-      <c r="I3" s="280"/>
+      <c r="C3" s="319"/>
+      <c r="D3" s="319"/>
+      <c r="E3" s="319"/>
+      <c r="F3" s="319"/>
+      <c r="G3" s="319"/>
+      <c r="H3" s="319"/>
+      <c r="I3" s="320"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
       <c r="J4" s="25"/>
@@ -65885,16 +65905,16 @@
       <c r="I5" s="77"/>
     </row>
     <row r="6" spans="2:14" ht="18" customHeight="1">
-      <c r="B6" s="281" t="s">
+      <c r="B6" s="300" t="s">
         <v>2241</v>
       </c>
-      <c r="C6" s="282"/>
-      <c r="D6" s="282"/>
-      <c r="E6" s="282"/>
-      <c r="F6" s="282"/>
-      <c r="G6" s="282"/>
-      <c r="H6" s="282"/>
-      <c r="I6" s="283"/>
+      <c r="C6" s="301"/>
+      <c r="D6" s="301"/>
+      <c r="E6" s="301"/>
+      <c r="F6" s="301"/>
+      <c r="G6" s="301"/>
+      <c r="H6" s="301"/>
+      <c r="I6" s="302"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -65904,15 +65924,15 @@
       <c r="B7" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="284" t="s">
+      <c r="C7" s="321" t="s">
         <v>2242</v>
       </c>
-      <c r="D7" s="285"/>
-      <c r="E7" s="285"/>
-      <c r="F7" s="285"/>
-      <c r="G7" s="285"/>
-      <c r="H7" s="285"/>
-      <c r="I7" s="286"/>
+      <c r="D7" s="322"/>
+      <c r="E7" s="322"/>
+      <c r="F7" s="322"/>
+      <c r="G7" s="322"/>
+      <c r="H7" s="322"/>
+      <c r="I7" s="323"/>
       <c r="J7" s="79"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -65922,15 +65942,15 @@
       <c r="B8" s="80" t="s">
         <v>2243</v>
       </c>
-      <c r="C8" s="287" t="s">
+      <c r="C8" s="324" t="s">
         <v>2244</v>
       </c>
-      <c r="D8" s="287"/>
-      <c r="E8" s="287"/>
-      <c r="F8" s="287"/>
-      <c r="G8" s="287"/>
-      <c r="H8" s="287"/>
-      <c r="I8" s="288"/>
+      <c r="D8" s="324"/>
+      <c r="E8" s="324"/>
+      <c r="F8" s="324"/>
+      <c r="G8" s="324"/>
+      <c r="H8" s="324"/>
+      <c r="I8" s="325"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -65940,15 +65960,15 @@
       <c r="B9" s="81" t="s">
         <v>2245</v>
       </c>
-      <c r="C9" s="275" t="s">
+      <c r="C9" s="315" t="s">
         <v>2246</v>
       </c>
-      <c r="D9" s="275"/>
-      <c r="E9" s="275"/>
-      <c r="F9" s="275"/>
-      <c r="G9" s="275"/>
-      <c r="H9" s="275"/>
-      <c r="I9" s="276"/>
+      <c r="D9" s="315"/>
+      <c r="E9" s="315"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="315"/>
+      <c r="H9" s="315"/>
+      <c r="I9" s="316"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -65959,13 +65979,13 @@
       <c r="C10" s="83" t="s">
         <v>2247</v>
       </c>
-      <c r="D10" s="290" t="s">
+      <c r="D10" s="313" t="s">
         <v>2248</v>
       </c>
-      <c r="E10" s="291"/>
-      <c r="F10" s="291"/>
-      <c r="G10" s="291"/>
-      <c r="H10" s="292"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292"/>
+      <c r="G10" s="292"/>
+      <c r="H10" s="314"/>
       <c r="I10" s="84"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -65977,13 +65997,13 @@
       <c r="C11" s="83" t="s">
         <v>2249</v>
       </c>
-      <c r="D11" s="290" t="s">
+      <c r="D11" s="313" t="s">
         <v>2250</v>
       </c>
-      <c r="E11" s="291"/>
-      <c r="F11" s="291"/>
-      <c r="G11" s="291"/>
-      <c r="H11" s="292"/>
+      <c r="E11" s="292"/>
+      <c r="F11" s="292"/>
+      <c r="G11" s="292"/>
+      <c r="H11" s="314"/>
       <c r="I11" s="84"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -65996,13 +66016,13 @@
       <c r="C12" s="83" t="s">
         <v>2251</v>
       </c>
-      <c r="D12" s="290" t="s">
+      <c r="D12" s="313" t="s">
         <v>2252</v>
       </c>
-      <c r="E12" s="291"/>
-      <c r="F12" s="291"/>
-      <c r="G12" s="291"/>
-      <c r="H12" s="292"/>
+      <c r="E12" s="292"/>
+      <c r="F12" s="292"/>
+      <c r="G12" s="292"/>
+      <c r="H12" s="314"/>
       <c r="I12" s="84"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -66014,13 +66034,13 @@
       <c r="C13" s="83" t="s">
         <v>2253</v>
       </c>
-      <c r="D13" s="290" t="s">
+      <c r="D13" s="313" t="s">
         <v>2254</v>
       </c>
-      <c r="E13" s="291"/>
-      <c r="F13" s="291"/>
-      <c r="G13" s="291"/>
-      <c r="H13" s="292"/>
+      <c r="E13" s="292"/>
+      <c r="F13" s="292"/>
+      <c r="G13" s="292"/>
+      <c r="H13" s="314"/>
       <c r="I13" s="84"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -66032,13 +66052,13 @@
       <c r="C14" s="83" t="s">
         <v>2255</v>
       </c>
-      <c r="D14" s="290" t="s">
+      <c r="D14" s="313" t="s">
         <v>2256</v>
       </c>
-      <c r="E14" s="291"/>
-      <c r="F14" s="291"/>
-      <c r="G14" s="291"/>
-      <c r="H14" s="292"/>
+      <c r="E14" s="292"/>
+      <c r="F14" s="292"/>
+      <c r="G14" s="292"/>
+      <c r="H14" s="314"/>
       <c r="I14" s="84"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -66050,13 +66070,13 @@
       <c r="C15" s="83" t="s">
         <v>2257</v>
       </c>
-      <c r="D15" s="290" t="s">
+      <c r="D15" s="313" t="s">
         <v>2258</v>
       </c>
-      <c r="E15" s="291"/>
-      <c r="F15" s="291"/>
-      <c r="G15" s="291"/>
-      <c r="H15" s="292"/>
+      <c r="E15" s="292"/>
+      <c r="F15" s="292"/>
+      <c r="G15" s="292"/>
+      <c r="H15" s="314"/>
       <c r="I15" s="84"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -66068,13 +66088,13 @@
       <c r="C16" s="83" t="s">
         <v>2259</v>
       </c>
-      <c r="D16" s="290" t="s">
+      <c r="D16" s="313" t="s">
         <v>2260</v>
       </c>
-      <c r="E16" s="291"/>
-      <c r="F16" s="291"/>
-      <c r="G16" s="291"/>
-      <c r="H16" s="292"/>
+      <c r="E16" s="292"/>
+      <c r="F16" s="292"/>
+      <c r="G16" s="292"/>
+      <c r="H16" s="314"/>
       <c r="I16" s="84"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -66086,13 +66106,13 @@
       <c r="C17" s="83" t="s">
         <v>2261</v>
       </c>
-      <c r="D17" s="290" t="s">
+      <c r="D17" s="313" t="s">
         <v>2262</v>
       </c>
-      <c r="E17" s="291"/>
-      <c r="F17" s="291"/>
-      <c r="G17" s="291"/>
-      <c r="H17" s="292"/>
+      <c r="E17" s="292"/>
+      <c r="F17" s="292"/>
+      <c r="G17" s="292"/>
+      <c r="H17" s="314"/>
       <c r="I17" s="84"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -66104,13 +66124,13 @@
       <c r="C18" s="83" t="s">
         <v>2263</v>
       </c>
-      <c r="D18" s="290" t="s">
+      <c r="D18" s="313" t="s">
         <v>2264</v>
       </c>
-      <c r="E18" s="291"/>
-      <c r="F18" s="291"/>
-      <c r="G18" s="291"/>
-      <c r="H18" s="292"/>
+      <c r="E18" s="292"/>
+      <c r="F18" s="292"/>
+      <c r="G18" s="292"/>
+      <c r="H18" s="314"/>
       <c r="I18" s="84"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -66135,15 +66155,15 @@
       <c r="B20" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="293" t="s">
+      <c r="C20" s="296" t="s">
         <v>2265</v>
       </c>
-      <c r="D20" s="293"/>
-      <c r="E20" s="293"/>
-      <c r="F20" s="293"/>
-      <c r="G20" s="293"/>
-      <c r="H20" s="293"/>
-      <c r="I20" s="294"/>
+      <c r="D20" s="296"/>
+      <c r="E20" s="296"/>
+      <c r="F20" s="296"/>
+      <c r="G20" s="296"/>
+      <c r="H20" s="296"/>
+      <c r="I20" s="297"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -66153,33 +66173,33 @@
       <c r="B21" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="291" t="s">
+      <c r="C21" s="292" t="s">
         <v>2266</v>
       </c>
-      <c r="D21" s="291"/>
-      <c r="E21" s="291"/>
-      <c r="F21" s="291"/>
-      <c r="G21" s="291"/>
-      <c r="H21" s="291"/>
-      <c r="I21" s="295"/>
+      <c r="D21" s="292"/>
+      <c r="E21" s="292"/>
+      <c r="F21" s="292"/>
+      <c r="G21" s="292"/>
+      <c r="H21" s="292"/>
+      <c r="I21" s="293"/>
       <c r="J21" s="89"/>
-      <c r="K21" s="289"/>
-      <c r="L21" s="289"/>
-      <c r="M21" s="289"/>
+      <c r="K21" s="312"/>
+      <c r="L21" s="312"/>
+      <c r="M21" s="312"/>
     </row>
     <row r="22" spans="2:13" ht="27.75" customHeight="1">
       <c r="B22" s="80" t="s">
         <v>2267</v>
       </c>
-      <c r="C22" s="291" t="s">
+      <c r="C22" s="292" t="s">
         <v>2268</v>
       </c>
-      <c r="D22" s="291"/>
-      <c r="E22" s="291"/>
-      <c r="F22" s="291"/>
-      <c r="G22" s="291"/>
-      <c r="H22" s="291"/>
-      <c r="I22" s="295"/>
+      <c r="D22" s="292"/>
+      <c r="E22" s="292"/>
+      <c r="F22" s="292"/>
+      <c r="G22" s="292"/>
+      <c r="H22" s="292"/>
+      <c r="I22" s="293"/>
       <c r="J22" s="89"/>
       <c r="K22" s="90"/>
       <c r="L22" s="90"/>
@@ -66189,45 +66209,45 @@
       <c r="B23" s="80" t="s">
         <v>2269</v>
       </c>
-      <c r="C23" s="298" t="s">
+      <c r="C23" s="294" t="s">
         <v>2270</v>
       </c>
-      <c r="D23" s="298"/>
-      <c r="E23" s="298"/>
-      <c r="F23" s="298"/>
-      <c r="G23" s="298"/>
-      <c r="H23" s="298"/>
-      <c r="I23" s="299"/>
+      <c r="D23" s="294"/>
+      <c r="E23" s="294"/>
+      <c r="F23" s="294"/>
+      <c r="G23" s="294"/>
+      <c r="H23" s="294"/>
+      <c r="I23" s="295"/>
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13" ht="18" customHeight="1">
       <c r="B24" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="293" t="s">
+      <c r="C24" s="296" t="s">
         <v>2271</v>
       </c>
-      <c r="D24" s="293"/>
-      <c r="E24" s="293"/>
-      <c r="F24" s="293"/>
-      <c r="G24" s="293"/>
-      <c r="H24" s="293"/>
-      <c r="I24" s="294"/>
+      <c r="D24" s="296"/>
+      <c r="E24" s="296"/>
+      <c r="F24" s="296"/>
+      <c r="G24" s="296"/>
+      <c r="H24" s="296"/>
+      <c r="I24" s="297"/>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13" ht="15.75" customHeight="1">
       <c r="B25" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="293" t="s">
+      <c r="C25" s="296" t="s">
         <v>2272</v>
       </c>
-      <c r="D25" s="293"/>
-      <c r="E25" s="293"/>
-      <c r="F25" s="293"/>
-      <c r="G25" s="293"/>
-      <c r="H25" s="293"/>
-      <c r="I25" s="294"/>
+      <c r="D25" s="296"/>
+      <c r="E25" s="296"/>
+      <c r="F25" s="296"/>
+      <c r="G25" s="296"/>
+      <c r="H25" s="296"/>
+      <c r="I25" s="297"/>
       <c r="J25" s="91"/>
       <c r="M25" s="2"/>
     </row>
@@ -66235,15 +66255,15 @@
       <c r="B26" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="293" t="s">
+      <c r="C26" s="296" t="s">
         <v>2273</v>
       </c>
-      <c r="D26" s="293"/>
-      <c r="E26" s="293"/>
-      <c r="F26" s="293"/>
-      <c r="G26" s="293"/>
-      <c r="H26" s="293"/>
-      <c r="I26" s="294"/>
+      <c r="D26" s="296"/>
+      <c r="E26" s="296"/>
+      <c r="F26" s="296"/>
+      <c r="G26" s="296"/>
+      <c r="H26" s="296"/>
+      <c r="I26" s="297"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -66253,28 +66273,28 @@
       <c r="B27" s="92" t="s">
         <v>2274</v>
       </c>
-      <c r="C27" s="300" t="s">
+      <c r="C27" s="298" t="s">
         <v>2275</v>
       </c>
-      <c r="D27" s="300"/>
-      <c r="E27" s="300"/>
-      <c r="F27" s="300"/>
-      <c r="G27" s="300"/>
-      <c r="H27" s="300"/>
-      <c r="I27" s="301"/>
+      <c r="D27" s="298"/>
+      <c r="E27" s="298"/>
+      <c r="F27" s="298"/>
+      <c r="G27" s="298"/>
+      <c r="H27" s="298"/>
+      <c r="I27" s="299"/>
       <c r="J27" s="25"/>
     </row>
     <row r="28" spans="2:13" ht="18" customHeight="1">
-      <c r="B28" s="281" t="s">
+      <c r="B28" s="300" t="s">
         <v>2276</v>
       </c>
-      <c r="C28" s="282"/>
-      <c r="D28" s="282"/>
-      <c r="E28" s="282"/>
-      <c r="F28" s="282"/>
-      <c r="G28" s="282"/>
-      <c r="H28" s="282"/>
-      <c r="I28" s="283"/>
+      <c r="C28" s="301"/>
+      <c r="D28" s="301"/>
+      <c r="E28" s="301"/>
+      <c r="F28" s="301"/>
+      <c r="G28" s="301"/>
+      <c r="H28" s="301"/>
+      <c r="I28" s="302"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -66284,15 +66304,15 @@
       <c r="B29" s="93" t="s">
         <v>2277</v>
       </c>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="303" t="s">
         <v>2278</v>
       </c>
-      <c r="D29" s="303"/>
-      <c r="E29" s="303"/>
-      <c r="F29" s="303"/>
-      <c r="G29" s="303"/>
-      <c r="H29" s="303"/>
-      <c r="I29" s="304"/>
+      <c r="D29" s="304"/>
+      <c r="E29" s="304"/>
+      <c r="F29" s="304"/>
+      <c r="G29" s="304"/>
+      <c r="H29" s="304"/>
+      <c r="I29" s="305"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -66302,15 +66322,15 @@
       <c r="B30" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="305" t="s">
+      <c r="C30" s="306" t="s">
         <v>2279</v>
       </c>
-      <c r="D30" s="306"/>
-      <c r="E30" s="306"/>
-      <c r="F30" s="306"/>
-      <c r="G30" s="306"/>
-      <c r="H30" s="306"/>
-      <c r="I30" s="307"/>
+      <c r="D30" s="307"/>
+      <c r="E30" s="307"/>
+      <c r="F30" s="307"/>
+      <c r="G30" s="307"/>
+      <c r="H30" s="307"/>
+      <c r="I30" s="308"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -66320,15 +66340,15 @@
       <c r="B31" s="93" t="s">
         <v>2280</v>
       </c>
-      <c r="C31" s="308" t="s">
+      <c r="C31" s="309" t="s">
         <v>2281</v>
       </c>
-      <c r="D31" s="309"/>
-      <c r="E31" s="309"/>
-      <c r="F31" s="309"/>
-      <c r="G31" s="309"/>
-      <c r="H31" s="309"/>
-      <c r="I31" s="310"/>
+      <c r="D31" s="310"/>
+      <c r="E31" s="310"/>
+      <c r="F31" s="310"/>
+      <c r="G31" s="310"/>
+      <c r="H31" s="310"/>
+      <c r="I31" s="311"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -66338,15 +66358,15 @@
       <c r="B32" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="296" t="s">
+      <c r="C32" s="290" t="s">
         <v>2282</v>
       </c>
-      <c r="D32" s="296"/>
-      <c r="E32" s="296"/>
-      <c r="F32" s="296"/>
-      <c r="G32" s="296"/>
-      <c r="H32" s="296"/>
-      <c r="I32" s="297"/>
+      <c r="D32" s="290"/>
+      <c r="E32" s="290"/>
+      <c r="F32" s="290"/>
+      <c r="G32" s="290"/>
+      <c r="H32" s="290"/>
+      <c r="I32" s="291"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -66356,15 +66376,15 @@
       <c r="B33" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="296" t="s">
+      <c r="C33" s="290" t="s">
         <v>2283</v>
       </c>
-      <c r="D33" s="296"/>
-      <c r="E33" s="296"/>
-      <c r="F33" s="296"/>
-      <c r="G33" s="296"/>
-      <c r="H33" s="296"/>
-      <c r="I33" s="297"/>
+      <c r="D33" s="290"/>
+      <c r="E33" s="290"/>
+      <c r="F33" s="290"/>
+      <c r="G33" s="290"/>
+      <c r="H33" s="290"/>
+      <c r="I33" s="291"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -66374,15 +66394,15 @@
       <c r="B34" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="314" t="s">
+      <c r="C34" s="279" t="s">
         <v>2284</v>
       </c>
-      <c r="D34" s="314"/>
-      <c r="E34" s="314"/>
-      <c r="F34" s="314"/>
-      <c r="G34" s="314"/>
-      <c r="H34" s="314"/>
-      <c r="I34" s="315"/>
+      <c r="D34" s="279"/>
+      <c r="E34" s="279"/>
+      <c r="F34" s="279"/>
+      <c r="G34" s="279"/>
+      <c r="H34" s="279"/>
+      <c r="I34" s="280"/>
       <c r="J34" s="2"/>
       <c r="K34" s="90"/>
       <c r="L34" s="90"/>
@@ -66392,15 +66412,15 @@
       <c r="B35" s="96" t="s">
         <v>2285</v>
       </c>
-      <c r="C35" s="314" t="s">
+      <c r="C35" s="279" t="s">
         <v>2286</v>
       </c>
-      <c r="D35" s="314"/>
-      <c r="E35" s="314"/>
-      <c r="F35" s="314"/>
-      <c r="G35" s="314"/>
-      <c r="H35" s="314"/>
-      <c r="I35" s="315"/>
+      <c r="D35" s="279"/>
+      <c r="E35" s="279"/>
+      <c r="F35" s="279"/>
+      <c r="G35" s="279"/>
+      <c r="H35" s="279"/>
+      <c r="I35" s="280"/>
       <c r="J35" s="2"/>
       <c r="K35" s="90"/>
       <c r="L35" s="90"/>
@@ -66410,15 +66430,15 @@
       <c r="B36" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="314" t="s">
+      <c r="C36" s="279" t="s">
         <v>2287</v>
       </c>
-      <c r="D36" s="314"/>
-      <c r="E36" s="314"/>
-      <c r="F36" s="314"/>
-      <c r="G36" s="314"/>
-      <c r="H36" s="314"/>
-      <c r="I36" s="315"/>
+      <c r="D36" s="279"/>
+      <c r="E36" s="279"/>
+      <c r="F36" s="279"/>
+      <c r="G36" s="279"/>
+      <c r="H36" s="279"/>
+      <c r="I36" s="280"/>
       <c r="J36" s="2"/>
       <c r="K36" s="90"/>
       <c r="L36" s="90"/>
@@ -66428,15 +66448,15 @@
       <c r="B37" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="314" t="s">
+      <c r="C37" s="279" t="s">
         <v>2288</v>
       </c>
-      <c r="D37" s="314"/>
-      <c r="E37" s="314"/>
-      <c r="F37" s="314"/>
-      <c r="G37" s="314"/>
-      <c r="H37" s="314"/>
-      <c r="I37" s="315"/>
+      <c r="D37" s="279"/>
+      <c r="E37" s="279"/>
+      <c r="F37" s="279"/>
+      <c r="G37" s="279"/>
+      <c r="H37" s="279"/>
+      <c r="I37" s="280"/>
       <c r="J37" s="2"/>
       <c r="K37" s="90"/>
       <c r="L37" s="90"/>
@@ -66446,116 +66466,146 @@
       <c r="B38" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="316" t="s">
+      <c r="C38" s="281" t="s">
         <v>2289</v>
       </c>
-      <c r="D38" s="317"/>
-      <c r="E38" s="317"/>
-      <c r="F38" s="317"/>
-      <c r="G38" s="317"/>
-      <c r="H38" s="317"/>
-      <c r="I38" s="318"/>
+      <c r="D38" s="282"/>
+      <c r="E38" s="282"/>
+      <c r="F38" s="282"/>
+      <c r="G38" s="282"/>
+      <c r="H38" s="282"/>
+      <c r="I38" s="283"/>
     </row>
     <row r="39" spans="2:13" ht="54.75" customHeight="1" thickBot="1">
       <c r="B39" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="316" t="s">
+      <c r="C39" s="281" t="s">
         <v>2290</v>
       </c>
-      <c r="D39" s="317"/>
-      <c r="E39" s="317"/>
-      <c r="F39" s="317"/>
-      <c r="G39" s="317"/>
-      <c r="H39" s="317"/>
-      <c r="I39" s="318"/>
+      <c r="D39" s="282"/>
+      <c r="E39" s="282"/>
+      <c r="F39" s="282"/>
+      <c r="G39" s="282"/>
+      <c r="H39" s="282"/>
+      <c r="I39" s="283"/>
     </row>
     <row r="40" spans="2:13" ht="40.5" customHeight="1" thickBot="1">
       <c r="B40" s="100" t="s">
         <v>2291</v>
       </c>
-      <c r="C40" s="319" t="s">
+      <c r="C40" s="284" t="s">
         <v>2292</v>
       </c>
-      <c r="D40" s="320"/>
-      <c r="E40" s="320"/>
-      <c r="F40" s="320"/>
-      <c r="G40" s="320"/>
-      <c r="H40" s="320"/>
-      <c r="I40" s="321"/>
+      <c r="D40" s="285"/>
+      <c r="E40" s="285"/>
+      <c r="F40" s="285"/>
+      <c r="G40" s="285"/>
+      <c r="H40" s="285"/>
+      <c r="I40" s="286"/>
     </row>
     <row r="41" spans="2:13" ht="40.5" customHeight="1" thickBot="1">
       <c r="B41" s="101" t="s">
         <v>2293</v>
       </c>
-      <c r="C41" s="322" t="s">
+      <c r="C41" s="287" t="s">
         <v>2294</v>
       </c>
-      <c r="D41" s="320"/>
-      <c r="E41" s="320"/>
-      <c r="F41" s="320"/>
-      <c r="G41" s="320"/>
-      <c r="H41" s="320"/>
-      <c r="I41" s="321"/>
+      <c r="D41" s="285"/>
+      <c r="E41" s="285"/>
+      <c r="F41" s="285"/>
+      <c r="G41" s="285"/>
+      <c r="H41" s="285"/>
+      <c r="I41" s="286"/>
     </row>
     <row r="42" spans="2:13" ht="40.5" customHeight="1" thickBot="1">
       <c r="B42" s="102" t="s">
         <v>2295</v>
       </c>
-      <c r="C42" s="323" t="s">
+      <c r="C42" s="288" t="s">
         <v>2296</v>
       </c>
-      <c r="D42" s="323"/>
-      <c r="E42" s="323"/>
-      <c r="F42" s="323"/>
-      <c r="G42" s="323"/>
-      <c r="H42" s="323"/>
-      <c r="I42" s="324"/>
+      <c r="D42" s="288"/>
+      <c r="E42" s="288"/>
+      <c r="F42" s="288"/>
+      <c r="G42" s="288"/>
+      <c r="H42" s="288"/>
+      <c r="I42" s="289"/>
     </row>
     <row r="43" spans="2:13" ht="43.5" customHeight="1" thickBot="1">
       <c r="B43" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="311" t="s">
+      <c r="C43" s="276" t="s">
         <v>2297</v>
       </c>
-      <c r="D43" s="312"/>
-      <c r="E43" s="312"/>
-      <c r="F43" s="312"/>
-      <c r="G43" s="312"/>
-      <c r="H43" s="312"/>
-      <c r="I43" s="313"/>
+      <c r="D43" s="277"/>
+      <c r="E43" s="277"/>
+      <c r="F43" s="277"/>
+      <c r="G43" s="277"/>
+      <c r="H43" s="277"/>
+      <c r="I43" s="278"/>
     </row>
     <row r="44" spans="2:13" ht="13.5" customHeight="1" thickBot="1">
       <c r="B44" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="311" t="s">
+      <c r="C44" s="276" t="s">
         <v>2298</v>
       </c>
-      <c r="D44" s="312"/>
-      <c r="E44" s="312"/>
-      <c r="F44" s="312"/>
-      <c r="G44" s="312"/>
-      <c r="H44" s="312"/>
-      <c r="I44" s="313"/>
+      <c r="D44" s="277"/>
+      <c r="E44" s="277"/>
+      <c r="F44" s="277"/>
+      <c r="G44" s="277"/>
+      <c r="H44" s="277"/>
+      <c r="I44" s="278"/>
     </row>
     <row r="45" spans="2:13" ht="32.25" customHeight="1" thickBot="1">
       <c r="B45" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="311" t="s">
+      <c r="C45" s="276" t="s">
         <v>2299</v>
       </c>
-      <c r="D45" s="312"/>
-      <c r="E45" s="312"/>
-      <c r="F45" s="312"/>
-      <c r="G45" s="312"/>
-      <c r="H45" s="312"/>
-      <c r="I45" s="313"/>
+      <c r="D45" s="277"/>
+      <c r="E45" s="277"/>
+      <c r="F45" s="277"/>
+      <c r="G45" s="277"/>
+      <c r="H45" s="277"/>
+      <c r="I45" s="278"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C32:I32"/>
     <mergeCell ref="C45:I45"/>
     <mergeCell ref="C34:I34"/>
     <mergeCell ref="C35:I35"/>
@@ -66568,36 +66618,6 @@
     <mergeCell ref="C42:I42"/>
     <mergeCell ref="C43:I43"/>
     <mergeCell ref="C44:I44"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H1" location="Ballot!A1" display="Ballot!A1"/>
@@ -66635,17 +66655,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A1" s="325" t="s">
+      <c r="A1" s="326" t="s">
         <v>2300</v>
       </c>
-      <c r="B1" s="326"/>
-      <c r="C1" s="326"/>
-      <c r="D1" s="326"/>
-      <c r="E1" s="326"/>
-      <c r="F1" s="326"/>
-      <c r="G1" s="326"/>
-      <c r="H1" s="326"/>
-      <c r="I1" s="326"/>
+      <c r="B1" s="327"/>
+      <c r="C1" s="327"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
+      <c r="G1" s="327"/>
+      <c r="H1" s="327"/>
+      <c r="I1" s="327"/>
       <c r="J1" s="104" t="s">
         <v>2301</v>
       </c>
@@ -66656,15 +66676,15 @@
       <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A2" s="327"/>
-      <c r="B2" s="328"/>
-      <c r="C2" s="328"/>
-      <c r="D2" s="328"/>
-      <c r="E2" s="328"/>
-      <c r="F2" s="328"/>
-      <c r="G2" s="328"/>
-      <c r="H2" s="328"/>
-      <c r="I2" s="328"/>
+      <c r="A2" s="328"/>
+      <c r="B2" s="329"/>
+      <c r="C2" s="329"/>
+      <c r="D2" s="329"/>
+      <c r="E2" s="329"/>
+      <c r="F2" s="329"/>
+      <c r="G2" s="329"/>
+      <c r="H2" s="329"/>
+      <c r="I2" s="329"/>
       <c r="J2" s="107"/>
       <c r="K2" s="107"/>
       <c r="L2" s="107"/>
@@ -68334,7 +68354,7 @@
       <c r="D2" s="123"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A3" s="329" t="s">
+      <c r="A3" s="330" t="s">
         <v>2308</v>
       </c>
       <c r="B3" s="332" t="s">
@@ -68351,7 +68371,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A4" s="330"/>
+      <c r="A4" s="331"/>
       <c r="B4" s="333"/>
       <c r="C4" s="124" t="s">
         <v>2313</v>
@@ -68364,7 +68384,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A5" s="330"/>
+      <c r="A5" s="331"/>
       <c r="B5" s="333"/>
       <c r="C5" s="124" t="s">
         <v>2316</v>
@@ -68377,7 +68397,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A6" s="330"/>
+      <c r="A6" s="331"/>
       <c r="B6" s="333"/>
       <c r="C6" s="124" t="s">
         <v>2318</v>
@@ -68390,7 +68410,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A7" s="330"/>
+      <c r="A7" s="331"/>
       <c r="B7" s="333"/>
       <c r="C7" s="124" t="s">
         <v>2257</v>
@@ -68403,7 +68423,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A8" s="330"/>
+      <c r="A8" s="331"/>
       <c r="B8" s="333"/>
       <c r="C8" s="124" t="s">
         <v>2321</v>
@@ -68416,7 +68436,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A9" s="330"/>
+      <c r="A9" s="331"/>
       <c r="B9" s="333"/>
       <c r="C9" s="124" t="s">
         <v>2324</v>
@@ -68429,7 +68449,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A10" s="330"/>
+      <c r="A10" s="331"/>
       <c r="B10" s="333"/>
       <c r="C10" s="124" t="s">
         <v>2326</v>
@@ -68442,7 +68462,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A11" s="331"/>
+      <c r="A11" s="338"/>
       <c r="B11" s="334"/>
       <c r="C11" s="124" t="s">
         <v>2329</v>
@@ -68524,10 +68544,10 @@
       <c r="D18" s="123"/>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A19" s="329" t="s">
+      <c r="A19" s="330" t="s">
         <v>1150</v>
       </c>
-      <c r="B19" s="329" t="s">
+      <c r="B19" s="330" t="s">
         <v>2342</v>
       </c>
       <c r="C19" s="124" t="s">
@@ -68541,8 +68561,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A20" s="330"/>
-      <c r="B20" s="330"/>
+      <c r="A20" s="331"/>
+      <c r="B20" s="331"/>
       <c r="C20" s="124" t="s">
         <v>2345</v>
       </c>
@@ -68554,8 +68574,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A21" s="330"/>
-      <c r="B21" s="330"/>
+      <c r="A21" s="331"/>
+      <c r="B21" s="331"/>
       <c r="C21" s="124" t="s">
         <v>2347</v>
       </c>
@@ -68572,10 +68592,10 @@
       <c r="D22" s="123"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A23" s="329" t="s">
+      <c r="A23" s="330" t="s">
         <v>2349</v>
       </c>
-      <c r="B23" s="329" t="s">
+      <c r="B23" s="330" t="s">
         <v>2350</v>
       </c>
       <c r="C23" s="124" t="s">
@@ -68589,8 +68609,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A24" s="330"/>
-      <c r="B24" s="330"/>
+      <c r="A24" s="331"/>
+      <c r="B24" s="331"/>
       <c r="C24" s="124" t="s">
         <v>2349</v>
       </c>
@@ -68607,7 +68627,7 @@
       <c r="D25" s="123"/>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A26" s="329" t="s">
+      <c r="A26" s="330" t="s">
         <v>2354</v>
       </c>
       <c r="B26" s="332" t="s">
@@ -68624,7 +68644,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A27" s="330"/>
+      <c r="A27" s="331"/>
       <c r="B27" s="333"/>
       <c r="C27" s="131" t="s">
         <v>2358</v>
@@ -68637,7 +68657,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A28" s="330"/>
+      <c r="A28" s="331"/>
       <c r="B28" s="333"/>
       <c r="C28" s="131" t="s">
         <v>2360</v>
@@ -68650,7 +68670,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A29" s="330"/>
+      <c r="A29" s="331"/>
       <c r="B29" s="333"/>
       <c r="C29" s="131" t="s">
         <v>2362</v>
@@ -68663,7 +68683,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A30" s="330"/>
+      <c r="A30" s="331"/>
       <c r="B30" s="333"/>
       <c r="C30" s="131" t="s">
         <v>2364</v>
@@ -68703,10 +68723,10 @@
       <c r="D33" s="123"/>
     </row>
     <row r="34" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A34" s="329" t="s">
+      <c r="A34" s="330" t="s">
         <v>1175</v>
       </c>
-      <c r="B34" s="329" t="s">
+      <c r="B34" s="330" t="s">
         <v>2369</v>
       </c>
       <c r="C34" s="124" t="s">
@@ -68720,8 +68740,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A35" s="330"/>
-      <c r="B35" s="330"/>
+      <c r="A35" s="331"/>
+      <c r="B35" s="331"/>
       <c r="C35" s="124" t="s">
         <v>2372</v>
       </c>
@@ -68733,8 +68753,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A36" s="330"/>
-      <c r="B36" s="330"/>
+      <c r="A36" s="331"/>
+      <c r="B36" s="331"/>
       <c r="C36" s="124" t="s">
         <v>2374</v>
       </c>
@@ -68746,8 +68766,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A37" s="330"/>
-      <c r="B37" s="330"/>
+      <c r="A37" s="331"/>
+      <c r="B37" s="331"/>
       <c r="C37" s="124" t="s">
         <v>2376</v>
       </c>
@@ -68759,8 +68779,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A38" s="330"/>
-      <c r="B38" s="330"/>
+      <c r="A38" s="331"/>
+      <c r="B38" s="331"/>
       <c r="C38" s="124" t="s">
         <v>2378</v>
       </c>
@@ -68772,8 +68792,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A39" s="330"/>
-      <c r="B39" s="330"/>
+      <c r="A39" s="331"/>
+      <c r="B39" s="331"/>
       <c r="C39" s="124" t="s">
         <v>2380</v>
       </c>
@@ -68785,8 +68805,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A40" s="330"/>
-      <c r="B40" s="330"/>
+      <c r="A40" s="331"/>
+      <c r="B40" s="331"/>
       <c r="C40" s="124" t="s">
         <v>2382</v>
       </c>
@@ -68798,8 +68818,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A41" s="330"/>
-      <c r="B41" s="330"/>
+      <c r="A41" s="331"/>
+      <c r="B41" s="331"/>
       <c r="C41" s="124" t="s">
         <v>862</v>
       </c>
@@ -68811,8 +68831,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A42" s="330"/>
-      <c r="B42" s="330"/>
+      <c r="A42" s="331"/>
+      <c r="B42" s="331"/>
       <c r="C42" s="124" t="s">
         <v>2385</v>
       </c>
@@ -68824,8 +68844,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A43" s="330"/>
-      <c r="B43" s="330"/>
+      <c r="A43" s="331"/>
+      <c r="B43" s="331"/>
       <c r="C43" s="124" t="s">
         <v>2387</v>
       </c>
@@ -68847,7 +68867,7 @@
       <c r="D45" s="123"/>
     </row>
     <row r="46" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A46" s="329" t="s">
+      <c r="A46" s="330" t="s">
         <v>638</v>
       </c>
       <c r="B46" s="335" t="s">
@@ -68864,7 +68884,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A47" s="330"/>
+      <c r="A47" s="331"/>
       <c r="B47" s="336"/>
       <c r="C47" s="124" t="s">
         <v>2391</v>
@@ -68877,7 +68897,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A48" s="330"/>
+      <c r="A48" s="331"/>
       <c r="B48" s="337"/>
       <c r="C48" s="124" t="s">
         <v>2393</v>
@@ -68939,7 +68959,7 @@
       <c r="D53" s="123"/>
     </row>
     <row r="54" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A54" s="329" t="s">
+      <c r="A54" s="330" t="s">
         <v>2401</v>
       </c>
       <c r="B54" s="332" t="s">
@@ -68956,7 +68976,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A55" s="330"/>
+      <c r="A55" s="331"/>
       <c r="B55" s="333"/>
       <c r="C55" s="124" t="s">
         <v>2405</v>
@@ -68969,7 +68989,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A56" s="330"/>
+      <c r="A56" s="331"/>
       <c r="B56" s="334"/>
       <c r="C56" s="124" t="s">
         <v>2407</v>
@@ -68987,10 +69007,10 @@
       <c r="D57" s="123"/>
     </row>
     <row r="58" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A58" s="329" t="s">
+      <c r="A58" s="330" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="329" t="s">
+      <c r="B58" s="330" t="s">
         <v>118</v>
       </c>
       <c r="C58" s="124" t="s">
@@ -69004,8 +69024,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A59" s="330"/>
-      <c r="B59" s="330"/>
+      <c r="A59" s="331"/>
+      <c r="B59" s="331"/>
       <c r="C59" s="124" t="s">
         <v>2412</v>
       </c>
@@ -69022,10 +69042,10 @@
       <c r="D60" s="123"/>
     </row>
     <row r="61" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A61" s="329" t="s">
+      <c r="A61" s="330" t="s">
         <v>2414</v>
       </c>
-      <c r="B61" s="329" t="s">
+      <c r="B61" s="330" t="s">
         <v>2415</v>
       </c>
       <c r="C61" s="124" t="s">
@@ -69039,8 +69059,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A62" s="330"/>
-      <c r="B62" s="330"/>
+      <c r="A62" s="331"/>
+      <c r="B62" s="331"/>
       <c r="C62" s="124" t="s">
         <v>2418</v>
       </c>
@@ -69074,10 +69094,10 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A66" s="329" t="s">
+      <c r="A66" s="330" t="s">
         <v>2423</v>
       </c>
-      <c r="B66" s="329" t="s">
+      <c r="B66" s="330" t="s">
         <v>2424</v>
       </c>
       <c r="C66" s="124" t="s">
@@ -69091,8 +69111,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A67" s="330"/>
-      <c r="B67" s="330"/>
+      <c r="A67" s="331"/>
+      <c r="B67" s="331"/>
       <c r="C67" s="124" t="s">
         <v>2427</v>
       </c>
@@ -69109,10 +69129,10 @@
       <c r="D68" s="123"/>
     </row>
     <row r="69" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A69" s="329" t="s">
+      <c r="A69" s="330" t="s">
         <v>2429</v>
       </c>
-      <c r="B69" s="329" t="s">
+      <c r="B69" s="330" t="s">
         <v>2430</v>
       </c>
       <c r="C69" s="124" t="s">
@@ -69126,8 +69146,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A70" s="330"/>
-      <c r="B70" s="330"/>
+      <c r="A70" s="331"/>
+      <c r="B70" s="331"/>
       <c r="C70" s="124" t="s">
         <v>2433</v>
       </c>
@@ -69172,6 +69192,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="B34:B43"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="B66:B67"/>
     <mergeCell ref="A69:A70"/>
@@ -69182,18 +69214,6 @@
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="B34:B43"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/ballots/2013-01 Draft/Comments-FHIR_R1_O2_2013JAN.xlsx
+++ b/ballots/2013-01 Draft/Comments-FHIR_R1_O2_2013JAN.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11265" uniqueCount="2554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11270" uniqueCount="2554">
   <si>
     <t xml:space="preserve">BALLOT TITLE: </t>
   </si>
@@ -12413,8 +12413,23 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="19" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -12422,14 +12437,14 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -12442,12 +12457,6 @@
     <xf numFmtId="49" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -12473,32 +12482,23 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="19" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -12514,6 +12514,114 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="42" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -12557,114 +12665,6 @@
     <xf numFmtId="0" fontId="23" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="42" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -12681,6 +12681,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12700,9 +12703,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="56">
@@ -13095,20 +13095,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:99" ht="45.75" customHeight="1" thickTop="1">
-      <c r="A1" s="246" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="247"/>
+      <c r="A1" s="250" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="251"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="268" t="s">
+      <c r="F1" s="252" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="269"/>
-      <c r="H1" s="269"/>
-      <c r="I1" s="269"/>
-      <c r="J1" s="270"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="254"/>
       <c r="K1" s="4"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -13116,12 +13116,12 @@
       <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:99">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="250" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="247"/>
+      <c r="B2" s="250"/>
+      <c r="C2" s="250"/>
+      <c r="D2" s="251"/>
       <c r="E2" s="3"/>
       <c r="F2" s="6" t="s">
         <v>3</v>
@@ -13137,20 +13137,20 @@
       <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:99" ht="18.75" customHeight="1">
-      <c r="A3" s="263" t="s">
+      <c r="A3" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="263"/>
-      <c r="C3" s="263"/>
-      <c r="D3" s="264"/>
+      <c r="B3" s="245"/>
+      <c r="C3" s="245"/>
+      <c r="D3" s="246"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="251" t="s">
+      <c r="F3" s="255" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="253"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="257"/>
       <c r="K3" s="10"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -13158,18 +13158,18 @@
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:99" ht="18.75" customHeight="1">
-      <c r="A4" s="263" t="s">
+      <c r="A4" s="245" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="263"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="264"/>
+      <c r="B4" s="245"/>
+      <c r="C4" s="245"/>
+      <c r="D4" s="246"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="265"/>
-      <c r="G4" s="266"/>
-      <c r="H4" s="266"/>
-      <c r="I4" s="266"/>
-      <c r="J4" s="267"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="248"/>
+      <c r="H4" s="248"/>
+      <c r="I4" s="248"/>
+      <c r="J4" s="249"/>
       <c r="K4" s="10"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -13177,18 +13177,18 @@
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:99" ht="18.75" customHeight="1">
-      <c r="A5" s="256" t="s">
+      <c r="A5" s="258" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="256"/>
-      <c r="C5" s="256"/>
-      <c r="D5" s="257"/>
+      <c r="B5" s="258"/>
+      <c r="C5" s="258"/>
+      <c r="D5" s="259"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
-      <c r="J5" s="253"/>
+      <c r="F5" s="255"/>
+      <c r="G5" s="256"/>
+      <c r="H5" s="256"/>
+      <c r="I5" s="256"/>
+      <c r="J5" s="257"/>
       <c r="K5" s="10"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -13196,18 +13196,18 @@
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:99" ht="29.25" customHeight="1">
-      <c r="A6" s="258" t="s">
+      <c r="A6" s="260" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="258"/>
-      <c r="C6" s="258"/>
-      <c r="D6" s="259"/>
+      <c r="B6" s="260"/>
+      <c r="C6" s="260"/>
+      <c r="D6" s="261"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="251"/>
-      <c r="G6" s="252"/>
-      <c r="H6" s="252"/>
-      <c r="I6" s="252"/>
-      <c r="J6" s="253"/>
+      <c r="F6" s="255"/>
+      <c r="G6" s="256"/>
+      <c r="H6" s="256"/>
+      <c r="I6" s="256"/>
+      <c r="J6" s="257"/>
       <c r="K6" s="10"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -13215,18 +13215,18 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:99" ht="15.75" customHeight="1">
-      <c r="A7" s="246" t="s">
+      <c r="A7" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="246"/>
-      <c r="C7" s="246"/>
-      <c r="D7" s="247"/>
+      <c r="B7" s="250"/>
+      <c r="C7" s="250"/>
+      <c r="D7" s="251"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="260"/>
-      <c r="G7" s="261"/>
-      <c r="H7" s="261"/>
-      <c r="I7" s="261"/>
-      <c r="J7" s="262"/>
+      <c r="F7" s="262"/>
+      <c r="G7" s="263"/>
+      <c r="H7" s="263"/>
+      <c r="I7" s="263"/>
+      <c r="J7" s="264"/>
       <c r="K7" s="4"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
@@ -13236,18 +13236,18 @@
       <c r="CU7" s="16"/>
     </row>
     <row r="8" spans="1:99" ht="17.25" customHeight="1">
-      <c r="A8" s="246" t="s">
+      <c r="A8" s="250" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="246"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="247"/>
+      <c r="B8" s="250"/>
+      <c r="C8" s="250"/>
+      <c r="D8" s="251"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="248"/>
-      <c r="G8" s="249"/>
-      <c r="H8" s="249"/>
-      <c r="I8" s="249"/>
-      <c r="J8" s="250"/>
+      <c r="F8" s="266"/>
+      <c r="G8" s="267"/>
+      <c r="H8" s="267"/>
+      <c r="I8" s="267"/>
+      <c r="J8" s="268"/>
       <c r="K8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -13255,18 +13255,18 @@
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:99" ht="62.25" customHeight="1">
-      <c r="A9" s="246" t="s">
+      <c r="A9" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="246"/>
-      <c r="C9" s="246"/>
-      <c r="D9" s="247"/>
+      <c r="B9" s="250"/>
+      <c r="C9" s="250"/>
+      <c r="D9" s="251"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="251"/>
-      <c r="G9" s="252"/>
-      <c r="H9" s="252"/>
-      <c r="I9" s="252"/>
-      <c r="J9" s="253"/>
+      <c r="F9" s="255"/>
+      <c r="G9" s="256"/>
+      <c r="H9" s="256"/>
+      <c r="I9" s="256"/>
+      <c r="J9" s="257"/>
       <c r="K9" s="18"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
@@ -13274,19 +13274,19 @@
       <c r="P9" s="19"/>
     </row>
     <row r="10" spans="1:99" ht="66.75" customHeight="1">
-      <c r="A10" s="254">
+      <c r="A10" s="269">
         <f>IF(Ov=Setup!C9,Disclaimer2,IF(Ov=Setup!B9,Disclaimer,IF(Ov=Setup!D9,,)))</f>
         <v>0</v>
       </c>
-      <c r="B10" s="254"/>
-      <c r="C10" s="254"/>
-      <c r="D10" s="254"/>
-      <c r="E10" s="254"/>
-      <c r="F10" s="254"/>
-      <c r="G10" s="254"/>
-      <c r="H10" s="254"/>
-      <c r="I10" s="254"/>
-      <c r="J10" s="254"/>
+      <c r="B10" s="269"/>
+      <c r="C10" s="269"/>
+      <c r="D10" s="269"/>
+      <c r="E10" s="269"/>
+      <c r="F10" s="269"/>
+      <c r="G10" s="269"/>
+      <c r="H10" s="269"/>
+      <c r="I10" s="269"/>
+      <c r="J10" s="269"/>
     </row>
     <row r="11" spans="1:99" ht="30.75" customHeight="1">
       <c r="F11" s="20" t="s">
@@ -13306,12 +13306,12 @@
       <c r="F21" s="24"/>
     </row>
     <row r="23" spans="6:7" ht="114.75" customHeight="1">
-      <c r="F23" s="255"/>
-      <c r="G23" s="255"/>
+      <c r="F23" s="270"/>
+      <c r="G23" s="270"/>
     </row>
     <row r="24" spans="6:7" ht="409.5" customHeight="1">
-      <c r="F24" s="245"/>
-      <c r="G24" s="245"/>
+      <c r="F24" s="265"/>
+      <c r="G24" s="265"/>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" s="25"/>
@@ -13319,6 +13319,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:J7"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="A1:D1"/>
@@ -13326,19 +13339,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:J3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Organization You Represent" prompt="Please put the name of the HL7 member organization you represent if it is different from the name of the organization you are employed by.  " sqref="F6"/>
@@ -13365,10 +13365,10 @@
   <dimension ref="A1:AF713"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E197" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="J207" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G526" sqref="G526"/>
+      <selection pane="bottomRight" activeCell="T654" sqref="T654"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -26104,7 +26104,7 @@
       <c r="AE165" s="58"/>
       <c r="AF165" s="59"/>
     </row>
-    <row r="166" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1">
+    <row r="166" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1">
       <c r="A166" s="45">
         <v>164</v>
       </c>
@@ -26145,7 +26145,7 @@
         <v>82</v>
       </c>
       <c r="R166" s="52" t="s">
-        <v>2526</v>
+        <v>72</v>
       </c>
       <c r="S166" s="52" t="s">
         <v>698</v>
@@ -27056,7 +27056,7 @@
       <c r="AE177" s="58"/>
       <c r="AF177" s="59"/>
     </row>
-    <row r="178" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1">
+    <row r="178" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1">
       <c r="A178" s="45">
         <v>176</v>
       </c>
@@ -27097,7 +27097,7 @@
         <v>737</v>
       </c>
       <c r="R178" s="52" t="s">
-        <v>2526</v>
+        <v>72</v>
       </c>
       <c r="S178" s="52" t="s">
         <v>738</v>
@@ -27294,7 +27294,7 @@
       <c r="AE180" s="58"/>
       <c r="AF180" s="59"/>
     </row>
-    <row r="181" spans="1:32" s="60" customFormat="1" ht="38.25" customHeight="1">
+    <row r="181" spans="1:32" s="60" customFormat="1" ht="38.25" hidden="1" customHeight="1">
       <c r="A181" s="45">
         <v>179</v>
       </c>
@@ -27338,7 +27338,9 @@
       <c r="Q181" s="52" t="s">
         <v>749</v>
       </c>
-      <c r="R181" s="52"/>
+      <c r="R181" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S181" s="52" t="s">
         <v>750</v>
       </c>
@@ -27836,7 +27838,7 @@
       <c r="AE187" s="58"/>
       <c r="AF187" s="59"/>
     </row>
-    <row r="188" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1">
+    <row r="188" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1">
       <c r="A188" s="45">
         <v>186</v>
       </c>
@@ -27872,7 +27874,9 @@
       </c>
       <c r="P188" s="52"/>
       <c r="Q188" s="52"/>
-      <c r="R188" s="52"/>
+      <c r="R188" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S188" s="52"/>
       <c r="T188" s="53"/>
       <c r="U188" s="53"/>
@@ -27962,7 +27966,7 @@
       <c r="AE189" s="58"/>
       <c r="AF189" s="59"/>
     </row>
-    <row r="190" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1">
+    <row r="190" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1">
       <c r="A190" s="45">
         <v>188</v>
       </c>
@@ -27998,7 +28002,9 @@
       </c>
       <c r="P190" s="52"/>
       <c r="Q190" s="52"/>
-      <c r="R190" s="52"/>
+      <c r="R190" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S190" s="52"/>
       <c r="T190" s="53"/>
       <c r="U190" s="53"/>
@@ -28026,7 +28032,7 @@
       <c r="AE190" s="58"/>
       <c r="AF190" s="59"/>
     </row>
-    <row r="191" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1">
+    <row r="191" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1">
       <c r="A191" s="45">
         <v>189</v>
       </c>
@@ -28062,7 +28068,9 @@
       </c>
       <c r="P191" s="52"/>
       <c r="Q191" s="52"/>
-      <c r="R191" s="52"/>
+      <c r="R191" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S191" s="52"/>
       <c r="T191" s="53"/>
       <c r="U191" s="53"/>
@@ -28392,7 +28400,7 @@
       <c r="AE195" s="158"/>
       <c r="AF195" s="159"/>
     </row>
-    <row r="196" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1">
+    <row r="196" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1">
       <c r="A196" s="146">
         <v>194</v>
       </c>
@@ -28429,7 +28437,7 @@
       <c r="P196" s="152"/>
       <c r="Q196" s="152"/>
       <c r="R196" s="152" t="s">
-        <v>2526</v>
+        <v>72</v>
       </c>
       <c r="S196" s="152" t="s">
         <v>2529</v>
@@ -28815,7 +28823,7 @@
         <v>794</v>
       </c>
       <c r="R201" s="180" t="s">
-        <v>2526</v>
+        <v>72</v>
       </c>
       <c r="S201" s="180" t="s">
         <v>707</v>
@@ -29680,7 +29688,9 @@
       <c r="Q213" s="208" t="s">
         <v>82</v>
       </c>
-      <c r="R213" s="208"/>
+      <c r="R213" s="208" t="s">
+        <v>72</v>
+      </c>
       <c r="S213" s="208"/>
       <c r="T213" s="209"/>
       <c r="U213" s="209"/>
@@ -30402,7 +30412,7 @@
       <c r="AE223" s="58"/>
       <c r="AF223" s="59"/>
     </row>
-    <row r="224" spans="1:32" s="60" customFormat="1" ht="25.5" customHeight="1">
+    <row r="224" spans="1:32" s="60" customFormat="1" ht="25.5" hidden="1" customHeight="1">
       <c r="A224" s="45">
         <v>222</v>
       </c>
@@ -65860,10 +65870,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
-      <c r="H1" s="317" t="s">
+      <c r="H1" s="278" t="s">
         <v>2237</v>
       </c>
-      <c r="I1" s="317"/>
+      <c r="I1" s="278"/>
     </row>
     <row r="2" spans="2:14" ht="15.75" customHeight="1">
       <c r="B2" s="75" t="s">
@@ -65878,16 +65888,16 @@
       <c r="I2" s="77"/>
     </row>
     <row r="3" spans="2:14" ht="303.75" customHeight="1" thickBot="1">
-      <c r="B3" s="318" t="s">
+      <c r="B3" s="279" t="s">
         <v>2239</v>
       </c>
-      <c r="C3" s="319"/>
-      <c r="D3" s="319"/>
-      <c r="E3" s="319"/>
-      <c r="F3" s="319"/>
-      <c r="G3" s="319"/>
-      <c r="H3" s="319"/>
-      <c r="I3" s="320"/>
+      <c r="C3" s="280"/>
+      <c r="D3" s="280"/>
+      <c r="E3" s="280"/>
+      <c r="F3" s="280"/>
+      <c r="G3" s="280"/>
+      <c r="H3" s="280"/>
+      <c r="I3" s="281"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
       <c r="J4" s="25"/>
@@ -65905,16 +65915,16 @@
       <c r="I5" s="77"/>
     </row>
     <row r="6" spans="2:14" ht="18" customHeight="1">
-      <c r="B6" s="300" t="s">
+      <c r="B6" s="282" t="s">
         <v>2241</v>
       </c>
-      <c r="C6" s="301"/>
-      <c r="D6" s="301"/>
-      <c r="E6" s="301"/>
-      <c r="F6" s="301"/>
-      <c r="G6" s="301"/>
-      <c r="H6" s="301"/>
-      <c r="I6" s="302"/>
+      <c r="C6" s="283"/>
+      <c r="D6" s="283"/>
+      <c r="E6" s="283"/>
+      <c r="F6" s="283"/>
+      <c r="G6" s="283"/>
+      <c r="H6" s="283"/>
+      <c r="I6" s="284"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -65924,15 +65934,15 @@
       <c r="B7" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="321" t="s">
+      <c r="C7" s="285" t="s">
         <v>2242</v>
       </c>
-      <c r="D7" s="322"/>
-      <c r="E7" s="322"/>
-      <c r="F7" s="322"/>
-      <c r="G7" s="322"/>
-      <c r="H7" s="322"/>
-      <c r="I7" s="323"/>
+      <c r="D7" s="286"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="286"/>
+      <c r="G7" s="286"/>
+      <c r="H7" s="286"/>
+      <c r="I7" s="287"/>
       <c r="J7" s="79"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -65942,15 +65952,15 @@
       <c r="B8" s="80" t="s">
         <v>2243</v>
       </c>
-      <c r="C8" s="324" t="s">
+      <c r="C8" s="288" t="s">
         <v>2244</v>
       </c>
-      <c r="D8" s="324"/>
-      <c r="E8" s="324"/>
-      <c r="F8" s="324"/>
-      <c r="G8" s="324"/>
-      <c r="H8" s="324"/>
-      <c r="I8" s="325"/>
+      <c r="D8" s="288"/>
+      <c r="E8" s="288"/>
+      <c r="F8" s="288"/>
+      <c r="G8" s="288"/>
+      <c r="H8" s="288"/>
+      <c r="I8" s="289"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -65960,15 +65970,15 @@
       <c r="B9" s="81" t="s">
         <v>2245</v>
       </c>
-      <c r="C9" s="315" t="s">
+      <c r="C9" s="276" t="s">
         <v>2246</v>
       </c>
-      <c r="D9" s="315"/>
-      <c r="E9" s="315"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="315"/>
-      <c r="H9" s="315"/>
-      <c r="I9" s="316"/>
+      <c r="D9" s="276"/>
+      <c r="E9" s="276"/>
+      <c r="F9" s="276"/>
+      <c r="G9" s="276"/>
+      <c r="H9" s="276"/>
+      <c r="I9" s="277"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -65979,13 +65989,13 @@
       <c r="C10" s="83" t="s">
         <v>2247</v>
       </c>
-      <c r="D10" s="313" t="s">
+      <c r="D10" s="291" t="s">
         <v>2248</v>
       </c>
       <c r="E10" s="292"/>
       <c r="F10" s="292"/>
       <c r="G10" s="292"/>
-      <c r="H10" s="314"/>
+      <c r="H10" s="293"/>
       <c r="I10" s="84"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -65997,13 +66007,13 @@
       <c r="C11" s="83" t="s">
         <v>2249</v>
       </c>
-      <c r="D11" s="313" t="s">
+      <c r="D11" s="291" t="s">
         <v>2250</v>
       </c>
       <c r="E11" s="292"/>
       <c r="F11" s="292"/>
       <c r="G11" s="292"/>
-      <c r="H11" s="314"/>
+      <c r="H11" s="293"/>
       <c r="I11" s="84"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -66016,13 +66026,13 @@
       <c r="C12" s="83" t="s">
         <v>2251</v>
       </c>
-      <c r="D12" s="313" t="s">
+      <c r="D12" s="291" t="s">
         <v>2252</v>
       </c>
       <c r="E12" s="292"/>
       <c r="F12" s="292"/>
       <c r="G12" s="292"/>
-      <c r="H12" s="314"/>
+      <c r="H12" s="293"/>
       <c r="I12" s="84"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -66034,13 +66044,13 @@
       <c r="C13" s="83" t="s">
         <v>2253</v>
       </c>
-      <c r="D13" s="313" t="s">
+      <c r="D13" s="291" t="s">
         <v>2254</v>
       </c>
       <c r="E13" s="292"/>
       <c r="F13" s="292"/>
       <c r="G13" s="292"/>
-      <c r="H13" s="314"/>
+      <c r="H13" s="293"/>
       <c r="I13" s="84"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -66052,13 +66062,13 @@
       <c r="C14" s="83" t="s">
         <v>2255</v>
       </c>
-      <c r="D14" s="313" t="s">
+      <c r="D14" s="291" t="s">
         <v>2256</v>
       </c>
       <c r="E14" s="292"/>
       <c r="F14" s="292"/>
       <c r="G14" s="292"/>
-      <c r="H14" s="314"/>
+      <c r="H14" s="293"/>
       <c r="I14" s="84"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -66070,13 +66080,13 @@
       <c r="C15" s="83" t="s">
         <v>2257</v>
       </c>
-      <c r="D15" s="313" t="s">
+      <c r="D15" s="291" t="s">
         <v>2258</v>
       </c>
       <c r="E15" s="292"/>
       <c r="F15" s="292"/>
       <c r="G15" s="292"/>
-      <c r="H15" s="314"/>
+      <c r="H15" s="293"/>
       <c r="I15" s="84"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -66088,13 +66098,13 @@
       <c r="C16" s="83" t="s">
         <v>2259</v>
       </c>
-      <c r="D16" s="313" t="s">
+      <c r="D16" s="291" t="s">
         <v>2260</v>
       </c>
       <c r="E16" s="292"/>
       <c r="F16" s="292"/>
       <c r="G16" s="292"/>
-      <c r="H16" s="314"/>
+      <c r="H16" s="293"/>
       <c r="I16" s="84"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -66106,13 +66116,13 @@
       <c r="C17" s="83" t="s">
         <v>2261</v>
       </c>
-      <c r="D17" s="313" t="s">
+      <c r="D17" s="291" t="s">
         <v>2262</v>
       </c>
       <c r="E17" s="292"/>
       <c r="F17" s="292"/>
       <c r="G17" s="292"/>
-      <c r="H17" s="314"/>
+      <c r="H17" s="293"/>
       <c r="I17" s="84"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -66124,13 +66134,13 @@
       <c r="C18" s="83" t="s">
         <v>2263</v>
       </c>
-      <c r="D18" s="313" t="s">
+      <c r="D18" s="291" t="s">
         <v>2264</v>
       </c>
       <c r="E18" s="292"/>
       <c r="F18" s="292"/>
       <c r="G18" s="292"/>
-      <c r="H18" s="314"/>
+      <c r="H18" s="293"/>
       <c r="I18" s="84"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -66155,15 +66165,15 @@
       <c r="B20" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="296" t="s">
+      <c r="C20" s="294" t="s">
         <v>2265</v>
       </c>
-      <c r="D20" s="296"/>
-      <c r="E20" s="296"/>
-      <c r="F20" s="296"/>
-      <c r="G20" s="296"/>
-      <c r="H20" s="296"/>
-      <c r="I20" s="297"/>
+      <c r="D20" s="294"/>
+      <c r="E20" s="294"/>
+      <c r="F20" s="294"/>
+      <c r="G20" s="294"/>
+      <c r="H20" s="294"/>
+      <c r="I20" s="295"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -66181,11 +66191,11 @@
       <c r="F21" s="292"/>
       <c r="G21" s="292"/>
       <c r="H21" s="292"/>
-      <c r="I21" s="293"/>
+      <c r="I21" s="296"/>
       <c r="J21" s="89"/>
-      <c r="K21" s="312"/>
-      <c r="L21" s="312"/>
-      <c r="M21" s="312"/>
+      <c r="K21" s="290"/>
+      <c r="L21" s="290"/>
+      <c r="M21" s="290"/>
     </row>
     <row r="22" spans="2:13" ht="27.75" customHeight="1">
       <c r="B22" s="80" t="s">
@@ -66199,7 +66209,7 @@
       <c r="F22" s="292"/>
       <c r="G22" s="292"/>
       <c r="H22" s="292"/>
-      <c r="I22" s="293"/>
+      <c r="I22" s="296"/>
       <c r="J22" s="89"/>
       <c r="K22" s="90"/>
       <c r="L22" s="90"/>
@@ -66209,45 +66219,45 @@
       <c r="B23" s="80" t="s">
         <v>2269</v>
       </c>
-      <c r="C23" s="294" t="s">
+      <c r="C23" s="299" t="s">
         <v>2270</v>
       </c>
-      <c r="D23" s="294"/>
-      <c r="E23" s="294"/>
-      <c r="F23" s="294"/>
-      <c r="G23" s="294"/>
-      <c r="H23" s="294"/>
-      <c r="I23" s="295"/>
+      <c r="D23" s="299"/>
+      <c r="E23" s="299"/>
+      <c r="F23" s="299"/>
+      <c r="G23" s="299"/>
+      <c r="H23" s="299"/>
+      <c r="I23" s="300"/>
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13" ht="18" customHeight="1">
       <c r="B24" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="296" t="s">
+      <c r="C24" s="294" t="s">
         <v>2271</v>
       </c>
-      <c r="D24" s="296"/>
-      <c r="E24" s="296"/>
-      <c r="F24" s="296"/>
-      <c r="G24" s="296"/>
-      <c r="H24" s="296"/>
-      <c r="I24" s="297"/>
+      <c r="D24" s="294"/>
+      <c r="E24" s="294"/>
+      <c r="F24" s="294"/>
+      <c r="G24" s="294"/>
+      <c r="H24" s="294"/>
+      <c r="I24" s="295"/>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13" ht="15.75" customHeight="1">
       <c r="B25" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="296" t="s">
+      <c r="C25" s="294" t="s">
         <v>2272</v>
       </c>
-      <c r="D25" s="296"/>
-      <c r="E25" s="296"/>
-      <c r="F25" s="296"/>
-      <c r="G25" s="296"/>
-      <c r="H25" s="296"/>
-      <c r="I25" s="297"/>
+      <c r="D25" s="294"/>
+      <c r="E25" s="294"/>
+      <c r="F25" s="294"/>
+      <c r="G25" s="294"/>
+      <c r="H25" s="294"/>
+      <c r="I25" s="295"/>
       <c r="J25" s="91"/>
       <c r="M25" s="2"/>
     </row>
@@ -66255,15 +66265,15 @@
       <c r="B26" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="296" t="s">
+      <c r="C26" s="294" t="s">
         <v>2273</v>
       </c>
-      <c r="D26" s="296"/>
-      <c r="E26" s="296"/>
-      <c r="F26" s="296"/>
-      <c r="G26" s="296"/>
-      <c r="H26" s="296"/>
-      <c r="I26" s="297"/>
+      <c r="D26" s="294"/>
+      <c r="E26" s="294"/>
+      <c r="F26" s="294"/>
+      <c r="G26" s="294"/>
+      <c r="H26" s="294"/>
+      <c r="I26" s="295"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -66273,28 +66283,28 @@
       <c r="B27" s="92" t="s">
         <v>2274</v>
       </c>
-      <c r="C27" s="298" t="s">
+      <c r="C27" s="301" t="s">
         <v>2275</v>
       </c>
-      <c r="D27" s="298"/>
-      <c r="E27" s="298"/>
-      <c r="F27" s="298"/>
-      <c r="G27" s="298"/>
-      <c r="H27" s="298"/>
-      <c r="I27" s="299"/>
+      <c r="D27" s="301"/>
+      <c r="E27" s="301"/>
+      <c r="F27" s="301"/>
+      <c r="G27" s="301"/>
+      <c r="H27" s="301"/>
+      <c r="I27" s="302"/>
       <c r="J27" s="25"/>
     </row>
     <row r="28" spans="2:13" ht="18" customHeight="1">
-      <c r="B28" s="300" t="s">
+      <c r="B28" s="282" t="s">
         <v>2276</v>
       </c>
-      <c r="C28" s="301"/>
-      <c r="D28" s="301"/>
-      <c r="E28" s="301"/>
-      <c r="F28" s="301"/>
-      <c r="G28" s="301"/>
-      <c r="H28" s="301"/>
-      <c r="I28" s="302"/>
+      <c r="C28" s="283"/>
+      <c r="D28" s="283"/>
+      <c r="E28" s="283"/>
+      <c r="F28" s="283"/>
+      <c r="G28" s="283"/>
+      <c r="H28" s="283"/>
+      <c r="I28" s="284"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -66358,15 +66368,15 @@
       <c r="B32" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="290" t="s">
+      <c r="C32" s="297" t="s">
         <v>2282</v>
       </c>
-      <c r="D32" s="290"/>
-      <c r="E32" s="290"/>
-      <c r="F32" s="290"/>
-      <c r="G32" s="290"/>
-      <c r="H32" s="290"/>
-      <c r="I32" s="291"/>
+      <c r="D32" s="297"/>
+      <c r="E32" s="297"/>
+      <c r="F32" s="297"/>
+      <c r="G32" s="297"/>
+      <c r="H32" s="297"/>
+      <c r="I32" s="298"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -66376,15 +66386,15 @@
       <c r="B33" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="290" t="s">
+      <c r="C33" s="297" t="s">
         <v>2283</v>
       </c>
-      <c r="D33" s="290"/>
-      <c r="E33" s="290"/>
-      <c r="F33" s="290"/>
-      <c r="G33" s="290"/>
-      <c r="H33" s="290"/>
-      <c r="I33" s="291"/>
+      <c r="D33" s="297"/>
+      <c r="E33" s="297"/>
+      <c r="F33" s="297"/>
+      <c r="G33" s="297"/>
+      <c r="H33" s="297"/>
+      <c r="I33" s="298"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -66394,15 +66404,15 @@
       <c r="B34" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="279" t="s">
+      <c r="C34" s="315" t="s">
         <v>2284</v>
       </c>
-      <c r="D34" s="279"/>
-      <c r="E34" s="279"/>
-      <c r="F34" s="279"/>
-      <c r="G34" s="279"/>
-      <c r="H34" s="279"/>
-      <c r="I34" s="280"/>
+      <c r="D34" s="315"/>
+      <c r="E34" s="315"/>
+      <c r="F34" s="315"/>
+      <c r="G34" s="315"/>
+      <c r="H34" s="315"/>
+      <c r="I34" s="316"/>
       <c r="J34" s="2"/>
       <c r="K34" s="90"/>
       <c r="L34" s="90"/>
@@ -66412,15 +66422,15 @@
       <c r="B35" s="96" t="s">
         <v>2285</v>
       </c>
-      <c r="C35" s="279" t="s">
+      <c r="C35" s="315" t="s">
         <v>2286</v>
       </c>
-      <c r="D35" s="279"/>
-      <c r="E35" s="279"/>
-      <c r="F35" s="279"/>
-      <c r="G35" s="279"/>
-      <c r="H35" s="279"/>
-      <c r="I35" s="280"/>
+      <c r="D35" s="315"/>
+      <c r="E35" s="315"/>
+      <c r="F35" s="315"/>
+      <c r="G35" s="315"/>
+      <c r="H35" s="315"/>
+      <c r="I35" s="316"/>
       <c r="J35" s="2"/>
       <c r="K35" s="90"/>
       <c r="L35" s="90"/>
@@ -66430,15 +66440,15 @@
       <c r="B36" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="279" t="s">
+      <c r="C36" s="315" t="s">
         <v>2287</v>
       </c>
-      <c r="D36" s="279"/>
-      <c r="E36" s="279"/>
-      <c r="F36" s="279"/>
-      <c r="G36" s="279"/>
-      <c r="H36" s="279"/>
-      <c r="I36" s="280"/>
+      <c r="D36" s="315"/>
+      <c r="E36" s="315"/>
+      <c r="F36" s="315"/>
+      <c r="G36" s="315"/>
+      <c r="H36" s="315"/>
+      <c r="I36" s="316"/>
       <c r="J36" s="2"/>
       <c r="K36" s="90"/>
       <c r="L36" s="90"/>
@@ -66448,15 +66458,15 @@
       <c r="B37" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="279" t="s">
+      <c r="C37" s="315" t="s">
         <v>2288</v>
       </c>
-      <c r="D37" s="279"/>
-      <c r="E37" s="279"/>
-      <c r="F37" s="279"/>
-      <c r="G37" s="279"/>
-      <c r="H37" s="279"/>
-      <c r="I37" s="280"/>
+      <c r="D37" s="315"/>
+      <c r="E37" s="315"/>
+      <c r="F37" s="315"/>
+      <c r="G37" s="315"/>
+      <c r="H37" s="315"/>
+      <c r="I37" s="316"/>
       <c r="J37" s="2"/>
       <c r="K37" s="90"/>
       <c r="L37" s="90"/>
@@ -66466,122 +66476,140 @@
       <c r="B38" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="281" t="s">
+      <c r="C38" s="317" t="s">
         <v>2289</v>
       </c>
-      <c r="D38" s="282"/>
-      <c r="E38" s="282"/>
-      <c r="F38" s="282"/>
-      <c r="G38" s="282"/>
-      <c r="H38" s="282"/>
-      <c r="I38" s="283"/>
+      <c r="D38" s="318"/>
+      <c r="E38" s="318"/>
+      <c r="F38" s="318"/>
+      <c r="G38" s="318"/>
+      <c r="H38" s="318"/>
+      <c r="I38" s="319"/>
     </row>
     <row r="39" spans="2:13" ht="54.75" customHeight="1" thickBot="1">
       <c r="B39" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="281" t="s">
+      <c r="C39" s="317" t="s">
         <v>2290</v>
       </c>
-      <c r="D39" s="282"/>
-      <c r="E39" s="282"/>
-      <c r="F39" s="282"/>
-      <c r="G39" s="282"/>
-      <c r="H39" s="282"/>
-      <c r="I39" s="283"/>
+      <c r="D39" s="318"/>
+      <c r="E39" s="318"/>
+      <c r="F39" s="318"/>
+      <c r="G39" s="318"/>
+      <c r="H39" s="318"/>
+      <c r="I39" s="319"/>
     </row>
     <row r="40" spans="2:13" ht="40.5" customHeight="1" thickBot="1">
       <c r="B40" s="100" t="s">
         <v>2291</v>
       </c>
-      <c r="C40" s="284" t="s">
+      <c r="C40" s="320" t="s">
         <v>2292</v>
       </c>
-      <c r="D40" s="285"/>
-      <c r="E40" s="285"/>
-      <c r="F40" s="285"/>
-      <c r="G40" s="285"/>
-      <c r="H40" s="285"/>
-      <c r="I40" s="286"/>
+      <c r="D40" s="321"/>
+      <c r="E40" s="321"/>
+      <c r="F40" s="321"/>
+      <c r="G40" s="321"/>
+      <c r="H40" s="321"/>
+      <c r="I40" s="322"/>
     </row>
     <row r="41" spans="2:13" ht="40.5" customHeight="1" thickBot="1">
       <c r="B41" s="101" t="s">
         <v>2293</v>
       </c>
-      <c r="C41" s="287" t="s">
+      <c r="C41" s="323" t="s">
         <v>2294</v>
       </c>
-      <c r="D41" s="285"/>
-      <c r="E41" s="285"/>
-      <c r="F41" s="285"/>
-      <c r="G41" s="285"/>
-      <c r="H41" s="285"/>
-      <c r="I41" s="286"/>
+      <c r="D41" s="321"/>
+      <c r="E41" s="321"/>
+      <c r="F41" s="321"/>
+      <c r="G41" s="321"/>
+      <c r="H41" s="321"/>
+      <c r="I41" s="322"/>
     </row>
     <row r="42" spans="2:13" ht="40.5" customHeight="1" thickBot="1">
       <c r="B42" s="102" t="s">
         <v>2295</v>
       </c>
-      <c r="C42" s="288" t="s">
+      <c r="C42" s="324" t="s">
         <v>2296</v>
       </c>
-      <c r="D42" s="288"/>
-      <c r="E42" s="288"/>
-      <c r="F42" s="288"/>
-      <c r="G42" s="288"/>
-      <c r="H42" s="288"/>
-      <c r="I42" s="289"/>
+      <c r="D42" s="324"/>
+      <c r="E42" s="324"/>
+      <c r="F42" s="324"/>
+      <c r="G42" s="324"/>
+      <c r="H42" s="324"/>
+      <c r="I42" s="325"/>
     </row>
     <row r="43" spans="2:13" ht="43.5" customHeight="1" thickBot="1">
       <c r="B43" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="276" t="s">
+      <c r="C43" s="312" t="s">
         <v>2297</v>
       </c>
-      <c r="D43" s="277"/>
-      <c r="E43" s="277"/>
-      <c r="F43" s="277"/>
-      <c r="G43" s="277"/>
-      <c r="H43" s="277"/>
-      <c r="I43" s="278"/>
+      <c r="D43" s="313"/>
+      <c r="E43" s="313"/>
+      <c r="F43" s="313"/>
+      <c r="G43" s="313"/>
+      <c r="H43" s="313"/>
+      <c r="I43" s="314"/>
     </row>
     <row r="44" spans="2:13" ht="13.5" customHeight="1" thickBot="1">
       <c r="B44" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="276" t="s">
+      <c r="C44" s="312" t="s">
         <v>2298</v>
       </c>
-      <c r="D44" s="277"/>
-      <c r="E44" s="277"/>
-      <c r="F44" s="277"/>
-      <c r="G44" s="277"/>
-      <c r="H44" s="277"/>
-      <c r="I44" s="278"/>
+      <c r="D44" s="313"/>
+      <c r="E44" s="313"/>
+      <c r="F44" s="313"/>
+      <c r="G44" s="313"/>
+      <c r="H44" s="313"/>
+      <c r="I44" s="314"/>
     </row>
     <row r="45" spans="2:13" ht="32.25" customHeight="1" thickBot="1">
       <c r="B45" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="276" t="s">
+      <c r="C45" s="312" t="s">
         <v>2299</v>
       </c>
-      <c r="D45" s="277"/>
-      <c r="E45" s="277"/>
-      <c r="F45" s="277"/>
-      <c r="G45" s="277"/>
-      <c r="H45" s="277"/>
-      <c r="I45" s="278"/>
+      <c r="D45" s="313"/>
+      <c r="E45" s="313"/>
+      <c r="F45" s="313"/>
+      <c r="G45" s="313"/>
+      <c r="H45" s="313"/>
+      <c r="I45" s="314"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="C36:I36"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C32:I32"/>
     <mergeCell ref="K21:M21"/>
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D11:H11"/>
@@ -66594,30 +66622,12 @@
     <mergeCell ref="D18:H18"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="C36:I36"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C38:I38"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H1" location="Ballot!A1" display="Ballot!A1"/>
@@ -68357,7 +68367,7 @@
       <c r="A3" s="330" t="s">
         <v>2308</v>
       </c>
-      <c r="B3" s="332" t="s">
+      <c r="B3" s="333" t="s">
         <v>2309</v>
       </c>
       <c r="C3" s="124" t="s">
@@ -68372,7 +68382,7 @@
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1">
       <c r="A4" s="331"/>
-      <c r="B4" s="333"/>
+      <c r="B4" s="334"/>
       <c r="C4" s="124" t="s">
         <v>2313</v>
       </c>
@@ -68385,7 +68395,7 @@
     </row>
     <row r="5" spans="1:5" ht="28.5" customHeight="1">
       <c r="A5" s="331"/>
-      <c r="B5" s="333"/>
+      <c r="B5" s="334"/>
       <c r="C5" s="124" t="s">
         <v>2316</v>
       </c>
@@ -68398,7 +68408,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1">
       <c r="A6" s="331"/>
-      <c r="B6" s="333"/>
+      <c r="B6" s="334"/>
       <c r="C6" s="124" t="s">
         <v>2318</v>
       </c>
@@ -68411,7 +68421,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1">
       <c r="A7" s="331"/>
-      <c r="B7" s="333"/>
+      <c r="B7" s="334"/>
       <c r="C7" s="124" t="s">
         <v>2257</v>
       </c>
@@ -68424,7 +68434,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1">
       <c r="A8" s="331"/>
-      <c r="B8" s="333"/>
+      <c r="B8" s="334"/>
       <c r="C8" s="124" t="s">
         <v>2321</v>
       </c>
@@ -68437,7 +68447,7 @@
     </row>
     <row r="9" spans="1:5" ht="28.5" customHeight="1">
       <c r="A9" s="331"/>
-      <c r="B9" s="333"/>
+      <c r="B9" s="334"/>
       <c r="C9" s="124" t="s">
         <v>2324</v>
       </c>
@@ -68450,7 +68460,7 @@
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1">
       <c r="A10" s="331"/>
-      <c r="B10" s="333"/>
+      <c r="B10" s="334"/>
       <c r="C10" s="124" t="s">
         <v>2326</v>
       </c>
@@ -68462,8 +68472,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A11" s="338"/>
-      <c r="B11" s="334"/>
+      <c r="A11" s="332"/>
+      <c r="B11" s="335"/>
       <c r="C11" s="124" t="s">
         <v>2329</v>
       </c>
@@ -68630,7 +68640,7 @@
       <c r="A26" s="330" t="s">
         <v>2354</v>
       </c>
-      <c r="B26" s="332" t="s">
+      <c r="B26" s="333" t="s">
         <v>2355</v>
       </c>
       <c r="C26" s="124" t="s">
@@ -68645,7 +68655,7 @@
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1">
       <c r="A27" s="331"/>
-      <c r="B27" s="333"/>
+      <c r="B27" s="334"/>
       <c r="C27" s="131" t="s">
         <v>2358</v>
       </c>
@@ -68658,7 +68668,7 @@
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1">
       <c r="A28" s="331"/>
-      <c r="B28" s="333"/>
+      <c r="B28" s="334"/>
       <c r="C28" s="131" t="s">
         <v>2360</v>
       </c>
@@ -68671,7 +68681,7 @@
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1">
       <c r="A29" s="331"/>
-      <c r="B29" s="333"/>
+      <c r="B29" s="334"/>
       <c r="C29" s="131" t="s">
         <v>2362</v>
       </c>
@@ -68684,7 +68694,7 @@
     </row>
     <row r="30" spans="1:5" ht="14.25" customHeight="1">
       <c r="A30" s="331"/>
-      <c r="B30" s="333"/>
+      <c r="B30" s="334"/>
       <c r="C30" s="131" t="s">
         <v>2364</v>
       </c>
@@ -68870,7 +68880,7 @@
       <c r="A46" s="330" t="s">
         <v>638</v>
       </c>
-      <c r="B46" s="335" t="s">
+      <c r="B46" s="336" t="s">
         <v>2389</v>
       </c>
       <c r="C46" s="124" t="s">
@@ -68885,7 +68895,7 @@
     </row>
     <row r="47" spans="1:5" ht="14.25" customHeight="1">
       <c r="A47" s="331"/>
-      <c r="B47" s="336"/>
+      <c r="B47" s="337"/>
       <c r="C47" s="124" t="s">
         <v>2391</v>
       </c>
@@ -68898,7 +68908,7 @@
     </row>
     <row r="48" spans="1:5" ht="14.25" customHeight="1">
       <c r="A48" s="331"/>
-      <c r="B48" s="337"/>
+      <c r="B48" s="338"/>
       <c r="C48" s="124" t="s">
         <v>2393</v>
       </c>
@@ -68962,7 +68972,7 @@
       <c r="A54" s="330" t="s">
         <v>2401</v>
       </c>
-      <c r="B54" s="332" t="s">
+      <c r="B54" s="333" t="s">
         <v>2402</v>
       </c>
       <c r="C54" s="124" t="s">
@@ -68977,7 +68987,7 @@
     </row>
     <row r="55" spans="1:5" ht="14.25" customHeight="1">
       <c r="A55" s="331"/>
-      <c r="B55" s="333"/>
+      <c r="B55" s="334"/>
       <c r="C55" s="124" t="s">
         <v>2405</v>
       </c>
@@ -68990,7 +69000,7 @@
     </row>
     <row r="56" spans="1:5" ht="14.25" customHeight="1">
       <c r="A56" s="331"/>
-      <c r="B56" s="334"/>
+      <c r="B56" s="335"/>
       <c r="C56" s="124" t="s">
         <v>2407</v>
       </c>
@@ -69192,18 +69202,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="B34:B43"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="B66:B67"/>
     <mergeCell ref="A69:A70"/>
@@ -69214,6 +69212,18 @@
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="B34:B43"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/ballots/2013-01 Draft/Comments-FHIR_R1_O2_2013JAN.xlsx
+++ b/ballots/2013-01 Draft/Comments-FHIR_R1_O2_2013JAN.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11306" uniqueCount="2556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11308" uniqueCount="2556">
   <si>
     <t xml:space="preserve">BALLOT TITLE: </t>
   </si>
@@ -12419,23 +12419,8 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="19" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -12443,14 +12428,14 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -12463,6 +12448,12 @@
     <xf numFmtId="49" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -12488,23 +12479,32 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="19" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="11" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -12520,114 +12520,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="42" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -12671,6 +12563,114 @@
     <xf numFmtId="0" fontId="23" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="42" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -12687,9 +12687,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12709,6 +12706,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="56">
@@ -13101,20 +13101,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:99" ht="45.75" customHeight="1" thickTop="1">
-      <c r="A1" s="250" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="250"/>
-      <c r="C1" s="250"/>
-      <c r="D1" s="251"/>
+      <c r="A1" s="246" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="247"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="252" t="s">
+      <c r="F1" s="268" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="254"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="270"/>
       <c r="K1" s="4"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -13122,12 +13122,12 @@
       <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:99">
-      <c r="A2" s="250" t="s">
+      <c r="A2" s="246" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="250"/>
-      <c r="C2" s="250"/>
-      <c r="D2" s="251"/>
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="247"/>
       <c r="E2" s="3"/>
       <c r="F2" s="6" t="s">
         <v>3</v>
@@ -13143,20 +13143,20 @@
       <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:99" ht="18.75" customHeight="1">
-      <c r="A3" s="245" t="s">
+      <c r="A3" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="245"/>
-      <c r="C3" s="245"/>
-      <c r="D3" s="246"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="264"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="255" t="s">
+      <c r="F3" s="251" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="257"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="253"/>
       <c r="K3" s="10"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -13164,18 +13164,18 @@
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:99" ht="18.75" customHeight="1">
-      <c r="A4" s="245" t="s">
+      <c r="A4" s="263" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="245"/>
-      <c r="C4" s="245"/>
-      <c r="D4" s="246"/>
+      <c r="B4" s="263"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="264"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="247"/>
-      <c r="G4" s="248"/>
-      <c r="H4" s="248"/>
-      <c r="I4" s="248"/>
-      <c r="J4" s="249"/>
+      <c r="F4" s="265"/>
+      <c r="G4" s="266"/>
+      <c r="H4" s="266"/>
+      <c r="I4" s="266"/>
+      <c r="J4" s="267"/>
       <c r="K4" s="10"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -13183,18 +13183,18 @@
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:99" ht="18.75" customHeight="1">
-      <c r="A5" s="258" t="s">
+      <c r="A5" s="256" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="258"/>
-      <c r="C5" s="258"/>
-      <c r="D5" s="259"/>
+      <c r="B5" s="256"/>
+      <c r="C5" s="256"/>
+      <c r="D5" s="257"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="255"/>
-      <c r="G5" s="256"/>
-      <c r="H5" s="256"/>
-      <c r="I5" s="256"/>
-      <c r="J5" s="257"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252"/>
+      <c r="J5" s="253"/>
       <c r="K5" s="10"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -13202,18 +13202,18 @@
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:99" ht="29.25" customHeight="1">
-      <c r="A6" s="260" t="s">
+      <c r="A6" s="258" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="260"/>
-      <c r="C6" s="260"/>
-      <c r="D6" s="261"/>
+      <c r="B6" s="258"/>
+      <c r="C6" s="258"/>
+      <c r="D6" s="259"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="255"/>
-      <c r="G6" s="256"/>
-      <c r="H6" s="256"/>
-      <c r="I6" s="256"/>
-      <c r="J6" s="257"/>
+      <c r="F6" s="251"/>
+      <c r="G6" s="252"/>
+      <c r="H6" s="252"/>
+      <c r="I6" s="252"/>
+      <c r="J6" s="253"/>
       <c r="K6" s="10"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -13221,18 +13221,18 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:99" ht="15.75" customHeight="1">
-      <c r="A7" s="250" t="s">
+      <c r="A7" s="246" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="250"/>
-      <c r="C7" s="250"/>
-      <c r="D7" s="251"/>
+      <c r="B7" s="246"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="247"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="262"/>
-      <c r="G7" s="263"/>
-      <c r="H7" s="263"/>
-      <c r="I7" s="263"/>
-      <c r="J7" s="264"/>
+      <c r="F7" s="260"/>
+      <c r="G7" s="261"/>
+      <c r="H7" s="261"/>
+      <c r="I7" s="261"/>
+      <c r="J7" s="262"/>
       <c r="K7" s="4"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
@@ -13242,18 +13242,18 @@
       <c r="CU7" s="16"/>
     </row>
     <row r="8" spans="1:99" ht="17.25" customHeight="1">
-      <c r="A8" s="250" t="s">
+      <c r="A8" s="246" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="250"/>
-      <c r="C8" s="250"/>
-      <c r="D8" s="251"/>
+      <c r="B8" s="246"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="247"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="266"/>
-      <c r="G8" s="267"/>
-      <c r="H8" s="267"/>
-      <c r="I8" s="267"/>
-      <c r="J8" s="268"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="249"/>
+      <c r="I8" s="249"/>
+      <c r="J8" s="250"/>
       <c r="K8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -13261,18 +13261,18 @@
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:99" ht="62.25" customHeight="1">
-      <c r="A9" s="250" t="s">
+      <c r="A9" s="246" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="250"/>
-      <c r="C9" s="250"/>
-      <c r="D9" s="251"/>
+      <c r="B9" s="246"/>
+      <c r="C9" s="246"/>
+      <c r="D9" s="247"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="255"/>
-      <c r="G9" s="256"/>
-      <c r="H9" s="256"/>
-      <c r="I9" s="256"/>
-      <c r="J9" s="257"/>
+      <c r="F9" s="251"/>
+      <c r="G9" s="252"/>
+      <c r="H9" s="252"/>
+      <c r="I9" s="252"/>
+      <c r="J9" s="253"/>
       <c r="K9" s="18"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
@@ -13280,19 +13280,19 @@
       <c r="P9" s="19"/>
     </row>
     <row r="10" spans="1:99" ht="66.75" customHeight="1">
-      <c r="A10" s="269">
+      <c r="A10" s="254">
         <f>IF(Ov=Setup!C9,Disclaimer2,IF(Ov=Setup!B9,Disclaimer,IF(Ov=Setup!D9,,)))</f>
         <v>0</v>
       </c>
-      <c r="B10" s="269"/>
-      <c r="C10" s="269"/>
-      <c r="D10" s="269"/>
-      <c r="E10" s="269"/>
-      <c r="F10" s="269"/>
-      <c r="G10" s="269"/>
-      <c r="H10" s="269"/>
-      <c r="I10" s="269"/>
-      <c r="J10" s="269"/>
+      <c r="B10" s="254"/>
+      <c r="C10" s="254"/>
+      <c r="D10" s="254"/>
+      <c r="E10" s="254"/>
+      <c r="F10" s="254"/>
+      <c r="G10" s="254"/>
+      <c r="H10" s="254"/>
+      <c r="I10" s="254"/>
+      <c r="J10" s="254"/>
     </row>
     <row r="11" spans="1:99" ht="30.75" customHeight="1">
       <c r="F11" s="20" t="s">
@@ -13312,12 +13312,12 @@
       <c r="F21" s="24"/>
     </row>
     <row r="23" spans="6:7" ht="114.75" customHeight="1">
-      <c r="F23" s="270"/>
-      <c r="G23" s="270"/>
+      <c r="F23" s="255"/>
+      <c r="G23" s="255"/>
     </row>
     <row r="24" spans="6:7" ht="409.5" customHeight="1">
-      <c r="F24" s="265"/>
-      <c r="G24" s="265"/>
+      <c r="F24" s="245"/>
+      <c r="G24" s="245"/>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" s="25"/>
@@ -13325,6 +13325,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:J7"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="F8:J8"/>
@@ -13332,19 +13345,6 @@
     <mergeCell ref="F9:J9"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:J3"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Organization You Represent" prompt="Please put the name of the HL7 member organization you represent if it is different from the name of the organization you are employed by.  " sqref="F6"/>
@@ -13374,7 +13374,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E197" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F219" sqref="F219"/>
+      <selection pane="bottomRight" activeCell="A220" sqref="A220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -51542,7 +51542,9 @@
       <c r="Q523" s="52" t="s">
         <v>1616</v>
       </c>
-      <c r="R523" s="52"/>
+      <c r="R523" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S523" s="52"/>
       <c r="T523" s="53"/>
       <c r="U523" s="53"/>
@@ -51738,7 +51740,9 @@
       <c r="Q526" s="52" t="s">
         <v>1625</v>
       </c>
-      <c r="R526" s="52"/>
+      <c r="R526" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="S526" s="52"/>
       <c r="T526" s="53"/>
       <c r="U526" s="53"/>
@@ -65234,7 +65238,7 @@
       </filters>
     </filterColumn>
     <filterColumn colId="17">
-      <filters blank="1">
+      <filters>
         <filter val="N"/>
       </filters>
     </filterColumn>
@@ -65948,10 +65952,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
-      <c r="H1" s="278" t="s">
+      <c r="H1" s="317" t="s">
         <v>2234</v>
       </c>
-      <c r="I1" s="278"/>
+      <c r="I1" s="317"/>
     </row>
     <row r="2" spans="2:14" ht="15.75" customHeight="1">
       <c r="B2" s="75" t="s">
@@ -65966,16 +65970,16 @@
       <c r="I2" s="77"/>
     </row>
     <row r="3" spans="2:14" ht="303.75" customHeight="1" thickBot="1">
-      <c r="B3" s="279" t="s">
+      <c r="B3" s="318" t="s">
         <v>2236</v>
       </c>
-      <c r="C3" s="280"/>
-      <c r="D3" s="280"/>
-      <c r="E3" s="280"/>
-      <c r="F3" s="280"/>
-      <c r="G3" s="280"/>
-      <c r="H3" s="280"/>
-      <c r="I3" s="281"/>
+      <c r="C3" s="319"/>
+      <c r="D3" s="319"/>
+      <c r="E3" s="319"/>
+      <c r="F3" s="319"/>
+      <c r="G3" s="319"/>
+      <c r="H3" s="319"/>
+      <c r="I3" s="320"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
       <c r="J4" s="25"/>
@@ -65993,16 +65997,16 @@
       <c r="I5" s="77"/>
     </row>
     <row r="6" spans="2:14" ht="18" customHeight="1">
-      <c r="B6" s="282" t="s">
+      <c r="B6" s="300" t="s">
         <v>2238</v>
       </c>
-      <c r="C6" s="283"/>
-      <c r="D6" s="283"/>
-      <c r="E6" s="283"/>
-      <c r="F6" s="283"/>
-      <c r="G6" s="283"/>
-      <c r="H6" s="283"/>
-      <c r="I6" s="284"/>
+      <c r="C6" s="301"/>
+      <c r="D6" s="301"/>
+      <c r="E6" s="301"/>
+      <c r="F6" s="301"/>
+      <c r="G6" s="301"/>
+      <c r="H6" s="301"/>
+      <c r="I6" s="302"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -66012,15 +66016,15 @@
       <c r="B7" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="285" t="s">
+      <c r="C7" s="321" t="s">
         <v>2239</v>
       </c>
-      <c r="D7" s="286"/>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="286"/>
-      <c r="H7" s="286"/>
-      <c r="I7" s="287"/>
+      <c r="D7" s="322"/>
+      <c r="E7" s="322"/>
+      <c r="F7" s="322"/>
+      <c r="G7" s="322"/>
+      <c r="H7" s="322"/>
+      <c r="I7" s="323"/>
       <c r="J7" s="79"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -66030,15 +66034,15 @@
       <c r="B8" s="80" t="s">
         <v>2240</v>
       </c>
-      <c r="C8" s="288" t="s">
+      <c r="C8" s="324" t="s">
         <v>2241</v>
       </c>
-      <c r="D8" s="288"/>
-      <c r="E8" s="288"/>
-      <c r="F8" s="288"/>
-      <c r="G8" s="288"/>
-      <c r="H8" s="288"/>
-      <c r="I8" s="289"/>
+      <c r="D8" s="324"/>
+      <c r="E8" s="324"/>
+      <c r="F8" s="324"/>
+      <c r="G8" s="324"/>
+      <c r="H8" s="324"/>
+      <c r="I8" s="325"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -66048,15 +66052,15 @@
       <c r="B9" s="81" t="s">
         <v>2242</v>
       </c>
-      <c r="C9" s="276" t="s">
+      <c r="C9" s="315" t="s">
         <v>2243</v>
       </c>
-      <c r="D9" s="276"/>
-      <c r="E9" s="276"/>
-      <c r="F9" s="276"/>
-      <c r="G9" s="276"/>
-      <c r="H9" s="276"/>
-      <c r="I9" s="277"/>
+      <c r="D9" s="315"/>
+      <c r="E9" s="315"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="315"/>
+      <c r="H9" s="315"/>
+      <c r="I9" s="316"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -66067,13 +66071,13 @@
       <c r="C10" s="83" t="s">
         <v>2244</v>
       </c>
-      <c r="D10" s="291" t="s">
+      <c r="D10" s="313" t="s">
         <v>2245</v>
       </c>
       <c r="E10" s="292"/>
       <c r="F10" s="292"/>
       <c r="G10" s="292"/>
-      <c r="H10" s="293"/>
+      <c r="H10" s="314"/>
       <c r="I10" s="84"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -66085,13 +66089,13 @@
       <c r="C11" s="83" t="s">
         <v>2246</v>
       </c>
-      <c r="D11" s="291" t="s">
+      <c r="D11" s="313" t="s">
         <v>2247</v>
       </c>
       <c r="E11" s="292"/>
       <c r="F11" s="292"/>
       <c r="G11" s="292"/>
-      <c r="H11" s="293"/>
+      <c r="H11" s="314"/>
       <c r="I11" s="84"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -66104,13 +66108,13 @@
       <c r="C12" s="83" t="s">
         <v>2248</v>
       </c>
-      <c r="D12" s="291" t="s">
+      <c r="D12" s="313" t="s">
         <v>2249</v>
       </c>
       <c r="E12" s="292"/>
       <c r="F12" s="292"/>
       <c r="G12" s="292"/>
-      <c r="H12" s="293"/>
+      <c r="H12" s="314"/>
       <c r="I12" s="84"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -66122,13 +66126,13 @@
       <c r="C13" s="83" t="s">
         <v>2250</v>
       </c>
-      <c r="D13" s="291" t="s">
+      <c r="D13" s="313" t="s">
         <v>2251</v>
       </c>
       <c r="E13" s="292"/>
       <c r="F13" s="292"/>
       <c r="G13" s="292"/>
-      <c r="H13" s="293"/>
+      <c r="H13" s="314"/>
       <c r="I13" s="84"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -66140,13 +66144,13 @@
       <c r="C14" s="83" t="s">
         <v>2252</v>
       </c>
-      <c r="D14" s="291" t="s">
+      <c r="D14" s="313" t="s">
         <v>2253</v>
       </c>
       <c r="E14" s="292"/>
       <c r="F14" s="292"/>
       <c r="G14" s="292"/>
-      <c r="H14" s="293"/>
+      <c r="H14" s="314"/>
       <c r="I14" s="84"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -66158,13 +66162,13 @@
       <c r="C15" s="83" t="s">
         <v>2254</v>
       </c>
-      <c r="D15" s="291" t="s">
+      <c r="D15" s="313" t="s">
         <v>2255</v>
       </c>
       <c r="E15" s="292"/>
       <c r="F15" s="292"/>
       <c r="G15" s="292"/>
-      <c r="H15" s="293"/>
+      <c r="H15" s="314"/>
       <c r="I15" s="84"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -66176,13 +66180,13 @@
       <c r="C16" s="83" t="s">
         <v>2256</v>
       </c>
-      <c r="D16" s="291" t="s">
+      <c r="D16" s="313" t="s">
         <v>2257</v>
       </c>
       <c r="E16" s="292"/>
       <c r="F16" s="292"/>
       <c r="G16" s="292"/>
-      <c r="H16" s="293"/>
+      <c r="H16" s="314"/>
       <c r="I16" s="84"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -66194,13 +66198,13 @@
       <c r="C17" s="83" t="s">
         <v>2258</v>
       </c>
-      <c r="D17" s="291" t="s">
+      <c r="D17" s="313" t="s">
         <v>2259</v>
       </c>
       <c r="E17" s="292"/>
       <c r="F17" s="292"/>
       <c r="G17" s="292"/>
-      <c r="H17" s="293"/>
+      <c r="H17" s="314"/>
       <c r="I17" s="84"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -66212,13 +66216,13 @@
       <c r="C18" s="83" t="s">
         <v>2260</v>
       </c>
-      <c r="D18" s="291" t="s">
+      <c r="D18" s="313" t="s">
         <v>2261</v>
       </c>
       <c r="E18" s="292"/>
       <c r="F18" s="292"/>
       <c r="G18" s="292"/>
-      <c r="H18" s="293"/>
+      <c r="H18" s="314"/>
       <c r="I18" s="84"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -66243,15 +66247,15 @@
       <c r="B20" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="294" t="s">
+      <c r="C20" s="296" t="s">
         <v>2262</v>
       </c>
-      <c r="D20" s="294"/>
-      <c r="E20" s="294"/>
-      <c r="F20" s="294"/>
-      <c r="G20" s="294"/>
-      <c r="H20" s="294"/>
-      <c r="I20" s="295"/>
+      <c r="D20" s="296"/>
+      <c r="E20" s="296"/>
+      <c r="F20" s="296"/>
+      <c r="G20" s="296"/>
+      <c r="H20" s="296"/>
+      <c r="I20" s="297"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -66269,11 +66273,11 @@
       <c r="F21" s="292"/>
       <c r="G21" s="292"/>
       <c r="H21" s="292"/>
-      <c r="I21" s="296"/>
+      <c r="I21" s="293"/>
       <c r="J21" s="89"/>
-      <c r="K21" s="290"/>
-      <c r="L21" s="290"/>
-      <c r="M21" s="290"/>
+      <c r="K21" s="312"/>
+      <c r="L21" s="312"/>
+      <c r="M21" s="312"/>
     </row>
     <row r="22" spans="2:13" ht="27.75" customHeight="1">
       <c r="B22" s="80" t="s">
@@ -66287,7 +66291,7 @@
       <c r="F22" s="292"/>
       <c r="G22" s="292"/>
       <c r="H22" s="292"/>
-      <c r="I22" s="296"/>
+      <c r="I22" s="293"/>
       <c r="J22" s="89"/>
       <c r="K22" s="90"/>
       <c r="L22" s="90"/>
@@ -66297,45 +66301,45 @@
       <c r="B23" s="80" t="s">
         <v>2266</v>
       </c>
-      <c r="C23" s="299" t="s">
+      <c r="C23" s="294" t="s">
         <v>2267</v>
       </c>
-      <c r="D23" s="299"/>
-      <c r="E23" s="299"/>
-      <c r="F23" s="299"/>
-      <c r="G23" s="299"/>
-      <c r="H23" s="299"/>
-      <c r="I23" s="300"/>
+      <c r="D23" s="294"/>
+      <c r="E23" s="294"/>
+      <c r="F23" s="294"/>
+      <c r="G23" s="294"/>
+      <c r="H23" s="294"/>
+      <c r="I23" s="295"/>
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13" ht="18" customHeight="1">
       <c r="B24" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="294" t="s">
+      <c r="C24" s="296" t="s">
         <v>2268</v>
       </c>
-      <c r="D24" s="294"/>
-      <c r="E24" s="294"/>
-      <c r="F24" s="294"/>
-      <c r="G24" s="294"/>
-      <c r="H24" s="294"/>
-      <c r="I24" s="295"/>
+      <c r="D24" s="296"/>
+      <c r="E24" s="296"/>
+      <c r="F24" s="296"/>
+      <c r="G24" s="296"/>
+      <c r="H24" s="296"/>
+      <c r="I24" s="297"/>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13" ht="15.75" customHeight="1">
       <c r="B25" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="294" t="s">
+      <c r="C25" s="296" t="s">
         <v>2269</v>
       </c>
-      <c r="D25" s="294"/>
-      <c r="E25" s="294"/>
-      <c r="F25" s="294"/>
-      <c r="G25" s="294"/>
-      <c r="H25" s="294"/>
-      <c r="I25" s="295"/>
+      <c r="D25" s="296"/>
+      <c r="E25" s="296"/>
+      <c r="F25" s="296"/>
+      <c r="G25" s="296"/>
+      <c r="H25" s="296"/>
+      <c r="I25" s="297"/>
       <c r="J25" s="91"/>
       <c r="M25" s="2"/>
     </row>
@@ -66343,15 +66347,15 @@
       <c r="B26" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="294" t="s">
+      <c r="C26" s="296" t="s">
         <v>2270</v>
       </c>
-      <c r="D26" s="294"/>
-      <c r="E26" s="294"/>
-      <c r="F26" s="294"/>
-      <c r="G26" s="294"/>
-      <c r="H26" s="294"/>
-      <c r="I26" s="295"/>
+      <c r="D26" s="296"/>
+      <c r="E26" s="296"/>
+      <c r="F26" s="296"/>
+      <c r="G26" s="296"/>
+      <c r="H26" s="296"/>
+      <c r="I26" s="297"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -66361,28 +66365,28 @@
       <c r="B27" s="92" t="s">
         <v>2271</v>
       </c>
-      <c r="C27" s="301" t="s">
+      <c r="C27" s="298" t="s">
         <v>2272</v>
       </c>
-      <c r="D27" s="301"/>
-      <c r="E27" s="301"/>
-      <c r="F27" s="301"/>
-      <c r="G27" s="301"/>
-      <c r="H27" s="301"/>
-      <c r="I27" s="302"/>
+      <c r="D27" s="298"/>
+      <c r="E27" s="298"/>
+      <c r="F27" s="298"/>
+      <c r="G27" s="298"/>
+      <c r="H27" s="298"/>
+      <c r="I27" s="299"/>
       <c r="J27" s="25"/>
     </row>
     <row r="28" spans="2:13" ht="18" customHeight="1">
-      <c r="B28" s="282" t="s">
+      <c r="B28" s="300" t="s">
         <v>2273</v>
       </c>
-      <c r="C28" s="283"/>
-      <c r="D28" s="283"/>
-      <c r="E28" s="283"/>
-      <c r="F28" s="283"/>
-      <c r="G28" s="283"/>
-      <c r="H28" s="283"/>
-      <c r="I28" s="284"/>
+      <c r="C28" s="301"/>
+      <c r="D28" s="301"/>
+      <c r="E28" s="301"/>
+      <c r="F28" s="301"/>
+      <c r="G28" s="301"/>
+      <c r="H28" s="301"/>
+      <c r="I28" s="302"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -66446,15 +66450,15 @@
       <c r="B32" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="297" t="s">
+      <c r="C32" s="290" t="s">
         <v>2279</v>
       </c>
-      <c r="D32" s="297"/>
-      <c r="E32" s="297"/>
-      <c r="F32" s="297"/>
-      <c r="G32" s="297"/>
-      <c r="H32" s="297"/>
-      <c r="I32" s="298"/>
+      <c r="D32" s="290"/>
+      <c r="E32" s="290"/>
+      <c r="F32" s="290"/>
+      <c r="G32" s="290"/>
+      <c r="H32" s="290"/>
+      <c r="I32" s="291"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -66464,15 +66468,15 @@
       <c r="B33" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="297" t="s">
+      <c r="C33" s="290" t="s">
         <v>2280</v>
       </c>
-      <c r="D33" s="297"/>
-      <c r="E33" s="297"/>
-      <c r="F33" s="297"/>
-      <c r="G33" s="297"/>
-      <c r="H33" s="297"/>
-      <c r="I33" s="298"/>
+      <c r="D33" s="290"/>
+      <c r="E33" s="290"/>
+      <c r="F33" s="290"/>
+      <c r="G33" s="290"/>
+      <c r="H33" s="290"/>
+      <c r="I33" s="291"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -66482,15 +66486,15 @@
       <c r="B34" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="315" t="s">
+      <c r="C34" s="279" t="s">
         <v>2281</v>
       </c>
-      <c r="D34" s="315"/>
-      <c r="E34" s="315"/>
-      <c r="F34" s="315"/>
-      <c r="G34" s="315"/>
-      <c r="H34" s="315"/>
-      <c r="I34" s="316"/>
+      <c r="D34" s="279"/>
+      <c r="E34" s="279"/>
+      <c r="F34" s="279"/>
+      <c r="G34" s="279"/>
+      <c r="H34" s="279"/>
+      <c r="I34" s="280"/>
       <c r="J34" s="2"/>
       <c r="K34" s="90"/>
       <c r="L34" s="90"/>
@@ -66500,15 +66504,15 @@
       <c r="B35" s="96" t="s">
         <v>2282</v>
       </c>
-      <c r="C35" s="315" t="s">
+      <c r="C35" s="279" t="s">
         <v>2283</v>
       </c>
-      <c r="D35" s="315"/>
-      <c r="E35" s="315"/>
-      <c r="F35" s="315"/>
-      <c r="G35" s="315"/>
-      <c r="H35" s="315"/>
-      <c r="I35" s="316"/>
+      <c r="D35" s="279"/>
+      <c r="E35" s="279"/>
+      <c r="F35" s="279"/>
+      <c r="G35" s="279"/>
+      <c r="H35" s="279"/>
+      <c r="I35" s="280"/>
       <c r="J35" s="2"/>
       <c r="K35" s="90"/>
       <c r="L35" s="90"/>
@@ -66518,15 +66522,15 @@
       <c r="B36" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="315" t="s">
+      <c r="C36" s="279" t="s">
         <v>2284</v>
       </c>
-      <c r="D36" s="315"/>
-      <c r="E36" s="315"/>
-      <c r="F36" s="315"/>
-      <c r="G36" s="315"/>
-      <c r="H36" s="315"/>
-      <c r="I36" s="316"/>
+      <c r="D36" s="279"/>
+      <c r="E36" s="279"/>
+      <c r="F36" s="279"/>
+      <c r="G36" s="279"/>
+      <c r="H36" s="279"/>
+      <c r="I36" s="280"/>
       <c r="J36" s="2"/>
       <c r="K36" s="90"/>
       <c r="L36" s="90"/>
@@ -66536,15 +66540,15 @@
       <c r="B37" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="315" t="s">
+      <c r="C37" s="279" t="s">
         <v>2285</v>
       </c>
-      <c r="D37" s="315"/>
-      <c r="E37" s="315"/>
-      <c r="F37" s="315"/>
-      <c r="G37" s="315"/>
-      <c r="H37" s="315"/>
-      <c r="I37" s="316"/>
+      <c r="D37" s="279"/>
+      <c r="E37" s="279"/>
+      <c r="F37" s="279"/>
+      <c r="G37" s="279"/>
+      <c r="H37" s="279"/>
+      <c r="I37" s="280"/>
       <c r="J37" s="2"/>
       <c r="K37" s="90"/>
       <c r="L37" s="90"/>
@@ -66554,116 +66558,146 @@
       <c r="B38" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="317" t="s">
+      <c r="C38" s="281" t="s">
         <v>2286</v>
       </c>
-      <c r="D38" s="318"/>
-      <c r="E38" s="318"/>
-      <c r="F38" s="318"/>
-      <c r="G38" s="318"/>
-      <c r="H38" s="318"/>
-      <c r="I38" s="319"/>
+      <c r="D38" s="282"/>
+      <c r="E38" s="282"/>
+      <c r="F38" s="282"/>
+      <c r="G38" s="282"/>
+      <c r="H38" s="282"/>
+      <c r="I38" s="283"/>
     </row>
     <row r="39" spans="2:13" ht="54.75" customHeight="1" thickBot="1">
       <c r="B39" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="317" t="s">
+      <c r="C39" s="281" t="s">
         <v>2287</v>
       </c>
-      <c r="D39" s="318"/>
-      <c r="E39" s="318"/>
-      <c r="F39" s="318"/>
-      <c r="G39" s="318"/>
-      <c r="H39" s="318"/>
-      <c r="I39" s="319"/>
+      <c r="D39" s="282"/>
+      <c r="E39" s="282"/>
+      <c r="F39" s="282"/>
+      <c r="G39" s="282"/>
+      <c r="H39" s="282"/>
+      <c r="I39" s="283"/>
     </row>
     <row r="40" spans="2:13" ht="40.5" customHeight="1" thickBot="1">
       <c r="B40" s="100" t="s">
         <v>2288</v>
       </c>
-      <c r="C40" s="320" t="s">
+      <c r="C40" s="284" t="s">
         <v>2289</v>
       </c>
-      <c r="D40" s="321"/>
-      <c r="E40" s="321"/>
-      <c r="F40" s="321"/>
-      <c r="G40" s="321"/>
-      <c r="H40" s="321"/>
-      <c r="I40" s="322"/>
+      <c r="D40" s="285"/>
+      <c r="E40" s="285"/>
+      <c r="F40" s="285"/>
+      <c r="G40" s="285"/>
+      <c r="H40" s="285"/>
+      <c r="I40" s="286"/>
     </row>
     <row r="41" spans="2:13" ht="40.5" customHeight="1" thickBot="1">
       <c r="B41" s="101" t="s">
         <v>2290</v>
       </c>
-      <c r="C41" s="323" t="s">
+      <c r="C41" s="287" t="s">
         <v>2291</v>
       </c>
-      <c r="D41" s="321"/>
-      <c r="E41" s="321"/>
-      <c r="F41" s="321"/>
-      <c r="G41" s="321"/>
-      <c r="H41" s="321"/>
-      <c r="I41" s="322"/>
+      <c r="D41" s="285"/>
+      <c r="E41" s="285"/>
+      <c r="F41" s="285"/>
+      <c r="G41" s="285"/>
+      <c r="H41" s="285"/>
+      <c r="I41" s="286"/>
     </row>
     <row r="42" spans="2:13" ht="40.5" customHeight="1" thickBot="1">
       <c r="B42" s="102" t="s">
         <v>2292</v>
       </c>
-      <c r="C42" s="324" t="s">
+      <c r="C42" s="288" t="s">
         <v>2293</v>
       </c>
-      <c r="D42" s="324"/>
-      <c r="E42" s="324"/>
-      <c r="F42" s="324"/>
-      <c r="G42" s="324"/>
-      <c r="H42" s="324"/>
-      <c r="I42" s="325"/>
+      <c r="D42" s="288"/>
+      <c r="E42" s="288"/>
+      <c r="F42" s="288"/>
+      <c r="G42" s="288"/>
+      <c r="H42" s="288"/>
+      <c r="I42" s="289"/>
     </row>
     <row r="43" spans="2:13" ht="43.5" customHeight="1" thickBot="1">
       <c r="B43" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="312" t="s">
+      <c r="C43" s="276" t="s">
         <v>2294</v>
       </c>
-      <c r="D43" s="313"/>
-      <c r="E43" s="313"/>
-      <c r="F43" s="313"/>
-      <c r="G43" s="313"/>
-      <c r="H43" s="313"/>
-      <c r="I43" s="314"/>
+      <c r="D43" s="277"/>
+      <c r="E43" s="277"/>
+      <c r="F43" s="277"/>
+      <c r="G43" s="277"/>
+      <c r="H43" s="277"/>
+      <c r="I43" s="278"/>
     </row>
     <row r="44" spans="2:13" ht="13.5" customHeight="1" thickBot="1">
       <c r="B44" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="312" t="s">
+      <c r="C44" s="276" t="s">
         <v>2295</v>
       </c>
-      <c r="D44" s="313"/>
-      <c r="E44" s="313"/>
-      <c r="F44" s="313"/>
-      <c r="G44" s="313"/>
-      <c r="H44" s="313"/>
-      <c r="I44" s="314"/>
+      <c r="D44" s="277"/>
+      <c r="E44" s="277"/>
+      <c r="F44" s="277"/>
+      <c r="G44" s="277"/>
+      <c r="H44" s="277"/>
+      <c r="I44" s="278"/>
     </row>
     <row r="45" spans="2:13" ht="32.25" customHeight="1" thickBot="1">
       <c r="B45" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="312" t="s">
+      <c r="C45" s="276" t="s">
         <v>2296</v>
       </c>
-      <c r="D45" s="313"/>
-      <c r="E45" s="313"/>
-      <c r="F45" s="313"/>
-      <c r="G45" s="313"/>
-      <c r="H45" s="313"/>
-      <c r="I45" s="314"/>
+      <c r="D45" s="277"/>
+      <c r="E45" s="277"/>
+      <c r="F45" s="277"/>
+      <c r="G45" s="277"/>
+      <c r="H45" s="277"/>
+      <c r="I45" s="278"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C32:I32"/>
     <mergeCell ref="C45:I45"/>
     <mergeCell ref="C34:I34"/>
     <mergeCell ref="C35:I35"/>
@@ -66676,36 +66710,6 @@
     <mergeCell ref="C42:I42"/>
     <mergeCell ref="C43:I43"/>
     <mergeCell ref="C44:I44"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H1" location="Ballot!A1" display="Ballot!A1"/>
@@ -68445,7 +68449,7 @@
       <c r="A3" s="330" t="s">
         <v>2305</v>
       </c>
-      <c r="B3" s="333" t="s">
+      <c r="B3" s="332" t="s">
         <v>2306</v>
       </c>
       <c r="C3" s="124" t="s">
@@ -68460,7 +68464,7 @@
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1">
       <c r="A4" s="331"/>
-      <c r="B4" s="334"/>
+      <c r="B4" s="333"/>
       <c r="C4" s="124" t="s">
         <v>2310</v>
       </c>
@@ -68473,7 +68477,7 @@
     </row>
     <row r="5" spans="1:5" ht="28.5" customHeight="1">
       <c r="A5" s="331"/>
-      <c r="B5" s="334"/>
+      <c r="B5" s="333"/>
       <c r="C5" s="124" t="s">
         <v>2313</v>
       </c>
@@ -68486,7 +68490,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1">
       <c r="A6" s="331"/>
-      <c r="B6" s="334"/>
+      <c r="B6" s="333"/>
       <c r="C6" s="124" t="s">
         <v>2315</v>
       </c>
@@ -68499,7 +68503,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1">
       <c r="A7" s="331"/>
-      <c r="B7" s="334"/>
+      <c r="B7" s="333"/>
       <c r="C7" s="124" t="s">
         <v>2254</v>
       </c>
@@ -68512,7 +68516,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1">
       <c r="A8" s="331"/>
-      <c r="B8" s="334"/>
+      <c r="B8" s="333"/>
       <c r="C8" s="124" t="s">
         <v>2318</v>
       </c>
@@ -68525,7 +68529,7 @@
     </row>
     <row r="9" spans="1:5" ht="28.5" customHeight="1">
       <c r="A9" s="331"/>
-      <c r="B9" s="334"/>
+      <c r="B9" s="333"/>
       <c r="C9" s="124" t="s">
         <v>2321</v>
       </c>
@@ -68538,7 +68542,7 @@
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1">
       <c r="A10" s="331"/>
-      <c r="B10" s="334"/>
+      <c r="B10" s="333"/>
       <c r="C10" s="124" t="s">
         <v>2323</v>
       </c>
@@ -68550,8 +68554,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A11" s="332"/>
-      <c r="B11" s="335"/>
+      <c r="A11" s="338"/>
+      <c r="B11" s="334"/>
       <c r="C11" s="124" t="s">
         <v>2326</v>
       </c>
@@ -68718,7 +68722,7 @@
       <c r="A26" s="330" t="s">
         <v>2351</v>
       </c>
-      <c r="B26" s="333" t="s">
+      <c r="B26" s="332" t="s">
         <v>2352</v>
       </c>
       <c r="C26" s="124" t="s">
@@ -68733,7 +68737,7 @@
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1">
       <c r="A27" s="331"/>
-      <c r="B27" s="334"/>
+      <c r="B27" s="333"/>
       <c r="C27" s="131" t="s">
         <v>2355</v>
       </c>
@@ -68746,7 +68750,7 @@
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1">
       <c r="A28" s="331"/>
-      <c r="B28" s="334"/>
+      <c r="B28" s="333"/>
       <c r="C28" s="131" t="s">
         <v>2357</v>
       </c>
@@ -68759,7 +68763,7 @@
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1">
       <c r="A29" s="331"/>
-      <c r="B29" s="334"/>
+      <c r="B29" s="333"/>
       <c r="C29" s="131" t="s">
         <v>2359</v>
       </c>
@@ -68772,7 +68776,7 @@
     </row>
     <row r="30" spans="1:5" ht="14.25" customHeight="1">
       <c r="A30" s="331"/>
-      <c r="B30" s="334"/>
+      <c r="B30" s="333"/>
       <c r="C30" s="131" t="s">
         <v>2361</v>
       </c>
@@ -68958,7 +68962,7 @@
       <c r="A46" s="330" t="s">
         <v>638</v>
       </c>
-      <c r="B46" s="336" t="s">
+      <c r="B46" s="335" t="s">
         <v>2386</v>
       </c>
       <c r="C46" s="124" t="s">
@@ -68973,7 +68977,7 @@
     </row>
     <row r="47" spans="1:5" ht="14.25" customHeight="1">
       <c r="A47" s="331"/>
-      <c r="B47" s="337"/>
+      <c r="B47" s="336"/>
       <c r="C47" s="124" t="s">
         <v>2388</v>
       </c>
@@ -68986,7 +68990,7 @@
     </row>
     <row r="48" spans="1:5" ht="14.25" customHeight="1">
       <c r="A48" s="331"/>
-      <c r="B48" s="338"/>
+      <c r="B48" s="337"/>
       <c r="C48" s="124" t="s">
         <v>2390</v>
       </c>
@@ -69050,7 +69054,7 @@
       <c r="A54" s="330" t="s">
         <v>2398</v>
       </c>
-      <c r="B54" s="333" t="s">
+      <c r="B54" s="332" t="s">
         <v>2399</v>
       </c>
       <c r="C54" s="124" t="s">
@@ -69065,7 +69069,7 @@
     </row>
     <row r="55" spans="1:5" ht="14.25" customHeight="1">
       <c r="A55" s="331"/>
-      <c r="B55" s="334"/>
+      <c r="B55" s="333"/>
       <c r="C55" s="124" t="s">
         <v>2402</v>
       </c>
@@ -69078,7 +69082,7 @@
     </row>
     <row r="56" spans="1:5" ht="14.25" customHeight="1">
       <c r="A56" s="331"/>
-      <c r="B56" s="335"/>
+      <c r="B56" s="334"/>
       <c r="C56" s="124" t="s">
         <v>2404</v>
       </c>
@@ -69280,6 +69284,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="B34:B43"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="B66:B67"/>
     <mergeCell ref="A69:A70"/>
@@ -69290,18 +69306,6 @@
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="B34:B43"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
